--- a/outputs/science_&_technology/organization_cyber_science_&_technology.xlsx
+++ b/outputs/science_&_technology/organization_cyber_science_&_technology.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Youth of Georgia in GEORGIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Business, Innovation and Employment in NEW ZEALAND responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -491,27 +491,27 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Youth of Georgia in GEORGIA</t>
+          <t>Ministry of Business, Innovation and Employment in NEW ZEALAND</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Youth of Georgia</t>
+          <t>Ministry of Business, Innovation and Employment</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Youth of Georgia is responsible for connecting schools to the Internet and implementing filtered Internet connectivity to block access to potentially harmful sites, which is a form of technical security measure for schools[1]. The Ministry also supports child protection through the provision of Resource Officers in schools and has a sense of responsibility for child online protection issues[1]. However, the primary responsibility for national cybersecurity policy, technical coordination, and incident response lies with the Ministry of Justice and its agency, the Data Exchange Agency (DEA), which operates the Georgia CERT and leads cybersecurity efforts, including awareness raising and education[1]. The Ministry of Education's role is focused on the educational sector and child protection rather than overarching national cybersecurity governance, prevention, planning, response, or enforcement[1].</t>
+          <t>The Ministry of Business, Innovation and Employment (MBIE) is explicitly responsible for cybersecurity in New Zealand. MBIE is mentioned in national policy documents as having a key role in cybersecurity, particularly in the areas of communications policy, the Digital Economy, and regulatory frameworks[1]. MBIE hosts and manages CERT NZ, the national Computer Emergency Response Team, which is central to the country's cybersecurity incident response and coordination[3]. MBIE also leads or participates in cybersecurity committees and working groups, such as those established following industry summits, and is responsible for implementing legislation like the Telecommunications (Interception Capability and Security) Act 2013, which sets out obligations for network security and legal interception[1]. MBIE oversees information security standards and provides specialist consultancy services, risk strategies, and security architecture frameworks for government systems[2][5]. Furthermore, MBIE works with other government agencies, the private sector, and international partners on cybersecurity initiatives and events[3][7].</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.economy.ge/uploads/files/2017/projects/communications/bdt_18445.pdf', 'title': '[PDF] National child online safety assessment for Georgia', 'snippet': 'The assessment found low public awareness, lack of support for professionals, online bullying, and incoherent efforts in child online protection in Georgia.', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'http://www.ed.gov/teaching-and-administration/safe-learning-environments/school-safety-and-security/k-12-cybersecurity', 'title': 'K-12 Cybersecurity | U.S. Department of Education', 'snippet': 'Directing schools, districts and state educational agencies to CISA and FBI regional office points of contact to report cybersecurity incidents and support ...', 'date': '2025-09-17', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://gta.georgia.gov/georgia-cyber-workforce-academy', 'title': 'Georgia Cyber Workforce Academy', 'snippet': 'The Georgia Cyber Workforce Academy promotes cybersecurity awareness, offering courses like "Introduction and Basic Cybersecurity" and "Cyber Incident ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.georgiacyber.org/parents/learning-coach-responsibilities/overview-of-responsibilities', 'title': 'Overview of Responsibilities - Georgia Cyber Academy', 'snippet': 'As the parent or learning coach, you are responsible for monitoring your student at home to ensure they are attending live classes or sessions as required.', 'date': None, 'last_updated': '2025-07-13', 'matched': True}, {'url': 'https://www.atlantapublicschools.us/cms/lib/GA01000924/Centricity/domain/7849/jobdescriptions/job_description_mailmerge_files/JD3286.pdf', 'title': '[PDF] JOB DESCRIPTION CTAE Teacher (Cybersecurity) DIVISION', 'snippet': 'The CTAE Cybersecurity teacher teaches theoretical and practical concepts, prepares lessons, evaluates students, and makes industry connections.', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.mes.gov.ge/content.php?id=7375&amp;lang=eng', 'title': 'A Guide for Cybersecurity was created for Teachers', 'snippet': 'The National Center for Teacher Professional Development has created a video-guide for cybersecurity especially for teachers in line with ...', 'date': '2017-05-27', 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://gadoe.org/technology/cybersecurity/', 'title': 'Cybersecurity – Georgia Department of Education', 'snippet': 'We invite students to explore important themes in cybersecurity, like "Secure Our Schools," and harness their creativity to raise awareness about online safety!', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://mes.gov.ge/print.php?id=3940&amp;lang=eng', 'title': 'Ministry of Education, Science And Youth of Georgia', 'snippet': 'Cyber Security is indispensable part of the activities of any organization and a strong IT security system protects the agencies/ governmental ...', 'date': '2012-04-10', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.dpmc.govt.nz/sites/default/files/2017-12/bim-cyber-security-policy-oct-2017.pdf', 'title': '[PDF] Briefing to incoming minister responsible for cyber security policy', 'snippet': 'The Ministry of Business, Innovation and Employment (MBIE) links with cyber security in the areas of communications policy, the Digital Economy.', 'date': '2017-10-30', 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://www.mbie.govt.nz/position-descriptions/cyber-security/cyber-security-portfolio-manager', 'title': 'Cyber Security Portfolio Manager | Ministry of Business, Innovation ...', 'snippet': 'The Cyber Security Portfolio Manager is responsible for supporting cyber security assurance across a Portfolio of MBIE Business Groups.', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.gw.govt.nz/assets/Documents/2021/12/Cyber-security-skills-report-final.pdf', 'title': '[PDF] Cyber Security Skills Report - Greater Wellington Regional Council', 'snippet': '2.1.\u200b\u200b Cyber security is at the forefront of protecting critical infrastructure, business and computer networks from attack by foreign nations, criminal groups, ...', 'date': None, 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://insiconcyber.com/blog/nz-cybersecurity-landscape', 'title': "How New Zealand's Cybersecurity Landscape is Reshaping Board ...", 'snippet': "Explore how New Zealand's evolving cybersecurity regulations are reshaping director accountability for Australian businesses with ...", 'date': '2025-09-11', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://www.mbie.govt.nz/position-descriptions/cyber-security/cyber-security-architect', 'title': 'Cyber Security Architect | Ministry of Business, Innovation ...', 'snippet': 'The Cyber Security Architect is responsible for conducting cyber security risk assessments across current and future ICT solutions using industry best practice.', 'date': '2024-01-01', 'last_updated': '2024-09-26', 'matched': True}, {'url': 'https://www.nzsis.govt.nz/assets/NZSIS-Documents/Secure-Innovation-Security-Advice-for-Emerging-Technology-Companies.pdf', 'title': '[PDF] innovation - New Zealand Security Intelligence Service', 'snippet': 'Know the threats – understand the potential vulnerabilities that might put your product or innovation at risk. 2. Secure your business environment – manage the ...', 'date': None, 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.ncsc.govt.nz/insights-and-research/cyber-threat-reports/ncsc-cyber-threat-report-20222023/about-our-work/', 'title': 'About our work - the National Cyber Security Centre', 'snippet': 'We provide system leadership for government cyber security. One of the ways we provide leadership is by developing standards and frameworks for Aotearoa New ...', 'date': '2023-08-31', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.upguard.com/blog/new-zealand-cybersecurity-standards', 'title': "A Guide to New Zealand's Cybersecurity Standards - UpGuard", 'snippet': "This blog provides a comprehensive overview of New Zealand's cybersecurity standards, including which specific sectors different regulations apply to.", 'date': '2025-07-10', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://jobs.govt.nz/jobs/All-Locations/HNZ-1889545', 'title': 'Security Analyst - Cyber | All Locations | NZ Government Jobs', 'snippet': "Security Analysts are integral to safeguarding Health New Zealand's systems, patient data, and digital assets through proactive threat detection ...", 'date': '2025-10-30', 'last_updated': '2025-10-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Telecommunications, Science and Technology and Industry in SAINT VINCENT AND THE GRENADINES responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Culture and Science of Mongolia in MONGOLIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -536,17 +536,17 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ministry of Telecommunications, Science and Technology and Industry in SAINT VINCENT AND THE GRENADINES</t>
+          <t>Ministry of Education, Culture and Science of Mongolia in MONGOLIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ministry of Telecommunications, Science and Technology and Industry</t>
+          <t>Ministry of Education, Culture and Science of Mongolia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -556,24 +556,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The Ministry of Telecommunications, Science and Technology and Industry is not explicitly named as the lead for cybersecurity in Saint Vincent and the Grenadines. Instead, the Information Technology Services Division (ITSD) is mentioned as collaborating with the National Emergency Management Organisation (NEMO) and the International Telecommunication Union (ITU) on the development of the National Emergency Telecommunication Plan (NETP), which includes aspects of emergency telecommunications and resilience, but not comprehensive cybersecurity policy or technical coordination [1]. The Ministry is not cited as hosting a national CERT/CSIRT/CIRT, nor is it referenced as leading or being a member of a cybersecurity committee or council. There is no evidence that the Ministry oversees information security standards or network protection for the country. While the Ministry may be involved in broader telecommunications and technology policy, the available evidence points to the ITSD and NEMO as the primary actors in emergency telecommunications and disaster response, rather than the Ministry itself being responsible for cybersecurity governance, prevention, planning, response, or enforcement [1].</t>
+          <t>The Ministry of Education, Culture and Science of Mongolia is responsible for integrating cybersecurity education and digital literacy into the national curriculum, as evidenced by the 2019 Ministerial Decree No. A/491, which approved the inclusion of ICT in the school curriculum, and the government's Long Term Development Policy – Vision 2050, which highlights the need to upgrade ICT training and cybersecurity education for learners[1]. The Ministry's mission also includes preparing highly educated and competitive human resources, which encompasses digital skills and lifelong learning[6]. However, the primary responsibility for national cybersecurity policy, technical coordination, and incident response lies with other entities, such as the Ministry of Digital Development, Innovation and Communications and the Cybersecurity Council led by the Prime Minister, as outlined in the 2021 Law on Cybersecurity and related government actions[1][2]. The Ministry of Education does not host a national CERT/CSIRT/CIRT, nor is it the lead for national cybersecurity strategy or technical standards. Its role is mainly educational and policy-related within the context of curriculum development and digital literacy, rather than direct cybersecurity governance or technical implementation[1][5].</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[{'url': 'https://security.gov.vc/security/index.php?option=com_content&amp;view=article&amp;id=980%3Adevelopment-of-a-national-emergency-telecommunication-plan-netp-12th-december-2023&amp;catid=19&amp;Itemid=195', 'title': 'Development Of A National Emergency Telecommunication Plan ...', 'snippet': 'The Government of Saint Vincent and the Grenadines is in the process of implementing a number of digital transformation initiatives across the ...', 'date': '2023-12-11', 'last_updated': '2025-07-08', 'matched': True}, {'url': 'https://www.caricomimpacs.org/articles/building-robust-long-term-defense-against-cyber-threats', 'title': 'Building robust, long-term defence against cyber threats', 'snippet': 'Building robust, long-term defence against cyber threats ... Grenada, with lead responsibility for Information, Communications and Technology (ICT) ...', 'date': '2025-09-04', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://caricom.org/tag/cyber-security/', 'title': 'cyber security – CARICOM', 'snippet': '2, CMC – Communications Minister Maxie Cuffie says the region needs to address issues related to cyber-security and information security to build confidence in ...', 'date': '2025-06-16', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.caricomimpacs.org/articles/cardtp-set-to-roll-out-cybercrime-and-cybersecurity-awareness-campaign-across-four-eastern-caribbean-states', 'title': 'CARDTP set to roll out Cybercrime and Cybersecurity Awareness ...', 'snippet': 'The campaign aims to raise cyber risk awareness, encourage protective behaviors, and empower vulnerable groups, especially seniors, women, and ...', 'date': '2025-08-26', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://www.gerardbest.com/stories/2017/12/13/st-vincent-strengthens-its-cyber-borders', 'title': 'St Vincent Strengthens its Cyber Borders - Gerard Best', 'snippet': 'St Vincent and the Grenadines became the latest Caribbean country to host a national cyber security symposium, the first of its kind for the territory.', 'date': '2017-12-13', 'last_updated': None, 'matched': True}, {'url': 'https://pcicaribbean.com/st-vincent-and-the-grenadines', 'title': 'PCI Caribbean | Compliance support | by G5 Cyber Security', 'snippet': 'Helping businesses in St. Vincent and the Grenadines to comply with the PCI DSS, the Data Security Standard (DSS) of the Payment Card Industry (PCI).', 'date': '2024-11-01', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://finance.gov.vc/finance/index.php/telecommunications', 'title': 'Telecommunications', 'snippet': 'Caribbean Cyber Security Workshops - 2016 · Children and young people online · Developing digital citizenship · Parents and guardians developing digital ...', 'date': None, 'last_updated': '2025-02-17', 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'Department and the Ministry of Information Technologies and Communications, in coordination ... million), Saint Vincent and the Grenadines (US$30 million), and ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/eastern-and-south-eastern-asia/mongolia/~technology', 'title': 'Mongolia | Technology - Education Profiles', 'snippet': 'The National ICT Policy aims to make citizens digitally literate; promote IT advancement to develop the education, knowledge and capability of ...', 'date': '2023-06-05', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://dig.watch/resource/cyber-security-law-of-mongolia', 'title': 'Cybersecurity Law of Mongolia | Digital Watch Observatory', 'snippet': 'The purpose of this law is to regulate relations pertaining to establishing the system, principles, and legal framework in ensuring cybersecurity, and ensuring ...', 'date': '2024-12-23', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://openjicareport.jica.go.jp/pdf/1000050862.pdf', 'title': '[PDF] MONGOLIA PROJECT FOR DEVELOPMENT OF HUMAN ...', 'snippet': 'The objective of the Project is to improve cybersecurity education programs in Mongolia. Three main project outputs are expected: 1) Build a collaboration ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mn_2022/', 'title': 'NCSI :: Mongolia - National Cyber Security Index', 'snippet': "GENERAL CYBER SECURITY INDICATORS ; 3.1. Cyber safety competencies in primary or secondary education · Official curriculum or official report ; 3.2. Bachelor's ...", 'date': '2020-12-21', 'last_updated': '2024-11-05', 'matched': True}, {'url': 'https://pathwayscommission.bsg.ox.ac.uk/sites/default/files/2021-11/Mongolia_Strategy_Primer%20Accessible.pdf', 'title': '[PDF] Mongolia in the Digital Age, National Digital Strategy Primer for ...', 'snippet': 'Therefore, Mongolia needs to improve cybersecurity by developing and implementing cybersecurity national framework and heavily investing into capacity building.', 'date': None, 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://en.moe.gov.mn/mission', 'title': 'Mission - Ministry of Education and Science of Mongolia', 'snippet': 'The mission of the Ministry is to determine the right and appropriate policy in the field of education and science in accordance with the development trends.', 'date': '2015-06-01', 'last_updated': '2024-12-16', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/CyberDrill-2025/ASP25/Presentations/1.%20Minister%20of%20Digital%20Development,%20Innovation%20and%20Communications.pdf', 'title': "[PDF] Mongolia's CyberSecurity Journey - ITU", 'snippet': "MONGOLIA. MINISTRY OF DIGITAL DEVELOPMENT,. INNOVATION AND COMMUNICATIONS. MONGOLIA'S. CyberSecurity. JOURNEY: BATSHUGAR ENKHBAYAR. The ...", 'date': '2023-06-07', 'last_updated': None, 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/949791604487617663/pdf/Towards-Mongolia-s-Long-Term-Development-Policy-Vision-2050-Advancing-Education-Equity-Efficiency-and-Outcomes.pdf', 'title': "[PDF] Towards Mongolia's Long-term Development Policy Vision 2050", 'snippet': '4.1 Education budget structure. The Ministry of Education, Culture, Science and Sport manages the education recurrent and capital/investment budget ...', 'date': None, 'last_updated': '2025-08-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology in PAPUA NEW GUINEA responsible for cybersecurity?
+          <t xml:space="preserve">Is the NONE in LIBERIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -581,27 +581,27 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology in PAPUA NEW GUINEA</t>
+          <t>NONE in LIBERIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Research, Science and Technology in Papua New Guinea is involved in cybersecurity primarily within the educational sector. It works closely with cybersecurity experts to develop security protocols and improve protection of sensitive educational data, and incorporates cybersecurity and cyber safety education into curricula to raise awareness and build capacity [1][2][3]. However, the Ministry does not appear to have a national mandate or lead roles such as hosting the national CERT/CSIRT or coordinating cybersecurity governance across sectors. The National Cyber Security Agency and the National Cyber Security Center, under the Department of ICT and related governmental bodies, lead national cybersecurity strategies, incident response, and coordination [2][3][4]. The Ministry’s cybersecurity role is more focused on educational institutions and capacity building than on overall national cybersecurity policy or enforcement.</t>
+          <t>There is no governmental organization named 'NONE' in Liberia. The inquiry appears to confuse the term 'NONE' as an entity. In Liberia, cybersecurity responsibilities are distributed among several key institutions: the Ministry of Posts and Telecommunications (MoPT) holds broad policy and oversight responsibility, including chairing the Liberia National Cybersecurity Center (LNCC); the Liberia Cyber Crime Prevention and Mitigation Agency (LCCPMA), a nongovernmental agency accredited by the Ministry of Justice, provides cybersecurity education, digital forensics training, and supports public and private entities in prevention and mitigation efforts; the National Security Agency (NSA) handles intelligence-related cybersecurity functions; and the Liberia National Cybersecurity Center (LNCC) with its technical arm, the Liberia Cybersecurity Emergency Response Team (LCERT), engages in technical coordination and incident response. No official documents or credible sources identify any organization literally named 'NONE' as responsible for cybersecurity governance, planning, or enforcement in Liberia[1][3][4][5][7].</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[{'url': 'https://pacificislands.ai/png-takes-the-ai-leap-higher-education-secretary-pushes-for-more-ai-integration-in-universities/', 'title': 'PNG Takes the AI Leap: Higher Education Secretary Pushes for ...', 'snippet': 'The Ministry is working closely with cybersecurity experts to develop robust security protocols and invest in cutting-edge technologies to ...', 'date': '2024-08-15', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://dig.watch/resource/the-national-cyber-security-policy-2021-of-papua-new-guinea', 'title': 'The National Cyber Security Policy 2021 of Papua New Guinea', 'snippet': 'Work with all ministries, including the Ministry of Education and the Ministry of Higher Education, to include cybersecurity and cyber safety in future ...', 'date': '2024-10-25', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.ict.gov.pg/Policies/Cyber%20Security%20Policy/NATIONAL%20CYBERSECURITY%20POLICY%202021%20(Final)%20-%20031121-%20PRINT.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY POLICY 2021 - Department of ICT', 'snippet': "The policy aims to strengthen PNG's cyber security, secure from threats, and develop laws/structures for incident management, calling for all to enhance ...", 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.digital.gov.pg/index.php/digital-services/cyber-security/', 'title': 'CYBER SECURITY - DIGITAL GOVERNMENT', 'snippet': 'The PNG National Cyber Security Center (NCSC) protects critical information infrastructure, monitors and responds to cyber threats, provides guidance on ...', 'date': '2024-01-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://education-profiles.org/oceania/papua-new-guinea/~technology', 'title': 'Papua New Guinea | Technology - Education Profiles', 'snippet': 'The 2014 Cybercrime Policy recognizes the need to educate Papua New Guinea citizens on cybercrime and cybersecurity issues, supporting the ...', 'date': '2024-08-06', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.ict.gov.pg/wp-content/uploads/2024/policies/Final%20PNG%20NCSS-%20rev%2004-04-24.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY 2024 – 2030', 'snippet': 'cybersecurity landscape of Papua New Guinea. • Conduct regular cybersecurity investigation and audits and risk assessments, focusing on vulnerabilities to ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://web.dherst.gov.pg/images/2025-pubs/digitalisation-policy/Policy%20on%20Digitalisation_of_PNG_Uni+RI.pdf', 'title': '[PDF] policy on the digitalization of papua new guinea universities and ...', 'snippet': 'The policy aims to enhance education quality, integrate global standards, and foster a modern ecosystem, using a centralized digital system and ...', 'date': '2025-01-06', 'last_updated': None, 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-papua-new-guinea-png-education-how-ai-is-helping-education-companies-in-papua-new-guinea-cut-costs-and-improve-efficiency', 'title': 'How AI Is Helping Education Companies in Papua New Guinea Cut ...', 'snippet': 'Calls for cybersecurity in curricula and capacity building - integrate cyber‑safety into staff training and student lessons. Data protection gap ...', 'date': '2025-09-13', 'last_updated': '2025-09-19', 'matched': True}]</t>
+          <t>[{'url': 'https://thegfce.org/member-and-partner/liberia-cyber-crime-prevention-and-mitigation-agency-lccpma/', 'title': 'Liberia Cyber Crime Prevention And Mitigation Agency (LCCPMA)', 'snippet': "LCCPMA's Mission is to enhance the ability of public and private institutions within the Republic of Liberia ability to prevent and mitigate cybercrimes through ...", 'date': None, 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://liberianinvestigator.com/commentary/cybersecurity-in-government-strengthening-culture-protecting-integrity-and-mitigating-risks-in-liberias-macs-and-private-sector/', 'title': 'Cybersecurity in Government: Strengthening Culture, Protecting ...', 'snippet': "By promoting digital literacy programs and cybersecurity awareness campaigns, Liberia's MACs can educate citizens on safe online practices, ...", 'date': '2024-11-01', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.mfwa.org/wp-content/uploads/2021/10/State-of-Internet-Freedom-In-Liberia-2020.pdf', 'title': '[PDF] State-of-Internet-Freedom-In-Liberia-2020.pdf', 'snippet': 'The LCCPMA was established in 2019 to provide cyber security and digital forensics education to the government and people of Liberia. It has as its mission the ...', 'date': None, 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/National_Security_Agency_(Liberia)', 'title': 'National Security Agency (Liberia) - Wikipedia', 'snippet': 'The NSA is responsible for global monitoring, collection, and processing of information and data for foreign intelligence and counterintelligence Liberian ...', 'date': '2018-06-25', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://mopt.gov.lr/wp-content/uploads/2022/06/Final-Version-Cyber-Crime-Act-MOPT.pdf', 'title': '[PDF] Final-Version-Cyber-Crime-Act-MOPT.pdf', 'snippet': '(1) The Minister of Post and Telecommunications (MoPT) shall have direct responsibility for the Liberia National Cybersecurity Center and shall chair its ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://frontpageafricaonline.com/news/liberia-senate-passes-cybercrime-act-to-combat-it-fraud-others/', 'title': 'Liberia: Senate Passes Cybercrime Act To Combat IT Fraud, Others', 'snippet': 'At long last, the Liberian Senate has passed the Cybercrime Act of 2025 aimed at establishing a modernized digital and cyber security legal ...', 'date': '2025-11-05', 'last_updated': None, 'matched': True}, {'url': 'https://globalcyberalliance.org/the-lccpma-partners-with-gca-to-deploy-cybersecurity-toolkit-for-government-agencies-to-strengthen-cyber-defenses/', 'title': 'The LCCPMA Partners With GCA to Deploy Cybersecurity Toolkit for ...', 'snippet': 'LCCPMA is a non-governmental agency established in 2019 to provide cybersecurity and digital forensics education to the government and people of ...', 'date': '2021-01-21', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Federal Ministry of Research, Technology and Space in GERMANY responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology in PAPUA NEW GUINEA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -626,17 +626,17 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Federal Ministry of Research, Technology and Space in GERMANY</t>
+          <t>Ministry of Higher Education, Research, Science and Technology in PAPUA NEW GUINEA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Federal Ministry of Research, Technology and Space</t>
+          <t>Ministry of Higher Education, Research, Science and Technology</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The Federal Ministry of Research, Technology and Space in Germany is not explicitly identified in national cybersecurity strategies, laws, or official reports as having responsibility for cybersecurity policy, implementation, or technical coordination. Primary cybersecurity governance and operational roles are assigned to the Federal Ministry of the Interior (which leads Germany’s cybersecurity strategy and oversees the Federal Office for Information Security and national CERTs), the Federal Ministry of Defence (responsible for cyber defence and military cyber units), and to some extent the Federal Foreign Office (international cybersecurity policy)[1][2][3][5]. This ministry focuses on technological innovation and space but is not indicated as a lead or member of cybersecurity committees or councils, nor does it hold operational cybersecurity responsibilities or host national CERTs. While it may be indirectly involved through research funding or innovation initiatives linked to cybersecurity, this involvement does not amount to primary responsibility for the country’s cybersecurity governance, prevention, planning, response, or enforcement.</t>
+          <t>The Ministry of Higher Education, Research, Science and Technology in Papua New Guinea is not the primary body responsible for national cybersecurity policy, implementation, or technical coordination. The lead agency for cybersecurity is the Department of Information and Communication Technology (DICT), which oversees the National Cyber Security Center (NCSC) and coordinates national incident response and policy development [3][4][5]. The Ministry is, however, explicitly mentioned in the National Cyber Security Policy 2021 as a partner for integrating cybersecurity and cyber safety into future curricula and for raising awareness among students and staff [2][3][5]. The Ministry is also involved in advancing digitization within higher education, which includes enhancing digital infrastructure and promoting cybersecurity awareness, but it does not host a national CERT/CSIRT/CIRT or lead cybersecurity committees or enforcement activities [1][8]. Its role is supportive and educational rather than operational or policy-leading in the cybersecurity domain.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[{'url': 'http://connections-qj.org/article/cyber-defence-germany-challenges-and-way-forward-bundeswehr', 'title': 'Cyber Defence in Germany: Challenges and the Way Forward for ...', 'snippet': 'The German Federal Government regards threats from cyber and information space as one of the key challenges facing German security policy. Digitalization has ...', 'date': '2002-01-19', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/all_files/cyber_eng.pdf', 'title': '[PDF] Cyber Security Strategy for Germany - ENISA', 'snippet': 'We want to provide specific incentives and funds for basic security functions certified by the state (e.g. electronic proof of identity or De-mail) to be used ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.bmi.bund.de/SharedDocs/downloads/EN/themen/it-digital-policy/cyber-security-strategy-for-germany2021.pdf?__blob=publicationFile&amp;v=4', 'title': '[PDF] Cyber Security Strategy for Germany 2021', 'snippet': 'Action Area 1 – “Remaining safe and autonomous in a digital environment” – focuses on citizens and society. The ten strategic objectives of this action area ...', 'date': None, 'last_updated': '2025-04-09', 'matched': True}, {'url': 'https://dig.watch/resource/cyber-security-strategy-for-germany-2021', 'title': 'Cyber Security Strategy for Germany | 2021', 'snippet': 'Cyber Security Strategy for Germany provides the framework for cybersecurity over the next five years and focuses on four areas of action: society, private.', 'date': '2024-03-20', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.bundesregierung.de/breg-en/federal-government/it-security-and-data-protection-469532', 'title': 'IT security and data protection - Bundesregierung', 'snippet': 'The Federal Office for Information Security (BSI) is the central IT security services provider for the German Government. Since 1991 the BSI has been providing ...', 'date': '2025-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://warontherocks.com/2024/09/is-germany-ready-to-take-space-seriously-requirements-for-germanys-first-space-security-strategy/', 'title': 'Is Germany Ready to Take Space Seriously? Requirements for ...', 'snippet': "The federal government should not only define Germany's strategic approach to space security in the strategy, but also lay the foundations ...", 'date': '2024-09-16', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.nationalesicherheitsstrategie.de/National-Security-Strategy-EN.pdf', 'title': '[PDF] Robust. Resilient. Sustainable. Integrated Security for Germany', 'snippet': 'The Federal Government will not ac- cept rule-breaking or aggressive conduct on the part of cyber actors; it will modernise its cyberse- curity architecture and ...', 'date': None, 'last_updated': '2024-02-01', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Federal_Ministry_of_Research,_Technology_and_Space', 'title': 'Federal Ministry of Research, Technology and Space - Wikipedia', 'snippet': 'The Federal Ministry of Research, Technology and Space is a cabinet-level ministry of Germany. It is headquartered in Bonn, with an office in Berlin.', 'date': '2025-05-08', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.interface-eu.org/storage/archive/files/11thed_cybersecurityarchitecture.pdf', 'title': "[PDF] Germany's Cybersecurity Architecture - interface", 'snippet': 'The Federal Ministry of Labor and Social Affairs has departmental responsibility for labor market policy, labor law, protection and medicine, pensions and ...', 'date': None, 'last_updated': '2025-03-07', 'matched': True}]</t>
+          <t>[{'url': 'https://pacificislands.ai/png-takes-the-ai-leap-higher-education-secretary-pushes-for-more-ai-integration-in-universities/', 'title': 'PNG Takes the AI Leap: Higher Education Secretary Pushes for ...', 'snippet': 'The Ministry is working closely with cybersecurity experts to develop robust security protocols and invest in cutting-edge technologies to ...', 'date': '2024-08-15', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dig.watch/resource/the-national-cyber-security-policy-2021-of-papua-new-guinea', 'title': 'The National Cyber Security Policy 2021 of Papua New Guinea', 'snippet': 'Work with all ministries, including the Ministry of Education and the Ministry of Higher Education, to include cybersecurity and cyber safety in future ...', 'date': '2024-10-25', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.ict.gov.pg/Policies/Cyber%20Security%20Policy/NATIONAL%20CYBERSECURITY%20POLICY%202021%20(Final)%20-%20031121-%20PRINT.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY POLICY 2021 - Department of ICT', 'snippet': "The policy aims to strengthen PNG's cyber security, secure from threats, and develop laws/structures for incident management, calling for all to enhance ...", 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.digital.gov.pg/index.php/digital-services/cyber-security/', 'title': 'CYBER SECURITY - DIGITAL GOVERNMENT', 'snippet': 'The PNG National Cyber Security Center (NCSC) protects critical information infrastructure, monitors and responds to cyber threats, provides guidance on ...', 'date': '2024-01-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://education-profiles.org/oceania/papua-new-guinea/~technology', 'title': 'Papua New Guinea | Technology - Education Profiles', 'snippet': 'The 2014 Cybercrime Policy recognizes the need to educate Papua New Guinea citizens on cybercrime and cybersecurity issues, supporting the ...', 'date': '2024-08-06', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://pngnri.org/images/Publications/Spotlight__Vol16_Issue_1_Strategies_for_combating_cybercrimes_in_Papua_New_Guinea.pdf', 'title': '[PDF] Strategies for combating cybercrimes in Papua New Guinea', 'snippet': 'Strategies include enlarging the Cybercrime Unit, using the Cyber Police Portal, the PNG Recovery Asset Team, and bottom-up education. ...', 'date': '2023-01-30', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.ict.gov.pg/wp-content/uploads/2024/policies/Final%20PNG%20NCSS-%20rev%2004-04-24.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY 2024 – 2030', 'snippet': 'cybersecurity landscape of Papua New Guinea. • Conduct regular cybersecurity investigation and audits and risk assessments, focusing on vulnerabilities to ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://web.dherst.gov.pg/images/2025-pubs/digitalisation-policy/Policy%20on%20Digitalisation_of_PNG_Uni+RI.pdf', 'title': '[PDF] policy on the digitalization of papua new guinea universities and ...', 'snippet': 'The policy aims to enhance education quality, integrate global standards, and foster a modern ecosystem, using a centralized digital system and ...', 'date': '2025-01-06', 'last_updated': None, 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-papua-new-guinea-png-education-how-ai-is-helping-education-companies-in-papua-new-guinea-cut-costs-and-improve-efficiency', 'title': 'How AI Is Helping Education Companies in Papua New Guinea Cut ...', 'snippet': 'Calls for cybersecurity in curricula and capacity building - integrate cyber‑safety into staff training and student lessons. Data protection gap ...', 'date': '2025-09-13', 'last_updated': '2025-09-19', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Industry and Technology in TURKEY responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Telecommunications, Science, Technology and Industry in SAINT VINCENT AND THE GRENADINES responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -671,44 +671,44 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ministry of Industry and Technology in TURKEY</t>
+          <t>Ministry of Telecommunications, Science, Technology and Industry in SAINT VINCENT AND THE GRENADINES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ministry of Industry and Technology</t>
+          <t>Ministry of Telecommunications, Science, Technology and Industry</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The Ministry of Industry and Technology in Turkey is explicitly mentioned as a key player in the country's cybersecurity governance. According to the National Cybersecurity Organisation report by the CCDCOE, the Ministry is responsible for preparing strategy and action plans to maintain national cybersecurity, constructing procedures and principles for the security and privacy of information belonging to public and private institutions, assuring the cybersecurity of national information technology and communications infrastructure, systems, and databases, determining critical infrastructures, and strengthening these systems against cyber threats and attacks by monitoring intervention and prevention systems via establishing related centers and supervising/operating them constantly [4]. Furthermore, the Ministry is a member of the Cybersecurity Board, which is composed of the President and relevant ministers, indicating its involvement in high-level cybersecurity policy and coordination [5]. The Ministry also participates in the development and production of national cybersecurity tools, further highlighting its technical and strategic role in the country's cybersecurity landscape [4].</t>
+          <t>There is no direct evidence from the available sources explicitly stating that the Ministry of Telecommunications, Science, Technology and Industry in Saint Vincent and the Grenadines is responsible for cybersecurity policy, implementation, or governance as per the defined criteria. However, the country is engaged in regional cybersecurity initiatives such as a national cybersecurity symposium hosted recently, and a cybersecurity awareness campaign launched in coordination with CARICOM IMPACS and OECS. These activities suggest some involvement or coordination role in cybersecurity matters at the governmental level. The ministry is likely involved in related digital economy and telecommunications functions, which may include aspects of cybersecurity, but there is no clear designation of high-level responsibility or hosting of national CERT/CSIRT mentioned in the information reviewed. Therefore, the ministry's role is assessed as having low responsibility for cybersecurity governance and enforcement.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.dailysabah.com/opinion/op-ed/turkiyes-cybersecurity-approach-from-policy-to-robust-action', 'title': "Türkiye's cybersecurity approach: From policy to robust action", 'snippet': 'The Cybersecurity Directorate is poised to take a central role in implementing the law. Its duties include fostering inter-agency coordination, ...', 'date': '2025-04-25', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.sangfor.com/blog/cybersecurity/turkish-cybersecurity-law', 'title': 'New Turkish Cybersecurity Law Set to Enforce Strict Protection', 'snippet': 'To protect digital rights, Turkey has introduced this law to protect public institutions, individuals, and private sector entities from cyber ...', 'date': '2025-04-09', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.pilc.law/establishment-of-cybersecurity-presidency-in-turkey/', 'title': 'Establishment of Cybersecurity Presidency in Turkey 2025', 'snippet': 'The Presidential Decree provides a detailed outline of the formation, governance, operational authority, and responsibilities of the new Presidency, ensuring a ...', 'date': '2025-04-02', 'last_updated': '2025-05-25', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2021/08/TUR_country_report_final_clean_ver_2408.pdf', 'title': '[PDF] National Cybersecurity Organisation: TURKEY - CCDCOE', 'snippet': '4 It oversees the regular operation of entire e-government services from a supervisory position, delegates cybersecurity-related responsibilities to other ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://turkishlawblog.com/insights/detail/the-cybersecurity-law-has-entered-into-force', 'title': 'The Cybersecurity Law Has Entered into Force - Turkish Law Blog', 'snippet': 'Monitoring current technological developments and integrating them into cybersecurity processes, as well as centrally overseeing, detecting, and ...', 'date': '2025-03-21', 'last_updated': '2025-09-20', 'matched': True}, {'url': 'https://mbkaya.com/hukuk/turkish-cyber-security-law-translation.pdf', 'title': '[PDF] turkish cyber security law no. 7545 full translation', 'snippet': '(1) The purpose of this Law is to identify and eliminate the existing and potential threats directed internally and.', 'date': '2025-03-12', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://hgm.uab.gov.tr/uploads/pages/siber-guvenlik/national-cyber-security-strategy-2024-2028.pdf', 'title': '[PDF] National Cyber Security Strategy and Action Plan (2024-2028)', 'snippet': 'We combat cyber threats together with our cyber security organization 24/7, while making use of our domestic and national technologies.', 'date': '2025-02-04', 'last_updated': None, 'matched': True}, {'url': 'https://www.euroitsourcing.com/en/blog/turkiye-establishes-cybersecurity-presidency-to-strengthen-national-digital-security', 'title': 'Türkiye Establishes Cybersecurity Presidency to Strengthen ...', 'snippet': 'The Presidency will oversee cyber resilience, threat intelligence, and infrastructure protection, centralizing policies previously managed by ...', 'date': '2025-01-30', 'last_updated': '2025-02-14', 'matched': True}, {'url': 'https://www.mondaq.com/turkey/security/1605100/building-cyber-strength-turkeys-landmark-cybersecurity-legislation-in-focus', 'title': "Building Cyber Strength: Turkey's Landmark Cybersecurity ...", 'snippet': 'The CSD is tasked with enhancing cybersecurity resilience, protecting critical infrastructure, conducting vulnerability assessments and ...', 'date': '2025-04-04', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://caricom.org/tag/cyber-security/', 'title': 'cyber security – CARICOM', 'snippet': '2, CMC – Communications Minister Maxie Cuffie says the region needs to address issues related to cyber-security and information security to build confidence in ...', 'date': '2025-06-16', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.caricomimpacs.org/articles/cardtp-set-to-roll-out-cybercrime-and-cybersecurity-awareness-campaign-across-four-eastern-caribbean-states', 'title': 'CARDTP set to roll out Cybercrime and Cybersecurity Awareness ...', 'snippet': 'The campaign aims to raise cyber risk awareness, encourage protective behaviors, and empower vulnerable groups, especially seniors, women, and ...', 'date': '2025-08-26', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': 'Are We Ready in Latin America and the Caribbean? OBSERVATORY. CYBERSECURITY. IN LATIN AMERICA AND THE CARIBBEAN. Organization of. American States ...', 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://www.gerardbest.com/stories/2017/12/13/st-vincent-strengthens-its-cyber-borders', 'title': 'St Vincent Strengthens its Cyber Borders - Gerard Best', 'snippet': 'St Vincent and the Grenadines became the latest Caribbean country to host a national cyber security symposium, the first of its kind for the territory.', 'date': '2017-12-13', 'last_updated': None, 'matched': True}, {'url': 'https://procurement.gov.vc/eprocure/images/pdf/CurrentBids/CARDTP_Communications_Consultant_ToR_FINAL.pdf', 'title': '[PDF] Summary Scope of Services - Procurement', 'snippet': 'Vincent and the Grenadines digital economy that drives competition, investment, and innovation while promoting trust and security of online transactions.', 'date': None, 'last_updated': '2025-03-28', 'matched': True}, {'url': 'https://finance.gov.vc/finance/index.php/telecommunications', 'title': 'Telecommunications', 'snippet': 'Caribbean Cyber Security Workshops - 2016 · Children and young people online · Developing digital citizenship · Parents and guardians developing digital ...', 'date': None, 'last_updated': '2025-02-17', 'matched': True}, {'url': 'https://www.nbcsvg.com/2025/08/29/svg-to-officially-launch-cyber-security-and-cybercrime-awareness-campaign/', 'title': 'SVG to officially launch Cyber Security and Cybercrime Awareness ...', 'snippet': 'This six-month campaign is designed to raise public awareness of cybercrime and digital threats, particularly among vulnerable and underserved ...', 'date': '2025-08-29', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'Department and the Ministry of Information Technologies and Communications, in coordination ... million), Saint Vincent and the Grenadines (US$30 million), and ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Research in NORWAY responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Science of the Republic of Tajikistan in TAJIKISTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -716,17 +716,17 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ministry of Education and Research in NORWAY</t>
+          <t>Ministry of Education and Science of the Republic of Tajikistan in TAJIKISTAN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ministry of Education and Research</t>
+          <t>Ministry of Education and Science of the Republic of Tajikistan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Research (MER) in Norway is not the primary body responsible for national cybersecurity policy, implementation, or technical coordination. The Ministry of Justice and Public Security holds the main responsibility for coordinating public security and national cybersecurity in the civilian sector, while the Ministry of Defence is responsible for the military sector [4][6][9]. However, MER does have a role in cybersecurity within the education and research sector. MER is responsible for ensuring that information security and data protection requirements are followed in higher education and research institutions, including appointing data protection officers, carrying out data protection impact assessments, and ensuring data protection by design and information security [1]. MER also participates in the implementation of the national cyber security strategy, particularly in the context of education and research, and is involved in measures to raise awareness and competence in cybersecurity within these sectors [3]. MER's responsibilities are sector-specific and do not extend to broader national cybersecurity governance, prevention, planning, response, or enforcement.</t>
+          <t>The Ministry of Education and Science of the Republic of Tajikistan primarily focuses on education policy, scientific activities, teacher training, and the integration of ICT competencies into education, including cyber safety awareness and ICT standards for teachers. Although it promotes cyber safety education and implements ICT competency frameworks in schools, there is no evidence that it leads, coordinates, or enforces national cybersecurity governance, policy, or technical cybersecurity operations. National cybersecurity laws and strategic cybersecurity responsibilities appear to reside in other governmental bodies. The Ministry is involved in regulating legal education standards and training but not explicitly mandated with national cybersecurity policy or incident management roles. This is supported by references indicating its role in digital education reform and ICT use in pedagogy but no clear governance or enforcement responsibility for cybersecurity at the national level [2][3][6]. Other ministries or agencies handle national cybersecurity policy and technical coordination, as per national strategies and reports [1][5].</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -746,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[{'url': 'https://hkdir.no/en/guidelines-and-tools-for-responsible-international-knowledge-cooperation/international-research-and-innovation-cooperation/information-security-and-data-protection', 'title': 'Information security and data protection | HK-dir', 'snippet': "The requirements for information security and data protection are summarised in the Ministry of Education and Research's (MER) governing document (in Norwegian ...", 'date': '2023-10-06', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Norway_2012_Cyber_Security_Strategy_Norway.pdf', 'title': '[PDF] Cyber Security Strategy for Norway - ITU', 'snippet': 'The ministries are responsible for ensuring that all relevant stakeholders in the sectors are included in the implementation of measures within ...', 'date': '2012-12-17', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://www.regjeringen.no/contentassets/c57a0733652f47688294934ffd93fc53/list-of-measures--national-cyber-security-strategy-for-norway.pdf', 'title': '[PDF] List of measures – National Cyber Security Strategy for Norway', 'snippet': 'The national strategy for cyber security competence (2019) is to influence direction and content, as well as highlighting responsibility for ...', 'date': '2019-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.regjeringen.no/contentassets/c57a0733652f47688294934ffd93fc53/national-cyber-security-strategy-for-norway.pdf', 'title': '[PDF] National Cyber Security Strategy for Norway - regjeringen.no', 'snippet': "The Ministry holds a special responsibility for national cyber security in the civilian sector, and will outline the Government's policy for cyber security, ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://sikt.no/en/tjenester/cybersikkerhetssenter-forskning-og-utdanning/policy-and-service-level-statement', 'title': 'Policy and service level statement for Cyber security center for ... - Sikt', 'snippet': 'The Cyber Security Centre for research and education in Norway (eduCSC or eduCSC–NO in international contexts), manages computer security incidents.', 'date': None, 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://dunapress.org/wp-content/uploads/2019/02/National-cyber-security-strategy-for-norway.pdf', 'title': '[PDF] National Cyber Security Strategy for Norway | Duna Press', 'snippet': "The Ministry holds a special responsibility for national cyber security in the civilian sector, and will outline the Government's policy for cyber security, ...", 'date': None, 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://cybersecurity-centre.europa.eu/norway-ncc_en', 'title': 'Norway - NCC - European Cybersecurity Competence Centre', 'snippet': 'The RCN is a national strategic body for research, that manages research funding from all of the Norwegian ministries, and allocates funds to basic applied ...', 'date': '2019-01-01', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://norsis.no/content/uploads/2022/05/The-Norwegian-Cybersecurity-culture-web.pdf', 'title': '[PDF] The Norwegian Cyber Security Culture - NorSIS', 'snippet': 'We recommend that The Norwegian government should take greater responsibility for the cyber security education of its citizenry, espe- cially for the young ...', 'date': None, 'last_updated': '2024-03-04', 'matched': True}, {'url': 'https://cyberwiser.eu/norway-no', 'title': 'Norway (NO) - CYBERWISER.eu', 'snippet': 'The Norwegian Ministry of Justice and Public Security is responsible for coordinating public security in the civilian domain, outlining government policy for ...', 'date': '2021-01-01', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.ntnu.edu/iik/inf', 'title': 'Information Security - NTNU', 'snippet': 'Members of the discipline are leading the research, education, and innovation activities in information and cyber security within the department.', 'date': '2022-01-01', 'last_updated': '2025-10-11', 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/tj/', 'title': 'NCSI :: Tajikistan - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://education-profiles.org/central-and-southern-asia/tajikistan/~technology', 'title': 'Tajikistan | Technology - Education Profiles', 'snippet': 'Cybersecurity in Tajikistan is based on the following laws of the Republic of Tajikistan “On Information Protection”, “On Information” and “On ...', 'date': '2023-10-03', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.unesco.org/en/articles/ministry-education-and-science-tajikistan-approved-ict-competency-standards-teachers-tajikistan', 'title': 'Ministry of Education and Science of Tajikistan approved ICT', 'snippet': 'The ICT competency standards for teachers in Tajikistan were approved by the Ministry of Education and Science.', 'date': '2024-04-12', 'last_updated': '2025-03-31', 'matched': True}, {'url': 'https://admin.tj/tajikistan-to-declares-2025-2030-as-period-of-development-of-digital-economy-and-innovations/', 'title': 'Tajikistan to Declares 2025–2030 as Period of Development of ...', 'snippet': 'Tajikistan plans to accelerate digitalization, introduce 5G, digitalize public services, promote AI, ensure cybersecurity, and develop digital ...', 'date': '2024-12-29', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://cybilportal.org/projects/cybersecurity-strengthening-for-tajikistan/', 'title': 'Cybersecurity strengthening for Tajikistan - Cybil Portal', 'snippet': 'In preparation for the Tajikistan Digital Foundations Project, the technical assessment and cybersecurity analysis have to be carried out, especially related to ...', 'date': '2024-02-05', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://maorif.tj/document/632/download', 'title': '[PDF] qualification requirements for the ict competences of a teacher in ...', 'snippet': 'This Requirement serves as a guide for responsible employees of the Ministry of Education and Science of the Republic of. Tajikistan, specialists of the ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://hiedtec.ecs.uni-ruse.bg/pimages/34/StatuteCIOT-TUT-TJ-EN.pdf', 'title': '[PDF] ministry of industry and new technologies', 'snippet': 'Tasks of center are: ○ assimilate innovative educational technologies, adapting them to the conditions of the university;. ○ training of teaching staff on the ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.gpekix.org/sites/default/files/webform/submit_to_the_library/943/Goin_the_distance_Readiness_for_digitalization_and_distance_education_in_Tajikistan.pdf', 'title': '[PDF] Readiness for digitalization and distance education in Tajikistan', 'snippet': 'Most students and teachers have had limited exposure to distance or digital education. • The policy framework in Tajikistan is conducive to digital educational ...', 'date': None, 'last_updated': '2024-12-10', 'matched': True}, {'url': 'https://dig.watch/resource/strategy-for-the-development-of-artificial-intelligence-in-the-republic-of-tajikistan-for-the-period-up-to-2040', 'title': 'Strategy for the development of artificial intelligence in the Republic ...', 'snippet': 'GENERAL PROVISIONS. 1. The Strategy for the Development of Artificial Intelligence in the Republic of Tajikistan for the period up to 2040 (hereinafter ...', 'date': '2024-11-15', 'last_updated': '2025-11-13', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Industry, Science, Technology &amp; Innovation (MISTI) in CAMBODIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department of Science, Technology and Innovation (DSTI) in SOUTH AFRICA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -761,17 +761,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ministry of Industry, Science, Technology &amp; Innovation (MISTI) in CAMBODIA</t>
+          <t>Department of Science, Technology and Innovation (DSTI) in SOUTH AFRICA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ministry of Industry, Science, Technology &amp; Innovation (MISTI)</t>
+          <t>Department of Science, Technology and Innovation (DSTI)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -781,8 +781,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The Ministry of Industry, Science, Technology &amp; Innovation (MISTI) is not explicitly mentioned in recent national cybersecurity strategies, reports, or event summaries as the primary body responsible for cybersecurity policy, implementation, or technical coordination in Cambodia. The main focus for cybersecurity governance and strategy is placed on the Ministry of Post and Telecommunications (MPTC), which hosts key events, leads national initiatives, and is referenced in the context of cybersecurity policy and collaboration (e.g., the 'Navigating the Future of Cybersecurity in Cambodia 2025' seminar and related government press releases) [5][6].
-MISTI's role is more oriented toward science, technology, and innovation policy, rather than direct cybersecurity oversight. There is no evidence that MISTI hosts a national CERT/CSIRT/CIRT, leads cybersecurity committees, oversees information security standards, or is the main point of contact for international cybersecurity cooperation. While MISTI may contribute to broader digital transformation and technology development, its direct responsibility for cybersecurity is limited compared to the MPTC and other specialized agencies [5][6].</t>
+          <t>The Department of Science, Technology and Innovation (DSTI) is not the primary body responsible for cybersecurity policy, implementation, or enforcement in South Africa. The National Cybersecurity Policy Framework (NCPF) assigns the responsibility for the development, coordination, and implementation of national cybersecurity policy to the Department of Science and Technology (DST), which was the predecessor to DSTI. However, the actual leadership and operational responsibility for national cyber-defense and incident response is placed with the State Security Agency (SSA), which chairs the Cybersecurity Response Committee and is situated at the SSA[5]. The DSTI's role is more focused on research, innovation, and capacity building in science and technology, rather than direct cybersecurity governance or enforcement. DSTI may participate in broader initiatives or contribute to technical capacity, but it does not host the national CERT/CSIRT, lead cybersecurity committees, or oversee information security standards in the same way as the SSA or other agencies[5].</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -792,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[{'url': 'https://opendevelopmentmekong.net/en/news/strengthening-cybersecurity-and-trust-in-cambodias-digital-future/', 'title': "Strengthening cybersecurity and trust in Cambodia's digital future", 'snippet': 'The plan outlines critical steps that Cambodia, alongside other ASEAN nations, must take to build a secure, inclusive and competitive digital economy.', 'date': '2024-08-14', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://cadt.edu.kh/wp-content/uploads/2024/06/Cambodian_Cyber_Security_Capability_Assessment_v1_0_04_04_22_DRAFT.pdf', 'title': '[PDF] Cambodian Cyber Security Capability Assessment | CADT', 'snippet': 'Context. CyberCX has been engaged by the Department of Foreign Affairs and Trade as part of the Cyber and Critical Tech Cooperation Program, to support the ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://prestigealliance.co/blog/our-advisory-on-cambodia-cybersecurity-2025', 'title': 'Our Advisory on Cambodia Cybersecurity 2025 - Prestige Consulting', 'snippet': 'We are proud to share the results of our efforts to strengthen cybersecurity in Cambodia, laying a solid foundation for policy reform, regional ...', 'date': '2025-05-19', 'last_updated': '2025-06-10', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-cambodia-khm-government-the-complete-guide-to-using-ai-in-the-government-industry-in-cambodia-in-2025', 'title': 'The Complete Guide to Using AI in the Government Industry in ...', 'snippet': "Cambodia's 2025 AI push shifts to implementation: the draft National AI Strategy sets six strategic priorities and 41 measures, ...", 'date': '2025-09-10', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://cambodiainvestmentreview.com/2025/05/07/mptc-hosts-navigating-the-future-of-cybersecurity-in-cambodia-event/', 'title': 'MPTC Hosts Navigating the Future of Cybersecurity in Cambodia ...', 'snippet': 'A meaningful discussion on the future of cybersecurity in Cambodia and how each sector plays a role in strengthening cybersecurity in the Kingdom.', 'date': '2025-05-07', 'last_updated': '2025-05-13', 'matched': True}, {'url': 'https://mptc.gov.kh/en/2025/04/secretary-of-state-liv-sophanarith-presided-over-the-workshop-on-navigating-the-future-of-cybersecurity-in-cambodia-2025/', 'title': 'Secretary of State Liv Sophanarith Presided Over the Workshop on ...', 'snippet': 'In this regard, the seminar on “Navigating the Future of Cybersecurity in Cambodia 2025” plays a vital role in promoting Cyber Readiness through ...', 'date': '2025-04-29', 'last_updated': None, 'matched': True}, {'url': 'https://www.axiata.com/media/news/2025/axiata-cambodian-government-strategic-cybersecurity-alliance-digital-future', 'title': 'Axiata and Cambodian Government Forge Strategic Cybersecurity ...', 'snippet': 'Axiata partners with Cambodian Government to strengthen cybersecurity and shape a secure digital future. Discover more.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.itu.int/itu-d/sites/digital-impact-unlocked/advancing-cybersecurity-resilience-in-asia-and-the-pacific/', 'title': 'Advancing cybersecurity resilience in Asia and the Pacific - ITU', 'snippet': 'A Joint Statement between BDT and JICA was signed in January 2025 to provide support to countries in enhancing digital development and cybersecurity. Activities ...', 'date': '2025-09-18', 'last_updated': '2025-11-04', 'matched': True}]</t>
+          <t>[{'url': 'https://www.michalsons.com/blog/south-african-cybersecurity-laws/78350', 'title': 'South African cybersecurity laws - unravelling the knot - Michalsons', 'snippet': 'It grants authorities strong investigative powers, requires data preservation, and places obligations on communication service providers.', 'date': '2025-06-04', 'last_updated': '2025-08-14', 'matched': True}, {'url': 'https://www.solidsystems.co.za/blog/cyber-security-governance-in-south-africa-the-boardrooms-new-mandate/', 'title': "Cyber Security Governance in South Africa: The Boardroom's New ...", 'snippet': 'Boards in South Africa must take a proactive role in ensuring their organizations are secure, compliant, and prepared for potential cyber ...', 'date': '2025-07-15', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/emea/south-africa/topics/key-data-and-cybersecurity-laws', 'title': 'Key Data &amp; Cybersecurity Laws | South Africa', 'snippet': 'How are data and cybersecurity laws/regulations implemented? What are the key data privacy laws and regulations? What are the key cybersecurity laws and ...', 'date': '2024-12-31', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://www.appknox.com/blog/cybersecurity-compliance-and-regulations-in-south-africa', 'title': 'Cybersecurity Compliance and Regulations in South Africa - Appknox', 'snippet': 'The NCPF sets out security guidelines in South Africa for the government to develop comprehensive cyber-security policies and strategies.', 'date': '2022-05-26', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.gov.za/sites/default/files/gcis_document/201512/39475gon609.pdf', 'title': '[PDF] National Cybersecurity Policy Framework - South African Government', 'snippet': 'The Department of Science and Technology (DST) has the responsibility for the development, coordination and implementation of national ...', 'date': '2015-12-04', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.legal500.com/guides/chapter/south-africa-data-protection-cybersecurity/', 'title': 'South Africa: Data Protection &amp; Cybersecurity - Legal 500', 'snippet': 'Yes, cybersecurity laws in South Africa impose specific obligations in the context of cybersecurity incidents. These obligations are primarily outlined in ...', 'date': '2024-07-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dsti.school/applied-msc-in-cyber-security/', 'title': 'MSc in Cyber Security | DSTI School of Engineering', 'snippet': "DSTI Applied MSc in Cyber Security master's programme, resolutely technical and aiming for employment of compter specialists in operational ...", 'date': '2023-11-08', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.dsti.gov.za/images/2019/White_paper_web_copyv1.pdf', 'title': '[PDF] White Paper on Science, Technology and Innovation', 'snippet': 'South Africa therefore urgently needs to expand its STI capabilities, including its research competence and high-level skills (not limited to ...', 'date': '2019-03-01', 'last_updated': '2025-10-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Innovation in PORTUGAL responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in NEPAL responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -807,17 +806,17 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Innovation in PORTUGAL</t>
+          <t>Ministry of Education, Science and Technology in NEPAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Innovation</t>
+          <t>Ministry of Education, Science and Technology</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -827,7 +826,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Innovation in Portugal is responsible for integrating cybersecurity themes into the education system, including primary, secondary, and tertiary education, as well as continuing teacher training[1][7]. It is also involved in promoting digital education and literacy, and in the development of digital competences initiatives such as INCoDe.2030, which includes cybersecurity as part of its broader digital skills agenda[4][7]. However, the ministry is not the lead entity for national cybersecurity policy, technical coordination, or operational response. The primary responsibility for cybersecurity policy, coordination, and operational matters lies with the National Cybersecurity Centre (CNCS) and the Cyberspace Security Higher Council, which are distinct from the Ministry of Education, Science and Innovation[1][2][3][6]. The ministry's role is thus focused on education and awareness, rather than on the broader governance, prevention, planning, response, or enforcement of cybersecurity at the national level[1][4][7].</t>
+          <t>According to the Nepal National Cybersecurity Policy (2016), the Ministry of Education, Science and Technology (MoEST) is involved primarily in cybersecurity awareness and education initiatives, such as developing curricula and training materials in cooperation with the National Computer Emergency Response Team (NepCERT) and other authorities, aiming to educate students from primary school through universities on cybersecurity topics. However, the direct responsibility for national cybersecurity governance, policy implementation, technical coordination, and CERT hosting lies mainly with the Ministry of Information and Communications Technology (now Ministry of Communications and Information Technology) and related agencies, including NepCERT and the Nepal Telecommunications Authority. The MoEST does not host the national CERT, nor does it lead or coordinate cybersecurity policy enforcement or incident response nationally. Its role is supportive and educational rather than executive or technical. This distinction is supported by documentation stating that the Ministry of Communications and Information Technology has the leading role in cybersecurity policy implementation and coordination, while MoEST cooperates for educational and awareness purposes.[1][2][3][4]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -837,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ccdcoe.org/uploads/2018/10/Portugal_National-Strategy-for-Cyberspace-Security-2019-2023_English.pdf', 'title': '[PDF] 5 June, 2019 Resolution of the Council of Ministers No ... - CCDCOE', 'snippet': 'As a result, it aims to strengthen, support and promote the national research, development and innovation potential of cutting- edge cybersecurity processes ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.portugal.gov.pt/en/gc24/communication/news-item?i=government-approves-measures-to-strengthen-cybersecurity', 'title': 'Government approves measures to strengthen cybersecurity', 'snippet': 'Leitão Amaro mentioned three types of duties: adjusting security, reporting, and oversight. "On the part of the oversight authorities, the ...', 'date': '2024-10-24', 'last_updated': '2024-10-27', 'matched': True}, {'url': 'http://www.cncs.gov.pt/en/ncc-pt-centro-nacional-de-coordenacao', 'title': 'NCC-PT - National Coordination Centre in Portugal - CNCS', 'snippet': 'NCC-PT plays a crucial role in the national and European cybersecurity landscape as it actively contributes to increasing the visibility of national ...', 'date': '2025-06-20', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.cedefop.europa.eu/en/tools/timeline-vet-policies-europe/search/29278', 'title': 'National digital competences initiative (Portugal INCoDe.2030)', 'snippet': 'The government has established a set of goals such as promoting social inclusion, digital literacy and access to digital services for the entire population.', 'date': '2025-06-26', 'last_updated': '2025-06-27', 'matched': True}, {'url': 'https://www.portugal.gov.pt/en/gc25/communication/news-item?i=boosting-portugals-cyberspace-security', 'title': "Boosting Portugal's cyberspace security - XXV Governo Constitucional", 'snippet': 'The aims are to boost prevention and rapid recovery capabilities in the event of an incident and boost security levels and measures with the in ...', 'date': '2025-07-03', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/portugal-digital-economy', 'title': 'Portugal Digital Economy - International Trade Administration', 'snippet': 'The Portuguese National Cybersecurity Centre (CNCS) serves as the operational coordinator and national authority for cybersecurity in Portugal.', 'date': '2024-09-20', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/portugal/~technology', 'title': 'Portugal | Technology - Education Profiles', 'snippet': 'Cybersecurity and safety. 3. Governance. 3.1 ... In September 2024, the Minister of Education, Science, and Innovation in Portugal ...', 'date': '2025-01-17', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.theportugalnews.com/news/2025-03-23/how-portugal-is-securing-its-digital-future-and-shaping-global-cybersecurity/96275', 'title': 'How Portugal is Securing Its Digital Future and Shaping Global ...', 'snippet': "Portugal's cybersecurity policies align with EU standards, making it an attractive hub for investment in digital security and innovation.", 'date': '2025-03-23', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://incode2030.gov.pt/wp-content/uploads/2023/07/Estrategia-de-Inteligencia-artificial.aspx_.pdf', 'title': '[PDF] AI PORTUGAL 2030', 'snippet': 'Informed and concerted actions in AI are required and international cooperation is essential in all activities for a responsible and concerted development of AI ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://adamastor.blog/posts/what-innovation-and-r-d-strategy-for-portugal-s-defense-economy', 'title': "What Innovation and R&amp;D Strategy for Portugal's Defense Economy?", 'snippet': 'This article argues that Portugal should seize this moment to create a specialized institution — a Defense Research and Innovation Agency (AI4D) ...', 'date': '2025-09-10', 'last_updated': '2025-11-08', 'matched': True}]</t>
+          <t>[{'url': 'https://nta.gov.np/uploads/contents/Nepal-Cybersecurity-Policy-Draft.pdf', 'title': '[PDF] National Cybersecurity Policy, 2016', 'snippet': 'It shall be supervised and monitored by the Ministry of Ministry of Information and Communications/Ministry of. Science and Technology /Nepal ...', 'date': '2018-01-09', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://giwmscdnone.gov.np/media/pdf_upload/National%20Cyber%20Security%20Policy_English_version_dowpymd.pdf', 'title': '[PDF] National Cyber Security Policy, 2023', 'snippet': 'In this context, to minimize the harm caused by cyber-attacks on information technology and to safeguard against potential future threats, a national cyber ...', 'date': None, 'last_updated': '2025-09-06', 'matched': True}, {'url': 'https://theannapurnaexpress.com/story/47977/', 'title': "Nepal's journey in addressing cybersecurity challenges", 'snippet': 'It mandates regular security audits for Telecommunication and Internet Service Providers, promoting a robust cybersecurity ecosystem. The ...', 'date': '2024-03-18', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://education-profiles.org/central-and-southern-asia/nepal/~technology', 'title': 'Nepal | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science and Technology (MoEST) is generally responsible for the development of science and technology at the ...', 'date': '2023-06-28', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.nepjol.info/index.php/ocemjmtss/article/download/74761/57276', 'title': '[PDF] Understanding the Key Factors Influencing Cybersecurity Practices ...', 'snippet': 'This study investigates the critical factors affecting cybersecurity in Nepal, focusing on understanding the socio-economic, cultural, ...', 'date': '2025-01-20', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://thehimalayantimes.com/kathmandu/government-issues-new-directive-for-cyber-security', 'title': 'Government issues new directive for cyber security', 'snippet': 'It has also been mandated to issue early warning in relation to potential damage to or attack on any information technology system in Nepal and ...', 'date': '2019-11-23', 'last_updated': '2025-03-02', 'matched': True}, {'url': 'https://digitalrightsnepal.org/wp-content/uploads/2025/05/Final-2022_organized.pdf', 'title': '[PDF] the state of digital rights in nepal 2022', 'snippet': 'The government should enact comprehensive data protection laws and modernize digital regulations. Private entities must enhance cybersecurity practices and ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://nepalindata.com/media/resources/bulk_file/NSTI_Policy_2019_English.pdf', 'title': '[PDF] National Science, Technology and Innovation Policy, 2019', 'snippet': "After transformation of the country's governance system into the federal structure, responsibility of science and technology has been entrusted to the Ministry ...", 'date': None, 'last_updated': '2025-10-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research and Innovation in GUINEA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Youth and Sports in CZECH REPUBLIC responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -852,27 +851,27 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Innovation in GUINEA</t>
+          <t>Ministry of Education, Youth and Sports in CZECH REPUBLIC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Innovation</t>
+          <t>Ministry of Education, Youth and Sports</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Available information on Guinea's cybersecurity governance does not explicitly list the Ministry of Higher Education, Scientific Research and Innovation as responsible for national cybersecurity policy, implementation, coordination, or enforcement. The ministry's typical focus, inferred from its name and general functions, is on higher education and scientific research rather than cybersecurity governance. A recent initiative by Cybastion in Guinea aims to strengthen cybersecurity via public-private partnerships and digital ecosystem development, but this initiative is external and does not assign cybersecurity governance responsibility to the Ministry of Higher Education, Scientific Research and Innovation. No national cybersecurity agency, CERT/CSIRT, or cybersecurity task force is reported to be hosted or led by this ministry. Thus, there is no evidence that this ministry holds a significant role or responsibility in Guinea's national cybersecurity governance, prevention, planning, response, or enforcement.</t>
+          <t>The Ministry of Education, Youth and Sports (MEYS) in the Czech Republic is involved in cybersecurity primarily through educational initiatives and policies aimed at digital skills development, digital well-being, and prevention of online risks among children and youth. It cooperates with the National Cyber and Information Security Agency (NÚKIB) on educational projects and provides cybersecurity awareness courses for teachers. It is mentioned in national strategic documents related to digital education and cybersecurity awareness but does not hold primary responsibility for national cybersecurity policy, implementation, or technical coordination. The central authority for cybersecurity administration and oversight is the National Cyber and Information Security Agency, with cybersecurity governance roles also assigned to the Ministry of the Interior and other bodies. MEYS participates mainly in cybersecurity as it relates to education and youth development, rather than direct cybersecurity governance, protection, or enforcement tasks[1][2][4][5][6][7].</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -882,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/the-national-cyber-security-policy-2021-of-papua-new-guinea', 'title': 'The National Cyber Security Policy 2021 of Papua New Guinea', 'snippet': 'Work with all ministries, including the Ministry of Education and the Ministry of Higher Education, to include cybersecurity and cyber safety in future ...', 'date': '2024-10-25', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.ict.gov.pg/Policies/Cyber%20Security%20Policy/NATIONAL%20CYBERSECURITY%20POLICY%202021%20(Final)%20-%20031121-%20PRINT.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY POLICY 2021 - Department of ICT', 'snippet': "The policy aims to strengthen PNG's cyber security, secure from threats, and develop laws/structures for incident management, calling for all to enhance ...", 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.digital.gov.pg/index.php/digital-services/cyber-security/', 'title': 'CYBER SECURITY - DIGITAL GOVERNMENT', 'snippet': 'The PNG National Cyber Security Center (NCSC) protects critical information infrastructure, monitors and responds to cyber threats, provides guidance on ...', 'date': '2024-01-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.ict.gov.pg/wp-content/uploads/2024/policies/Final%20PNG%20NCSS-%20rev%2004-04-24.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY 2024 – 2030', 'snippet': '• Work with all Ministries, including the Ministry of Education and the Ministry of Higher Education, to integrate cybersecurity and cyber safety into ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/1411-50485-cybastion-opens-national-office-in-guinea', 'title': 'Cybastion Opens National Office in Guinea - Ecofin Agency', 'snippet': 'The programme covers four pillars: cybersecurity, development of digital services, deployment of digital infrastructure and training in ...', 'date': '2025-11-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=guinea', 'title': 'Guinea - Cybil Portal', 'snippet': "An overview of Guinea's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here.", 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Guinea.pdf', 'title': '[PDF] Guinea | GHS Index', 'snippet': "Guinea's GHS Index scores are: Category 1 (Preventing Pathogens) 4, Category 2 (Early Detection) 29, Category 3 (Rapid Response) 46, Category 4 (Health Sector) ...", 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://web.dherst.gov.pg/images/2025-pubs/digitalisation-policy/Policy%20on%20Digitalisation_of_PNG_Uni+RI.pdf', 'title': '[PDF] policy on the digitalization of papua new guinea universities and ...', 'snippet': 'Provide training in emerging technologies such as artificial intelligence (AI), data analytics, cloud computing, cybersecurity, and blockchain.', 'date': '2025-01-06', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://better-internet-for-kids.europa.eu/en/knowledge-hub/czech-republic-policy-monitor-country-profile', 'title': 'Czech Republic - Policy monitor country profile', 'snippet': 'The Ministry of Education, Youth and Sports cooperates with National Cyber and Information Security Agency on educational projects and activities for young ...', 'date': '2025-03-26', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://better-internet-for-kids.europa.eu/sites/default/files/2025-05/CZ%20Country%20Profile%202025_final.pdf', 'title': '[PDF] Better Internet for Kids (BIK) Policy monitor country profile 2025', 'snippet': 'The Ministry of Education, Youth and Sports is in charge of digital skills and education of youth, while policies are often implemented by the National.', 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/2997987/Document-07.pdf', 'title': '[PDF] National Cyber Security Organisation: CZECH REPUBLIC', 'snippet': 'The study outlines the division of cyber security tasks and responsibilities between different agencies, describes their mandate, tasks and competences, and the ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/czech-republic/~technology', 'title': 'Czech Republic | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Youth and Sports is responsible for overseeing the education system in the Czech Republic. In collaboration with ...', 'date': '2025-01-14', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.ohchr.org/sites/default/files/documents/issues/education/cfis/safety/subm-safety-element-sta-6-czech-republic.doc', 'title': '[DOC] subm-safety-element-sta-6-czech-republic.doc - ohchr', 'snippet': '\u200b The Cyber Security Strategy of the Czech Republic for the period 2021-2025, which is backed by the National Cyber and Information Security Agency in ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://dig.watch/resource/https-dig-watch-resource-national-cybersecurity-strategy-of-the-czech-republic', 'title': 'National Cybersecurity Strategy of the Czech Republic | 2021-2025', 'snippet': 'It primarily establishes obligations to ensure the security of cyber and informational infrastructure for selected public and private entities and individuals ( ...', 'date': '2023-12-21', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://nukib.gov.cz/download/publications_en/strategy_action_plan/NSCS_2021_2025_ENG.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY OF THE CZECH ... - nukib', 'snippet': 'Diplomatic, legal, educational, and other non-technical measures are necessary tools for fighting cyber threats and building a resilient information society.', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'http://www.ktl.elf.stuba.sk/~gregor/research/CYB_FUT_Abstract&amp;Consortium.htm', 'title': 'Cybersecurity for the Future (CYB-FUT)', 'snippet': '(For example, within the Czech Republic it reacts to the updating of the framework educational programs of the Ministry of Education, Youth and Sports for ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://msmt.gov.cz/uploads/311/METHODOLOGICAL_RECOMMENDATION_FOR_RISK_MANAGEMENT_IN_RESEARCH_SECURITY_AT_THE_INSTITUTIONAL_LEVEL.pdf', 'title': '[PDF] METHODOLOGICAL RECOMMENDATION', 'snippet': 'This document serves as a methodological guide for risk management in relation to research security within academic institutions in the Czech Republic and is ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.pegegog.net/index.php/pegegog/article/download/2541/762', 'title': '[PDF] Selected Risks of Cyberspace in the Transition of Pupils to Distance ...', 'snippet': 'The. Ministry of Education, Youth and Sports of the Czech Republic issued the Methodological Recommendation for Distance. Education (2020).', 'date': '2023-08-13', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Xjenza Malta in MALTA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research (MOHE) in SUDAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -897,27 +896,28 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Xjenza Malta in MALTA</t>
+          <t>Ministry of Higher Education and Scientific Research (MOHE) in SUDAN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Xjenza Malta</t>
+          <t>Ministry of Higher Education and Scientific Research (MOHE)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>SUDAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Xjenza Malta is primarily a research and innovation entity involved in funding and supporting digital technologies research, including projects related to cybersecurity as part of broader digital technology initiatives. It administers programmes to support research that aims for safer and trustworthy development, adoption, and use of digital technologies including cybersecurity aspects. However, it is not explicitly mentioned in the national cybersecurity strategy or legal framework as holding responsibility for national cybersecurity policy, implementation, or technical coordination. There is no evidence that it hosts a national CERT/CSIRT, leads cybersecurity committees, or manages cybersecurity enforcement. Instead, Malta’s cybersecurity governance and enforcement responsibilities are attributed to designated national authorities and regulatory bodies as outlined in the Maltese National Cybersecurity Strategy and related regulatory frameworks. Therefore, Xjenza Malta’s role is supportive in research and innovation rather than leading national cybersecurity governance or operational response[1][2][6][7].</t>
+          <t>The Ministry of Higher Education and Scientific Research (MOHE) in Sudan is responsible for cybersecurity within the higher education sector and plays a significant role in broader national cybersecurity efforts. MOHE has led discussions and meetings focused on instilling a culture of cybersecurity in academic and governmental institutions, addressing issues such as data protection, privacy, service continuity, and countering cyberattacks [1]. The ministry has been actively involved in developing institutional frameworks for cybersecurity, reviewing technical and organizational guidelines, and expanding specialized academic programs in cybersecurity within Sudanese universities [1]. MOHE has also emphasized the importance of including cybersecurity and artificial intelligence courses as university requirements for all majors, indicating its leadership in shaping cybersecurity education and policy [1].
+Furthermore, MOHE has been mandated by the Sudanese government to lead science, technology, and innovation (STI) initiatives, including those related to cybersecurity, and coordinates STI policies and strategies through its Scientific Research and Innovation Commission (SRIC) [6]. The ministry has participated in national workshops and events on cybersecurity, such as the CISSA Workshop on Cyber Security held in Khartoum, where it collaborated with other government bodies to develop recommendations for addressing cyber threats [5]. MOHE's leadership in these areas demonstrates its responsibility for cybersecurity policy, implementation, and coordination within Sudan [1, 5, 6].</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -927,14 +927,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/maltese-national-cybersecurity-strategy-2023-2026', 'title': 'Maltese National Cybersecurity Strategy | 2023-2026', 'snippet': 'Promote and maintain a robust cyber security framework of responsibility, accountability and strategic direction to protect, respond to and minimise threats and ...', 'date': '2024-09-03', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Mita%20_Malta%20Cyber%20Security%20Strategy%20-%20Book.pdf', 'title': '[PDF] Malta Cyber Security Strategy 2016 - ITU', 'snippet': 'All users of ICT are responsible to take reasonable steps to protect systems and data on an individual and on a collective basis. ”', 'date': None, 'last_updated': '2025-10-07', 'matched': True}, {'url': 'https://www.melitabusiness.com/blog/navigating-maltas-cyber-security-regulatory-landscape-insights-for-businesses/', 'title': "Malta's Cyber Security Regulatory Landscape: Insights for Businesses.", 'snippet': 'The regulatory landscape of cyber security in Malta has become a critical arena which businesses need to grapple with in order to operate in the digital world.', 'date': '2024-06-03', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://maltabusinessweekly.com/mfsa-publishes-new-guidance-notes-on-cybersecurity/3687/', 'title': 'MFSA publishes new guidance notes on cybersecurity', 'snippet': 'In order to effectively mitigate cyber risks, the Malta Financial Services Authority (MFSA) has finalised its guidance notes on ...', 'date': '2019-06-27', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=oaQWzIUhVBs', 'title': "Complying with Malta's NIS2 Cybersecurity Law - YouTube", 'snippet': "In this video, learn how to navigate and comply with Malta's NIS2 cybersecurity law, effective from April 2025. This guide covers the key ...", 'date': '2025-11-14', 'last_updated': None, 'matched': True}, {'url': 'https://xjenzamalta.mt/2025/04/07/digital-technologies-programme-2025/', 'title': 'Digital Technologies Programme 2025 - Xjenza Malta', 'snippet': 'The Digital Technologies Programme is designed to support research that will drive us towards a safer and more trustworthy development, adoption and use of ...', 'date': '2025-04-07', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://xjenzamalta.mt/wp-content/uploads/2025/04/Final-National-Rules-Non-State-Aid-Xjenza-Malta-TUBITAK-2025.pdf', 'title': '[PDF] Xjenza Malta-TÜBİTAK 2025 Joint Call for R&amp;I Proposals', 'snippet': 'The Project Contact Point(s) shall have the following responsibilities: • To ensure compliance with the obligations in terms of the Grant. Agreement. • To ...', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://timesofmalta.com/article/strengthening-cybersecurity-malta.1115601', 'title': 'Strengthening cybersecurity in Malta - Times of Malta', 'snippet': 'Log360 strengthens monitoring, evidence collection, incident detection, and timely reporting to support these obligations. Whether you are ...', 'date': '2025-09-07', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://allafrica.com/stories/202507250669.html', 'title': 'Sudan: Higher Education Ministry Discusses Ways to Enhance ...', 'snippet': 'The meeting witnessed an extensive discussion on ways to instill a culture of cybersecurity in academic and governmental institutions, and to ...', 'date': '2025-07-24', 'last_updated': '2025-07-25', 'matched': True}, {'url': 'https://mictps.gov.ss/wp-content/uploads/2024/11/South-Sudan-National-Cybersecurity-Strategy-Final-Version-1.pdf', 'title': '[PDF] South-Sudan-National-Cybersecurity-Strategy-Final-Version-1.pdf', 'snippet': 'The consultancy will be tasked with conducting an in-depth assessment of current cyber threats and capabilities, consulting with relevant stakeholders, and ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://papers.ssrn.com/sol3/Delivery.cfm/4943502.pdf?abstractid=4943502&amp;mirid=1', 'title': '[PDF] Enhancing Cyber Security in South Sudan through Artificial ... - SSRN', 'snippet': 'The potential and difficulties of using artificial intelligence (AI) to improve cyber security in. South Sudan are examined in this essay.', 'date': '2024-09-01', 'last_updated': '2025-04-23', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-4', 'title': 'Ministry of Higher Education and Scientific Research', 'snippet': 'Government ministry that is responsible for determining the policies and direction of the higher education system in Sudan.', 'date': '2004-02-01', 'last_updated': '2024-12-04', 'matched': True}, {'url': 'https://www.peaceau.org/uploads/en-workshop-communique-10-nov-2015.pdf', 'title': '[PDF] The CISSA Workshop on Cyber Security was held in Khartoum', 'snippet': 'The Minister applauded CISSA for playing a leading role in ensuring that security and stability prevails in Africa through close collaboration ...', 'date': '2015-11-11', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://archive.unescwa.org/sites/www.unescwa.org/files/page_attachments/sudan-ntto-innovation-landscape-study-en.pdf', 'title': '[PDF] Innovation System Landscape in Sudan', 'snippet': 'priorities, The Ministry of Higher Education and Scientific Research has been mandated by the government of Sudan to lead this important issue for the future.', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.universityworldnews.com/post.php?story=20250826112753342', 'title': 'New post-war strategy wants to rebuild a damaged system', 'snippet': "Sudan's Ministry of Higher Education and Scientific Research has unveiled a strategy including the reconstruction of universities and research ...", 'date': '2025-08-27', 'last_updated': None, 'matched': True}, {'url': 'https://en.zooll.net/the-minister-of-higher-education-rents-the-role-of-the-higher-academy-for-strategic-and-security-studies/', 'title': 'The Minister of Higher Education rents the role of the ... - zooll net', 'snippet': 'The Minister of Higher Education rents the role of the Higher Academy for Strategic and Security Studies. 4 hours ago. 0 17 1 minute read.', 'date': '2025-09-11', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Higher Education, and Innovation in KYRGYZSTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Industry and Technology in TURKEY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -942,44 +942,44 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ministry of Science, Higher Education, and Innovation in KYRGYZSTAN</t>
+          <t>Ministry of Industry and Technology in TURKEY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ministry of Science, Higher Education, and Innovation</t>
+          <t>Ministry of Industry and Technology</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Higher Education, and Innovation in Kyrgyzstan is responsible for higher education, scientific research, and innovation, including the establishment of research centers and innovation hubs in universities (e.g., the Center of Excellence in Applied Artificial Intelligence and Cybersecurity at KSTU) [5]. However, there is no explicit evidence that this ministry is responsible for national cybersecurity policy, technical coordination, or the operation of a national CERT/CSIRT. The ministry's role appears to be limited to fostering applied research and innovation in areas such as cybersecurity within the higher education sector, rather than overseeing national cybersecurity governance or enforcement [5]. No sources indicate that the ministry leads or is a member of a national cybersecurity committee, council, or working group, or that it oversees information security standards or network protection at the national level [5].</t>
+          <t>The Ministry of Industry and Technology in Türkiye is explicitly mentioned as a key player in the country's cybersecurity governance. According to the Cybersecurity Law No. 7545 and related reports, the Ministry is a member of the Cybersecurity Board, which is responsible for national cybersecurity policy and oversight [2][4]. The Ministry also participates in the formulation of strategies, action plans, and regulations concerning cybersecurity, as well as in the coordination of efforts among various agencies and stakeholders [3][4]. Furthermore, the Ministry is involved in the determination of critical infrastructure and the development of national cybersecurity tools, indicating a high level of responsibility in both policy and technical coordination [5][4].</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.akchabar.kg/en/news/kabmin-utverdil-strukturu-novogo-ministerstva-nauki-vysshego-obrazovaniya-i-innovaczij', 'title': 'Government Approves Regulation of the Ministry of Science, Higher ...', 'snippet': 'The Cabinet of Ministers of the Kyrgyz Republic has approved the Regulations on the Ministry of Science, Higher Education, and Innovation.', 'date': '2025-07-03', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://24.kg/english/328736_Education_and_Science_Ministry_of_Kyrgyzstan_to_be_reorganized/', 'title': 'Education and Science Ministry of Kyrgyzstan to be reorganized', 'snippet': 'The Ministry of Science, Higher Education and Innovation is entrusted with functions in the field of scientific, scientific-technical and ...', 'date': '2025-05-12', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://unece.org/sites/default/files/2021-03/STI%20gap%20analysis_Kyrgyzstan_Report_%20Aziz%20Soltobaev.pdf', 'title': '[PDF] Science, Technology, and Innovation (STI) Gap Analysis of Kyrgyzstan', 'snippet': 'The Ministry of Education and Science is responsible for formulating priorities in the various scientific disciplines operating in the country.', 'date': None, 'last_updated': '2025-07-24', 'matched': True}, {'url': 'http://eulacfoundation.org/en/ministry-higher-education-research-and-innovation-mesri', 'title': 'Ministry of Higher Education, Research and Innovation (MESRI)', 'snippet': 'The priorities of the Ministry are: (1) to improve student success and promote equal opportunities; (2) to coordinate the training offer of French higher ...', 'date': '2023-08-01', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://erasmusplus.kg/wp-content/uploads/2025/08/Challenges-in-Higher-Education-in-Kyrgyzstan_f.pdf', 'title': '[PDF] Challenges in Higher Education in Kyrgyzstan: Issues and Policy ...', 'snippet': 'The Ministry of Higher Education, Science and Innovation of the Kyrgyz Republic, responsible for university-level education, research, and intellectual property ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://en.fergana.news/news/137890/', 'title': 'Kyrgyz President Splits Education Ministry into Two Separate ...', 'snippet': 'Meanwhile, the newly formed Ministry of Science, Higher Education, and Innovation will be responsible for scientific, technological, and ...', 'date': '2025-05-13', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://arabaevksu.edu.kg/en/category/ilimiy-innovaciya-b-l-m', 'title': 'The scientific- innovation department - КГУ им. И.Арабаева', 'snippet': 'The purpose of the department is to ensure the research and innovation activities of teachers and university staff, improve the quality and practical ...', 'date': None, 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://spubl.kg/en/blog/separation-of-the-ministry-of-education-and-science-of-kyrgyzstan', 'title': 'Separation of the Ministry of Education and Science of Kyrgyzstan', 'snippet': 'improve the efficiency of administration in higher education and scientific activities · ensure closer interaction between educational and scientific structures ...', 'date': None, 'last_updated': '2025-08-20', 'matched': True}, {'url': 'https://ucentralasia.org/resources-and-media/news/2025/september/uca-rector-meets-kyrgyztan-minister-of-science-to-strengthen-collaboration-in-higher-education-and-research', 'title': 'UCA Rector Meets Kyrgyztan Minister of Science to Strengthen ...', 'snippet': "The Minister acknowledged UCA's role in strengthening the quality of education in the country and in enhancing the academic and research ...", 'date': '2025-09-05', 'last_updated': '2025-09-24', 'matched': True}]</t>
+          <t>[{'url': 'https://www.dailysabah.com/opinion/op-ed/turkiyes-cybersecurity-approach-from-policy-to-robust-action', 'title': "Türkiye's cybersecurity approach: From policy to robust action", 'snippet': 'The Cybersecurity Directorate is poised to take a central role in implementing the law. Its duties include fostering inter-agency coordination, ...', 'date': '2025-04-25', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.sangfor.com/blog/cybersecurity/turkish-cybersecurity-law', 'title': 'New Turkish Cybersecurity Law Set to Enforce Strict Protection', 'snippet': 'The new Turkish cybersecurity law introduces several provisions for businesses, with stricter penalties and advanced policies in place for industries deemed ...', 'date': '2025-04-09', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.pilc.law/establishment-of-cybersecurity-presidency-in-turkey/', 'title': 'Establishment of Cybersecurity Presidency in Turkey 2025', 'snippet': 'The Presidential Decree provides a detailed outline of the formation, governance, operational authority, and responsibilities of the new Presidency, ensuring a ...', 'date': '2025-04-02', 'last_updated': '2025-05-25', 'matched': True}, {'url': 'https://turkishlawblog.com/insights/detail/the-cybersecurity-law-has-entered-into-force', 'title': 'The Cybersecurity Law Has Entered into Force - Turkish Law Blog', 'snippet': 'Monitoring current technological developments and integrating them into cybersecurity processes, as well as centrally overseeing, detecting, and ...', 'date': '2025-03-21', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2021/08/TUR_country_report_final_clean_ver_2408.pdf', 'title': '[PDF] National Cybersecurity Organisation: TURKEY - CCDCOE', 'snippet': '4 It oversees the regular operation of entire e-government services from a supervisory position, delegates cybersecurity-related responsibilities to other ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://mbkaya.com/hukuk/turkish-cyber-security-law-translation.pdf', 'title': '[PDF] turkish cyber security law no. 7545 full translation', 'snippet': 'ı) To determine the technical criteria for the cyber security products and services to be used in public institutions and organizations and ...', 'date': '2025-03-12', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://hgm.uab.gov.tr/uploads/pages/siber-guvenlik/national-cyber-security-strategy-2024-2028.pdf', 'title': '[PDF] National Cyber Security Strategy and Action Plan (2024-2028)', 'snippet': 'We combat cyber threats together with our cyber security organization 24/7, while making use of our domestic and national technologies.', 'date': '2025-02-04', 'last_updated': None, 'matched': True}, {'url': 'https://www.mondaq.com/turkey/security/1605100/building-cyber-strength-turkeys-landmark-cybersecurity-legislation-in-focus', 'title': "Building Cyber Strength: Turkey's Landmark Cybersecurity ...", 'snippet': 'The CSD is tasked with enhancing cybersecurity resilience, protecting critical infrastructure, conducting vulnerability assessments and ...', 'date': '2025-04-04', 'last_updated': None, 'matched': True}, {'url': 'https://www.euroitsourcing.com/en/blog/turkiye-establishes-cybersecurity-presidency-to-strengthen-national-digital-security', 'title': 'Türkiye Establishes Cybersecurity Presidency to Strengthen ...', 'snippet': 'The Presidency will oversee cyber resilience, threat intelligence, and infrastructure protection, centralizing policies previously managed by ...', 'date': '2025-01-30', 'last_updated': '2025-02-14', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Innovation of Montenegro in MONTENEGRO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Higher Education and Innovation of the Kyrgyz Republic in KYRGYZSTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -987,17 +987,17 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Innovation of Montenegro in MONTENEGRO</t>
+          <t>Ministry of Science, Higher Education and Innovation of the Kyrgyz Republic in KYRGYZSTAN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Innovation of Montenegro</t>
+          <t>Ministry of Science, Higher Education and Innovation of the Kyrgyz Republic</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science, Culture, and Sports (now the Ministry of Education, Science and Innovation) is responsible for educational policy including digital literacy and cybersecurity competencies as part of education curricula and capacity building related to digital skills and cyber awareness[2]. It implements programs to increase IT skills and some cybersecurity training for educators[2]. It participates in initiatives such as the CSupMNE project aimed at strengthening cybersecurity posture within Montenegrin higher education institutions and has helped establish the Montenegrin Academic CSIRT to protect the academic community[1][7][8]. However, national cybersecurity governance, policy implementation, and response are led primarily by other ministries and bodies, notably the Ministry of Public Administration, which hosts the national CIRT and is identified as the main cybersecurity authority managing incident detection and response, alongside agencies like the National Security Agency and Ministry of Interior[3]. The Ministry of Education’s role is more focused on digital education and capacity building rather than direct cybersecurity governance or national incident response coordination[2][3]. This delineates its cybersecurity responsibility at a supportive, educational level rather than a leading role in national cybersecurity strategy or enforcement.</t>
+          <t>The Ministry of Science, Higher Education and Innovation of the Kyrgyz Republic is involved in cybersecurity primarily through its role in higher education and research, but it is not the primary agency responsible for national cybersecurity policy, implementation, or technical coordination. The ministry has announced plans to establish a Center for Research and Innovation in Applied AI and Cybersecurity, indicating a focus on research and innovation in the field [3]. Additionally, the ministry is responsible for licensing and accreditation of higher education institutions, which may include cybersecurity-related programs [3]. However, the main responsibility for cybersecurity policy and implementation lies with the Ministry of Cybersecurity of the Kyrgyz Republic, which is explicitly tasked with protecting the nation's critical digital infrastructure, preventing cybercrime, and ensuring the privacy of citizens' online activities [1]. The Ministry of Science, Higher Education and Innovation's role is more focused on education and research rather than direct cybersecurity governance or technical coordination.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1017,14 +1017,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.gov.me/en/article/about-the-csupmne-project', 'title': 'About the Project - CSupMNE - Vlada Crne Gore', 'snippet': 'Project sub-objectives: (1) Increase cyber awareness and build capacities across the MNE HE ecosystem at all levels to facilitate a cultural ...', 'date': '2025-08-11', 'last_updated': '2025-08-14', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/montenegro/~technology', 'title': 'Montenegro | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science, Culture, and Sports holds the responsibility of devising, executing, and enhancing educational policies.', 'date': '2024-08-06', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://afyonluoglu.org/PublicWebFiles/strategies/Europe/Montenegro%202018-%202021%20National%20Cyber%20Security%20Strategy-EN.pdf', 'title': '[PDF] cyber security strategy of montenegro', 'snippet': 'Protection of critical information infrastructure in Montenegro;. 3. Strengthening capacities of state law enforce- ment authorities;. 4. Incident response;. 5.', 'date': None, 'last_updated': '2024-04-04', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/sites/default/files/inline-files/DPA_Factsheets_2022_Montenegro_vFinal.pdf', 'title': 'Digital Public Administration factsheet 2022', 'snippet': 'The key tasks of the Council will be to monitor the implementation of the Public. Administration Reform Strategy 2022–2026 and the accompanying action plan, as ...', 'date': None, 'last_updated': '2024-11-19', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/montenegro-information-and-communication-technology-ict-sector', 'title': 'Information and Communication Technology (ICT) Sector', 'snippet': 'Key strategic documents in the sector include: (i) Digital Transformation Strategies of Montenegro 2022-2026, (ii) Cyber Security Strategy of ...', 'date': '2024-05-20', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://wapi.gov.me/download/59dcab9b-b0e8-48b7-830b-6e4eab690521?version=1.0', 'title': '[PDF] MONTENEGRO DIGITAL TRANSFORMATION STRATEGY 2022-2026', 'snippet': 'The tasks of the Council are to inform the. Government of Montenegro on important issues related to information and cyber security; initiate and ...', 'date': '2021-12-22', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.gov.me/en/mps/projects/erasmus/csupmne', 'title': 'CSupMNE - Ministry of Education, Science and Innovation', 'snippet': 'CSupMNE Project - Straightening Up Cybersecurity Posture of Montenegrin Higher Education system. CSupMNE project is designed to conduct ...', 'date': '2025-08-11', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.csupmne.me/Administracija/elementi_stranice/Dokumentacija/1750064508_9102.pdf', 'title': '[PDF] OBJECTIVES: - CSupMNE', 'snippet': 'Increase cyber awareness and build capacities across the MNE HE ecosystem at all levels to facilitate a cultural change to ensure people are continually aware ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://empowerhr4inno.udg.edu.me/en/resources/show/0eb45db5-cc3f-4667-b2ef-9c2cf1155fe2', 'title': 'CYBER SECURITY EDUCATION IN MONTENEGRO', 'snippet': 'This paper focuses on reviewing the progress made in the BMHI discipline, evaluating key milestones,...', 'date': None, 'last_updated': '2025-05-28', 'matched': True}]</t>
+          <t>[{'url': 'https://en.wikipedia.org/wiki/Ministry_of_Cybersecurity', 'title': 'Ministry of Cybersecurity - Wikipedia', 'snippet': 'The Ministry is responsible for the implementation of policies and strategies that enhance cybersecurity awareness, develop the national cyber workforce, and ...', 'date': '2025-03-08', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://education-profiles.org/central-and-southern-asia/kyrgyzstan/~technology', 'title': 'Kyrgyzstan | Technology - Education Profiles', 'snippet': 'The Education Development Strategy in the Kyrgyz Republic for 2021-2040 (EDS-2040) defines the use of information and communication technologies ...', 'date': '2024-08-06', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://open.kg/en/news/local-news/37702-v-kr-sozdadut-centr-issledovanij-i-innovacij-prikladnogo-ii-i-kiberbezopasnosti.html', 'title': 'A Center for Applied AI and Cybersecurity Research and Innovation ...', 'snippet': 'The Minister of Science, Higher Education and Innovation Bakhtiyar Orozov announced plans to establish a Center for Research and Innovation ...', 'date': '2025-10-24', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://unece.org/sites/default/files/2021-03/STI%20gap%20analysis_Kyrgyzstan_Report_%20Aziz%20Soltobaev.pdf', 'title': '[PDF] Science, Technology, and Innovation (STI) Gap Analysis of Kyrgyzstan', 'snippet': 'The Ministry of Education and Science is responsible for formulating priorities in the various scientific disciplines operating in the country. At the beginning ...', 'date': None, 'last_updated': '2025-07-24', 'matched': True}, {'url': 'https://ucentralasia.org/news/2024/november/uca-hosts-inaugural-digital-forum-to-advance-innovation-and-governance-in-kyrgyzstan', 'title': 'UCA Hosts Inaugural Digital Forum to Advance Innovation and ...', 'snippet': '“Together with UCA, the Ministry is fostering innovation and driving sustainable economic growth in Kyrgyzstan,” he said. Professor Christopher ...', 'date': '2024-11-15', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://en.ichei.org/en/news/information/936.html', 'title': '2024 High-Level Regional Policy Dialogue was held in Tashkent', 'snippet': 'Mr. Abdullaev Sherzod Shavkatovich, Chief Specialist of the Department of ICT Implementation and Digitalization of the Ministry of Higher Education, Science and ...', 'date': '2024-06-26', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099122503042384362/txt/P17859206fb87b0508a1505664ba702025.txt', 'title': 'P17859206fb87b0508a1505664... - Documents &amp; Reports', 'snippet': 'The Ministry of Education and Science of the Kyrgyz Republic Higher Education Quality and Innovation ... responsibilities on stakeholder engagement ...', 'date': None, 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://digital.gov.kg/wp-content/uploads/2024/06/concept-digital-transformation-of-the-kyrgyz-republic-for-2024-2028.pdf', 'title': '[PDF] concept-digital-transformation-of-the-kyrgyz-republic-for-2024-2028 ...', 'snippet': 'The strategic goal of the Kyrgyz Republic is to create a digital ecosystem that promotes sustainable and inclusive development, improves public ...', 'date': '2024-04-05', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://international-partnerships.ec.europa.eu/system/files/2022-01/mip-2021-c2021-8987-kyrgyz-republic-annex_en.pdf', 'title': '[PDF] KYRGYZ REPUBLIC Multi-annual Indicative Programme 2021-2027', 'snippet': 'The Kyrgyz Government recognises the transformative power of education in its Education. Development Strategy 2021-2040 and outlines measures in favour of ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://erasmusplus.kg/wp-content/uploads/2025/08/Challenges-in-Higher-Education-in-Kyrgyzstan_f.pdf', 'title': '[PDF] Challenges in Higher Education in Kyrgyzstan: Issues and Policy ...', 'snippet': 'The Ministry of Higher Education, Science and Innovation of the Kyrgyz Republic, responsible for university-level education, research, and intellectual property ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology (Bangladesh) in BANGLADESH responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Technology and Science in ZAMBIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1032,27 +1032,27 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology (Bangladesh) in BANGLADESH</t>
+          <t>Ministry of Technology and Science in ZAMBIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology</t>
+          <t>Ministry of Technology and Science</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>The core cybersecurity governance in Bangladesh is overseen primarily by the National Cyber Security Council (NCSC) and the National Cyber Security Agency (NCSA), established under the Cyber Security Act, 2023, which handle national cyber policy, incident response, and coordination among government, private sector, and international partners[1][2][3]. The Ministry of Science and Technology is not explicitly identified as responsible for cybersecurity policy, implementation, or hosting of national CERT/CSIRT bodies in the reviewed legal frameworks and national strategies. Instead, cybersecurity tasks are managed largely by dedicated cybersecurity bodies linked to the ICT Division and other specialized agencies, with the Ministry of Science and Technology playing a limited or supporting role if any. There is no evidence the Ministry leads cybersecurity committees or technical standards enforcement directly. Therefore, the Ministry holds a low level of cybersecurity responsibility in Bangladesh.</t>
+          <t>The Ministry of Technology and Science in Zambia has a high level of responsibility for cybersecurity governance. The Ministry is explicitly linked to cybersecurity through its oversight of the National Cyber Security Advisory and Coordinating Council and the Central Monitoring and Coordination Centre, which are key cybersecurity institutions in the country. According to official information, the Ministry formulates and reviews technology and science policies, including those that promote transformation into a digital economy, with cybersecurity as part of this mandate. Further, the 2021 Cyber Security and Cyber Crimes Act creates structures such as the Zambia Computer Incidence Response Team and a National Cyber Security Advisory and Coordinating Council, both operating under the authority of government ministries including this Ministry. The Ministry collaborates with agencies and law enforcement on cybersecurity and hosts or is connected to key cybersecurity infrastructure and regulatory bodies. This is corroborated by Ministry documents and the Cyber Security Act that mention coordination with the Ministry on cyber matters, as well as public reports and trainings led or supported by the Ministry. Therefore, the Ministry satisfies the criteria of policy responsibility, hosting cybersecurity coordinating bodies, and participation in cybersecurity planning and enforcement.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1062,14 +1062,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[{'url': 'https://rsisinternational.org/journals/ijriss/articles/cyber-security-governance-under-the-cyber-laws-of-bangladesh-an-overview/', 'title': 'Cyber Security Governance Under the Cyber Laws of Bangladesh', 'snippet': 'Established by the Act, the Agency is responsible for implementing and overseeing national cyber security strategies, policies, and programs. It ...', 'date': '2025-05-10', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Bangladesh_10041_41196.pdf', 'title': '[PDF] evsjv‡`k †M‡RU - ITU', 'snippet': "The document is Bangladesh's National Cybersecurity Strategy, aiming to protect against cyber threats and create a safe, secure critical national information ...", 'date': None, 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://dig.watch/resource/bangladesh-cyber-security-strategy-2021-2025', 'title': 'Bangladesh cyber security strategy 2021–2025', 'snippet': 'Its scope covers the entire spectrum of cybersecurity concerns, including protecting national infrastructure, strengthening governance, enhancing capacity, ...', 'date': '2025-03-25', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.ti-bangladesh.org/upload/files/position-paper/2024/pcsr/Review-of-proposed-Cyber-Security-Rules-2024-En.pdf', 'title': '[PDF] Review of Proposed Cyber Security Rules, 2024', 'snippet': 'To ensure data security and interoperability and freedom of information, the 2002 ICT policy emphasized on setting of encryption standards and ...', 'date': '2024-06-13', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/bangladesh-cybersecurity-opportunities', 'title': 'Bangladesh Cybersecurity Opportunities', 'snippet': 'Bangladesh is experiencing a rapid evolution in its cybersecurity landscape, driven by increasing digitalization and a surge in cyber threats.', 'date': '2024-11-14', 'last_updated': '2024-11-16', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bd/', 'title': 'NCSI :: Bangladesh - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-02-06', 'matched': True}, {'url': 'https://www.universepg.com/public/img/storage/journal-pdf/1755339483_The_future_of_cybersecurity_and_data_privacy_in_Bangladesh_identifying_the_legislative_gaps.pdf', 'title': '[PDF] The Future of Cybersecurity and Data Privacy in Bangladesh', 'snippet': 'Existing laws in Bangladesh are deficient in protecting user rights and data security, with weaknesses in user consent, breach notifications, ...', 'date': '2025-08-13', 'last_updated': '2025-09-26', 'matched': True}]</t>
+          <t>[{'url': 'https://www.mots.gov.zm/wp-content/uploads/2024/02/Act-No.-2-of-2021The-Cyber-Security-and-Cyber-Crimes.pdf', 'title': '[PDF] Act No. 2 of 2021The Cyber Security and Cyber Crimes.pdf', 'snippet': '(m) maintain a register of cyber security service providers;. (n) coordinate with law enforcement agencies to ensure safe cyber space and ...', 'date': '2021-03-24', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://lexafrica.com/2021/04/zambia-cyber-security-and-cyber-crimes-act/', 'title': 'Zambia: Cyber Security and Cyber Crimes Act - LEX Africa', 'snippet': 'The purpose of the Cyber Act is, amongst other things, to provide for cyber security in Zambia, to ensure protection of persons against cyber crime.', 'date': '2021-04-29', 'last_updated': '2025-05-19', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=Vtq_aXu8yH0', 'title': "Zambia's 2025 Cyber Laws – Security or Digital Tyranny? - YouTube", 'snippet': 'This is not fiction. This is your future on trial. In this episode, we take a sharp, objective deep dive into the Cyber Security Act No.', 'date': '2025-04-20', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.mots.gov.zm/?page_id=1153', 'title': 'About the Ministry', 'snippet': 'The Ministry of Technology and Science is responsible for formulating and reviewing Technology and Science policies in order to contribute to economic growth.', 'date': '2023-02-06', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.mots.gov.zm/?p=4484', 'title': 'ITU COLLABORATION STRENGTHENS CYBER SPACE ...', 'snippet': 'Government is committed to providing advanced training for prosecutors and other law enforcement agencies, equipping them with skills in cyber ...', 'date': '2024-11-25', 'last_updated': '2025-09-25', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the State Committee on Science and Technology of the Republic of Belarus in BELARUS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department of Industry, Science and Resources in AUSTRALIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1077,27 +1077,27 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>State Committee on Science and Technology of the Republic of Belarus in BELARUS</t>
+          <t>Department of Industry, Science and Resources in AUSTRALIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>State Committee on Science and Technology of the Republic of Belarus</t>
+          <t>Department of Industry, Science and Resources</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Available information on Belarus's cybersecurity governance identifies key roles for agencies such as the Operations and Analysis Center under the President of the Republic of Belarus, which coordinates state cybersecurity efforts and information security. National cybersecurity strategy and coordination are linked mostly to presidential and security council bodies rather than the State Committee on Science and Technology. No explicit mention was found of the State Committee on Science and Technology having responsibilities over cybersecurity policy, technical coordination, or hosting a national CERT/CSIRT. Belarus’s legal and strategic documents on information security and cybersecurity do not reference this committee as a responsible entity. Rather, cybersecurity oversight and implementation are embedded within national security and presidential structures, while the State Committee on Science and Technology is primarily focused on science and technology policy without documented cybersecurity mandate or coordination roles.[1][4][5]</t>
+          <t>The Department of Industry, Science and Resources (DISR) in Australia is involved in aspects related to technology policy and the development of the cyber security industry, including cyber security research and industry development[1][2]. It hosts divisions related to cyber and infrastructure security policy and participates in initiatives concerning critical infrastructure protection and cyber policy coordination[1]. However, it does not lead national cybersecurity operations or responses directly; these responsibilities primarily belong to the Australian Cyber Security Centre (ACSC), which is part of the Australian Signals Directorate (ASD), and the Department of Home Affairs which leads cyber policy coordination and enforcement efforts[4][5][7]. Therefore, DISR plays a supporting and enabling role in cybersecurity via industry development and strategic policy rather than direct governance, prevention, response, or enforcement. This assessment is based on documented government structure and national strategy descriptions, clearly distinguishing between leadership in cyber operations and a role focused on industry and technology policy[1][2][4][7].</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1107,14 +1107,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/doctrine-of-information-security-of-the-republic-of-belarus', 'title': 'Doctrine of Information Security of the Republic of Belarus', 'snippet': "The Doctrine of Information Security of the Republic of Belarus outlines the country's strategic approach to securing its information sphere.", 'date': '2024-06-24', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://papers.academic-conferences.org/index.php/eccws/article/view/2518', 'title': "Belarus' State Control and Emerging Cyber Threats", 'snippet': "This paper provides a comprehensive overview of the cyber landscape in Belarus, with a focus on the Belarus government's use of cyber activities.", 'date': '2024-06-21', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://www.pism.pl/publications/belarus-updated-security-strategies-identify-threats-from-the-west', 'title': 'Belarus Updated Security Strategies Identify Threats from the West', 'snippet': 'Changes to the National Security Concept. The NSC is the most important document identifying the sources of threats to the Belarusian state, ...', 'date': '2024-05-21', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/by_2022/', 'title': 'NCSI :: Belarus - National Cyber Security Index', 'snippet': '... Belarus is a government agency operating as part of the national security system. ... national-level cyber security strategy or other equivalent document.', 'date': '2022-02-28', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-belarus/', 'title': 'Cyber Security in Belarus - Blog | Gavin Dennis - Certified and ...', 'snippet': 'The Belarusian government has shown interest in improving cyber security. They have some national strategies and policies related to cyber ...', 'date': '2024-10-11', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://mfa.gov.by/en/mulateral/global_issues/inform/', 'title': 'International Information Security - Ministry of Foreign Affairs of the ...', 'snippet': 'Belarus gives high priority to security issues in cyberspace, including in the context of countering terrorist threats. The introduction of information and ...', 'date': '2022-09-25', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://rm.coe.int/eap-cybercrime-and-cybersecurity-strategies/168093b89c', 'title': '[PDF] Cybercrime and cybersecurity strategies in the Eastern Partnership ...', 'snippet': 'There is no national cybercrime strategy in Belarus. Chapter 31 of the Criminal Code deals with cybercrime offences. While substantive cybercrime offences ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://belaruspartisan.org/en/politics/belarus-cybersecurity-crackdown/', 'title': 'How the Regime Controls the Digital Space in 2025 - Belarus Partisan', 'snippet': 'The Belarus cybersecurity crackdown is not an isolated policy but part of a broader repression strategy. Digital control complements ...', 'date': '2025-08-21', 'last_updated': None, 'matched': True}, {'url': 'https://websites.fraunhofer.de/CIPedia/index.php/National_Cyber_Security_Strategy', 'title': 'National Cyber Security Strategy - CIPedia', 'snippet': "'National cybersecurity strategy' means a coherent framework of a Member State providing strategic objectives and priorities in the area of cybersecurity.", 'date': '2025-10-10', 'last_updated': '2025-10-10', 'matched': True}]</t>
+          <t>[{'url': 'https://techpolicy.au/wp-content/uploads/2024/08/Final-240822_Index_Federal-Government-Tech-Digital-and-Cyber-1.pdf', 'title': '[PDF] Index: Federal Government Tech, Digital &amp; Cyber Responsibilities', 'snippet': 'Department of Industry, Science and Resources (DISR) leads on manufacturing and commerce, including industry and market developments; technology policy ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.dfat.gov.au/sites/default/files/australian-gov-cyber-ecosystem.pdf', 'title': '[PDF] ANNEX E AUSTRALIAN CYBER GOVERNANCE', 'snippet': 'The Department of Industry, Innovation and Science is responsible for cyber security industry development, cyber security research and development, and ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.cyber.gov.au/sites/default/files/2024-06/03.%20ISM%20-%20Guidelines%20for%20Cyber%20Security%20Roles%20(June%202024).pdf', 'title': '[PDF] Guidelines for Cyber Security Roles - Information Security Manual', 'snippet': 'The CISO provides leadership, oversees the program, ensures compliance, aligns security with business, and reports to the executive committee.', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.asd.gov.au/about/what-we-do/cyber-security', 'title': 'Cyber security | Australian Signals Directorate', 'snippet': 'ASD leads cyber security efforts, provides advice, offers a hotline, publishes alerts, and develops mitigation strategies like the Essential Eight.', 'date': '2022-03-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.homeaffairs.gov.au/cyber-security-subsite/files/2023-cyber-security-strategy.pdf', 'title': '[PDF] 2023-2030 Australian Cyber Security Strategy', 'snippet': 'Share strategic threat intelligence with industry. Industry has critical responsibilities to manage and mitigate cyber risk across the economy.', 'date': '2023-11-14', 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://www.landers.com.au/legal-insights-news/cybersecurity-in-australia-policies-funding-initiatives', 'title': 'Cyber security in Australia: Policies, funding and initiatives for the ...', 'snippet': 'A summary of the policies, funding and initiatives to promote better cybersecurity and cyber resilience in Australia for the benefit of the digital economy.', 'date': '2022-06-21', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.homeaffairs.gov.au/about-us/our-portfolios/cyber-security/our-partners', 'title': 'Our partners - Department of Home Affairs', 'snippet': 'The Minister for Industry and Innovation\u200b is responsible for the Department of Industry, Science and Resources, which supports cyber security ...', 'date': '2025-05-28', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.industry.gov.au/science-technology-and-innovation/technology', 'title': 'Technology | Department of Industry Science and Resources', 'snippet': "Promoting and protecting critical technologies · promote Australia's research, ideas, and industrial strengths and capabilities · encourage business and industry ...", 'date': '2025-09-04', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.space.gov.au/cyber-security-specialist', 'title': 'Cyber security specialist | Australian Space Agency', 'snippet': 'Cyber security specialists protect networks from cyber attacks, manage incident responses, and ensure secure data transmissions, especially in the space ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://business.gov.au/-/media/grants-and-programs/growing-and-professionalising-the-cyber-industry/growing-and-professionalising-the-cyber-security-industry---grant-opportunity-guidelines-pdf.pdf?sc_lang=en&amp;hash=F81330A2ACF1A5B5DEC75F1E34A9BE3A', 'title': '[PDF] growing-and-professionalising-the-cyber-security-industry---grant ...', 'snippet': 'The objectives of the grant program are to: ▫ establish a pilot industry-led cyber security professionalisation scheme. ▫ provide clear career, ...', 'date': '2024-12-18', 'last_updated': '2025-09-04', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Posts and Telecommunications in LIBERIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology (Bangladesh) in BANGLADESH responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1122,27 +1122,27 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ministry of Posts and Telecommunications in LIBERIA</t>
+          <t>Ministry of Science and Technology (Bangladesh) in BANGLADESH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ministry of Posts and Telecommunications</t>
+          <t>Ministry of Science and Technology (Bangladesh)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>The Ministry of Posts and Telecommunications (MoPT) in Liberia is explicitly responsible for cybersecurity policy and coordination according to the National ICT Policy 2019-2024, which is under its formulation and alignment role. The Ministry oversees the development of ICT infrastructure, including ensuring critical ICT infrastructure is well protected and implements effective cybersecurity response mechanisms[2][3]. The Ministry is also responsible for approving cybersecurity policies developed by other government ministries, agencies, and commissions (MACs), emphasizing its governance role across the public sector cybersecurity landscape[1]. Moreover, the Ministry works jointly with institutions like the Liberia Telecommunications Authority (LTA) to enforce privacy and data protection laws, highlighting its active role in cybersecurity enforcement and regulatory oversight[4]. The Ministry launched initiatives to promote cybersecurity awareness and digital literacy, further extending its responsibility to cybersecurity culture and capacity-building[5]. Although the Liberia Telecommunications Authority (LTA) performs regulatory functions, the Ministry remains the key policy and strategic coordinator for cybersecurity within Liberia[2][3]. These points collectively demonstrate a high level of responsibility held by the Ministry of Posts and Telecommunications for Liberia's national cybersecurity governance, prevention, planning, response, and enforcement.</t>
+          <t>The Ministry of Science and Technology in Bangladesh is not explicitly identified in national cybersecurity strategies, laws, or reports as the responsible body for cybersecurity policy, implementation, or coordination. The primary governance and operational responsibilities related to cybersecurity appear to fall under other government entities, such as agencies under the ICT Division and specific cybersecurity councils or agencies established by the government. The Bangladesh Cyber Security Strategy 2021–2025 and the Cyber Security Act 2023 outline a multi-agency approach, including a Cyber Security Council and other specialized bodies, but there is no direct evidence linking the Ministry of Science and Technology as a lead or major participant in cybersecurity governance, technical coordination, CERT hosting, or national cybersecurity committees. Due to the lack of specific references or roles assigned to this ministry in cybersecurity frameworks and initiatives, its role in cybersecurity is assessed as low.[1][2][3][6]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1152,14 +1152,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[{'url': 'https://liberianinvestigator.com/commentary/cybersecurity-in-government-strengthening-culture-protecting-integrity-and-mitigating-risks-in-liberias-macs-and-private-sector/', 'title': 'Cybersecurity in Government: Strengthening Culture, Protecting ...', 'snippet': 'MACs in Liberia can mitigate personal risks by instituting policies that require strong password practices and multi-factor authentication (MFA) ...', 'date': '2024-11-01', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://mopt.gov.lr/wp-content/uploads/2022/06/ApprovedNationalICTPolicy2019-2024Liberia.pdf', 'title': '[PDF] LIBERIA INFORMATION AND COMMUNICATIONS TECHNOLOGY ...', 'snippet': 'This policy amends the National Telecommunications ICT Policy of 2010. While the 2010 policy laid the basis for future policy development, ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.digitaldevelopment.org/wp-content/uploads/2024/04/Liberia-ICT-Policy-2019-2024.pdf', 'title': '[PDF] Liberia-ICT-Policy-2019-2024.pdf - Digital Development Site', 'snippet': 'Role of the Ministry of Posts and Telecommunications. To formulate, align and coordinate the development of ICT policy and infrastructure across the ...', 'date': None, 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://africachinareporting.com/liberia-struggles-to-enforce-privacy-and-data-protection-laws/', 'title': 'Liberia struggles to enforce privacy and data protection laws - ACRP', 'snippet': "Liberia's Ministry of Post and Telecommunications launched a five-year National Information and Communications Technology (ICT) Policy in 2021.", 'date': '2025-02-27', 'last_updated': '2025-03-09', 'matched': True}, {'url': 'https://techafricanews.com/2025/10/24/liberia-launches-24-hour-cybersecurity-hackathon-to-build-next-generation-digital-defenders/', 'title': 'Liberia Launches 24-Hour Cybersecurity Hackathon to Build Next ...', 'snippet': "The Ministry described the program as a bold step toward advancing cybersecurity awareness, promoting digital literacy, and empowering Liberia's ...", 'date': '2025-10-24', 'last_updated': None, 'matched': True}, {'url': 'https://www.ltcmobile.com.lr/ict_policy', 'title': 'ICT Policy - LTC | Mobile', 'snippet': 'Ensure critical ICT infrastructure is well protected and effective response mechanisms are in place to deal with cybersecurity issues and other physical ...', 'date': '2019-01-01', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://frontpageafricaonline.com/opinion/commentary/the-untold-story-strives-for-liberias-better-information-telecommunications-technology-ict-at-the-ministry-of-posts-telecommunications/', 'title': "The Untold Story &amp; Strives For Liberia's Better Information ...", 'snippet': 'By law, the Ministry is mandated to ensure the expeditious movement of mails and formulate Postal and Telecommunications policies that are ...', 'date': '2020-11-24', 'last_updated': '2025-06-02', 'matched': True}]</t>
+          <t>[{'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Bangladesh_10041_41196.pdf', 'title': '[PDF] evsjv‡`k †M‡RU - ITU', 'snippet': 'The Government of Bangladesh has overall responsibility for securing the infrastructure in public interest. To improve cybersecurity in Bangladesh, it is vital.', 'date': None, 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://dig.watch/resource/bangladesh-cyber-security-strategy-2021-2025', 'title': 'Bangladesh cyber security strategy 2021–2025', 'snippet': 'Its scope covers the entire spectrum of cybersecurity concerns, including protecting national infrastructure, strengthening governance, enhancing capacity, ...', 'date': '2025-03-25', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.ti-bangladesh.org/upload/files/position-paper/2024/pcsr/Review-of-proposed-Cyber-Security-Rules-2024-En.pdf', 'title': '[PDF] Review of Proposed Cyber Security Rules, 2024', 'snippet': 'To ensure data security and interoperability and freedom of information, the 2002 ICT policy emphasized on setting of encryption standards and ...', 'date': '2024-06-13', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/bangladesh-cybersecurity-opportunities', 'title': 'Bangladesh Cybersecurity Opportunities', 'snippet': 'Bangladesh is experiencing a rapid evolution in its cybersecurity landscape, driven by increasing digitalization and a surge in cyber threats.', 'date': '2024-11-14', 'last_updated': '2024-11-16', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bd/', 'title': 'NCSI :: Bangladesh - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-02-06', 'matched': True}, {'url': 'https://www.universepg.com/public/img/storage/journal-pdf/1755339483_The_future_of_cybersecurity_and_data_privacy_in_Bangladesh_identifying_the_legislative_gaps.pdf', 'title': '[PDF] The Future of Cybersecurity and Data Privacy in Bangladesh', 'snippet': 'This research paper analyzes the existing legal framework in. Bangladesh and compares it with international standards such as the European ...', 'date': '2025-08-13', 'last_updated': '2025-09-26', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in EGYPT responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, specifically its Vice Ministry of Science and Technology in BOLIVIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1167,17 +1167,17 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in EGYPT</t>
+          <t>Ministry of Education, specifically its Vice Ministry of Science and Technology in BOLIVIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Education, Vice Ministry of Science and Technology</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research in Egypt is primarily focused on higher education, training, academic platforms, and qualification related to the labor market, including efforts to raise cybersecurity awareness among its employees and affiliates. However, the national cybersecurity governance, policy, technical coordination, and enforcement responsibilities clearly rest with entities such as the Egyptian Supreme Cybersecurity Council (ESCC), chaired by the Minister of Communications and Information Technology, and specialized bodies like EG-CERT under the Ministry of Communications and Information Technology. The Ministry of Higher Education supports cybersecurity education programs and participates in awareness initiatives but is not assigned national cybersecurity strategy leadership, policy implementation, or technical coordination roles according to official national strategy documents and cybersecurity governance structures[1][2][3][4][5][7][8][9].</t>
+          <t>The available evidence does not indicate that the Ministry of Education, specifically its Vice Ministry of Science and Technology in Bolivia, is explicitly responsible for cybersecurity policy, implementation, or technical coordination at the national level. While Bolivia has taken steps to incorporate cybersecurity into education, such as including cyber safety competencies in primary and secondary education curricula and offering bachelor's and master's level cybersecurity programs, these efforts are generally focused on education and awareness rather than overarching cybersecurity governance or operational responsibility (NCSI Bolivia, 2022[6]). There is no evidence that this ministry hosts a national CERT/CSIRT/CIRT, leads or is a member of a national cybersecurity committee or council, oversees information security standards, or is responsible for network protection. The main organizations mentioned in relation to cybersecurity in Bolivia are the military, which has established a cybersecurity and cyber defense center, and other public bodies working on legal frameworks and industrial cybersecurity, but not the Ministry of Education or its Vice Ministry of Science and Technology (NCSI Bolivia, 2022[6]; Centro de Ciberseguridad Industrial, 2022[7]). Therefore, the responsibility level for cybersecurity governance, prevention, planning, response, or enforcement is assessed as LOW.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1197,14 +1197,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/EgyptNational%20Cybersecurity%20Strategy-English%20version-18%20Nov%202018.pdf', 'title': '[PDF] National Cybersecurity Strategy1 2017-2021 - ITU', 'snippet': 'The national cybersecurity strategy document has been developed in view of the strategic objectives that led to the creation of the Egyptian Supreme ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://followict.news/en/securing-the-future-how-egypt-is-leading-the-cybersecurity-revolution/', 'title': 'Securing the Future.. How Egypt Is Leading The Cybersecurity ...', 'snippet': 'This requires all government and private entities to comply with cybersecurity standards to avoid falling victim to such malicious cyberattacks.', 'date': '2025-05-27', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://egcert.eg/wp-content/uploads/2023/02/Cybersecurity-Educational-Programs-for-MSMEs.docx.pdf', 'title': '[PDF] Cybersecurity Educational Programs for MSMEs.docx - EG-CERT', 'snippet': 'A] Government supports the following cyber security programs in universities: “These Programs are under the supervision and support of the Egyptian Supreme ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/eg/', 'title': 'NCSI :: Egypt - National Cyber Security Index', 'snippet': '... the roles and responsibilities of ... It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education ...', 'date': '2023-12-29', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://fdcsummit.org/news/mohe-and-mcs-unite-to-equip-the-next-generation-with-cybersecurity-and-digital-skills', 'title': 'Egypt International Exhibition Center - FDC Summit 2025', 'snippet': "The MoHE and MCS sign an MoU to upskill students and staff in cybersecurity, empowering Egypt's digital future.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-egypt-egy-top-cybersecurity-employers-in-egypt-whos-hiring-and-what-they-look-for', 'title': "Top Cybersecurity Employers in Egypt: Who's Hiring and What They ...", 'snippet': 'Explore top cybersecurity employers in Egypt, key companies hiring, popular roles, and government initiatives boosting the sector.', 'date': '2024-12-24', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://sis.gov.eg/en/media-center/files/higher-education-and-scientific-research/', 'title': 'Higher Education and Scientific Research', 'snippet': 'The Ministry sought to be a leading center in the field of higher education, training and qualification for the labor market, and to contribute to achieving ...', 'date': '2024-01-05', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'http://skillshub.mohesr.gov.eg/index.php/component/content/article/cybersecurity-awareness-session?catid=8&amp;Itemid=228', 'title': 'Cybersecurity Awareness Session - MoHESR Skills Hub', 'snippet': 'The initiative aims to raise awareness among all employees of the Ministry from all its affiliates in the higher education and scientific research system of the ...', 'date': None, 'last_updated': '2025-05-08', 'matched': True}, {'url': 'http://skillshub.mohesr.gov.eg/index.php/component/content/category/blog?Itemid=228', 'title': 'Blog - MoHESR Skills Hub', 'snippet': 'Cybersecurity Awareness Session\u200b\u200b The initiative aims to raise awareness among all employees of the Ministry from all its affiliates in the ...', 'date': '2024-09-23', 'last_updated': '2025-09-03', 'matched': True}]</t>
+          <t>[{'url': 'https://www.oecd.org/content/dam/oecd/en/publications/reports/2023/09/building-a-skilled-cyber-security-workforce-in-latin-america_6210dead/9400ab5c-en.pdf', 'title': '[PDF] Building a Skilled Cyber Security Workforce in Latin America - OECD', 'snippet': '... Ministry of Education and the Ministry of Labour and Social Protection started to promote cyber security education programmes at all educational levels in 2020.', 'date': None, 'last_updated': '2024-07-16', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://sherloc.unodc.org/cld/zh/education/tertiary/cybercrime/module-8/key-issues/international-cooperation-on-cybersecurity-matters.html', 'title': 'International Cooperation on Cybersecurity Matters - UNODC Sherloc', 'snippet': 'The capacity-building pillar covers efforts to promote cybersecurity awareness, education and training. Examples include public awareness campaigns, ...', 'date': '2018-11-01', 'last_updated': '2025-03-10', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-bolivia-bol-top-indemand-cybersecurity-jobs-for-beginners-in-bolivia', 'title': 'Top In-Demand CyberSecurity Jobs for Beginners in Bolivia', 'snippet': 'Cybersecurity professionals in Bolivia can access resources such as workshops, government-backed training, certifications like CEH and CISSP, ...', 'date': '2024-12-23', 'last_updated': '2025-03-18', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': 'academic institutions offer cybersecurity-related education and training, but without coordination or input from the Ministry of Education nor the.', 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bo_2022/', 'title': 'NCSI :: Bolivia - National Cyber Security Index', 'snippet': 'Primary or secondary education curricula include cyber safety / computer safety competences. ... 5.1. Cyber security responsibility for digital service providers ...', 'date': '2021-09-24', 'last_updated': '2024-10-11', 'matched': True}, {'url': 'https://www.cci-es.org/en/maps/bolivia-en/', 'title': 'Bolivia - Centro de Ciberseguridad Industrial', 'snippet': 'Industrial Cybersecurity Consulting / Advisory; Implementation of Security Management; Network and Architecture Design; Industrial Firewalls; Backup/Security ...', 'date': '2025-07-21', 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://festivaldelima.com/2017/resumen-de-la-clase-maestra-de-pablo-trapero/?s-news-8797719-2025-11-13-bolivias-new-security-approach-focus-on-prevention-education-and-strategic-surveillance', 'title': "Bolivia's New Security Approach: Focus on Prevention, Education ...", 'snippet': 'The goal is to establish a sustainable, multi-sectoral approach that combines education, law enforcement, social programs, and technological ...', 'date': '2025-11-14', 'last_updated': None, 'matched': True}, {'url': 'https://2021-2025.state.gov/wp-content/uploads/2024/05/ICS_WHA_Bolivia_Public.pdf', 'title': '[PDF] ICS Bolivia', 'snippet': 'Safeguarding the safety and security of U.S. citizens in Bolivia is a top priority. Natural disasters and political unrest are common in Bolivia, requiring ...', 'date': None, 'last_updated': '2025-03-05', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/GCIv5/2401416_1b_Global-Cybersecurity-Index-E.pdf', 'title': '[PDF] Global Cybersecurity Index 2024 - ITU', 'snippet': 'Considering the questions on CII under the legal and organizational pillars, the most common feature is to have an agency responsible for CII cybersecurity.', 'date': None, 'last_updated': '2024-09-12', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in ALGERIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Trade and Industry in SINGAPORE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1212,17 +1212,17 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in ALGERIA</t>
+          <t>Ministry of Trade and Industry in SINGAPORE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Trade and Industry</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1232,7 +1232,9 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research in Algeria plays a supportive and developmental role with respect to cybersecurity primarily through academic, research, and educational initiatives. It manages entities like the Technology Center of Sidi Abdellah and the University of Sidi Abdellah, which collaborate on STEM, AI, and digital transformation research, including cybersecurity culture strengthening and cyber education programs at graduate level. It co-established the AI Council, which guides AI governance. However, the Ministry is not cited as the main policy-maker, technical coordinator, or enforcement body for national cybersecurity strategy or regulation. Those primary responsibilities belong to the National Council for Information System Security under the President of the Republic, and the Ministry of National Defense, along with the Ministry of Post and Telecommunications which shape and enforce cybersecurity regulations. The Ministry of Higher Education contributes indirectly via research and capacity building rather than operational cybersecurity governance or direct implementation, and it does not host the national CERT or have enforcement authority over network security or cyber incident response[1][2][4][6][8].</t>
+          <t>The Ministry of Trade and Industry (MTI) in Singapore is not the primary agency responsible for national cybersecurity policy, implementation, or technical coordination. The Cyber Security Agency of Singapore (CSA), established under the Prime Minister's Office, is the national agency overseeing cybersecurity functions, including policy, incident response, and coordination with sector leads to protect critical information infrastructure[6]. The Cybersecurity Act 2018 designates the Commissioner of Cybersecurity (under CSA) with duties such as overseeing and promoting cybersecurity, advising the government, monitoring threats, responding to incidents, and licensing cybersecurity service providers[3].
+MTI's role is more indirect, as it oversees economic and industrial development, including digital transformation and technology adoption, which may touch on cybersecurity aspects. For example, MTI supports initiatives like the SMEs Go Digital program, which includes grants for SMEs to adopt pre-approved cybersecurity solutions, but this is focused on enabling business resilience rather than direct cybersecurity governance or enforcement[5]. MTI does not host a national CERT/CSIRT, nor is it mentioned as leading or being a member of the main cybersecurity committees or councils. There is no evidence that MTI is responsible for setting information security standards or network protection at the national level, nor does it appear to lead cybersecurity enforcement or response activities[3][6][5].
+Therefore, while MTI may participate in broader digital economy initiatives that include cybersecurity components, its responsibility for cybersecurity is limited compared to CSA.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1242,14 +1244,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/algeria-digital-economy', 'title': 'Algeria - Digital Economy - International Trade Administration', 'snippet': 'They work on identifying cyber threats and implementing effective control and detection mechanisms.', 'date': '2024-09-19', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://digitalpolicyalert.org/digest/dpa-digital-digest-algeria', 'title': 'DPA Digital Digest: Algeria [2025 Edition]', 'snippet': 'In June 2023, the Ministry of Higher Education and Scientific Research and the Ministry of Knowledge Economy jointly established the AI Council.', 'date': '2025-04-16', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://asjp.cerist.dz/en/downArticle/526/9/2/256221', 'title': '[PDF] Algerian Journal of Law And political Sciences - p. 1004/1019 - ASJP', 'snippet': "This study examines the transition to administrative digitalization in Algeria's higher education and research, aiming to enhance public ...", 'date': '2024-12-01', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.univ-alger3.dz/wp-content/uploads/2024/05/Conference-Preamble-EN.pdf', 'title': '[PDF] The role of the university in strengthening a culture of cyber security', 'snippet': 'Ministry of Higher Education and Scientific Research. University of Algiers 3. In collaboration with: The research team "Cyber security and ...', 'date': '2024-05-28', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/dz_2022/', 'title': 'NCSI :: Algeria - National Cyber Security Index', 'snippet': 'The government has a competent authority in the field of cyber/information security that has the power to supervise public and private digital service ...', 'date': '2021-04-26', 'last_updated': '2024-11-14', 'matched': True}, {'url': 'https://www.univ-setif.dz/externe/Ministre-2024/Discours-Ministre-ANG.pdf', 'title': '[PDF] Ministry of Higher Education and Scientific Research', 'snippet': 'Beyond setting up the Graduate School of Cyber-Security, our ambitions are to design an Algerian system of international scope able to protect ...', 'date': '2024-09-24', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'http://www.dgrsdt.dz/public/index.php/en/blog/launch-of-algerian-research-projects-approved-under-the-initiative-of-arab-research-and-innovation-co-funded-alliances/132', 'title': 'Launch of Algerian Research Projects Approved Under the Initiative ...', 'snippet': '“Launch of Algerian Research Projects Approved Under the Initiative of Arab Research and Innovation Co-Funded Alliances“.', 'date': '2025-06-25', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.mesrs.dz/index.php/en/2025/01/the-minister-of-higher-education-and-scientific-research-inspects-the-sectors-infrastructure-in-oran/', 'title': 'The Minister of Higher Education and Scientific Research inspects ...', 'snippet': 'This will allow Algeria to position itself in the field of cybersecurity, and to be distinguished as a competitive country with university ...', 'date': '2025-01-16', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://imcra-az.org/uploads/public_files/2025-04/boukaabache.pdf', 'title': '[PDF] Sci. Educ. Innov. Context Mod. Probl. P-ISSN: 2790-0169 E-ISSN ...', 'snippet': '3 This falls under the responsibilities of executive directors at the Ministry of Higher Education and Scientific Research. They are tasked ...', 'date': '2025-04-11', 'last_updated': '2025-10-31', 'matched': True}]</t>
+          <t>[{'url': 'https://www.tech.gov.sg/about-us/what-we-do/our-capabilities/cybersecurity/', 'title': 'Cybersecurity Capabilities - GovTech Singapore', 'snippet': 'The Government Cybersecurity Operations Centre (GCSOC) p. GCSOC plays a key role in detecting and mitigating cyber threats against the Whole-of-Government.', 'date': '2025-07-08', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/singapore-cybersecurity-legislation', 'title': 'Singapore Cybersecurity Legislation', 'snippet': 'Additional Provisions: Cyber Outage Reporting: CII operators must report cyber outages, attacks, or supply chain threats affecting their ...', 'date': '2024-06-26', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://sso.agc.gov.sg/Act/CA2018?ViewType=Pdf&amp;_=20230130140832', 'title': '[PDF] Cybersecurity Act 2018 - Singapore Statutes Online', 'snippet': '(4) Subject to any general or special directions of the Minister, the. Commissioner is responsible for the administration of this Act, and has and may perform ...', 'date': None, 'last_updated': '2025-01-27', 'matched': True}, {'url': 'https://www.nortonrosefulbright.com/en-419/knowledge/publications/a027c3a8/singapore-cybersecurity---new-amendments-introduce-four-key-changes', 'title': 'Singapore cybersecurity – new amendments introduce four key ...', 'snippet': 'The provision broadly allows the Minister to direct any organisation “to take measures to prevent, detect or counter a threat to computer services.”', 'date': '2017-03-23', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/singapore-cybersecurity-market', 'title': 'Singapore Cybersecurity Market - International Trade Administration', 'snippet': "Singapore's government invests in numerous initiatives to enhance the country's cyber defenses.", 'date': '2023-02-07', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.csa.gov.sg/news-events/press-releases/joint-statement-on-the-global-cybersecurity-labelling-initiative/', 'title': 'Joint Statement on the Global Cybersecurity Labelling Initiative', 'snippet': "It maintains an oversight of national cybersecurity functions, and works with sector leads to protect Singapore's Critical Information ...", 'date': '2025-10-23', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.exabeam.com/blog/compliance/guide-to-cybersecurity-compliance-in-singapore/', 'title': 'Guide to Cybersecurity Compliance in Singapore - Exabeam', 'snippet': 'This guide focuses on industry-specific regulations, there are also a few general guidelines in Singapore that are industry-agnostic.', 'date': '2023-01-02', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/Singapore_Cybersecurity_Strategy_2021.pdf', 'title': '[PDF] The Singapore Cybersecurity Strategy 2021 - CCDCOE', 'snippet': 'The Government will work closely with CII owners, the cybersecurity industry and key digital infrastructure owners to enable a coordinated approach to national ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Technology and Science in ZAMBIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Presidency, Economy, Labor, and Housing in ANDORRA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1257,44 +1259,44 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ministry of Technology and Science in ZAMBIA</t>
+          <t>Ministry of Presidency, Economy, Labor, and Housing in ANDORRA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ministry of Technology and Science</t>
+          <t>Ministry of Presidency, Economy, Labor, and Housing</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>The Ministry of Technology and Science in Zambia is explicitly responsible for cybersecurity policy, coordination, and oversight. It hosts the National Cyber Security Advisory and Coordinating Council, which is a key body for national cybersecurity governance [4]. The Ministry is also responsible for formulating and reviewing technology and science policies, including those related to cybersecurity, and coordinates research and innovation in the sector [4]. Furthermore, the Ministry oversees the Central Monitoring and Coordination Centre, which is established under the Cyber Security and Cyber Crimes Act and plays a central role in monitoring and coordinating cybersecurity activities, including the interception of communications under lawful orders [2][4]. The Ministry's mandate includes the coordination of ICT policy implementation, which encompasses cybersecurity, and it collaborates with statutory bodies such as the Zambia Information and Communications Technology Authority (ZICTA) on cybersecurity matters [3][4]. The Ministry's involvement in international collaborations and its representation in regional and international ICT institutions further underscores its high level of responsibility for cybersecurity in Zambia [3][4].</t>
+          <t>The Ministry of Presidency, Economy, Labor, and Housing in Andorra is not explicitly mentioned as the primary body responsible for cybersecurity policy, implementation, or technical coordination. There is no evidence that it hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, or oversees information security standards or network protection. However, the Ministry is involved in digital transformation and telecommunications, as indicated by the presence of the Secretary of State for Digital Transformation and Telecommunications, who is designated by Andorra Telecom, S.A.U., and participates in the Board of Trustees of Andorra Research and Innovation [8]. This suggests a tangential involvement in digital infrastructure, which may include aspects of cybersecurity, but not direct responsibility for national cybersecurity governance, prevention, planning, response, or enforcement. No national strategy, law, or report cited in the search results assigns direct cybersecurity responsibility to this Ministry.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[{'url': 'https://lexafrica.com/2021/04/zambia-cyber-security-and-cyber-crimes-act/', 'title': 'Zambia: Cyber Security and Cyber Crimes Act - LEX Africa', 'snippet': 'The purpose of the Cyber Act is, amongst other things, to provide for cyber security in Zambia, to ensure protection of persons against cyber crime.', 'date': '2021-04-29', 'last_updated': '2025-05-19', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=Vtq_aXu8yH0', 'title': "Zambia's 2025 Cyber Laws – Security or Digital Tyranny? - YouTube", 'snippet': 'This is not fiction. This is your future on trial. In this episode, we take a sharp, objective deep dive into the Cyber Security Act No.', 'date': '2025-04-20', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.mots.gov.zm/?page_id=189', 'title': 'Department of Communications - Ministry of Technology and Science', 'snippet': 'The Department of Communications was created to coordinate the implementation of the National ICT Policy following Government recognition and appreciation.', 'date': '2023-02-06', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://www.mots.gov.zm/?page_id=1153', 'title': 'About the Ministry', 'snippet': 'The Ministry of Technology and Science is responsible for formulating and reviewing Technology and Science policies in order to contribute to economic growth.', 'date': '2023-02-06', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.mots.gov.zm/?p=4484', 'title': 'ITU COLLABORATION STRENGTHENS CYBER SPACE ...', 'snippet': 'Government is committed to providing advanced training for prosecutors and other law enforcement agencies, equipping them with skills in cyber ...', 'date': '2024-11-25', 'last_updated': '2025-09-25', 'matched': True}]</t>
+          <t>[{'url': 'https://www.govern.ad/documents/d/guest/informe_fmi_andorra_2025-pdf-1?download=true', 'title': '[PDF] Principality of Andorra: 2025 Article IV Consultation-Press Release', 'snippet': 'Spending should be focused on the structural needs of the economy: social and affordable housing, upskilling the workforce and addressing labor ...', 'date': '2025-03-12', 'last_updated': '2025-07-15', 'matched': True}, {'url': 'https://setupandorra.com/en/news/the-guide-of-the-political-organizations-and-government-of-the-principality-of/', 'title': 'The Principality of Andorra : policy – The Government and its agencies', 'snippet': 'Andorra is a parliamentary monarchy with a government and parliament. Its policy is based on public agencies, ministries, and various public services.', 'date': '2021-02-17', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.imf.org/-/media/Files/Publications/CR/2024/English/1ANDEA2024001.ashx', 'title': '[PDF] Principality of Andorra: 2023 Article IV Consultation-Press Release', 'snippet': 'They welcomed the priority given to improving housing affordability and addressing potential labor shortages.', 'date': '2024-03-06', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://rsthomasp.com/en/news/196/foreign-investment-taxes-in-andorra/', 'title': 'Foreign investment taxes in Andorra - RS Thomas Real Estate', 'snippet': 'The purpose of this new law is to establish and regulate the fundamental aspects of the Tax on foreign investment in real estate in the Principality of Andorra.', 'date': '2024-03-06', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://andorraway.com/en/residency-in-andorra-new-rules-for-passive-resident-investment/', 'title': 'New Rules for Passive Resident Investment Impacting the Real ...', 'snippet': 'Residency in Andorra: The Government proposes increasing the minimum investment for passive residents to €800000 and improving conditions to reduce real ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.globalpropertyguide.com/europe/andorra/price-history', 'title': "Andorra's Residential Property Market Analysis 2025", 'snippet': 'Assessing the tax revenues collected since the implementation of the new tax, the Minister of the Presidency, Economy, Labor, and Housing, ...', 'date': '2025-01-31', 'last_updated': '2025-02-14', 'matched': True}, {'url': 'https://andorraway.com/en/residency-in-andorra-new-rules-for-passive-residents/', 'title': 'New Measures for Passive Residents in Andorra - AndorraWay', 'snippet': 'The goal of these measures is to reduce the current tension in the Andorran real estate market and to facilitate better access to housing for regular residents.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.ari.ad/en/governance-bodies', 'title': 'Governance bodies | Andorra Research + Innovation', 'snippet': 'Currently, Ms. Conxita Marsol Riart, Minister of Presidency, Economy, Labor, and Housing, represents the Government and serves as the President of the Board. ...', 'date': '2021-05-13', 'last_updated': '2024-09-21', 'matched': True}, {'url': 'https://www.state.gov/reports/2025-investment-climate-statements/andorra', 'title': 'Andorra - United States Department of State', 'snippet': 'The Ministry of Economy is responsible for administering anti-trust laws and reviews transactions for both domestic and international competition-related ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.andorrabusiness.com/en/creix-andorra/internationalization/business-missions/', 'title': 'Business Missions - Andorra Business', 'snippet': 'Andorra Business organizes business missions to various countries to help Andorran companies explore new business opportunities.', 'date': '2025-11-10', 'last_updated': '2025-11-11', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in SUDAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Innovation in ICELAND responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1302,17 +1304,17 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in SUDAN</t>
+          <t>Ministry of Higher Education, Science and Innovation in ICELAND</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Higher Education, Science and Innovation</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1322,7 +1324,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research in Sudan engages in activities related to cybersecurity awareness, education, and the protection of its own digital infrastructure. Evidence shows that the Ministry held discussions on enhancing cybersecurity culture in academic and governmental institutions and addressed topics such as data protection, service continuity, and countering cyberattacks. The Ministry has also emphasized expanding specialized academic programs in cybersecurity and incorporating cybersecurity and artificial intelligence courses for all majors in universities under its purview. Additionally, the Ministry manages its IT and network infrastructure, aiming to ensure digital security and service continuity in normal and exceptional circumstances[1]. However, there is no indication that this Ministry is explicitly responsible for national cybersecurity policy, implementation, hosting a national CERT/CSIRT, or leading cybersecurity governance at the country level. National cybersecurity strategy development and coordination mostly pertain to other governmental bodies as per typical government structures and the lack of such specific mentions for this Ministry in available documents[2][5]. Therefore, while the Ministry handles cybersecurity education and institutional IT security, it is not responsible for Sudan’s national cybersecurity governance or enforcement.</t>
+          <t>The Ministry of Higher Education, Science and Innovation in Iceland is involved in cybersecurity primarily through participation in the National Cybersecurity Coordination Centre of Iceland (NCC-IS or Eyvör), which is a cooperative platform including several public entities. The Ministry is linked with Rannís (the Icelandic Centre for Research) for managing funding and coordinating projects related to cybersecurity education, research, and innovation. However, direct operational responsibility such as policy implementation, technical coordination, national CERT hosting, or enforcement is carried out by other bodies like the Electronic Communications Office (ECOI), the Computer Emergency Response Team (CERT-IS), and the Ministry of the Interior. The Ministry of Higher Education, Science and Innovation's role focuses more on education, research, and fostering skills building in cybersecurity rather than direct governance or enforcement roles. It has been recognized in reports as contributing to internet policy and cybersecurity efforts but does not lead cybersecurity policy or response organization-wide. Furthermore, the 2022-2037 Icelandic National Cybersecurity Strategy was endorsed by the Minister for Transport and Local Government, with cybersecurity issues transferred to this Ministry only in 2022, indicating a recent and not primary role in overall cybersecurity governance. Therefore, the Ministry has a supportive and cooperative role with low-level direct responsibility for national cybersecurity governance, prevention, and enforcement.[1][2][4][5][8]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1332,14 +1334,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[{'url': 'https://allafrica.com/stories/202507250669.html', 'title': 'Sudan: Higher Education Ministry Discusses Ways to Enhance ...', 'snippet': 'The meeting witnessed an extensive discussion on ways to instill a culture of cybersecurity in academic and governmental institutions, and to ...', 'date': '2025-07-24', 'last_updated': '2025-07-25', 'matched': True}, {'url': 'https://mictps.gov.ss/wp-content/uploads/2024/11/South-Sudan-National-Cybersecurity-Strategy-Final-Version-1.pdf', 'title': '[PDF] South-Sudan-National-Cybersecurity-Strategy-Final-Version-1.pdf', 'snippet': 'The consultancy will be tasked with conducting an in-depth assessment of current cyber threats and capabilities, consulting with relevant stakeholders, and ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://nchr.elsevierpure.com/en/publications/cybersecurity-awareness-in-african-higher-education-institutions-/', 'title': 'Cybersecurity Awareness in African Higher Education Institutions', 'snippet': 'The results show that most undergraduate students in Sudan higher educational institutions have low cybersecurity awareness levels. Further investigation using ...', 'date': '2023-01-11', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://papers.ssrn.com/sol3/Delivery.cfm/4943502.pdf?abstractid=4943502&amp;mirid=1', 'title': '[PDF] Enhancing Cyber Security in South Sudan through Artificial ... - SSRN', 'snippet': 'The potential and difficulties of using artificial intelligence (AI) to improve cyber security in. South Sudan are examined in this essay.', 'date': '2024-09-01', 'last_updated': '2025-04-23', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-4', 'title': 'Ministry of Higher Education and Scientific Research', 'snippet': 'The Ministry of Higher Education and Scientific Research is a government ministry in Sudan responsible for higher education policies. Prof Mohamed Hassan Dahab ...', 'date': '2004-02-01', 'last_updated': '2024-12-04', 'matched': True}, {'url': 'https://www.cmi.no/publications/9643-sudanese-higher-education-in-crisis', 'title': 'Sudanese higher education in crisis - Chr. Michelsen Institute', 'snippet': 'Sudanese higher education is in crisis due to displacement, difficult living conditions, uncertain futures, and economic precarity for academics and students.', 'date': '2025-05-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.universityworldnews.com/post.php?story=20250826112753342', 'title': 'New post-war strategy wants to rebuild a damaged system', 'snippet': "Sudan's Ministry of Higher Education and Scientific Research has unveiled a strategy including the reconstruction of universities and research ...", 'date': '2025-08-27', 'last_updated': None, 'matched': True}, {'url': 'https://en.zooll.net/the-minister-of-higher-education-rents-the-role-of-the-higher-academy-for-strategic-and-security-studies/', 'title': 'The Minister of Higher Education rents the role of the ... - zooll net', 'snippet': 'The Minister of Higher Education rents the role of the Higher Academy for Strategic and Security Studies ... At the end of the visit, the director ...', 'date': '2025-09-11', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://uni.hi.is/helmut/research/eyvor-ncc/', 'title': 'the National Cybersecurity Coordination Centre of Iceland (NCC-IS ...', 'snippet': 'Develop and disseminate educational programmes: Coordinating, implementing and sharing educational activities and fostering cybersecurity skill building and ...', 'date': '2025-01-20', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://policyreview.info/articles/news/securing-icelands-digital-future/1791', 'title': "Securing Iceland's digital future: A call for political action", 'snippet': "Iceland has one of the world's oldest parliaments, strong democratic values and is a global leader in eGovernance, cyber-democracy, and ICT.", 'date': '2024-08-23', 'last_updated': '2025-03-14', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3476241/Document-08-Ministry-of-the-Interior-Government.pdf', 'title': '[PDF] Icelandic National Cyber Security Strategy 2015–2026', 'snippet': 'Icelandic legislation should reflect the international demands and obligations the country undertakes regarding cyber security and the protection of personal.', 'date': None, 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://www.fjarskiptastofa.is/english/about-ecoi/', 'title': 'About ECOI - Fjarskiptastofa', 'snippet': 'ECOI is responsible for administering electronic communications and network security in Iceland, and is an independent body under the Ministry of higher ...', 'date': '2021-01-01', 'last_updated': '2025-07-14', 'matched': True}, {'url': 'https://www.stjornarradid.is/library/04-Raduneytin/Haskola---idnadar--og-nyskopunarraduneytid/Icelandic%20National%20Cybersecurity%20Strategy%202022-2037.pdf', 'title': '[PDF] Icelandic National Cybersecurity Strategy 2022–2037', 'snippet': "The strategy outlines the government's vision and objectives for cybersecurity in Iceland, covering 2022-2037, and is a basis for actions in ...", 'date': '2022-02-04', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://en.rannis.is/funding/industry/ncc-is-cybersecurity-grant/', 'title': 'NCC-IS Cybersecurity Grant | The Icelandic Centre for Research', 'snippet': 'Eligible projects tasks must fall under the following categories related to cybersecurity: strengthening cybersecurity culture and awareness,. efficient ...', 'date': '2025-03-17', 'last_updated': '2025-09-05', 'matched': True}, {'url': 'https://copla.com/blog/compliance-regulations/nis2-directive-regulations-and-implementation-in-iceland/', 'title': 'NIS2 directive regulations and implementation in Iceland - Copla', 'snippet': 'Educate leadership teams on the strategic importance of cybersecurity, securing budget allocations for upcoming audits and upgrades.', 'date': '2025-08-22', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://www.government.is/topics/information-technology/policies/', 'title': 'Policies and Strategies - Government of Iceland', 'snippet': "The policy's key objectives are to build and maintain a strong ethical basis for the development and use of AI, based on good knowledge of the technology while ...", 'date': '2022-08-31', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.norden.org/en/news/do-nordics-need-common-cyber-security-strategy', 'title': 'Do the Nordics need a common cyber security strategy?', 'snippet': "Iceland drew up a cyber security strategy for 2022 to 2037 with an associated five-year action plan to strengthen the country's cyber security.", 'date': '2022-12-10', 'last_updated': '2025-07-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministère de l'Enseignement Supérieur et de la Recherche Scientifique (Ministry of Higher Education and Scientific Research) in MADAGASCAR responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Innovation, Technology and Telecommunications (MICITT) in COSTA RICA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1347,27 +1349,27 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique (Ministry of Higher Education and Scientific Research) in MADAGASCAR</t>
+          <t>Ministry of Science, Innovation, Technology and Telecommunications (MICITT) in COSTA RICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique</t>
+          <t>Ministry of Science, Innovation, Technology and Telecommunications (MICITT)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Available data indicate that Madagascar's national cybersecurity efforts are coordinated through a National CIRT/CSIRT, with involvement primarily from entities such as the Ministry of Justice, Ministry of Public Security, Network Information Center Madagascar (NIC-MG), and related agencies. The Ministry of Higher Education and Scientific Research is not explicitly mentioned in national cybersecurity policies, legislation, or as a host or leader of the national CSIRT. Although it might participate indirectly via academic sectors or technical training, no evidence shows it holds formal responsibility or coordinates cybersecurity governance, strategy, or operations in Madagascar. National cybersecurity strategy development and CIRT establishment involve multiple stakeholders, but the Ministry of Higher Education is not identified as a primary responsible organ in this context[2][5].</t>
+          <t>The Ministry of Science, Innovation, Technology and Telecommunications (MICITT) is explicitly designated as the lead entity responsible for cybersecurity policy, coordination, and implementation in Costa Rica. Costa Rica's National Cybersecurity Strategy 2023-2027 was elaborated by MICITT, which consolidates its leadership and defines clear roles for strengthening cybersecurity governance, including legal and operational frameworks (source [1]). MICITT hosts the nation's Computer Security Incident Response Team (CSIRT-CR) and the National Cybersecurity Coordinator, managing national incident response and coordination (sources [3][4]). It leads the governance framework for cybersecurity, oversees technical standards, and participates in international cooperation on cybersecurity issues (sources [1][3][4]). Additionally, MICITT convenes the Cybersecurity Advisory Board and is involved in multi-sectoral and inter-institutional coordination on cybersecurity matters (sources [4][5]). MICITT actively responded to significant cyber incidents in Costa Rica, such as ransomware attacks, coordinating with other governmental agencies and international partners to mitigate impacts (source [6]). This comprehensive set of roles and responsibilities clearly demonstrates MICITT’s high level of responsibility for national cybersecurity governance, policy, implementation, coordination, and response in Costa Rica.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1377,14 +1379,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cybilportal.org/projects/madagascar-national-cirt-assessment-and-cmm-2/', 'title': 'Madagascar National CIRT Assessment and CMM Review', 'snippet': 'Conduct training to impart basic knowledge on key concepts surrounding National CIRT such as operations, maintenance and coordination of CIRTs with relevant ...', 'date': '2020-07-22', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/files/cmmrapportfinalcybersecuritemadagascarpdf', 'title': '[PDF] Cybersecurity Capacity Review of the Republic of Madagascar', 'snippet': 'R1-7: Draft legislation, which allocates mandates to the national CSIRT/CIRT. • R1-8: Develop coordination and information/cybersecurity threat sharing.', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2023/08/National_CERT-CSIRT_Mandate_and_Organisation_final_.pdf', 'title': '[PDF] National CERT/CSIRT – Mandate and Organisation | CCDCOE', 'snippet': 'The Centre encourages and supports the process of mainstreaming cyber security into NATO and national governance and capability, within its closely connected ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Pages/national-CIRT.aspx', 'title': 'National CIRT - ITU', 'snippet': 'ITU is helping countries to establish National Computer Incident Response Teams (CIRT), which serve as a national focus point for coordinating cybersecurity ...', 'date': '2025-11-12', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mg_2022/', 'title': 'NCSI :: Madagascar - National Cyber Security Index', 'snippet': 'Criteria. The government has a unit (CSIRT, CERT, CIRT, etc.) that is specialised in national-level cyber incident detection and response. Accepted ...', 'date': '2023-07-31', 'last_updated': '2024-12-27', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mg_2022/?allData=1', 'title': 'NCSI :: Madagascar - National Cyber Security Index', 'snippet': 'The government has a unit (CSIRT, CERT, CIRT, etc.) that is specialised in national-level cyber incident detection and response. Accepted references.', 'date': '2023-07-31', 'last_updated': '2024-10-29', 'matched': True}, {'url': 'https://www.exabeam.com/explainers/information-security/csirt-vs-cert-similarities-differences-and-8-examples-of-certs/', 'title': 'CSIRT vs. CERT: Similarities, Differences, and 8 Examples of CERTs', 'snippet': 'A CSIRT responds to cybersecurity incidents, while a CERT offers services for computer security incidents in a wider context.', 'date': '2025-07-17', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Creating%20a%20CIRT.pdf', 'title': '[PDF] CIRT Creation Stages - ITU', 'snippet': "1. X-CIRT's mission is to improve the nation's cybersecurity posture, coordinate cyber information sharing, and proactively manage cyber risks to the nation ...", 'date': None, 'last_updated': '2024-09-08', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3897090/International-Telecommunication-Union-Global.pdf', 'title': '[PDF] Global Cybersecurity Index (GCI) 2017 - National Security Archive', 'snippet': 'Despite half of the Member States not having a cybersecurity strategy, 61% do have an emergency response team (i.e., CIRT, CSRIT, and CERT) with national ...', 'date': None, 'last_updated': '2024-01-24', 'matched': True}, {'url': 'https://www.africacert.org/home/wp-content/uploads/2025/04/PRESSRELEASE_website.pdf', 'title': '[PDF] press release: fourth africa cyber drill: level up your readiness', 'snippet': 'The Forum of Africa Computer Emergency Response Teams, known as AfricaCERT, successfully completed its Fourth Annual Cyber Drill, titled "Leveling Up Your ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/costa-ricas-national-cybersecurity-strategy-2023-2027', 'title': "Costa Rica's national cybersecurity strategy 2023-2027", 'snippet': 'General Objective: to ensure a secure, resilient, and inclusive national cybersecurity ecosystem that protects citizens, institutions, and infrastructure.', 'date': '2025-09-10', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cr/', 'title': 'NCSI :: Costa Rica - National Cyber Security Index', 'snippet': 'MICITT provides the public with cybersecurity resources and ... cybersecurity responsibilities. Ideally, such exercises also involve private ...', 'date': None, 'last_updated': '2023-10-30', 'matched': True}, {'url': 'https://www.micitt.go.cr/sites/default/files/2023-11/NCS%20Costa%20Rica%20-%2010Nov2023%20ENG.pdf', 'title': '[PDF] National Cybersecurity Strategy - MICITT', 'snippet': 'Costa Rica will establish a governance framework that defines the roles, responsibilities, and coordination, collaboration, and communication mechanisms among ...', 'date': None, 'last_updated': '2024-06-02', 'matched': True}, {'url': 'https://www.interface-eu.org/storage/archive/files/costa_rica_country_profile_english.pdf', 'title': '[PDF] Costa Rica - Country Profile - interface', 'snippet': "69 The MICITT houses the National Cybersecurity Coordinator as well as the country's Computer Security and Incident Response Team (CSIRT-CR). Moreover, the Na-.", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.micitt.go.cr/sites/default/files/2023-06/englishEstrategia-Nacional-de-Ciberseguridad-Costa-Rica.pdf', 'title': '[PDF] National Cybersecurity Strategy - Costa Rica - MICITT', 'snippet': 'The country has many capacities to effectively approach the cybernetic security issues, but the definition of responsibility and assignment of efficient ...', 'date': None, 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.lawfaremedia.org/article/role-international-assistance-cyber-incident-response', 'title': 'The Role of International Assistance in Cyber Incident Response', 'snippet': 'Some cybersecurity incidents can render crucial government services inaccessible, like recent events in Costa Rica and Vanuatu exemplify.', 'date': '2023-03-30', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://trade.ec.europa.eu/access-to-markets/en/country-assets/euca_05_Cybersecurity%20sector%20in%20Central%20America.pdf', 'title': '[PDF] Cybersecurity sector in Central America', 'snippet': 'Costa Rica lacks a cybersecurity policy. By the end of 2017, the MICITT (Science, Technology and. Telecommunications Ministry) presented what is called the ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.bnamericas.com/en/news/micitt-unveils-the-2023-2027-national-cybersecurity-strategy', 'title': 'MICITT unveils the 2023-2027 national cybersecurity strategy', 'snippet': 'The strategy seeks to ensure a safe, resilient and inclusive national cybersecurity ecosystem and effectively protect the country, as well as ...', 'date': '2023-11-13', 'last_updated': '2025-10-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Youth and Sports in CZECH REPUBLIC responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Higher Education of the Russian Federation in RUSSIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1392,17 +1394,17 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ministry of Education, Youth and Sports in CZECH REPUBLIC</t>
+          <t>Ministry of Science and Higher Education of the Russian Federation in RUSSIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ministry of Education, Youth and Sports</t>
+          <t>Ministry of Science and Higher Education of the Russian Federation</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1412,7 +1414,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Youth and Sports (MEYS) in the Czech Republic is involved in cybersecurity primarily through educational initiatives and promoting digital skills and digital well-being among youth. It cooperates with the National Cyber and Information Security Agency on educational projects, provides cybersecurity courses for teachers, and integrates cyber safety and digital literacy into school curricula and strategic education documents (e.g., Long-term education plan 2023–2027). However, cybersecurity governance, policy implementation, and direct operational responsibilities such as national CERT hosting or enforcement are vested primarily in other agencies like the National Cyber and Information Security Agency and the Ministry of the Interior. MEYS's role is supportive and educational rather than executive or regulatory in national cybersecurity frameworks and policies[1][2][4][5][6][7].</t>
+          <t>The Ministry of Science and Higher Education of the Russian Federation oversees policies related to science, technology, and higher education, including digital transformation programs that aim to develop digital competencies and information security professionals[6]. However, explicit responsibility for national cybersecurity policy, implementation, coordination, or enforcement is primarily assigned to other entities such as the Security Council of the Russian Federation, the Bank of Russia (for financial sector cybersecurity), various federal ministries connected to security services, and specialized centers like the Center for Information Security at universities[1][2][4]. The Ministry does not host a national CERT/CSIRT or lead cybersecurity committees, but it supports cybersecurity indirectly through educational and research initiatives in information security and digital technologies within higher education institutions[3][6]. Therefore, its role in cybersecurity is supportive and educational rather than central or directive for national cybersecurity governance.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1422,14 +1424,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[{'url': 'https://better-internet-for-kids.europa.eu/en/knowledge-hub/czech-republic-policy-monitor-country-profile', 'title': 'Czech Republic - Policy monitor country profile', 'snippet': 'The Ministry of Education, Youth and Sports cooperates with National Cyber and Information Security Agency on educational projects and activities for young ...', 'date': '2025-03-26', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://better-internet-for-kids.europa.eu/sites/default/files/2025-05/CZ%20Country%20Profile%202025_final.pdf', 'title': '[PDF] Better Internet for Kids (BIK) Policy monitor country profile 2025', 'snippet': 'The Ministry of Education, Youth and Sports is in charge of digital skills and education of youth, while policies are often implemented by the National.', 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/2997987/Document-07.pdf', 'title': '[PDF] National Cyber Security Organisation: CZECH REPUBLIC', 'snippet': 'The study outlines the division of cyber security tasks and responsibilities between different agencies, describes their mandate, tasks and competences, and the ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/czech-republic/~technology', 'title': 'Czech Republic | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Youth and Sports is responsible for overseeing the education system in the Czech Republic. In collaboration with ...', 'date': '2025-01-14', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.ohchr.org/sites/default/files/documents/issues/education/cfis/safety/subm-safety-element-sta-6-czech-republic.doc', 'title': '[DOC] subm-safety-element-sta-6-czech-republic.doc - ohchr', 'snippet': '\u200b The Cyber Security Strategy of the Czech Republic for the period 2021-2025, which is backed by the National Cyber and Information Security Agency in ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://nukib.gov.cz/download/publications_en/strategy_action_plan/NSCS_2021_2025_ENG.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY OF THE CZECH ... - nukib', 'snippet': 'Diplomatic, legal, educational, and other non-technical measures are necessary tools for fighting cyber threats and building a resilient information society.', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://dig.watch/resource/https-dig-watch-resource-national-cybersecurity-strategy-of-the-czech-republic', 'title': 'National Cybersecurity Strategy of the Czech Republic | 2021-2025', 'snippet': 'It primarily establishes obligations to ensure the security of cyber and informational infrastructure for selected public and private entities and individuals ( ...', 'date': '2023-12-21', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'http://www.ktl.elf.stuba.sk/~gregor/research/CYB_FUT_Abstract&amp;Consortium.htm', 'title': 'Cybersecurity for the Future (CYB-FUT)', 'snippet': '(For example, within the Czech Republic it reacts to the updating of the framework educational programs of the Ministry of Education, Youth and Sports for ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://msmt.gov.cz/uploads/311/METHODOLOGICAL_RECOMMENDATION_FOR_RISK_MANAGEMENT_IN_RESEARCH_SECURITY_AT_THE_INSTITUTIONAL_LEVEL.pdf', 'title': '[PDF] METHODOLOGICAL RECOMMENDATION', 'snippet': 'This document serves as a methodological guide for risk management in relation to research security within academic institutions in the Czech Republic and is ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.pegegog.net/index.php/pegegog/article/download/2541/762', 'title': '[PDF] Selected Risks of Cyberspace in the Transition of Pupils to Distance ...', 'snippet': 'The. Ministry of Education, Youth and Sports of the Czech Republic issued the Methodological Recommendation for Distance. Education (2020).', 'date': '2023-08-13', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'http://www.scrf.gov.ru/security/information/DIB_engl/', 'title': 'Doctrine of Information Security of the Russian Federation', 'snippet': 'The main thrusts of ensuring information security in science, technology and education are the following: a) making Russian information technologies ...', 'date': '2016-12-05', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://innopolis.university/en/center-cybersecurity/', 'title': 'Center for Information Security', 'snippet': 'Center for Information Security. The Center implements high-technology research and consulting projects to protect the state and society against cyber attacks.', 'date': '2022-08-24', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://english.mirea.ru/academics/institutes/institute-of-integrated-safety-and-special-instrument-engineering-/about-the-institute/', 'title': 'About the Institute - Institute for Cybersecurity and Digital Technologies', 'snippet': 'The Institute of Cybersecurity and Digital Technologies is a structural unit of MIREA – Russian Technological University, which trains students in the field ...', 'date': '2025-01-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'http://www.cbr.ru/content/document/file/149965/onrib_2025_e.pdf', 'title': '[PDF] GUIDELINES FOR THE ADVANCEMENT OF INFORMATION ...', 'snippet': 'In addition, the regulator plans to design and create unique educational products on cyber security for talented young people based on the leading scientific ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://wsps.ut.ac.ir/article_91776.html', 'title': 'Russian Digital Economy &amp; Cybersecurity Developments', 'snippet': 'The main purpose of this research was to examine the key metrics of the Russian digital economy and influencing factors affecting the digital economy ...', 'date': '2022-07-01', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/russian-federation/~technology-0', 'title': 'Russian Federation | Technology - Education Profiles', 'snippet': 'The Federal Law of 19 December 2023, No. 618-FZ, amends the Federal Law "On Education in the Russian Federation" to introduce a ban on the use of smartphones.', 'date': '2025-01-14', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://stratcomcoe.org/cuploads/pfiles/Nato-Cyber-Report_11-06-2021-4f4ce.pdf', 'title': "[PDF] RUSSIA'S STRATEGY IN CYBERSPACE", 'snippet': "This report seeks to clarify the role of cyberspace in Russian strategic thinking. It will analyse cyber operations as a subset of Russia's 'information ...", 'date': None, 'last_updated': '2024-03-14', 'matched': True}, {'url': 'http://archive.government.ru/eng/power/33/', 'title': 'Ministry of Education and Science of the Russian Federation', 'snippet': 'The Ministry of Education and Science (Minobrnauka) is a federal executive body responsible for drafting and implementing government policy and legal regulation', 'date': '2012-01-01', 'last_updated': '2025-09-06', 'matched': True}, {'url': 'https://www.extech.ru/english/activity/spp/', 'title': 'SRI FRCEC - Implementation of measures to ensure national security', 'snippet': 'organizing and conducting monitoring of research activities of state educational institutions of higher education on subjects aimed at ensuring national ...', 'date': None, 'last_updated': '2024-11-11', 'matched': True}, {'url': 'https://its.iszzi.kpi.ua/article/view/315746', 'title': 'Educational priorities for cyber security training during martial law', 'snippet': 'Ensuring the cyber security of the state in the conditions of a full-scale invasion of the Russian Federation, the spread of hostilities in the ...', 'date': '2024-12-26', 'last_updated': '2025-09-06', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Secretariat of Science, Humanities, Technology and Innovation (SECIHTI) in MEXICO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in EGYPT responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1437,27 +1439,29 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Secretariat of Science, Humanities, Technology and Innovation (SECIHTI) in MEXICO</t>
+          <t>Ministry of Higher Education and Scientific Research in EGYPT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Secretariat of Science, Humanities, Technology and Innovation (SECIHTI)</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SECIHTI is responsible for cybersecurity in Mexico as it is explicitly mentioned as the main institution entrusted with designing and implementing national policy on Humanities, Sciences, Technologies, and Innovation, which includes cybersecurity as a priority area [5]. The ministry is the main counterpart for international cooperation in science and technology, including initiatives in cybersecurity and digital technology [5]. SECIHTI also drives collaboration across sectors to advance progress in education, research, and innovation, with cybersecurity being a key focus area [6]. Furthermore, SECIHTI is involved in human resource development programs in cybersecurity, such as the Japan-Mexico Training Program, which includes cybersecurity among its priority fields [7]. The ministry's role in funding and promoting research in cybersecurity, as well as its participation in international partnerships and initiatives, demonstrates its high level of responsibility for cybersecurity governance, prevention, planning, and response in Mexico [5][6][7].</t>
+          <t>The Ministry of Higher Education and Scientific Research (MoHESR) in Egypt is not the primary entity responsible for national cybersecurity policy, implementation, or technical coordination. The main responsibility for cybersecurity strategy and standards development lies with the Egyptian Supreme Cybersecurity Council (ESCC), which is chaired by the Minister of Communications and Information Technology and reports to the Cabinet of Ministers [3][5]. The ESCC is the designated and empowered entity at the central government level for leading and directing cybersecurity policy development and overseeing its implementation [3][5].
+However, MoHESR does play a supporting role in cybersecurity, primarily through education and awareness initiatives. For example, MoHESR collaborates with other entities to upskill students and staff in cybersecurity, as evidenced by a recent MoU with Microsoft to empower Egypt's digital future [6]. MoHESR also hosts cybersecurity awareness sessions for its employees and affiliates within the higher education and scientific research system [8][9]. Additionally, MoHESR approves and oversees the introduction of cybersecurity programs in universities, such as the new Cybersecurity and Software Engineering programs at the Egyptian Russian University [1].
+While MoHESR is involved in cybersecurity education and workforce development, it does not host a national CERT/CSIRT/CIRT, lead or serve as the main member of the national cybersecurity committee, or oversee information security standards and network protection at the national level. Its role is more focused on educational and awareness activities rather than direct policy or technical coordination [1][6][8][9].</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1467,14 +1471,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ipn.mx/english/press-releases/view-press-release.html?y=2025&amp;n=29&amp;t=17', 'title': 'Platform Developed to Protect Personal Data', 'snippet': 'In order to protect personal data and prevent breaches of sensitive information, researchers at the Instituto Politécnico Nacional (IPN) have developed a ...', 'date': '2025-05-01', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://www.jotmi.org/index.php/GT/article/view/4693?articlesBySimilarityPage=6', 'title': 'Innovation, Technology Adoption and Digital Development in Mexico', 'snippet': 'The results suggest that companies in Mexico need to implement processes that enable technological adoption, apply cybersecurity more deeply, ...', 'date': '2025-10-23', 'last_updated': None, 'matched': True}, {'url': 'https://www.brookings.edu/articles/the-role-of-policies-on-technology-and-ai-for-innovation-and-increased-competitiveness-in-north-america/', 'title': 'The role of policies on technology and AI for innovation and ...', 'snippet': "The USMCA offers a unique opportunity to strengthen North America's leadership in AI. The agreement has already laid the groundwork for digital trade.", 'date': '2025-03-05', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.dataguidance.com/jurisdictions/mexico', 'title': 'Mexico | Jurisdictions - DataGuidance', 'snippet': 'Mexico: INAI urges strengthening of cybersecurity standards - Mexico. INAI urges Mexico to strengthen cybersecurity standards and improve data protection laws.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://assets.publishing.service.gov.uk/media/66e49a8a718edd81771317bc/SIN_Country_Summary_-_Mexico.pdf', 'title': '[PDF] Mexico - GOV.UK', 'snippet': 'The recently created Ministry of Science, Humanities, Technology and Innovation (SECIHTI) in. Mexico plays a pivotal role in promoting and funding scientific ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://mexicobusiness.news/talent/news/secihti-drive-collaboration-science-education', 'title': 'SECIHTI to Drive Collaboration in Science, Education', 'snippet': "SECIHTI aims to transform Mexico's innovation policy, fostering collaboration across sectors to drive progress in education, research, ...", 'date': '2024-11-25', 'last_updated': None, 'matched': True}, {'url': 'https://secihti.mx/wp-content/uploads/convocatorias/becas_extranjero/documentos/2025/Programas_Estancias_Tecnicas/Information_Science_and_Engineering.pdf', 'title': '[PDF] Japan-Mexico Training Program for the Strategic Global Partnership', 'snippet': 'This training program aims to support Mexican human resource development through the implementation of training program based on the Japan-Mexico Joint.', 'date': None, 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://en.uady.mx/noticias/url/uady-leads-specialization-in-cybersecurity', 'title': 'UADY leads specialization in Cybersecurity', 'snippet': '“This is innovative in the region, since it not only teaches the technical part of cybersecurity, but also trains senior management ...', 'date': '2025-01-26', 'last_updated': None, 'matched': True}, {'url': 'https://mexicobusiness.news/aerospace/news/mexicos-space-agency-warns-governance-risks-atdt-shift', 'title': "Mexico's Space Agency Warns of Governance Risks in ATDT Shift", 'snippet': "AEM staff warns that transferring its functions to ATDT could dismantle Mexico's space governance and harm international commitments.", 'date': '2025-04-11', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://eru.edu.eg/after-the-approval-of-the-ministry-of-higher-education-and-scientific-research-the-egyptian-russian-university-announces-the-start-of-cybersecurity-and-software-engineering-programs/', 'title': 'After the approval of the Ministry of Higher Education and Scientific ...', 'snippet': 'adding that the “Cyber \u200b\u200bSecurity Programme,” in which the student studies the foundations of protecting computers and networks. Important software applications ...', 'date': '2024-01-02', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://followict.news/en/securing-the-future-how-egypt-is-leading-the-cybersecurity-revolution/', 'title': 'Securing the Future.. How Egypt Is Leading The Cybersecurity ...', 'snippet': 'This requires all government and private entities to comply with cybersecurity standards to avoid falling victim to such malicious cyberattacks.', 'date': '2025-05-27', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.escc.gov.eg/strategy.pdf', 'title': '[PDF] National Cybersecurity Strategy1 2017-2021', 'snippet': 'The national cybersecurity strategy document has been developed in view of the strategic objectives that led to the creation of the Egyptian Supreme ...', 'date': None, 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://egcert.eg/wp-content/uploads/2023/02/Cybersecurity-Educational-Programs-for-MSMEs.docx.pdf', 'title': '[PDF] Cybersecurity Educational Programs for MSMEs.docx - EG-CERT', 'snippet': 'A] Government supports the following cyber security programs in universities: “These Programs are under the supervision and support of the Egyptian Supreme ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/eg/', 'title': 'NCSI :: Egypt - National Cyber Security Index', 'snippet': '... the roles and responsibilities of ... It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education ...', 'date': '2023-12-29', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://fdcsummit.org/news/mohe-and-mcs-unite-to-equip-the-next-generation-with-cybersecurity-and-digital-skills', 'title': 'Egypt International Exhibition Center - FDC Summit 2025', 'snippet': "The MoHE and MCS sign an MoU to upskill students and staff in cybersecurity, empowering Egypt's digital future.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sis.gov.eg/en/media-center/files/higher-education-and-scientific-research/', 'title': 'Higher Education and Scientific Research', 'snippet': 'The Ministry sought to be a leading center in the field of higher education, training and qualification for the labor market, and to contribute to achieving ...', 'date': '2024-01-05', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'http://skillshub.mohesr.gov.eg/index.php/component/content/article/cybersecurity-awareness-session?catid=8&amp;Itemid=228', 'title': 'Cybersecurity Awareness Session - MoHESR Skills Hub', 'snippet': 'The initiative aims to raise awareness among all employees of the Ministry from all its affiliates in the higher education and scientific research system of the ...', 'date': None, 'last_updated': '2025-05-08', 'matched': True}, {'url': 'http://skillshub.mohesr.gov.eg/index.php/component/content/category/blog?Itemid=228', 'title': 'Blog - MoHESR Skills Hub', 'snippet': 'Cybersecurity Awareness Session\u200b\u200b The initiative aims to raise awareness among all employees of the Ministry from all its affiliates in the ...', 'date': '2024-09-23', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.basicict.gov.eg/RegisterCisEn.aspx', 'title': 'Distance learning for cybersecurity - مبادرة وزارة الإتصالات', 'snippet': 'Installing computers and portable devices and learn about their components as well as detecting and fixing their problems. Learning about software development ...', 'date': '2020-05-05', 'last_updated': '2025-10-25', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Vice Ministry of Science and Technology (Viceministerio de Ciencia y Tecnología) in BOLIVIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology (MoHERST) in GAMBIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1482,17 +1486,17 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vice Ministry of Science and Technology (Viceministerio de Ciencia y Tecnología) in BOLIVIA</t>
+          <t>Ministry of Higher Education, Research, Science and Technology (MoHERST) in GAMBIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Vice Ministry of Science and Technology (Viceministerio de Ciencia y Tecnología)</t>
+          <t>Ministry of Higher Education, Research, Science and Technology (MoHERST)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1502,7 +1506,9 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>There is no evidence from the reviewed sources that the Vice Ministry of Science and Technology in Bolivia is explicitly responsible for the country's cybersecurity governance, prevention, planning, or enforcement. Bolivia lacks an officially recognized national cybersecurity strategy or sector-specific cybersecurity framework, and no references indicate that this vice ministry hosts a national CERT/CSIRT, leads cybersecurity committees, or oversees cybersecurity standards. Instead, cybersecurity efforts in Bolivia appear limited and fragmented, with no direct attribution to this Vice Ministry. Data protection and cybersecurity legal developments are slow, pending legislation, and usually involve other state bodies or supranational commitments rather than this Vice Ministry. Thus, while the Vice Ministry of Science and Technology may be involved in science and technology policies broadly, its formal responsibility for cybersecurity is minimal or indirect at best.[1][5][6][9]</t>
+          <t>The Ministry of Higher Education, Research, Science and Technology (MoHERST) is not explicitly designated as the lead or primary authority for national cybersecurity policy, implementation, or technical coordination in The Gambia. The main responsibility for cybersecurity governance and coordination lies with the Ministry of Communications and Digital Economy (MOCDE), the Ministry of the Interior (MOICI), the National Cybersecurity Coordination Directorate (NCCD), and the Gambia Computer Security Incident Response Team (GM-CSIRT) [2][3][5].
+However, MoHERST is mentioned as a stakeholder involved in organizing practical courses and workshops for ICT students in public and private ICT departments, in collaboration with the NCCD, relevant ministries, and ICT companies [1]. This indicates a supporting role in cybersecurity education and capacity building, but not in overall policy, enforcement, or technical coordination. MoHERST does not host a national CERT/CSIRT, lead or serve as a core member of the main cybersecurity committees, or oversee information security standards or network protection at the national level [2][3][5].
+Therefore, MoHERST's responsibility for cybersecurity is limited to educational and training activities, rather than broader governance, planning, or response.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1512,14 +1518,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/bo_2022/?pdfReport=1', 'title': '[PDF] 105. Bolivia 31.17 - National Cyber Security Index', 'snippet': '105th National Cyber Security Index. 31 %. 140th Global Cybersecurity Index. 16 %. 112th ICT Development Index. 43 %. 94th. Networked Readiness Index.', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/latin-america/bolivia/topics/key-data-and-cybersecurity-laws', 'title': 'Key Data &amp; Cybersecurity Laws | Global Data and Cyber Handbook', 'snippet': 'In 2022, the Bolivian State accepted the implementation of a deadline to apply important guidelines on Data Privacy and Users Rights of Telecommunication ...', 'date': '2024-08-14', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=bolivia', 'title': 'Bolivia - Cybil Portal', 'snippet': "An overview of Bolivia's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here.", 'date': '2025-07-01', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://wjpcenter.org/wp-content/uploads/2023/09/Regulations-in-Cyberspace-in-LATAM-and-Caribbean.pdf', 'title': '[PDF] Regulations in Cyberspace in Latin America and the Caribbean', 'snippet': 'For a general sense of cybersecurity regulations in LAC, Table A outlines each country in the region with cybersecurity legislation framework (such as those for ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Bolivia.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE PLURINATIONAL STATE OF BOLIVIA', 'snippet': 'Bolivia does not have any officially recognized national or sector-specific cybersecurity strategy. 1.3.2 ROADMAP FOR GOVERNANCE. There is no ...', 'date': '2015-03-10', 'last_updated': '2023-10-27', 'matched': True}, {'url': 'https://www.boletyterrero.com/data-privacy-law-in-bolivia.html', 'title': 'Data Privacy Law in Bolivia - BOLET &amp; TERRERO BOLIVIA', 'snippet': 'There are very little data protection rules in Bolivia and the minimal reference to data protection is covered in just one article of the bylaw to Law 164, ...', 'date': '2017-01-01', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.pwc.com/us/en/services/consulting/cybersecurity-risk-regulatory/library/national-cybersecurity-implementation-strategy.html', 'title': 'National Cybersecurity Implementation Strategy - PwC', 'snippet': 'The strategy intends to hold software companies liable for cybersecurity failures. · It proposes regulations to protect critical infrastructure.', 'date': '2023-07-24', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.state.gov/wp-content/uploads/2022/06/ICS_WHA_Bolivia_Public.pdf', 'title': '[PDF] Integrated Country Strategy (ICS) - Bolivia - U.S. Department of State', 'snippet': 'Mission Goal 3: Bolivia is an increasingly reliable partner in combating transnational crime and other threats to U.S. national security. • Mission Objective ...', 'date': None, 'last_updated': '2025-06-14', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bo_2022/', 'title': 'NCSI :: Bolivia - National Cyber Security Index', 'snippet': 'The central government has established a national-level cyber security strategy or other equivalent document. ... cyber security are established by legislation.', 'date': '2021-09-24', 'last_updated': '2024-10-11', 'matched': True}, {'url': 'https://hyaip.com/en/prosecution-guidelines/bolivia/bolivia-data-protection/', 'title': 'Bolivia: Data Protection - Prosecution guidelines - H&amp;A', 'snippet': 'Data Protection Regulations: Observation: Bolivia does not have a comprehensive data protection law, however, the telecommunications law 164 is in force, and ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://gmcsirt.gm/wp-content/uploads/2021/12/20160628-Gambia-Cybersecurity-Action-Plan-V5-11.pdf', 'title': '[PDF] The Gambia Cybersecurity Strategy – Action Plan (Draft V5)', 'snippet': 'G0A1. Identify a small group of people (around 10-15 persons) with skills or interest in cybersecurity, selected preferably among the most active participants ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://mocde.gov.gm/wp-content/uploads/2023/12/National-Cybersecurity-Strategy-2022-2026.pdf', 'title': '[PDF] THE NATIONAL CYBERSECURITY STRATEGY AND ACTION ...', 'snippet': "Gambia's strategic cybersecurity goals etc. This provides a holistic ... Ministry of the Interior &amp; Gambia Police Force (GPF). The Gambia Police Force ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://policies.gov.gm/d/caa6e199-5bad-11ec-9b31-029254d29bb1', 'title': '[PDF] The Gambia National Cybersecurity Strategy', 'snippet': "Cybersecurity is everyone's responsibility, whether they are users, owners, operators of ICT systems or government; hence this Strategy is based ...", 'date': '2016-07-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://policies.gov.gm/f/f63f142d-80d4-11ef-b086-029254d29bb1', 'title': 'National-Cybersecurity-Strategy-2022-2026 - Government', 'snippet': 'The strategy aims to establish a resilient and secure cyberspace in The Gambia, safeguarding citizens, businesses, and government entities from cyber threats.', 'date': '2022-09-01', 'last_updated': '2025-06-30', 'matched': True}, {'url': 'https://mocde.gov.gm/wp-content/uploads/2023/12/Cybersecurity-Policy-2022-2026.pdf', 'title': '[PDF] THE NATIONAL CYBERSECURITY POLICY OF THE GAMBIA 2022', 'snippet': "In order to ensure safety and protection of citizens from cyber threats, it becomes a collective responsibility of all stakeholders to protect Gambia's cyber- ...", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=jFHSmzT4sNs', 'title': "NCSC Unveils Operational Manual to Strengthen Gambia's Cyber ...", 'snippet': "In a significant move to bolster the nation's digital security, The Ministry of Communications and Digital Economy with support from the ...", 'date': '2025-11-14', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://gid.gov.gm/wp-content/uploads/2023/10/CYBERSECURITY-POLICY-2024.pdf', 'title': '[PDF] GAMBIA NATIONAL CYBER SECURITY POLICY 2020 - 2024', 'snippet': 'The Ministry in charge of national cyber security (MOICI) in collaboration with ... The Government of The Gambia (GoTG) recognizes the positive role of ICT as a.', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.telecomreviewafrica.com/articles/exclusive-interviews/4337-strengthening-cybersecurity-in-the-gambia-an-interview-with-sanusi-drammeh/', 'title': 'Strengthening Cybersecurity in The Gambia: An Interview with ...', 'snippet': 'Our key priorities include developing and implementing national cyber contingency and crisis plans, establishing a national Security Operating ...', 'date': '2024-07-02', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/en/entity/ldcgsbfb4jf/metadata?page=3&amp;file=1669307302538k7hqhxmgxzb.pdf', 'title': 'Gambia National Cyber Security Strategy and Action Plan 2020-2024', 'snippet': 'Enhance and coordinate the fight against all forms of cybercrime;; Promote the use of cyberspace to drive social and economic development. Its mission is to ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/00153_03_gambia-strategy-cybersecurity-strategy-draft-v1.6.pdf', 'title': '[PDF] 13 June 2016 - ITU', 'snippet': '“The Gambia Cybersecurity Strategy” is a project which aims at providing the Government of The. Gambia with a formulation of a holistic ...', 'date': '2016-06-13', 'last_updated': '2025-09-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Department of Science, Technology and Innovation in SOUTH AFRICA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology, Knowledge and Innovation in CHILE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1527,17 +1533,17 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Department of Science, Technology and Innovation in SOUTH AFRICA</t>
+          <t>Ministry of Science, Technology, Knowledge and Innovation in CHILE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Department of Science, Technology and Innovation</t>
+          <t>Ministry of Science, Technology, Knowledge and Innovation</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1547,7 +1553,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The Department of Science, Technology and Innovation (DSTI) is responsible for the development, coordination, and implementation of the national capacity development program for cybersecurity under the National Cybersecurity Policy Framework (NCPF) [1]. This includes supporting research, innovation, and human capital development in cybersecurity, but does not extend to overall policy, technical coordination, or operational response for national cybersecurity [1]. The DSTI's role is focused on capacity building and research, rather than direct oversight of national cybersecurity operations or incident response, which are handled by other entities such as the State Security Agency (SSA) and the Department of Defence [1]. The SSA hosts the national Cybersecurity Centre and chairs the cybersecurity response committee, while the Department of Defence oversees the SANDF Cyber Command for critical infrastructure protection [1]. The DSTI does not host the national CERT/CSIRT or lead cybersecurity committees, nor does it have primary responsibility for information security standards or network protection [1].</t>
+          <t>The Ministry of Science, Technology, Knowledge and Innovation in Chile is involved in cybersecurity primarily through its role in supporting research, development, and innovation in the field. For example, work is underway to create a Cybersecurity Institute under this ministry, and it is also associated with the creation of the Cybersecurity Capability Center of Ibero-America, indicating a focus on advancing technical capabilities and research in cybersecurity (Reference [5]). However, the primary responsibility for national cybersecurity policy, implementation, and technical coordination lies with the National Cybersecurity Agency (ANCI), which operates independently and is tasked with advising the President, coordinating institutions, and enforcing cybersecurity regulations (References [1], [2], [3]). The Ministry of Science does not host the national CERT/CSIRT, lead the main cybersecurity committee, or oversee information security standards for the country; these functions are assigned to ANCI and other specialized bodies (References [1], [2], [3], [5]). Therefore, while the Ministry of Science, Technology, Knowledge and Innovation plays a supporting role in advancing cybersecurity through research and innovation, it does not have high-level responsibility for cybersecurity governance, prevention, planning, response, or enforcement.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1557,14 +1563,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[{'url': 'https://carnegieendowment.org/research/2024/01/south-africas-cyber-strategy-under-ramaphosa-limited-progress-low-priority?lang=en', 'title': "South Africa's Cyber Strategy Under Ramaphosa: Limited Progress ...", 'snippet': 'South Africa has adopted a national cybersecurity strategy and established a military Cyber Command. But for years, other issues have been ranked above ...', 'date': '2024-01-12', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.gov.za/about-sa/science-technology', 'title': 'Science and innovation | South African Government', 'snippet': 'The DSTI seeks to boost socio-economic development in South Africa through research and innovation.To achieve its goals, the department provides leadership.', 'date': '1998-03-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.dsti.gov.za', 'title': 'Department of Science, Technology and Innovation', 'snippet': 'The Department of Science,Technology and Innovation seeks to boost socio-economic development in South Africa through research and innovation. To achieve its ...', 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.dsti.gov.za/index.php/about-us/programmes/technology-innovation', 'title': 'Technology Innovation', 'snippet': 'To lead, inform and influence policy development in areas of strategic science and technology (S&amp;T) innovation focus. · To oversee, monitor and ...', 'date': '2011-11-09', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/south-africa-digital-economy', 'title': 'South Africa - Digital Economy - International Trade Administration', 'snippet': "South Africa is a leader in Africa's digital economy due to its advanced digital infrastructure, vibrant startup ecosystem, and proactive government.", 'date': '2024-09-19', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.gcis.gov.za/sites/default/files/docs/19%20Science%20and%20Innovation.pdf', 'title': '[PDF] Science and Innovation', 'snippet': 'The Department of Science and Innovation (DSI) derives its mandate from the. 1996 White Paper on Science and Technology, which introduced the concept of the ...', 'date': None, 'last_updated': '2025-07-02', 'matched': True}, {'url': 'https://www.naci.org.za/wp-content/uploads/2021/03/SOUTH-AFRICA-2030-SCIENCE-TECHNOLOGY-INNOVATION-FORESIGHT.pdf', 'title': '[PDF] SOUTH AFRICA 2030 SCIENCE, TECHNOLOGY &amp; INNOVATION ...', 'snippet': '... Department of Science and Innovation – take lead in supporting health related innovation RDI (should be linked to Department of Health of health sector ...', 'date': None, 'last_updated': '2024-06-03', 'matched': True}]</t>
+          <t>[{'url': 'https://www.hunton.com/privacy-and-information-security-law/chile-cybersecurity-framework-law-now-fully-enforceable', 'title': 'Chile Cybersecurity Framework Law Now Fully Enforceable', 'snippet': 'Its main objectives are to advise the Chilean President on cybersecurity matters, protect national interests in cyberspace, and coordinate ...', 'date': '2025-07-01', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/chile-information-technology-new-cybersecurity-framework-law', 'title': 'Chile Information Technology New Cybersecurity Framework Law', 'snippet': 'Create resilient infrastructure. · Protect personal data. · Create a cybersecurity culture through education and good practices. · Encourage ...', 'date': '2024-07-01', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/chile', 'title': 'Cybersecurity 2025 - Chile - Global Practice Guides', 'snippet': '... responsibilities for Chilean government bodies regarding information security and cybersecurity. Responsibilities are structured around key ...', 'date': '2025-03-13', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Chile_NCSP%20(ENG).pdf', 'title': '[PDF] National Cybersecurity Policy - ITU', 'snippet': 'INSTITUTIONS INVOLVED IN THE FIELD OF CYBERSECURITY a. Ministry of the Interior and Public Security. Body. Role. Mission. Undersecretary of the Interior.', 'date': None, 'last_updated': '2024-02-03', 'matched': True}, {'url': 'https://www.forociber.cl/foro/site/docs/20240322/20240322150520/chile_s_path_to_cybersecurity_.pdf', 'title': '[PDF] Chile´s Path to Cybersecurity&lt;', 'snippet': 'Work is also being done on the creation of a Cybersecurity. Institute under the Ministry of Science, Technology, Knowledge, and Innovation.', 'date': '2024-03-22', 'last_updated': '2024-07-16', 'matched': True}, {'url': 'https://cadeproject.org/updates/chiles-artificial-intelligence-regulation-bill-advances-to-the-senate/', 'title': "Chile's Artificial Intelligence Regulation Bill Advances to the Senate", 'snippet': 'Lawmakers seek to balance rights protection, innovation, and accountability in emerging technologies.', 'date': '2025-10-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://alessandri.legal/en/ministry-of-science-approves-first-national-artificial-intelligence-policy-in-chile/', 'title': 'Ministry of Science approves first National AI Policy in Chile', 'snippet': 'The national policy of AI inserts Chile in the vanguard and global collaboration, with an ecosystem of research, development and innovation.', 'date': '2022-01-20', 'last_updated': '2024-12-09', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cl/', 'title': 'NCSI :: Chile - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2025-09-15', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://hackernoon.com/chile-weighs-ai-regulation-as-ethics-and-innovation-collide', 'title': 'Chile Weighs AI Regulation as Ethics and Innovation Collide', 'snippet': 'Chile advances a pioneering AI bill, aiming to balance innovation with ethics—while critics warn it could stifle growth.', 'date': '2025-09-22', 'last_updated': '2025-10-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Department of Industry, Science and Resources in AUSTRALIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology in GUINEA-BISSAU responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1572,27 +1578,27 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Department of Industry, Science and Resources in AUSTRALIA</t>
+          <t>Ministry of Higher Education, Research, Science and Technology in GUINEA-BISSAU</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Department of Industry, Science and Resources</t>
+          <t>Ministry of Higher Education, Research, Science and Technology</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>The Department of Industry, Science and Resources (DISR) is explicitly responsible for cybersecurity policy, industry development, and research and development in Australia. DISR leads on technology policy, including cybersecurity, and hosts divisions such as the Cyber and Technology Security Policy Division and the Cyber and Infrastructure Security Centre, which are directly involved in cybersecurity policy coordination and implementation [1]. DISR is also responsible for the development and coordination of cybersecurity frameworks and standards, and it works with other agencies on critical infrastructure protection and cyber policy coordination [1]. The department is mentioned in national strategies and reports as a key player in cybersecurity, including the Australian Cyber Security Strategy and various government publications [1][2][5]. DISR's responsibilities include overseeing information security standards, network protection, and working with other countries and organizations on joint cybersecurity initiatives [1][2][7].</t>
+          <t>There is no indication in the available information that the Ministry of Higher Education, Research, Science and Technology of Guinea-Bissau holds responsibility for national cybersecurity governance, policy, implementation, or coordination. The 2010 Law nº 5/2010 assigns ICT regulation and supervision to the Autoridade Reguladora Nacional das Tecnologias de Informação e Comunicação (ARN), which oversees internet governance, network stability, robustness, and security matters in the country. Additionally, the Ministry of Education and related bodies are responsible for education and technology coordination, but cybersecurity roles are not explicitly attributed to the Ministry of Higher Education. There is no evidence the ministry hosts a national CERT/CSIRT/CIRT nor does it lead or participate formally in cybersecurity governance or enforcement. Hence, the ministry’s role in cybersecurity is not supported by cited legal frameworks or governance structures in Guinea-Bissau.[3][4]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1602,14 +1608,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[{'url': 'https://techpolicy.au/wp-content/uploads/2024/08/Final-240822_Index_Federal-Government-Tech-Digital-and-Cyber-1.pdf', 'title': '[PDF] Index: Federal Government Tech, Digital &amp; Cyber Responsibilities', 'snippet': 'Department of Industry, Science and Resources (DISR) leads on manufacturing and commerce, including industry and market developments; technology policy ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.dfat.gov.au/sites/default/files/australian-gov-cyber-ecosystem.pdf', 'title': '[PDF] ANNEX E AUSTRALIAN CYBER GOVERNANCE', 'snippet': 'The Department of Industry, Innovation and Science is responsible for cyber security industry development, cyber security research and development, and ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.cyber.gov.au/sites/default/files/2024-06/03.%20ISM%20-%20Guidelines%20for%20Cyber%20Security%20Roles%20(June%202024).pdf', 'title': '[PDF] Guidelines for Cyber Security Roles - Information Security Manual', 'snippet': 'The role of the CISO requires a combination of technical and soft skills, such as business acumen, leadership, communications and relationship building.', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.asd.gov.au/about/what-we-do/cyber-security', 'title': 'Cyber security | Australian Signals Directorate', 'snippet': 'We do this by comprehensively understanding the cyber threats, and providing proactive advice and assistance to improve cyber posture and resilience risk ...', 'date': '2022-03-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.homeaffairs.gov.au/cyber-security-subsite/files/2023-cyber-security-strategy.pdf', 'title': '[PDF] 2023-2030 Australian Cyber Security Strategy', 'snippet': 'Share strategic threat intelligence with industry. Industry has critical responsibilities to manage and mitigate cyber risk across the economy.', 'date': '2023-11-14', 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://www.landers.com.au/legal-insights-news/cybersecurity-in-australia-policies-funding-initiatives', 'title': 'Cyber security in Australia: Policies, funding and initiatives for the ...', 'snippet': 'A summary of the policies, funding and initiatives to promote better cybersecurity and cyber resilience in Australia for the benefit of the digital economy.', 'date': '2022-06-21', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.homeaffairs.gov.au/about-us/our-portfolios/cyber-security/our-partners', 'title': 'Our partners - Department of Home Affairs', 'snippet': 'The Minister for Industry and Innovation\u200b is responsible for the Department of Industry, Science and Resources, which supports cyber security ...', 'date': '2025-05-28', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.industry.gov.au/science-technology-and-innovation/technology', 'title': 'Technology | Department of Industry Science and Resources', 'snippet': "Promoting and protecting critical technologies · promote Australia's research, ideas, and industrial strengths and capabilities · encourage business and industry ...", 'date': '2025-09-04', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.space.gov.au/cyber-security-specialist', 'title': 'Cyber security specialist | Australian Space Agency', 'snippet': 'The role. Cyber security specialists plan and implement security measures to protect computer networks and systems from cyber attacks and manage incident ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://business.gov.au/-/media/grants-and-programs/growing-and-professionalising-the-cyber-industry/growing-and-professionalising-the-cyber-security-industry---grant-opportunity-guidelines-pdf.pdf?sc_lang=en&amp;hash=F81330A2ACF1A5B5DEC75F1E34A9BE3A', 'title': '[PDF] growing-and-professionalising-the-cyber-security-industry---grant ...', 'snippet': 'The objectives of the grant program are to: ▫ establish a pilot industry-led cyber security professionalisation scheme. ▫ provide clear career, ...', 'date': '2024-12-18', 'last_updated': '2025-09-04', 'matched': True}]</t>
+          <t>[{'url': 'https://www.cohnreznick.com/insights/higher-ed-cmmc-cybersecurity-compliance-obligations', 'title': 'Higher Ed: Your CMMC Cybersecurity Compliance Obligations', 'snippet': 'Higher education: Check your obligations for CMMC cyber research compliance. Any institution engaged in research for the DoD or a contractor ...', 'date': '2024-12-17', 'last_updated': '2025-08-19', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/guinea-bissau/~technology', 'title': 'Guinea-Bissau | Technology - Education Profiles', 'snippet': 'According to the Africa Data Security Conclave, Guinea-Bissau had not yet enacted data protection laws by the end of 2020. The Law nº 5/2010 “ ...', 'date': '2023-04-24', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=guinea-bissau', 'title': 'Guinea-Bissau - Cybil Portal', 'snippet': "An overview of Guinea-Bissau's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here.", 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://www.itu.int/epublications/ar/publication/D-STR-GCI.01-2021-HTM-E', 'title': 'Global Cybersecurity Index 2020 - ITU', 'snippet': 'Organizational measures include ensuring that cybersecurity is sustained at the highest level of the executive and assigning relevant roles and responsibilities ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.ecofinagency.com/news/1411-50466-guinea-hosts-transform-africa-summit-to-link-ai-strategy-with-simandou-era', 'title': 'Guinea Hosts Transform Africa Summit to Link AI Strategy With ...', 'snippet': "The goal is to build a pool of developers, data scientists, designers, and cybersecurity specialists capable of supporting the country's future ...", 'date': '2025-11-14', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/entities/publication/576ae85b-3a09-4c70-ba56-90e08ece19bf', 'title': 'Publication: Equatorial Guinea Digital Economy Diagnostic', 'snippet': 'Guiding student progress in digital skills from primary to higher education and digitizing government payments are also key reform areas. ... Government of Guinea ...', 'date': '2024-05-22', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/entities/publication/78c86ec6-a816-53dc-bd85-d99987515dcf', 'title': 'Publication: Guinea-Bissau Digital Economy Diagnostic', 'snippet': 'Guiding student progress in digital skills from primary to higher education and digitizing government payments are also key reform areas. Show more. Users ...', 'date': '2023-06-21', 'last_updated': '2025-11-10', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Science of the Republic of Tajikistan in TAJIKISTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Communications and Information Technology (MCIT) in QATAR responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1617,17 +1623,17 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science of the Republic of Tajikistan in TAJIKISTAN</t>
+          <t>Ministry of Communications and Information Technology (MCIT) in QATAR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science of the Republic of Tajikistan</t>
+          <t>Ministry of Communications and Information Technology (MCIT)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1637,7 +1643,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Science of Tajikistan is primarily responsible for education policy, including the integration of ICT and digital competency standards for teachers, as evidenced by the approval of ICT competency standards and efforts to digitalize education[3][5]. It contributes indirectly to cybersecurity by promoting safe digital environments in educational institutions and shaping curricula that include cyber safety skills at primary and secondary levels[1][5]. However, there is no clear evidence that the Ministry is explicitly mandated to lead national cybersecurity governance, enforcement, or technical coordination. Cybersecurity leadership and implementation at the national level appear to be coordinated by other bodies or through inter-ministerial collaboration[2][4]. The Ministry does engage in related activities such as teacher training on ICT and compliance with information security rules in schools, but it does not host national CERT/CSIRT functions nor is it explicitly noted as a member of national cybersecurity committees. Therefore, its responsibility for cybersecurity is limited and supportive within the education sector rather than national cybersecurity governance.</t>
+          <t>The primary organization explicitly responsible for cybersecurity policy, governance, and coordination in Qatar is the National Cyber Security Agency (NCSA), established in 2021. The NCSA leads the development and enforcement of Qatar's national cybersecurity strategies, such as the 2024-2030 National Cyber Security Strategy, and manages critical structures like the National Cyber Security Committee and Q-CERT, the national CERT. Qatar's National Cyber Security Strategy and related legislation identify the NCSA and associated bodies as focal points for cybersecurity policy, legal frameworks, incident response, and coordination with international partners. The Ministry of Communications and Information Technology (MCIT) plays a significant role in the digital transformation and ICT innovation of Qatar, including AI initiatives (such as the National Centre for Artificial Intelligence and the GovAI program) and infrastructure hosting. MCIT's Information Technology Department implements security measures for its own networks and supports ICT systems, but it is not explicitly designated as a national cybersecurity policy authority or the host of the national CERT in official documents. Therefore, MCIT’s role in national cybersecurity governance, prevention, planning, and enforcement is limited compared to the NCSA. MCIT contributes to implementing cybersecurity in its domain and supports digital security but does not lead national-level cybersecurity strategies or coordination.[1][2][3][5][7][8]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1647,14 +1653,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/tj/', 'title': 'NCSI :: Tajikistan - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://education-profiles.org/central-and-southern-asia/tajikistan/~technology', 'title': 'Tajikistan | Technology - Education Profiles', 'snippet': 'Cybersecurity in Tajikistan is based on the following laws of the Republic of Tajikistan “On Information Protection”, “On Information” and “On ...', 'date': '2023-10-03', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.unesco.org/en/articles/ministry-education-and-science-tajikistan-approved-ict-competency-standards-teachers-tajikistan', 'title': 'Ministry of Education and Science of Tajikistan approved ICT', 'snippet': 'The ICT competency standards for teachers in Tajikistan were approved by the Ministry of Education and Science.', 'date': '2024-04-12', 'last_updated': '2025-03-31', 'matched': True}, {'url': 'https://admin.tj/tajikistan-to-declares-2025-2030-as-period-of-development-of-digital-economy-and-innovations/', 'title': 'Tajikistan to Declares 2025–2030 as Period of Development of ...', 'snippet': 'Ensuring cybersecurity, data protection and preventing digital threats. ... “The Ministry of Education and Science, the Agency for Innovations ...', 'date': '2024-12-29', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://maorif.tj/document/632/download', 'title': '[PDF] qualification requirements for the ict competences of a teacher in ...', 'snippet': 'This Requirement serves as a guide for responsible employees of the Ministry of Education and Science of the Republic of. Tajikistan, specialists of the ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://en.avesta.tj/2025/07/28/the-tajik-technical-university-will-open-the-following-courses-cybersecurity-and-smart-technologies/', 'title': 'The Tajik Technical University will open the following courses', 'snippet': 'The Tajik Technical University will open the following courses: Cybersecurity and Smart Technologies ... The Tajik Technical University named ...', 'date': '2025-07-28', 'last_updated': '2025-07-28', 'matched': True}, {'url': 'https://www.gpekix.org/sites/default/files/webform/submit_to_the_library/943/Goin_the_distance_Readiness_for_digitalization_and_distance_education_in_Tajikistan.pdf', 'title': '[PDF] Readiness for digitalization and distance education in Tajikistan', 'snippet': 'Most students and teachers have had limited exposure to distance or digital education. • The policy framework in Tajikistan is conducive to digital educational ...', 'date': None, 'last_updated': '2024-12-10', 'matched': True}, {'url': 'https://hiedtec.ecs.uni-ruse.bg/pimages/34/StatuteCIOT-TUT-TJ-EN.pdf', 'title': '[PDF] ministry of industry and new technologies', 'snippet': 'Tasks of center are: ○ assimilate innovative educational technologies, adapting them to the conditions of the university;. ○ training of teaching staff on the ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://tajikistan.un.org/sites/default/files/2024-11/Eng%20TOR%20for%20IT%20Specialist%20for%20ASSES.docx', 'title': '[DOC] Eng TOR for IT Specialist for ASSES.docx', 'snippet': '3 the Ministry of Education and Science is hiring a consultant to conduct analysis and assessment of current opportunities in creating of the online platform ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3903662/Qatari-Government-Qatar-National-Cyber-Security.pdf', 'title': '[PDF] Qatar National Cyber Security Strategy', 'snippet': "The objectives are very clear: safeguard the nation's critical information infrastructure; respond to and recover from cyber attacks; establish a legal ...", 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://blogs.cisco.com/security/overview-of-cybersecurity-regulations-in-the-middle-east-region-part-1', 'title': 'Overview of Cybersecurity Regulations in the Middle East', 'snippet': 'The primary body, responsible for cybersecurity policies, within the State of Qatar is the National Cyber Security Agency (NCSA) which was ...', 'date': '2024-11-04', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.gco.gov.qa/en/media-centre/top-news/the-national-cyber-security-strategy-2024-2030-is-launched/', 'title': 'The National Cyber Security Strategy 2024-2030 is launched', 'snippet': 'Aligned with the Qatar National Vision 2030, the comprehensive strategy aims to establish Qatar as a global leader in cybersecurity and a ...', 'date': '2024-09-17', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://www.qrtd.qa/why-cybersecurity-matters-to-businesses-in-qatar/', 'title': 'Why Cybersecurity matters to Businesses in Qatar', 'snippet': 'Cybersecurity matters to businesses in Qatar because it helps protect sensitive information, prevent data breaches, safeguard customer trust.', 'date': '2023-07-28', 'last_updated': '2025-01-24', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/qatar-cybersecurity-and-technology-developments-late-2025', 'title': 'Qatar Cybersecurity and technology developments late 2025', 'snippet': 'For more information about the trade mission, cybersecurity, AI, or quantum computing in Qatar, please contact Office.Doha@trade.gov or Juan.', 'date': '2025-09-30', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://mofa.gov.qa/en/qatar/latest-articles/latest-news/details/1444/11/13/qatar-affirms-commitment-to-global-efforts-to-ensure-cyber-space-is-a-tool-for-progress-prosperity', 'title': 'Qatar Affirms Commitment to Global Efforts to Ensure Cyber Space ...', 'snippet': 'The State of Qatar affirmed its commitment to contributing to global efforts to ensure that cyberspace is a means of progress and well-being, ...', 'date': '2025-06-02', 'last_updated': '2025-10-07', 'matched': True}, {'url': 'https://www.mcit.gov.qa/en/about-us/', 'title': 'About MCIT Qatar | Vision, Mission &amp; Role in Digital Innovation', 'snippet': "Discover MCIT Qatar's purpose and leadership in advancing Qatar's digital future. Learn how we drive innovation, enable smart solutions, and support growth.", 'date': '2025-02-09', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.moci.gov.qa/en/about-the-ministry/departments/departments-under-the-deputy/information-technology-department/', 'title': 'Information Technology Department', 'snippet': "Implementing security systems protecting the Ministry's networks against security threats. Providing technical support and maintenance of IT equipment ...", 'date': '2020-11-10', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://ncsa.gov.qa/sites/default/files/2024-01/Qatar2022Framework.pdf', 'title': '[PDF] Qatar 2022 Cybersecurity Framework', 'snippet': "After all, cybersecurity is everyone's responsibility. Through our collective efforts in applying the best practices in this valuable document, ...", 'date': '2018-08-05', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the NONE in LAOS responsible for cybersecurity?
+          <t xml:space="preserve">Is the State Committee on Science and Technology of the Republic of Belarus in BELARUS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1662,27 +1668,27 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NONE in LAOS</t>
+          <t>State Committee on Science and Technology of the Republic of Belarus in BELARUS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ministry of Technology and Communications</t>
+          <t>State Committee on Science and Technology of the Republic of Belarus</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>The Ministry of Technology and Communications (MTC) in Laos is explicitly identified in multiple official sources as the primary national authority responsible for cybersecurity governance, policy, and technical coordination. The MTC oversees the Lao Computer Emergency Response Team (LaoCERT), which operates under its Department of Cyber Security, handling incident reporting and response. Recent legislative efforts, including a draft cybersecurity law reviewed in 2025, empower the MTC to manage and protect critical information infrastructure, personal data, and national cybersecurity operations. The Ministry also leads initiatives to build national cybersecurity capacity, collaborates in regional and international frameworks, and is central to Laos's digital transformation strategies. These points firmly establish the MTC's high responsibility for cybersecurity in Laos.[1][2][3][5][6][7][8][9]</t>
+          <t>The State Committee on Science and Technology of the Republic of Belarus is not explicitly mentioned in national strategies, laws, or reports as being responsible for cybersecurity policy, implementation, or technical coordination. The main documents outlining cybersecurity responsibilities in Belarus, such as the Doctrine of Information Security of the Republic of Belarus and the National Security Concept, do not assign primary cybersecurity governance, prevention, planning, response, or enforcement roles to this committee [1][3][5]. Instead, cybersecurity responsibilities are generally attributed to other state bodies, such as the Ministry of Communications and Informatization, the State Security Committee (KGB), and the Ministry of Defence, which are more directly involved in information security, cyber incident response, and national security matters [5][6]. The State Committee on Science and Technology may play a supporting role in research and development related to information technologies, but there is no evidence that it leads or is a member of a cybersecurity committee, council, or working group, hosts a national CERT/CSIRT/CIRT, oversees information security standards, or participates in international cybersecurity initiatives as a primary agency [1][3][5][6].</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1692,14 +1698,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.dlapiperdataprotection.com/index.html?t=law&amp;c=LA', 'title': 'Data protection laws in Laos', 'snippet': 'LaoCERT is now a Division under direct supervision of the Department of Cyber Security in the MTC and is the agency on the front lines that ...', 'date': '2025-01-08', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://english.news.cn/20250625/b116614260f84dc0ada7dd314c059eb4/c.html', 'title': 'Laos continues efforts to boost cybersecurity - Xinhua', 'snippet': 'The law is expected to empower the Ministry of Technology and Communications and relevant agencies to better protect critical information ...', 'date': '2025-06-25', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-lao-pdr/', 'title': 'Cyber Security in Lao PDR - Blog | Gavin Dennis - Certified and ...', 'snippet': 'Laos has a Computer Emergency Response Team (CERT) under the Ministry of Post and Telecommunications. This team works to handle cyber security ...', 'date': '2024-10-24', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/la_2022/', 'title': 'NCSI :: Lao PDR - National Cyber Security Index', 'snippet': 'Criteria. A central government entity (ministry or equivalent) has a specialised official or unit responsible for national cyber security policy development.', 'date': '2021-09-13', 'last_updated': '2024-10-05', 'matched': True}, {'url': 'https://www.global-dms.com/strengthening-cybersecurity-capacity-in-laos-public-private-collaboration-in-action/', 'title': 'Strengthening Cybersecurity Capacity in Laos: Public–Private ...', 'snippet': 'GDMS joins Lao Ministry seminar to share cybersecurity best practices and support national efforts in digital resilience, awareness, and secure ICT ...', 'date': '2025-07-29', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://kpl.gov.la/En/detail.aspx?id=92111', 'title': 'Laos Takes Big Step Toward a Safer Digital Future with New ...', 'snippet': 'On June 23, 2025, Laos moved closer to building a stronger and safer digital environment as the National Assembly reviewed a new draft Law ...', 'date': '2025-06-23', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://sasiapac.com/lao-govt-officials-beef-up-on-data-security-privacy-in-digitalisation-development/', 'title': 'Lao govt officials beef up on data security, privacy in digitalisation ...', 'snippet': "Director General of the Ministry of Technology and Communications' Department of Cyber Security, Mr Khamla Sounnalat, said “Our government is ...", 'date': '2022-06-28', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://laocert.gov.la/ftp_upload/Cyber_Crime_Law_EnVersion.pdf', 'title': '[PDF] Law', 'snippet': 'Lao Computer Emergency Response Team is an organization having role at the relevant level of a department of ministry including in the organization structure ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.eria.org/uploads/4_ch_4-Lao-PDR.pdf', 'title': "[PDF] Chapter 4 Digital Economy in Lao People's Democratic Republic", 'snippet': 'Several key government agencies are responsible for the development of the digital economy: Ministry of Technology and Communications (MTC). The MTC is the lead ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/doctrine-of-information-security-of-the-republic-of-belarus', 'title': 'Doctrine of Information Security of the Republic of Belarus', 'snippet': "The Doctrine of Information Security of the Republic of Belarus outlines the country's strategic approach to securing its information sphere.", 'date': '2024-06-24', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://papers.academic-conferences.org/index.php/eccws/article/view/2518', 'title': "Belarus' State Control and Emerging Cyber Threats", 'snippet': "This paper provides a comprehensive overview of the cyber landscape in Belarus, with a focus on the Belarus government's use of cyber activities.", 'date': '2024-06-21', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://un.mfa.gov.by/docs/doctrine_of_information_security_of_the_republic_of_belarus.pdf', 'title': '[PDF] Doctrine of Information Security of the Republic of Belarus', 'snippet': 'The national cybersecurity system should implement a full range of legal, organizational and technical measures to ensure security of the national information.', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/11_PAVLYUCHENKO_Belorussia.pdf', 'title': '[PDF] Belarus in the Context of European Cyber Security - CCDCOE', 'snippet': 'Since its founding, however, the site has been forced to defend itself against practically all existing Internet censorship strategies.', 'date': '2001-09-09', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.pism.pl/publications/belarus-updated-security-strategies-identify-threats-from-the-west', 'title': 'Belarus Updated Security Strategies Identify Threats from the West', 'snippet': 'Changes to the National Security Concept. The NSC is the most important document identifying the sources of threats to the Belarusian state, ...', 'date': '2024-05-21', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-belarus/', 'title': 'Cyber Security in Belarus - Blog | Gavin Dennis - Certified and ...', 'snippet': 'Belarus has laws against cybercrime. These laws cover things like hacking, online fraud, and spreading harmful software.', 'date': '2024-10-11', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.dlapiperdataprotection.com/index.html?t=law&amp;c=BY', 'title': 'Data protection laws in Belarus', 'snippet': 'The fundamental legal act regulating personal data protection in Belarus is the Law on Personal Data Protection of 7 May 2021 No. 99-Z which ...', 'date': '2025-01-20', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://freedomhouse.org/country/belarus/freedom-net/2024', 'title': 'Belarus: Freedom on the Net 2024 Country Report', 'snippet': '343 The new legislation allows investigators unrestricted access to the personal data of Belarusians without their consent, as well as remote access to certain ...', 'date': '2025-03-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://cyberpolicyportal.org/states/belarus', 'title': 'Belarus - Cyber Policy Portal', 'snippet': 'Cybersecurity Policy(7). Relevant Strategy Documents, and Implementation Frameworks. (7). Structures(4). Relevant National Centre or Responsible Agency, Key ...', 'date': None, 'last_updated': '2025-09-05', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Sports and Culture in SAMOA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of University and Research (Ministero dell'Università e della Ricerca, MUR) in ITALY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1707,17 +1713,17 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ministry of Education, Sports and Culture in SAMOA</t>
+          <t>Ministry of University and Research (Ministero dell'Università e della Ricerca, MUR) in ITALY</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ministry of Education, Sports and Culture</t>
+          <t>Ministry of University and Research (Ministero dell'Università e della Ricerca, MUR)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1727,7 +1733,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Sports and Culture in Samoa plays a supportive role in cybersecurity primarily focused on the education sector. According to the 2018-23 National ICT in Education Policy, this Ministry provides ICT guidelines, educates students, teachers, and staff on cybersecurity basics such as virus protection and ethical internet use, and is responsible for observing and advising safe ICT use in schools[1][4]. It is involved in developing cybersecurity-related curricula and participates in initiatives like the Child Online Protection Working Group in collaboration with other agencies[2]. However, it does not explicitly host a national CERT/CSIRT, lead a national cybersecurity strategy, or hold a primary cybersecurity enforcement role – those responsibilities belong mainly to the Ministry of Communication and Information Technology and associated agencies[2][7]. The Ministry also collaborates in multi-agency cyber awareness campaigns but is not the principal agency for cybersecurity governance or technical coordination[3][5].</t>
+          <t>The Ministry of University and Research (MUR) is not the primary body responsible for national cybersecurity policy, implementation, or technical coordination in Italy. The National Cybersecurity Agency (ACN) is the central coordinating body for cybersecurity, as established by Law Decree 82/2021 and tasked with implementing the National Cybersecurity Strategy 2022-2026 [1, 2, 3, 5]. MUR's involvement is limited to supporting research and development activities related to cybersecurity, such as funding projects and research initiatives. For example, MUR is associated with the SERICS (Security and Rights in the Cyberspace) program, which focuses on risk management and governance, including the development of advanced tools for malware analysis, network traffic analysis, and machine learning systems for cybersecurity [6]. However, MUR does not host a national CERT/CSIRT/CIRT, lead or participate as a core member in the main cybersecurity committees or councils, or oversee information security standards or network protection at the national level. Its role is supportive and research-oriented rather than operational or policy-leading in the cybersecurity domain [6].</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1737,14 +1743,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/oceania/samoa/~technology', 'title': 'Samoa | Technology - Education Profiles', 'snippet': 'According to the 2018-23 National ICT in Education Policy, the Ministry of Education, Sports and Culture is responsible for providing guidelines ...', 'date': '2024-07-02', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://mcit.gov.ws/wp-content/uploads/2023/02/MCIT-Samoa-National-Cybersecurity-Strategy-2016-2021.pdf', 'title': '[PDF] Samoa National Cybersecurity Strategy 2016 - 2021', 'snippet': 'Cyber Security is a shared responsibility and this Strategy calls upon all Internet users, to be vigilant and informed about online threats, and how their own ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://samoaglobalnews.com/samoa-mataala-cyber-safe-slogan-promoted-to-every-household-in-every-community/', 'title': 'Cyber Safe Slogan Promoted to Every Household in Every Community', 'snippet': "The slogan calls for Samoa to stay alert, and for every citizen, parent, educator and policy maker to 'stay awake' and remain on top of the issues, risks and ...", 'date': '2023-08-03', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.mesc.gov.ws/wp-content/uploads/2019/09/MESC-ICT-in-Education_Policy_2018-2023-30.10.2018_FINAL.pdf', 'title': '[PDF] National Information and Communication Technology in Education ...', 'snippet': 'The Government of Samoa through MESC and appropriate partners will facilitate the best possible use of ICT to: • establish appropriate ICT Literacy skills among ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.samcert.gov.ws/press%20release%20roadshow', 'title': 'PRESS RELEASE: CYBER SMART ROADSHOW - SamCERT', 'snippet': 'The PTA sessions will also focus on current cyber trends in Samoa, informing of incident log processes, cyber safety tips, upskilling their ...', 'date': '2023-08-17', 'last_updated': '2025-03-30', 'matched': True}, {'url': 'https://www.regulator.gov.ws/images/Sector_Plan/ICTSP-2022-2027_English-Version_Signed.pdf', 'title': '[PDF] Page 1 - Office of the Regulator', 'snippet': '• Firewall and antivirus to protect against cyber threats and cyber attacks. Education. • ... ➢ Ministry of Education, Sports and Culture. ➢ Electric Power ...', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.samoaobserver.ws/category/samoa/103199', 'title': 'New cyber security division formed - Samoa Observer', 'snippet': 'A new cyber security division has been set up within the Ministry of Communication, Information, and Technology to address ongoing digital challenges faced in ...', 'date': '2023-04-26', 'last_updated': None, 'matched': True}, {'url': 'https://mpmc.gov.ws/pr-the-ministry-of-education-sports-and-cultures-free-and-secure-wi-fi-project-for-schools/', 'title': "The Ministry of Education, Sports and Culture's free and secure Wi ...", 'snippet': 'which provide content filtering and cyber-security protection. ... Samoa Immigration Receives Upgraded Border Management System and ...', 'date': '2020-09-30', 'last_updated': '2025-03-25', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/italian-national-cybersecurity-strategy-2022-2026', 'title': 'Italian National Cybersecurity Strategy | 2022-2026', 'snippet': "The strategy outlines Italy's digital roadmap and seeks to implement over 80 measures by 2026, some through public-private partnerships.", 'date': '2023-11-03', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://decode39.com/12141/italy-steps-up-cyber-defenses-with-e58-million-plan-to-boost-national-digital-security/', 'title': 'Italy steps up cyber defenses with €58 million plan - Decode39', 'snippet': 'The government has approved the allocation of €58 million to implement the National Cybersecurity Strategy over the 2025–2027 period, according ...', 'date': '2025-10-22', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/italy-cybersecurity', 'title': 'Italy - Cybersecurity - International Trade Administration', 'snippet': "ACN ensures the implementation of Italy's first-ever cybersecurity strategy announced in May 2022, which outlines the country's digital roadmap.", 'date': '2024-01-23', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.sangfor.com/blog/cybersecurity/italian-breakthrough-in-cybersecurity', 'title': 'Italian National Cybersecurity Strategy and Its Breakthrough', 'snippet': 'Over 85% of Italian organizations were subject to at least one successful attack within a 12-month period · 60% of organizations in Italy dealt ...', 'date': '2022-11-23', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://iapp.org/news/a/italy-updates-national-cybersecurity-and-data-protection-framework', 'title': 'Italy updates National Cybersecurity and Data Protection Framework', 'snippet': "The 2025 Italian National Framework for Cybersecurity and Data Protection is an important step forward to construct the country's digital infrastructure.", 'date': '2025-05-29', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.mur.gov.it/sites/default/files/2023-02/D.D.%20341%20_PE0000014_rev181022NF.pdf', 'title': '[PDF] SECURITY AND RIGHTS IN THE CYBERSPACE (SERICS) - MUR', 'snippet': 'Thematic Area 8: Risk Management and Governance. TA 8 aims to contribute to the cyber resilience of future systems and services characterized by.', 'date': '2023-02-10', 'last_updated': '2025-04-04', 'matched': True}, {'url': 'https://www.fortra.com/blog/cybersecurity-regulatory-landscape-italy-primer-business', 'title': 'Cybersecurity Regulatory Landscape in Italy: A Primer for Business', 'snippet': "Italy's regulatory framework for cybersecurity is layered. It blends EU directives with national legislation and sector-specific requirements.", 'date': '2025-09-25', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/ACN_EN_Strategia.pdf', 'title': '[PDF] national cybersecurity - strategy - ITU', 'snippet': 'The prevention and countering of cybercrime is provided by the Italian National Police through the Postal and. Communications Police Service, ...', 'date': '2022-05-27', 'last_updated': '2024-02-03', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/en/entity/dye20n0o6cm/relationships?page=6&amp;file=1669377340453p164s8mw92.pdf', 'title': 'Strategia Nazionale di Cybersicurezza 2022-2026 (National ...', 'snippet': 'Law 71/2017 containing "Provisions for the protection of minors for the prevention and contrast of the phenomenon of cyberbullying". State. Italy.', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Science in NORTH MACEDONIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in CHAD responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1752,17 +1758,17 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science in NORTH MACEDONIA</t>
+          <t>Ministry of Higher Education and Scientific Research in CHAD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1772,7 +1778,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Science in North Macedonia is primarily involved in education policies and curricula, including initiatives to reinforce ICT-specific curricula and integrate cybersecurity as an essential skill in schools. National strategies emphasize cybersecurity education and training at all levels but assign the primary cybersecurity governance, policy implementation, and technical coordination responsibilities to other bodies, particularly the Ministry of Digital Transformation and the Ministry of Information Society and Administration. The Ministry of Education and Science does not host a national CERT/CSIRT, lead cybersecurity committees, or have formal mandates for cybersecurity policy or enforcement. Its role is mainly to support cyber education and awareness within the education system, rather than coordinate national cybersecurity efforts or infrastructure protection[1][2][3][6][8].</t>
+          <t>The Ministry of Higher Education, Research and Innovation in Chad is involved in the formulation of a national plan for ICT development, which may include aspects related to cybersecurity education and digital skills as part of broader ICT initiatives [5]. However, there is no evidence that this ministry is explicitly responsible for cybersecurity policy, implementation, or technical coordination at the national level. The primary authority for cybersecurity leadership in Chad is the National Agency for Information Security and Electronic Certification (ANSICE), which is tasked with the regulation, control, and monitoring of information systems and electronic communications networks, as well as ensuring the security of government information systems and critical state infrastructure [1]. The Ministry of Higher Education and Scientific Research does not appear to host a national CERT/CSIRT/CIRT, lead or be a member of a cybersecurity committee, oversee information security standards, or participate in cybersecurity events or joint initiatives as the main responsible body [1][5]. Its role is more focused on education and research rather than direct cybersecurity governance or response.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1782,14 +1788,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/north-macedonia/~technology', 'title': 'North Macedonia | Technology - Education Profiles', 'snippet': 'The Ministry of Information Society and Administration is mandated to promote digital development at the country level. The Ministry engages ...', 'date': '2025-01-17', 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://portal.mdt.gov.mk/post-body-files/strategija-za-sajber-bezbednost-file-ZPbV.docx', 'title': '[DOC] strategija-za-sajber-bezbednost-file-ZPbV.docx', 'snippet': "The National Security Council of the Republic of North Macedonia plays a crucial role in overseeing the country's security, including cybersecurity.", 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://dig.watch/resource/cybersecurity-strategy-2025-2028-of-the-republic-of-north-macedonia', 'title': 'Cybersecurity Strategy 2025–2028 of the Republic of North ...', 'snippet': "The Cybersecurity Strategy 2025–2028 is positioned as a core pillar of North Macedonia's national security, digital transformation, and societal resilience.", 'date': '2025-09-05', 'last_updated': '2025-09-06', 'matched': True}, {'url': 'https://portal.mdt.gov.mk/post-body-files/strategija-za-sajber-bezbednost-file-KiRF.pdf', 'title': '[PDF] Minimum Mandatory Cyber Security Standards for Government ...', 'snippet': 'These minimum cybersecurity standards consist of baseline cybersecurity requirements, guidelines and practices to implement in North Macedonia ...', 'date': '2025-01-26', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://knowcyber.eu/cybersecurity-in-north-macedonia/', 'title': 'Cybersecurity in North Macedonia - KnowCyber', 'snippet': 'North Macedonia demonstrates a higher level of responsive cybersecurity, closely followed by strategic cybersecurity and a lower level of preventive ...', 'date': '2025-05-08', 'last_updated': '2025-05-29', 'matched': True}, {'url': 'https://sherloc.unodc.org/cld/uploads/res/treaties/strategies/macedonia_the_former_yugoslav_republic_of/mkd0002s_html/ap_cybersec_v1.13_eng.pdf', 'title': '[PDF] National Cyber Security Strategy 2018-2022 Action Plan 2018-2022', 'snippet': 'The responsibilities of this working group will be extended in order to include the implementation of the activities of the Body with operational cyber security.', 'date': None, 'last_updated': '2025-02-03', 'matched': True}, {'url': 'https://gordoninstitute.fiu.edu/cybersecurity-policy/training/international-capacity-building/workforce-deficiencies-assessment-north-macedonia.pdf', 'title': '[PDF] CRITICAL INFRASTRUCTURE DIGITALIZATION AND RESILIENCE', 'snippet': 'To systematically assess the current need for cybersecurity personnel, the FIU and CIDR/North. Macedonia teams designed a questionnaire to ...', 'date': '2023-11-09', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.analyticamk.org/images/2024/Cyber/_WEB_Cyber_EN__.pdf', 'title': '[PDF] Handbook for development of cyber security culture in the ...', 'snippet': 'The Handbook is intended for a wide group of stakeholders in North. Macedonia who work in the field of cyber security of students, prevention of ...', 'date': '2024-03-05', 'last_updated': '2025-04-17', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mk_2022/?allData=1', 'title': 'NCSI :: North Macedonia - National Cyber Security Index', 'snippet': 'GENERAL CYBER SECURITY INDICATORS · Requirements · Evidence · Requirements · Evidence · Requirements · Evidence · Requirements · Evidence.', 'date': '2023-05-03', 'last_updated': '2024-12-01', 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/td/', 'title': 'NCSI :: Chad - National Cyber Security Index', 'snippet': 'RESPONSIVE CYBERSECURITY INDICATORS ; 9.1. National incident response capacity · Legal act or official website ; 9.2. Incident reporting obligations · Legal act or ...', 'date': '2025-07-15', 'last_updated': '2025-08-12', 'matched': True}, {'url': 'https://www.scirp.org/journal/paperinformation?paperid=123376', 'title': 'Closing the Cybersecurity Skill Gap in Kenya - Scirp.org', 'snippet': 'Discover the urgent need to bridge the cybersecurity skill gap in Kenya. Explore interventions and partnerships in higher learning institutions to address ...', 'date': '2023-02-28', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://cybilportal.org/actors/?_sft_country=chad&amp;sf_paged=17', 'title': 'Actor - Cybil Portal', 'snippet': 'NCSA coordinates national cybersecurity functions across the private and public sectors to ensure the security and resilience of ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://africaconnect3.net/wp-content/uploads/2024/01/113114-NRENSinAfrica-SABER-ICTno05.pdf', 'title': '[PDF] The Role and Status of National Research and Education Networks ...', 'snippet': 'While a government ministry, be it. Education, Higher Education, Science and Technology, or Communications, may have a major say in how an NREN operates and is ...', 'date': None, 'last_updated': '2024-09-11', 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/61714f214ed04bcd6e9623ad0e215897-0400012021/related/Chad-country-diagnostic.pdf', 'title': '[PDF] Chad - The World Bank', 'snippet': 'The Ministry of Higher Education, Research and Innovation formulated a national plan for ICT development in ... the Ministry of National Education and Civic ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.ccu.edu/blogs/cags/category/business/the-growing-importance-of-a-career-in-cyber-security/', 'title': 'The Growing Importance of a Career in Cyber Security | CCU Online', 'snippet': 'A career in cyber security is vital not only for protecting individuals and businesses but also for promoting social justice and economic growth.', 'date': '2025-03-28', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.state.gov/reports/2018-investment-climate-statements/chad', 'title': 'Chad - United States Department of State', 'snippet': "Chad is one of Africa's largest countries, with a land area of 1,284,000 square kilometers that encompasses three agro-climatic zones. Chad is a landlocked ...", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.atlanticcouncil.org/event/chads-prime-minister-on-his-countrys-civilian-transition-and-role-in-africa/', 'title': "Chad's prime minister on his country's civilian transition and role in ...", 'snippet': "Prime Minister Succès Masra outlines the future of Chad's transition to civilian rule and the country's geostrategic role, with coups unfolding across the ...", 'date': '2024-02-28', 'last_updated': '2025-05-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research of Libya in LIBYA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Human Resources Development (MEHRD) in SOLOMON  ISLANDS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1797,17 +1803,17 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research of Libya in LIBYA</t>
+          <t>Ministry of Education and Human Resources Development (MEHRD) in SOLOMON  ISLANDS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Education and Human Resources Development (MEHRD)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1817,9 +1823,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research (MHESR) in Libya is involved in cybersecurity primarily through its oversight of technical and vocational education, including computer skills training for youth, and its participation in broader national digital transformation and ICT initiatives. For example, the Intermediate Institutes of the National Board for Technical and Vocational Education under MHESR provide computer skills training for 15-24 year olds in collaboration with the UNDP, which may include elements of cybersecurity awareness [2]. Additionally, the Ministry is mentioned in the context of Libya's 2023 Digital Transformation Strategy, which aims to develop a scientific workforce, support research and development, promote innovation, and foster collaboration between public, private, and academic sectors, including in the area of cybersecurity [2].
-However, there is no evidence that MHESR is explicitly responsible for national cybersecurity policy, implementation, or technical coordination. The General Authority for Communication and Informatics is tasked with developing a strategic national plan for information security and combating cybercrime, indicating that primary responsibility for cybersecurity policy and coordination lies elsewhere [2]. MHESR does not appear to host a national CERT/CSIRT/CIRT, lead or be a member of a cybersecurity committee, oversee information security standards, or participate in cybersecurity enforcement activities. Its role is more focused on education and research, rather than direct cybersecurity governance or operational response [2][4].
-Therefore, while MHESR contributes to cybersecurity through education and research, its responsibility for national cybersecurity is limited and indirect.</t>
+          <t>The Ministry of Education and Human Resources Development (MEHRD) is responsible for the integration of technology in education, including teacher training, curricula, distance education, and data collection, as well as the development and implementation of key ICT in education documents such as the 2019-23 ICT in Education Master Plan[2]. MEHRD also oversees the management of ICT devices in schools and coordinates ICT services between the ministry, education authorities, and schools[2]. However, cybersecurity policy, technical coordination, and incident response at the national level are primarily the responsibility of the Ministry of Communication and Aviation (MCA), which is the custodian of the National Cybersecurity Policy and leads the Solomon Islands Computer Emergency Response Team (SICERT) project[1][4][8]. MEHRD's role is limited to ensuring that schools have appropriate ICT infrastructure and that there is a legal framework for cybercrime, but it does not host a national CERT, lead or participate in national cybersecurity committees, or oversee information security standards for the country[2]. MEHRD's cybersecurity responsibilities are confined to the education sector and do not extend to broader national cybersecurity governance, prevention, planning, response, or enforcement[2].</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1829,14 +1833,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/ly/', 'title': 'NCSI :: Libya - National Cyber Security Index', 'snippet': '... the roles and responsibilities of ... It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education ...', 'date': '2024-04-30', 'last_updated': '2025-07-24', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/libya/~technology', 'title': 'Libya | Technology - Education Profiles', 'snippet': 'The Ministry of Technical and Vocational Education is responsible for all public technical and vocational education institutes.', 'date': '2024-02-15', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://journals.scholarpublishing.org/index.php/ASSRJ/article/view/17412', 'title': 'Exploring Libyan Higher Education Institutions Employees ...', 'snippet': 'This study aimed to explore the level of understanding of Libyan information security policies among employees of higher education institutions.', 'date': '2024-08-23', 'last_updated': '2025-01-12', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/server/api/core/bitstreams/06932a88-87e3-5422-9c46-718e1d31e0b9/content', 'title': '[PDF] ICT in Education in Libya - World Bank Document', 'snippet': 'Government reform plans in developing ICT infrastructure in Libya and incorporating ICT in education as key components in its overall development plans. Libya ...', 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.scienceijsar.com/sites/default/files/article-pdf/IJSAR-3087.pdf', 'title': '[PDF] the integration of internet of things (iot) applications in libyan higher ...', 'snippet': 'Therefore, this study aims to analyse the current landscape of IoT in Libyan higher education, exploring the benefits, opportunities, and ...', 'date': '2025-07-31', 'last_updated': '2025-08-06', 'matched': True}, {'url': 'https://www.inhea.org/ahen/libya/', 'title': 'Libya - International Network for Higher Education in Africa', 'snippet': "Libya's new digital platform connects academics to policy-makers, universities, and postgraduate students, fostering collaboration for national development.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ibtikarproject.eu/wp-content/uploads/2023/12/IBTIKAR_D2.2_Research-Agenda.pdf', 'title': '[PDF] Institutional Research Agenda - IBTIKAR Project', 'snippet': 'The purpose of IBTIKAR Research Agenda is to outline the priority research areas that has to be developed, the objectives, the outcomes and desired impacts, ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://eujournal.org/index.php/esj/article/view/18795/18566', 'title': '[PDF] Comparative Study of Information Security Awareness and Practice ...', 'snippet': 'The results of this study indicate a moderate positive correlation between policy, IT knowledge, and education with security awareness and ...', 'date': '2024-11-21', 'last_updated': '2025-02-07', 'matched': True}]</t>
+          <t>[{'url': 'https://www.mca.gov.sb/news-updates/520-solomon-islands-launches-sicert-project-to-combat-cybersecurity-threats.html', 'title': 'Solomon Islands launches SICERT project to combat cybersecurity ...', 'snippet': "The SICERT will be the country's first line of defense against these threats, to ensure the resilience and security of our digital ecosystem.", 'date': '2025-04-08', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://education-profiles.org/oceania/solomon-islands/~technology', 'title': 'Solomon Islands | Technology - Education Profiles', 'snippet': 'The management of ICT devices in schools is guided by the ICT School Policy, with schools mainly responsible for managing the use of ICTs in classrooms.', 'date': '2023-06-09', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.cbsi.com.sb/press-release-no-7-25-cbsi-launches-cyber-security-strategy-2025-to-safeguard-financial-stability/', 'title': 'Press Release No.7/25 - CBSI Launches Cyber Security Strategy ...', 'snippet': 'The Cyber Security Strategy outlines a three-year roadmap aimed at delivering the mission: “enable a secure and resilient financial sector within the Solomon ...', 'date': '2025-05-21', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.mca.gov.sb/news-updates/519-advertisement-notice-launching-of-the-national-cybersecurity-policy-and-the-national-aviation-symposium.html', 'title': 'LAUNCHING OF THE NATIONAL CYBERSECURITY POLICY AND ...', 'snippet': 'The National Cybersecurity Policy is a Policy framework that sets out strategies, approaches and best practices to creating a safe and secure ...', 'date': '2024-08-20', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/documents/WB%20Accelerating-Practical-Digital-Development-in-the-Solomon-Islands.pdf', 'title': '[PDF] Accelerating Practical Digital Development in the Solomon Islands', 'snippet': 'The specific responsibilities on cybersecurity and cybercrime, as well as the remit of the CWG over areas beyond cybercrime/cybersecurity (i.e., data protection ...', 'date': None, 'last_updated': '2025-07-01', 'matched': True}, {'url': 'https://solomons.gov.sb/cyber-smart-pacific/', 'title': 'Cyber Smart Pacific - Solomon Islands Government Portal', 'snippet': "We're a government agency that helps Solomon Islanders identify their cyber security issues and guide them in resolving them.", 'date': None, 'last_updated': '2024-07-29', 'matched': True}, {'url': 'https://solomons.gov.sb/wp-content/uploads/2025/09/SIG-ICTS-Digital_final.pdf', 'title': '[PDF] Digital - Data, People, Technology and Cyber Strategy', 'snippet': 'Additionally, empowering citizens and government employees through awareness programs will foster a culture of cybersecurity, equipping them with knowledge and ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sbm.sb/first-ever-national-cybersecurity-policy-launched/', 'title': 'First Ever National Cybersecurity Policy Launched', 'snippet': 'The first ever National Cybersecurity Policy was launched this morning in Honiara with the intention to response to cyber security needs of the country.', 'date': '2024-08-20', 'last_updated': '2025-02-04', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-solomon-islands-slb-education-the-complete-guide-to-using-ai-in-the-education-industry-in-solomon-islands-in-2025', 'title': 'The Complete Guide to Using AI in the Education Industry in ...', 'snippet': "Beginner's guide to using AI in education in the Solomon Islands in 2025 — policy, tools, ethics, and practical steps for schools and ...", 'date': '2025-09-13', 'last_updated': '2025-09-30', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in MALAWI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Environment, Science, Technology and Innovation in GHANA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1844,17 +1848,17 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology in MALAWI</t>
+          <t>Ministry of Environment, Science, Technology and Innovation in GHANA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology</t>
+          <t>Ministry of Environment, Science, Technology and Innovation</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1864,7 +1868,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Technology (MoEST) in Malawi is responsible for integrating cybersecurity elements into the education sector, including curriculum development and capacity building in schools and universities, as outlined in the 2019-24 National Cybersecurity Strategy and the 2013 National ICT Policy [1][3][5]. MoEST also participates in consultative workshops and stakeholder meetings related to cybersecurity in education, such as those organized by the Malawi Research and Education Network (MAREN) and the Computer Emergency Response Team (CERT) for research and education [2]. However, MoEST does not host or lead the national CERT/CSIRT, nor is it the primary agency for national cybersecurity policy, technical coordination, or enforcement. The main responsibility for national cybersecurity policy and technical coordination lies with the Malawi Communications Regulatory Authority (MACRA) and other designated national bodies [1][3][5]. MoEST's role is limited to the education sector and does not extend to broader national cybersecurity governance, prevention, planning, response, or enforcement.</t>
+          <t>The Ministry of Environment, Science, Technology and Innovation (MESTI) in Ghana is responsible for the formulation and implementation of policies related to science, technology, and innovation, and for setting standards and regulatory frameworks in these areas [4][5][6]. However, there is no direct evidence that MESTI is explicitly responsible for cybersecurity policy, implementation, or technical coordination. The Ghana National Cyber Security Policy &amp; Strategy identifies the National Information Technology Agency (NITA) as the entity that initiated the setup of a national Computer Emergency Response Team (nitaCERT) to coordinate cyber incidents and assist in resolving future incidents within the government network [2]. This indicates that NITA, not MESTI, is the primary agency for technical coordination and response in cybersecurity. MESTI's role is more focused on the broader science, technology, and innovation sector, including the development of standards and policies, but not specifically for cybersecurity [4][5][6].</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1874,14 +1878,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/sub-saharan-africa/malawi/~technology', 'title': 'Malawi | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science and Technology (MoEST) is responsible for providing ICT as a tool in education services through the ...', 'date': '2023-05-22', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://openreview.net/forum?id=ubkEhhHAXL&amp;noteId=aIjUSHgYxQ', 'title': "Enhancing Cyber Resilience for Malawi's Education and Research...", 'snippet': 'The Workshop will cover raising awareness on cybersecurity, data breaches, system vulnerabilities, and other critical technology emergencies.', 'date': '2023-07-31', 'last_updated': '2025-03-31', 'matched': True}, {'url': 'https://digmap.pppc.mw/wp-content/uploads/2022/01/National-Cybersecurity-Strategy_Final_6-10-19_rev.doc', 'title': '[DOC] National-Cybersecurity-Strategy_Final_6-10-19_rev', 'snippet': "The Government recognizes its special responsibility to lead the national efforts in managing and mitigating cyber threats. The Strategy defines Malawi's ...", 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://ppda.mw/storage/documents/opentenders/DMAP_eGOV_TORs_-_CyberSecurity_Specialist.pdf', 'title': '[PDF] DIGITAL MALAWI ACCELERATION PROJECT', 'snippet': 'The Cyber Security Specialist will be responsible for the following: • Leading the technical team in monitoring and securing Whole-of-government systems. • ...', 'date': None, 'last_updated': '2024-12-09', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/00019_07_Malawi%20national-cybersecurity-strategy.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY (FINAL DRAFT) Version 5', 'snippet': 'NCS 2017-2021 sets out a multi-stakeholder framework for ensuring Malawians can access and use cyberspace with trust and confidence, and ensuring the nation ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.ict.gov.mw', 'title': 'Ministry of Information and Digitalization', 'snippet': 'Malawi Develops National Cyber Security Strategy. Malawi has moved closer to its first ever national cyber security strategy, a feat boosted by the recent ...', 'date': None, 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://www.opengovpartnership.org/members/malawi/commitments/MW0018/', 'title': 'Promotion of digital literacy, rights and inclusion (MW0018)', 'snippet': '(b) Promote financial inclusion through digital governance. (c) Localize and digitize processes at all levels. (d) Accelerate digital literacy initiatives for ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://dl.acm.org/doi/10.1145/3680127.3680177', 'title': 'How Government Agencies Evaluate Cybersecurity Capacity ...', 'snippet': 'Malawi, which was the case for this study, has had two cybersecurity maturity assessments using the CMM (in 2016 and 2020) [17]. Further, the ...', 'date': '2024-12-16', 'last_updated': None, 'matched': True}, {'url': 'https://www.undp.org/sites/g/files/zskgke326/files/2025-05/dra_malawi_report_2025_a4_print.pdf', 'title': '[PDF] Digital Readiness Assessment', 'snippet': "The Digital Readiness Assessment (DRA) is a pivotal milestone in Malawi's digital journey, offering an in-depth view of the progress we.", 'date': '2025-05-20', 'last_updated': None, 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/maturity-of-cybersecurity-initiatives-in-malawi-a-comparison-with-the-drive-for-fast-and-ubiquitous-internet-connectivity/', 'title': 'Maturity of cybersecurity initiatives in Malawi - DiploFoundation', 'snippet': 'This study looks at the current state of cybersecurity initiatives in Malawi against a background of significant efforts to greatly enhance Internet ...', 'date': '2022-08-07', 'last_updated': '2025-09-01', 'matched': True}]</t>
+          <t>[{'url': 'https://moc.gov.gh/wp-content/uploads/2023/03/TOR-Recruitment-of-TECH-STANDARD-LEAD.pdf', 'title': '[PDF] Cybersecurity Technology Standards Lead', 'snippet': 'The Cybersecurity Technology Standards Lead will be responsible for coordinating and supporting the development of technology standards across the cybersecurity ...', 'date': None, 'last_updated': '2025-04-15', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/National-Cyber-Security-Policy-Strategy-Revised_23_07_15.pdf', 'title': '[PDF] Ghana National Cyber Security Policy &amp; Strategy - ITU', 'snippet': 'The expansion of Internet access in Africa, representing the largest growth in the world, means more people today have access to Internet, ...', 'date': '2015-07-23', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://ndpc.gov.gh/media/Ministry_Environment_Science_Technology_and_Innovation_2017_APR.pdf', 'title': '[PDF] MINISTRY OF ENVIRONMENT, SCIENCE, TECHNOLOGY ...', 'snippet': 'and international bodies to assist Ghana fulfil her obligations in nuclear safety, security, safeguards and environmental protection while building the ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/149868/ministry-of-environment-science-technology-and-innovation-ghana', 'title': '️Ministry of Environment, Science, Technology and Innovation ...', 'snippet': 'Ensure the establishment of the regulatory framework and setting of standards to govern the activities of science and technology and the management of the ...', 'date': None, 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.mofep.gov.gh/sites/default/files/pbb-estimates/2025/2025-PBB-MESTI.pdf', 'title': '[PDF] MINISTRY OF ENVIRONMENT, SCIENCE AND TECHNOLOGY', 'snippet': 'These are as follows: • Enhance environmental protection services. • Improve forest and protected areas.', 'date': '2025-05-16', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://faolex.fao.org/docs/pdf/gha227745.pdf', 'title': '[PDF] National Science Technology and Innovation Policy', 'snippet': "The Ministry of Environment, Science and Technology will have the responsibility for the nation's STI policy, and will manage and implement. Government's STI ...", 'date': None, 'last_updated': '2024-09-28', 'matched': True}, {'url': 'https://stimis.mesti.gov.gh/docs/Policies/NATIONAL%20SCIENCE,%20TECHNOLOGY%20AND%20INNOVATION%20POLICY.pdf', 'title': '[PDF] NATIONAL SCIENCE, TECHNOLOGY - STI MIS', 'snippet': 'The Ministry of Environment Science Technology and Innovation (MESTl) must influence the various organizations that comprise the Science,. Technology ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.bmz-digital.global/wp-content/uploads/2025/10/GhanaArtificialIntelligencePractitionersGuide.pdf', 'title': "[PDF] GHANA ARTIFICIAL INTELLIGENCE PRACTITIONERS' GUIDE", 'snippet': 'Hosts Data science and AI realted programs. Promotes ethical AI and innovation among young tech entrepreneurs. Integrates AI into energy and environmental ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Innovation in ICELAND responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Sports and Training in MARSHALL ISLANDS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1889,27 +1893,27 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Innovation in ICELAND</t>
+          <t>Ministry of Education, Sports and Training in MARSHALL ISLANDS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Innovation</t>
+          <t>Ministry of Education, Sports and Training</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science and Innovation (MHESI) in Iceland plays a significant and explicit role in the country's cybersecurity governance and strategy. It is a core participant in the National Cybersecurity Coordination Centre of Iceland (Eyvör NCC-IS), which coordinates national cybersecurity actions, including policy, funding, education, and research[1]. The Ministry is also mentioned as having taken over cybersecurity issues as of February 2022 and endorsed the national Cybersecurity Strategy covering 2022-2037[5]. The Ministry oversees bodies such as the Electronic Communications Office of Iceland (ECOI), which is responsible for electronic communications and network security under its ultimate direction[4]. Moreover, the Ministry has been highlighted in policy discussions as central to fostering coordination among multiple ministries involved in cybersecurity[2]. Additionally, Iceland's plans for aligning with EU cybersecurity regulations like the NIS2 Directive indicate MHESI's involvement in directing legislative and implementation efforts[7]. These points collectively establish MHESI's high-level responsibility for cybersecurity policy, coordination, and strategic development in Iceland, meeting criteria such as leadership in national strategy, hosting key cybersecurity bodies, and international cooperation.</t>
+          <t>The Ministry of Education, Sports and Training (MOEST) in the Marshall Islands is primarily responsible for education policy, sports, training, and related technology use in education as outlined in the 2010 Comprehensive Technology Plan and related education sector strategies[1]. It houses ICT and Information Systems offices that support educational technologies but is not charged with national cybersecurity governance. There is no mention in national strategic documents or laws assigning MOEST responsibility for cybersecurity policy, technical coordination, or incident response. The Ministry of Transport and Communications oversees communications regulation and infrastructure affecting internet access, not MOEST[1]. The Marshall Islands does not currently have a formally established national Computer Incident Response Team (CIRT) or a comprehensive cybersecurity legal framework; government cybersecurity initiatives and coordination remain limited and no cybersecurity responsibilities are attributed to MOEST[2][6]. Therefore, MOEST is not responsible for cybersecurity governance or enforcement in the Marshall Islands.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1919,14 +1923,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[{'url': 'https://uni.hi.is/helmut/research/eyvor-ncc/', 'title': 'the National Cybersecurity Coordination Centre of Iceland (NCC-IS ...', 'snippet': 'Develop and disseminate educational programmes: Coordinating, implementing and sharing educational activities and fostering cybersecurity skill building and ...', 'date': '2025-01-20', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://policyreview.info/articles/news/securing-icelands-digital-future/1791', 'title': "Securing Iceland's digital future: A call for political action", 'snippet': "Iceland has one of the world's oldest parliaments, strong democratic values and is a global leader in eGovernance, cyber-democracy, and ICT.", 'date': '2024-08-23', 'last_updated': '2025-03-14', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3476241/Document-08-Ministry-of-the-Interior-Government.pdf', 'title': '[PDF] Icelandic National Cyber Security Strategy 2015–2026', 'snippet': 'Icelandic legislation should reflect the international demands and obligations the country undertakes regarding cyber security and the protection of personal.', 'date': None, 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://www.fjarskiptastofa.is/english/about-ecoi/', 'title': 'About ECOI - Fjarskiptastofa', 'snippet': 'ECOI is responsible for administering electronic communications and network security in Iceland, and is an independent body under the Ministry of higher ...', 'date': '2021-01-01', 'last_updated': '2025-07-14', 'matched': True}, {'url': 'https://www.stjornarradid.is/library/04-Raduneytin/Haskola---idnadar--og-nyskopunarraduneytid/Icelandic%20National%20Cybersecurity%20Strategy%202022-2037.pdf', 'title': '[PDF] Icelandic National Cybersecurity Strategy 2022–2037', 'snippet': "The strategy outlines the government's vision and objectives for cybersecurity in Iceland, covering 2022-2037, and is a basis for actions in ...", 'date': '2022-02-04', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://better-internet-for-kids.europa.eu/en/knowledge-hub/iceland', 'title': 'Iceland - Policy monitor country profile - Better Internet for Kids', 'snippet': "Iceland's Cyber Security Policy for the years 2022-2037 emphasises that awareness-raising and cybersecurity education programmes will be increased, emphasising ...", 'date': '2024-02-14', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://copla.com/blog/compliance-regulations/nis2-directive-regulations-and-implementation-in-iceland/', 'title': 'NIS2 directive regulations and implementation in Iceland - Copla', 'snippet': 'Educate leadership teams on the strategic importance of cybersecurity, securing budget allocations for upcoming audits and upgrades.', 'date': '2025-08-22', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://www.government.is/topics/information-technology/policies/', 'title': 'Policies and Strategies - Government of Iceland', 'snippet': "The policy's key objectives are to build and maintain a strong ethical basis for the development and use of AI, based on good knowledge of the technology while ...", 'date': '2022-08-31', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.norden.org/en/news/do-nordics-need-common-cyber-security-strategy', 'title': 'Do the Nordics need a common cyber security strategy?', 'snippet': "Iceland drew up a cyber security strategy for 2022 to 2037 with an associated five-year action plan to strengthen the country's cyber security.", 'date': '2022-12-10', 'last_updated': '2025-07-27', 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/oceania/marshall-islands/~technology', 'title': 'Marshall Islands | Technology - Education Profiles', 'snippet': 'However, in the Marshall Islands, there is neither a general data protection law nor any legislation governing cybersecurity. The 2014 Child ...', 'date': '2023-05-26', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-the-marshall-islands/', 'title': 'Cyber Security in the Marshall Islands - Blog | Gavin Dennis', 'snippet': 'This article looks at cyber security in the Marshall Islands. It covers the laws, incident response, market, government actions, and public awareness related ...', 'date': '2024-10-17', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://www.nationalcyberwatch.org/wp-content/uploads/2019/07/2019_NCC_Innovations_in_Cybersecurity_Education_Booklet_Web.pdf', 'title': '[PDF] Table of Contents - National CyberWatch Center', 'snippet': 'We implement a unique learning system, CLaaS, that incorporates competitions to provide comprehensive cybersecurity awareness education. The system includes ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://rmi-data.sprep.org/system/files/Marshall%20Islands%20National%20Strategic%20Plan%202020%20to%202030.pdf', 'title': '[PDF] Marshall Islands National Strategic Plan 2020 to 2030.pdf', 'snippet': 'Education and training are a shared responsibility that requires the collective and whole-hearted effort of ... Education, Sports and Training. No current plan.', 'date': None, 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.adb.org/sites/default/files/project-documents/56192/56192-001-iee-en.pdf', 'title': '[PDF] Women and Youth Skills Empowerment and Resilience Project', 'snippet': 'Council, Ministry of Education, Sports and Training (MOEST) also known as Public School ... 31 Education in the Marshall Islands. (2023.). Retrieved from ...', 'date': None, 'last_updated': '2024-09-28', 'matched': True}, {'url': 'https://www.rmiparliament.org/cms/library/public-laws-by-years/60-2025.html?download=876%3Apl-2025-27-cybersecurity-act-2025', 'title': '[PDF] Cybersecurity Act 2025 - Nitijela', 'snippet': 'AN ACT to create a new Chapter the Cybersecurity Act under Title 43 of MIRC establishing a legal framework to prioritize cybersecurity, identify and protect.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.pacificislandtimes.com/post/us-to-establish-security-ties-between-marshall-islands-and-guam', 'title': 'US to establish security ties between Marshall Islands and Guam', 'snippet': '“These National Guard units will leverage their strength in cyber security, counternarcotics and maritime domain awareness to align U.S. Indo- ...', 'date': '2025-09-25', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://sam.gov/fal/439d75a790c342e8a9242e5f4668a44a/view', 'title': 'Assistance Listing - SAM.gov', 'snippet': "Objectives. The Office of Insular Affairs carries out the Secretary of the Interior's responsibilities for U.S.-affiliated insular areas.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.govinfo.gov/content/pkg/BILLS-118hr2670enr/html/BILLS-118hr2670enr.htm', 'title': 'Text - GovInfo', 'snippet': '... education or training activities in the United States. Sec. 1047. Authority ... Transfer of cybersecurity responsibilities to Administrator for Nuclear Security.', 'date': '2024-06-30', 'last_updated': '2025-10-28', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science, and Technology in INDONESIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in MALAWI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1934,17 +1938,17 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, and Technology in INDONESIA</t>
+          <t>Ministry of Education, Science and Technology in MALAWI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, and Technology</t>
+          <t>Ministry of Education, Science and Technology</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1954,7 +1958,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science, and Technology (formerly known as the Ministry of Research, Technology and Higher Education or RISTEKDIKTI) is not the primary body responsible for national cybersecurity policy, implementation, or technical coordination in Indonesia. The main responsibility for cybersecurity policy and coordination lies with the Ministry of Communication and Informatics (KOMINFO), which is explicitly mentioned in national strategies and laws as the lead agency for cybersecurity matters, including the regulation of cyberspace and information security [2, 4]. The Ministry of Higher Education, Science, and Technology is involved in supporting cybersecurity education initiatives and research, but its role is limited to fostering cybersecurity education and capacity-building within higher education institutions rather than direct policy or operational responsibility [4]. There is no evidence that this ministry hosts a national CERT/CSIRT/CIRT, leads or is a member of a national cybersecurity committee, or oversees information security standards or network protection at the national level. Its participation is mainly in educational and research contexts, not in direct cybersecurity governance or enforcement [4].</t>
+          <t>The Ministry of Education, Science and Technology (MoEST) in Malawi is responsible for providing ICT as a tool in education services and is involved in cybersecurity primarily within the education sector. The 2019-24 National Cybersecurity Strategy specifically includes the education sector and outlines objectives for MoEST, such as reviewing and updating primary, secondary, and tertiary education curricula to include cybersecurity elements, supporting cybersecurity competitions and projects in schools and universities, collaborating with universities and colleges on new studies and internship programs on cybersecurity, and developing and implementing cybersecurity training and capacity building plans for government personnel in the education sector [1, 3, 5]. MoEST also participates in consultative workshops and stakeholder meetings related to cybersecurity initiatives, such as the establishment of a Computer Emergency Response Team (CERT) for research and education, and is involved in the development of policies and standard operating procedures for information security within academic institutions [2]. However, MoEST does not host the national CERT, lead national cybersecurity policy, or oversee information security standards for the entire country. Its responsibilities are sector-specific and focused on education, rather than national cybersecurity governance, prevention, planning, response, or enforcement [1, 2, 3, 5].</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1964,14 +1968,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.eccouncil.org/ec-council-in-news/ec-council-collaborates-with-indonesias-ministry-of-communication-and-informatics-to-facilitate-cybersecurity-training/', 'title': "Indonesia's Ministry of Communication &amp; Informatics to Facilitate ...", 'snippet': 'The collaboration of the Ministry of Communication and Informatics and EC-Council will facilitate cybersecurity training to reduce the digital talent drought in ...', 'date': '2023-08-21', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://www.atlantis-press.com/article/125995563.pdf', 'title': "[PDF] Indonesia's Cyber Security Strategy: Problems and Challenges", 'snippet': 'Among the main measures conducted by the Indonesian government are: transfer of technology (ToT), research and development cooperation with universities and ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'http://www.icicel.org/ell/contents/2023/10/el-17-10-10.pdf', 'title': '[PDF] ASSESSING CYBERSECURITY READINESS AMONG HIGHER ...', 'snippet': 'The results of this study will have implications for increasing knowledge of cybersecurity and to facilitate the imple- mentation of electronic system security ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://ora.ox.ac.uk/objects/uuid:70392ace-4bd6-4066-818e-a3adc1eeedf3/download_file?file_format=application%2Fpdf&amp;safe_filename=The%2BFuture%2Bof%2BCybersecurity%2BCapacity%2Bin%2BIndonesia_Research%2BReport_2016.pdf&amp;type_of_work=Working+paper', 'title': '[PDF] The Future of Cybersecurity Capacity in Indonesia_Research Rep...', 'snippet': 'The Ministry of Research, Technology and Higher Education (RISTEKDIKTI) should maintain and expand the cybersecurity education initiatives from reputable.', 'date': None, 'last_updated': '2025-01-10', 'matched': True}, {'url': 'https://www.econstor.eu/bitstream/10419/249442/1/CIPS-PB09.pdf', 'title': '[PDF] Cybersecurity Protection in Indonesia - EconStor', 'snippet': 'The Cybersecurity Bill mandated BSSN to coordinate efforts for developing a cybersecurity strategy by collaborating with other government institutions, such as ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sgu.ac.id/uu-pdp-2022-indonesia-cybersecurity-readiness-2025/', 'title': "From Policy to Practice: How Indonesia's UU PDP 2022 Shapes ...", 'snippet': "Indonesia's Cybersecurity Threat Landscape. Indonesia records one of the highest rates of cyber incidents in Southeast Asia. Data breaches and ...", 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://opengovasia.com/indonesia-harnesses-ai-to-transform-higher-education/', 'title': 'Indonesia Harnesses AI to Transform Higher Education', 'snippet': 'The government emphasises ethical adoption, focusing on protecting human rights, minimising algorithmic bias and ensuring sustainable practices.', 'date': '2025-09-26', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/sub-saharan-africa/malawi/~technology', 'title': 'Malawi | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science and Technology (MoEST) is responsible for providing ICT as a tool in education services through the ...', 'date': '2023-05-22', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://openreview.net/forum?id=ubkEhhHAXL&amp;noteId=aIjUSHgYxQ', 'title': "Enhancing Cyber Resilience for Malawi's Education and Research...", 'snippet': 'The Workshop will cover raising awareness on cybersecurity, data breaches, system vulnerabilities, and other critical technology emergencies.', 'date': '2023-07-31', 'last_updated': '2025-03-31', 'matched': True}, {'url': 'https://digmap.pppc.mw/wp-content/uploads/2022/01/National-Cybersecurity-Strategy_Final_6-10-19_rev.doc', 'title': '[DOC] National-Cybersecurity-Strategy_Final_6-10-19_rev', 'snippet': "The Government recognizes its special responsibility to lead the national efforts in managing and mitigating cyber threats. The Strategy defines Malawi's ...", 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://ppda.mw/storage/documents/opentenders/DMAP_eGOV_TORs_-_CyberSecurity_Specialist.pdf', 'title': '[PDF] DIGITAL MALAWI ACCELERATION PROJECT', 'snippet': 'The Cyber Security Specialist will be responsible for the following: • Leading the technical team in monitoring and securing Whole-of-government systems. • ...', 'date': None, 'last_updated': '2024-12-09', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/00019_07_Malawi%20national-cybersecurity-strategy.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY (FINAL DRAFT) Version 5', 'snippet': 'NCS 2017-2021 sets out a multi-stakeholder framework for ensuring Malawians can access and use cyberspace with trust and confidence, and ensuring the nation ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'http://www.ist-africa.org/home/default.asp?page=doc-by-id&amp;docid=6995', 'title': 'Current ICT initiatives and projects - Malawi - IST-Africa', 'snippet': 'The Ministry intends to provide an enabling environment for the development and usage of information and communication technologies. eGovernment Programme. An ...', 'date': '2016-01-01', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://www.ict.gov.mw', 'title': 'Ministry of Information and Digitalization', 'snippet': 'Malawi Develops National Cyber Security Strategy. Malawi has moved closer to its first ever national cyber security strategy, a feat boosted by the recent ...', 'date': None, 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://www.opengovpartnership.org/members/malawi/commitments/MW0018/', 'title': 'Promotion of digital literacy, rights and inclusion (MW0018)', 'snippet': '(b) Promote financial inclusion through digital governance. (c) Localize and digitize processes at all levels. (d) Accelerate digital literacy initiatives for ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://dl.acm.org/doi/full/10.1145/3680127.3680177', 'title': 'How Government Agencies Evaluate Cybersecurity Capacity ...', 'snippet': 'The current study therefore sought to understand how government agencies in developing countries evaluate cybersecurity capacity-building outcomes.', 'date': '2024-12-16', 'last_updated': None, 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/maturity-of-cybersecurity-initiatives-in-malawi-a-comparison-with-the-drive-for-fast-and-ubiquitous-internet-connectivity/', 'title': 'Maturity of cybersecurity initiatives in Malawi - DiploFoundation', 'snippet': 'This study looks at the current state of cybersecurity initiatives in Malawi against a background of significant efforts to greatly enhance Internet ...', 'date': '2022-08-07', 'last_updated': '2025-09-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Academy of Sciences of Turkmenistan in TURKMENISTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Communications and Information Technology in SAMOA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -1979,27 +1983,27 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Academy of Sciences of Turkmenistan in TURKMENISTAN</t>
+          <t>Ministry of Communications and Information Technology in SAMOA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Academy of Sciences of Turkmenistan</t>
+          <t>Ministry of Communications and Information Technology (MCIT)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>The Academy of Sciences of Turkmenistan plays an important role in supporting innovative development, scientific research, and the technical support of digital economy-related reforms, including some work related to cybersecurity education and research[6][3]. However, the primary responsibility for national cybersecurity policy, coordination, strategy, and implementation is attributed to other entities such as the Institute of Telecommunications and Informatics, which hosts the Cybersecurity Centre of Excellence, and the authorized government agencies responsible for digital economy and cybersecurity governance, e.g., Türkmenaragatnaşyk agency[1][6][8]. There is no explicit evidence that the Academy of Sciences holds the lead role or formal mandate for national cybersecurity policy, strategy, or operational coordination such as hosting a national CERT or leading cybersecurity committees. Therefore, its cybersecurity responsibility is assessed as low, primarily supportive in scientific and educational capacities but not governing or enforcing cybersecurity at the country level.</t>
+          <t>The Ministry of Communications and Information Technology (MCIT) of Samoa is explicitly responsible for cybersecurity governance and implementation. It houses a dedicated cybersecurity division formed to address ongoing digital challenges and the evolving technology landscape[1]. The MCIT oversees the National Cybersecurity Strategy 2016-2021, leading coordination, policy implementation, and technical responses to cybersecurity threats, including hosting the National Computer Emergency Response Team (SamCERT)[2][4]. The 2024 Information Security Policy is authored by MCIT and establishes roles where the MCIT CEO oversees cybersecurity policy alignment and promotes a security culture, while SamCERT leads implementation and awareness programs[3]. Furthermore, SamCERT acts as the government's main incident response unit for cyber breaches and technical advice[4][5]. The MCIT’s corporate plan highlights their key role in assessing national cybersecurity status, technical coordination, and collaboration with international and regional partners[4][5]. These evidences confirm the Ministry’s comprehensive involvement in cybersecurity policy, planning, response, and coordination in Samoa with high confidence.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2009,14 +2013,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.osce.org/centre-in-ashgabat/529452', 'title': 'OSCE supports establishment of Cybersecurity Centre of Excellence ...', 'snippet': '“The OSCE Centre will continue to support the Cybersecurity Centre of Excellence by assisting the Centre of Excellence to provide a platform for ...', 'date': '2022-10-21', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tm/', 'title': 'NCSI :: Turkmenistan - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://www.dga.edu.tm/index.php/en/component/content/article/32-tazelikler/236-improvement-the-potential-of-cybersecurity?Itemid=671', 'title': 'Improvement the potential of cybersecurity', 'snippet': "The Academy assists to meet the needs for qualified cybersecurity professionals to support and develop Turkmenistan's digital network.", 'date': '2023-03-27', 'last_updated': None, 'matched': True}, {'url': 'https://iogu.edu.tm/en/faculties/32', 'title': 'Department of Cybersecurity - IOGU', 'snippet': 'The main task of the department is the organization and establishment of educational, scientific-research and design work in accordance with the requirements of ...', 'date': '2024-01-01', 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://www.mfa.gov.tm/en/articles/8', 'title': 'Education', 'snippet': 'Improving the national education system in Turkmenistan has a wide scope, by educating young people capable of managing innovative technologies great efforts ...', 'date': '2025-11-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.tngizt.gov.tm/en/articles/tuerkmenistanyn-ykdysadyyetinin-aehli-pudaklaryna-sanly-tehnologiyalary-isjen-ornasdyryar', 'title': 'Turkmenistan Actively Implements Digital Technologies in All ...', 'snippet': 'Within the framework of the tasks assigned to the agency, work is being carried out in the field of local and cellular telephone communication, ...', 'date': '2024-06-24', 'last_updated': '2024-09-24', 'matched': True}, {'url': 'https://www.turkmenistan.gov.tm/en/post/63028/technology-center-introduces-electronic-document-management', 'title': 'Technology Center introduces electronic document management', 'snippet': 'The Laboratory of Information Security and Communication Technologies has a license to carry out activities in the field of cybersecurity ( ...', 'date': '2022-05-09', 'last_updated': '2024-10-20', 'matched': True}, {'url': 'https://turkmenportal.com/en/blog/53258', 'title': 'The Center of Excellence for Cyber Security was opened in Ashgabat', 'snippet': 'In the context of cybersecurity tasks, the Faculty of Information Systems Security operates at the Institute of Telecommunications and ...', 'date': '2022-10-24', 'last_updated': None, 'matched': True}, {'url': 'https://cyberleninka.ru/article/n/the-role-of-cybersecurity-in-the-education-system', 'title': 'THE ROLE OF CYBERSECURITY IN THE EDUCATION SYSTEM', 'snippet': 'Cybersecurity is central due to increased cyberattack risks, protecting institutions and stakeholders, and ensuring a secure online learning environment.', 'date': None, 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://orient.tm/en/post/49949/new-digital-system-will-be-introduced-institute-caspian-sea-turkmenistan', 'title': 'A new digital system will be introduced at the Institute of the Caspian ...', 'snippet': 'The tender for the development of a new digital system for the Institute of the Caspian Sea of the Academy of Sciences of Turkmenistan was ...', 'date': '2023-03-27', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.samoaobserver.ws/category/samoa/103199', 'title': 'New cyber security division formed - Samoa Observer', 'snippet': '"The new cyber security division with the Ministry\'s role is to combat challenges that come with the changes and upgrade with technology," she ...', 'date': '2023-04-26', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://mcit.gov.ws/wp-content/uploads/2023/02/MCIT-Samoa-National-Cybersecurity-Strategy-2016-2021.pdf', 'title': '[PDF] Samoa National Cybersecurity Strategy 2016 - 2021', 'snippet': 'Cyber Security is a shared responsibility and this Strategy calls upon all Internet users, to be vigilant and informed about online threats, and how their own ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://dig.watch/resource/samoas-information-security-policy-2024', 'title': "Samoa's information security policy 2024 | Digital Watch Observatory", 'snippet': 'Roles and responsibilities · MCIT CEO: Oversees policy alignment with national strategy and promotes a culture of security. · SamCERT: Leads implementation, ...', 'date': '2025-05-30', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://mcit.gov.ws/wp-content/uploads/2023/02/APPROVED-CORPORATE-PLAN-2022-2026..pdf', 'title': '[PDF] APPROVED-CORPORATE-PLAN-2022-2026..pdf', 'snippet': "The Division is also responsible for assessing and providing useful information on the country's national cybersecurity status from time to time, making sure ...", 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://thegfce.org/news/regional-initiatives-on-cyber-security-awareness/', 'title': 'Regional Initiatives On Cyber Security Awareness - The GFCE', 'snippet': 'The following article provides an overview of a few initiatives in Africa, Latin America and the Caribbean, and the Pacific.', 'date': '2024-01-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.un.int/samoa/statements_speeches/oewg-security-and-use-ict-2021%E2%80%932025-agenda-item-5-capacity-building', 'title': 'OEWG on security of and in the use of ICT 2021–2025 Agenda item 5', 'snippet': 'Chair, Samoa has made significant strides in enhancing its cybersecurity framework through the implementation of its National Cybersecurity ...', 'date': '2025-02-20', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.health.gov.ws/wp-content/uploads/2022/07/3Acceptable-Use-and-Security-Policy-2020.pdf', 'title': '[PDF] ICT ACCEPTABLE USE &amp; INFORMATION SECURITY POLICY', 'snippet': 'Defining responsibilities ensure that all users are aware of their responsibilities to minimize the risks to ICT security and operations. Ultimately, ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.regulator.gov.ws/images/Sector_Plan/ICTSP-2022-2027_English-Version_Signed.pdf', 'title': '[PDF] Page 1 - Office of the Regulator', 'snippet': 'The Information and Communications Technology Sector Plan 2022/23 – 2026/27 provides a coherent set of strategies, policy interventions, coordinated actions, ...', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/documents/PRIF_Strengthening-Cybersecurity_web3.pdf', 'title': '[PDF] Strengthening Cybersecurity in the Pacific Islands', 'snippet': 'Most are highly dependent on external technical and financial support for information and communications technology (ICT) and cybersecurity capabilities, ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Research and Innovation in FRANCE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Science in DENMARK responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2024,17 +2028,17 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research and Innovation in FRANCE</t>
+          <t>Ministry of Higher Education and Science in DENMARK</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research and Innovation (MESRI)</t>
+          <t>Ministry of Higher Education and Science</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2044,7 +2048,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Research and Innovation (MESRI) in France is not the primary authority for national cybersecurity policy or technical coordination, which is led by the French Network and Information Security Agency (ANSSI) and the Ministry of the Interior[3]. However, MESRI plays a supporting role in cybersecurity within the higher education and research sector. It is responsible for coordinating the implementation of cybersecurity measures in universities and research institutions, such as through the PPST (Protection of Scientific and Technical Potential) policy, which is steered at the inter-ministerial level but relies on a network of Security and Defense Officers (FSD) within each institution under MESRI's purview[4]. MESRI also participates in national cybersecurity initiatives, including educational programs and awareness campaigns for staff and students, and collaborates with national agencies and other ministries on cybersecurity matters[1][7]. While MESRI is involved in cybersecurity policy and implementation within its sector, it does not host a national CERT/CSIRT or lead national cybersecurity strategy, which are the responsibilities of ANSSI and other central agencies[3][5].</t>
+          <t>The Ministry of Higher Education and Science in Denmark is not the primary authority responsible for national cybersecurity policy, implementation, or technical coordination. The main responsibility for cybersecurity lies with the Centre for Cyber Security within the Danish Defence Intelligence Service and the Danish Agency for Digital Government, as outlined in the National Cyber and Information Security Strategy 2022-2024 and other official documents [1, 2, 6]. However, the Ministry of Higher Education and Science does play a supporting role in cybersecurity, particularly in the areas of education, research, and competence development. For example, the ministry is involved in funding technological research projects related to cybersecurity, such as the RESEARCH2025-team (FORSK2021) project, and supports initiatives to increase the number of students in STEM disciplines, including cybersecurity [4]. The ministry also collaborates with education and research institutions to address competence needs in cybersecurity and participates in broader efforts to strengthen digital skills and awareness among students and educators [4, 5]. While these activities are important for building long-term cybersecurity capacity, they do not constitute direct responsibility for national cybersecurity governance, prevention, planning, response, or enforcement.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2054,14 +2058,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[{'url': 'https://hochschulforumdigitalisierung.de/en/raising-cyber-security-in-higher-education-through-coordinated-efforts-good-practices-from-france/', 'title': 'Raising Cyber Security in Higher Education through Coordinated ...', 'snippet': 'In this blog post we will explore common cybersecurity challenges faced by universities, best practices of the University of Lille as well as French national ...', 'date': '2023-08-15', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'http://eulacfoundation.org/en/ministry-higher-education-research-and-innovation-mesri', 'title': 'Ministry of Higher Education, Research and Innovation (MESRI)', 'snippet': "It is the French ministry that implements the government's policy on access to knowledge for all and the development of higher education.", 'date': '2023-08-01', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://www.diplomatie.gouv.fr/en/french-foreign-policy/digital-diplomacy/france-and-cyber-security/', 'title': 'France and cyber security - Ministry for Europe and Foreign Affairs', 'snippet': "The role of France's Ministry of the Interior is to combat all forms of cyber crime against national institutions and interests, economic stakeholders and ...", 'date': '2018-02-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://international.cnrs.fr/wp-content/uploads/2024/01/CNRS-Contribution-to-Call-for-Evidence-on-Research-Security-ENG.pdf', 'title': '[PDF] 1. Operating the French system of Protection of the scientific ... - CNRS', 'snippet': 'For instance, the HFDS of the French. Ministry of Higher Education and Research relies on a network of Security and Defense Officers (FSD –. Fonctionnaire de ...', 'date': None, 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://cyberwiser.eu/france-fr', 'title': 'France (FR) - CYBERWISER.eu', 'snippet': 'Disseminating the results of research and development funded for high-level security equipment to raise the level of security for businesses and citizens.', 'date': '2021-01-01', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.airbus.com/en/newsroom/press-releases/2025-07-airbus-to-train-cybersecurity-experts-for-the-french-ministry-of', 'title': 'Airbus to train cybersecurity experts for the French Ministry of the ...', 'snippet': 'The Airbus CyberRange platform is also deployed in more than 25 partner schools to equip cybersecurity training courses and help develop a pool ...', 'date': '2025-07-11', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3098599/Document-10.pdf', 'title': '[PDF] FRENCH NATIONAL STRATEGY', 'snippet': "France will raise children's awareness of digital security and responsible cyberspace behaviours as of school age. Initial higher education and conti- nuing ...", 'date': None, 'last_updated': '2025-09-17', 'matched': True}, {'url': 'https://www.enseignementsup-recherche.gouv.fr/sites/default/files/2023-02/french-national-strategy-on-research-infrastructures---2021-26489.pdf', 'title': '[PDF] French national strategy on research infrastructures', 'snippet': 'The role of infrastructures in research and innovation has been growing over the years. It is fair to say that they are now the backbone of research in a very ...', 'date': None, 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://ai-watch.ec.europa.eu/countries/france/france-ai-strategy-report_en', 'title': 'France AI Strategy Report - AI Watch - European Commission', 'snippet': 'The French Ministries of Social Affairs and Health Education and of Research and Innovation are supporting 20 research projects to fight against the COVID-19 of ...', 'date': '2021-03-01', 'last_updated': '2025-11-06', 'matched': True}]</t>
+          <t>[{'url': 'https://www.fmn.dk/en/topics/cyber-security/cyber-security/', 'title': 'Cyber Security - Forsvarsministeriet', 'snippet': 'The purpose of the Centre for Cyber Security within the Danish Defence Intelligence Service is to support a high information security level ...', 'date': '2022-11-03', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/actions/national-initiatives/national-strategies/denmark-national-cyber-and-information-security', 'title': 'National Cyber and Information Security Strategy 2022-2024', 'snippet': "The Danish Government's National Strategy for Cyber and Information Security 2022-2024 was adopted by the Danish Ministry of Finance in December 2021.", 'date': '2025-03-31', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.eng.em.dk/news/2018/apr/the-danish-government-launches-the-technology-pact', 'title': 'The Danish government launches the Technology Pact', 'snippet': 'That requires us to provide students with digital skills and knowledge about cybersecurity and protection of their own data. In the future, all ...', 'date': '2018-04-24', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://cyberwiser.eu/denmark-dk', 'title': 'Denmark (DK) - CYBERWISER.eu', 'snippet': 'Strategic goals for cybersecurity education: Acquisition of digital judgement and competences through the educational system: Joint efforts to raise awareness ...', 'date': '2021-01-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Denmark_2015_DK_NCSS.pdf', 'title': '[PDF] The Danish Cyber and Information Security Strategy - ITU', 'snippet': 'The main mission of the Centre is to support the reinforcement of IT systems and infrastructure which important functions in society rely upon ...', 'date': '2015-02-07', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://en.digst.dk/media/bxxcnby2/digst_ncis_2022-2024_uk.pdf', 'title': '[PDF] The Danish National Strategy for Cyber and Information Security', 'snippet': 'Improving cyber security in Denmark requires a concerted effort and a shared responsibility across society. The state is responsible for national security. ...', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://techamb.um.dk/The-TechPlomacy-Approach/danish-government-partners', 'title': "Danish Government Partners - Office of Denmark's Tech Ambassador", 'snippet': "As part of Denmark's National Cyber and Information Security Strategy the government decided to bring the Danish tech-ambassador into play in the cyber area in ...", 'date': '2020-03-05', 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.rankiteo.com/company/uddannelses-og-forskningsstyrelsen', 'title': 'Danish Agency for Higher Education and Science - Rankiteo', 'snippet': "How to Get a Cybersecurity Analyst Role in Denmark? To secure a cybersecurity analyst role in Denmark, a bachelor's degree in computer science or IT is required ...", 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology, Knowledge and Innovation of Chile in CHILE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department for Science, Innovation and Technology in UNITED KINGDOM responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2069,27 +2073,27 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology, Knowledge and Innovation of Chile in CHILE</t>
+          <t>Department for Science, Innovation and Technology in UNITED KINGDOM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology, Knowledge and Innovation</t>
+          <t>Department for Science, Innovation and Technology</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>UNITED KINGDOM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology, Knowledge and Innovation is involved in Chile's cybersecurity governance, but its role is not primary or central. The ministry is a member of the Interministerial Committee on Cybersecurity, which coordinates actions among institutions with competence in cybersecurity matters, and the National Cybersecurity Agency (ANCI) chairs this committee[3]. The ministry is also responsible for initiatives such as delivering scholarships for talent training in cybersecurity and focusing on research and development in the field[3]. However, the main responsibility for cybersecurity policy, implementation, and technical coordination lies with the National Cybersecurity Agency (ANCI), which advises the President, coordinates competent institutions, and ensures the protection of computer security rights[4]. The ministry's involvement is supportive and focused on research, education, and talent development, rather than direct policy or operational responsibility for cybersecurity[3].</t>
+          <t>The Department for Science, Innovation and Technology (DSIT) is now explicitly responsible for government and public sector cybersecurity in the UK, having taken over this responsibility from the Cabinet Office in June 2025[1][2][3][4][8]. This change was announced by Prime Minister Keir Starmer and is intended to strengthen technology resilience and policymaking by better integrating cybersecurity responsibilities and expertise into the Government Digital Service (GDS), which is now under DSIT[1][2][3][4]. DSIT's role includes overseeing cybersecurity policy, implementation, and technical coordination for the public sector, and it is positioned as the central department for digital resilience and accountability[4]. The move consolidates technology expertise and aims to clarify roles and responsibilities in national cyber risk management[4]. DSIT's leadership in this area is further reinforced by its sponsorship of GDS and its central role in the UK's digital infrastructure and strategy[3][4].</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2099,14 +2103,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.hunton.com/privacy-and-information-security-law/chile-cybersecurity-framework-law-now-fully-enforceable', 'title': 'Chile Cybersecurity Framework Law Now Fully Enforceable', 'snippet': 'Its main objectives are to advise the Chilean President on cybersecurity matters, protect national interests in cyberspace, and coordinate ...', 'date': '2025-07-01', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/chile-information-technology-new-cybersecurity-framework-law', 'title': 'Chile Information Technology New Cybersecurity Framework Law', 'snippet': 'Create resilient infrastructure. · Protect personal data. · Create a cybersecurity culture through education and good practices. · Encourage ...', 'date': '2024-07-01', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.anguitaosorio.cl/en/politica-nacional-ciberseguridad/', 'title': 'Política Nacional de Ciberseguridad 2023-2028 | Anguita Osorio', 'snippet': 'Deliver a maximum of 30 scholarships for talent training in cybersecurity through focusing processes in priority areas. Responsible:Ministry of Science, ...', 'date': '2025-07-01', 'last_updated': '2025-08-21', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/chile', 'title': 'Cybersecurity 2025 - Chile - Global Practice Guides', 'snippet': '... responsibilities for Chilean government bodies regarding information security and cybersecurity. Responsibilities are structured around key ...', 'date': '2025-03-13', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Chile_NCSP%20(ENG).pdf', 'title': '[PDF] National Cybersecurity Policy - ITU', 'snippet': 'INSTITUTIONS INVOLVED IN THE FIELD OF CYBERSECURITY a. Ministry of the Interior and Public Security. Body. Role. Mission. Undersecretary of the Interior.', 'date': None, 'last_updated': '2024-02-03', 'matched': True}, {'url': 'https://www.forociber.cl/foro/site/docs/20240322/20240322150520/chile_s_path_to_cybersecurity_.pdf', 'title': '[PDF] Chile´s Path to Cybersecurity&lt;', 'snippet': 'Work is also being done on the creation of a Cybersecurity. Institute under the Ministry of Science, Technology, Knowledge, and Innovation.', 'date': '2024-03-22', 'last_updated': '2024-07-16', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/chile-information-technologies', 'title': 'Chile - Information Technologies - International Trade Administration', 'snippet': 'The bill outlines regulatory standards to prevent cyberattacks and protect public and private institutions targeted by cyberattacks. The bill ...', 'date': '2023-12-07', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://cadeproject.org/updates/chiles-artificial-intelligence-regulation-bill-advances-to-the-senate/', 'title': "Chile's Artificial Intelligence Regulation Bill Advances to the Senate", 'snippet': 'Lawmakers seek to balance rights protection, innovation, and accountability in emerging technologies.', 'date': '2025-10-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cl/', 'title': 'NCSI :: Chile - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2025-09-15', 'last_updated': '2025-09-19', 'matched': True}]</t>
+          <t>[{'url': 'https://www.civilserviceworld.com/professions/article/mog-change-cybersecurity-cabinet-office-dsit-defence-exports-mod-dbt', 'title': 'DSIT takes on responsibility for government cybersecurity', 'snippet': 'The Department for Science, Innovation and Technology has taken over responsibility for government and public sector cybersecurity from the Cabinet Office.', 'date': '2025-06-04', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.wired-gov.net/wg/news.nsf/articles/DSIT+Assumes+Responsibility+for+Government+and+Public+Sector+Cyber+Security+05062025150500?open', 'title': 'DSIT Assumes Responsibility for Government and Public Sector ...', 'snippet': 'The Department for Science, Innovation and Technology takes responsibility for government and public sector Cyber Security.', 'date': '2025-06-05', 'last_updated': '2025-08-21', 'matched': True}, {'url': 'https://www.globalgovernmentforum.com/responsibility-for-uk-public-sector-cybersecurity-moves-to-government-digital-service/', 'title': 'Responsibility for UK public sector cybersecurity moves to ...', 'snippet': 'Responsibility for government and public sector cybersecurity in the UK has moved from the Cabinet Office to the Government Digital Service (GDS).', 'date': '2025-06-04', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.government-transformation.com/transformation/public-sector-cyber-security-shifts-to-dsit-in-machinery-of-government-overhaul', 'title': 'Public Sector Cyber Security shifts to DSIT in Machinery of ...', 'snippet': 'Government transfers cyber security responsibilities to DSIT to improve digital resilience and accountability, consolidating technology ...', 'date': '2025-06-04', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.helpnetsecurity.com/2025/11/12/uk-cyber-security-and-resilience-bill/', 'title': "UK's new Cyber Security and Resilience Bill targets weak links in ...", 'snippet': 'The UK government has introduced the Cyber Security and Resilience Bill, to strengthen the digital defenses of essential public services.', 'date': '2025-11-12', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.gov.uk/government/news/tough-new-laws-to-strengthen-the-uks-defences-against-cyber-attacks-on-nhs-transport-and-energy', 'title': "Tough new laws to strengthen the UK's defences against cyber ...", 'snippet': 'Proposed new laws will strengthen cyber defences for essential public services like healthcare, drinking water providers, transport and energy.', 'date': '2025-11-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://industrialcyber.co/regulation-standards-and-compliance/uk-cyber-resilience-bill-extends-oversight-to-ot-suppliers-and-managed-service-providers-raises-security-baseline/', 'title': 'UK Cyber Resilience Bill extends oversight to OT suppliers and ...', 'snippet': 'The U.K. government on Wednesday introduced new legislation to strengthen national defenses against cyberattacks targeting critical sectors ...', 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.techuk.org/resource/dsit-assumes-responsibility-for-government-and-public-sector-cyber-security.html', 'title': 'DSIT Assumes Responsibility for Government and Public Sector ...', 'snippet': 'The Department for Science, Innovation and Technology takes responsibility for government and public sector Cyber Security.', 'date': '2025-06-04', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.insurancebusinessmag.com/uk/news/cyber/uk-officially-unveils-cyber-security-and-resilience-bill-to-counter-rising-threats-556261.aspx', 'title': 'UK officially unveils cyber security and resilience bill to counter ...', 'snippet': 'According to the government, these measures are intended to reduce the risk of disruption to public services, including hospitals and utilities, ...', 'date': '2025-11-12', 'last_updated': None, 'matched': True}, {'url': 'https://www.thinkdigitalpartners.com/news/2025/11/13/new-cyber-bill-aims-to-keep-the-lights-on-and-the-taps-running/', 'title': "New Cyber Bill Aims to Keep 'The Lights On and the Taps Running'", 'snippet': 'The Cyber Security and Resilience Bill is designed to protect hospitals, utilities and transport networks from cyberattack, giving regulators ...', 'date': '2025-11-13', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology in GUINEA-BISSAU responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Innovative Development of the Republic of Uzbekistan in UZBEKISTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2114,17 +2118,17 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology in GUINEA-BISSAU</t>
+          <t>Ministry of Innovative Development of the Republic of Uzbekistan in UZBEKISTAN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology</t>
+          <t>Ministry of Innovative Development of the Republic of Uzbekistan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2134,24 +2138,24 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>The available information does not indicate that the Ministry of Higher Education, Research, Science and Technology in Guinea-Bissau is explicitly responsible for cybersecurity policy, implementation, or technical coordination. Instead, the primary entity responsible for regulating the ICT sector and overseeing matters related to internet governance, including security, is the Autoridade Reguladora Nacional das Tecnologias de Informação e comunicação (ARN) as established by Law nº 5/2010 (Fundamental Law of Information Technologies and Communication) (Ref: [3]). The Ministry of Education, Culture, Science, Youth and Sports (MEN) is responsible for education in Guinea-Bissau, but there is no evidence that the Ministry of Higher Education, Research, Science and Technology specifically leads or participates in cybersecurity committees, hosts a national CERT/CSIRT/CIRT, or oversees information security standards or network protection (Ref: [3]). There is no mention of the ministry attending or participating in cybersecurity events, workshops, or joint initiatives, nor is there evidence of it working with other countries or organizations on cybersecurity matters. Therefore, while the ministry may have a tangential role in promoting digital skills and technology in education, its direct responsibility for national cybersecurity governance is low.</t>
+          <t>Available information about Uzbekistan's cybersecurity governance attributes primary responsibility to the Ministry of Digital Technologies and other designated authorities such as the Center for Information Security and Assistance in Ensuring Public Order under the Cabinet of Ministers. Key cybersecurity functions include oversight of information security, national cyber threat analysis, coordination among agencies, and supervision of digital service providers. The Ministry of Digital Technologies is explicitly cited in the national strategy context for digital transformation combined with cybersecurity and data protection, as well as hosting or authorizing state cybersecurity centers involved in expert review and infrastructure security (e.g., data centers, digital platforms) in critical sectors like tourism, finance, and government[1][3][4]. Meanwhile, the Ministry of Innovative Development is not specifically mentioned or evidenced in the reviewed sources as holding formal cybersecurity policy, implementation, technical coordination roles, national CERT hosting, or being part of cybersecurity councils or committees established by the government or presidential decrees. This suggests its role in cybersecurity, if any, is minor or indirect compared to the Ministry of Digital Technologies and internal security bodies such as the Ministry of Internal Affairs who handle cybercrime[1][2]. Hence, the Ministry of Innovative Development likely maintains a low level of responsibility for cybersecurity governance in Uzbekistan.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.cohnreznick.com/insights/higher-ed-cmmc-cybersecurity-compliance-obligations', 'title': 'Higher Ed: Your CMMC Cybersecurity Compliance Obligations', 'snippet': 'Higher education: Check your obligations for CMMC cyber research compliance. Any institution engaged in research for the DoD or a contractor ...', 'date': '2024-12-17', 'last_updated': '2025-08-19', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/guinea-bissau/~technology', 'title': 'Guinea-Bissau | Technology - Education Profiles', 'snippet': 'According to the Africa Data Security Conclave, Guinea-Bissau had not yet enacted data protection laws by the end of 2020. The Law nº 5/2010 “ ...', 'date': '2023-04-24', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=guinea-bissau', 'title': 'Guinea-Bissau - Cybil Portal', 'snippet': "An overview of Guinea-Bissau's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here.", 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://www.itu.int/epublications/ar/publication/D-STR-GCI.01-2021-HTM-E', 'title': 'Global Cybersecurity Index 2020 - ITU', 'snippet': 'Organizational measures include ensuring that cybersecurity is sustained at the highest level of the executive and assigning relevant roles and responsibilities ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://openknowledge.worldbank.org/entities/publication/576ae85b-3a09-4c70-ba56-90e08ece19bf', 'title': 'Publication: Equatorial Guinea Digital Economy Diagnostic', 'snippet': 'Guiding student progress in digital skills from primary to higher education and digitizing government payments are also key reform areas. ... Government of Guinea ...', 'date': '2024-05-22', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/entities/publication/78c86ec6-a816-53dc-bd85-d99987515dcf', 'title': 'Publication: Guinea-Bissau Digital Economy Diagnostic', 'snippet': 'Guiding student progress in digital skills from primary to higher education and digitizing government payments are also key reform areas. Show more. Users ...', 'date': '2023-06-21', 'last_updated': '2025-11-10', 'matched': True}]</t>
+          <t>[{'url': 'https://timesca.com/how-uzbekistan-plans-to-lead-central-asias-digital-future-an-interview-with-the-minister-of-digital-technologies/', 'title': "How Uzbekistan Plans to Lead Central Asia's Digital Future", 'snippet': "Uzbekistan's ambitions to position itself as Central Asia's digital powerhouse took center stage during ICT Week Uzbekistan 2025 this ...", 'date': '2025-10-27', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://gov.uz/en/iiv/news/view/52319', 'title': 'Creating a Safe Cyberspace by Combating Cybercrime ...', 'snippet': "The Presidential Decree of April 30 of this year introduces fundamentally new mechanisms to enhance Uzbekistan's fight against cybercrime, including systemic ...", 'date': '2025-05-07', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dergipark.org.tr/tr/download/article-file/4062234', 'title': "[PDF] Digitalization and Cyber Security Policies in Uzbekistan's Institutions ...", 'snippet': 'The authorities of Uzbekistan are keen to monitor and implement the digitalization process earnestly, which has led to exceeding the set targets ...', 'date': '2024-09-23', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/uz_2022/?allData=1', 'title': 'NCSI :: Uzbekistan - National Cyber Security Index', 'snippet': 'Today, the Center has a special department "Department of Information Technology and Innovation", which is responsible for the introduction of information ...', 'date': '2022-03-08', 'last_updated': '2024-11-05', 'matched': True}, {'url': 'https://cis-legislation.com/document.fwx?rgn=170414', 'title': 'resolution of the president of the republic of uzbekistan', 'snippet': '(i) creation of necessary conditions for implementation of digital technologies, modern digital decisions, software products, electronic ...', 'date': '2025-10-20', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Communications and Information Technology (MCIT) in QATAR responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research of Libya in LIBYA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2159,17 +2163,17 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ministry of Communications and Information Technology (MCIT) in QATAR</t>
+          <t>Ministry of Higher Education and Scientific Research of Libya in LIBYA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ministry of Communications and Information Technology (MCIT)</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2179,7 +2183,9 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>The primary governmental body explicitly responsible for cybersecurity policy, coordination, and implementation in Qatar is the National Cyber Security Agency (NCSA), established in 2021, which leads national cybersecurity strategy efforts including the 2024-2030 National Cybersecurity Strategy[2][3][5]. The Qatar National Cyber Security Strategy (2014) and subsequent strategies articulate responsibility vested largely in the NCSA and other coordinated governance structures such as Q-CERT and the Cyber Security Coordination Office reporting to the Prime Minister, rather than the MCIT[1][2][3]. However, the Ministry of Communications and Information Technology (MCIT) plays a supporting role in Qatar's digital transformation agenda, including initiatives like the National Centre for Artificial Intelligence and GovAI program, which promote digital innovation and AI adoption across public sectors[5][7]. MCIT also oversees IT infrastructure and implements security systems protecting its own networks[8]. While MCIT is involved in ICT development and certain security measures, it is not explicitly noted as a lead or primary responsible agency for national cybersecurity policy, incident response, or cybercrime enforcement. Therefore, the Ministry of Communications and Information Technology has a low level of responsibility for cybersecurity governance, focused more on ICT and digital innovation facilitation rather than overarching cybersecurity strategy and operational leadership.</t>
+          <t>The Ministry of Higher Education and Scientific Research (MHESR) in Libya is involved in cybersecurity primarily through its oversight of higher education institutions and its participation in national digital transformation and ICT initiatives. For example, the Intermediate Institutes of the National Board for Technical and Vocational Education (NBTVE) under MHESR provide computer skills training for youth, including cybersecurity-related topics, in collaboration with international organizations such as the UNDP [2]. Additionally, MHESR is responsible for technical and vocational education institutes and participates in projects related to e-learning and digital transformation in higher education, which include aspects of information security and digital readiness [2][4][5].
+However, there is no evidence that MHESR is explicitly responsible for national cybersecurity policy, technical coordination, or enforcement. The General Authority for Communication and Informatics is tasked with developing a strategic national plan for information security and combating cybercrime according to the 2022 Draft Information and Communications Law [2]. MHESR's role is more focused on education and research, rather than direct cybersecurity governance or incident response. While MHESR supports research and development in ICT and cybersecurity, and fosters collaboration between academic and public sectors, it does not host a national CERT/CSIRT/CIRT or lead national cybersecurity committees [2][4][5].
+Therefore, MHESR's responsibility for cybersecurity is limited to the education and research sector, rather than broader national cybersecurity governance.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2189,14 +2195,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[{'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3903662/Qatari-Government-Qatar-National-Cyber-Security.pdf', 'title': '[PDF] Qatar National Cyber Security Strategy', 'snippet': "The objectives are very clear: safeguard the nation's critical information infrastructure; respond to and recover from cyber attacks; establish a legal ...", 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://blogs.cisco.com/security/overview-of-cybersecurity-regulations-in-the-middle-east-region-part-1', 'title': 'Overview of Cybersecurity Regulations in the Middle East', 'snippet': 'The primary body, responsible for cybersecurity policies, within the State of Qatar is the National Cyber Security Agency (NCSA) which was ...', 'date': '2024-11-04', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.gco.gov.qa/en/media-centre/top-news/the-national-cyber-security-strategy-2024-2030-is-launched/', 'title': 'The National Cyber Security Strategy 2024-2030 is launched', 'snippet': 'The strategy aims to make Qatar a global leader in cybersecurity, with five pillars: ecosystem safety, legislation, data economy, research, and ...', 'date': '2024-09-17', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://www.qrtd.qa/why-cybersecurity-matters-to-businesses-in-qatar/', 'title': 'Why Cybersecurity matters to Businesses in Qatar', 'snippet': 'Cybersecurity matters to businesses in Qatar because it helps protect sensitive information, prevent data breaches, safeguard customer trust.', 'date': '2023-07-28', 'last_updated': '2025-01-24', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/qatar-cybersecurity-and-technology-developments-late-2025', 'title': 'Qatar Cybersecurity and technology developments late 2025', 'snippet': 'For more information about the trade mission, cybersecurity, AI, or quantum computing in Qatar, please contact Office.Doha@trade.gov or Juan.', 'date': '2025-09-30', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://mofa.gov.qa/en/qatar/latest-articles/latest-news/details/1444/11/13/qatar-affirms-commitment-to-global-efforts-to-ensure-cyber-space-is-a-tool-for-progress-prosperity', 'title': 'Qatar Affirms Commitment to Global Efforts to Ensure Cyber Space ...', 'snippet': 'The State of Qatar affirmed its commitment to contributing to global efforts to ensure that cyberspace is a means of progress and well-being, ...', 'date': '2025-06-02', 'last_updated': '2025-10-07', 'matched': True}, {'url': 'https://www.mcit.gov.qa/en/about-us/', 'title': 'About MCIT Qatar | Vision, Mission &amp; Role in Digital Innovation', 'snippet': "Discover MCIT Qatar's purpose and leadership in advancing Qatar's digital future. Learn how we drive innovation, enable smart solutions, and support growth.", 'date': '2025-02-09', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.moci.gov.qa/en/about-the-ministry/departments/departments-under-the-deputy/information-technology-department/', 'title': 'Information Technology Department', 'snippet': "Implementing security systems protecting the Ministry's networks against security threats. Providing technical support and maintenance of IT equipment ...", 'date': '2020-11-10', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://ncsa.gov.qa/sites/default/files/2024-01/Qatar2022Framework.pdf', 'title': '[PDF] Qatar 2022 Cybersecurity Framework', 'snippet': 'The Qatar 2022 Cybersecurity Framework, developed for the FIFA World Cup, defines core cyber-competencies to safeguard critical national ...', 'date': '2018-08-05', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/ly/', 'title': 'NCSI :: Libya - National Cyber Security Index', 'snippet': '... the roles and responsibilities of ... It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education ...', 'date': '2024-04-30', 'last_updated': '2025-07-24', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/libya/~technology', 'title': 'Libya | Technology - Education Profiles', 'snippet': 'The Ministry of Technical and Vocational Education is responsible for all public technical and vocational education institutes.', 'date': '2024-02-15', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://journals.scholarpublishing.org/index.php/ASSRJ/article/view/17412', 'title': 'Exploring Libyan Higher Education Institutions Employees ...', 'snippet': 'This study aimed to explore the level of understanding of Libyan information security policies among employees of higher education institutions.', 'date': '2024-08-23', 'last_updated': '2025-01-12', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/server/api/core/bitstreams/06932a88-87e3-5422-9c46-718e1d31e0b9/content', 'title': '[PDF] ICT in Education in Libya - World Bank Document', 'snippet': 'Government reform plans in developing ICT infrastructure in Libya and incorporating ICT in education as key components in its overall development plans. Libya ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.scienceijsar.com/sites/default/files/article-pdf/IJSAR-3087.pdf', 'title': '[PDF] the integration of internet of things (iot) applications in libyan higher ...', 'snippet': 'Therefore, this study aims to analyse the current landscape of IoT in Libyan higher education, exploring the benefits, opportunities, and ...', 'date': '2025-07-31', 'last_updated': '2025-08-06', 'matched': True}, {'url': 'https://jsre.journals.ekb.eg/article_107625.html?lang=en', 'title': 'National security challenges facing Libyan universities', 'snippet': 'The study reached a set of recommendations and proposals for Libyan universities to confront the challenges of national security and the importance of the ...', 'date': None, 'last_updated': '2025-04-13', 'matched': True}, {'url': 'https://www.inhea.org/ahen/libya/', 'title': 'Libya - International Network for Higher Education in Africa', 'snippet': "Libya's new digital platform connects academics to policy-makers, universities, and postgraduate students, fostering collaboration for national development.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ibtikarproject.eu/wp-content/uploads/2023/12/IBTIKAR_D2.2_Research-Agenda.pdf', 'title': '[PDF] Institutional Research Agenda - IBTIKAR Project', 'snippet': 'The purpose of IBTIKAR Research Agenda is to outline the priority research areas that has to be developed, the objectives, the outcomes and desired impacts, ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Civil Affairs of Bosnia and Herzegovina in BOSNIA AND HERZEGOVINA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Consejo Nacional de Ciencia y Tecnología (CONACYT) in PARAGUAY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2204,27 +2210,27 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ministry of Civil Affairs of Bosnia and Herzegovina in BOSNIA AND HERZEGOVINA</t>
+          <t>Consejo Nacional de Ciencia y Tecnología (CONACYT) in PARAGUAY</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ministry of Civil Affairs of Bosnia and Herzegovina</t>
+          <t>Consejo Nacional de Ciencia y Tecnología (CONACYT)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Based on available information, Bosnia and Herzegovina does not have a comprehensive national cybersecurity strategy or a dedicated Cyber Emergency Response Team (CERT) fully established at the central government level. The strengthening of cybersecurity capacities is a cross-institutional challenge due to the country's complex governmental structure. The Ministry of Civil Affairs of Bosnia and Herzegovina is not explicitly mentioned in national cybersecurity strategies, laws, reports, or cybersecurity coordination bodies as responsible for cybersecurity policy, implementation, or technical coordination. Instead, the development of cybersecurity frameworks and coordination mechanisms appears to involve multiple actors and is still under development without clear assignment to this ministry. There is no evidence that the Ministry of Civil Affairs hosts a national CERT, leads or participates in formal cybersecurity councils, or oversees information security standards or network protection. Thus, the Ministry does not hold cybersecurity responsibility under the provided criteria [1][3][4][5][7].</t>
+          <t>CONACYT is described as a government agency in Paraguay that promotes and funds scientific and technological research to advance the country's development [5]. However, there is no evidence in the provided search results that CONACYT is explicitly responsible for cybersecurity policy, implementation, or technical coordination. The Ministry of Information and Communication Technologies (MITIC) is identified as the national authority on cybersecurity, leading the formulation and execution of public policies, hosting the national CERT (CERT-PY), and coordinating actions with various sectors [1, 2, 4]. CONACYT's role is focused on research and technological advancement, not on cybersecurity governance, prevention, planning, response, or enforcement. There is no mention of CONACYT hosting a national CERT, leading or being a member of a cybersecurity committee, overseeing information security standards, or participating in cybersecurity events or international initiatives related to cybersecurity [1, 2, 3, 4, 5, 7, 8, 9].</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2234,14 +2240,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cybilportal.org/projects/63006/', 'title': 'Strengthening Cybersecurity Capacities in Bosnia and Herzegovina', 'snippet': "Bosnia and Herzegovina's stated goal is to adopt a national cybersecurity strategy and to establish a national Cyber Emergency Response Teams, not least to ...", 'date': '2023-03-15', 'last_updated': '2025-07-11', 'matched': True}, {'url': 'https://www.osce.org/files/f/documents/1/a/438383.pdf', 'title': '[PDF] Guidelines for a strategic Cybersecurity Framework in Bosnia and ...', 'snippet': 'The framework aims to ensure a strategic and legal framework, improve protection of systems, reduce risk, respect privacy, and promote innovation and ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://info.undp.org/docs/pdc/Documents/BIH/Project%20Document%20-%20Stenghtening%20Cybersecurity%20in%20BiH%20Final.pdf', 'title': '[PDF] Strengthening Cybersecurity Capacities in Bosnia and Herzegovina', 'snippet': 'Bosnia and Herzegovina lacks a comprehensive legislative and strategic framework on cybersecurity, including ... national strategy on the security of networks and ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://cess.org/2025/06/19/cybersecurity-in-bosnia-and-herzegovina-everyones-problem-no-ones-responsibility/', 'title': 'Volten Brief #12 &gt; Cybersecurity in Bosnia and Herzegovina', 'snippet': 'Bosnia and Herzegovina lacks a national cybersecurity strategy and CERT, making it vulnerable to cyberattacks, and is the only country in South ...', 'date': '2025-06-19', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ba/', 'title': 'NCSI :: Bosnia and Herzegovina - National Cyber Security Index', 'snippet': 'The central government has established a national-level cybersecurity strategy defining strategic cybersecurity objectives and measures to improve ...', 'date': '2025-04-30', 'last_updated': '2025-05-10', 'matched': True}, {'url': 'https://eucyberdirect.eu/atlas/country/bosnia-and-herzegovina', 'title': 'Bosnia and Herzegovina - EU Cyber Direct', 'snippet': 'Bosnia and Herzegovina has increased internet access and is working to align with EU cyber priorities, but faces challenges due to power distribution.', 'date': '2021-09-01', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/NationalCybersecurityStrategiesWB_2021.pdf', 'title': '[PDF] National Cybersecurity Strategies in Western Balkan Economies', 'snippet': 'An overarching cybersecurity framework in Bosnia and Herzegovina is still under devel- opment. ... National Cybersecurity Strategy and Action Plan 2016-2019 (2015).', 'date': None, 'last_updated': '2023-11-28', 'matched': True}, {'url': 'https://knowcyber.eu/cybersecurity-in-bosnia-and-herzegovina/', 'title': 'Cybersecurity in Bosnia and Herzegovina - KnowCyber', 'snippet': 'Bosnia and Herzegovina demonstrates a higher level of responsive cybersecurity, followed by a decreasing emphasis on strategic and preventive ...', 'date': '2025-05-08', 'last_updated': '2025-07-01', 'matched': True}, {'url': 'https://2021-2025.state.gov/wp-content/uploads/2024/03/ICS_EUR_Bosnia-and-Herzegovina_27FEB2024_PUBLIC.pdf', 'title': '[PDF] Integrated Country Strategy (ICS) - Bosnia and Herzegovina', 'snippet': 'If BiH does not strengthen its disaster management and cyber security response capabilities, its already weak institutions will fail to react to.', 'date': '2024-02-27', 'last_updated': '2025-06-02', 'matched': True}, {'url': 'http://www.msb.gov.ba/PDF/310320234.pdf', 'title': '[PDF] STRATEGY OF BOSNIA AND HERZEGOVINA FOR PREVENTION ...', 'snippet': 'Peace and Security" (2018-2022);. • Guidelines for the strategic framework of cyber security in Bosnia and Herzegovina. The strategic measures and activities ...', 'date': None, 'last_updated': '2025-11-06', 'matched': True}]</t>
+          <t>[{'url': 'https://www.tedic.org/en/the-evolution-of-cybersecurity-in-paraguay-mitic-as-a-strategic-pillar/', 'title': 'The Evolution of Cybersecurity in Paraguay: MITIC as a Strategic Pillar', 'snippet': 'MITIC has been consolidated as the national authority on cybersecurity, leading the formulation and execution of public policies and coordinating actions with ...', 'date': '2025-06-24', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.occrp.org/en/news/paraguay-launches-cybersecurity-plan-on-the-heels-of-major-hacks', 'title': 'Paraguay Launches Cybersecurity Plan On the Heels of Major Hacks', 'snippet': 'Paraguay has launched a cybersecurity strategy the week after a criminal hacking group released citizenship data, because the government refused to pay a ...', 'date': '2025-06-20', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.southcom.mil/MEDIA/NEWS-ARTICLES/Article/3979394/us-strengthens-cybersecurity-partnership-with-paraguay/', 'title': 'U.S. Strengthens Cybersecurity Partnership with Paraguay', 'snippet': 'The government of Paraguay and the government of the United States of America will continue to work on strengthening their cybersecurity systems ...', 'date': '2024-11-26', 'last_updated': '2024-12-19', 'matched': True}, {'url': 'https://www.tedic.org/wp-content/uploads/2024/10/Cybersecurity-for-human-rights-defenders-WEB.pdf', 'title': '[PDF] CYBERSECURITY FOR HUMAN RIGHTS DEFENDERS IN ... - TEDIC', 'snippet': 'It is important to consider fundamental aspects of cybersecurity when addressing the issue from public policies on digital security, thus, considering ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://act.globalcyberalliance.org/index.php/National_Council_for_Scientific_and_Technological_Research_(CONACYT)_-_Paraguay', 'title': 'National Council for Scientific and Technological Research ...', 'snippet': "CONACYT is a government agency in Paraguay that promotes and funds scientific and technological research to advance the country's development.", 'date': '2024-02-28', 'last_updated': None, 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Paraguay.pdf', 'title': '[PDF] Paraguay | GHS Index', 'snippet': 'There is no evidence that Paraguay has regulations or licensing conditions that specify that security and other personnel with access to ...', 'date': '2021-12-14', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://oecd-opsi.org/wp-content/uploads/2022/03/lac-ai.pdf', 'title': '[PDF] The Strategic and Responsible Use of Artificial Intelligence in the ...', 'snippet': "• Paraguay's Information Security Governance Model12 designates an Information Security area in all government institutions, with relevant objectives, roles ...", 'date': None, 'last_updated': '2024-10-12', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Artificial-Intelligence-for-Social-Good-in-Latin-America-and-the-Caribbean-The-Regional-Landscape-and-12-Country-Snapshots.pdf', 'title': '[PDF] Artificial-Intelligence-for-Social-Good-in-Latin-America-and-the ...', 'snippet': "In terms of cybersecurity, the International Telecommunications Union's. 2018 Global Security Index gives Paraguay a score of 0.603 out of 1, placing it 5th ...", 'date': None, 'last_updated': '2025-03-18', 'matched': True}, {'url': 'https://digitalcommons.fiu.edu/srhreports/cybersecurity/policy/76/', 'title': '[Paraguay] National Cybersecurity Plan: Challenges, Roles and ...', 'snippet': 'Contains an action plan (Annex 1); Plan focused on seven objectives: Awareness raising; Research, development and innovation; Protection of critical ...', 'date': None, 'last_updated': '2025-09-22', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Belgian Federal Science Policy Office (BELSPO) in BELGIUM responsible for cybersecurity?
+          <t xml:space="preserve">Is the Secretariat of Science, Humanities, Technology and Innovation (SECIHTI) in MEXICO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2249,27 +2255,27 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Belgian Federal Science Policy Office (BELSPO) in BELGIUM</t>
+          <t>Secretariat of Science, Humanities, Technology and Innovation (SECIHTI) in MEXICO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Belgian Federal Science Policy Office (BELSPO)</t>
+          <t>Secretariat of Science, Humanities, Technology and Innovation (SECIHTI)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>The Belgian Federal Science Policy Office (BELSPO) manages the Belgian federal science policy, including scientific institutes, research programs, and Belgium's contributions to the European Space Agency. BELSPO oversees BELNET (Belgium's National Research Network) providing high-speed internet to academic and public institutions and supports research initiatives that include cybersecurity aspects. BELSPO is involved in space policy and supports innovation on cybersecurity in space-related projects, such as collaborating with ESA on the Cybersecurity Centre in Redu and civil security from space programs. However, BELSPO is not explicitly responsible for national cybersecurity policy, implementation, or technical coordination in Belgium. The Centre for Cybersecurity Belgium (CCB) is the primary body mandated by the national cybersecurity strategy to coordinate and oversee cybersecurity policies and responses. While BELSPO participates in cybersecurity-related activities within scientific and space contexts and supports cybersecurity initiatives at a project level, it does not host the national CERT/CSIRT or lead national cybersecurity committees or enforcement. Therefore, its role in cybersecurity is supportive and limited, focused on scientific research, space cybersecurity, and network provision, rather than national cybersecurity governance.</t>
+          <t>SECIHTI is explicitly responsible for cybersecurity in Mexico. The ministry is entrusted with designing and implementing Mexico's national policy on science, technology, and innovation, which includes cybersecurity as a key area (Reference [5]). SECIHTI has established and participates in initiatives and commissions related to cybersecurity, such as the Senate Commission for the Analysis, Follow-up, and Evaluation of the Application and Development of Artificial Intelligence in Mexico, which covers cybersecurity aspects (Reference [3]). The ministry also fosters international cooperation and joint initiatives in cybersecurity, including partnerships with the United Kingdom and Japan, and supports training programs in cyber security (References [5], [7], [9]). SECIHTI is the main counterpart for cooperation in science and technology with international organizations, and its mandate includes the promotion and funding of research in cybersecurity (References [5], [9]).</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2279,14 +2285,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ccdcoe.org/uploads/2018/10/Belgium_CCB_Strategy-2.0_2021_English.pdf', 'title': '[PDF] CYBERSECURITY STRATEGY BELGIUM 2.0 2021-2025 - CCDCOE', 'snippet': 'Monitoring, coordinating and overseeing the implementation of the Belgian Cybersecurity Strategy is the responsibility of the Centre for Cybersecurity Belgium ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.esa.int/Enabling_Support/Space_Engineering_Technology/Belgian_Science_Policy_Office_BELSPO', 'title': 'Belgian Science Policy Office (BELSPO) - European Space Agency', 'snippet': 'The Belgian Science Policy Office (BELSPO) is managing the Belgian Science Policy at the Federal level. It belongs to the Belgian Federal Administration.', 'date': '2015-06-01', 'last_updated': '2025-01-12', 'matched': True}, {'url': 'https://www.stariongroup.eu/starion-and-partners-demonstrate-first-safeplace-proof-of-concept-at-esa-esec/', 'title': 'Starion and partners demonstrate first SAFEPLACE proof of concept ...', 'snippet': "... Belgium's Science Policy Office, in charge of managing the Belgian contributions to international space programmes. BELSPO plays a central role ...", 'date': '2025-06-12', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/access-to-public-research-data-toolkit_a12e8998-en/belgian-science-policy-office-belspo-open-science-policy_65195e34-en.html', 'title': 'Belgian Science Policy Office (BELSPO) Open Science Policy - OECD', 'snippet': 'BELSPO mandates that researchers deposit their publications in open access repositories immediately upon acceptance, ensuring prompt availability.', 'date': '2025-04-15', 'last_updated': '2025-04-17', 'matched': True}, {'url': 'https://www.belspo.be/belspo/EUBelgium24/index_programme_en.stm', 'title': 'Research, Innovation and Space : priorities of the Belgian Presidency', 'snippet': 'Ensuring the cyber resilience of space infrastructure, mitigating climate change, facilitating the implementation of the EU space strategy for security and ...', 'date': None, 'last_updated': '2025-03-27', 'matched': True}, {'url': 'http://atwork.safeonweb.be/tools-resources/cybersecurity-subsidies', 'title': 'Cybersecurity subsidies | CCB Safeonweb', 'snippet': 'Various subsidy mechanisms exist in Belgium to support you in the implementation of your protection measures. This page gathers information on the subsidies ...', 'date': '2024-01-01', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.belspo.be/belspo/space/EUBelgium24_CRS_fr.stm', 'title': 'Thematic conference on space and cybersecurity - Belspo', 'snippet': 'Formulation of actionable strategies and policies for enhanced cyber resilience. Encouraging cross-sector collaboration and knowledge-sharing among stakeholders ...', 'date': None, 'last_updated': '2025-02-09', 'matched': True}, {'url': 'https://www.unifly.aero/unifly-presents-preliminary-results-of-secureutm-project-and-first-cyber-certification-scheme-for-utm-at-belspo-esa-navisp-pnt-workshop/', 'title': 'Unifly Presents Preliminary Results of SecureUTM Project and First ...', 'snippet': 'The SecureUTM project addresses these by proposing a cyber certification scheme for UTM systems in the EU, ensuring compliance with regulations ...', 'date': '2025-06-26', 'last_updated': '2024-09-15', 'matched': True}, {'url': 'https://www.belspo.be/belspo/space/bepolicy_en.stm', 'title': 'Belgian space strategy | Space in Belgium - Belspo', 'snippet': 'Belgium must position itself to be part of it and allow its players to occupy key positions, particularly in the field of cyber security. The strategic ...', 'date': '2019-07-15', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'http://diplomatie.belgium.be/en/policy/policy-areas/highlighted/belgium-and-international-space-policy', 'title': 'Belgium and international space policy | FPS Foreign Affairs', 'snippet': 'In Redu, Belgium, the ESA is establishing a cyber security centre, crucial for protecting space systems. ... BELSPO may be the main Belgian ...', 'date': '2024-04-24', 'last_updated': '2025-06-20', 'matched': True}]</t>
+          <t>[{'url': 'https://www.ipn.mx/english/press-releases/view-press-release.html?y=2025&amp;n=29&amp;t=17', 'title': 'Platform Developed to Protect Personal Data', 'snippet': 'In order to protect personal data and prevent breaches of sensitive information, researchers at the Instituto Politécnico Nacional (IPN) have developed a ...', 'date': '2025-05-01', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://www.jotmi.org/index.php/GT/article/view/4693?articlesBySimilarityPage=6', 'title': 'Innovation, Technology Adoption and Digital Development in Mexico', 'snippet': 'The results suggest that companies in Mexico need to implement processes that enable technological adoption, apply cybersecurity more deeply, ...', 'date': '2025-10-23', 'last_updated': None, 'matched': True}, {'url': 'https://www.brookings.edu/articles/the-role-of-policies-on-technology-and-ai-for-innovation-and-increased-competitiveness-in-north-america/', 'title': 'The role of policies on technology and AI for innovation and ...', 'snippet': "The USMCA offers a unique opportunity to strengthen North America's leadership in AI. The agreement has already laid the groundwork for digital trade.", 'date': '2025-03-05', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.dataguidance.com/jurisdictions/mexico', 'title': 'Mexico | Jurisdictions - DataGuidance', 'snippet': 'Mexico: INAI urges strengthening of cybersecurity standards - Mexico. INAI urges Mexico to strengthen cybersecurity standards and improve data protection laws.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://assets.publishing.service.gov.uk/media/66e49a8a718edd81771317bc/SIN_Country_Summary_-_Mexico.pdf', 'title': '[PDF] Mexico - GOV.UK', 'snippet': 'The recently created Ministry of Science, Humanities, Technology and Innovation (SECIHTI) in. Mexico plays a pivotal role in promoting and funding scientific ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://mexicobusiness.news/talent/news/secihti-drive-collaboration-science-education', 'title': 'SECIHTI to Drive Collaboration in Science, Education', 'snippet': "SECIHTI aims to transform Mexico's innovation policy, fostering collaboration across sectors to drive progress in education, research, ...", 'date': '2024-11-25', 'last_updated': None, 'matched': True}, {'url': 'https://secihti.mx/wp-content/uploads/convocatorias/becas_extranjero/documentos/2025/Programas_Estancias_Tecnicas/Information_Science_and_Engineering.pdf', 'title': '[PDF] Japan-Mexico Training Program for the Strategic Global Partnership', 'snippet': 'This training program aims to support Mexican human resource development through the implementation of training program based on the Japan-Mexico Joint.', 'date': None, 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://mexicobusiness.news/aerospace/news/mexicos-space-agency-warns-governance-risks-atdt-shift', 'title': "Mexico's Space Agency Warns of Governance Risks in ATDT Shift", 'snippet': "AEM staff warns that transferring its functions to ATDT could dismantle Mexico's space governance and harm international commitments.", 'date': '2025-04-11', 'last_updated': None, 'matched': True}, {'url': 'https://stip.oecd.org/stip/interactive-dashboards/policy-initiatives/2025%2Fdata%2FpolicyInitiatives%2F200002977', 'title': 'Promotion of Scientific, Humanistic and Technological Cooperation', 'snippet': 'Through embassies, Secihti fosters alliances with research centres, universities, government agencies, foreign companies and multilateral ...', 'date': '2025-07-18', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Innovation and Technology in ETHIOPIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Industry, Innovation, Science and Technology in BARBADOS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2294,17 +2300,17 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ministry of Innovation and Technology in ETHIOPIA</t>
+          <t>Ministry of Industry, Innovation, Science and Technology in BARBADOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ministry of Innovation and Technology</t>
+          <t>Ministry of Industry, Innovation, Science and Technology</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2314,7 +2320,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>The Ministry of Innovation and Technology (MInT) in Ethiopia is explicitly responsible for cybersecurity policy, standards, and coordination. According to its official powers and duties, MInT is tasked with initiating policies and strategies for technology and innovation, including cybersecurity, in collaboration with relevant organs [2]. It is responsible for setting standards to ensure the quality, reliability, and security of ICT services, monitoring their implementation, and supporting the development and coordination of information systems and secured information networks within government institutions [2]. MInT also participates in national cybersecurity consultations and conferences, such as the consultative forum on the draft National Cyber-Security Policy hosted by INSA, where it is listed as a key stakeholder [1]. Additionally, MInT is involved in the development of digital infrastructure and critical systems, ensuring they are supported by appropriate technology and positioned to better provide secure public services [2]. The Ministry's role is further reinforced by its participation in events and initiatives focused on cybersecurity and digital transformation, highlighting its central position in the country's cybersecurity governance framework [4].</t>
+          <t>The Ministry of Industry, Innovation, Science and Technology (MIST) in Barbados is explicitly involved in the country's cybersecurity governance and implementation. Minister Davidson Ishmael announced a National Cyber Security Strategy guiding cybersecurity efforts in Barbados, highlighting the Ministry's leadership role[1]. The Ministry is also overseeing the establishment of a National Computer Emergency Response Team (CERT), responsible for monitoring, detecting, and responding to cyber threats, indicating direct operational involvement in cybersecurity management[1]. The Ministry has been active in incident response to cybersecurity breaches, mobilizing teams and resources to investigate and contain incidents such as ransomware attacks affecting government IT infrastructure[2][3]. Furthermore, MIST jointly hosts events and seminars with other agencies (e.g., the Data Protection Commission) to educate and enforce cybersecurity and data protection obligations, exemplifying its coordinating and enforcement role in the cybersecurity domain[4]. These activities demonstrate that MIST is a key policy maker, implementer, coordinator, and promoter of cybersecurity initiatives in Barbados, meeting multiple criteria of responsibility including strategy leadership, CERT hosting, participation in committees, and public engagement on cybersecurity issues.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2324,14 +2330,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.fanamc.com/english/insa-convenes-consultation-on-draft-of-national-cyber-security-policy/', 'title': 'INSA convenes consultation on draft of national cyber security policy', 'snippet': "It is indicated that INSA is engaged in protecting the country's cyber-security as its priority mission. 470. Share FacebookTwitter.", 'date': '2023-10-02', 'last_updated': '2025-04-16', 'matched': True}, {'url': 'http://www.mint.gov.et/power-duties', 'title': 'Power &amp; duties - MINT - Ministry of Innovation and Technology', 'snippet': 'The Ministry of Innovation and Technology shall have the following powers and duties: a) initiate policies, strategies, laws and programs that sustainably ...', 'date': '2024-01-01', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://digikogu.taltech.ee/en/Download/06ef8980-905c-4c08-94d1-7918a42e80a0', 'title': '[PDF] DEVELOPING NATIONAL CYBERSECURITY STRATEGY FOR ...', 'snippet': 'The agency-specific duties include promoting the growth of ICT services, regulating telecommunication, monitor government domain names and ...', 'date': '2019-05-13', 'last_updated': '2025-03-29', 'matched': True}, {'url': 'https://www.ena.et/web/eng/w/eng_6762358', 'title': 'Conference on Collaboration in Cyber Security, Digital ...', 'snippet': 'A conference focused on setting security principles and frameworks into systems and on collaboration in cyber security and digital transformation in Ethiopia ...', 'date': '2025-06-13', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://cipit.org/ethiopias-personal-data-protection-proclamation-of-2024-and-its-budding-digital-identity-regime/', 'title': "Ethiopia's Personal Data Protection Proclamation of 2024 and its ...", 'snippet': 'The PDPP 2024 establishes a robust personal data protection framework to provide for data subject rights and principles of data processing.', 'date': '2024-11-12', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://dial.global/work/strengthening-ethiopias-national-data-governance-ecosystem/', 'title': "Strengthening Ethiopia's data ecosystem – Digital Impact Alliance", 'snippet': 'Strengthening enforcement will involve establishing an independent data protection authority, developing standardized legal frameworks, and investing in ...', 'date': '2025-05-15', 'last_updated': '2025-07-20', 'matched': True}, {'url': 'https://press.et/herald/?p=61802', 'title': "Cyber-security top Nat'l priority for Ethiopia – Ethiopian Press Agency", 'snippet': "Minimizing institutions' cyber-attack vulnerability, enhancing the role of private sector in the area and creating an environment where ...", 'date': '2022-10-12', 'last_updated': None, 'matched': True}, {'url': 'https://www.scribd.com/document/503525674/06ef8980905c4c0894d17918a42e80a0', 'title': 'Developing National Cybersecurity Strategy For Ethiopia - Scribd', 'snippet': 'name to Ministry of Innovation in October 2018 [26]. The agency-specific duties include promoting the growth of ICT services, regulating telecommunication, ...', 'date': None, 'last_updated': '2024-05-14', 'matched': True}]</t>
+          <t>[{'url': 'https://rss.techbaseltd.com/2023/06/30/barbados-making-moves-in-cyber-security/', 'title': 'Barbados Making Moves In Cyber Security', 'snippet': 'As Barbados continues to make significant advancements in securing its cyber domain, the island has recently developed a National Cyber Security Strategy.', 'date': '2023-06-30', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://barbados.issa.org', 'title': 'ISSA Barbados Chapter - Information Systems Security Association', 'snippet': 'The Information Systems Security Association (ISSA) is a not-for-profit, international organization of information security professionals and practitioners.', 'date': '2025-09-29', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://stats.gov.bb/dataprotection/', 'title': 'Data Protection - Barbados Statistical Service', 'snippet': 'The Barbados Statistical Service takes safeguarding information seriously and promises a quick and thorough response to security incidents.', 'date': '2016-08-24', 'last_updated': '2025-01-11', 'matched': True}, {'url': 'https://barbadostoday.bb/2025/10/28/healthcare-data-protection-in-barbados-seminar-signals-shift-from-education-to-enforcement/', 'title': 'Healthcare data protection in Barbados: Seminar signals shift from ...', 'snippet': 'Data Commissioner Lisa Greaves delivered a detailed presentation on Building a Privacy Compliance Programme, outlining the statutory obligations ...', 'date': '2025-10-28', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://publicadministration.desa.un.org/sites/default/files/Key%20Messages%20Barbados.pdf', 'title': '[PDF] United Nations Department of Economic and Social Affairs', 'snippet': 'By integrating sustainable practices and enabling our systems with appropriate technology, we foster innovation that strengthens every institution. This.', 'date': None, 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://mps.gov.bb/People_Resourcing/post_docs/Director%20-%20Digital%20Infrastructure%20-%20(MIST).pdf', 'title': '[PDF] Director - Digital Infrastructure - (MIST) - Ministry of Public Service', 'snippet': 'DUTIES AND RESPONSIBILITIES: •. Oversees the Telecommunications functions;. •. Manages the Telecommunications and Information and.', 'date': '2025-05-09', 'last_updated': '2025-06-24', 'matched': True}, {'url': 'https://ctu.int/remarks-by-secretary-general-rodney-taylor-on-the-occasion-of-ctu-ict-week-2023-barbados/', 'title': 'Remarks by Secretary-General Rodney Taylor delivered at the ...', 'snippet': 'Remarks by Secretary-General Rodney Taylor delivered at the Opening Ceremony for CTU ICT Week 2023 – Barbados', 'date': None, 'last_updated': '2025-04-28', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Science in DENMARK responsible for cybersecurity?
+          <t xml:space="preserve">Is the Academy of Sciences of Turkmenistan in TURKMENISTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2339,17 +2345,17 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Science in DENMARK</t>
+          <t>Academy of Sciences of Turkmenistan in TURKMENISTAN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Science</t>
+          <t>Academy of Sciences of Turkmenistan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2359,7 +2365,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Science in Denmark is primarily responsible for higher education, research, and scientific development. While it is involved in cybersecurity-related research funding and initiatives aimed at enhancing technological knowledge and skills (including cybersecurity education and awareness), it is not explicitly responsible for national cybersecurity policy, implementation, or technical coordination. National cybersecurity governance and operational responsibilities lie mainly with the Centre for Cyber Security under the Ministry of Defence, the Danish Ministry of Finance, and other specialized authorities such as the National Cyber Crime Centre. The Ministry of Higher Education and Science has contributed to cybersecurity in terms of advancing education in digital skills and research frameworks but does not lead or formally participate in cybersecurity governance or enforcement committees. Notably, the Ministry has issued guidelines affecting cybersecurity practices in higher education and research collaboration to mitigate espionage risks, but these actions are precautionary and related to research security rather than national cybersecurity policy leadership.[1][2][4][6]</t>
+          <t>The available evidence does not indicate that the Academy of Sciences of Turkmenistan is explicitly responsible for cybersecurity policy, implementation, technical coordination, or operational response in Turkmenistan. The primary entities mentioned in national cybersecurity efforts are the Ministry of Education, the Institute of Telecommunications and Informatics, and the Cybersecurity Service, which are tasked with policy development, coordination, and technical activities [1]. The Academy of Sciences is not cited in national strategies, laws, or reports as having a lead or coordinating role in cybersecurity governance, nor is it mentioned as hosting a national CERT/CSIRT/CIRT or leading cybersecurity committees or working groups. While the Academy may contribute to research and education in cybersecurity, its role appears to be supportive rather than central to national cybersecurity governance or operational response [3].</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2369,14 +2375,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.fmn.dk/en/topics/cyber-security/cyber-security/', 'title': 'Cyber Security - Forsvarsministeriet', 'snippet': 'Denmark faces high cyber threats, especially from espionage and crime. The Centre for Cyber Security counters attacks, and a national strategy ...', 'date': '2022-11-03', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/actions/national-initiatives/national-strategies/denmark-national-cyber-and-information-security', 'title': 'National Cyber and Information Security Strategy 2022-2024', 'snippet': 'The strategy aims to enhance technological resilience, secure critical systems, improve skills, and has four objectives: robust protection, ...', 'date': '2025-03-31', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.eng.em.dk/news/2018/apr/the-danish-government-launches-the-technology-pact', 'title': 'The Danish government launches the Technology Pact', 'snippet': 'That requires us to provide students with digital skills and knowledge about cybersecurity and protection of their own data. In the future, all ...', 'date': '2018-04-24', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://cyberwiser.eu/denmark-dk', 'title': 'Denmark (DK) - CYBERWISER.eu', 'snippet': 'Strategic goals for cybersecurity education: Acquisition of digital judgement and competences through the educational system: Joint efforts to raise awareness ...', 'date': '2021-01-01', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://en.digst.dk/media/bxxcnby2/digst_ncis_2022-2024_uk.pdf', 'title': '[PDF] The Danish National Strategy for Cyber and Information Security', 'snippet': 'Improving cyber security in Denmark requires a concerted effort and a shared responsibility across society. The state is responsible for national security. ...', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.universityworldnews.com/post.php?story=20220531144822860', 'title': 'Research security rules: Is university autonomy at risk?', 'snippet': 'The Danish Ministry of Higher Education and Science published a report on 25 May which calls for a “paradigm shift” in the Danish approach ...', 'date': '2022-06-04', 'last_updated': '2025-04-22', 'matched': True}, {'url': 'https://www.cbs.dk/en/cbs-agenda/areas/news/denmark-is-not-ready-eus-new-cyber-security-rules', 'title': "Denmark is not ready for EU's new cyber security rules | CBS", 'snippet': 'The Ministry of Resilience has the overall authority, but the responsibility for enforcement of NIS2 will be divided between ten different ...', 'date': '2025-09-17', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ufm.dk/en/newsroom/press-releases/2023/the-danish-government-is-ready-with-a-dedicated-investment-of-one-billion-dkk-as-first-part-of-a-new-quantum-strategy', 'title': 'The Danish government is ready with a dedicated investment of one ...', 'snippet': 'The government wants to invest one billion DKK in research and innovation, following the launch of the first part of a National Strategy for Quantum Technology.', 'date': '2023-06-21', 'last_updated': '2025-10-15', 'matched': True}]</t>
+          <t>[{'url': 'https://www.osce.org/centre-in-ashgabat/529452', 'title': 'OSCE supports establishment of Cybersecurity Centre of Excellence ...', 'snippet': '“The OSCE Centre will continue to support the Cybersecurity Centre of Excellence by assisting the Centre of Excellence to provide a platform for ...', 'date': '2022-10-21', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tm/', 'title': 'NCSI :: Turkmenistan - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://www.dga.edu.tm/index.php/en/component/content/article/32-tazelikler/236-improvement-the-potential-of-cybersecurity?Itemid=671', 'title': 'Improvement the potential of cybersecurity', 'snippet': "The Academy assists to meet the needs for qualified cybersecurity professionals to support and develop Turkmenistan's digital network.", 'date': '2023-03-27', 'last_updated': None, 'matched': True}, {'url': 'https://iogu.edu.tm/en/faculties/32', 'title': 'Department of Cybersecurity - IOGU', 'snippet': 'The main task of the department is the organization and establishment of educational, scientific-research and design work in accordance with the requirements of ...', 'date': '2024-01-01', 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://mfa.gov.tm/index.php/en/articles/8', 'title': 'Education', 'snippet': 'Improving the national education system in Turkmenistan has a wide scope, by educating young people capable of managing innovative technologies great efforts ...', 'date': '2025-06-24', 'last_updated': '2025-06-25', 'matched': True}, {'url': 'https://turkmenistan.gov.tm/en/post/78173/students-turkmen-universities-demonstrated-great-results-cyber-security-hackathon', 'title': 'Students of Turkmen universities demonstrated great results in cyber ...', 'snippet': '25 teams representing 15 leading universities of Turkmenistan took part in the cyber security competition organized and conducted by the ...', 'date': '2023-12-04', 'last_updated': None, 'matched': True}, {'url': 'https://www.turkmenistan.gov.tm/en/post/63028/technology-center-introduces-electronic-document-management', 'title': 'Technology Center introduces electronic document management', 'snippet': 'The Laboratory of Information Security and Communication Technologies has a license to carry out activities in the field of cybersecurity ( ...', 'date': '2022-05-09', 'last_updated': '2024-10-20', 'matched': True}, {'url': 'https://turkmenportal.com/en/blog/53258', 'title': 'The Center of Excellence for Cyber Security was opened in Ashgabat', 'snippet': 'In the context of cybersecurity tasks, the Faculty of Information Systems Security operates at the Institute of Telecommunications and ...', 'date': '2022-10-24', 'last_updated': None, 'matched': True}, {'url': 'https://cyberleninka.ru/article/n/the-role-of-cybersecurity-in-the-education-system', 'title': 'THE ROLE OF CYBERSECURITY IN THE EDUCATION SYSTEM', 'snippet': 'Cybersecurity is central due to increased cyberattack risks, protecting institutions and stakeholders, and ensuring a secure online learning environment.', 'date': None, 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://www.theknowledgeacademy.com/blog/cyber-security-expert/', 'title': 'Cyber Security Expert: Skills, Duties &amp; How to Become One?', 'snippet': 'A Cyber Security Expert is a professional who specialises in safeguarding digital systems, networks, and sensitive information from a wide range of cyber ...', 'date': '2025-09-09', 'last_updated': '2025-09-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in BURUNDI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in KIRIBATI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2384,17 +2390,17 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in BURUNDI</t>
+          <t>Ministry of Education, Science and Technology in KIRIBATI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Education, Science and Technology</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2404,24 +2410,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Based on available information, the Ministry of Higher Education and Scientific Research in Burundi is involved in education and scientific research and participates in initiatives related to digital skills and ICT education. However, there is no evidence that this ministry is explicitly responsible for national cybersecurity policy, implementation, technical coordination, or hosting a CERT/CSIRT. The officially recognized national agency responsible for implementing cybersecurity strategy and policy is the Agency for Regulation and Control of Telecommunications (ARCT)[1]. The Ministry of Higher Education participates in related educational and awareness activities but does not lead cybersecurity governance or enforcement. It is mentioned alongside ICT efforts but not as a central cybersecurity authority[4][6]. Therefore, its responsibility level in national cybersecurity governance is low rather than high or none. Confidence in this assessment is medium due to limited direct official documentation available on its cybersecurity role.</t>
+          <t>The Ministry of Education, Science and Technology in Kiribati is responsible primarily for integrating ICT and cybersecurity education into the national curriculum, including developing training materials and cyber safety education for students at primary and secondary levels. This role is outlined in the Kiribati National Cybersecurity Strategy 2020, which specifies that the Ministry will cooperate with CERTKiribati and other authorities to develop and implement cybersecurity education programs in schools. However, the Ministry does not hold responsibility for national cybersecurity governance, incident response, technical coordination, CERT operations, or cybersecurity policy enforcement. These responsibilities lie mainly with the Ministry of Information, Communications, Transport and Tourism Development (MICTTD), which developed the national cybersecurity strategy, hosts CERTKiribati, and leads cybersecurity implementation in Kiribati. Therefore, the Ministry of Education handles cybersecurity only in the domain of education and awareness rather than comprehensive cybersecurity governance or enforcement.[1][2][3][9]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Burundi.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE BURUNDI - ITU', 'snippet': 'Burundi is a member of the ITU-IMPACT initiative and has access to relevant cybersecurity services. Burundi is among the beneficiaries of the EU ...', 'date': '2014-08-12', 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bi_2022/', 'title': 'NCSI :: Burundi - National Cyber Security Index', 'snippet': '5. Protection of digital services 0/5 0%. 0. 5 0%. 5.1. Cyber security responsibility for digital service providers 0 · 6. Protection of essential services 0/6 0 ...', 'date': '2022-10-13', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bi/?allData=1', 'title': 'NCSI :: Burundi - National Cyber Security Index', 'snippet': '... the roles and responsibilities of ... It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.internetjurisdiction.net/uploads/pdfs/Cross-border-Digital-Policies-for-Africa_-Project-Kick-Off-event-November-4-2021.pdf', 'title': '[PDF] Cross-border digital policies for Africa: Project Kick-Off', 'snippet': 'Ministry of Higher Education, SCientific Research and ICTs • Mediterranean Federation of Internet Associations • Melbourne University • Mojaji.', 'date': '2021-11-04', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/094ae7e492b4b741f58747465021caf0-0200022021/original/DE4A-Burundi-EN.pdf', 'title': '[PDF] DE4A Burundi - The World Bank', 'snippet': 'Equally, the digital economy creates new legal and regulatory challenges, such as protecting consumers and their right to privacy, supporting cybersecurity and ...', 'date': None, 'last_updated': '2024-05-03', 'matched': True}, {'url': 'https://mohe.gov.jo/EN/NewsDetails/The_Ministry_of_Higher_Education_and_Scientific_Research_holds_an_awareness_workshop_on_cybersecurity_for_its_employees', 'title': 'The Ministry of Higher Education and Scientific Research', 'snippet': "This workshop aims to raise the awareness of the ministry's employees in the field of cybersecurity and enable them to take effective preventive ...", 'date': '2025-09-14', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.ajer.org/papers/Vol-10-issue-6/W1006206211.pdf', 'title': '[PDF] Strategic Approach based on Cybersecurity for National Educational ...', 'snippet': 'Education is important in addressing evolving cybersecurity threats, as all protection factors play an essential role in curbing them. Moreover, ...', 'date': '2021-06-24', 'last_updated': '2024-12-19', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/2025/09/economic-security-in-a-changing-world_78f3b129/full-report/building-stronger-defences-for-a-digital-future-the-role-of-cybersecurity_484bcb90.html', 'title': 'Building stronger defences for a digital future: The role of cybersecurity', 'snippet': 'Discussions of different aspects of economic security, such as supply chain resilience, energy security and cybersecurity, have intensified in recent years.', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/the-kiribati-national-cybersecurity-strategy-2020', 'title': 'The Kiribati national cybersecurity strategy 2020', 'snippet': "Safeguard citizens' rights and protect the country's digital infrastructure. · Enhance the resilience of Kiribati's growing ICT ecosystem against cyber threats.", 'date': '2025-07-10', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://education-profiles.org/oceania/kiribati/~technology', 'title': 'Kiribati | Technology - Education Profiles', 'snippet': 'The Ministry of Education is overall responsible for the integration of ICT in education in various areas, such as e-learning and the ...', 'date': '2023-05-26', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.mict.gov.ki/sites/default/files/publications/National%20Cybersecurity%20Policy_0.pdf', 'title': '[PDF] Kiribati National Cybersecurity Strategy 2020', 'snippet': 'CERTKiribati will make recommendations and work in collaboration with the Ministry of Education for introduction of cybersecurity into the national education.', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ki/?allData=1', 'title': 'NCSI :: Kiribati - National Cyber Security Index', 'snippet': 'PREVENTIVE CYBERSECURITY INDICATORS · 7. CYBER THREAT ANALYSIS AND AWARENESS RAISING 0/12 0%. 0. 12 0%. 7.1. Cyber threat analysis 0. 0. 3. Requirements.', 'date': '2025-02-14', 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://www.education.govt.nz/education-professionals/schools-year-0-13/digital-technology/creating-cyber-security-policy-your-school', 'title': 'Creating a cyber security policy for your school - Ministry of Education', 'snippet': 'A cyber security policy defines how your school protects its digital infrastructure and sensitive information from unauthorised access and other cyber attacks.', 'date': '2025-04-30', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.employment.gov.ki/sites/default/files/2023-03/L6-5%20-%20Senior%20Information%20System%20Analyst%20(1).pdf', 'title': '[PDF] Senior Information System Analyst (1) - GOVERNMENT OF KIRIBATI', 'snippet': 'Lead the development and plan for Cybersecurity inclusion in Education curricula. Officials and students have sound knowledge on Cybersecurity and internet ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.employment.gov.ki/sites/default/files/2023-05/JD-%20Information_Security_Analyst.pdf', 'title': '[PDF] Information Security Analyst - GOVERNMENT OF KIRIBATI', 'snippet': '• Develop a plan for Cybersecurity capacity building for all of government. • Assist in developing and planning for. Cybersecurity inclusion in Education ...', 'date': None, 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://bidenwhitehouse.archives.gov/briefing-room/statements-releases/2023/09/25/fact-sheet-enhancing-the-u-s-pacific-islands-partnership/', 'title': 'FACT SHEET: Enhancing the U.S.-Pacific Islands Partnership', 'snippet': 'In addition, through partnership with the Kiribati Ministry of Education, the program would empower youth with the skills they need to thrive in ...', 'date': '2023-09-25', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.mict.gov.ki/sites/default/files/publications/National%20ICT%20Policy_4.pdf', 'title': '[PDF] Kiribati National ICT Policy 2019', 'snippet': 'Ministry of Education, to bring the level of knowledge about cyber security and ways to protect the children, citizens and businesses of Kiribati against ...', 'date': None, 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://pacson.org/members/kiribati', 'title': 'Kiribati | Pacific Cyber Security Operational Network (PaCSON)', 'snippet': 'The ICT Policy and Development Division of MICTTD is the division responsible for advising the Government on ICT related matters, coordinating the ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of the Presidency, Economy, Business and Housing of Andorra in ANDORRA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Scientific Research and Innovation in CAMEROON responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2429,27 +2435,27 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ministry of the Presidency, Economy, Business and Housing of Andorra in ANDORRA</t>
+          <t>Ministry of Scientific Research and Innovation in CAMEROON</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ministry of the Presidency, Economy, Business and Housing of Andorra</t>
+          <t>Ministry of Scientific Research and Innovation</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Available sources describe the Ministry as primarily responsible for economic promotion, business, enterprise, housing, and territorial development. They highlight activities such as promoting economic diversification, supporting foreign and local investment, and housing regulation. None of the referenced materials explicitly mention this Ministry as responsible for cybersecurity policy, implementation, technical coordination, or hosting a national CERT/CSIRT. There is no evidence of its leadership or membership in cybersecurity committees or councils, or involvement in information security standards or network protection. The government of Andorra's overall responsibility for regulation is mentioned, but cybersecurity governance is not attributed to this Ministry. Therefore, based on the information from official and related sources, this Ministry does not hold responsibility for cybersecurity in Andorra[1][3][8].</t>
+          <t>The Ministry of Scientific Research and Innovation in Cameroon is not explicitly mentioned in national cybersecurity laws, strategies, or reports as being responsible for cybersecurity policy, implementation, technical coordination, or incident response. The primary responsibility for cybersecurity in Cameroon lies with the National Agency for Information and Communication Technologies (ANTIC), which is the national cybersecurity regulator and hosts the national Computer Incident Response Team (CIRT) [4][9]. The Ministry of Posts and Telecommunications is also involved in the investigation of cybercrimes [4]. There is no evidence that the Ministry of Scientific Research and Innovation leads or is a member of a cybersecurity committee, council, or working group, nor does it oversee information security standards or network protection. While the ministry may support research and innovation in cybersecurity through funding or collaboration, it does not have a direct or leading role in cybersecurity governance, prevention, planning, response, or enforcement [1][2][3][4][5][6][7][8][9].</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2459,14 +2465,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[{'url': 'https://setupandorra.com/en/news/the-guide-of-the-political-organizations-and-government-of-the-principality-of/', 'title': 'The Principality of Andorra : policy – The Government and ...', 'snippet': 'The Andorran Government has the main responsibility. Ensure social cohesion. The regulations established in Andorra (political, social, economic, etc.) are ...', 'date': '2021-02-17', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.fintaxandorra.com/post/new-law-real-estate-andorra', 'title': 'New law Real Estate Andorra', 'snippet': 'The law of March 6, 2025, represents an ambitious effort by the Andorran government to regulate foreign real estate investment, improve housing access, and ...', 'date': '2025-08-16', 'last_updated': '2025-09-05', 'matched': True}, {'url': 'https://www.andorrabusiness.com/en/', 'title': "Andorra's economic development agency", 'snippet': 'Andorra Business is the economic promotion agency for national and foreign investors seeking to create new businesses in Andorra.', 'date': '2025-11-10', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://papers.ad/en/blog/new-strategies-to-stabilize-the-real-estate-market', 'title': 'New strategies to stabilize the real estate market', 'snippet': "The government's commitment to the housing issue in Andorra is reflected in the establishment of structured and well-thought-out measures, ...", 'date': '2024-06-20', 'last_updated': '2024-11-14', 'matched': True}, {'url': 'https://remotepeople.com/countries/andorra/doing-business-in-andorra/', 'title': 'Doing Business in Andorra in 2025 [Expert Guide]', 'snippet': 'Discover how to succeed in Doing Business in Andorra with our guide on navigating regulations, hiring talent &amp; managing payroll effectively.', 'date': '2025-06-02', 'last_updated': '2025-08-01', 'matched': True}, {'url': 'https://www.state.gov/reports/2025-investment-climate-statements/andorra', 'title': '2025 Investment Climate Statements: Andorra', 'snippet': 'Housing availability and affordability is an increasing social and economic concern for Andorra. As a result, in March 2025, the parliament approved an Omnibus ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://andorraway.com/en/residency-in-andorra-new-rules-for-passive-resident-investment/', 'title': 'New Rules for Passive Resident Investment Impacting the ...', 'snippet': 'Residency in Andorra: The Government proposes increasing the minimum investment for passive residents to €800000 and improving conditions to reduce real ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.andorrabusiness.com/en/creix-andorra/internationalization/business-missions/', 'title': 'Business Missions', 'snippet': 'Andorra Business organizes business missions to various countries to help Andorran companies explore new business opportunities.', 'date': '2025-11-10', 'last_updated': '2025-11-11', 'matched': True}]</t>
+          <t>[{'url': 'https://www.scirp.org/journal/paperinformation?paperid=140884', 'title': 'Assessing the Gaps in Cybersecurity Resilience in Cameroon', 'snippet': 'This comprehensive analysis examines the evolving cybersecurity landscape in Cameroon from 2020 to 2023, during which cyber-attacks increased by 156%.', 'date': '2025-02-27', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://digitalcommons.kennesaw.edu/cgi/viewcontent.cgi?article=1150&amp;context=jcerp', 'title': '[PDF] Integrating NIST and ISO Cybersecurity Audit and Risk Assessment ...', 'snippet': 'Abstract. This paper reviews cybersecurity laws and regulations in Cameroon, focusing on cybersecurity and information security audits and risk assessments.', 'date': None, 'last_updated': '2025-05-26', 'matched': True}, {'url': 'http://www.ist-africa.org/home/default.asp?page=doc-by-id&amp;docid=5182', 'title': 'Current ICT Initiatives and projects - Republic of Cameroon - IST-Africa', 'snippet': 'Information and Communication Technologies will be used as a powerful tool in safeguarding the sovereignty and territorial surveillance to improve population ...', 'date': '2010-12-21', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://carnegieendowment.org/research/2022/05/cameroons-fintech-start-ups-attitudes-toward-and-culture-of-cybersecurity?lang=en', 'title': "Cameroon's Fintech Start-ups' Attitudes Toward and Culture of ...", 'snippet': "Cameroon's 2010 law on cybersecurity and cyber crime generally governs how information systems throughout the country are secured, regardless of ...", 'date': '2022-05-19', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://wbgeprocure-rfxnow.worldbank.org/rfxnow/waffle/upload/advertisementAttachment/374082/file.html', 'title': '[PDF] Terms of Reference “Republic of Cameroon - WBGeProcure RFx Now', 'snippet': '(i) Help the GoC revise the National Cybersecurity Strategy and strengthen the capacity of key entities to prevent, mitigate, and respond to cyber incidents. ( ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://rsisinternational.org/journals/ijriss/articles/data-protection-laws-and-business-privacy-in-cameroon-the-politics-and-rhetorics-of-implementation/', 'title': 'Data Protection Laws and Business Privacy in Cameroon', 'snippet': 'This article therefore aims at analyzing the extent to which business data protection and confidentiality are guaranteed in the Cameroonian positive law.', 'date': '2025-04-08', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.globalcenter.ai/research/data-privacy-and-responsible-ai-adoption-in-cameroon', 'title': 'Research - Data Privacy and Responsible AI Adoption in Cameroon', 'snippet': 'Its objective is to create a new strategy and support the improvement of the policy and regulatory environment.', 'date': '2025-01-16', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.ictacam.org/overview-of-cybersecurity-regulations-in-cameroon/', 'title': 'Overview of Cybersecurity Regulations in Cameroon - ICTAC', 'snippet': 'In Cameroon, organizations are mandated to adhere to specific reporting obligations following a cybersecurity breach. These obligations are ...', 'date': '2024-11-27', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.diplomacy.edu/blog/multistakeholderism-and-internet-governance-cameroon/', 'title': 'Multistakeholderism and Internet governance in Cameroon - Diplo', 'snippet': 'The National Agency for Information and Communication Technologies (ANTIC) is in charge of the national cybersecurity framework and a CERT ( ...', 'date': '2018-02-22', 'last_updated': '2025-06-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the National Council of Science and Technology (CONACYT) in PARAGUAY responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research and Innovation in OMAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2474,27 +2480,28 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>National Council of Science and Technology (CONACYT) in PARAGUAY</t>
+          <t>Ministry of Higher Education, Scientific Research and Innovation in OMAN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>National Council of Science and Technology (CONACYT)</t>
+          <t>Ministry of Higher Education, Scientific Research and Innovation</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CONACYT in Paraguay is a government agency that promotes and funds scientific and technological research to advance the country's development. There is no evidence in national cybersecurity laws, strategies, or reports that CONACYT has any explicit responsibility for cybersecurity governance, policy, implementation, or coordination. Paraguay's Ministry of Information and Communication Technologies (MITIC) is consolidated as the national authority on cybersecurity, leading the formulation and execution of public policies and coordinating activities related to national cybersecurity, including hosting CERT-PY and developing the National Cybersecurity Strategy 2025-2028. CONACYT's role is focused on science and technology research promotion rather than cybersecurity operational or policy roles[1][5].</t>
+          <t>The Ministry of Higher Education, Scientific Research and Innovation in Oman is not explicitly mentioned in national cybersecurity strategies, laws, or reports as being responsible for cybersecurity policy, implementation, or technical coordination. The primary responsibility for cybersecurity in Oman lies with the Ministry of Transport, Communications and Information Technology (MTCIT), which oversees the National Cybersecurity Strategy, hosts the Oman National CERT (OCERT), and leads key cybersecurity initiatives such as the Hadatha Center for Cybersecurity Industry and the Cybersecurity Industry Monitoring Centre [1, 2, 3, 4, 5, 6].
+While the Ministry of Higher Education, Scientific Research and Innovation may support cybersecurity indirectly through education and research, such as by funding or facilitating academic programs and research groups in cybersecurity at universities (e.g., Middle East College, University of Technology and Applied Sciences, and GCET) [1, 2, 7], there is no evidence that it leads or is a member of a national cybersecurity committee, council, or working group, nor does it oversee information security standards or network protection. Its role is limited to supporting the development of human capital and research capacity in cybersecurity, rather than direct governance, prevention, planning, response, or enforcement [4, 7].</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2504,14 +2511,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.tedic.org/en/the-evolution-of-cybersecurity-in-paraguay-mitic-as-a-strategic-pillar/', 'title': 'The Evolution of Cybersecurity in Paraguay: MITIC as a Strategic Pillar', 'snippet': 'MITIC has been consolidated as the national authority on cybersecurity, leading the formulation and execution of public policies and coordinating actions with ...', 'date': '2025-06-24', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.occrp.org/en/news/paraguay-launches-cybersecurity-plan-on-the-heels-of-major-hacks', 'title': 'Paraguay Launches Cybersecurity Plan On the Heels of Major Hacks', 'snippet': 'Paraguay has launched a cybersecurity strategy the week after a criminal hacking group released citizenship data, because the government refused to pay a ...', 'date': '2025-06-20', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.southcom.mil/MEDIA/NEWS-ARTICLES/Article/3979394/us-strengthens-cybersecurity-partnership-with-paraguay/', 'title': 'U.S. Strengthens Cybersecurity Partnership with Paraguay', 'snippet': 'The government of Paraguay and the government of the United States of America will continue to work on strengthening their cybersecurity systems ...', 'date': '2024-11-26', 'last_updated': '2024-12-19', 'matched': True}, {'url': 'https://www.tedic.org/wp-content/uploads/2024/10/Cybersecurity-for-human-rights-defenders-WEB.pdf', 'title': '[PDF] CYBERSECURITY FOR HUMAN RIGHTS DEFENDERS IN ... - TEDIC', 'snippet': 'It is important to consider fundamental aspects of cybersecurity when addressing the issue from public policies on digital security, thus, considering ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://act.globalcyberalliance.org/index.php/National_Council_for_Scientific_and_Technological_Research_(CONACYT)_-_Paraguay', 'title': 'National Council for Scientific and Technological Research ...', 'snippet': "CONACYT is a government agency in Paraguay that promotes and funds scientific and technological research to advance the country's development.", 'date': '2024-02-28', 'last_updated': None, 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Paraguay.pdf', 'title': '[PDF] Paraguay | GHS Index', 'snippet': 'There is no evidence that Paraguay has regulations or licensing conditions that specify that security and other personnel with access to ...', 'date': '2021-12-14', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://oecd-opsi.org/wp-content/uploads/2022/03/lac-ai.pdf', 'title': '[PDF] The Strategic and Responsible Use of Artificial Intelligence in the ...', 'snippet': "• Paraguay's Information Security Governance Model12 designates an Information Security area in all government institutions, with relevant objectives, roles ...", 'date': None, 'last_updated': '2024-10-12', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Artificial-Intelligence-for-Social-Good-in-Latin-America-and-the-Caribbean-The-Regional-Landscape-and-12-Country-Snapshots.pdf', 'title': '[PDF] Artificial-Intelligence-for-Social-Good-in-Latin-America-and-the ...', 'snippet': "In terms of cybersecurity, the International Telecommunications Union's. 2018 Global Security Index gives Paraguay a score of 0.603 out of 1, placing it 5th ...", 'date': None, 'last_updated': '2025-03-18', 'matched': True}, {'url': 'https://digitalcommons.fiu.edu/srhreports/cybersecurity/policy/76/', 'title': '[Paraguay] National Cybersecurity Plan: Challenges, Roles and ...', 'snippet': 'Contains an action plan (Annex 1); Plan focused on seven objectives: Awareness raising; Research, development and innovation; Protection of critical ...', 'date': None, 'last_updated': '2025-09-22', 'matched': True}]</t>
+          <t>[{'url': 'https://www.mtcit.gov.om/media-4/news-announcements-11/news-85/ministry-of-transport-communications-and-information-technology-launches-hadatha-center-for-cybersecurity-industry-at-middle-east-college-777', 'title': 'Ministry of Transport, Communications and Information Technology ...', 'snippet': 'She emphasized that the Hadatha Center for Cybersecurity Industry aims to make the Sultanate of Oman a regional leader in innovation and ...', 'date': '2025-10-19', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://oxfordbusinessgroup.com/reports/oman/2025-report/ict/enhanced-connectivity-economic-diversification-drive-sees-efforts-to-expand-internet-access-boost-cybersecurity-and-integrate-new-technologies-overview/', 'title': "Economic diversification boosts Oman's cybersecurity", 'snippet': 'As of September 2024, 98% of households in Oman had internet access, solidifying its status as a centre for connectivity, innovation and cybersecurity.', 'date': '2025-06-03', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.kiteworks.com/cybersecurity-risk-management/oman-cybersecurity-unified-data-governance/', 'title': 'Cybersecurity Law Drives Unified Data Governance in Oman', 'snippet': "This article explores why Oman's cybersecurity strategy is driving demand for unified data governance, what common compliance gaps exist today.", 'date': '2025-04-18', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://ijaem.net/issue_dcp/Collaborative%20Approaches%20to%20Cybersecurity%20in%20the%20Financial%20Sector%20Enhancing%20Resilience%20through%20Public%20Private%20Partnerships%20in%20Oman.pdf', 'title': '[PDF] Enhancing Resilience through Public-Private Partnerships in Oman', 'snippet': 'Public-private partnerships (PPPs) enhance cybersecurity by fostering information sharing, improving threat intelligence, and developing ...', 'date': '2025-04-15', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://omannews.gov.om/topics/en/79/show/123121', 'title': 'Cybersecurity Centre “Hadatha” Opened - Oman News Agency', 'snippet': 'The centre seeks to promote research, innovation and development in the field of cybersecurity. It also aims to consolidate the educational environment.', 'date': None, 'last_updated': '2025-09-17', 'matched': True}, {'url': 'https://prod.mtcit.gov.om/ITAPortal/Data/English/DocLibrary/202382133148936/CYBERSECURITY_INDUSTRY_DEVELOPMENT_PROGRAM_En.pdf', 'title': '[PDF] CYBERSECURITY INDUSTRY DEVELOPMENT PROGRAM En', 'snippet': 'The governance of the implementation of the initiatives and projects of the Cybersecurity Industry Development Program is part of the governance of the National ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://gcet.edu.om/en/research-and-innovation/research/research-groups/cyber-security/', 'title': 'Cyber Security - GCET', 'snippet': 'Enhanced security measures for computer and network systems. Effective digital forensics methodologies. Improved strategies for teaching cybersecurity.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.moheri.gov.om/userupload/2025/MAR-91016-%20Oman%20Whitepaper%20v11.pdf', 'title': '[PDF] Oman Higher Education Report 2025:', 'snippet': 'We gather billions of data points from our global network of employers, academics and prospective students, providing.', 'date': '2025-06-19', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Sports &amp; Training in MARSHALL ISLANDS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Federal Ministry of Education, Science and Research (BMBWF) in AUSTRIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2519,27 +2526,27 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ministry of Education, Sports &amp; Training in MARSHALL ISLANDS</t>
+          <t>Federal Ministry of Education, Science and Research (BMBWF) in AUSTRIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ministry of Education, Sports &amp; Training</t>
+          <t>Federal Ministry of Education, Science and Research (BMBWF)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Sports &amp; Training in the Marshall Islands focuses on education technology integration, literacy, educational policy, and school accreditation but is not explicitly mentioned in any national strategy, law, or official report as responsible for cybersecurity policy, implementation, or technical coordination. It hosts the Information Communication Technology Office and Information Systems Office related to education data and IT services within the education sector, but the national responsibility for cybersecurity or incident response does not reside with this ministry. The Marshall Islands currently lacks a national Computer Incident Response Team (CIRT), and cybersecurity governance is underdeveloped, with no indication that the Ministry of Education, Sports &amp; Training leads or participates in national cybersecurity governance structures or enforcement. The Ministry of Transport and Communications is noted as responsible for communications regulation, impacting internet access, but no ministry is identified as holding high responsibility for cybersecurity. Therefore, the Ministry of Education, Sports &amp; Training does not hold cybersecurity governance responsibilities based on available data [1][2][4][7].</t>
+          <t>The Federal Ministry of Education, Science and Research (BMBWF) is not explicitly mentioned as a primary authority for national cybersecurity policy, technical coordination, or operational response in Austria. The main responsibility for cybersecurity policy and coordination lies with the Federal Chancellery (BKA), the Federal Ministry of the Interior (BMI), the Federal Ministry for European and International Affairs (BMEIA), and the Federal Ministry of Defence (BMLV) [1, 2, 7]. The BMBWF's role is focused on supporting universities, higher education institutions, research organizations, and research funding agencies under its responsibility, particularly in the context of research security and protecting against foreign interference [3]. The ministry is involved in establishing and coordinating information and networking structures for research security, but this is distinct from broader national cybersecurity governance, prevention, planning, response, or enforcement [3]. There is no evidence that the BMBWF hosts a national CERT/CSIRT, leads or is a member of a national cybersecurity committee, or oversees information security standards for the country as a whole [1, 2, 7].</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2549,14 +2556,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/oceania/marshall-islands/~technology', 'title': 'Marshall Islands | Technology - Education Profiles', 'snippet': 'However, in the Marshall Islands, there is neither a general data protection law nor any legislation governing cybersecurity. The 2014 Child ...', 'date': '2023-05-26', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-the-marshall-islands/', 'title': 'Cyber Security in the Marshall Islands - Blog | Gavin Dennis', 'snippet': 'This article looks at cyber security in the Marshall Islands. It covers the laws, incident response, market, government actions, and public awareness related ...', 'date': '2024-10-17', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://www.nationalcyberwatch.org/wp-content/uploads/2019/07/2019_NCC_Innovations_in_Cybersecurity_Education_Booklet_Web.pdf', 'title': '[PDF] Table of Contents - National CyberWatch Center', 'snippet': 'We implement a unique learning system, CLaaS, that incorporates competitions to provide comprehensive cybersecurity awareness education. The system includes ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://rmi-data.sprep.org/system/files/Marshall%20Islands%20National%20Strategic%20Plan%202020%20to%202030.pdf', 'title': '[PDF] Marshall Islands National Strategic Plan 2020 to 2030.pdf', 'snippet': 'Education and training are a shared responsibility that requires the collective and whole-hearted effort of ... Education, Sports and Training. No current plan.', 'date': None, 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.pacificislandtimes.com/post/us-to-establish-security-ties-between-marshall-islands-and-guam', 'title': 'US to establish security ties between Marshall Islands and Guam', 'snippet': '“These National Guard units will leverage their strength in cyber security, counternarcotics and maritime domain awareness to align U.S. Indo- ...', 'date': '2025-09-25', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.congress.gov/119/bills/s2296/BILLS-119s2296rs.htm', 'title': 'Untitled', 'snippet': '... Marshall Islands. Sec. 2843. Joint base facility management of Department of Defense. Sec. 2844. Limitation on use of amounts for travel based on compliance ...', 'date': '2025-07-15', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.rmiparliament.org/cms/library/public-laws-by-years/60-2025.html?download=876%3Apl-2025-27-cybersecurity-act-2025', 'title': '[PDF] Cybersecurity Act 2025 - Nitijela', 'snippet': 'AN ACT to create a new Chapter the Cybersecurity Act under Title 43 of MIRC establishing a legal framework to prioritize cybersecurity, identify and protect.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sam.gov/fal/439d75a790c342e8a9242e5f4668a44a/view', 'title': 'Assistance Listing - SAM.gov', 'snippet': "Objectives. The Office of Insular Affairs carries out the Secretary of the Interior's responsibilities for U.S.-affiliated insular areas.", 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.bundeskanzleramt.gv.at/en/topics/cybersecurity/national-cybersecurity-offices.html', 'title': 'National Cybersecurity Offices - Federal Chancellery of Austria', 'snippet': 'The Federal Chancellery coordinates national and international strategic cybersecurity issues and cooperates with national, European and international ...', 'date': None, 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3131441/Document-09.pdf', 'title': '[PDF] Austrian Cyber Security Strategy', 'snippet': 'Austria will play an active role in international cooperation at European and global level, particularly by exchanging information, formulating ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.bmb.gv.at/en/Topics/researchsecurity.html', 'title': 'Research Security', 'snippet': 'A particular emphasis of the BMBWF lies in establishing and coordinating dedicated information and networking structures. To ensure efficient and effective ...', 'date': '2024-05-23', 'last_updated': '2025-04-25', 'matched': True}, {'url': 'https://www.bundeskanzleramt.gv.at/en/topics/cybersecurity/activities-and-initiatives.html', 'title': 'Cybersecurity Activities and Initiatives - Federal Chancellery of Austria', 'snippet': 'It is the responsibility of the Federal Chancellery of Austria to manage the ZAS. In crisis situations, the ZAS should protect the ICT infrastructure ...', 'date': '2022-01-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.bmf.gv.at/en/topics/security-and-technology/Cybersecurity-Research-Kybernet-Pass-(K-PASS).html', 'title': 'Cybersecurity Research Kybernet-Pass (K-PASS)', 'snippet': 'Hence, the solution is to establish a research funding instrument in Austria that is completely dedicated to cybersecurity: Kybernet-Pass (K-PASS). By ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://informatics.tuwien.ac.at/news/2628', 'title': 'Opening of the TU Wien Cybersecurity Center (CySec)', 'snippet': 'On April 18, 2024, we inaugurated our Cybersecurity Center (CySec) with a high-profile event. A significant milestone in the field of cybersecurity.', 'date': '2024-04-23', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/at_2022/?allData=1', 'title': 'NCSI :: Austria - National Cyber Security Index', 'snippet': 'It is responsible for developing and coordinating all the measures laid down in the ÖSCS.', 'date': '2023-04-17', 'last_updated': '2025-05-12', 'matched': True}, {'url': 'https://www.bmfwf.gv.at/dam/jcr:2a7f3edd-0eeb-4110-a53c-c59346ae517b/ftb_2023_en.pdf', 'title': '[PDF] Austrian Research and Technology Report 2023', 'snippet': "The Austrian Research and Technology Report 2023 provides an overview of Austria's federally funded research, technology and innovation (RTI).", 'date': '2022-09-30', 'last_updated': None, 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/sites/default/files/2023-10/Artificial%20Intelligence%20Mission%20Austria%202030_AIM_AT_2030.pdf', 'title': '[PDF] Artificial Intelligence Strategy of the Austrian Federal Government', 'snippet': 'In addition to formal qualifications, it will demonstrate non-formally and informally acquired skills related to the Digital Competence Framework for Austria.', 'date': None, 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.bmimi.gv.at/dam/jcr:a4282ad6-95c8-48ad-959a-38d4bfe4ebc0/Austrian%20Research%20and%20Technology%20Report%202022_bf.pdf', 'title': '[PDF] Austrian Research an Technology Report 2022 - BMIMI', 'snippet': 'This report was commissioned by the Federal Ministry of Education, Science and Research (BMBWF), the. Federal Ministry for Climate Action, ...', 'date': '2021-07-13', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Digital Economy and Digital Transformation in TOGO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science, Technology and Vocational Training in TANZANIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2564,27 +2571,27 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ministry of Digital Economy and Digital Transformation in TOGO</t>
+          <t>Ministry of Education, Science, Technology and Vocational Training in TANZANIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ministry of Digital Economy and Digital Transformation</t>
+          <t>Ministry of Education, Science, Technology and Vocational Training</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>The Ministry of Digital Economy and Digital Transformation in Togo is explicitly responsible for cybersecurity policy, implementation, and technical coordination. The Cybersecurity Act adopted in December 2018, which is part of the sectoral policy for the digital economy, was implemented under the authority of this ministry, with the Minister of Digital Economy and Digital Transformation, Cina Lawson, publicly stating its role in establishing a reliable and secure digital ecosystem[1]. The ministry is responsible for the creation and operation of key cybersecurity institutions, including the National Agency for Cybersecurity (ANCy/NACSA), the Computer Emergency Response Team (CERT.tg), and the Security Operations Center (SOC), which are the operational arms for national cybersecurity[1][2][4]. The ministry also leads and coordinates cybersecurity workforce development programs, such as the certification training for 250 professionals, in partnership with national and international agencies[3][7]. Furthermore, the ministry participates in regional and international cybersecurity initiatives, including the establishment of the African Center for Coordination and Research in Cybersecurity in Lomé, and collaborates with organizations such as the United Nations Economic Commission for Africa and Asseco Data Systems[2][5]. These activities demonstrate that the ministry is the central authority for cybersecurity governance, prevention, planning, response, and enforcement in Togo.</t>
+          <t>The Ministry of Education, Science, Technology and Vocational Training in Tanzania plays a role in promoting cybersecurity awareness and education, as evidenced by its inclusion in the National Digital Education Strategy 2024/25–2029/30, which prioritizes increasing awareness of cybersecurity threats and risks in educational institutions[4]. However, Tanzania's national cybersecurity policy, government cybersecurity strategy, and primary cybersecurity operational responsibilities reside mainly with other entities. The Government Cyber Security Strategy 2022–2027 assigns the mandate for cybersecurity policy, coordination, and technical guidelines primarily to the President's Office, Public Service Management and Good Governance (PO PSMGG) and the e-Government Authority (e-GA)[1]. Additionally, the Tanzania Computer Emergency Response Team (TZ-CERT) plays a pivotal role in cybersecurity incident coordination and response[2]. There is no explicit mention of the Ministry of Education as hosting national CERT/CSIRT, leading cybersecurity committees, enforcing cybersecurity standards, or directing national cybersecurity strategy. Therefore, while the Ministry contributes via educational initiatives to promote cyber awareness, it is not primarily responsible for cybersecurity governance or enforcement in Tanzania.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2594,14 +2601,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[{'url': 'https://smartafrica.org/togo-adopts-a-legal-and-institutional-arsenal-to-secure-its-cybernetic-environment/', 'title': 'Togo adopts a legal and institutional arsenal to secure its cybernetic ...', 'snippet': 'This is not only to clean up and secure this cybernetic environment, guaranteeing its peaceful use by the citizen, but also ensure transparency and traceability ...', 'date': '2019-02-19', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://asseco.com/en/news/new-milestone-achieved-on-cybersecurity-partnership-between-togo-and-asseco-4244/', 'title': 'New milestone achieved on cybersecurity partnership between ...', 'snippet': "The unit is responsible for the security of the country's critical infrastructure, as well as 24/7 monitoring of cyber crime threats.", 'date': '2021-02-11', 'last_updated': '2025-07-23', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/2908-48281-togo-launches-program-to-build-a-cybersecurity-workforce', 'title': 'Togo Launches Program to Build a Cybersecurity Workforce', 'snippet': '"The goal is to equip these Togolese professionals with the skills needed to anticipate, detect, and respond effectively to digital threats.".', 'date': '2025-08-29', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://numerique.gouv.tg/wp-content/uploads/files/2018/12%20-%20D%C3%A9cembre/Togo-digital-economy-in-action.pdf', 'title': '[PDF] TOGO: DIGITAL ECONOMY IN ACTION', 'snippet': 'The Cybersecurity Act provides for the establishment of the National Cyber Security Agency (NACSA), which is responsible for the effective ...', 'date': '2018-12-01', 'last_updated': '2024-08-05', 'matched': True}, {'url': 'https://www.uneca.org/stories/republic-of-togo-and-the-united-nations-economic-commission-for-africa-sign-a-memorandum-of', 'title': 'Republic of Togo and the United Nations Economic Commission for ...', 'snippet': 'The Ministry of Digital Economy and Transformation of Togo defines and coordinates the implementation of state policy in postal affairs and the ...', 'date': '2022-08-16', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/61714f214ed04bcd6e9623ad0e215897-0400012021/related/Togo-Digital-Economy-Diagnostic-Report.pdf', 'title': '[PDF] Togo Digital Economy Diagnostic Report - The World Bank', 'snippet': 'Axis 1: Developing national and international infrastructure;. • Axis 2: Promoting the dissemination of information and communication technology (ICT) in the.', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://techafricanews.com/2025/09/02/togo-launches-cybersecurity-training-for-250-professionals-to-strengthen-digital-resilience/', 'title': 'Togo Launches Cybersecurity Training for 250 Professionals to ...', 'snippet': 'The objective is to equip these Togolese professionals with the necessary skills to anticipate, detect and respond effectively to digital ...', 'date': '2025-09-02', 'last_updated': None, 'matched': True}, {'url': 'https://govinsider.asia/intl-en/article/cina-lawson-minister-of-digital-economy-and-transformation-togo', 'title': 'Cina Lawson, Minister of Digital Economy and Transformation, Togo', 'snippet': 'In doing so, we will provide every citizen with a secure digital identity leveraging cutting-edge technologies such as MOSIP (Modular Open ...', 'date': '2024-12-12', 'last_updated': '2025-11-01', 'matched': True}]</t>
+          <t>[{'url': 'https://www.utumishi.go.tz/uploads/documents/sw-1688121496-TANZANIA%20GOVERNMENT%20CYBERSECURITY%20STRATEGY%202022.pdf', 'title': '[PDF] Government Cyber Security Strategy 2022–2027 - Utumishi', 'snippet': 'The Government Cyber Security Strategy sets out how the Tanzanian Government will establish itself as a democratic and responsible cyber resilient Government ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.cyberswahili.co.tz/2024/07/cybersecurity-in-tanzania.html', 'title': 'Cybersecurity in Tanzania - Cyber Swahili', 'snippet': 'TZ-CERT plays a pivotal role in coordinating cybersecurity efforts, providing timely alerts, and fostering collaboration between public and ...', 'date': '2024-07-04', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://files.eric.ed.gov/fulltext/EJ1449735.pdf', 'title': '[PDF] Promoting Cyber Ethics Compliance among Teachers in Tanzania', 'snippet': 'Other ways to promote compliance included providing teachers with counselling and mentoring support, establishing a clear and secure system of reporting cyber ...', 'date': None, 'last_updated': '2025-09-13', 'matched': True}, {'url': 'http://www.moe.go.tz/sites/default/files/DIGITAL%20NATIONAL%20STRATEGY%202025_0.pdf', 'title': '[PDF] NATIONAL DIGITAL EDUCATION STRATEGY, 2024/25 - 2029/30', 'snippet': 'Against this background, educational institutions should prioritize increasing awareness of cyber security threats, associated risks, and ...', 'date': '2025-01-30', 'last_updated': None, 'matched': True}, {'url': 'https://allafrica.com/stories/202309110455.html', 'title': 'Tanzania: Expert Calls for Sustainable Education On Cybercrimes', 'snippet': 'The general objective of the cyber security policy is to make the country safe on the cyber space, by taking care of different aspects, ...', 'date': '2023-09-11', 'last_updated': '2025-04-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Technology of El Salvador in EL SALVADOR responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science, and Technology (Kementerian Pendidikan, Kebudayaan, Riset, dan Teknologi / Kemendiktisaintek) in INDONESIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2609,17 +2616,17 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology of El Salvador in EL SALVADOR</t>
+          <t>Ministry of Higher Education, Science, and Technology (Kementerian Pendidikan, Kebudayaan, Riset, dan Teknologi / Kemendiktisaintek) in INDONESIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology of El Salvador</t>
+          <t>Ministry of Higher Education, Science, and Technology (Kementerian Pendidikan, Kebudayaan, Riset, dan Teknologi / Kemendiktisaintek)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2629,7 +2636,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Technology (MINEDUCYT) of El Salvador participates in educational campaigns and national strategies related to cybersecurity awareness and cybercrime prevention, such as the national campaign on cybercrime prevention in schools and the promotion of digital literacy and safe internet use[2]. However, the Ministry is not mentioned as a primary or coordinating entity responsible for cybersecurity policy, implementation, or technical coordination. The national Cybersecurity and Information Security Law establishes a dedicated State Cybersecurity Agency (ACE) as the main coordinating and enforcing body for cybersecurity in El Salvador, and the Ministry of Justice and Public Security is recognized as the primary national agency responsible for cybersecurity matters[3][4][8]. Thus, the Ministry's role is supportive and educational rather than authoritative in national cybersecurity governance and enforcement.</t>
+          <t>The Ministry of Higher Education, Science, and Technology in Indonesia is primarily responsible for policies and programs related to higher education, science, and technology, as stated by Ministry regulations and organizational structure[2][5]. There is no explicit mention of the ministry holding responsibilities for national cybersecurity policy, coordination, technical implementation, or enforcement. Cybersecurity initiatives and national strategy coordination are chiefly managed by other agencies, such as the National Cyber and Crypto Agency (BSSN) and the Ministry of Communication and Informatics (Kominfo)[1][3][7]. The ministry does contribute indirectly to cybersecurity by fostering scientific talent and technology growth, and through higher education institutions improving cybersecurity awareness and readiness[4], but it does not appear to hold formal cybersecurity governance or operational roles. Thus, its responsibility level for cybersecurity is assessed as LOW.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2639,14 +2646,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/market-intelligence/el-salvador-new-cybersecurity-policy', 'title': 'El Salvador New Cybersecurity Policy', 'snippet': 'On May 13, 2022 the government of El Salvador published Executive Order Number 163, establishing guidelines to prevent and manage cybersecurity risk.', 'date': '2022-05-31', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.unodc.org/dohadeclaration/en/news/2018/10/e4j-materials_-an-integral-part-of-el-salvadors-national-school-campaign-on-cybercrime-prevention.html', 'title': "E4J materials: an integral part of El Salvador's national school ...", 'snippet': 'The campaign aims to inform and prevent the main cybercrimes that affect children, and to emphasize the importance of preserving privacy and safety on the ...', 'date': '2018-10-02', 'last_updated': '2025-02-04', 'matched': True}, {'url': 'https://garciabodan.com/en/el-salvadors-legislative-assembly-approves-cybersecurity-law/', 'title': "El Salvador's Legislative Assembly Approves Cybersecurity Law", 'snippet': 'Issuing regulations, protocols, and technical standards based on international best practices in cybersecurity, aligned with national policy.', 'date': '2024-12-26', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/el-salvador-ict-cybersecurity-and-information-security-law', 'title': 'El Salvador ICT Cybersecurity and Information Security Law', 'snippet': 'The ACE is responsible for enforcing data protection regulations and drafting policies and guidelines for data management. The passage of these ...', 'date': '2025-01-24', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://fusades.org/publicaciones/Path_Digital_Transf_2023.pdf', 'title': '[PDF] The Path Towards Inclusive Digital Transformation in El Salvador', 'snippet': "This report, titled 'The Path Towards Inclusive Digital Transformation in El Salvador', was prepared by FUSADES and supported by CIPE, with the ...", 'date': '2023-11-27', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.safetolearncoalition.org/media/1716/file/El%20Salvador%20-%20Safe%20to%20Learn%20Progress%202019-2023.pdf', 'title': '[PDF] Safe to Learn Progress 2019-2023 – EL SALVADOR', 'snippet': 'Even though the legal framework has experienced a renewal, child protection policies include the roles and responsibilities of MINEDUCYT which continue to be ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://sv.usembassy.gov/educational-innovation-project-launched-for-the-benefit-of-300-public-schools/', 'title': 'Educational Innovation Project Launched for the benefit of 300 ...', 'snippet': 'The Educational Innovation Project will focus on 300 public schools at the Basic Education level in Santa Ana, San Salvador and San Miguel.', 'date': '2023-03-01', 'last_updated': '2025-05-30', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': "El Salvador. 30%. 30%. El Salvador's Ministry of Justice and Public Security is the primary national agency responsible for cybersecurity matters. It is ...", 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://www.gtai.de/resource/blob/1843388/8b7d87265f1b7b1e1a607e7b4a3b92c8/PRO202411281843378%20-%20Annex%201.PDF', 'title': '[PDF] Promoting Cybersecurity and youth employment in El Salvador', 'snippet': 'Cybersecurity functions: The National Institute of Standards and Technology (NIST) defines the five functions of IT security as identifying ...', 'date': '2024-11-28', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.ey.com/en_gl/technical/tax-alerts/el-salvador-s-bill-for-the-promotion-of-innovation-and-technolog', 'title': "El Salvador's Bill for the Promotion of Innovation and Technological ...", 'snippet': 'The Bill would provide tax benefits for individuals and legal entities, national or foreign, that invest in certain innovation projects or technological ...', 'date': '2023-04-18', 'last_updated': '2025-11-11', 'matched': True}]</t>
+          <t>[{'url': 'https://www.eccouncil.org/ec-council-in-news/ec-council-collaborates-with-indonesias-ministry-of-communication-and-informatics-to-facilitate-cybersecurity-training/', 'title': "Indonesia's Ministry of Communication &amp; Informatics to Facilitate ...", 'snippet': 'The collaboration of the Ministry of Communication and Informatics and EC-Council will facilitate cybersecurity training to reduce the digital talent drought in ...', 'date': '2023-08-21', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://ippin.org/ministry-of-higher-education-science-and-technology/', 'title': 'Ministry of Higher Education, Science, and Technology', 'snippet': 'The Ministry of Higher Education, Science, and Technology (MoHEST) is responsible for developing and executing policies and programs across higher education ...', 'date': '2025-09-30', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://moderndiplomacy.eu/2024/08/21/indonesian-cyber-defense-lessons-challenges-and-the-path-forward-for-a-military-cyber-force/', 'title': 'Indonesian Cyber Defense: Lessons, Challenges, and the Path ...', 'snippet': 'Indonesia already has several bodies responsible for cybersecurity, such as the National Cyber and Crypto Agency (BSSN), the Ministry of ...', 'date': '2024-08-21', 'last_updated': '2025-07-31', 'matched': True}, {'url': 'http://www.icicel.org/ell/contents/2023/10/el-17-10-10.pdf', 'title': '[PDF] ASSESSING CYBERSECURITY READINESS AMONG HIGHER ...', 'snippet': 'The results of this study will have implications for increasing knowledge of cybersecurity and to facilitate the imple- mentation of electronic system security ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Ministry_of_Higher_Education,_Science,_and_Technology_(Indonesia)', 'title': 'Ministry of Higher Education, Science, and Technology (Indonesia)', 'snippet': 'The Ministry of Higher Education, Science, and Technology is a ministry tasked with organizing and implementing policies in Higher Education, Science, and ...', 'date': '2024-10-28', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://en.vietnamplus.vn/indonesia-emphasises-supportive-role-of-ai-in-education-post322639.vnp', 'title': 'Indonesia emphasises supportive role of AI in education', 'snippet': 'Indonesia will establish the National Cyber and Artificial Intelligence (AI) Task Force to strengthen national digital resilience and uphold ...', 'date': '2025-07-13', 'last_updated': '2025-07-13', 'matched': True}, {'url': 'https://www.econstor.eu/bitstream/10419/249442/1/CIPS-PB09.pdf', 'title': '[PDF] Cybersecurity Protection in Indonesia - EconStor', 'snippet': 'The Cybersecurity Bill mandated BSSN to coordinate efforts for developing a cybersecurity strategy by collaborating with other government institutions, such as ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sgu.ac.id/uu-pdp-2022-indonesia-cybersecurity-readiness-2025/', 'title': "From Policy to Practice: How Indonesia's UU PDP 2022 Shapes ...", 'snippet': "Indonesia's Cybersecurity Threat Landscape. Indonesia records one of the highest rates of cyber incidents in Southeast Asia. Data breaches and ...", 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://opengovasia.com/indonesia-harnesses-ai-to-transform-higher-education/', 'title': 'Indonesia Harnesses AI to Transform Higher Education', 'snippet': 'The government emphasises ethical adoption, focusing on protecting human rights, minimising algorithmic bias and ensuring sustainable practices.', 'date': '2025-09-26', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science, Research and Sport of the Slovak Republic in SLOVAKIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Civil Affairs of Bosnia and Herzegovina in BOSNIA AND HERZEGOVINA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2654,27 +2661,27 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science, Research and Sport of the Slovak Republic in SLOVAKIA</t>
+          <t>Ministry of Civil Affairs of Bosnia and Herzegovina in BOSNIA AND HERZEGOVINA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science, Research and Sport of the Slovak Republic</t>
+          <t>Ministry of Civil Affairs of Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science, Research and Sport of the Slovak Republic is explicitly named among key stakeholders in Slovakia's National Cybersecurity Strategy 2021-2025 coordinating cybersecurity efforts[1]. The Ministry is responsible for the development of cybersecurity education, awareness raising, and integration of cybersecurity concepts into the educational system at all levels[2][4][8]. It funds and carries out public education projects and works on increasing digital skills and cyber hygiene awareness[2][6]. However, it does not hold primary responsibility for national cybersecurity policy, technical coordination, or incident response management, which are managed by other entities such as the National Security Authority, Ministry of Finance, and Government Office[1][3][4][6]. Therefore, its role in cybersecurity is focused on education and awareness rather than operational or enforcement duties, indicating a low level of direct cybersecurity responsibility.</t>
+          <t>There is no evidence that the Ministry of Civil Affairs of Bosnia and Herzegovina is explicitly responsible for cybersecurity in the country. National cybersecurity efforts focus on establishing a national strategy and Cyber Emergency Response Teams coordinated by other authorities. The governance of cybersecurity involves multiple institutions across Bosnia and Herzegovina's complex government structure, but the Ministry of Civil Affairs is not identified as leading or managing national cybersecurity policy, implementation, technical coordination, or hosting of CERT/CSIRT. Instead, existing cybersecurity frameworks and strategies are developed through multi-institutional coordination, with other ministries such as Defense having cybersecurity roles, but the Ministry of Civil Affairs is not documented as a cybersecurity responsible entity in the sources consulted[1][2][3][4][7].</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2684,14 +2691,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[{'url': 'https://digital-skills-jobs.europa.eu/en/actions/national-initiatives/national-strategies/slovakia-national-cybersecurity-strategy-2021-2025', 'title': 'Slovakia - National Cybersecurity Strategy 2021-2025', 'snippet': 'The National Cybersecurity Strategy 2021-2025 is adopted by the Government of the Slovak Republic on 7 January 2021 by Resolution No 5/2021.', 'date': '2023-08-15', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/slovakia/~technology', 'title': 'Slovakia | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science, Research and Sports of the Slovak Republic is the national authority for the field of education. ... This ...', 'date': '2025-01-14', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/CS_organisation_SLOVAKIA_042015.pdf', 'title': '[PDF] National Cyber Security Organisation: Slovakia - CCDCOE', 'snippet': 'The study outlines the division of cyber security tasks and responsibilities between different agencies, describes their mandate, tasks and competence, as well ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3512475/Document-07-Slovak-Republic-Cyber-Security.pdf', 'title': '[PDF] Cyber Security Concept of the Slovak Republic for 2015 - 2020', 'snippet': 'Support, development and implementation of an education system in the area of cyber security. Sponsor: Ministry of Education, Science, Research and Sport. Tasks ...', 'date': None, 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/Slovakia_National_Cybersecurity_Strategy-2021-2025_2021_English.pdf', 'title': '[PDF] National Cybersecurity Strategy 2021 -2025 - CCDCOE', 'snippet': 'The document names the principles on which the strategy of the Slovak Republic is based, identifies cyberspace threats and clearly defines the objectives or ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3227343/Document-09-Lea-Hricikova-and-Kadri-Kaska-NATO.pdf', 'title': '[PDF] National Cyber Security Organisation: Slovakia', 'snippet': 'The study outlines the division of cyber security tasks and responsibilities between different agencies, describes their mandate, tasks and competence, as well ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.potomacinstitute.org/images/CRI/CRI_Slovakia_Profile-Digital.pdf', 'title': '[PDF] SLOVAK REPUBLIC - Potomac Institute for Policy Studies', 'snippet': 'The documents delineated the roles and responsibilities of the different entities involved in national cyber security and articulated strategic and operational.', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://cyberwiser.eu/slovakia-sk', 'title': 'Slovakia (SK) - CYBERWISER.eu', 'snippet': 'Under the Action Plan, the Ministry of Education is responsible for an innovative education system on cybersecurity at primary and secondary school levels as ...', 'date': '2021-01-01', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.nbu.gov.sk/data/att/3432.pdf', 'title': '[PDF] REPORT ON CYBER SECURITY', 'snippet': 'The report on cyber security in the Slovak Republic in 2022 illustrates the current situation in this area from a global and national perspective. It focuses ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.scribd.com/document/460050840/Action-Plan-for-the-Implementation-of-the-Cyber-Security-Concept-of-the-Slovak-Republic-for-2015-2020-3', 'title': 'Action Plan For The Implementation of The Cyber Security Concept ...', 'snippet': "The document outlines an action plan for implementing Slovakia's Cyber Security Concept for 2015-2020. It establishes 7 strategic areas for strengthening ...", 'date': None, 'last_updated': '2023-11-15', 'matched': True}]</t>
+          <t>[{'url': 'https://cybilportal.org/projects/63006/', 'title': 'Strengthening Cybersecurity Capacities in Bosnia and Herzegovina', 'snippet': "Bosnia and Herzegovina's stated goal is to adopt a national cybersecurity strategy and to establish a national Cyber Emergency Response Teams, not least to ...", 'date': '2023-03-15', 'last_updated': '2025-07-11', 'matched': True}, {'url': 'https://www.osce.org/files/f/documents/1/a/438383.pdf', 'title': '[PDF] Guidelines for a strategic Cybersecurity Framework in Bosnia and ...', 'snippet': 'This Strategic Framework has applied the positive experiences and best practices of countries that have already adopted and implemented National Cyber Security ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://info.undp.org/docs/pdc/Documents/BIH/Project%20Document%20-%20Stenghtening%20Cybersecurity%20in%20BiH%20Final.pdf', 'title': '[PDF] Strengthening Cybersecurity Capacities in Bosnia and Herzegovina', 'snippet': 'Bosnia and Herzegovina lacks a comprehensive legislative and strategic framework on cybersecurity, including ... national strategy on the security of networks and ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://cess.org/2025/06/19/cybersecurity-in-bosnia-and-herzegovina-everyones-problem-no-ones-responsibility/', 'title': 'Volten Brief #12 &gt; Cybersecurity in Bosnia and Herzegovina', 'snippet': 'Bosnia and Herzegovina lacks a national cybersecurity strategy and a national CERT, rendering its institutions, critical infrastructure, and ...', 'date': '2025-06-19', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ba/', 'title': 'NCSI :: Bosnia and Herzegovina - National Cyber Security Index', 'snippet': 'The central government has established a national-level cybersecurity strategy defining strategic cybersecurity objectives and measures to improve ...', 'date': '2025-04-30', 'last_updated': '2025-05-10', 'matched': True}, {'url': 'https://eucyberdirect.eu/atlas/country/bosnia-and-herzegovina', 'title': 'Bosnia and Herzegovina - EU Cyber Direct', 'snippet': "As a potential EU candidate country, Bosnia has recently developed a burgeoning drive to advance the country's digital and cyber capabilities.", 'date': '2021-09-01', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/NationalCybersecurityStrategiesWB_2021.pdf', 'title': '[PDF] National Cybersecurity Strategies in Western Balkan Economies', 'snippet': 'An overarching cybersecurity framework in Bosnia and Herzegovina is still under devel- opment. ... National Cybersecurity Strategy and Action Plan 2016-2019 (2015).', 'date': None, 'last_updated': '2023-11-28', 'matched': True}, {'url': 'https://knowcyber.eu/cybersecurity-in-bosnia-and-herzegovina/', 'title': 'Cybersecurity in Bosnia and Herzegovina - KnowCyber', 'snippet': 'Bosnia and Herzegovina demonstrates a higher level of responsive cybersecurity, followed by a decreasing emphasis on strategic and preventive ...', 'date': '2025-05-08', 'last_updated': '2025-07-01', 'matched': True}, {'url': 'https://2021-2025.state.gov/wp-content/uploads/2024/03/ICS_EUR_Bosnia-and-Herzegovina_27FEB2024_PUBLIC.pdf', 'title': '[PDF] Integrated Country Strategy (ICS) - Bosnia and Herzegovina', 'snippet': 'If BiH does not strengthen its disaster management and cyber security response capabilities, its already weak institutions will fail to react to.', 'date': '2024-02-27', 'last_updated': '2025-06-02', 'matched': True}, {'url': 'http://www.msb.gov.ba/PDF/310320234.pdf', 'title': '[PDF] STRATEGY OF BOSNIA AND HERZEGOVINA FOR PREVENTION ...', 'snippet': 'Peace and Security" (2018-2022);. • Guidelines for the strategic framework of cyber security in Bosnia and Herzegovina. The strategic measures and activities ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Information, Communications and Technology (MICT) in ESWATINI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Office of Science and Technology Policy in UNITED STATES responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2699,17 +2706,17 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ministry of Information, Communications and Technology (MICT) in ESWATINI</t>
+          <t>Office of Science and Technology Policy in UNITED STATES</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ministry of Information, Communications and Technology (MICT)</t>
+          <t>Office of Science and Technology Policy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>UNITED STATES</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2719,9 +2726,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>The Ministry of Information, Communications and Technology (MICT) in Eswatini is explicitly responsible for cybersecurity policy, implementation, and coordination. The Eswatini National Cybersecurity Strategy 2022-2027 states that the Ministry of ICT will continue to develop policies and implement key initiatives such as cybersecurity awareness raising, hosting of the Internet Governance Forum, and strengthening the country code Top Level Domain to fulfill the country’s cybersecurity agenda [1]. The strategy also articulates the creation of sectoral Cybersecurity Incident Response Teams (CIRTs) and commits government, public institutions, the private sector, and all stakeholders to put in place systems and mechanisms to deal with cyber threats, with the Ministry of ICT leading these efforts [1].
-The Ministry is also mentioned in the context of hosting and coordinating cybersecurity events, workshops, and capacity building meetings with the private sector, emphasizing collaboration and the shared responsibility of cybersecurity [3]. The Ministry’s portfolio responsibilities include providing policy guidelines and coordinating key information and media development processes within government, which encompasses cybersecurity [4].
-Furthermore, the Ministry works in partnership with the Eswatini Communications Commission (ESCCOM), which is tasked with overseeing ICT-related laws and regulations, including those related to cybersecurity [7]. The Ministry’s leadership and active participation in national cybersecurity initiatives, policy development, and coordination with both public and private stakeholders confirm its high level of responsibility for cybersecurity in Eswatini [1][3][4][7].</t>
+          <t>The Office of Science and Technology Policy (OSTP) is explicitly responsible for cybersecurity policy and coordination in the United States. OSTP leads interagency science and technology policy coordination efforts, including cybersecurity, and assists the Office of Management and Budget with annual reviews and analysis of federal research and development budgets related to cybersecurity[2][3]. OSTP issued a memorandum in July 2024 mandating stricter cybersecurity requirements for research and development institutions, requiring those receiving over $50 million per year in federal science and engineering support to certify their research security programs, which include cybersecurity elements[1][4]. OSTP also leads the National Science and Technology Council (NSTC), which coordinates science and technology policymaking across the executive branch, including cybersecurity priorities and strategies[2][3]. OSTP's responsibilities include developing and executing the nation's science and technology policy agenda, which encompasses critical and emerging technologies such as cybersecurity, and ensuring these policies advance national security and economic competitiveness[2][3]. OSTP's role is further confirmed in federal cybersecurity research and development strategic plans, where it is tasked with coordinating and guiding federally funded R&amp;D in cybersecurity, including the development of consensus-based standards and best practices[3].</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2731,14 +2736,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.esccom.org.sz/publications/reports/docs/Eswatini_National_Cybersecurity_Strategy_2022-2027.pdf', 'title': '[PDF] ESWATINI NATIONAL CYBERSECURITY STRATEGY 2022 - 2027', 'snippet': 'The. Ministry of ICT will continue to develop policies, and implement key initiatives such as. Cybersecurity awareness raising, hosting of the Internet ...', 'date': None, 'last_updated': '2024-02-05', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Eswatini%20NCS%202020.pdf', 'title': '[PDF] Eswatini National Cybersecurity Strategy (NCS) 2025 - ITU', 'snippet': 'In addition, such a framework will ensure that Eswatini has the ability to respond to cyber threats, and protect CIIs and ICT services in the country. National ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=7-V8PsiYOb0', 'title': "Strengthening Eswatini's cybersecurity requires more than just ...", 'snippet': "The Ministry of Information, Communications, and Technology says strengthening Eswatini's cybersecurity requires more than just government ...", 'date': '2025-08-07', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.gov.sz/index.php/ministries-departments/ministry-of-ict', 'title': 'Ministry of ICT - Eswatini Government', 'snippet': 'PORTFOLIO RESPONSIBILITIES. To provide efficient and cost effective Information &amp; Communications Technology services;; Provide policy guidelines and coordinate ...', 'date': '2023-12-01', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://techafricanews.com/2025/10/07/eswatini-launches-cybersecurity-awareness-month-to-strengthen-national-digital-safety/', 'title': 'Eswatini Launches Cybersecurity Awareness Month to Strengthen ...', 'snippet': "The initiative highlights cybersecurity as a shared national responsibility that underpins Eswatini's security, economic resilience, and social", 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://www.bis.org/review/r251007s.htm', 'title': "Phil Mnisi: Eswatini's Cybersecurity Awareness Month", 'snippet': 'In line with the requirements of the National Cybersecurity Strategy, we are also envisaging the establishment of a Financial Sector Cyber ...', 'date': '2025-10-13', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.apc.org/en/news/risk-human-rights-infringement-eswatini-rushes-regulate-ict-sector', 'title': 'Risk of human rights infringement as Eswatini rushes to regulate the ...', 'snippet': 'The Kingdom of Eswatini has been striving to catch up with its Southern African counterparts in information and communication technology (ICT) development.', 'date': '2024-07-22', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://business-eswatini.co.sz/minister-of-ict-engages-private-sector-to-drive-digital-transformation-in-eswatini/', 'title': 'Minister of ICT Engages Private Sector to Drive Digital ...', 'snippet': "The Minister emphasized the critical role of the private sector in driving Eswatini's digital transformation, calling for collaboration to commercialize ...", 'date': '2025-03-08', 'last_updated': '2025-03-21', 'matched': True}, {'url': 'https://www.esccom.org.sz/publications/reports/docs/ICT_REPORT_2022.pdf', 'title': '[PDF] Information and Communication Technology Sector Report 2022', 'snippet': 'The country is further working on the. National Cybersecurity Strategy, which is aimed at availing a safe, secure and resilient Cyberspace in Eswatini.', 'date': None, 'last_updated': '2025-11-11', 'matched': True}]</t>
+          <t>[{'url': 'https://www.ibm.com/think/news/white-house-mandates-stricter-cybersecurity-for-research-and-development', 'title': 'White House mandates stricter cybersecurity for R&amp;D institutions - IBM', 'snippet': 'A recent memo from the Office of Science and Technology Policy heralds big changes in cybersecurity policy impacting research and development.', 'date': '2024-07-22', 'last_updated': '2025-04-28', 'matched': True}, {'url': 'https://www.whitehouse.gov/ostp/', 'title': 'Office of Science and Technology Policy - The White House', 'snippet': "The OSTP Director oversees the development and execution of the nation's science and technology policy agenda, leading White House efforts in critical and ...", 'date': '2025-04-08', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://bidenwhitehouse.archives.gov/wp-content/uploads/2024/01/Federal-Cybersecurity-RD-Strategic-Plan-2023.pdf', 'title': '[PDF] FEDERALCYBERSECURITY RESEARCHAND DEVELOPMENT ...', 'snippet': 'OSTP leads interagency science and technology policy coordination efforts, assists the Office of Management and Budget with an annual review and analysis of ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.dni.gov/index.php/safeguarding-science/research-security', 'title': 'Research Security - DNI.gov', 'snippet': 'Research security is defined as safeguarding the research enterprise against the misappropriation of research and development.', 'date': '2022-01-01', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.nist.gov/itl/executive-order-14028-improving-nations-cybersecurity', 'title': "Executive Order 14028, Improving the Nation's Cybersecurity | NIST", 'snippet': 'The EO also assigns NIST to work on two labeling efforts related to consumer Internet of Things (IoT) devices and consumer software with the goal of encouraging ...', 'date': '2022-07-11', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.congress.gov/crs-product/R47410', 'title': 'The Office of Science and Technology Policy (OSTP) - Congress.gov', 'snippet': 'OSTP is statutorily charged with advising the President on S&amp;T matters; coordinating the implementation of S&amp;T priorities across the federal government.', 'date': '2023-02-07', 'last_updated': '2025-07-04', 'matched': True}, {'url': 'https://www.gsa.gov/technology/government-it-initiatives/cybersecurity/cybersecurity-programs-and-policy', 'title': 'Cybersecurity programs and policy - GSA', 'snippet': "We manage many IT security programs, and help agencies implement IT policy that enhances the safety and resiliency of the government's systems and networks.", 'date': '2025-01-23', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://2021-2025.state.gov/united-states-international-cyberspace-and-digital-policy-strategy/', 'title': 'United States International Cyberspace &amp; Digital Policy Strategy', 'snippet': 'We have prioritized building capacity and expertise in cyber, digital, and emerging technology issues as part of our broader efforts to modernize diplomacy.', 'date': '2024-12-30', 'last_updated': '2025-06-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research and Innovation in OMAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Culture (Ministerio de Educación y Cultura) of Uruguay in URUGUAY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2746,17 +2751,17 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Innovation in OMAN</t>
+          <t>Ministry of Education and Culture (Ministerio de Educación y Cultura) of Uruguay in URUGUAY</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Innovation</t>
+          <t>Ministry of Education and Culture</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2766,7 +2771,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Available information shows that the Ministry of Higher Education, Scientific Research and Innovation in Oman is involved in fostering cybersecurity research, innovation, education, and capacity building through initiatives like the Hadatha Cyber Security Center at Sultan Qaboos University and collaboration with national CERTs. However, the primary national cybersecurity governance, policy, enforcement, and incident response responsibilities are held by the Ministry of Transport, Communications and Information Technology (MTCIT) and the Oman National CERT under it, which lead national cybersecurity strategies, legislative frameworks, coordination, and implementation. The Ministry of Higher Education mainly supports cybersecurity through academic research, skill development, and innovation partnerships but is not explicitly assigned direct responsibility for national cybersecurity policy or operational governance in laws, national strategies, or government programs reviewed.[1][2][5][6]</t>
+          <t>The Ministry of Education and Culture (MEC) in Uruguay is involved in cybersecurity primarily through its role in education and digital skills development, rather than direct cybersecurity governance, technical coordination, or enforcement. The MEC is listed as a responsible institution for incorporating digital skills and cybersecurity education into formal education at all levels, especially in centers with high social and educational vulnerability, as part of Uruguay's Digital Agenda 2025 [1]. This includes advancing digital citizenship and supporting the development of cybersecurity competencies through formal and non-formal education pathways [1]. However, the MEC does not appear to be the lead agency for national cybersecurity policy, technical standards, incident response, or regulatory enforcement. The primary responsibility for cybersecurity governance and technical coordination in Uruguay lies with the Agency for Electronic Government and Information Society (AGESIC), CERTuY (National Computer Security Incident Response Center), and other specialized bodies [2][3][6]. The MEC's role is thus supportive and educational, rather than central to cybersecurity planning, response, or enforcement.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2776,14 +2781,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.squ.edu.om/hadatha', 'title': 'Hadatha Cyber \u200b\u200bSecurity Center - Sultan Qaboos University', 'snippet': 'Rahma bint Nasser Al-Barashdi, Director of Cybersecurity Programmes at the Oman National CERT, delivered a presentation highlighting the role of the Hadatha ...', 'date': '2025-10-01', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://oxfordbusinessgroup.com/reports/oman/2025-report/ict/enhanced-connectivity-economic-diversification-drive-sees-efforts-to-expand-internet-access-boost-cybersecurity-and-integrate-new-technologies-overview/', 'title': "Economic diversification boosts Oman's cybersecurity", 'snippet': 'As of September 2024, 98% of households in Oman had internet access, solidifying its status as a centre for connectivity, innovation and cybersecurity.', 'date': '2025-06-03', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.kiteworks.com/cybersecurity-risk-management/oman-cybersecurity-unified-data-governance/', 'title': 'Cybersecurity Law Drives Unified Data Governance in Oman', 'snippet': "This article explores why Oman's cybersecurity strategy is driving demand for unified data governance, what common compliance gaps exist today.", 'date': '2025-04-18', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://ijaem.net/issue_dcp/Collaborative%20Approaches%20to%20Cybersecurity%20in%20the%20Financial%20Sector%20Enhancing%20Resilience%20through%20Public%20Private%20Partnerships%20in%20Oman.pdf', 'title': '[PDF] Enhancing Resilience through Public-Private Partnerships in Oman', 'snippet': 'Studies indicate that cyber risks are evolving rapidly, requiring a shift from reactive to proactive security frameworks (Kopp et al., 2017).', 'date': '2025-04-15', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://omannews.gov.om/topics/en/79/show/123121', 'title': 'Cybersecurity Centre “Hadatha” Opened - Oman News Agency', 'snippet': 'The centre seeks to promote research, innovation and development in the field of cybersecurity. It also aims to consolidate the educational environment.', 'date': None, 'last_updated': '2025-09-17', 'matched': True}, {'url': 'https://prod.mtcit.gov.om/ITAPortal/Data/English/DocLibrary/202382133148936/CYBERSECURITY_INDUSTRY_DEVELOPMENT_PROGRAM_En.pdf', 'title': '[PDF] CYBERSECURITY INDUSTRY DEVELOPMENT PROGRAM En', 'snippet': 'The governance of the implementation of the initiatives and projects of the Cybersecurity Industry Development Program is part of the governance of the National ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://gcet.edu.om/en/research-and-innovation/research/research-groups/cyber-security/', 'title': 'Cyber Security - GCET', 'snippet': 'Enhanced security measures for computer and network systems. Effective digital forensics methodologies. Improved strategies for teaching cybersecurity.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.moheri.gov.om/userupload/2025/MAR-91016-%20Oman%20Whitepaper%20v11.pdf', 'title': '[PDF] Oman Higher Education Report 2025:', 'snippet': 'We gather billions of data points from our global network of employers, academics and prospective students, providing.', 'date': '2025-06-19', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.gub.uy/uruguay-digital/sites/uruguay-digital/files/documentos/publicaciones/agenda%202025%20Eng.pdf', 'title': '[PDF] AGENDA - UruguayDigital 2025 - Uruguay - GUB.UY', 'snippet': 'To adopt the Cybersecurity Framework in critical services, infrastructure, and networks for the country, granting greater security, standardisation, and ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://nextfense.com/en/blogs/decree-66-025-cybersecurity', 'title': "Comply with Uruguay's Decree No. 66/025 on cybersecurity. Learn ...", 'snippet': 'Main obligations of Decree No. 66/025 · Follow national and international standards in cybersecurity. \u200d · Perform cybersecurity audits: ...', 'date': '2025-10-17', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://dvmsinstitute.com/2025/04/10/the-uruguay-cybersecurity-framework-mcu-and-the-nist-cybersecurity-framework-digital-value-management-system/', 'title': 'The Uruguay Cybersecurity Framework (MCU) and the NIST ...', 'snippet': "Uruguay's MCU encourages institutions to implement a risk-based approach, conduct regular assessments, establish cybersecurity governance, and ...", 'date': '2025-04-10', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://iari.site/2025/10/16/uruguay-in-the-digital-spotlight-cyber-vulnerabilities-and-strategic-scenarios-toward-2030/', 'title': 'URUGUAY IN THE DIGITAL SPOTLIGHT: CYBER ... - IARI', 'snippet': 'Create full university degrees in Cybersecurity and Cyber Defense to train professionals and position Uruguay as a regional benchmark in these ...', 'date': '2025-10-16', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/a1a85bd0a24e4679b24e423abfb01061-0140012025/original/-Ceibal-Increasing-access-to-digital-technology-and-ensuring-education-for-all-in-Uruguay.pdf', 'title': '[PDF] Ceibal: Increasing access to digital technology and ensuring ...', 'snippet': 'Beginning in the mid-2000s, the government of Uruguay (GoU) introduced digital and technological strategies and established Information and Communications ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/uruguay-information-and-communication-technology', 'title': 'Uruguay - Information and Communication Technology', 'snippet': 'It also promotes a cybersecurity culture that enables people to use technology safely and responsibly, addressing the challenges and risks ...', 'date': '2025-08-21', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.eschoolnews.com/it-leadership/2024/07/18/federal-education-partnerships-cybersecurity/', 'title': 'Why federal-education partnerships are critical for cybersecurity', 'snippet': 'Given the constantly changing threat landscape, education must act with urgency and have robust cybersecurity plans in place now.', 'date': '2024-07-18', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://marcasur.com/en/noticia/cybersecurity-in-focus-uruguay-sets-clear-rules-for-public-agencies-and-strategic-sectors-4927&amp;f=-2025', 'title': 'Cybersecurity in Focus: Uruguay Sets Clear Rules for Public ...', 'snippet': 'The goal is clear: to strengthen the preparedness of the State and key sectors in the face of increasingly complex digital threats.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://summit-americas.org/SAS/Mandatos/Education.html', 'title': 'Summits of the Americas Mandates: Education', 'snippet': 'Develop a set of public policies that will allow us to promote digital inclusion, citizen cybersecurity, and access to education and culture, ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Innovation, Technology and Telecommunications (MICITT) in COSTA RICA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and ICT in SOUTH KOREA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2791,17 +2796,17 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ministry of Science, Innovation, Technology and Telecommunications (MICITT) in COSTA RICA</t>
+          <t>Ministry of Science and ICT in SOUTH KOREA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ministry of Science, Innovation, Technology and Telecommunications (MICITT)</t>
+          <t>Ministry of Science and ICT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2811,7 +2816,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Innovation, Technology and Telecommunications (MICITT) is explicitly responsible for cybersecurity in Costa Rica. It is designated as the national coordinator for cybersecurity matters, leading the development, coordination, and implementation of the country's cybersecurity policy as outlined in the National Cybersecurity Strategy 2023-2027 and previous strategies[1][2][3][4][5]. MICITT hosts the national Computer Security Incident Response Team (CSIRT-CR), which is tasked with preventing and responding to cybersecurity incidents affecting government institutions[3][4][6][7]. The ministry is also responsible for establishing technical standards, overseeing information security, and coordinating with other agencies and international partners on cybersecurity issues[1][3][4][6]. MICITT leads or is a member of key cybersecurity committees and councils, including the Cybersecurity Advisory Board and the Inter-institutional Council on Terrorism (CISTE)[3][4]. Additionally, MICITT participates in international cooperation efforts and is the focal point for national and international cybersecurity topics[1][3][4][6].</t>
+          <t>The Ministry of Science and ICT (MSIT) in South Korea is explicitly responsible for cybersecurity in the private sector, including setting guidelines and monitoring information security. This responsibility is established by national cybersecurity law and governance frameworks, which assign the Ministry oversight of private-sector information security, while other agencies cover public institutions and national defense sectors[1][5]. The Ministry leads or participates as a key member in inter-ministerial cybersecurity strategies and collaborative government-wide responses to cyber incidents, as demonstrated by recent comprehensive cybersecurity strategies jointly announced with other ministries and agencies[3][4][6][7]. It also issues regulations, guidelines, and enforces security standards for telecommunications and ICT industries, aiming at strengthening the information security capacity in both public and private sectors[2][4]. Although it does not host the national CERT itself (which is under the National Intelligence Service), the Ministry plays a crucial coordinating and policy role in national cybersecurity planning, prevention, response, and enforcement related to the private sector and industry infrastructure[1][5].</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2821,14 +2826,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/costa-ricas-national-cybersecurity-strategy-2023-2027', 'title': "Costa Rica's national cybersecurity strategy 2023-2027", 'snippet': 'General Objective: to ensure a secure, resilient, and inclusive national cybersecurity ecosystem that protects citizens, institutions, and infrastructure.', 'date': '2025-09-10', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cr/', 'title': 'NCSI :: Costa Rica - National Cyber Security Index', 'snippet': 'MICITT provides the public with cybersecurity resources and ... cybersecurity responsibilities. Ideally, such exercises also involve private ...', 'date': None, 'last_updated': '2023-10-30', 'matched': True}, {'url': 'https://www.micitt.go.cr/sites/default/files/2023-11/NCS%20Costa%20Rica%20-%2010Nov2023%20ENG.pdf', 'title': '[PDF] National Cybersecurity Strategy - MICITT', 'snippet': 'The strategy aims to protect the nation in the digital sphere, focusing on risk management, human rights, and includes actions to strengthen governance and ...', 'date': None, 'last_updated': '2024-06-02', 'matched': True}, {'url': 'https://www.interface-eu.org/storage/archive/files/costa_rica_country_profile_english.pdf', 'title': '[PDF] Costa Rica - Country Profile - interface', 'snippet': "69 The MICITT houses the National Cybersecurity Coordinator as well as the country's Computer Security and Incident Response Team (CSIRT-CR). Moreover, the Na-.", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.micitt.go.cr/sites/default/files/2023-06/englishEstrategia-Nacional-de-Ciberseguridad-Costa-Rica.pdf', 'title': '[PDF] National Cybersecurity Strategy - Costa Rica - MICITT', 'snippet': 'The National Cybersecurity Strategy of Costa Rica, published by MICITT in 2017, covers computer security, computer networks, and information technology ...', 'date': None, 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.lawfaremedia.org/article/role-international-assistance-cyber-incident-response', 'title': 'The Role of International Assistance in Cyber Incident Response', 'snippet': 'Some cybersecurity incidents can render crucial government services inaccessible, like recent events in Costa Rica and Vanuatu exemplify.', 'date': '2023-03-30', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://trade.ec.europa.eu/access-to-markets/en/country-assets/euca_05_Cybersecurity%20sector%20in%20Central%20America.pdf', 'title': '[PDF] Cybersecurity sector in Central America', 'snippet': 'Costa Rica lacks a cybersecurity policy. By the end of 2017, the MICITT (Science, Technology and. Telecommunications Ministry) presented what is called the ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.bnamericas.com/en/news/micitt-unveils-the-2023-2027-national-cybersecurity-strategy', 'title': 'MICITT unveils the 2023-2027 national cybersecurity strategy', 'snippet': 'The strategy seeks to ensure a safe, resilient and inclusive national cybersecurity ecosystem and effectively protect the country, as well as ...', 'date': '2023-11-13', 'last_updated': '2025-10-16', 'matched': True}]</t>
+          <t>[{'url': 'https://publications.iadb.org/publications/english/document/National-Cybersecurity-Law-Governance-and-Infrastructure-in-the-Republic-of-Korea.pdf', 'title': '[PDF] National Cybersecurity Law, Governance, and Infrastructure', 'snippet': 'The Ministry of Science, Technology and ICT (MSICT) is responsible for private-sector information security, specifically monitoring and setting guidelines. The ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://ourtake.bakerbotts.com/post/102low8/south-korean-ministry-of-science-and-ict-issues-package-of-regulations-to-supplem', 'title': 'South Korean Ministry of Science and ICT Issues Package of ...', 'snippet': 'In operation, operators should monitor in real time for unsafe behavior, collect and act on user feedback, and maintain processes to protect ...', 'date': '2025-10-20', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.chosun.com/english/industry-en/2025/10/22/2UFKFNC44ZCRFD4KFHHIYKHKDY/', 'title': 'Government Unveils Comprehensive Cybersecurity Strategy', 'snippet': 'First, the government will immediately conduct extensive security vulnerability checks on approximately 1,600 IT systems widely used by the ...', 'date': '2025-10-22', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.msit.go.kr/eng/bbs/view.do;jsessionid=-yDmX-KD-xn-O2Mu84AbdFFLZR7IH1HK_ufzshoC.AP_msit_1?sCode=eng&amp;mPid=2&amp;mId=4&amp;bbsSeqNo=42&amp;nttSeqNo=1181', 'title': 'Ministry of Science and ICT - Press Releases - 과학기술정보통신부 &gt;', 'snippet': 'The public sector will take the lead in information security, raising security budget* and personnel requirements to a specified threshold compared to overall ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2022/12/ROK-Country-report.pdf', 'title': '[PDF] National Cybersecurity Organisation: REPUBLIC OF KOREA', 'snippet': "The ROK government issues the 'National Information Security White Paper' every year in collaboration with six government organisations: the National ...", 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.korea.net/Government/Briefing-Room/Press-Releases/view?articleId=8333&amp;insttCode=A110439&amp;type=O', 'title': 'Government Announces Comprehensive Information Security ...', 'snippet': '➂ strengthening overall public-private information security capacity, fostering an environment aligned with international standards, and ...', 'date': '2025-11-06', 'last_updated': None, 'matched': True}, {'url': 'https://www.mlex.com/mlex/articles/2402306/south-korea-launches-major-cybersecurity-overhaul-after-wave-of-hacking-incidents', 'title': 'South Korea launches major cybersecurity overhaul after wave of ...', 'snippet': 'South Korea has announced a cross-government package of cybersecurity measures designed to respond quickly to a recent wave of hacks and raise ...', 'date': '2025-10-22', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Korea_Internet_&amp;_Security_Agency', 'title': 'Korea Internet &amp; Security Agency - Wikipedia', 'snippet': 'Other roles include but are not limited to, the promotion of safe Internet usage and Internet culture, detecting and analyzing malware/viruses on the web, ...', 'date': '2005-03-04', 'last_updated': '2025-05-23', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Higher Education of the Russian Federation in RUSSIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Culture in SURINAME responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2836,17 +2841,17 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ministry of Science and Higher Education of the Russian Federation in RUSSIA</t>
+          <t>Ministry of Education, Science and Culture in SURINAME</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ministry of Science and Higher Education of the Russian Federation</t>
+          <t>Ministry of Education, Science and Culture</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2856,24 +2861,24 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Higher Education of Russia primarily focuses on science, technology, and higher education, including developing educational programs and research in fields related to information security and digital competencies[7][4]. It is involved in supporting research and education initiatives such as training specialists in cybersecurity and advancing digital transformation strategies in science and higher education[7]. However, there is no direct evidence or explicit mention in national cybersecurity strategies, laws, or official reports that this ministry is directly responsible for national cybersecurity policy, implementation, or technical coordination in Russia[1][5]. The main cybersecurity governance, prevention, and enforcement roles are handled by other bodies such as the Security Council of the Russian Federation, military and intelligence agencies, and specific national cyber centers sponsored by the Ministry of Defense or Security Council[1][5]. The ministry supports research and educational aspects related to cybersecurity but does not lead or host national CERT/CSIRT teams, enforce information security standards as a governmental regulator, nor is it a leading member of cybersecurity councils or committees according to the reviewed sources. Therefore, its responsibility level is assessed as LOW with MEDIUM confidence due to indirect involvement through research and training but no direct governance or operational role in cybersecurity policy or enforcement.</t>
+          <t>The Ministry of Education, Science and Culture in Suriname is primarily responsible for educational matters including all levels of schooling, teacher training, science and technology promotion, and cultural affairs, as outlined in national policy documents[3]. While the Ministry plays a role in promoting digital literacy and integrating ICT in education[1][4], none of the sources explicitly state that it holds responsibility for national cybersecurity policy, coordination, or enforcement. National cybersecurity policy and related technical coordination appear to be outside its mandate, with no indication that this Ministry hosts a national CERT/CSIRT, leads cybersecurity committees, or oversees cybersecurity standards. Other ministries, such as the Ministry of Transport, Communication and Tourism, mention cybersecurity as part of their policy scope[6], suggesting that cybersecurity governance is allocated elsewhere. Therefore, the Ministry of Education, Science and Culture's responsibility related to cybersecurity is limited to raising awareness and digital literacy within education, not broader national cybersecurity governance.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[{'url': 'http://www.scrf.gov.ru/security/information/DIB_engl/', 'title': 'Doctrine of Information Security of the Russian Federation', 'snippet': 'The main thrusts of ensuring information security in science, technology and education are the following: a) making Russian information technologies ...', 'date': '2016-12-05', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://innopolis.university/en/center-cybersecurity/', 'title': 'Center for Information Security', 'snippet': 'Center for Information Security. The Center implements high-technology research and consulting projects to protect the state and society against cyber attacks.', 'date': '2022-08-24', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://tadviser.com/index.php/Article:Cyber_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B_%E2%80%8B', 'title': 'Content - TAdviser', 'snippet': 'The training program will include such areas as cyber technologies in everyday life, ways to protect personal data, methods to counter social ...', 'date': '2024-10-07', 'last_updated': '2025-02-18', 'matched': True}, {'url': 'https://english.mirea.ru/academics/institutes/institute-of-integrated-safety-and-special-instrument-engineering-/about-the-institute/', 'title': 'About the Institute - Institute for Cybersecurity and Digital Technologies', 'snippet': 'The Institute of Cybersecurity and Digital Technologies is a structural unit of MIREA – Russian Technological University, which trains students in the field ...', 'date': '2025-01-01', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://cepa.org/comprehensive-reports/russian-cyberwarfare-unpacking-the-kremlins-capabilities/', 'title': 'Russian Cyberwarfare: Unpacking Kremlin Capabilities - CEPA', 'snippet': 'This report is an attempt to map the Russian cyber landscape and to help understand the intricate web of cyber actors.', 'date': '2022-09-08', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://wsps.ut.ac.ir/article_91776.html', 'title': 'Russian Digital Economy and Cybersecurity: An Overview of Recent ...', 'snippet': 'The main purpose of this research was to examine the key metrics of the Russian digital economy and influencing factors affecting the digital economy ...', 'date': '2022-07-01', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/russian-federation/~technology-0', 'title': 'Russian Federation | Technology - Education Profiles', 'snippet': 'The Federal Law of 19 December 2023, No. 618-FZ, amends the Federal Law "On Education in the Russian Federation" to introduce a ban on the use of smartphones.', 'date': '2025-01-14', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'http://archive.government.ru/eng/power/33/', 'title': 'Ministry of Education and Science of the Russian Federation', 'snippet': 'The Ministry of Education and Science (Minobrnauka) is a federal executive body responsible for drafting and implementing government policy and legal regulation', 'date': '2012-01-01', 'last_updated': '2025-09-06', 'matched': True}, {'url': 'https://www.extech.ru/english/activity/spp/', 'title': 'SRI FRCEC - Implementation of measures to ensure national security', 'snippet': 'organizing and conducting monitoring of research activities of state educational institutions of higher education on subjects aimed at ensuring national ...', 'date': None, 'last_updated': '2024-11-11', 'matched': True}, {'url': 'https://its.iszzi.kpi.ua/article/view/315746', 'title': 'Educational priorities of training of cyber security specialists under ...', 'snippet': 'Ensuring the cyber security of the state in the conditions of a full-scale invasion of the Russian Federation, the spread of hostilities in the ...', 'date': '2024-12-26', 'last_updated': '2025-09-06', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/the-suriname-national-digital-strategy-2023-2030', 'title': 'The Suriname National Digital Strategy 2023-2030', 'snippet': 'The Suriname National Digital Strategy 2023-2030 outlines a comprehensive framework to achieve a digitally transformative environment that benefits all.', 'date': '2024-11-22', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://education-profiles.org/latin-america-and-the-caribbean/suriname/~technology', 'title': 'Suriname | Technology - Education Profiles', 'snippet': 'Cybersecurity and safety ... The Ministry of Education, Science, and Culture is responsible for primary and secondary education in Suriname.', 'date': '2024-10-30', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://gov.sr/wp-content/uploads/2025/03/National-Education-Policy-Suriname-2024-2031-ENGLISH_FINAL-1.pdf', 'title': '[PDF] National Education Policy Suriname 2024- 2031 | GOV.SR', 'snippet': 'The Ministry is responsible for: matters relating to all forms of education of all courses; the training of teachers and lecturers, the practice ...', 'date': '2025-03-18', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://gov.sr/wp-content/uploads/2023/09/Suriname-National-Digital-Strategy-2023-2030.pdf', 'title': '[PDF] NATIONAL DIGITAL STRATEGY - GOV.SR', 'snippet': 'Consequently, a top priority for the education sector in Suriname is to strengthen the provision of education, and ensure that education is accessible to all, ...', 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://mfcs.oas.org/Home/CountryDetailMFCS?measureId=25&amp;countryId=173&amp;year=2021', 'title': 'Suriname - CSBMs', 'snippet': 'Exchange information related to adopting and adapting provisions under domestic laws that govern processes for obtaining data and information.', 'date': '2024-11-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.theworldfolio.com/interviews/falisie-pinas-minist/738/', 'title': 'Falisie Pinas, Minister of Transport, Communication and Tourism', 'snippet': 'Cyber security is also an issue and challenge. The policy of the Ministry of TCT is to make ICT accessible and affordable to the entire ...', 'date': '2011-11-21', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://arqus-alliance.eu/study-in-arqus/joint-masters-programmes/master-in-cybersecurity-cyberintelligence/', 'title': "Master's Programme in International Cybersecurity and ...", 'snippet': 'The programme offers specialised academic education in Cybersecurity, Cyberintelligence and International Relations and Law for Cybersecurity.', 'date': '2025-05-08', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://unfccc.int/sites/default/files/resource/SURINAME%20NC3_2023_FINAL.pdf', 'title': '[PDF] Republic of Suriname Third National Communication to the United ...', 'snippet': 'The Republic of Suriname has ratified the United Nations Framework Convention on Climate Change (UNFCCC), the Kyoto Protocol and the Paris Agreement,.', 'date': None, 'last_updated': '2025-01-30', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Suriname.pdf', 'title': '[PDF] Suriname | GHS Index', 'snippet': '[https://bwc-ecbm.unog.ch/state/suriname]. Accessed 27 February 2021. 1.5 DUAL-USE RESEARCH AND CULTURE OF RESPONSIBLE SCIENCE. 1.5.1 Oversight of research ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science, Technology and Vocational Training in TANZANIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology in INDIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2881,17 +2886,17 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science, Technology and Vocational Training in TANZANIA</t>
+          <t>Ministry of Science and Technology in INDIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science, Technology and Vocational Training</t>
+          <t>Ministry of Science and Technology</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2901,9 +2906,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science, Technology and Vocational Training in Tanzania is primarily focused on integrating ICT in education, including infrastructure, curriculum development, capacity building, and digital education strategies. The 2024 Draft National Digital Education Strategy outlines the Ministry's role in promoting ICT use in teaching, learning, and digital skills development, while emphasizing aspects of security, privacy, safety, and ethics within education contexts[4].
-However, national cybersecurity governance, policy formulation, coordination, enforcement, and technical response capabilities such as hosting the national Computer Emergency Response Team (CERT) or leading cybersecurity committees fall outside the Ministry's direct mandate. Instead, these responsibilities belong largely to other government bodies, notably the President's Office, Public Service Management and Good Governance, which develops and monitors cybersecurity policy; the e-Government Authority, which coordinates cybersecurity implementation and technical standards; and the Tanzania Computer Emergency Response Team (TZ-CERT), which handles incident coordination and response[1][2].
-The Ministry is involved in cybersecurity in an educational and awareness capacity, such as promoting cyber ethics compliance among teachers and incorporating cyber ethics in teacher education[3], but it does not lead national cybersecurity strategy, technical coordination, or enforcement. Thus, its cybersecurity responsibility is focused on education-sector aspects with no leadership role in the broader national cybersecurity governance framework.</t>
+          <t>The Ministry of Science and Technology in India primarily focuses on research and development related to science and technology, including promoting cybersecurity research and education as part of its broader R&amp;D agenda. However, it is not explicitly responsible for cybersecurity governance, policy implementation, or operational response. India's cybersecurity responsibilities are primarily assigned to the Ministry of Electronics and Information Technology (MeitY) for cybersecurity policy and implementation, the Ministry of Home Affairs for cybercrime, and the National Security Council Secretariat (NSCS) for overall strategic coordination. The Ministry of Science and Technology supports the domain through research initiatives but does not host national CERT/CSIRT, lead cybersecurity committees, or oversee cybersecurity enforcement. Hence, its role is supportive and research-oriented rather than authoritative or operational in the national cybersecurity framework[1][2][3][6].</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2913,14 +2916,14 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.utumishi.go.tz/uploads/documents/sw-1688121496-TANZANIA%20GOVERNMENT%20CYBERSECURITY%20STRATEGY%202022.pdf', 'title': '[PDF] Government Cyber Security Strategy 2022–2027 - Utumishi', 'snippet': 'The Government Cyber Security Strategy sets out how the Tanzanian Government will establish itself as a democratic and responsible cyber resilient Government ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.cyberswahili.co.tz/2024/07/cybersecurity-in-tanzania.html', 'title': 'Cybersecurity in Tanzania - Cyber Swahili', 'snippet': 'In Tanzania, laws such as the Cybercrimes Act aim to deter cybercriminal activities and provide a legal framework for prosecuting offenders.', 'date': '2024-07-04', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://files.eric.ed.gov/fulltext/EJ1449735.pdf', 'title': '[PDF] Promoting Cyber Ethics Compliance among Teachers in Tanzania', 'snippet': 'Other ways to promote compliance included providing teachers with counselling and mentoring support, establishing a clear and secure system of reporting cyber ...', 'date': None, 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://www.moe.go.tz/sites/default/files/Draft_National_Digital_Education_Strategy%202024-2030-2.pdf', 'title': '[PDF] Draft National Digital Education Strategy', 'snippet': "Tanzania's National ICT in Education. Strategy is a comprehensive plan that aims to integrate ICT into all levels of education to improve the quality of ...", 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://ippmedia.co.tz/the-guardian/business/read/the-importance-of-national-cyber-security-public-education-2025-01-20-190331', 'title': 'The importance of national cyber-security public education - ipp media', 'snippet': 'For the sole purpose of preventing, identifying, and responding to cyber threats, our people must stay up to date on the latest advancements in ...', 'date': '2025-01-21', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://carnegieendowment.org/research/2025/09/mapping-indias-cybersecurity-administration-in-2025?lang=en', 'title': "Mapping India's Cybersecurity Administration in 2025", 'snippet': "India's cybersecurity administration comprises agencies and departments across ministries that work together to safeguard India's cyberspace.", 'date': '2025-09-01', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.cyberpeace.org/resources/blogs/the-government-specifies-roles-in-matters-related-to-security-of-telecom-network-cyber-security-and-cyber-crime', 'title': 'The Government Specifies Roles in Matters related to Security of ...', 'snippet': 'By setting out specific responsibilities for telecom network security, cybercrime, and overall cybersecurity strategy among key ministries, the ...', 'date': '2024-10-09', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dras.in/indias-cybersecurity-policy-evolution-and-trend/', 'title': "India's Cybersecurity Policy: Evolution and Trend", 'snippet': "The PMO prepares India's national cybersecurity strategy and makes strategic choices on cyber matters through its National Security Council ...", 'date': '2025-07-31', 'last_updated': '2025-08-13', 'matched': True}, {'url': 'https://www.meity.gov.in/static/uploads/2024/02/National_cyber_security_policy-2013_0.pdf', 'title': '[PDF] National Cyber Security Policy -2013', 'snippet': '6) To develop suitable indigenous security technologies through frontier technology research, solution oriented research, proof of concept, pilot development, ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.mha.gov.in/en/divisionofmha/cyber-and-information-security-cis-division', 'title': 'Home - Cyber and Information Security (C&amp;IS) Division', 'snippet': 'Division deals with matters relating to Cyber Security, Cyber Crime, National Information Security Policy &amp; Guidelines (NISPG) and implementation of NISPG, ...', 'date': '2022-08-01', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://dst.gov.in/basic-research-cyber-security', 'title': 'Basic Research in Cyber Security', 'snippet': 'The Department of Science &amp; Technology plays a pivotal role in promotion of science &amp; technology in the country.', 'date': '2019-08-27', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.upguard.com/blog/cybersecurity-regulations-india', 'title': 'Top Cybersecurity Regulations in India [Updated 2025] - UpGuard', 'snippet': 'All intermediaries are required to report any cybersecurity incidents to CERT-In. CERT-In acts as the primary task force that:', 'date': '2025-07-02', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://opengovasia.com/india-digital-technology-enhancing-cybersecurity-and-justice/', 'title': 'India: Digital Technology Enhancing Cybersecurity and Justice', 'snippet': 'India is modernising its criminal justice system with digital tools and cybersecurity measures to improve crime prevention, ...', 'date': '2025-08-06', 'last_updated': None, 'matched': True}, {'url': 'https://community.nasscom.in/communities/public-policy/indias-steps-towards-coordinated-approach-cybersecurity', 'title': "India's Steps Towards a Coordinated Approach to Cybersecurity", 'snippet': 'National agency for incident response in cybersecurity domain. Mandated with performing various functions such as forecast and alerts of ...', 'date': '2024-11-19', 'last_updated': '2025-09-11', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Secretary of State for Industry, Handicraft, Commerce, Research and Telecommunications in SAN MARINO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Research in TOGO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2928,17 +2931,17 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Secretary of State for Industry, Handicraft, Commerce, Research and Telecommunications in SAN MARINO</t>
+          <t>Ministry of Higher Education and Research in TOGO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Secretary of State for Industry, Handicraft, Commerce, Research and Telecommunications</t>
+          <t>Ministry of Higher Education and Research</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2948,7 +2951,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>The Secretary of State for Industry, Handicraft, Commerce, Research and Telecommunications in San Marino is primarily responsible for economic sectors including industry, patents, trademarks, commerce, research, and telecommunications, as evidenced by activities such as signing bilateral cooperation agreements with the European Patent Office and overseeing the State Office for Patents and Trademarks[1]. However, there is no direct evidence from national strategies, laws, or official documentation indicating that this office is explicitly responsible for cybersecurity governance, policy implementation, technical coordination, or hosting the national CERT/CSIRT. No records indicate formal membership or leadership in national cybersecurity committees or councils, oversight of information security standards, or participation in specialized cybersecurity response or enforcement activities. Cybersecurity responsibilities in small states like San Marino are often distributed differently, and none of the cited sources attribute cybersecurity roles to this specific Secretary of State[1][2][3][5]. Thus, while the office handles telecommunications (a potential vector for cybersecurity), it does not appear to have a clear mandate or active role in cybersecurity per available information.</t>
+          <t>The Ministry of Higher Education and Research in Togo is primarily responsible for directing policies and the organization of higher education and research institutions. There is no direct evidence from national strategies, laws, or reports indicating that this Ministry holds responsibility for national cybersecurity governance, implementation, or coordination. Cybersecurity policy and regulatory authority in Togo lie primarily with the National Cybersecurity Agency (Agence Nationale de la Cybersécurité - ANCy), which is supervised by the Ministry for the Digital Economy and Transformation and the Minister for Security and Civil Protection. The Ministry of Higher Education and Research has a role in cybersecurity education and training by offering courses and programs that contribute to building the cybersecurity workforce, but it does not have a formal governance or enforcement role in the country's cybersecurity framework[1][2][3][7][9].</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2958,14 +2961,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.epo.org/en/news-events/news/san-marino-secretary-state-industry-handicraft-commerce-research-telecommunication', 'title': '\u200b\u200bSan Marino Secretary of State for Industry, Handicraft, Commerce ...', 'snippet': 'San Marino Secretary of State Rossano Fabbri visits the EPO for the signing of a new bilateral co-operation agreement (2024-2028).', 'date': '2025-03-18', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.esteri.sm/pub2/EsteriSM/en/Dipartimento/Direzione.html', 'title': 'Directorate of the Department of Foreign Affairs - Esteri.sm', 'snippet': 'It supervises and manages the negotiation activity, in cooperation with San Marino Permanent Mission in Brussels, by coordinating the activity carried out by ...', 'date': None, 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/San_Marino_Secretary_for_Foreign_and_Political_Affairs', 'title': 'San Marino Secretary of State for Foreign and Political Affairs', 'snippet': 'The Secretary of State for Foreign and Political Affairs is the minister for foreign affairs of San Marino. Secretary of State for Foreign and Political ...', 'date': '2010-01-27', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://globaledge.msu.edu/countries/san-marino/government', 'title': 'San Marino: Government - globalEDGE', 'snippet': 'San Marino is a Republic with co-chiefs of state, Captain Regents, and a Secretary of State. The Grand and General Council elects the Captains Regent.', 'date': '2024-04-01', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://www.visitsanmarino.com/pub1/VisitSM/en/contenuto/About-San-Marino/STRUTTURA-POLITICA.html', 'title': 'Political Structure of San Marino', 'snippet': 'The State Congress consists of a maximum number of ten Secretaries of State, each of whom is entrusted with one or more areas of administrative responsibility.', 'date': '2021-07-16', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://unfccc.int/sites/default/files/resource/INC%20San%20Marino.pdf', 'title': '[PDF] REPUBLIC OF SAN MARINO - First National Communication', 'snippet': 'The national communication that I have the honour to present in my capacity as Secretary of State for Environment of the Republic of San Marino is the first.', 'date': None, 'last_updated': '2024-07-25', 'matched': True}, {'url': 'https://2009-2017.state.gov/outofdate/bgn/sanmarino/81982.htm', 'title': 'San Marino (03/07) - State.gov', 'snippet': "The 10 Secretaries are (1) Secretary of State ... The Republic of San Marino's Web Site provides information on politics, trade, and events in San Marino.", 'date': None, 'last_updated': '2025-01-29', 'matched': True}]</t>
+          <t>[{'url': 'https://blog.gavindennis.com/cyber-security-in-togo/', 'title': 'Cyber Security in Togo - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'The Togolese government has taken steps to improve cyber security. It has developed a national cyber security strategy, showing its commitment ...', 'date': '2024-10-12', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://ancy.gouv.tg/wp-content/uploads/2024/09/ANCy-NATIONAL-CYBERSECURITY-STRATEGY_PUBLIC.pdf', 'title': '[PDF] Liste des sigles et abréviations', 'snippet': '- analysing data on threats in Togolese cyberspace based on information gathered from the Togolese population, Togolese companies, ...', 'date': '2024-09-17', 'last_updated': '2025-01-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tg/', 'title': 'NCSI :: Togo - National Cyber Security Index', 'snippet': 'It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education. • Importance: A cybersecurity ...', 'date': '2024-08-30', 'last_updated': '2025-08-11', 'matched': True}, {'url': 'https://www.geg.ox.ac.uk/content/cina-lawson-executing-deal-well-digital-sector-requires-thorough-collaboration-among-many', 'title': 'Cina Lawson: “Executing a deal well in the digital sector requires ...', 'snippet': 'We passed laws and different decrees to provide our country with significant legislation for a coherent strategy to monitor and defend against cyberthreats at ...', 'date': '2023-04-01', 'last_updated': '2025-09-23', 'matched': True}, {'url': 'https://www.cohnreznick.com/insights/higher-ed-cmmc-cybersecurity-compliance-obligations', 'title': 'Higher Ed: Your CMMC Cybersecurity Compliance Obligations', 'snippet': 'Any institution engaged in research for the DoD or a contractor must address their compliance obligations under new CMMC regulation.', 'date': '2024-12-17', 'last_updated': '2025-08-19', 'matched': True}, {'url': 'https://africarenewal.un.org/en/magazine/togo-and-un-sign-mou-establish-african-cybersecurity-centre', 'title': 'Togo and UN sign MoU to establish the African Cybersecurity Centre', 'snippet': 'As a result, the MoU between Togo and ECA will enable the creation of the African Cybersecurity Center to support African countries in executing ...', 'date': '2022-08-16', 'last_updated': '2025-09-07', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-national-education-and-research', 'title': 'Ministry of National Education and Research - CHEA.org', 'snippet': 'The Ministry of National Education and Research in Togo is responsible for determining the policies and direction of the higher education system.', 'date': None, 'last_updated': '2025-07-08', 'matched': True}, {'url': 'https://www.togofirst.com/en/itc/1908-10454-a-cybersecurity-regional-hub-will-soon-be-built-in-lome-togo', 'title': 'A cybersecurity regional hub will soon be built in Lomé, Togo', 'snippet': 'Overall, the hub aims to develop effective frameworks for assessing and tackling cyber threats, while promoting cybersecurity in the region. It ...', 'date': '2022-08-19', 'last_updated': '2024-12-15', 'matched': True}, {'url': 'https://aic-uni.org/aic3.pdf', 'title': '[PDF] minitry of higher education (logo) republic of toogo and research', 'snippet': 'Considering the specification of the request of creation, opening, authorization and accreditation of private schools of higher education in Togo;. Considering ...', 'date': None, 'last_updated': '2025-05-20', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in KENYA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Technology (Ministerio de Educación, Ciencia y Tecnología - MINEDUCYT) in EL SALVADOR responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -2973,27 +2976,27 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology in KENYA</t>
+          <t>Ministry of Education, Science and Technology (Ministerio de Educación, Ciencia y Tecnología - MINEDUCYT) in EL SALVADOR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology</t>
+          <t>Ministry of Education, Science and Technology (Ministerio de Educación, Ciencia y Tecnología - MINEDUCYT)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Technology in Kenya has an ICT Security Policy that includes provisions for safeguarding its own ICT systems, ensuring employees possess basic computer skills, and enforcing internal ICT security measures such as user access control and data protection within the Ministry itself[1]. It promotes awareness of ICT security and IT policy adherence among its staff. The Ministry is involved in cybersecurity capacity building as part of its educational mandate, including fostering cybersecurity expertise and awareness in education and training[2][4]. However, Kenya's national cybersecurity governance, policy formulation, coordination, and enforcement are primarily led by the Ministry of ICT, Innovation and Youth Affairs, which hosts national CERT/CSIRT teams, leads national cybersecurity committees, and coordinates multi-agency cybersecurity efforts at the country level[3][5]. The Ministry of Education does not appear explicitly in national cybersecurity laws or strategies as a primary policy maker or technical coordinator for national cybersecurity. Its role is primarily internal to the education sector's ICT security and capacity building, with limited broader cybersecurity governance responsibility.</t>
+          <t>Recent national legislation and policy documents from El Salvador identify the State Cybersecurity Agency (Agencia de Ciberseguridad del Estado, ACE) as the principal national body responsible for cybersecurity governance, policy, coordination, and implementation, established by the Cybersecurity and Information Security Law enacted in November 2024. This agency oversees cybersecurity policy, issues technical standards, enforces regulations, and manages cyber threat response across public entities and critical infrastructure. The Ministry of Education, Science and Technology (MINEDUCYT) is not mentioned in these laws, executive orders, or related government statements as having a role in cybersecurity governance, hosting a national CERT/CSIRT, participating in cybersecurity committees, or undertaking specialized cybersecurity responsibilities. Rather, cybersecurity efforts involve the executive branch broadly and the newly created ACE specifically. Additionally, other agencies such as the Innovation Secretariat of the Presidency have been noted as active in cybersecurity capacity-building in public institutions. Therefore, based on current official information, MINEDUCYT is not responsible for cybersecurity governance or implementation in El Salvador.[1][2][3][4][5][6][7][8]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3003,14 +3006,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.education.go.ke/sites/default/files/2022-05/ict-security-policy-system-controls-and-security-policies.pdf', 'title': '[PDF] ICT SECURITY POLICY CONTROLS - Ministry of Education', 'snippet': 'Inventory of computers shall be reviewed and updated continuously. Ministry of Education Science and Technology employees must possess basic computer skills.', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/kenya/~technology', 'title': 'Kenya | Technology - Education Profiles', 'snippet': "The 2014 Cybersecurity Strategy defines Kenya's cybersecurity vision, key objectives, and ongoing commitment to support national priorities by ...", 'date': '2023-05-22', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.interior.go.ke/sites/default/files/2024-05/L-897-KENYA-CYBERSECURITY-STRATEGY-6_220922_103959_220930_161437.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY', 'snippet': "GoK will spearhead its main responsibility of defending the Republic of Kenya's cyberspace from all threats, to protect Kenyan citizens and the economy from ...", 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://ipi.media/wp-content/uploads/2025/05/National-Cybersecurity-Strategy-2025-2029-Draft-upload.pdf', 'title': '[PDF] DRAFT KENYA CYBERSECURITY STRATEGY, 2025 - 2029', 'snippet': 'Ministry of Education ... Goal: To develop cybersecurity capacity. Objective: To increase cybersecurity expertise, education, research and awareness across the ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.sicurezzacibernetica.it/db/%5BKenya%5D%20National%20Cyber%20Security%20Strategy%20-%202014%20-%20EN.pdf', 'title': '[PDF] [Kenya] National Cyber Security Strategy - 2014 - EN.pdf', 'snippet': "GoK will continue to refine its cybersecurity governance model, define steady state and incident response roles and responsibilities, and expand KE-CIRT's ...", 'date': None, 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://allthingsprogramming.com/what-the-new-ministry-of-education-ict-policy-means-for-your-school/', 'title': 'What the New Ministry of Education ICT Policy Means for Your School', 'snippet': "The ICT policy outlines strict measures to safeguard student and school data and ensure compliance with Kenya's data protection laws. It also ...", 'date': '2025-10-15', 'last_updated': None, 'matched': True}, {'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/kenya', 'title': 'Data protection and cybersecurity laws in Kenya | CMS Expert Guide', 'snippet': 'Data protection in Kenya is regulated by the Data Protection Act No. 24 of 2019 (the "DPA"). The DPA came into effect on 25 November 2019.', 'date': '2022-03-11', 'last_updated': '2025-06-21', 'matched': True}, {'url': 'https://www.kictanet.or.ke/?mdocs-file=40195', 'title': '[PDF] Cybersecurity in Kenya – Priorities for 2019', 'snippet': 'The overall objective of the roundtable was; to increase local stakeholder awareness of cybersecurity issues, and to identify common cybersecurity ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://carnegieendowment.org/research/2023/10/when-the-rubber-meets-the-road-cybersecurity-and-kenyas-digital-superhighway?lang=en', 'title': "When the Rubber Meets the Road: Cybersecurity and Kenya's ...", 'snippet': 'The National ICT Policy lists cyber crime and cybersecurity vulnerabilities as one of the “significant challenges to be overcome” in achieving ...', 'date': '2023-10-12', 'last_updated': '2025-11-14', 'matched': True}]</t>
+          <t>[{'url': 'https://www.trade.gov/market-intelligence/el-salvador-new-cybersecurity-policy', 'title': 'El Salvador New Cybersecurity Policy', 'snippet': 'On May 13, 2022 the government of El Salvador published Executive Order Number 163, establishing guidelines to prevent and manage cybersecurity risk.', 'date': '2022-05-31', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/el-salvador-ict-cybersecurity-and-information-security-law', 'title': 'El Salvador ICT Cybersecurity and Information Security Law', 'snippet': 'The law requires all public entities operating critical infrastructure to implement cybersecurity management systems and develop IT strategies ...', 'date': '2025-01-24', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://blplegal.com/cybersecurity-and-information-security-law-in-el-salvador/', 'title': 'Cybersecurity and Information Security Law in El Salvador - BLP Legal', 'snippet': 'The main obligations are: i) to implement cybersecurity and information security management systems; ii) to develop IT and information security ...', 'date': '2024-12-17', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://garciabodan.com/en/el-salvadors-legislative-assembly-approves-cybersecurity-law/', 'title': "El Salvador's Legislative Assembly Approves Cybersecurity Law", 'snippet': 'Among its key responsibilities are: Developing the National Cybersecurity and Information Security Policy, which will include necessary ...', 'date': '2024-12-26', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://investinelsalvador.gob.sv/el-salvador-se-fortalece-en-ciberseguridad/', 'title': 'El Salvador strengthens in cybersecurity - InvestinElSalvador', 'snippet': 'In that sense, we are working hand in hand with all institutions to strengthen the digital security ecosystem and set up an infrastructure that ...', 'date': '2024-03-19', 'last_updated': '2024-06-30', 'matched': True}, {'url': 'https://eproint.com/el-salvador-strengthens-cybersecurity-and-data-protection-with-new-laws/', 'title': 'El Salvador Strengthens Cybersecurity and Data Protection with ...', 'snippet': "The Cybersecurity and Information Security Law aims to protect citizens' data while preventing cybercrimes such as fraud, identity theft, and digital harassment ...", 'date': '2024-11-27', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://altalegal.com/en/comunicacion/nuevas-normativas-en-materia-de-ciberseguridad-y-proteccion-de-datos/', 'title': 'New regulations on cybersecurity and data protection - Alta Legal', 'snippet': 'The Legislative Assembly of El Salvador has approved two fundamental laws to protect information and guarantee cybersecurity in the country.', 'date': '2024-11-27', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.hrw.org/news/2024/12/12/el-salvador-new-laws-threaten-free-expression-privacy', 'title': 'El Salvador: New Laws Threaten Free Expression, Privacy', 'snippet': 'Under the cybersecurity law, the new government agency develops national policy, manages cyber threats, conducts oversight, and imposes ...', 'date': '2024-12-12', 'last_updated': '2024-12-12', 'matched': True}, {'url': 'https://cdn.nca.gov.sa/api/public/cms/files/ff898cdc-4363-4070-93d3-042f987bc307_Cybersecurity_Roles_and_Responsibilities_Template_en.pdf', 'title': '[PDF] Cybersecurity Roles and Responsibilities Template', 'snippet': '# Responsibilities. 1. Effectively communicate cybersecurity risks and posture to senior management. 2. Develop security risk profiles of computer systems by ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.vitallaw.com/news/privacy-cybersecurity-laws-approved-in-el-salvador/cspd01783563dfe8fa4f9d9f6cbcc5ed8f86df', 'title': 'Privacy, Cybersecurity Laws Approved in El Salvador - VitalLaw.com', 'snippet': 'The Legislative Assembly of El Salvador passed a pair of laws last week that will impose consumer data protection and cybersecurity requirements.', 'date': '2024-11-22', 'last_updated': '2025-05-06', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Innovative Development of the Republic of Uzbekistan in UZBEKISTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research and Innovation in BURKINA FASO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3018,17 +3021,17 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ministry of Innovative Development of the Republic of Uzbekistan in UZBEKISTAN</t>
+          <t>Ministry of Higher Education, Scientific Research and Innovation in BURKINA FASO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ministry of Innovative Development of the Republic of Uzbekistan</t>
+          <t>Ministry of Higher Education, Scientific Research and Innovation</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3038,7 +3041,8 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Based on the available search results, the Ministry of Innovative Development of the Republic of Uzbekistan is not explicitly mentioned as the primary body responsible for cybersecurity policy, implementation, or technical coordination. The Ministry of Digital Technologies is highlighted as the leading authority, overseeing major digital initiatives, cybersecurity measures, and the implementation of national strategies such as Digital Transformation 2030. The Ministry of Digital Technologies is also responsible for supervising digital service providers, managing national data centers, and coordinating with the Cybersecurity Center for expert reviews of digital platforms. The Center for Information Security and Assistance in Ensuring Public Order is specifically designated as the competent supervisory authority for cybersecurity, with powers to supervise both public and private digital service providers and operators of essential services. There is no evidence in the provided sources that the Ministry of Innovative Development hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or participates in cybersecurity events or international initiatives. Therefore, the Ministry of Innovative Development's role in cybersecurity appears to be limited or indirect, with primary responsibility resting with other entities.</t>
+          <t>The Ministry of Higher Education, Scientific Research and Innovation in Burkina Faso is not explicitly mentioned as the lead or primary agency responsible for national cybersecurity policy, implementation, or technical coordination. The main responsibility for cybersecurity in Burkina Faso lies with the Ministry of Digital Transition, Posts, and Electronic Communications, which oversees the National Agency for Information Systems Security (ANSSI) and has been central to the development and adoption of the new information systems security law[1][2].
+While the Ministry of Higher Education is involved in initiatives that support digital transformation and education, such as acquiring computers for students and participating in projects to connect higher education institutions to high-speed internet, these activities are focused on infrastructure and access rather than cybersecurity governance or enforcement[6]. There is no evidence that this ministry hosts a national CERT/CSIRT, leads cybersecurity committees, or is responsible for setting information security standards or network protection at the national level. Its role is supportive in the broader context of digital development, but not directly in cybersecurity policy or response.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3048,14 +3052,14 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[{'url': 'https://timesca.com/how-uzbekistan-plans-to-lead-central-asias-digital-future-an-interview-with-the-minister-of-digital-technologies/', 'title': "How Uzbekistan Plans to Lead Central Asia's Digital Future", 'snippet': "Uzbekistan's ambitions to position itself as Central Asia's digital powerhouse took center stage during ICT Week Uzbekistan 2025 this ...", 'date': '2025-10-27', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://gov.uz/en/iiv/news/view/52319', 'title': 'Creating a Safe Cyberspace by Combating Cybercrime ...', 'snippet': "The Presidential Decree of April 30 of this year introduces fundamentally new mechanisms to enhance Uzbekistan's fight against cybercrime, including systemic ...", 'date': '2025-05-07', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://dergipark.org.tr/tr/download/article-file/4062234', 'title': "[PDF] Digitalization and Cyber Security Policies in Uzbekistan's Institutions ...", 'snippet': 'The authorities of Uzbekistan are keen to monitor and implement the digitalization process earnestly, which has led to exceeding the set targets ...', 'date': '2024-09-23', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/uz_2022/?allData=1', 'title': 'NCSI :: Uzbekistan - National Cyber Security Index', 'snippet': 'Today, the Center has a special department "Department of Information Technology and Innovation", which is responsible for the introduction of information ...', 'date': '2022-03-08', 'last_updated': '2024-11-05', 'matched': True}, {'url': 'https://cis-legislation.com/document.fwx?rgn=170414', 'title': 'resolution of the president of the republic of uzbekistan', 'snippet': '(i) creation of necessary conditions for implementation of digital technologies, modern digital decisions, software products, electronic ...', 'date': '2025-10-20', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.ecofinagency.com/telecom/2811-45087-burkina-faso-advances-cybersecurity-with-new-information-system-security-law', 'title': 'Burkina Faso advances cybersecurity with new information system ...', 'snippet': 'The move is aimed at establishing a solid legal and regulatory framework that can effectively safeguard information systems, thereby mitigating ...', 'date': '2023-11-28', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://powersofafrica.com/article/724/burkina-faso-a-new-cybersecurity-law', 'title': 'Burkina Faso: A New Cybersecurity Law - Powers of Africa', 'snippet': 'This new law establishes a legal and regulatory framework aimed at effectively protecting information systems, thereby reducing the vulnerability of public ...', 'date': '2024-12-07', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://www.uni.lu/en/news/university-and-ministry-launch-cybersecurity-project-in-west-africa/', 'title': 'University and Ministry Launch Cybersecurity Project in West Africa', 'snippet': 'Three universities in Burkina Faso and Senegal will soon boast newly minted cybersecurity study programmes thanks to a project initiated by ...', 'date': '2020-10-30', 'last_updated': '2024-09-29', 'matched': True}, {'url': 'https://www.cohnreznick.com/insights/higher-ed-cmmc-cybersecurity-compliance-obligations', 'title': 'Higher Ed: Your CMMC Cybersecurity Compliance Obligations', 'snippet': 'Any institution engaged in research for the DoD or a contractor must address their compliance obligations under new CMMC regulation.', 'date': '2024-12-17', 'last_updated': '2025-08-19', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/799551626430884544/pdf/Feasibility-Study-to-Connect-All-African-Higher-Education-Institutions-to-High-Speed-Internet-Burkina-Faso-Country-Case-Study-Report-Annex-1.pdf', 'title': '[PDF] Feasibility Study to Connect All African Higher Education Institutions ...', 'snippet': 'Government of Burkina Faso, through the Ministry in charge of Higher Education, wants to acquire nearly 50,000 computers for students. The contribution of ...', 'date': None, 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://extensia.tech/digital-transformation-burkina-faso-intensifies-international-cooperation/', 'title': 'Digital transformation: Burkina Faso intensifies international ...', 'snippet': 'The government aims to position the country as an African leader in the integration of information and communication technologies in key sectors ...', 'date': '2025-05-12', 'last_updated': '2025-08-13', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Environment, Science, Technology and Innovation (MESTI) in GHANA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Innovation, Science and Economic Development Canada in CANADA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3063,17 +3067,17 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ministry of Environment, Science, Technology and Innovation (MESTI) in GHANA</t>
+          <t>Innovation, Science and Economic Development Canada in CANADA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ministry of Environment, Science, Technology and Innovation (MESTI)</t>
+          <t>Innovation, Science and Economic Development Canada</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3083,7 +3087,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>The Ministry of Environment, Science, Technology and Innovation (MESTI) in Ghana primarily focuses on environment, science, and technology policy domains. It is not explicitly mentioned in national cybersecurity strategies, policies, or laws as holding primary responsibility for cybersecurity governance, policy implementation, or technical coordination. The key cybersecurity responsibilities and institutions in Ghana are held by specialized bodies such as the National Information Technology Agency (NITA), the Cyber Security Authority (CSA), and the National Cyber Security Centre (NCSC), which are either agencies or ministries specifically focused on communications, information technology, or security[1][2][3][5][8]. For example, NITA hosts the government's Computer Emergency Response Team (nitaCERT) to coordinate cyber incidents within government networks[1][3]. The Cyber Security Authority regulates cybersecurity activities and pursues enforcement and legislative reforms related to cybersecurity[2][8]. Furthermore, a Joint Cyber Security Committee has been inaugurated by the government to coordinate national defense against cyber threats, indicating multi-agency collaboration but not under MESTI's lead[9]. There is no evidence that MESTI hosts a national CERT, leads cybersecurity committees, or participates prominently in enforcement or international cooperative initiatives in cybersecurity. MESTI is reported to work on broader science, technology, and innovation policy rather than specialized cybersecurity roles. Therefore, MESTI's role in Ghana's cybersecurity ecosystem is minimal or indirect at best.</t>
+          <t>Innovation, Science and Economic Development Canada (ISED) supports pan-Canadian cybersecurity research, commercialization, and talent development programs. It funds projects related to cybersecurity innovation and advanced technologies, including AI for security purposes, and participates in fostering cybersecurity ecosystems and skills development. However, the primary national cybersecurity governance, policy-making, and operational coordination roles rest with Public Safety Canada and the Communications Security Establishment, which co-chair the Deputy Ministers' Committee on Cyber Security responsible for Canada's cybersecurity policies and operations. ISED does not directly lead cybersecurity policy, enforcement, or incident response but plays a supportive role in innovation and capacity building in the cybersecurity sector.[2][3][4]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3093,14 +3097,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>[{'url': 'https://afyonluoglu.org/PublicWebFiles/strategies/Africa/Ghana%202014%20National%20Cyber%20Security%20Policy%20and%20Strategy-EN.pdf', 'title': '[PDF] Ghana National Cyber Security Policy &amp; Strategy', 'snippet': 'In order to share knowledge on incidence response and ensure that there is a uniform risk management of all critical information infrastructures (both public ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.ghanaweb.com/GhanaHomePage/business/Cybersecurity-chief-calls-for-resilience-skills-and-stronger-enforcement-2003808', 'title': 'Cybersecurity chief calls for resilience, skills and stronger enforcement', 'snippet': 'Speaking in an exclusive interview, Agbeti said his immediate priorities include establishing a dedicated cyber court and embedding ...', 'date': '2025-10-06', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/National-Cyber-Security-Policy-Strategy-Revised_23_07_15.pdf', 'title': '[PDF] Ghana National Cyber Security Policy &amp; Strategy - ITU', 'snippet': 'a leadership role is providing early warning systems and training cyber security ... Members of NCSWG must be rewarded for role for the period ...', 'date': '2015-07-23', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.bog.gov.gh/wp-content/uploads/2019/09/CYBER-AND-INFORMATION-SECURITY-DIRECTIVE.pdf', 'title': '[PDF] CYBER &amp; INFORMATION SECURITY DIRECTIVE - Bank of Ghana', 'snippet': 'This document provides a framework for establishing Cyber and Information Security protocols and procedures for; routine and emergency scenarios, delegation of ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.telecomreviewafrica.com/articles/features/4619-boosting-cybersecurity-in-ghana-the-role-of-public-private-partnerships/', 'title': 'Boosting Cybersecurity in Ghana: The Role of Public-Private ...', 'snippet': "The NCSC plays a central role in coordinating Ghana's cybersecurity efforts. It works closely with telecom providers, financial institutions, ...", 'date': '2024-12-12', 'last_updated': '2024-12-13', 'matched': True}, {'url': 'https://facia.ai/knowledgebase/ghanas-cybersecurity-act/', 'title': "Ghana's Cybersecurity Act - Facia.ai", 'snippet': "Ghana's Cybersecurity Act bans malicious deepfakes &amp; cyber fraud—fines up to GHS 500K or 10 years jail. Learn key rules &amp; enforcement.", 'date': '2025-09-17', 'last_updated': None, 'matched': True}, {'url': 'https://moc.gov.gh/2025/09/03/minister-launches-2025-national-cyber-security-awareness-month-and-calls-for-safer-more-accountable-digital-space/', 'title': 'Minister Launches 2025 National Cyber Security Awareness Month ...', 'snippet': '\u200eThe Minister also disclosed that the Ministry was working to amend the Cybersecurity Act, 2020 (Act 1038) to strengthen regulations that ...', 'date': '2025-09-03', 'last_updated': None, 'matched': True}, {'url': 'https://www.csa.gov.gh/ncsam_train_ended.php', 'title': '2021 NCSAM successfully deliberates on the Cybersecurity Act 2020', 'snippet': 'The Act provided a legal basis for the establishment of the Cyber Security Authority (CSA) with a mandate to regulate cybersecurity activities in the country.', 'date': None, 'last_updated': '2025-06-01', 'matched': True}, {'url': 'https://isd.gov.gh/govt-inaugurates-joint-cyber-security-committee-to-fight-cyber-threats/', 'title': "Gov't Inaugurates Joint Cyber Security Committee to Fight Cyber ...", 'snippet': 'Government has inaugurated the Joint Cyber Security Committee (JCC) to coordinate national defence against cyber threats.', 'date': '2025-10-01', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://nsicop-cpsnr.ca/reports/rp-2022-02-14/06-en-part-4.html', 'title': 'Part IV: Governance of Cyber Defence National Security and ...', 'snippet': 'First, the revised mandate of DM Cyber Security is to enhance collaboration between security departments, economic departments and critical infrastructure in ...', 'date': '2022-02-14', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://hellodarwin.com/business-aid/organizations/science-economic-development-canada', 'title': 'Innovation, Science and Economic Development Canada (ISED ...', 'snippet': 'Innovation, Science and Economic Development Canada (ISED). Supports pan-Canadian cyber security research, commercialization, and talent development. Eligible ...', 'date': '2025-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ised-isde.canada.ca/site/innovative-solutions-canada/en/digitization-and-cybersecurity', 'title': 'Digitization and cybersecurity', 'snippet': 'We are seeking pre-commercial innovative prototypes that can be tested in real life settings and address a variety of priorities within the Government of ...', 'date': '2025-01-09', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.publicsafety.gc.ca/cnt/rsrcs/pblctns/ntnl-cbr-scrt-strtg-2025/index-en.aspx', 'title': "Canada's National Cyber Security Strategy", 'snippet': 'We all share the responsibility to use and implement cyber-secure products and practices; this burden cannot be placed solely on individual ...', 'date': '2025-03-24', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.cyber.gc.ca/en/education-community/academic-outreach-cyber-skills-development/canadian-cyber-security-skills-framework', 'title': 'The Canadian cyber security skills framework', 'snippet': 'The purpose of this framework is to help better guide workforce development stakeholders in addressing the cyber security skills deficit. It can ...', 'date': '2023-08-31', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3878326/Public-Safety-Canada-Fundamentals-of-Cyber.pdf', 'title': '[PDF] Public-Safety-Canada-Fundamentals-of-Cyber.pdf', 'snippet': "Released in 2010, Canada's Cyber Security Strategy (Cyber Strategy) represents the. Government of Canada's plan to help guard against attacks to vital cyber ...", 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://ised-isde.canada.ca/site/ised/en/programs-and-initiatives/digital-research-infrastructure?wbdisable=true', 'title': 'Digital Research Infrastructure - Government of Canada', 'snippet': 'These include maintaining, expanding, and safeguarding Network Operations for the National Advanced Research and Education Network as essential ...', 'date': '2025-11-04', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://science.gc.ca/site/science/en/safeguarding-your-research/guidelines-and-tools-implement-research-security/national-security-guidelines-research-partnerships', 'title': 'National Security Guidelines for Research Partnerships - Science', 'snippet': 'The purpose of the guidelines is to integrate national security considerations into the development, evaluation, and funding of research partnerships.', 'date': '2025-05-12', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.newswire.ca/news-releases/government-of-canada-investing-to-position-canada-as-a-global-leader-in-cyber-security-847045587.html', 'title': 'Government of Canada investing to position Canada as a global ...', 'snippet': '$80-million investment will support cyber security research and development, commercialization, and skills and talent development.', 'date': '2021-05-06', 'last_updated': '2025-02-18', 'matched': True}, {'url': 'https://www.cyber.gc.ca/en/guidance/baseline-cyber-security-controls-small-and-medium-organizations', 'title': 'Baseline cyber security controls for small and medium organizations', 'snippet': 'This document presents the Canadian Centre for Cyber Security baseline cyber security controls wherein we attempt to apply the 80/20 rule.', 'date': '2020-02-18', 'last_updated': '2025-11-14', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research (Ministère de l'Enseignement Supérieur et de la Recherche Scientifique, MESRS) in CÔTE D'IVOIRE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development in ZIMBABWE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3108,27 +3112,27 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research (Ministère de l'Enseignement Supérieur et de la Recherche Scientifique, MESRS) in CÔTE D'IVOIRE</t>
+          <t>Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development in ZIMBABWE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research (Ministère de l'Enseignement Supérieur et de la Recherche Scientifique, MESRS)</t>
+          <t>Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>The National Cybersecurity Strategy 2021-2025 of Côte d'Ivoire designates a dedicated National Cybersecurity Agency (established in 2024) as the primary body responsible for cybersecurity governance, coordination, and crisis management across sectors including critical infrastructure and information systems. This Agency leads implementation, coordination, and operationalization of national cybersecurity policies, including managing CERT teams and crisis plans. There is no evidence from official strategy documents, national reports, or relevant sources indicating that the Ministry of Higher Education and Scientific Research (MESRS) has explicit responsibilities for cybersecurity policy, national CERT hosting, membership in cybersecurity committees, or enforcement roles related to cybersecurity. MESRS is primarily focused on higher education, scientific research, and digital transformation related to education and innovation, without a direct mandate over cybersecurity governance or operations in Côte d'Ivoire.[1][3][5]</t>
+          <t>The Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development (MHTEISTD) in Zimbabwe provides policy direction for higher education institutions and promotes Innovation and digitalisation as part of national development goals. However, there is no explicit evidence from national cybersecurity strategies, laws, or formal coordination roles indicating that the Ministry holds direct responsibility for cybersecurity governance, policy implementation, or technical coordination at the national level. Cybersecurity-related activities mentioned in the context of this Ministry generally relate to digital skills and awareness development within higher education institutions rather than leading cybersecurity policy or enforcement. Zimbabwe’s national ICT and cybersecurity functions, including technical coordination, awareness, and security standards, appear primarily managed by the Ministry of ICT or other specialized authorities, which have dedicated ICT Security units and lead national cybersecurity initiatives. Therefore, the Ministry’s role in cybersecurity is supportive and indirect, focusing on education and capacity building rather than formal governance or incident response.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3138,14 +3142,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/cote-divoire-digital-economy', 'title': "Côte d'Ivoire - Digital Economy - International Trade Administration", 'snippet': "Under the leadership of the new National Cybersecurity Agency, Cote d'Ivoire is developing a Cybersecurity Strategy that will run from 2026- ...", 'date': '2025-05-19', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/cybersecurity-cybercrime-cop-in-africa-national-approaches/', 'title': 'National cybersecurity and cybercrime policies in Africa', 'snippet': "One of the strategic goals stipulated in the national cybersecurity strategy of Côte d'Ivoire is to enhance international cooperation in two ways: by ...", 'date': '2024-04-12', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://www.africanwirelesscomms.com/news-details?itemid=8462', 'title': 'Ivory Coast to establish cybercrime hub', 'snippet': 'This decision is part of the implementation of the national cybersecurity strategy 2021-2025. Its vision is to secure cyberspace to support ...', 'date': '2024-11-11', 'last_updated': '2024-12-02', 'matched': True}, {'url': 'https://techcabal.com/2025/07/01/cote-divoire-cyber-africa-forum/', 'title': "Côte d'Ivoire targets paperless public sector by 2030 - TechCabal", 'snippet': "Côte d'Ivoire is driving one of Africa's most ambitious digital transformations, aiming for a fully paperless government by 2030.", 'date': '2025-07-01', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ci_2022/', 'title': "NCSI :: Côte d'Ivoire - National Cyber Security Index", 'snippet': 'National Cyber Security Strategy 2021-2025. 1.4. Cyber security strategy implementation plan 1. 1. 1. Requirements. Criteria. The central government has ...', 'date': '2023-08-10', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/pages/national-strategies-repository.aspx', 'title': 'National Cybersecurity Strategies Repository - ITU', 'snippet': '\u200b\u200bThis Repository includes the National Cybersecurity Strategies, be it in a form of a single or multiple documents or as an integral part of a broader ICT ...', 'date': '2025-09-10', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://2021-2025.state.gov/wp-content/uploads/2023/11/ICS_AF_Cote-dIvoire_Public.pdf', 'title': "[PDF] Integrated Country Strategy (ICS) - Cote D'Ivoire - State Department", 'snippet': 'Targeted interagency programming encourages U.S. private sector and institutional commitments in agriculture, education, cybersecurity, digital ...', 'date': '2023-11-27', 'last_updated': '2025-03-05', 'matched': True}]</t>
+          <t>[{'url': 'https://files.eric.ed.gov/fulltext/EJ1427312.pdf', 'title': '[PDF] Digitalisation of Higher Education in Zimbabwe: A Challenging ...', 'snippet': 'Higher education institutions consequently became cyber security targets due to their intricate digital footprints in terms of the volume and ...', 'date': '2024-06-11', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.ictministry.gov.zw', 'title': 'Ministry of ICT Zimbabwe - Official Website', 'snippet': 'Headed by a Director and two Deputy Directors, this department coordinates, advises, monitors, and provides technical support for all government ICT activities.', 'date': '2025-02-19', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.zimskills.gov.zw/launch-of-a-transformative-cyber-security-training-programme/', 'title': 'Launch of a transformative Cyber Security training programme', 'snippet': 'PicoCTF-Africa is a free training programme designed to elevate cybersecurity knowledge and skills among participants, particularly focusing on underserved ...', 'date': '2025-02-27', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://ww5.msu.ac.zw/blog/universities-have-a-key-role-to-play-in-the-cyber-security-ecosystem/', 'title': 'Universities have a Key Role to Play in the Cyber Security Ecosystem', 'snippet': 'The world is faced with a shortage of security professionals and institutions such as the Midlands State University play a critical role in the cyber security ...', 'date': '2019-03-20', 'last_updated': '2025-07-30', 'matched': True}, {'url': 'https://zimcyber.com', 'title': 'Cybersecurity Program — Become an Offensive Security Specialist', 'snippet': 'The program trains specialists, secures vital infrastructure, and develops platforms for threat assessment and homegrown solutions. Zimbabwe gains not only ...', 'date': '2025-04-08', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://f1000research.com/articles/12-1251', 'title': "An overview of cybersecurity in Zimbabwe's financial services sector.", 'snippet': 'The study proposes that financial institutions establish a cybersecurity culture to fight cybercrime, addressing cybersecurity barriers and following best ...', 'date': '2024-03-14', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://onlinelibrary.wiley.com/doi/abs/10.1002/spy2.141', 'title': 'Cybersecurity awareness in Zimbabwean universities: Perspectives ...', 'snippet': 'The study investigated the cybersecurity awareness (CSA) in Zimbabwean universities from the perspectives of the students.', 'date': '2020-12-10', 'last_updated': '2024-08-08', 'matched': True}, {'url': 'https://dl.acm.org/doi/10.1002/spy2.141', 'title': 'Cybersecurity awareness in Zimbabwean universities', 'snippet': 'The study investigated the cybersecurity awareness (CSA) in Zimbabwean universities from the perspectives of the students.', 'date': '2020-12-10', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Industry, Innovation, Science and Technology in BARBADOS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research of Côte d'Ivoire in CÔTE D'IVOIRE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3153,27 +3157,29 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ministry of Industry, Innovation, Science and Technology in BARBADOS</t>
+          <t>Ministry of Higher Education and Scientific Research of Côte d'Ivoire in CÔTE D'IVOIRE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ministry of Industry, Innovation, Science and Technology</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>CÔTE D'IVOIRE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>The Ministry of Industry, Innovation, Science and Technology in Barbados is explicitly involved in the nation's cybersecurity governance and initiatives. It is represented by Minister Davidson Ishmael, who announced the development of the National Cyber Security Strategy, which guides how cybersecurity is treated in Barbados[1]. The Ministry is also involved in the implementation of the National Computer Emergency Response Team (CERT), responsible for monitoring and responding to cyber threats on the island[1]. Further evidence includes the Ministry's active coordination in incident response alongside other agencies during cybersecurity incidents in Barbados[2]. These facts indicate the Ministry's direct role in cybersecurity policy, implementation, and technical coordination, fulfilling key criteria for responsibility in this domain.</t>
+          <t>The Ministry of Higher Education and Scientific Research in Côte d'Ivoire is not explicitly mentioned as the primary body responsible for national cybersecurity policy, implementation, or technical coordination in the available national strategies, laws, or reports. The main responsibility for cybersecurity governance, incident response, and technical coordination lies with the National Agency for Information Systems Security (ANSSI) and the Computer Emergency Response Team (CERT-CI), which are specialized cybersecurity bodies established under the national cybersecurity strategy and recent legislative changes [1, 2, 3, 4, 6].
+However, the Ministry of Higher Education and Scientific Research plays a supporting role in cybersecurity by overseeing higher education institutions that offer cybersecurity training and master's level programs, such as the Master in Information Security and Web Technologies (SITW) and Master in Expert Networks, Infrastructures and Security (ERIS) at ESATIC [6]. The ministry's involvement is primarily in the area of education and professional development, contributing to the development of human capital in cybersecurity rather than direct policy or operational responsibility [2, 3, 6].
+There is no evidence that the ministry hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or is directly involved in national cybersecurity planning, response, or enforcement [1, 2, 3, 4, 6]. Its participation in cybersecurity is limited to educational initiatives and capacity building, which is a secondary, supportive function rather than a primary responsibility.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>[{'url': 'https://rss.techbaseltd.com/2023/06/30/barbados-making-moves-in-cyber-security/', 'title': 'Barbados Making Moves In Cyber Security', 'snippet': 'As Barbados continues to make significant advancements in securing its cyber domain, the island has recently developed a National Cyber Security Strategy.', 'date': '2023-06-30', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://stats.gov.bb/dataprotection/', 'title': 'Data Protection - Barbados Statistical Service', 'snippet': 'The Barbados Statistical Service takes safeguarding information seriously and promises a quick and thorough response to security incidents.', 'date': '2016-08-24', 'last_updated': '2025-01-11', 'matched': True}, {'url': 'https://www.gov.bb/Ministries/innovation-science-smart-technology', 'title': 'ministry of industry, innovation, science and technology - GOV.BB', 'snippet': 'Ministry of Industry, Innovation, Science and Technology. 3rd and 4th Floor Baobab Tower Warrens St. Michael. PBX: (246) 535-1200 /1201 /1202', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://publicadministration.desa.un.org/sites/default/files/Key%20Messages%20Barbados.pdf', 'title': '[PDF] United Nations Department of Economic and Social Affairs', 'snippet': 'By integrating sustainable practices and enabling our systems with appropriate technology, we foster innovation that strengthens every institution. This.', 'date': None, 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://ctu.int/opening-remarks-by-hon-davidson-ishmael-at-the-opening-ceremony-for-ctu-ict-week-2023-barbados/', 'title': 'Opening remarks by Hon. Davidson Ishmael at the Opening ...', 'snippet': 'Barbados as a member of the CTU is proud to be the host country for ICT Week 2023, which brings together CARICOM Ministers with responsibility for information.', 'date': '2023-10-16', 'last_updated': '2024-10-01', 'matched': True}, {'url': 'https://mps.gov.bb/People_Resourcing/post_docs/Director%20-%20Digital%20Infrastructure%20-%20(MIST).pdf', 'title': '[PDF] Director - Digital Infrastructure - (MIST) - Ministry of Public Service', 'snippet': 'DUTIES AND RESPONSIBILITIES: •. Oversees the Telecommunications functions;. •. Manages the Telecommunications and Information and.', 'date': '2025-05-09', 'last_updated': '2025-06-24', 'matched': True}, {'url': 'https://www.barbadosparliament.com/page_content/show_content/70', 'title': 'Cabinet Ministers 2022-2027 | BARBADOSPARLIAMENT.COM', 'snippet': 'Mia A. Mottley is Prime Minister, Dale D. Marshall is Attorney General, Kerrie D. Symonds is Senior Minister, and Santia J.O. Bradshaw is Deputy Prime Minister.', 'date': '2024-01-01', 'last_updated': '2025-10-25', 'matched': True}]</t>
+          <t>[{'url': 'https://www.wearetech.africa/en/fils-uk/news/tech/cote-d-ivoire-approves-new-digital-security-framework', 'title': "Côte d'Ivoire Approves New Digital Security Framework - We are Tech", 'snippet': 'It will also coordinate responses to cybersecurity incidents, conduct security audits, certify information systems, and issue electronic ...', 'date': '2025-04-24', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/cote-divoire-digital-economy', 'title': "Côte d'Ivoire - Digital Economy - International Trade Administration", 'snippet': 'The government plans to enhance cybersecurity education and awareness through specialized training programs for professionals and public ...', 'date': '2025-05-19', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://dig.watch/resource/ivory-coasts-cybersecurity-strategy-2021-2025', 'title': "Ivory Coast's cybersecurity strategy (2021-2025)", 'snippet': "A comprehensive plan designed to enhance the country's cybersecurity framework. This strategy is critical for establishing Côte d'Ivoire as a digital hub in ...", 'date': '2024-08-09', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-cote-divoire/', 'title': "Cyber Security in Côte d'Ivoire - Blog | Gavin Dennis", 'snippet': 'CERT-CI aims to protect critical online systems. They work to prevent incidents, respond to attacks, and coordinate efforts to recover from them ...', 'date': '2024-10-29', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/0707-47576-cybersecurity-key-to-cote-divoires-tech-future-vitibs-nzi', 'title': "Cybersecurity Key to Côte d'Ivoire's Tech Future– VITIB's N'ZI", 'snippet': "It's a key pillar for building digital trust, strengthening economic attractiveness, and safeguarding technological sovereignty for both our ...", 'date': '2025-07-07', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ci_2022/', 'title': "NCSI :: Côte d'Ivoire - National Cyber Security Index", 'snippet': 'BASELINE CYBER SECURITY INDICATORS ; 5.1. Cyber security responsibility for digital service providers 0 ; 5.2. Cyber security standard for the public sector 1.', 'date': '2023-08-10', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://2021-2025.state.gov/wp-content/uploads/2023/11/ICS_AF_Cote-dIvoire_Public.pdf', 'title': "[PDF] Integrated Country Strategy (ICS) - Cote D'Ivoire - State Department", 'snippet': 'We are encouraging peacebuilding by improving professionalism and accountability of security forces to the population. By focusing on social ...', 'date': '2023-11-27', 'last_updated': '2025-03-05', 'matched': True}, {'url': 'https://www.capmad.com/technology-en/african-universities-the-need-to-strengthen-cybersecurity/', 'title': 'African Universities : The Need to Strengthen Cybersecurity', 'snippet': 'Stronger defenses and proactive measures will help universities protect their sensitive data and research from growing threats.', 'date': '2024-10-29', 'last_updated': '2024-10-31', 'matched': True}, {'url': 'https://www.ictworks.org/wp-content/uploads/2024/01/cote_divoire_e-overnment_strengthening_support_project.pdf', 'title': "[PDF] COTE D'IVOIRE E-GOVERNMENT STRENGTHENING SUPPORT ...", 'snippet': 'In terms of cybersecurity, the Ivorian administration does not yet have a Security Operations Centre (SOC) which, in synergy with an IT Alert ...', 'date': '2023-09-30', 'last_updated': '2025-10-07', 'matched': True}, {'url': 'https://www.kenet.or.ke/sites/default/files/2b_20210626-Cotedivoire-Case-Study-Final-Report.pdf', 'title': "[PDF] Annex 2 Côte d'Ivoire Country Case Study Report", 'snippet': 'Its National Development Plan (PND 2016-2020) emphasises education and digital technologies to improve access, equity, and learning outcomes in the sector.', 'date': None, 'last_updated': '2024-06-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in DJIBOUTI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Academy of Sciences of the Democratic People's Republic of Korea in DEMOCRATIC PEOPLE'S REPUBLIC OF KOREA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3198,17 +3204,17 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in DJIBOUTI</t>
+          <t>Academy of Sciences of the Democratic People's Republic of Korea in DEMOCRATIC PEOPLE'S REPUBLIC OF KOREA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Academy of Sciences of the Democratic People's Republic of Korea</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Democratic People's Republic of Korea</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3218,7 +3224,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research in Djibouti is primarily focused on education and research sectors and is not mentioned in any national cybersecurity strategy, law, or governance framework as responsible for cybersecurity policy, implementation, or technical coordination. Instead, cybersecurity responsibilities are clearly assigned to the Ministry of Digital Economy and Innovation, which is leading Djibouti's cybersecurity strategy, law oversight, and international cooperation efforts, including the establishment of the National Cybersecurity Authority (ANC/ANCS). There is no evidence that the Ministry of Higher Education and Scientific Research hosts a national CERT/CSIRT, participates in cybersecurity councils, or oversees information security standards. National-level cybersecurity governance, strategy, and operational coordination are centralized under the Ministry of Digital Economy and Innovation and the newly created ANC. Thus, there is no basis to attribute cybersecurity responsibility to the Ministry of Higher Education and Scientific Research in Djibouti[1][2][3][4][6].</t>
+          <t>Available open-source information and cybersecurity advisories related to the Democratic People's Republic of Korea (DPRK) do not identify the Academy of Sciences of the DPRK as a responsible entity for national cybersecurity governance, prevention, planning, response, or enforcement. Instead, the DPRK's cyber operations and cybersecurity responsibilities have been attributed primarily to state intelligence and military bodies such as the Reconnaissance General Bureau and related cyber units. There is no evidence that the Academy of Sciences hosts a national CERT/CSIRT, leads cybersecurity committees, or appears in national cybersecurity strategy or law as a responsible organization for cybersecurity. Scholarly or scientific academies typically focus on research and development in science and technology rather than national cybersecurity policy or enforcement roles, which are typically under intelligence or defense ministries.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3228,14 +3234,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ecofinagency.com/news-digital/1211-50395-djibouti-advances-bill-to-create-national-cybersecurity-authority', 'title': 'Djibouti Advances Bill to Create National Cybersecurity Authority', 'snippet': 'Djibouti presents bill to create independent National Cybersecurity Authority ANC to set standards, monitor threats, and boost cybercrime.', 'date': '2025-11-12', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.wearetech.africa/en/fils-uk/news/public-management/djibouti-unveils-2024-2030-national-cybersecurity-strategy', 'title': 'Djibouti Unveils 2024-2030 National Cybersecurity Strategy', 'snippet': 'Djibouti has unveiled its National Cybersecurity Strategy for 2024-2030, a comprehensive framework aimed at bolstering its digital security and advancing its ...', 'date': '2024-12-02', 'last_updated': '2024-12-16', 'matched': True}, {'url': 'https://dco.org/wp-content/uploads/2025/10/Djibouti-Report.pdf', 'title': '[PDF] Djibouti - Digital Trade Acceleration Initiative', 'snippet': 'The Ministry of Digital Economy and Innovation is primarily responsible for overseeing the cybersecurity law in Djibouti. The recently established High Council ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.wearetech.africa/en/fils-uk/news/telecom/djibouti-qatar-explore-avenues-for-enhanced-cybersecurity-cooperation', 'title': 'Djibouti, Qatar Explore Avenues for Enhanced Cybersecurity ...', 'snippet': 'Potential benefits include the exchange of expertise, sharing of intelligence on emerging cyber threats, enhancement of digital infrastructure, and targeted ...', 'date': '2024-11-21', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.csm.tech/blog-details/navigating-the-digital-frontier-an-analysis-of-djiboutis-e-government-initiatives-and-obstacles', 'title': "Navigating the Digital Frontier: An Analysis of Djibouti's E ...", 'snippet': "Djibouti's e-government initiatives boost services and transparency but face challenges like digital divides and cybersecurity risks.", 'date': '2024-08-13', 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://www.un.org/technologybank/sites/www.un.org.technologybank/files/djibouti_-_technology_needs_assessment_-_eng_0.pdf', 'title': '[PDF] Technology Needs Assessment - Republic of Djibouti', 'snippet': 'The purpose of this TNA is to identify science and technology gaps and priority needs, where Djibouti can take advantage of technological opportunities to ...', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/491561621691313871/pdf/Project-Information-Document-Djibouti-Digital-Foundations-Project-P174461.pdf', 'title': '[PDF] Project-Information-Document-Djibouti-Digital-Foundations-Project ...', 'snippet': 'The expanded use of ICT, digital learning and skills development are key pillars of the Ministry of Education and Professional. Development ( ...', 'date': '2021-05-22', 'last_updated': '2025-04-27', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Djibouti.pdf', 'title': '[PDF] Djibouti | GHS Index', 'snippet': "Djibouti's GHS Index scores are based on six categories: preventing pathogen emergence (4), early detection (29), rapid response (49), robust health sector (65 ...", 'date': None, 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://www.computer.org/csdl/proceedings-article/icedeg/2025/11081578/28wXxSZQdaM', 'title': "Developing a Digital Signature Solution for Djibouti's E-Cabinet", 'snippet': 'By focusing on practical, scalable solutions, this research seeks to support lowmaturity e-government countries like Djibouti in advancing digital governance, ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.csis.org/analysis/forging-forward-south-koreas-proactive-cyber-defense-and-strategic-cooperation-united', 'title': "Forging Forward: South Korea's Proactive Cyber Defense ... - CSIS", 'snippet': 'This paper aims to explore areas in which South Korea and the United States must deepen their collaboration to bolster their proactiveness in cyber defense.', 'date': '2025-07-10', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Korea_Internet_&amp;_Security_Agency', 'title': 'Korea Internet &amp; Security Agency - Wikipedia', 'snippet': "KISA is the only Internet and Information Security promotion organization in Korea with an aim to improve the global competitiveness of Korea's Internet ...", 'date': '2005-03-04', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://www.nsa.gov/Press-Room/Press-Releases-Statements/Press-Release-View/Article/3413621/us-rok-agencies-alert-dprk-cyber-actors-impersonating-targets-to-collect-intell/', 'title': 'U.S., ROK Agencies Alert: DPRK Cyber Actors Impersonating ...', 'snippet': 'DPRK state-sponsored cyber actors continue to impersonate trusted sources to collect sensitive information,” said Rob Joyce, NSA director of Cybersecurity.', 'date': '2023-06-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.mofa.go.kr/eng/wpge/m_25525/contents.do', 'title': 'North Korean Cyber Threat | Ministry of Foreign Affairs, Republic of ...', 'snippet': 'DPRK IT workers are located all around the world, obfuscating their nationality and identities. They earn hundreds of millions of dollars a year.', 'date': '2025-02-21', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://ofac.treasury.gov/media/923131/download?inline', 'title': "[PDF] Guidance on the Democratic People's Republic of Korea Information ...", 'snippet': 'For more information, please see the DPRK Cyber Advisory, visit the Treasury resource center, and/or contact your local FBI office. If you have ...', 'date': '2022-05-16', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.38north.org/2025/10/the-global-threat-of-dprk-it-workers/', 'title': 'The Global Threat of DPRK IT Workers - 38 North', 'snippet': "The Democratic People's Republic of Korea's (North Korea or DPRK) is most often associated with large-scale cyber intrusions and ...", 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://2021-2025.state.gov/u-s-government-cybersecurity-alert-democratic-peoples-republic-of-korea-dprk-using-new-tactic-in-social-engineering-operations/', 'title': "Democratic People's Republic of Korea (DPRK) Using New Tactic in ...", 'snippet': 'This joint Cybersecurity Advisory provides detailed information on how Kimsuky actors operate, warning signs of spearphishing campaigns, and ...', 'date': '2024-05-02', 'last_updated': '2025-03-23', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Culture and Science (OCW) in NETHERLANDS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Belgian Science Policy Office (BELSPO) in BELGIUM responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3243,17 +3249,17 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture and Science (OCW) in NETHERLANDS</t>
+          <t>Belgian Science Policy Office (BELSPO) in BELGIUM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture and Science (OCW)</t>
+          <t>Belgian Science Policy Office (BELSPO)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3263,7 +3269,9 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Culture and Science (OCW) is responsible for integrating cybersecurity into the education curriculum and ensuring that digital skills, including cybersecurity, are part of the national curriculum for primary and secondary education[1][3][5]. The Ministry has mandated that cybersecurity be a mandatory part of the curriculum at secondary vocational education (mbo)[5]. However, the overall national cybersecurity policy, technical coordination, and incident response are led by the Ministry of Justice and Security, which is the coordinating minister for cybersecurity and responsible for tackling cybercrime[4][3]. The Ministry of Economic Affairs and Climate Policy, along with the National Cyber Security Centre (NCSC), are responsible for digital infrastructure and incident response[1]. OCW's role is primarily educational and does not extend to broader national cybersecurity governance, prevention, planning, response, or enforcement[1][3][4][5].</t>
+          <t>The Belgian Science Policy Office (BELSPO) is not the primary entity responsible for national cybersecurity policy, implementation, or technical coordination in Belgium. The Centre for Cybersecurity Belgium (CCB) is explicitly mentioned as the body responsible for monitoring, coordinating, and overseeing the implementation of the Belgian Cybersecurity Strategy, including the coordination of cybersecurity and the realization of the national strategy[1]. BELSPO's main responsibilities are managing Belgian science policy, federal scientific institutes, the national research network (BELNET), and Belgium's contributions to international space programmes, including the European Space Agency (ESA)[2][3][9][10].
+BELSPO does play a supporting role in cybersecurity, particularly in the context of space infrastructure and research. It is involved in initiatives that integrate cybersecurity with space activities, such as supporting the Civil Security from Space (CSS) programme and projects like SAFEPLACE, which combine satellite connectivity, Earth observation, and ground-based systems for civil security applications[3][5][7]. BELSPO also manages BELNET, which provides secure high-speed internet access to research and public institutions, and supports open science policies that include data security and interoperability[4]. However, these activities are focused on the research and space sectors, not on overarching national cybersecurity governance or enforcement[2][3][4][9].
+BELSPO does not host a national CERT/CSIRT/CIRT, lead or participate in a national cybersecurity committee, or oversee information security standards for the general public or critical infrastructure. Its involvement in cybersecurity is sector-specific and supportive, rather than central or comprehensive[1][2][3][4][9][10].</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3273,14 +3281,14 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/netherlands/~technology', 'title': 'Netherlands | Technology - Education Profiles', 'snippet': '2.2.1. Technology infrastructure and digital capacity of schools · 2.2.2. Technology and learning environments · 2.3.1. Learners · 2.3.2. Teachers.', 'date': '2024-08-06', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://english.nctv.nl/binaries/nctv-en/documenten/publications/2022/12/06/the-netherlands-cybersecurity-strategy---action-plan/NCTV+%E2%80%A2+Actieplan+NCSS+22-28+%E2%80%A2+handreiking+EN+RGB+HR.pdf', 'title': '[PDF] Action plan Netherlands Cybersecurity Strategy 2022-2028', 'snippet': 'These days, 81% of payments at the checkout are contactless. That makes it all the more important that our payment transactions remain secure.', 'date': '2022-12-06', 'last_updated': '2024-07-05', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/actions/national-initiatives/national-strategies/netherlands-cybersecurity-strategy-2022-2028', 'title': 'Netherlands - Cybersecurity Strategy 2022-2028', 'snippet': 'Understanding the threat. More cybersecurity specialists. Government and sectors taking responsibility. Better supervision and the necessary ...', 'date': '2024-07-29', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://english.ncsc.nl/binaries/ncsc-en/documenten/publications/2022/december/06/the-netherlands-cybersecurity-strategy-2022-2028/TheNetherlandsCybersecurityStrategy2022-2028.pdf', 'title': '[PDF] Netherlands Cybersecurity Strategy 2022-2028', 'snippet': 'How can information about cyber threats be shared more quickly and more efficiently? How can organised cybercrime, such as ransomware attacks, be tackled.', 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://privacy-web.nl/en/nieuws/minister-verplicht-cybersecurity-op-mbo/', 'title': 'Minister mandates cybersecurity at mbo - PONT | Data &amp; Privacy', 'snippet': 'Minister van Engelshoven of the Ministry of Education, Culture and Science wants to make cybersecurity a mandatory part of the curriculum at secondary ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.government.nl/topics/science/knowledge-security', 'title': 'Knowledge security | Science - Government.nl', 'snippet': 'It is difficult to overstate the importance of international cooperation for Dutch scientific endeavours. Knowledge institutions in the ...', 'date': '2025-04-07', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://english.rvo.nl/topics/national-contact-point-knowledge-security', 'title': 'National Contact Point for Knowledge Security | RVO.nl', 'snippet': 'The contact point offers help to everyone who works for or is connected to a knowledge institution. We answer questions about opportunities, risks, and/or ...', 'date': '2025-03-05', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://stip.oecd.org/stip/interactive-dashboards/policy-initiatives/2025%2Fdata%2FpolicyInitiatives%2F99996663', 'title': 'National Knowledge Security Guidelines - STIP Compass - OECD', 'snippet': 'Name of responsible organisation : Ministry of Education, Culture and Science (OCW;Ministerie van Onderwijs, Cultuur en Wetenschap) ...', 'date': '2025-08-11', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://ccdcoe.org/uploads/2018/10/Belgium_CCB_Strategy-2.0_2021_English.pdf', 'title': '[PDF] CYBERSECURITY STRATEGY BELGIUM 2.0 2021-2025 - CCDCOE', 'snippet': 'Monitoring, coordinating and overseeing the implementation of the Belgian Cybersecurity Strategy is the responsibility of the Centre for Cybersecurity Belgium ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.esa.int/Enabling_Support/Space_Engineering_Technology/Belgian_Science_Policy_Office_BELSPO', 'title': 'Belgian Science Policy Office (BELSPO) - European Space Agency', 'snippet': 'The Belgian Science Policy Office (BELSPO) is managing the Belgian Science Policy at the Federal level. It belongs to the Belgian Federal Administration.', 'date': '2015-06-01', 'last_updated': '2025-01-12', 'matched': True}, {'url': 'https://www.stariongroup.eu/starion-and-partners-demonstrate-first-safeplace-proof-of-concept-at-esa-esec/', 'title': 'Starion and partners demonstrate first SAFEPLACE proof of concept ...', 'snippet': "... Belgium's Science Policy Office, in charge of managing the Belgian contributions to international space programmes. BELSPO plays a central role ...", 'date': '2025-06-12', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/access-to-public-research-data-toolkit_a12e8998-en/belgian-science-policy-office-belspo-open-science-policy_65195e34-en.html', 'title': 'Belgian Science Policy Office (BELSPO) Open Science Policy - OECD', 'snippet': 'BELSPO mandates that researchers deposit their publications in open access repositories immediately upon acceptance, ensuring prompt availability.', 'date': '2025-04-15', 'last_updated': '2025-04-17', 'matched': True}, {'url': 'https://www.belspo.be/belspo/EUBelgium24/index_programme_en.stm', 'title': 'Research, Innovation and Space : priorities of the Belgian Presidency', 'snippet': 'Ensuring the cyber resilience of space infrastructure, mitigating climate change, facilitating the implementation of the EU space strategy for security and ...', 'date': None, 'last_updated': '2025-03-27', 'matched': True}, {'url': 'http://atwork.safeonweb.be/tools-resources/cybersecurity-subsidies', 'title': 'Cybersecurity subsidies | CCB Safeonweb', 'snippet': 'Various subsidy mechanisms exist in Belgium to support you in the implementation of your protection measures. This page gathers information on the subsidies ...', 'date': '2024-01-01', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.belspo.be/belspo/space/EUBelgium24_CRS_fr.stm', 'title': 'Thematic conference on space and cybersecurity - Belspo', 'snippet': 'Formulation of actionable strategies and policies for enhanced cyber resilience. Encouraging cross-sector collaboration and knowledge-sharing among stakeholders ...', 'date': None, 'last_updated': '2025-02-09', 'matched': True}, {'url': 'https://www.unifly.aero/unifly-presents-preliminary-results-of-secureutm-project-and-first-cyber-certification-scheme-for-utm-at-belspo-esa-navisp-pnt-workshop/', 'title': 'Unifly Presents Preliminary Results of SecureUTM Project and First ...', 'snippet': 'The SecureUTM project addresses these by proposing a cyber certification scheme for UTM systems in the EU, ensuring compliance with regulations ...', 'date': '2025-06-26', 'last_updated': '2024-09-15', 'matched': True}, {'url': 'https://www.belspo.be/belspo/space/bepolicy_en.stm', 'title': 'Belgian space strategy | Space in Belgium - Belspo', 'snippet': 'Belgium must position itself to be part of it and allow its players to occupy key positions, particularly in the field of cyber security. The strategic ...', 'date': '2019-07-15', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'http://diplomatie.belgium.be/en/policy/policy-areas/highlighted/belgium-and-international-space-policy', 'title': 'Belgium and international space policy | FPS Foreign Affairs', 'snippet': 'In Redu, Belgium, the ESA is establishing a cyber security centre, crucial for protecting space systems. ... BELSPO may be the main Belgian ...', 'date': '2024-04-24', 'last_updated': '2025-06-20', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Division of Science, Technology and Innovation (DSTI), Ministry of Investment, Entrepreneurship and Industry in SEYCHELLES responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Information, Communications and Technology in ESWATINI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3288,27 +3296,27 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Division of Science, Technology and Innovation (DSTI), Ministry of Investment, Entrepreneurship and Industry in SEYCHELLES</t>
+          <t>Ministry of Information, Communications and Technology in ESWATINI</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Division of Science, Technology and Innovation (DSTI), Ministry of Investment, Entrepreneurship and Industry</t>
+          <t>Ministry of Information, Communications and Technology</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SEYCHELLES</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>The Division of Science, Technology and Innovation (DSTI), under the Ministry of Investment, Entrepreneurship and Industry, is not explicitly mentioned in the national cybersecurity strategy, policy documents, or official reports as being responsible for cybersecurity policy, implementation, or technical coordination in Seychelles. The primary responsibility for cybersecurity governance and coordination is assigned to the Department of Information and Communication Technology (DICT), which oversees the application and implementation of the National Cybersecurity Policy and Strategy [2][3]. The Seychelles Cybersecurity Agency (SCA) is tasked with the development, implementation, and enforcement of comprehensive cybersecurity policies and standards, and the National Cyber Security Incident Response Team (NCSIRT) is responsible for handling cyber incidents at the national level [1][7]. There is no evidence that DSTI hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or participates in cybersecurity events or international initiatives as a lead entity. While DSTI may be involved in broader science, technology, and innovation initiatives, its role in cybersecurity appears to be indirect or supportive rather than central or authoritative.</t>
+          <t>The Ministry of Information, Communications and Technology (ICT) in Eswatini has a clearly defined and central role in the governance and implementation of the country's cybersecurity framework. According to the Eswatini National Cybersecurity Strategy 2022-2027, the Ministry is responsible for developing cybersecurity policies, implementing key initiatives including cybersecurity awareness programmes, and hosting national internet governance efforts[1][2]. The Ministry is thus engaged in strategic planning and policymaking for national cybersecurity. Additionally, the Eswatini Communications Commission (ESCCOM), which operates under the Ministry of ICT, is tasked with establishing and hosting the national Cyber Incident Response Team (CIRT)[1][7]. Public statements by ministry officials emphasize the Ministry’s leadership in national cybersecurity capacity building and collaboration with other sectors including the private sector[3][8]. The Ministry’s portfolio responsibilities encompass policy guidelines and coordination of ICT development, regulatory frameworks, and promoting cybersecurity awareness and resilience[4]. These multiple substantial roles confirm that the Ministry of ICT holds a high level of responsibility for cybersecurity governance, prevention, and strategic coordination in Eswatini.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3318,14 +3326,14 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[{'url': 'https://generisonline.com/an-overview-of-cybersecurity-regulations-in-seychelles/', 'title': 'An Overview of Cybersecurity Regulations in Seychelles', 'snippet': 'Explore the importance of cybersecurity in Seychelles, highlighting regulations like the Data Protection Act and the Computer Misuse Act.', 'date': '2024-11-27', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.ict.gov.sc/documents/Policies/Seychelles%20National%20Cybersecurity%20Policy%20-%202019.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY POLICY 2019 - DICT', 'snippet': 'The purpose of this policy is to set a vision for the future of cybersecurity in Seychelles to be achieved over the course of the next 5 years.', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.ict.gov.sc/documents/Policies/National%20Cybersecurity%20Strategy%20-%202019-2024.pdf', 'title': '[PDF] National Cybersecurity Strategy - 2019-2024.pdf - DICT', 'snippet': 'Their roles are to: Encourage Research &amp; Development in the cybersecurity field to identify optimal solutions for Seychelles; Develop educational and training ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/sc_2022/', 'title': 'NCSI :: Seychelles - National Cyber Security Index', 'snippet': 'BASELINE CYBER SECURITY INDICATORS. 5. Protection of digital services 0/5 0%. 0. 5 0%. 5.1. Cyber security responsibility for digital service providers 0. 0. 1 ...', 'date': '2023-06-14', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.seychellescompanyregistration.com/blogs/data-protection-law', 'title': 'Seychelles Data Protection Law for Offshore Businesses', 'snippet': 'Seychelles data protection laws provide a framework that enables businesses to be private while operating within the law.', 'date': '2025-06-02', 'last_updated': '2025-07-02', 'matched': True}, {'url': 'https://cbs.sc/Downloads/legislations/Cyber%20Security%20Guidelines%20April%202019.pdf', 'title': '[PDF] Cyber Security Guidelines April 2019.pdf - Central Bank Of Seychelles', 'snippet': 'This should include protecting data processed in endpoint devices, data in transmission, as well as data stored in servers and other digital ...', 'date': '2019-04-09', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-seychelles/', 'title': 'Cyber Security in Seychelles - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'The NCSIRT is responsible for handling cyber security incidents at the national level. Their roles include receiving reports of cyberattacks, ...', 'date': '2024-10-22', 'last_updated': '2025-03-14', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-seychelles-syc-top-cybersecurity-employers-in-seychelles-whos-hiring-and-what-they-look-for', 'title': "Top Cybersecurity Employers in Seychelles: Who's Hiring and What ...", 'snippet': "Discover top cybersecurity employers in Seychelles, who's hiring, and the skills you need for a career in Seychelles, SC.", 'date': '2024-12-24', 'last_updated': '2025-03-06', 'matched': True}, {'url': 'https://maarcofrancis.com/leadership-values/data-privacy-security-digital-governance/', 'title': 'Data Privacy and Security in Seychelles Governance - Maarco Francis', 'snippet': 'Learn how data privacy and security enhance digital governance in Seychelles, ensuring trust and efficiency.', 'date': '2025-08-25', 'last_updated': None, 'matched': True}, {'url': 'https://mia.gov.sc/nccc/news/strengthening-cybersecurity-in-the-banking-secto', 'title': 'Strengthening Cybersecurity in the Banking Sector', 'snippet': "The workshop emphasized that cyber resilience is a shared responsibility, and collaboration is essential to protecting Seychelles' financial ...", 'date': '2025-08-21', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.esccom.org.sz/publications/reports/docs/Eswatini_National_Cybersecurity_Strategy_2022-2027.pdf', 'title': '[PDF] ESWATINI NATIONAL CYBERSECURITY STRATEGY 2022 - 2027', 'snippet': 'The. Ministry of ICT will continue to develop policies, and implement key initiatives such as. Cybersecurity awareness raising, hosting of the Internet ...', 'date': None, 'last_updated': '2024-02-05', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Eswatini%20NCS%202020.pdf', 'title': '[PDF] Eswatini National Cybersecurity Strategy (NCS) 2025 - ITU', 'snippet': 'In addition, such a framework will ensure that Eswatini has the ability to respond to cyber threats, and protect CIIs and ICT services in the country. National ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=7-V8PsiYOb0', 'title': "Strengthening Eswatini's cybersecurity requires more than just ...", 'snippet': "The Ministry of Information, Communications, and Technology says strengthening Eswatini's cybersecurity requires more than just government ...", 'date': '2025-08-07', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.gov.sz/index.php/ministries-departments/ministry-of-ict', 'title': 'Ministry of ICT - Eswatini Government', 'snippet': 'PORTFOLIO RESPONSIBILITIES. To provide efficient and cost effective Information &amp; Communications Technology services;; Provide policy guidelines and coordinate ...', 'date': '2023-12-01', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://techafricanews.com/2025/10/07/eswatini-launches-cybersecurity-awareness-month-to-strengthen-national-digital-safety/', 'title': 'Eswatini Launches Cybersecurity Awareness Month to Strengthen ...', 'snippet': "The initiative highlights cybersecurity as a shared national responsibility that underpins Eswatini's security, economic resilience, and social", 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://www.bis.org/review/r251007s.htm', 'title': "Phil Mnisi: Eswatini's Cybersecurity Awareness Month", 'snippet': 'In line with the requirements of the National Cybersecurity Strategy, we are also envisaging the establishment of a Financial Sector Cyber ...', 'date': '2025-10-13', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.apc.org/en/news/risk-human-rights-infringement-eswatini-rushes-regulate-ict-sector', 'title': 'Risk of human rights infringement as Eswatini rushes to regulate the ...', 'snippet': 'Strategies for ICT development\u200b\u200b Another strategy would be the National Cybersecurity Strategy 2022-2027, one of whose goals is to foster a safe ...', 'date': '2024-07-22', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://business-eswatini.co.sz/minister-of-ict-engages-private-sector-to-drive-digital-transformation-in-eswatini/', 'title': 'Minister of ICT Engages Private Sector to Drive Digital ...', 'snippet': 'Cybersecurity: With Eswatini scoring 84 on cybersecurity readiness, the government is committed to further strengthening this area through ...', 'date': '2025-03-08', 'last_updated': '2025-03-21', 'matched': True}, {'url': 'https://www.esccom.org.sz/publications/reports/docs/ICT_REPORT_2022.pdf', 'title': '[PDF] Information and Communication Technology Sector Report 2022', 'snippet': 'The country is further working on the. National Cybersecurity Strategy, which is aimed at availing a safe, secure and resilient Cyberspace in Eswatini.', 'date': None, 'last_updated': '2025-11-11', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development in ZIMBABWE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Technology and Artificial Intelligence in LEBANON responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3333,44 +3341,44 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development in ZIMBABWE</t>
+          <t>Ministry of Technology and Artificial Intelligence in LEBANON</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development</t>
+          <t>Ministry of Technology and Artificial Intelligence</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>The Ministry of Higher and Tertiary Education, Innovation, Science and Technology Development in Zimbabwe is involved in supporting digital transformation and innovation in the education sector, including some aspects of cybersecurity awareness and education. For example, it supports cybersecurity associations at universities and promotes digitalisation of higher education institutions, which face cybersecurity threats as their digital footprints grow[2][7][8]. However, there is no explicit indication that this Ministry holds formal responsibility for national cybersecurity governance, policy formulation, enforcement, or technical coordination. Such roles are attributed mainly to other government actors, notably the Ministry of ICT, Postal and Courier Services, which directly handles national cybersecurity strategies, training programs, and legislation enforcement[1][3]. Furthermore, the Ministry of Higher Education collaborates with academic and other stakeholders but does not lead national cybersecurity efforts. Therefore, its responsibility level in cybersecurity is assessed as LOW with medium confidence based on available information.</t>
+          <t>The Ministry of Technology and Artificial Intelligence (MITAI) in Lebanon has a core mandate including shaping the national digital strategy and accelerating digital transformation, with explicit responsibilities over cybersecurity measures and protecting personal data. It oversees the development of unified national digital platforms and works on enhancing cybersecurity measures as part of digital governance and innovation promotion. The minister has publicly emphasized the need for regulating AI aspects related to cybersecurity and privacy, indicating active involvement in cybersecurity policy and oversight. The ministry also aims to position Lebanon as a regional hub for technology, including cybersecurity. These points collectively demonstrate that MITAI holds a high level of responsibility for cybersecurity governance and implementation in Lebanon[1][2][3][6].</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.connectingafrica.com/cybersecurity/zimbabwe-intensifies-cybersecurity-awareness-measures', 'title': 'Zimbabwe intensifies cybersecurity awareness measures', 'snippet': "The Ministry is collaborating with academic institutions, the private sector and international partners to enhance Zimbabwe's cybersecurity ...", 'date': '2024-10-23', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://files.eric.ed.gov/fulltext/EJ1427312.pdf', 'title': '[PDF] Digitalisation of Higher Education in Zimbabwe: A Challenging ...', 'snippet': 'Higher education institutions consequently became cyber security targets due to their intricate digital footprints in terms of the volume and ...', 'date': '2024-06-11', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.zimskills.gov.zw/launch-of-a-transformative-cyber-security-training-programme/', 'title': 'Launch of a transformative Cyber Security training programme', 'snippet': 'PicoCTF-Africa is a free training programme designed to elevate cybersecurity knowledge and skills among participants, particularly focusing on underserved ...', 'date': '2025-02-27', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://zimcyber.com', 'title': 'Cybersecurity Program — Become an Offensive Security Specialist', 'snippet': 'The program trains specialists, secures vital infrastructure, and develops platforms for threat assessment and homegrown solutions. Zimbabwe gains not only ...', 'date': '2025-04-08', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://f1000research.com/articles/12-1251', 'title': "An overview of cybersecurity in Zimbabwe's financial services sector.", 'snippet': 'The study proposes that financial institutions establish a cybersecurity culture to fight cybercrime, addressing cybersecurity barriers and following best ...', 'date': '2024-03-14', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.cfr.org/blog/what-zimbabwes-cybersecurity-ministry-says-about-human-rights-country', 'title': "What Zimbabwe's Cybersecurity Ministry Says About Human Rights ...", 'snippet': "According to critics, Zimbabwe's new ministry of cybersecurity is more concerned with curbing seditious speech than protecting the country's ...", 'date': '2017-10-23', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://onlinelibrary.wiley.com/doi/abs/10.1002/spy2.141', 'title': 'Cybersecurity awareness in Zimbabwean universities: Perspectives ...', 'snippet': 'The study investigated the cybersecurity awareness (CSA) in Zimbabwean universities from the perspectives of the students.', 'date': '2020-12-10', 'last_updated': '2024-08-08', 'matched': True}, {'url': 'https://dl.acm.org/doi/10.1002/spy2.141', 'title': 'Cybersecurity awareness in Zimbabwean universities', 'snippet': 'The study investigated the cybersecurity awareness (CSA) in Zimbabwean universities from the perspectives of the students.', 'date': '2020-12-10', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.tahawultech.com/news/lebanon-joins-global-tech-race-with-appointment-of-its-first-ministry-of-ai/', 'title': 'Lebanon joins global tech race with appointment of its first Ministry ...', 'snippet': "The Ministry of Technology and AI will be responsible for shaping national digital strategy and accelerating Lebanon's transition into a ...", 'date': '2025-09-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://en.kataeb.org/articles/lebanon-seeks-to-attract-global-tech-giants-with-new-ministry-of-technology-and-ai', 'title': 'Lebanon Seeks to Attract Global Tech Giants with New Ministry of ...', 'snippet': 'Contributing to cybersecurity, protecting personal data, and building trust in digital systems. Supporting the digital economy through training ...', 'date': '2025-09-11', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.alsafanews.com/article/20225-a-new-ministry-for-technology-and-artifificial-intelligence-in-lebanon-reformist', 'title': 'A New Ministry for Technology and Artificial Intelligence in Lebanon', 'snippet': '- Drafting legislation and regulations for technology and AI. - Creating a unified digital ecosystem to streamline government services via a ...', 'date': '2025-09-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://omsar.gov.lb/Assets/docs/Appraisal-SEP-Lebanon-Digital-Acceleration-Project.pdf', 'title': '[PDF] Lebanese Republic Office of the Minister of State for Administrative ...', 'snippet': 'addressed security risks posed by emerging technologies, particularly artificial intelligence and weaponized generative models for exploit creation and ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://tips-lb.org/wp-content/uploads/2025/02/Building-Lebanons-AI-Future-Strategic-Priorities.pdf', 'title': "[PDF] Building Lebanon's AI Future: Strategic Priorities Date: February 2025", 'snippet': '▫ Cybersecurity Measures: Invest in affordable cybersecurity solutions to protect AI infrastructure from cyber threats. 5.3 Building an AI Ecosystem. 5.4 ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.thenationalnews.com/future/2025/10/14/governments-cant-afford-to-be-passive-on-ai-warns-lebanese-minister-at-gitex/', 'title': "Governments can't afford to be passive on AI, warns Lebanese ...", 'snippet': '“We should regulate some aspects of AI related to privacy, cybersecurity, [and] deep fake,” Mr Shehadi said, stressing selective regulation.', 'date': '2025-10-14', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-lebanon-lbn-government-the-complete-guide-to-using-ai-in-the-government-industry-in-lebanon-in-2025', 'title': 'The Complete Guide to Using AI in the Government Industry in ...', 'snippet': "Beginner's guide to using AI in Lebanon's government in 2025: policies, startups, conference insights, and a practical roadmap for Lebanon.", 'date': '2025-09-10', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://today.lorientlejour.com/article/1478828/the-formation-of-lebanons-new-ai-ministry-has-the-tech-community-divided.html', 'title': "The formation of Lebanon's new AI ministry has the tech community ...", 'snippet': "Lebanon's new AI ministry aims to propel digital growth, but opinions are divided on its necessity, infrastructure readiness, and potential ...", 'date': '2025-09-26', 'last_updated': None, 'matched': True}, {'url': 'https://maghrebi.org/2025/10/14/lebanon-minister-urges-strong-ai-regulation-from-governments/', 'title': 'Lebanon Minister urges stronger AI regulation from governments', 'snippet': "Kamal Shehadi, Lebanon's Minister of Technology and AI, expressed his opinion on the need for AI framework policies to adapt to the rapidly.", 'date': '2025-10-14', 'last_updated': None, 'matched': True}, {'url': 'https://www.aub.edu.lb/ifi/Documents/Towards-Socio-technical-and-Responsible-AI-transformation-Lebanon.pdf', 'title': '[PDF] Towards a Socio-technical and Responsible AI Transformation in ...', 'snippet': 'In this working paper, we propose forward an ambitious manifesto and a suite of recommendations for complementing the five-year strategy (LEAP) ...', 'date': '2025-07-26', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research, and Innovation (Morocco) in MOROCCO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science, Technology and Innovation (Ministério do Ensino Superior, Ciência, Tecnologia e Inovação - MESCTI) in ANGOLA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3378,17 +3386,17 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research, and Innovation (Morocco) in MOROCCO</t>
+          <t>Ministry of Higher Education, Science, Technology and Innovation (Ministério do Ensino Superior, Ciência, Tecnologia e Inovação - MESCTI) in ANGOLA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research, and Innovation (Morocco)</t>
+          <t>Ministry of Higher Education, Science, Technology and Innovation (Ministério do Ensino Superior, Ciência, Tecnologia e Inovação - MESCTI)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3398,7 +3406,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Scientific Research, and Innovation (MESRI) in Morocco participates primarily in cybersecurity through academic and research initiatives rather than direct policy, enforcement, or operational cybersecurity governance. Notably, MESRI co-established the Cybersecurity Innovation Center (CIC) in partnership with other ministries and Mohammed V University, aimed at promoting cybersecurity research, training, and innovation, thus contributing to national digital resilience and expertise development[2][8]. However, the core responsibility for national cybersecurity policy, strategy implementation, and incident response lies with other entities, notably the General Directorate of Information Systems Security (DGSSI) under the National Defense Administration, and other ministries such as the Ministry of Digital Transition and Administration Reform which announced national cybersecurity strategies[1][3][4]. The MESRI's role is more supportive and educational, facilitating human capital development and research coordination in cybersecurity rather than leading cybersecurity governance or operational enforcement. Accordingly, in terms of direct responsibility for national cybersecurity governance, MESRI holds a low responsibility level with high confidence based on official joint orders and documented institutional roles[2].</t>
+          <t>There is no direct or explicit mention in national laws, cybersecurity strategies, or reports that MESCTI holds primary responsibility for cybersecurity policy, implementation, or coordination in Angola. Cybersecurity legal frameworks, such as Law no. 7/17 of 2017 on Network and IT Systems Protection, assign cybersecurity regulatory and operational responsibilities primarily to operators of electronic communication networks and the Data Protection Agency, not MESCTI[1]. Current cybersecurity governance efforts in Angola reference the creation of a National Cybersecurity Council and Computer Security Incident Response Teams, but do not indicate MESCTI's leadership or hosting of national CERT/CSIRT entities[3]. The ministry is involved in higher education and cooperation related to science and technology, which may touch on cybersecurity topics academically or in research contexts but do not equate to national cybersecurity governance or operational responsibility[5]. Therefore, MESCTI has a low level of cybersecurity responsibility mainly from a sectoral, education and innovation perspective but is not a primary actor in national cybersecurity governance, enforcement, or incident coordination.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3408,14 +3416,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ecofinagency.com/news-digital/1306-47261-morocco-launches-new-cybersecurity-strategy-as-attacks-on-state-systems-rise', 'title': 'Morocco launches new cybersecurity strategy as attacks on state ...', 'snippet': 'The plan focuses on securing state information systems through early-stage risk mitigation, system audits, and the implementation of cybersecurity standards.', 'date': '2025-06-13', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.dgssi.gov.ma/en/actualites/publication-joint-order-no-114825-approving-convention-establishing-cybersecurity', 'title': 'Publication of the Joint Order No. 1148.25 Approving the ... - | DGSSI', 'snippet': 'The CIC will carry out a multidimensional mission for the benefit of its members, including in particular: Higher education in cybersecurity professions; ...', 'date': '2025-06-01', 'last_updated': '2025-06-25', 'matched': True}, {'url': 'https://www.potomacinstitute.org/images/CRI/CRI_Morocco_Profile_Digital.pdf', 'title': '[PDF] The Kingdom of Morocco Cyber Readiness at a Glance', 'snippet': 'Morocco is assuming a more prominent role in promoting regional cyber security cooperation and awareness, but has not prioritized cyber security ...', 'date': '2018-12-07', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://emiratesscholar.com/directory/index.php/ijidc/article/view/487/478', 'title': "[PDF] Morocco's cybersecurity strategy between challenges and aspirations", 'snippet': 'This strategy focused on four main pillars: risk assessment, protection of the information systems of government agencies, public institutions, ...', 'date': '2024-12-30', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.moroccoworldnews.com/2025/10/262497/knext-rabat-2025-explores-ais-expanding-role-in-cybersecurity/', 'title': "KNext Rabat 2025 Explores AI's Expanding Role in Cybersecurity", 'snippet': 'In recent years, Morocco has steadily expanded its national cybersecurity framework to keep pace with rapid digitalization across public and ...', 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://www.brinztech.com/breach-alerts/brinztech-morocco-higher-ed-ministry-enssup-gov-ma-db-leaked/', 'title': 'Brinztech: Morocco Higher Ed Ministry (enssup.gov.ma) DB Leaked', 'snippet': 'Responding to a potential government ministry leak requires immediate investigation and security measures: For the Moroccan Ministry of Higher ...', 'date': '2025-10-26', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.universityworldnews.com/post.php?story=20250511213737867', 'title': 'New national plan to attract and retain researchers launched', 'snippet': "Morocco has launched a three-year national programme (2025-28) to attract and retain researchers in an effort to enhance the country's innovation ecosystem.", 'date': '2025-05-15', 'last_updated': '2025-05-15', 'matched': True}, {'url': 'https://mail.techreviewafrica.com/public/news/1420/morocco-establishes-innovation-center-for-cybersecurity', 'title': 'Morocco establishes innovation center for cybersecurity', 'snippet': 'The newly established innovation center is set to play a crucial role in enhancing research, development, and innovation in cybersecurity.', 'date': '2025-11-12', 'last_updated': None, 'matched': True}, {'url': 'https://initiatives.weforum.org/cyberresilienceindustries/case-studies/fortinet-and-the-ministry-of-higher-education,-scientific-research-and-professional-training-of-morocco/aJYTG0000000cuv4AA', 'title': 'Fortinet and the Ministry of Higher Education, Scientific Research ...', 'snippet': 'Fortinet provides cybersecurity training and certification, at no cost to this initiative, through its Academic Partner Program. Through this ...', 'date': '2025-06-12', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/angola', 'title': 'Data protection and cybersecurity laws in Angola| CMS Expert Guide', 'snippet': 'According to Law no. 22/11, of 17 June, the processing of personal data is subject to prior notification or authorisation by the Data Protection Agency.', 'date': '2021-03-01', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ao/', 'title': 'NCSI :: Angola - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2023-11-29', 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.ibanet.org/document?id=Metaverse-project-Angola', 'title': '[PDF] ANGOLA - International Bar Association', 'snippet': 'What are the main obligations they set out? There are no specific cybersecurity standards applicable within the context of the metaverse or generally in Angola.', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.africaonlinesafety.com/research-view?id=recEvknd4LKKZ', 'title': 'Cybersecurity in Angolan critical infrastructure in the ICT sector', 'snippet': 'Cybersecurity in Angolan critical infrastructure in the ICT sector. Central Bank of Angola Develops Strategies to Tackle Cyber Threats. (2024).', 'date': None, 'last_updated': '2025-05-06', 'matched': True}, {'url': 'https://www.menosfios.com/en/angola-e-mocambique-reforcam-cooperacao-entre-as-instituicoes-de-ensino-superior/', 'title': 'Angola and Mozambique reinforce cooperation between higher ...', 'snippet': 'Angola and Mozambique reinforce cooperation between higher education institutions · Angola signs United Nations Convention against Cybercrime · [ ...', 'date': '2022-07-03', 'last_updated': '2025-02-24', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ao_2022/?pdfReport=1', 'title': '[PDF] 156. Angola 9.09 - National Cyber Security Index', 'snippet': 'Cyber security responsibility for digital service providers. 1. 5.2. Cyber security standard for the public sector. 1. 0. 5.3. Competent supervisory authority.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099021406262319882/pdf/IDU0cfa535a90914f043630bb860ddc79fa75def.pdf', 'title': '[PDF] Digital Economy Diagnostic - World Bank Documents &amp; Reports', 'snippet': 'Angola also has a cybersecurity law—the Protection of In- formation Systems and Networks Law (Law 7/17 of February 16, 2017)—although it lacks clarity on ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology in INDIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Tertiary Education, Research, Science, and Technology in MAURITANIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3423,17 +3431,17 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology in INDIA</t>
+          <t>Ministry of Tertiary Education, Research, Science, and Technology in MAURITANIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology</t>
+          <t>Ministry of Tertiary Education, Research, Science, and Technology</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>MAURITANIA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3443,7 +3451,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Technology (MS&amp;T) in India is not explicitly responsible for cybersecurity policy, implementation, or technical coordination as defined by national strategy, law, or official reports. Its primary role is to conduct research and encourage cybersecurity education, but it does not host a national CERT/CSIRT/CIRT, lead or participate in cybersecurity committees, oversee information security standards, or have a mandate for network protection or enforcement. According to the Carnegie Endowment report and other sources, the main agencies responsible for cybersecurity are the National Security Council Secretariat (NSCS), Ministry of Electronics and Information Technology (MeitY), Ministry of Home Affairs (MHA), and Ministry of Defence (MoD) [1, 2, 3, 4]. The Ministry of Science and Technology is mentioned as having an indirect role through research and education, but not as a core cybersecurity agency [4].</t>
+          <t>The Ministry of Tertiary Education, Research, Science, and Technology in Mauritania is not explicitly mentioned as the primary body responsible for national cybersecurity policy, implementation, or technical coordination in the available national strategies or reports. The National Digital Security Strategy (2022-2025) designates the newly established Ministerial Department dedicated to digital transition, innovation, and administrative modernisation as the entity overseeing the strategy's implementation, not the Ministry of Tertiary Education [1]. However, the Ministry is involved in higher education and scientific research, including information technologies and communication, which may include cybersecurity-related activities within the academic sector [9]. There is no evidence that this ministry hosts a national CERT/CSIRT, leads a cybersecurity committee, or oversees information security standards for the country. Its role is more focused on education and research, which may indirectly support cybersecurity capacity building, but it does not have a direct, high-level responsibility for national cybersecurity governance or enforcement [1][9].</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3453,14 +3461,14 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[{'url': 'https://carnegieendowment.org/research/2025/09/mapping-indias-cybersecurity-administration-in-2025?lang=en', 'title': "Mapping India's Cybersecurity Administration in 2025", 'snippet': "India's cybersecurity administration comprises agencies and departments across ministries that work together to safeguard India's cyberspace.", 'date': '2025-09-01', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://cybersecureindia.in/cybersecurity-india-rethinking-cybersecurity-structure-a-tale-of-two-ministries-and-the-prime-ministers-office/', 'title': "A Tale of two Ministries and the Prime Minister's Office", 'snippet': 'It shoulders the responsibility of formulating national cybersecurity policies and strategies, including promoting standards and best practices.', 'date': '2024-12-08', 'last_updated': '2024-12-18', 'matched': True}, {'url': 'https://www.cyberpeace.org/resources/blogs/the-government-specifies-roles-in-matters-related-to-security-of-telecom-network-cyber-security-and-cyber-crime', 'title': 'The Government Specifies Roles in Matters related to Security of ...', 'snippet': 'By setting out specific responsibilities for telecom network security, cybercrime, and overall cybersecurity strategy among key ministries, the ...', 'date': '2024-10-09', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://dras.in/indias-cybersecurity-policy-evolution-and-trend/', 'title': "India's Cybersecurity Policy: Evolution and Trend", 'snippet': "The PMO prepares India's national cybersecurity strategy and makes strategic choices on cyber matters through its National Security Council ...", 'date': '2025-07-31', 'last_updated': '2025-08-13', 'matched': True}, {'url': 'https://www.meity.gov.in/static/uploads/2024/02/National_cyber_security_policy-2013_0.pdf', 'title': '[PDF] National Cyber Security Policy -2013', 'snippet': 'The policy aims to build a secure cyberspace, protect information, prevent cyber threats, and create a secure cyber ecosystem, while also creating a workforce ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://thesouthasiantimes.info/OP-ED/news/cybersecurity-indias-new-frontier-in-foreign-policy/6375', 'title': "Cybersecurity: India's new frontier in foreign policy", 'snippet': 'The CERT-In (Computer Emergency Response Team - India) was established to handle alerts, analyze threats, and provide solutions during cyber ...', 'date': '2025-11-14', 'last_updated': None, 'matched': True}, {'url': 'https://universalinstitutions.com/cybersecurity-responsibility-clarified-by-government-amendment/', 'title': 'Cybersecurity Responsibility Clarified by Government Amendment', 'snippet': 'The government amends laws to clarify cybersecurity responsibilities, ensuring stronger protection against cyber threats.', 'date': '2024-10-17', 'last_updated': None, 'matched': True}, {'url': 'https://www.upguard.com/blog/cybersecurity-regulations-india', 'title': 'Top Cybersecurity Regulations in India [Updated 2025] - UpGuard', 'snippet': 'All intermediaries are required to report any cybersecurity incidents to CERT-In. CERT-In acts as the primary task force that:', 'date': '2025-07-02', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://community.nasscom.in/communities/public-policy/indias-steps-towards-coordinated-approach-cybersecurity', 'title': "India's Steps Towards a Coordinated Approach to Cybersecurity", 'snippet': 'National agency for incident response in cybersecurity domain. Mandated with performing various functions such as forecast and alerts of ...', 'date': '2024-11-19', 'last_updated': '2025-09-11', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/mauritanian-cybersecurity-strategy', 'title': 'Mauritanian Cybersecurity Strategy - Digital Watch Observatory', 'snippet': 'The National Digital Security Strategy (2022-2025) is an ambitious plan set forth by the Mauritanian government to safeguard its digital transformation efforts.', 'date': '2024-06-24', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://mtnima.gov.mr/sites/default/files/Mauritani%20AI%20Strategy%20Draft%20April-2024.pdf', 'title': '[PDF] The National Artificial Intelligence Strategy of Mauritania 2024-2029', 'snippet': '➢ Establishment of interdisciplinary university curricula linked to sectoral needs to ensure that AI and. Data Science training meets the requirements of the ...', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://tahseen.ae/tech-policy/mauritania/', 'title': 'Mauritania - Tahseen Consulting', 'snippet': 'National Cybercrime Strategy 2019-2022. Develops plan to equip the public and private sector stakeholders with the means to protect themselves against ...', 'date': '2020-06-04', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://allafrica.com/stories/201411210879.html', 'title': 'Mauritania to Boost Cyber-Security - allAfrica.com', 'snippet': 'Mauritania plans to make infrastructure, cyber-security and protection of users chief components of the national strategy to modernise ...', 'date': '2014-11-20', 'last_updated': '2024-12-16', 'matched': True}, {'url': 'https://ictpolicyafrica.org/en/document/gisc8htc2y?page=2', 'title': 'Cyber wellness profile - Mauritania • Page 2 - ICT Policy Africa', 'snippet': 'The cybersecurity vision is still considered as a part of national ICT strategy but Mauritania is considering implementinga specific ...', 'date': '2014-08-12', 'last_updated': None, 'matched': True}, {'url': 'https://digitalcommons.aaru.edu.jo/cgi/viewcontent.cgi?article=1495&amp;context=isl', 'title': '[PDF] Cybersecurity Awareness in African Higher Education Institutions', 'snippet': 'This prompted the researchers to investigate the cybersecurity awareness levels among undergraduate students at African higher education ...', 'date': '2023-01-01', 'last_updated': '2025-06-01', 'matched': True}, {'url': 'http://mustuniversity.tn/pcp_programs/cybersecurity-analyst/', 'title': 'Cybersecurity Analyst Program - MUST University', 'snippet': 'This 6-month PCP, co-developed by MUST University and GTC, delivers a focused, intensive pathway for professionals aiming to become Cybersecurity ...', 'date': '2025-07-24', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://au.int/en/pressreleases/20191227/2019-north-african-school-internet-governance-nasig-2019-hosted-mauritania', 'title': 'The 2019 North African School on Internet Governance (NASIG ...', 'snippet': 'The School saw 35 participants from 7 North African countries (Algeria, Egypt, Libya, Mauritania, Morocco, Tunisia and Sudan) engaged in ...', 'date': '2019-12-27', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Mauritania.pdf', 'title': '[PDF] Mauritania | GHS Index', 'snippet': '[6] Islamic Republic of Mauritania, Ministry of Higher Education and Scientific Research, Information Technologies and. Communication. ... responsibility ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Federal Ministry of Education, Science and Research (BMBWF) in AUSTRIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Office of the Prime Minister of Guyana in GUYANA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3468,27 +3476,27 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education, Science and Research (BMBWF) in AUSTRIA</t>
+          <t>Office of the Prime Minister of Guyana in GUYANA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Federal Ministry of Education, Science and Research (BMBWF)</t>
+          <t>Office of the Prime Minister of Guyana</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>The Federal Ministry of Education, Science and Research (BMBWF) in Austria is not primarily responsible for national cybersecurity policy, implementation, or technical coordination. Its role is focused on research security and supporting educational and research institutions in mitigating risks and protecting against foreign interference, particularly in the context of research and higher education (source [3]). The BMBWF has established a single point of contact and information structures to promote a coherent approach to research security, but this is distinct from broader national cybersecurity responsibilities such as policy, operational coordination, or incident response (source [3]). The main responsibilities for cybersecurity in Austria lie with the Federal Chancellery, Federal Ministry of the Interior, Federal Ministry for European and International Affairs, and Federal Ministry of Defence (sources [1], [2], [6]). The BMBWF does not host a national CERT/CSIRT, lead or participate in central cybersecurity committees, or oversee information security standards for the country as a whole. Its involvement is limited to the research and education sector, which is a subset of the broader cybersecurity landscape.</t>
+          <t>The Office of the Prime Minister of Guyana is explicitly responsible for cybersecurity policy, implementation, and coordination in the country. The Prime Minister has repeatedly affirmed the government's commitment to advancing cybersecurity as a national priority and has directly overseen the rollout of key initiatives. For example, in April 2024, the Office of the Prime Minister, through the National Data Management Authority (NDMA), rolled out 43 new public sector policies under the Government’s National Cybersecurity Policy Framework, which is designed to secure the nation’s digital infrastructure and protect citizens[3]. The Prime Minister has also delivered feature addresses at major cybersecurity events, such as the Cybersecurity Fair hosted by the NDMA, and has emphasized the need for public servants to be equipped with cybersecurity skills and tools[2][6]. Additionally, the Office of the Prime Minister has participated in international cybersecurity initiatives and collaborations, including workshops and assessments facilitated by the United Kingdom and other partners[1][3]. These actions demonstrate that the Office of the Prime Minister plays a central role in cybersecurity governance, planning, and response in Guyana.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3498,14 +3506,14 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.bundeskanzleramt.gv.at/en/topics/cybersecurity/national-cybersecurity-offices.html', 'title': 'National Cybersecurity Offices - Federal Chancellery of Austria', 'snippet': 'The Federal Chancellery coordinates national and international strategic cybersecurity issues and cooperates with national, European and international ...', 'date': None, 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3131441/Document-09.pdf', 'title': '[PDF] Austrian Cyber Security Strategy', 'snippet': 'Austria will play an active role in international cooperation at European and global level, particularly by exchanging information, formulating ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.bmb.gv.at/en/Topics/researchsecurity.html', 'title': 'Research Security', 'snippet': 'A particular emphasis of the BMBWF lies in establishing and coordinating dedicated information and networking structures. To ensure efficient and effective ...', 'date': '2024-05-23', 'last_updated': '2025-04-25', 'matched': True}, {'url': 'https://www.bmf.gv.at/en/topics/security-and-technology/Cybersecurity-Research-Kybernet-Pass-(K-PASS).html', 'title': 'Cybersecurity Research Kybernet-Pass (K-PASS)', 'snippet': 'The aim is to create market-oriented research results on cybersecurity for end-users. K-PASS Photo: Security Research and Technology Transfer. Digitalisation is ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.bundeskanzleramt.gv.at/en/topics/cybersecurity/activities-and-initiatives.html', 'title': 'Cybersecurity Activities and Initiatives - Federal Chancellery of Austria', 'snippet': 'It is the responsibility of the Federal Chancellery of Austria to manage the ZAS. In crisis situations, the ZAS should protect the ICT infrastructure ...', 'date': '2022-01-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/at_2022/', 'title': 'NCSI :: Austria - National Cyber Security Index', 'snippet': 'GENERAL CYBER SECURITY INDICATORS. 1. Cyber security policy development 7/7 ...', 'date': '2023-04-17', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.bmfwf.gv.at/dam/jcr:2a7f3edd-0eeb-4110-a53c-c59346ae517b/ftb_2023_en.pdf', 'title': '[PDF] Austrian Research and Technology Report 2023', 'snippet': "The Austrian Research and Technology Report 2023 provides an overview of Austria's federally funded research, technology and innovation (RTI).", 'date': '2022-09-30', 'last_updated': None, 'matched': True}, {'url': 'https://www.bmlv.gv.at/pdf_pool/publikationen/austrian_strategy_for_eu_defence_research.pdf', 'title': '[PDF] Austrian Strategy for EU Defence Research', 'snippet': 'Austria takes an active role in setting-up EU defence research, and thereby adds to the reinforcement of security and defence in the EU as well as Austria ...', 'date': None, 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/sites/default/files/2023-10/Artificial%20Intelligence%20Mission%20Austria%202030_AIM_AT_2030.pdf', 'title': '[PDF] Artificial Intelligence Strategy of the Austrian Federal Government', 'snippet': 'In addition to formal qualifications, it will demonstrate non-formally and informally acquired skills related to the Digital Competence Framework for Austria.', 'date': None, 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.digitalaustria.gv.at/dam/jcr:b19c0065-a53b-42c1-8169-9f6471726197/national-roadmap-for-the-digital-decade-austria-3-2025-bf.pdf', 'title': '[PDF] National strategic roadmap for the Digital Decade - 2024 Update', 'snippet': 'Among other tasks, it supports and coordinates the scaling of digital education programmes and represents Austria and the federal government in ...', 'date': '2025-07-01', 'last_updated': '2025-11-13', 'matched': True}]</t>
+          <t>[{'url': 'https://dpi.gov.gy/cybersecurity-critical-to-digital-resilience-in-guyana-pm-phillips/', 'title': 'Cybersecurity critical to digital resilience in Guyana – PM Phillips - DPI', 'snippet': "“It is our aim to develop a robust cybersecurity posture that will not only enable the protection of Guyana's people, digital assets and digital ...", 'date': '2022-11-23', 'last_updated': '2024-11-04', 'matched': True}, {'url': 'https://dpi.gov.gy/pm-phillips-reiterates-governments-commitment-to-advance-cyber-security-as-a-national-priority/', 'title': "PM Phillips reiterates government's commitment to advance cyber ...", 'snippet': "Prime Minister Brigadier (Ret'd) the Honourable Mark Phillips reaffirmed the government's unwavering commitment to advancing cyber security as a national ...", 'date': '2025-04-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.guyanastandard.com/2024/10/10/as-guyanas-trillion-dollar-oil-sector-expands-cybersecurity-must-be-critical-part-of-national-defense-strategy-pm-phillips/', 'title': "As Guyana's trillion-dollar oil sector expands, cybersecurity must be ...", 'snippet': 'Prime Minister Phillips also emphasized that the consequences of inadequate cybersecurity go beyond financial losses, posing risks to national ...', 'date': '2024-10-10', 'last_updated': '2024-10-18', 'matched': True}, {'url': 'https://www.minfor.gov.gy/un-security-council/statement-delivered-ms-neishanta-benn-minister-counsellor-unsc-arria-formula', 'title': 'Statement delivered by Ms. Neishanta Benn, Minister Counsellor, at ...', 'snippet': 'Focus should also be placed on bolstering cybersecurity to address criminal activities in cyberspace and its associated risks and ...', 'date': '2024-04-05', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://kaieteurnewsonline.com/2022/11/24/cybersecurity-critical-to-digital-resilience-in-guyana-pm-phillips/', 'title': 'Cybersecurity critical to digital resilience in Guyana - PM Phillips', 'snippet': "“It is our aim to develop a robust cybersecurity posture that will not only enable the protection of Guyana's people, digital assets and digital ...", 'date': '2022-11-24', 'last_updated': None, 'matched': True}, {'url': 'https://www.stabroeknews.com/2025/04/26/news/guyana/govt-committed-to-advancing-cybersecurity-as-national-priority-pm/', 'title': "Gov't committed to advancing cybersecurity as national priority - PM", 'snippet': 'Prime Minister, Mark Phillips, is urging the public sector and citizens to be aware of cybersecurity threats and to equip themselves with the skills and tools ...', 'date': '2025-04-26', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://cybilportal.org/projects/cirt-readiness-assessment-guyana/', 'title': 'CIRT Readiness Assessment Guyana - Cybil Portal', 'snippet': "CIDR's country teams work with partner governments and local stakeholders to: 1) accelerate cybersecurity workforce development, 2) empower organizations to ...", 'date': None, 'last_updated': '2025-02-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Energy, Telecommunications and Transport (MSETT) in JAMAICA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Research and Technology (MSRT) in IRAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3513,17 +3521,17 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ministry of Science, Energy, Telecommunications and Transport (MSETT) in JAMAICA</t>
+          <t>Ministry of Science, Research and Technology (MSRT) in IRAN</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ministry of Science, Energy, Telecommunications and Transport (MSETT)</t>
+          <t>Ministry of Science, Research and Technology (MSRT)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3533,7 +3541,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Energy, Telecommunications and Transport (MSETT) in Jamaica is involved in the technical and policy aspects of Information and Communications Technology (ICT), as suggested by its mandate, which can relate indirectly to cybersecurity. However, the main responsibility for cybersecurity policy, implementation, and coordination according to Jamaica's National Cyber Security Strategy is assigned to the Ministry responsible for ICT, with substantial leadership also exhibited by the Ministry of National Security, which is explicitly mentioned in government communications and press releases as prioritizing cybersecurity capacity, resilience, and workforce development, including hosting national cyber initiatives and policy leadership[2][3]. The National Computer Incident Response Team (CIRT) is a key operational body for cybersecurity in Jamaica, but there is no direct evidence that MSETT hosts or leads it; rather, other government bodies are more prominently indicated[2][4]. Additionally, public statements and government press releases highlight the Ministry of National Security as integral in cybersecurity strategy and capacity building, with no such role strongly attributed to MSETT[3][5]. Therefore, while MSETT has some technical ICT linkages, the explicit national leadership and primary coordination role in cybersecurity does not rest mainly with it, suggesting only a low level of responsibility in direct cybersecurity governance or response.</t>
+          <t>The Ministry of Science, Research and Technology (MSRT) in Iran primarily focuses on higher education, science, and research policy without direct references to cybersecurity governance or operational responsibility. There is no evidence from national cybersecurity strategies, laws, or governance reports that explicitly assign MSRT responsibility for cybersecurity policy, implementation, or technical coordination. Major Iranian cybersecurity responsibilities and activities are managed by other entities, notably the Information Technology Organization of Iran under the Ministry of Information and Communications Technology, which hosts the national CERT (Maher CERT) and oversees cybersecurity certification, monitoring, and policy [1]. The Supreme Cyber Space Council and the National Cyber Center also lead national cyber strategy and coordination [2]. MSRT is involved in scientific and research development which may intersect with AI and technology research, but does not lead cybersecurity governance, enforcement, or response efforts [8][9][10]. Thus, MSRT's role in Iran's cybersecurity is indirect and limited to research aspects rather than cybersecurity governance or operational duties.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3543,14 +3551,14 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[{'url': 'https://jis.gov.jm/govt-fortifying-jamaicas-cybersecurity-resilience/', 'title': "Gov't Fortifying Jamaica's Cybersecurity Resilience", 'snippet': "The Government is enhancing Jamaica's cybersecurity resilience through a comprehensive strategy that strengthens prevention, detection, and response ...", 'date': '2025-05-14', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://dig.watch/resource/national-cyber-security-strategy-of-jamaica', 'title': 'National cybersecurity strategy of Jamaica | Digital Watch Observatory', 'snippet': "Shared responsibilities: Encouraging all users to secure their own IT systems. Protection of fundamental rights and freedom: Ensuring citizens' rights are not ...", 'date': '2025-08-05', 'last_updated': '2025-08-07', 'matched': True}, {'url': 'https://www.mns.gov.jm/sites/default/files/Press/Press%20Release-%20Strengthening%20Jamaica%E2%80%99s%20cybersecurity%20capacity%20and%20resilience%20is%20a%20priority%20of%20government%20-%20Minister%20Chang%2021.03.2024.pdf', 'title': "[PDF] Strengthening Jamaica's cybersecurity capacity and resilience is a ...", 'snippet': "Dr. Horace Chang, says the government is strengthening Jamaica's cybersecurity capacity and resilience as a matter of priority. The Minister, ...", 'date': '2024-03-21', 'last_updated': '2024-05-29', 'matched': True}, {'url': 'https://www.cirt.gov.jm/page/risk-management', 'title': 'Risk Management - Jamaica Cyber Incident Response Team', 'snippet': 'The Jamaica CIRT division is responsible for continuously monitoring threats and reporting them to the relevant stakeholders. The division tracks threats across ...', 'date': None, 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://opm.gov.jm/strong-national-push-on-cybersecurity-as-jamaica-observes-cybersecurity-awareness-month/', 'title': 'Strong National Push on Cybersecurity as Jamaica Observes ...', 'snippet': 'The Government of Jamaica signals a strong commitment to tackling cyber threats with a month-long series of activities to mark Cybersecurity ...', 'date': '2025-10-01', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://en.ito.gov.ir/news/13/cybersecurity', 'title': 'Cybersecurity | Information Technology Organization Of Iran', 'snippet': 'The Cyber Security Deputy of the Information Technology Organization of Iran supervises companies that hold certification for security services and products. ...', 'date': None, 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.inss.org.il/wp-content/uploads/2024/02/Part-2.pdf', 'title': "[PDF] Iran's Cyber Strategy, Institutions, and Capabilities - INSS", 'snippet': "Part 2: Iran's Cyber Strategy, Institutions, and Capabilities and scientific and research organizations to gain access to foreign scientific resources.31. As ...", 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://global.ptsecurity.com/en/research/analytics/iran-s-cybersecurity-threatscape-for-2021-h1-2024/', 'title': "Iran's cybersecurity threatscape for 2021-H1 2024 - Analytics", 'snippet': 'The Iranian state is implementing measures to ensure that the entire information infrastructure remains cyber-resilient, regardless of where the ...', 'date': '2024-10-26', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.washingtoninstitute.org/policy-analysis/navigating-cybersecurity-and-surveillance-irans-dual-strategy-national-security', 'title': "Navigating Cybersecurity and Surveillance: Iran's Dual Strategy for ...", 'snippet': "Iran's approach towards cybersecurity and artificial intelligence reflects complex dynamics at the intersection of national security strategy, domestic control ...", 'date': '2024-03-29', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.recordedfuture.com/research/irans-ai-ambitions-balancing-economic-isolation-national-security-imperatives', 'title': "Iran's AI Ambitions: National Security, Global Influence, and ...", 'snippet': "Explore how Iran is leveraging AI for cyberwarfare, influence ops, military tech, and domestic surveillance. A deep dive into Tehran's ...", 'date': '2025-04-17', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.trellix.com/blogs/research/the-iranian-cyber-capability/', 'title': 'The Iranian Cyber Capability - Trellix', 'snippet': "This report aims to offer a detailed analysis of Iran's cyber threat actors, their tactics, techniques, and procedures (TTPs), and some of their most recent ...", 'date': '2024-09-19', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://secure-analytics.org/wp-content/uploads/2025/09/NSF_ADVISORY_02_Irans-ST-Ecosystem_web-250930.pdf', 'title': "[PDF] Iran's S&amp;T Ecosystem: A Primer for Research Security Professionals", 'snippet': 'Chairs the SCSRT, which sets national S&amp;T policy, identifies research and higher education priorities, manages international cooperation, and ...', 'date': '2025-09-02', 'last_updated': None, 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-science-research-and-technology', 'title': 'Ministry of Science, Research and Technology (MSRT)', 'snippet': 'MSRT is a public body of executive power, which carries out functions on elaborating state policy and normative-lawful regulation in the sphere of higher ...', 'date': None, 'last_updated': '2025-09-05', 'matched': True}, {'url': 'http://en.cpdi.ir/uploads/1/2021/Nov/22/Science%20and%20Technology%20in%20Iran-A%20brief%20review%202019.pdf', 'title': '[PDF] SCIENCE AND TECHNOLOGY IN IRAN: A BRIEF REVIEW', 'snippet': 'The Ministry of Science, Research and Technology (MSRT) is the main state ministry involved in higher education, science, research and ...', 'date': '2021-11-22', 'last_updated': '2024-03-07', 'matched': True}, {'url': 'https://www.canberra.mfa.gov.ir/en/newsview/633628/ministry-of-science-research-and-technology', 'title': 'Ministry of Science, Research and Technology', 'snippet': 'Ministry of Science, Research and Technology (MSRT) is a public body of executive power, which carries out functions on elaborating state policy and normative- ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC) in TONGA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Research and Innovation (Ministère de l'Enseignement supérieur, de la Recherche et de l'Innovation) in FRANCE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3558,17 +3566,17 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC) in TONGA</t>
+          <t>Ministry of Higher Education, Research and Innovation (Ministère de l'Enseignement supérieur, de la Recherche et de l'Innovation) in FRANCE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC)</t>
+          <t>Ministry of Higher Education, Research and Innovation</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3578,7 +3586,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>The Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC) of Tonga hosts the national Computer Emergency Response Team, CERT Tonga, which is explicitly responsible for cybersecurity incident response, awareness, consultation, and coordination. CERT Tonga operates under MEIDECC and provides advice and support on cyber threats and vulnerabilities to owners and operators of critical infrastructure and systems of national interest. MEIDECC is involved in national cybersecurity strategy implementation, capacity building, awareness campaigns, and international cooperation related to cyberspace security. This is supported by multiple sources detailing CERT Tonga's role as part of MEIDECC and its significant operational cybersecurity functions, including incident management, training, risk analysis, digital evidence handling, and consultation. The Ministry also leads or participates in national cybersecurity frameworks and initiatives, highlighting its primary role in cybersecurity governance in Tonga.[1][2][3][4][5][9][10]</t>
+          <t>The Ministry of Higher Education, Research and Innovation (MESRI) in France is explicitly responsible for cybersecurity within its sector, which includes higher education and research institutions. The ministry is mentioned in official documents as overseeing the security of information systems in its domain, coordinating with national agencies such as ANSSI, and implementing cybersecurity policies and strategies. For example, the ministry hosts the FSSI (Fonctionnaire de Sécurité des Systèmes d'Information) and MISEN (Mission pour la Sécurité Numérique), which are responsible for the overall cybersecurity policy, coordination, and implementation for higher education and research (ref: [1], [2]). The ministry also participates in national cybersecurity committees and works with other ministries and agencies to ensure the protection of information systems, manage cyber incidents, and organize awareness campaigns (ref: [1], [2], [3]). Additionally, the ministry is involved in the development and support of cybersecurity education and training programs, further demonstrating its active role in the national cybersecurity landscape (ref: [4], [5]).</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3588,14 +3596,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cybilportal.org/projects/cert-tonga-support/', 'title': 'CERT Tonga support - Cybil Portal', 'snippet': 'CERT Tonga is the national computer emergency response team of Tonga. The CERT is part of MEIDECC and provides advice and support on cyber threats and ...', 'date': '2021-05-11', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://blog.apnic.net/2021/03/09/cert-tonga-mitigates-risk-with-awareness/', 'title': 'CERT Tonga mitigates risk with awareness - APNIC Blog', 'snippet': 'CERT Tonga is the national Computer Emergency Response Team of Tonga (part of MEIDECC) to provide advice and support on cyber threats and ...', 'date': '2021-03-09', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://cert.gov.to/about-us/', 'title': 'About Us - CERT Tonga', 'snippet': 'We are the point of contact in Tonga for cyber security issues affecting major Tongan businesses. The CERT is under the Ministry of the MEIDECC. We have ...', 'date': '2024-02-05', 'last_updated': '2025-03-11', 'matched': True}, {'url': 'https://dig.watch/resource/tonga-national-cybersecurity-framework', 'title': 'Tonga National Cybersecurity Framework - Digital Watch Observatory', 'snippet': 'Strategic tasks and objectives · 1. Implement safe digital governance · 2. Risk management · 3. Threat preparedness and incident response · 4. Enhanced skills and ...', 'date': '2025-06-03', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://digitaltransformation.gov.to/wp-content/uploads/2022/08/Tonga_National_Cybersecurity_Framework_final.pdf', 'title': '[PDF] Tonga National Cybersecurity Framework', 'snippet': 'At the national level, cybersecurity is a shared responsibility that requires coordinated action for prevention, preparation, response, and incident recovery on ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://picisoc.org/cybersecurity-website-launched-in-tonga/', 'title': 'Cybersecurity website launched in Tonga - PICISOC.org', 'snippet': 'A website raising awareness on cybersecurity was launched in Tonga today by the Minister for MEIDECC Hon Poasi Tei. GetSafeOnline Tonga aims to raise ...', 'date': None, 'last_updated': '2025-04-11', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-tonga-ton-how-to-get-a-cybersecurity-analyst-role-in-tonga', 'title': 'How to Get a Cybersecurity Analyst Role in Tonga?', 'snippet': 'Key skills required for a cybersecurity analyst role in Tonga include expertise in network security, ethical hacking, risk assessment, incident ...', 'date': '2024-12-25', 'last_updated': '2025-03-20', 'matched': True}, {'url': 'https://hackernoon.com/beyond-policy-papers-tongas-cybersecurity-reality-check', 'title': "Beyond Policy Papers - Tonga's Cybersecurity Reality Check", 'snippet': '"Ko e Otua mo Tonga ko hotau tofi\'a" means our inheritance includes both our islands and our responsibility to protect them in the digital age.', 'date': '2025-09-07', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://pacson.org/members/tonga', 'title': 'Tonga | Pacific Cyber Security Operational Network (PaCSON)', 'snippet': 'The CERT Tonga provides advice and support on cyber threats and vulnerabilities to the owners and operators of Tongan critical infrastructure and other systems ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.dfat.gov.au/international-relations/themes/cyber-affairs/cyber-cooperation-program/Pages/government-of-tonga', 'title': 'Government of Tonga - Department of Foreign Affairs and Trade', 'snippet': 'The CERT is part of MEIDECC and provides advice and support on cyber threats and vulnerabilities to the owners and operators of Tongan critical ...', 'date': '2019-07-01', 'last_updated': '2025-09-29', 'matched': True}]</t>
+          <t>[{'url': 'https://choisirleservicepublic.gouv.fr/offre-emploi/chargee-de-mission-en-cybersecurite-dans-le-domaine-de-l-enseignement-superieur-et-de-la-recherche-sds-reference-2025-2074287/', 'title': 'Charge(e) de mission en cybersecurite dans le domaine ...', 'snippet': "Le/la second(e) chargé(e) de missions en cybersécurité intervient principalement : - En coordination avec le FSSI adjoint ESR, appui a l'animation d'un ...", 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.enseignementsup-recherche.gouv.fr/fr/securite-des-systemes-d-information-46346', 'title': "Sécurité des systèmes d'information", 'snippet': "Pour assurer la sécurité des systèmes d'information du ministère, il existe une chaîne fonctionnelle de sécurité reposant sur le haut fonctionnaire de défense ...", 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.education.gouv.fr/l-education-la-cybersecurite-380421', 'title': "L'éducation à la cybersécurité", 'snippet': "Sensibiliser les élèves et les personnels de l'éducation nationale à la sécurité numérique constitue un défi essentiel dans le monde d'aujourd'hui.", 'date': '2023-12-01', 'last_updated': '2025-05-13', 'matched': True}, {'url': 'https://www.oecd.org/content/dam/oecd/en/publications/reports/2024/02/building-a-skilled-cyber-security-workforce-in-europe_6abaf769/3673cd60-en.pdf', 'title': 'Building a Skilled Cyber Security Workforce in Europe', 'snippet': "Ministère de l'Enseignement Supérieur et de la Recherche (2023), État de l'Enseignement supérieur, de la Recherche et de l'Innovation en France n°12 - annexes,.", 'date': None, 'last_updated': '2024-07-08', 'matched': True}, {'url': 'https://www.enseignementsup-recherche.gouv.fr/fr/numerique-enseignement-superieur', 'title': "Numérique pour l'enseignement supérieur", 'snippet': "Mis en place en mai 2023 sous l'impulsion du ministère chargé de l'Enseignement supérieur et la Recherche, le COREALE est une instance de pilotage du ...", 'date': '2025-02-11', 'last_updated': '2025-02-16', 'matched': True}, {'url': 'https://www.centralesupelec.fr/sites/default/files/offre-emploi/2503_mcf_cybersecurite-irisa_pour_publication_1.pdf', 'title': 'Maître de Conférences / Professeur en Cybersécurité CDI ...', 'snippet': "Grand Établissement sous tutelle conjointe du ministère de l'Enseignement supérieur, de la Recherche et de l'Innovation et du ministère de l'Économie, des ...", 'date': None, 'last_updated': '2025-07-25', 'matched': True}, {'url': 'https://cyber.gouv.fr/formation-initiale-en-cybersecurite', 'title': 'La formation initiale en cybersécurité', 'snippet': "Retrouvez toutes les actions soutenues par l'ANSSI pour développer et renforcer la formation initiale en matière de Cybersécurité. SecNumedu, le label des ...", 'date': None, 'last_updated': '2025-07-21', 'matched': True}, {'url': 'https://cyber.gouv.fr/actualites/les-acteurs-de-la-cybersecurite-et-de-linnovation-dans-leducation-travaillent-de-concert', 'title': "Les acteurs de la cybersécurité et de l'innovation dans l' ...", 'snippet': "Face à l'augmentation d'un risque numérique qui n'épargne personne – citoyens, organisations publiques et privées – et un déficit manifeste ...", 'date': None, 'last_updated': '2025-04-10', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Communications, Trade, Tourism and Transport (MCTTT) in FIJI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology (MOST) of the People's Republic of China in CHINA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3603,27 +3611,27 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ministry of Communications, Trade, Tourism and Transport (MCTTT) in FIJI</t>
+          <t>Ministry of Science and Technology (MOST) of the People's Republic of China in CHINA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ministry of Communications, Trade, Tourism and Transport (MCTTT)</t>
+          <t>Ministry of Science and Technology (MOST)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>China</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>The Ministry of Communications, Trade, Tourism and Transport (MCTTT) in Fiji holds significant responsibility for the country's cybersecurity. It is explicitly involved in the National Cybersecurity Strategy, demonstrated by hosting consultation workshops to inform this strategy and investing heavily in protecting government networks (GOVNET) with advanced cybersecurity tools and infrastructure upgrades aligned with international standards. The Ministry is actively engaged in protecting critical infrastructure and critical information infrastructure, including efforts to define these sectors, establish incident reporting channels via Fiji CERT, and create threat intelligence sharing mechanisms. Furthermore, the Ministry provides policy advice on cybersecurity threats as stated in the national security strategy. These facets show its comprehensive role in cybersecurity governance, planning, response, and enforcement in Fiji[1][2][4].</t>
+          <t>The Ministry of Science and Technology (MOST) of China primarily focuses on scientific and technological development and innovation. Based on available information about China's cybersecurity governance, MOST is not explicitly mentioned in national cybersecurity laws, policies, or organizational mandates as responsible for cybersecurity policy, implementation, or technical coordination. Instead, key cybersecurity responsibilities are held by other entities including the Ministry of Public Security (MPS), the Cyberspace Administration of China (CAC), and the Ministry of Industry and Information Technology (MIIT). These agencies manage critical infrastructure protection, cybersecurity law enforcement, incident response, security standards, and certification. The MSS (Ministry of State Security) also plays an intelligence and network security role through affiliated bodies like CNITSEC. MOST does not appear to host a national CERT/CSIRT, lead cybersecurity committees, or participate prominently in cybersecurity regulatory activities or international cybersecurity initiatives. Consequently, while MOST may indirectly influence cybersecurity through technology development policies, it is a minor player in direct cybersecurity governance, reflecting a LOW responsibility level for cybersecurity in China[1][2][3][4][5][9].</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3633,14 +3641,14 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.mcttt.gov.fj/deputy-prime-minister-minister-for-trade-co-operatives-msmes-and-communications-hon-manoa-kamikamica-opening-address-cybersec-symposium-holiday-inn-suva-25-june-2025/', 'title': 'DEPUTY PRIME MINISTER &amp; MINISTER FOR TRADE, CO ...', 'snippet': "It is our collective responsibility to uplift Fiji's cybersecurity so we can harness the opportunities of digital transformation. Last month ...", 'date': '2025-06-25', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.homeaffairs.gov.fj/wp-content/uploads/2025/08/National-Security-Strategy-2025-2029.pdf', 'title': '[PDF] National Security Strategy 2025-2029 | Protect, Progress, and Promote', 'snippet': "... Fiji's economy, particularly for trade and tourism. Strengthening these ... • Ministry of Communications: responsible for policy advice on cybersecurity threats ...", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.mict.gov.ki/sites/default/files/publications/MSP%202025-28_FINAL_19%20June%202025.pdf', 'title': '[PDF] MINISTRY STRATEGIC PLAN 2025-2028', 'snippet': 'This Strategic Plan defines the goals and strategic actions that will enable MICT and its State-Owned Enterprises (SOEs) to strengthen our ...', 'date': '2025-06-19', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.mcttt.gov.fj/remarks-by-the-deputy-prime-minister-and-minister-for-trade-co-operatives-micro-small-and-medium-enterprises-and-communications-reception-for-one-year-anniversary-of-australia-fiji-mou-on-cyber/', 'title': 'REMARKS BY THE DEPUTY PRIME MINISTER AND ... - mcttt.gov.fj', 'snippet': "On cybersecurity strategy and policy, we will release our National Cybersecurity Strategy that sets out Fiji's vision for a cyber-safe, secure, ...", 'date': '2025-04-29', 'last_updated': '2025-05-07', 'matched': True}, {'url': 'https://apt.int/sites/default/files/file_tag/2025/01/PRFP-17-OUT-01_Summary_Record__of_PRFP-17.docx', 'title': '[DOC] Summary Record of PRFP-17 - Asia-Pacific Telecommunity', 'snippet': "The session was moderated by Ms. Tupou'tuah Baravilala, Director-General Digital Government, Transformation, Cybersecurity and Communications, Ministry of Trade ...", 'date': None, 'last_updated': '2025-05-18', 'matched': True}, {'url': 'https://www.parliament.gov.fj/wp-content/uploads/2025/09/Ministry-of-Commerce-Trade-Tourism-and-Transport-Annual-Report-2020%E2%80%932021.pdf', 'title': '[PDF] annual report', 'snippet': 'The Ministry virtually met industry representatives from over 40 private sector businesses to strengthen safe business continuity. Led by the ...', 'date': '2025-09-28', 'last_updated': None, 'matched': True}, {'url': 'https://www.youtube.com/watch?v=2J8T2SpzEgU', 'title': 'Hon. Kamikamica updated Parliament on telecom, online ... - YouTube', 'snippet': "Fiji's Deputy Prime Minister and Minister for Trade, Co-operatives, Micro, Small and Medium Enterprises, and Communications, Hon.", 'date': '2025-09-29', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/164781631299073813/Concept-Project-Information-Document-PID-Kiribati-Digital-Government-Project-P176108.docx', 'title': '[DOC] Concept-Project-Information-Document-PID-Kiribati-Digital ...', 'snippet': 'CCK and the Ministry of Information, Communications, Transport and Tourism Development (MICTTD) have also undergone institutional strengthening, and the latter ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}]</t>
+          <t>[{'url': 'https://www.recordedfuture.com/research/china-cybersecurity-law', 'title': "China's Cybersecurity Law Gives the Ministry of State Security ...", 'snippet': 'The law gives “network information departments,” including CNITSEC, the power to conduct “national security reviews” (see Article 35) of technology that ...', 'date': '2017-08-31', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://digichina.stanford.edu/work/chinese-government-clarifies-cybersecurity-authorities-translation/', 'title': 'Translation: Chinese Government Clarifies Cybersecurity Authorities', 'snippet': 'Cybersecurity responsibilities are to be effectively implemented, cybersecurity management and defense, supervision and guidance, investigation ...', 'date': '2020-09-25', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.twobirds.com/en/insights/2025/china/china-cybersecurity-and-data-protection-monthly-update--october-2025-issue', 'title': 'China Cybersecurity and Data Protection: Monthly Update - Bird &amp; Bird', 'snippet': 'The draft also introduces legal responsibilities for the sale or provision of network critical equipment and cybersecurity products that have ...', 'date': '2025-10-31', 'last_updated': '2025-11-14', 'matched': True}, {'url': "https://en.wikipedia.org/wiki/Cybersecurity_Law_of_the_People's_Republic_of_China", 'title': "Cybersecurity Law of the People's Republic of China - Wikipedia", 'snippet': 'A law formulated in order to: ensure cybersecurity; safeguard cyberspace sovereignty and national security, social and public interests; the lawful rights and ...', 'date': '2020-11-05', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://interpret.csis.org/governing-cybersecurity/', 'title': 'Governing Cybersecurity - Interpret: China - CSIS', 'snippet': 'Cybersecurity situation sensing and emergency response: If task one is to report and collect data, task two is to use government oversight and ...', 'date': '2024-05-20', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/CS_organisation_CHINA_092016_FINAL.pdf', 'title': '[PDF] China and Cyber - CCDCOE', 'snippet': 'In particular, the reports give an overview of the mandate, tasks and competences of the relevant organisations and of coordination between them. The scope of ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.tradecommissioner.gc.ca/en/market-industry-info/search-country-region/country/canada-china-export/china-cybersecurity-regime.html', 'title': "China's cybersecurity regime - Tradecommissioner.gc.ca", 'snippet': "China's cybersecurity regime focuses on network security and data protection, including the Cybersecurity Law, Multi-level Protection Scheme, ...", 'date': '2022-10-22', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.mfa.gov.cn/eng/zy/gb/202405/t20240531_11367255.html', 'title': 'International Code of Conduct for Information Security_Ministry of ...', 'snippet': '3. To cooperate in combating criminal and terrorist activities which use ICTs including networks, and curbing dissemination of information which ...', 'date': '2011-09-12', 'last_updated': '2025-06-09', 'matched': True}, {'url': 'https://www.newamerica.org/cybersecurity-initiative/reports/russia-china-cyber-offensive-latam-caribbean/china-and-cyberspace/', 'title': 'China and Cyberspace - New America', 'snippet': '43 Consequently, the MPS has a substantial role in overseeing network governance within China and plays a key part in maintaining network security. As a result, ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Trade and Industry in SINGAPORE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (MOSTI) in MALAYSIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3648,27 +3656,27 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ministry of Trade and Industry in SINGAPORE</t>
+          <t>Ministry of Science, Technology and Innovation (MOSTI) in MALAYSIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ministry of Trade and Industry</t>
+          <t>Ministry of Science, Technology and Innovation (MOSTI)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>The Ministry of Trade and Industry (MTI) in Singapore is not explicitly mentioned in national cybersecurity strategy documents, laws, or regulatory frameworks as having responsibility for cybersecurity policy, implementation, or technical coordination. The principal body responsible for national cybersecurity policy, strategy, operations, and coordination is the Cyber Security Agency of Singapore (CSA), which is under the Ministry of Communications and Information (MCI) and the Prime Minister's Office, not MTI. CSA handles cybersecurity strategy, operations (including the national CERT), industry development, and outreach. Other ministries involved include the Ministry of Home Affairs mainly for cybercrime and terrorism response. There is no evidence that MTI hosts a CSIRT or leads cybersecurity committees, or regulates information security standards. MTI principally focuses on trade, industry, and economic development rather than cybersecurity governance. However, MTI may indirectly influence cybersecurity through economic policies, digital economy initiatives, or cooperation with other agencies, but this role is limited and not direct responsibility for cybersecurity. Hence, MTI’s cybersecurity responsibility is assessed as LOW.</t>
+          <t>The Ministry of Science, Technology and Innovation (MOSTI) in Malaysia is explicitly responsible for cybersecurity policy, implementation, and technical coordination. CyberSecurity Malaysia, the national cyber security specialist and technical agency, operates under MOSTI and is tasked with providing cybersecurity services, incident response, and technical support for the government and critical sectors [3][4][9]. MOSTI also hosts and leads the national cybersecurity committee, which was previously chaired by MOSTI before the responsibility was transferred to the National Security Council in 2010, but CyberSecurity Malaysia continues to serve as the secretariat under MOSTI's leadership [2]. MOSTI is involved in formulating national cybersecurity strategies, advising on policy, and coordinating with public and private sectors to enhance cyber resilience [6][7]. Additionally, MOSTI participates in international collaborations and joint initiatives related to cybersecurity [4].</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3678,14 +3686,14 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.tech.gov.sg/about-us/what-we-do/our-capabilities/cybersecurity/', 'title': 'Cybersecurity Capabilities - GovTech Singapore', 'snippet': 'The Government Cybersecurity Operations Centre (GCSOC) p. GCSOC plays a key role in detecting and mitigating cyber threats against the Whole-of-Government.', 'date': '2025-07-08', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/singapore-cybersecurity-legislation', 'title': 'Singapore Cybersecurity Legislation', 'snippet': 'Additional Provisions: Cyber Outage Reporting: CII operators must report cyber outages, attacks, or supply chain threats affecting their ...', 'date': '2024-06-26', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.nortonrosefulbright.com/en-419/knowledge/publications/a027c3a8/singapore-cybersecurity---new-amendments-introduce-four-key-changes', 'title': 'Singapore cybersecurity – new amendments introduce four key ...', 'snippet': 'The provision broadly allows the Minister to direct any organisation “to take measures to prevent, detect or counter a threat to computer services.”', 'date': '2017-03-23', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.rsis.edu.sg/wp-content/uploads/2016/12/PR170217_Cybersecurity-in-Singapore.pdf', 'title': '[PDF] CYBER SECURITY IN SINGAPORE', 'snippet': 'The key responsibilities of CSA are in Strategy and Policy Development,. Cyber Security Operations, Industry Development, and Outreach. In. Strategy and Policy ...', 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/singapore-cybersecurity-market', 'title': 'Singapore Cybersecurity Market - International Trade Administration', 'snippet': "Singapore's government invests in numerous initiatives to enhance the country's cyber defenses.", 'date': '2023-02-07', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.csa.gov.sg/news-events/press-releases/joint-statement-on-the-global-cybersecurity-labelling-initiative/', 'title': 'Joint Statement on the Global Cybersecurity Labelling Initiative', 'snippet': "It maintains an oversight of national cybersecurity functions, and works with sector leads to protect Singapore's Critical Information ...", 'date': '2025-10-23', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.exabeam.com/blog/compliance/guide-to-cybersecurity-compliance-in-singapore/', 'title': 'Guide to Cybersecurity Compliance in Singapore - Exabeam', 'snippet': 'This guide focuses on industry-specific regulations, there are also a few general guidelines in Singapore that are industry-agnostic.', 'date': '2023-01-02', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/Singapore_Cybersecurity_Strategy_2021.pdf', 'title': '[PDF] The Singapore Cybersecurity Strategy 2021 - CCDCOE', 'snippet': 'The strategy aims to strengthen digital infrastructure, enable a safer cyberspace, enhance international cooperation, and grow a robust cyber talent pipeline.', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dataclassification.fortra.com/blog/malaysias-cyber-security-act-2024-key-insights-and-implications-organizations', 'title': "Malaysia's Cyber Security Act 2024: Key Insights and Implications ...", 'snippet': "The Cyber Security Act 2024 is primarily designed to safeguard Malaysia's eleven NCII sectors, which can be thought of as the Malaysian government's defined ...", 'date': '2024-09-18', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/5218978/Department-of-Commerce-US-Performance-Work.pdf', 'title': "[PDF] Malaysia's National Cyber Security Policy", 'snippet': "However in 2010, with the amendments to the duties of the ministers, the responsibility of the nation's cyber security is placed with the. National Security ...", 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.tableau.com/solutions/customer/cybersecurity-malaysia-addresses-cyber-threats-faster-protecting-critical', 'title': 'CyberSecurity Malaysia addresses cyber-threats faster, protecting ...', 'snippet': 'CyberSecurity Malaysia provides cybersecurity services to help prevent and minimize disruptions to critical information infrastructures to protect the public, ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://ww2.eagle.org/en/news/abs-news/abs-advanced-solutions-signs-memorandum-of-understanding-with-cybersecurity-malaysia.html', 'title': 'ABS Advanced Solutions Signs Memorandum of Understanding with ...', 'snippet': "The agency's primary responsibility is to provide cyber security services for the Malaysian government, reduce the vulnerability of Malaysian digital systems ...", 'date': None, 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/en/entity/6a15l4l0ljp/relationships', 'title': 'Minister of Science, Technology and Innovation (MOSTI)', 'snippet': 'National Cyber Security Agency of Malaysia. State. Malaysia. Role in Cyber Policy Matters ... Ministry of Science, Technology and Innovation (MOSTI). State.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.mosti.gov.my/en/berita/18-october-2016-cyber-resilience-a-shared-responsibility-among-public-private-to-mitigate-cyber-treats/', 'title': 'Cyber Resilience – A Shared Responsibility Among Public-Private ...', 'snippet': '“CyberSecurity Malaysia will continue to nurture a culture of cyber security awareness. It aims to achieve this by educating and offering ...', 'date': '2016-10-18', 'last_updated': '2024-11-22', 'matched': True}, {'url': 'https://securiti.ai/overview-of-malaysia-cyber-securitiy-act-2024/', 'title': 'An Overview of Malaysia Cyber Security Act 2024', 'snippet': 'In addition to advising the government on cybersecurity policies, the NCSC is in charge of planning, developing, and determining national ...', 'date': '2025-01-15', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://asset.mkn.gov.my/wp-content/uploads/2020/10/MalaysiaCyberSecurityStrategy2020-2024.pdf', 'title': '[PDF] Malaysia Cyber Security Strategy 2020-2024', 'snippet': 'The Malaysia Cyber Security Strategy (MCSS) has been designed with tools to provide trust in our cyber environment not only for national security, but also to ...', 'date': None, 'last_updated': '2024-09-05', 'matched': True}, {'url': 'https://itlaw.fandom.com/wiki/CyberSecurity_Malaysia', 'title': 'CyberSecurity Malaysia - The IT Law Wiki - Fandom', 'snippet': 'The role of CyberSecurity Malaysia is to provide specialised cyber security services, such as: Cyber security emergency response, incident handling, and digital ...', 'date': '2005-01-01', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and ICT in SOUTH KOREA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Research, Innovation and Digitalization in ROMANIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3693,17 +3701,17 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ministry of Science and ICT in SOUTH KOREA</t>
+          <t>Ministry of Research, Innovation and Digitalization in ROMANIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ministry of Science and ICT</t>
+          <t>Ministry of Research, Innovation and Digitalization</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3713,7 +3721,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>The Ministry of Science and ICT (MSIT) in South Korea holds a prominent and explicit role in the nation's cybersecurity governance and policy. It leads or co-leads national cybersecurity initiatives, including implementing national cybersecurity strategies and coordinating government-wide cyber incident responses alongside other agencies (Sources [2],[3],[5]). MSIT conducts joint investigations into cyber incidents (e.g., KT data breach) and sets regulatory frameworks such as AI safety and information security management (Sources [1],[2],[5]). It oversees the Korea Internet &amp; Security Agency (KISA), which operates the national Computer Emergency Response Team Coordination Center, providing technical cybersecurity coordination and Internet security within the country (Source [6]). MSIT also participates in inter-ministerial cybersecurity councils and drives public-private cybersecurity capacity building and standards alignment (Sources [3],[5],[7],[8]). These combined roles clearly position MSIT as a principal national cybersecurity authority, thus evidencing a high level of responsibility for cybersecurity policy, implementation, technical coordination, and enforcement.</t>
+          <t>The Ministry of Research, Innovation and Digitalization (MCID) is explicitly responsible for cybersecurity in Romania. It is the main policy and strategy provider in the field of information society and communications, including cybersecurity, and has executive control over these domains [5]. The Ministry is tasked with implementing public strategies and policies in digital transformation and the information society, which includes cybersecurity [4][5]. The Authority for the Digitisation of Romania (ADR), which is coordinated by MCID, is responsible for implementing public strategies and policies in digital transformation and information society, and for ensuring compliance monitoring and control, including cybersecurity aspects [4][5]. The Ministry also hosts and oversees the National Directorate of Cybersecurity (DNSC), which is the successor to the national CERT and is responsible for preventing, analyzing, identifying, and reacting to cyber incidents, as well as elaborating and distributing public policies to prevent and counteract incidents within national cyberinfrastructures [5]. The Ministry participates in major cybersecurity initiatives, such as the Governmental Cloud project, which is a significant investment in national cybersecurity infrastructure [2][9]. The Ministry's role is further confirmed by its involvement in the development and implementation of the national cybersecurity strategy and action plan for 2022-2027, which identifies the Ministry as a key actor in the coordination and implementation of cybersecurity measures [1][5].</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3723,14 +3731,14 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ourtake.bakerbotts.com/post/102low8/south-korean-ministry-of-science-and-ict-issues-package-of-regulations-to-supplem', 'title': 'South Korean Ministry of Science and ICT Issues Package of ...', 'snippet': 'In operation, operators should monitor in real time for unsafe behavior, collect and act on user feedback, and maintain processes to protect ...', 'date': '2025-10-20', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://mojoauth.com/news/south-koreas-cybersecurity-government-response-to-recent-hacks', 'title': "South Korea's Cybersecurity: Government Response to Recent Hacks", 'snippet': "The government is enhancing penalties for delayed reporting of incidents, conducting joint investigations into breaches like KT's, and ...", 'date': '2025-10-17', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.chosun.com/english/industry-en/2025/10/22/2UFKFNC44ZCRFD4KFHHIYKHKDY/', 'title': 'Government Unveils Comprehensive Cybersecurity Strategy', 'snippet': 'First, the government will immediately conduct extensive security vulnerability checks on approximately 1,600 IT systems widely used by the ...', 'date': '2025-10-22', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/National%20Cybersecurity%20Strategy_South%20Korea.pdf', 'title': '[PDF] National Cybersecurity Strategy - ITU', 'snippet': 'This National Cybersecurity Strategy sets out the future cybersecurity vision and goals of the Republic of Korea and outlines strategic tasks for.', 'date': None, 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://www.msit.go.kr/eng/bbs/view.do;jsessionid=-yDmX-KD-xn-O2Mu84AbdFFLZR7IH1HK_ufzshoC.AP_msit_1?sCode=eng&amp;mPid=2&amp;mId=4&amp;bbsSeqNo=42&amp;nttSeqNo=1181', 'title': 'Ministry of Science and ICT - Press Releases - 과학기술정보통신부 &gt;', 'snippet': 'The public sector will take the lead in information security, raising security budget* and personnel requirements to a specified threshold compared to overall ...', 'date': None, 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Korea_Internet_&amp;_Security_Agency', 'title': 'Korea Internet &amp; Security Agency - Wikipedia', 'snippet': 'Other roles include but are not limited to, the promotion of safe Internet usage and Internet culture, detecting and analyzing malware/viruses on the web, ...', 'date': '2005-03-04', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://www.korea.net/Government/Briefing-Room/Press-Releases/view?articleId=8333&amp;insttCode=A110439&amp;type=O', 'title': 'Government Announces Comprehensive Information Security ...', 'snippet': '➂ strengthening overall public-private information security capacity, fostering an environment aligned with international standards, and ...', 'date': '2025-11-06', 'last_updated': None, 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/asia-pacific/south-korea/topics/regulators-enforcement-priorities-and-penalties', 'title': 'Regulators, Enforcement Priorities and Penalties | South Korea', 'snippet': 'Ministry of Science and ICT (MSIT): As the main cybersecurity regulator, the MSIT supervises general cybersecurity and other information security matters under ...', 'date': '2025-01-01', 'last_updated': '2025-11-08', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/romanian-cybersecurity-strategy-2022-2027', 'title': 'Romanian cybersecurity strategy (2022-2027)', 'snippet': 'Romania must continue to play an active and relevant role in major international structures and initiatives related to actions in the digital and cybersecurity ...', 'date': '2024-11-28', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.leadersmag.com/issues/2024.1_Jan/ROM/LEADERS_Bogdan-Gruia_Ivan_Min_RID.html', 'title': 'Bogdan-Gruia Ivan, Minister of Research, Innovation and ...', 'snippet': 'Romania views cybersecurity as a shared responsibility, together with our partners and allies in NATO. North of our borders, the most technologically advanced ...', 'date': '2024-01-01', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://www.sri.ro/assets/files/legislatie/2024-eng/the_Law_No_58.pdf', 'title': "[PDF] LAW No 58, dated March 14th, 2023 on Romania's cyber security ...", 'snippet': 'ARTICLE 1. (1) This Law sets out the legal and institutional framework regarding the organization and conduct of activities in the field of cyber.', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://ceelegalmatters.com/magazine-articles/9381-issue-10-7/24529-romania-digitizing-during-and-after-the-pandemic', 'title': 'Romania: Digitizing During and After the Pandemic', 'snippet': 'The ADR is subordinated to the Ministry of Research, Innovation, and Digitization, having the role of implementing public strategies and ...', 'date': '2023-10-05', 'last_updated': '2025-01-05', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/collection/iopeu-monitoring/governance-romania', 'title': 'Governance - Romania - Interoperable Europe Portal', 'snippet': 'The Ministry of Research, Innovation and Digitisation (MCID) has executive control over information society and communications. This dedicated Ministry is the ...', 'date': '2025-02-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://edgeinstitute.ro/wp-content/uploads/2025/10/Digital-Governance-Framework-for-Romania-by-Digital-Nation.pdf', 'title': '[PDF] Digital Governance Framework for Romania | Edge Institute', 'snippet': "Romania's digital state is stuck at a standstill: much has been done on paper, in law, and in isolated projects, yet citi-.", 'date': '2025-10-01', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://depp.oecd.org/policies/ROU1594', 'title': 'Policy Detail - The cybersecurity strategy of Romania (2022-2027)', 'snippet': 'The Romanian Cybersecurity Strategy 2022-2027 guarantees the maintenance of openness, freedom, stability and safety of the cyberspace.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.healthydietforhealthylife.eu/romania', 'title': 'Romania | HDHL', 'snippet': 'The Ministry of Research, Innovation, and Digitalization assumes a pivotal role as a synthesizer and coordinator in the realms of scientific research, ...', 'date': '2025-02-21', 'last_updated': '2025-02-23', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/romania-digital-transformation-launch-major-procurement-government-private', 'title': 'Launch of Major Procurement for Government Private Cloud Migration', 'snippet': 'Enhanced Security: Dedicated cybersecurity services will help protect sensitive government data from evolving cyber threats. • Improved Citizen ...', 'date': '2025-02-11', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/190206/ministry-of-research-and-innovation-ministerul-cercetarii-si-inovarii', 'title': '️Ministry of Research, Innovation and Digitalization(Ministerul ...', 'snippet': 'The Ministry of Research and Innovation is a specialized body of the central public administration, with the role to implement policies in the areas of ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Culture in SURINAME responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Digital Economy and Innovation in DJIBOUTI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3738,27 +3746,27 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Culture in SURINAME</t>
+          <t>Ministry of Digital Economy and Innovation in DJIBOUTI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Culture</t>
+          <t>Ministry of Digital Economy and Innovation</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Culture in Suriname is primarily responsible for education policies, teacher training, science promotion, culture, and arts as outlined in the National Education Policy 2024-2031[3]. While the Ministry is involved in strengthening digital literacy among educators and students as part of broader educational reforms and digital transformation goals[1][5], it is not explicitly identified as responsible for national cybersecurity policy, implementation, or coordination. The Ministry does not host a national CERT/CSIRT, lead cybersecurity committees, nor is it described as overseeing national cybersecurity standards or enforcement. Cybersecurity matters appear to be addressed at other levels of government or ministries, such as the Ministry of Transport, Communication and Tourism, which has an explicit cybersecurity role referenced in policy[7]. Thus, the Ministry of Education’s role in cybersecurity is limited mainly to digital literacy and safety education within schools, rather than governance or operational cybersecurity responsibilities.</t>
+          <t>The Ministry of Digital Economy and Innovation in Djibouti is explicitly responsible for the country's cybersecurity governance and implementation. It spearheaded the National Cybersecurity Strategy for 2024-2030, which was officially adopted by Djibouti's Council of Ministers. The ministry leads efforts to build a comprehensive framework to combat cyber threats, enhance government system security, develop digital skills, and foster national and international cooperation on cybersecurity[1]. Additionally, the ministry presented a bill to establish a National Cybersecurity Authority tasked with setting national cybersecurity standards, monitoring threats, responding to incidents, and boosting cybercrime prevention[2]. The ministry also oversees cybersecurity laws and has engaged in bilateral talks with other countries, such as Qatar, to strengthen cybersecurity partnerships, further demonstrating its active role in cybersecurity governance[3][4]. These multiple roles align with the criteria for responsibility in cybersecurity, confirming a high level of responsibility and direct involvement in the strategic, legislative, and operational aspects of cybersecurity in Djibouti.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3768,14 +3776,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/the-suriname-national-digital-strategy-2023-2030', 'title': 'The Suriname National Digital Strategy 2023-2030', 'snippet': 'The Suriname National Digital Strategy 2023-2030 outlines a comprehensive framework to achieve a digitally transformative environment that benefits all.', 'date': '2024-11-22', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://education-profiles.org/latin-america-and-the-caribbean/suriname/~technology', 'title': 'Suriname | Technology - Education Profiles', 'snippet': 'Cybersecurity and safety ... The Ministry of Education, Science, and Culture is responsible for primary and secondary education in Suriname.', 'date': '2024-10-30', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://gov.sr/wp-content/uploads/2025/03/National-Education-Policy-Suriname-2024-2031-ENGLISH_FINAL-1.pdf', 'title': '[PDF] National Education Policy Suriname 2024- 2031 | GOV.SR', 'snippet': 'The Ministry is responsible for: matters relating to all forms of education of all courses; the training of teachers and lecturers, the practice ...', 'date': '2025-03-18', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://consensomontevideo.cepal.org/en/institution/ministry-education-science-and-culture', 'title': 'Ministry of Education, Science and Culture', 'snippet': 'The Education System of Suriname is centralized and coordinated, guided and regulated by the Ministry of Education, Science and Culture (MinOWC). This ministry ...', 'date': None, 'last_updated': '2024-09-20', 'matched': True}, {'url': 'https://gov.sr/wp-content/uploads/2023/09/Suriname-National-Digital-Strategy-2023-2030.pdf', 'title': '[PDF] NATIONAL DIGITAL STRATEGY - GOV.SR', 'snippet': 'Consequently, a top priority for the education sector in Suriname is to strengthen the provision of education, and ensure that education is accessible to all, ...', 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://mfcs.oas.org/Home/CountryDetailMFCS?measureId=25&amp;countryId=173&amp;year=2021', 'title': 'Suriname - CSBMs', 'snippet': 'Exchange information related to adopting and adapting provisions under domestic laws that govern processes for obtaining data and information.', 'date': '2024-11-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.theworldfolio.com/interviews/falisie-pinas-minist/738/', 'title': 'Falisie Pinas, Minister of Transport, Communication and Tourism', 'snippet': 'Cyber security is also an issue and challenge. The policy of the Ministry of TCT is to make ICT accessible and affordable to the entire ...', 'date': '2011-11-21', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://arqus-alliance.eu/study-in-arqus/joint-masters-programmes/master-in-cybersecurity-cyberintelligence/', 'title': "Master's Programme in International Cybersecurity and ...", 'snippet': 'The programme offers specialised academic education in Cybersecurity, Cyberintelligence and International Relations and Law for Cybersecurity.', 'date': '2025-05-08', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://unfccc.int/sites/default/files/resource/SURINAME%20NC3_2023_FINAL.pdf', 'title': '[PDF] Republic of Suriname Third National Communication to the United ...', 'snippet': 'The Republic of Suriname has ratified the United Nations Framework Convention on Climate Change (UNFCCC), the Kyoto Protocol and the Paris Agreement,.', 'date': None, 'last_updated': '2025-01-30', 'matched': True}]</t>
+          <t>[{'url': 'https://www.youtube.com/watch?v=JjBxDqSN1PY', 'title': 'Djibouti Approves National Cybersecurity Strategy 2024-2030 to ...', 'snippet': '... Cybersecurity Strategy for 2024-2030, spearheaded by the Ministry of Digital Economy and Innovation. The strategy aims to build a ...', 'date': '2025-05-28', 'last_updated': '2025-07-08', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/1211-50395-djibouti-advances-bill-to-create-national-cybersecurity-authority', 'title': 'Djibouti Advances Bill to Create National Cybersecurity Authority', 'snippet': 'Djibouti presents bill to create independent National Cybersecurity Authority ANC to set standards, monitor threats, and boost cybercrime.', 'date': '2025-11-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dco.org/wp-content/uploads/2025/10/Djibouti-Report.pdf', 'title': '[PDF] Djibouti - Digital Trade Acceleration Initiative', 'snippet': 'The Ministry of Digital Economy and Innovation is primarily responsible for overseeing the cybersecurity law in Djibouti. The recently established High ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.samenacouncil.org/samena_daily_news?news=103221', 'title': 'Djibouti, Qatar explore avenues for enhanced cybersecurity ...', 'snippet': 'The Djiboutian government is prioritizing the digital economy as a key driver of its development strategy. To ensure that this sector ...', 'date': '2024-11-22', 'last_updated': '2025-03-30', 'matched': True}, {'url': 'https://www.csm.tech/blog-details/navigating-the-digital-frontier-an-analysis-of-djiboutis-e-government-initiatives-and-obstacles', 'title': "Navigating the Digital Frontier: An Analysis of Djibouti's E ...", 'snippet': "Djibouti's e-government initiatives boost services and transparency but face challenges like digital divides and cybersecurity risks.", 'date': '2024-08-13', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/491561621691313871/Project-Information-Document-Djibouti-Digital-Foundations-Project-P174461.docx', 'title': '[DOC] Project-Information-Document-Djibouti-Digital-Foundations-Project ...', 'snippet': "It aims to help Djibouti harness its domestic digital potential ('Djibouti connected') by mobilizing the public and private sectors, in particular private ...", 'date': None, 'last_updated': '2024-12-01', 'matched': True}, {'url': 'https://www.mondaq.com/security/1650256/national-assembly-of-the-republic-of-djibouti-approves-digital-code', 'title': 'National Assembly Of The Republic Of Djibouti Approves Digital Code', 'snippet': 'Create a cybersecurity body responsible for implementing measures relating to cybersecurity, the defense of cyberspace and critical ...', 'date': '2025-07-14', 'last_updated': None, 'matched': True}, {'url': 'https://techafricanews.com/2025/10/27/djibouti-signs-the-united-nations-convention-on-cybercrime/', 'title': 'Djibouti Signs the United Nations Convention on Cybercrime', 'snippet': "The Republic of Djibouti has officially signed the United Nations Convention on Cybercrime, marking a historic step in the country's commitment ...", 'date': '2025-10-27', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the NONE in DEMOCRATIC PEOPLE'S REPUBLIC OF KOREA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Science in BULGARIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3783,27 +3791,27 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NONE in DEMOCRATIC PEOPLE'S REPUBLIC OF KOREA</t>
+          <t>Ministry of Education and Science in BULGARIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Ministry of Education and Science</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Democratic People's Republic of Korea</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>There is no publicly available information or documentation indicating that an organization named 'NONE' in North Korea is responsible for the country's cybersecurity governance, policy, or technical coordination. The Ministry of State Security and the Reconnaissance General Bureau are known to be involved with North Korean cyber activities, especially offensive and espionage operations, but no entity named 'NONE' has any recognized cybersecurity role or responsibility in the DPRK according to available sources[2][4][5].</t>
+          <t>The Ministry of Education and Science in Bulgaria is primarily responsible for the education sector at all levels, including integration of digital technologies and development of cybersecurity competencies in education curricula at the primary, secondary, and higher education levels. However, the Ministry is not explicitly mentioned as responsible for national cybersecurity policy, coordination, or incident response. Instead, cybersecurity governance, policy, and national incident response functions are mainly assigned to the Ministry of eGovernment and the Cybersecurity Council under the Council of Ministers. National CERTs and coordinated cybersecurity controls are under the State eGovernment Agency and related institutions. While the Ministry of Education and Science collaborates on cybersecurity training for educators and supports ICT security education, it does not lead or host cybersecurity authorities or committees related to national cybersecurity enforcement or strategy[1][2][3][6][8].</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3813,14 +3821,14 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.csis.org/analysis/forging-forward-south-koreas-proactive-cyber-defense-and-strategic-cooperation-united', 'title': "Forging Forward: South Korea's Proactive Cyber Defense ... - CSIS", 'snippet': 'This paper aims to explore areas in which South Korea and the United States must deepen their collaboration to bolster their proactiveness in cyber defense.', 'date': '2025-07-10', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.mofa.go.kr/eng/wpge/m_25525/contents.do', 'title': 'North Korean Cyber Threat | Ministry of Foreign Affairs, Republic of ...', 'snippet': "ADVISORY ON THE DEMOCRATIC PEOPLE'S REPUBLIC OF KOREA INFORMATION TECHNOLOGY WORKERS · How DPRK IT workers operate · How DPRK IT workers hide their identity.", 'date': '2025-02-21', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.fis.kr/en/main_biz/cyber_security_center', 'title': 'Introduction of Cyber Security Center | KFIS - Korea Fiscal ...', 'snippet': 'Call this “Cyber Security Center” below which is able to instantly take action with detected and analyzed cyber-attack information.', 'date': '2023-05-02', 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.nsa.gov/Press-Room/Press-Releases-Statements/Press-Release-View/Article/3413621/us-rok-agencies-alert-dprk-cyber-actors-impersonating-targets-to-collect-intell/', 'title': 'U.S., ROK Agencies Alert: DPRK Cyber Actors Impersonating ...', 'snippet': 'DPRK state-sponsored cyber actors continue to impersonate trusted sources to collect sensitive information,” said Rob Joyce, NSA director of Cybersecurity.', 'date': '2023-06-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Ministry_of_State_Security_(North_Korea)', 'title': 'Ministry of State Security (North Korea) - Wikipedia', 'snippet': "The Ministry of State Security of the Democratic People's Republic of Korea is the secret police agency of North Korea. It is an autonomous agency of the ...", 'date': '2008-02-15', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://2021-2025.state.gov/u-s-government-cybersecurity-alert-democratic-peoples-republic-of-korea-dprk-using-new-tactic-in-social-engineering-operations/', 'title': "Democratic People's Republic of Korea (DPRK) Using New Tactic in ...", 'snippet': 'This joint Cybersecurity Advisory provides detailed information on how Kimsuky actors operate, warning signs of spearphishing campaigns, and ...', 'date': '2024-05-02', 'last_updated': '2025-03-23', 'matched': True}, {'url': 'https://kr.usembassy.gov/072723-fourth-u-s-rok-working-group-meeting-on-the-dprk-cyber-threat/', 'title': 'Fourth U.S.-ROK Working Group Meeting on the DPRK Cyber Threat', 'snippet': "The Republic of Korea (ROK) hosted the 4th US-ROK Working Group on the Democratic People's Republic of Korea (DPRK) Cyber Threat on July 26.", 'date': '2023-07-26', 'last_updated': '2025-01-14', 'matched': True}]</t>
+          <t>[{'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/bulgaria', 'title': 'Data protection and cybersecurity laws in Bulgaria | CMS Expert Guide', 'snippet': 'The Cybersecurity Act is the main piece of legislation dealing with cybersecurity and transposing the NIS Directive in Bulgaria.', 'date': '2021-03-05', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/collection/iopeu-monitoring/governance-bulgaria', 'title': 'Governance - Bulgaria | Interoperable Europe Portal - European Union', 'snippet': 'The Cybersecurity Council assists the government in performing its cybersecurity organisation, management and control tasks, which include network and ...', 'date': '2025-02-01', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://dss.bg/news/dss-experts-share-cybersecurity-insights', 'title': 'DSS Experts Share Cybersecurity Insights with Educators', 'snippet': 'For years, DSS has aimed to strengthen cybersecurity awareness and practices within the Bulgarian education sector by equipping educators and ...', 'date': '2024-10-30', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/bg/', 'title': 'NCSI :: Bulgaria - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2025-07-15', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'http://proceedings.informingscience.org/InSITE2023/InSITE2023Art03Syarova9146.pdf', 'title': '[PDF] Cybersecurity Issues in the Secondary and Higher Education ...', 'snippet': 'Identifying and describing the competencies, responsibilities, and curriculum con- tent for cybersecurity are among the challenges facing ...', 'date': '2023-06-26', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/bulgaria/~technology', 'title': 'Bulgaria | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Science is responsible for the education sector at all levels along with the Council of Ministers. The coordinator ...', 'date': '2025-01-14', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/bulgaria-digital-economy', 'title': 'Bulgaria - Digital Economy - International Trade Administration', 'snippet': 'Bulgaria has already implemented major cybersecurity and tech projects at the Ministry of e-Governance, Ministry of Foreign Affairs ...', 'date': '2024-09-18', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/BG_NCSS_2021_en%20(draft%20translation).pdf', 'title': '[PDF] REPUBLIC OF BULGARIA - ENISA', 'snippet': 'By 2030, Bulgaria must achieve cyber resilience and build a functioning, reliable and secure digital infrastructure to unlock the full potential of digital ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://blacksea-caspia.eu/index.php/en/hsse-vusi-and-academy-ministry-interior-initiate-legislative-changes-field-cybersecurity-together', 'title': 'HSSE (ВУСИ) and the Academy of the Ministry of Interior initiate ...', 'snippet': 'One concerns the development of cybersecurity in higher education in Bulgaria, and beyond, as modern countries are developing cybersecurity from the ground up.', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Department of Transportation, Communication and Infrastructure in MICRONESIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Culture, Sports, Science and Technology (MEXT) in JAPAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3828,27 +3836,27 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Department of Transportation, Communication and Infrastructure in MICRONESIA</t>
+          <t>Ministry of Education, Culture, Sports, Science and Technology (MEXT) in JAPAN</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Department of Transportation, Communication and Infrastructure</t>
+          <t>Ministry of Education, Culture, Sports, Science and Technology (MEXT)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Federated States of Micronesia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>The Department of Transportation, Communication and Infrastructure (DTCI) in the Federated States of Micronesia is explicitly responsible for cybersecurity policy, implementation, and technical coordination. According to the Cybersecurity Roadmap for FSM, the DTCI hosts the Division of Communications, which oversees critical technical cybersecurity matters and is central to the development and execution of the national cybersecurity strategy[1][4]. The DTCI is also tasked with adopting technical standards, protocols, and measures for cybersecurity, and is responsible for the oversight and promotion of cybersecurity for critical information infrastructure[2]. Furthermore, the DTCI is designated to receive reports, investigate, and undertake enforcement actions relating to cybersecurity offenses, and to coordinate and facilitate the implementation of the framework to protect critical information infrastructure[2]. The department also plays a key role in the establishment and operationalization of the national Computer Emergency Response Team (CERT), which is a core function for incident response and coordination[1][5]. These responsibilities are further reinforced by the FSM's legislative and policy frameworks, which assign the DTCI a leading role in cybersecurity governance and enforcement[2][5].</t>
+          <t>The Ministry of Education, Culture, Sports, Science and Technology (MEXT) is not explicitly mentioned as a primary agency responsible for cybersecurity policy, implementation, or technical coordination in Japan. The main responsibility for national cybersecurity strategy and coordination lies with the National Center of Incident Readiness and Strategy for Cybersecurity (NISC), while sector-specific oversight is handled by other ministries such as METI (industrial sector), MIC (telecoms), and PPC (data protection) [1, 2, 6]. MEXT's involvement in cybersecurity is indirect, primarily through its role in science, technology, and education policy, including research and development (R&amp;D) initiatives related to cyberspace and information security [8, 10]. For example, MEXT supports R&amp;D directed toward the creation of new cyberspace-based services and addresses the influence of cyberspace activities on society, but it does not host a national CERT, lead a cybersecurity committee, or oversee information security standards for critical infrastructure or private sector entities [8, 10]. MEXT may participate in broader national discussions or research collaborations, but its cybersecurity responsibilities are limited compared to agencies like NISC, METI, or MIC [8, 10].</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3858,14 +3866,14 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[{'url': 'https://apt.int/sites/default/files/2022/03/Cybersecurity_Roadmap_for_FSM_December_2021.pdf', 'title': '[PDF] Cybersecurity Roadmap Federated States of Micronesia', 'snippet': 'The Cybersecurity Roadmap (Roadmap) of the Federated States of Micronesia. (FSM) is intended as a guide to inform the FSM Government of the priorities.', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.cfsm.gov.fm/wp-content/uploads/2025/06/CB-24-14.pdf', 'title': '[PDF] twenty-third congress of the federated states of micronesia', 'snippet': '(b) “DTCI” means the Department of. 14. Transportation, Communications and Infrastructure, or. 15 its successor;. 16. (c) “CERT” means a computer emergency ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.jointsdgfund.org/article/steering-digital-transformation-micronesia', 'title': 'Steering Digital Transformation in Micronesia - Joint SDG Fund', 'snippet': 'The representative from FSM also outlined various policies being advocated, such as Cybersecurity Policy and Rights to Information/Data Privacy.', 'date': '2024-02-20', 'last_updated': '2025-04-30', 'matched': True}, {'url': 'https://tci.gov.fm/communications.html', 'title': 'Division of Communications | Federated States of Micronesia (FSM)', 'snippet': 'The duties and functions of the Division of Communications are as follows: Controlling and licensing radio and communications in the Federated States of ...', 'date': '2025-07-24', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://gov.fm/fsm-concludes-landmark-2025-cybersecurity-symposium-forging-a-unified-path-forward/', 'title': 'FSM Concludes Landmark 2025 Cybersecurity Symposium, Forging ...', 'snippet': "This collaborative gathering underscored the nation's unwavering commitment to building a secure and resilient digital future for all citizens.", 'date': '2025-11-11', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/fm/', 'title': 'Micronesia (Federated States of) - NCSI', 'snippet': 'The obligation should at a minimum include mandatory cybersecurity measures applicable to the information infrastructure used in executing state functions and ...', 'date': '2025-02-14', 'last_updated': '2025-04-08', 'matched': True}, {'url': 'https://ocsc.com.au/federated-states-of-micronesia-cybersecurity-capacity-maturity-model-workshop/', 'title': 'Federated States of Micronesia Cybersecurity Capacity Maturity ...', 'snippet': "FSM Cyber-Security Capacity Maturity Model Workshop explores the nation's cyber strengths, weaknesses, opportunities and threats.", 'date': '2021-10-06', 'last_updated': '2025-09-29', 'matched': True}]</t>
+          <t>[{'url': 'https://www.fortra.com/blog/cybersecurity-regulatory-landscape-japan-primer-business', 'title': 'Cybersecurity Regulatory Landscape in Japan: A Primer for Business', 'snippet': 'The article looks at the legal foundations of cybersecurity in Japan, what businesses need to do, and how Japan aligns with the global ...', 'date': '2025-08-22', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.meti.go.jp/english/policy/safety_security/cybersecurity/index.html', 'title': 'Cybersecurity / METI Ministry of Economy, Trade and Industry', 'snippet': 'In Japan, each ministry is responsible for cyber security policies in their respective areas, and overall coordination of cybersecurity policy is conducted by ...', 'date': '2025-10-16', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.noandt.com/wp-content/uploads/2024/03/cp_gpg_Cyber-Security_2024_japan.pdf', 'title': '[PDF] Cybersecurity 2024', 'snippet': 'The CMG establishes that companies bear the responsibility for mitigating cybersecurity risks ... to escalating cybersecurity threats in Japan, establishes the ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.aikido.dev/learn/compliance/compliance-frameworks/japan-cybersecurity', 'title': 'Japan Cybersecurity Laws Explained: Basic Act &amp; APPI - Aikido', 'snippet': 'It defines responsibilities for the national government, local authorities, critical infrastructure operators, and businesses.', 'date': '2025-10-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://cadeproject.org/updates/japan-to-develop-new-cybersecurity-strategy-and-measures/', 'title': 'Japan plans to develop new cybersecurity strategy - CADE', 'snippet': 'The Japanese government is preparing to develop a new cybersecurity strategy within the year, aiming to address growing digital threats.', 'date': '2025-06-02', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://www.nisc.go.jp/eng/', 'title': 'National Cybersecurity Office | NCO', 'snippet': 'The Cybersecurity Strategy shows a basic position on cybersecurity policy, its objectives and its implementation for 3 years domestically and internationally.', 'date': '2025-10-16', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/japan', 'title': 'Cybersecurity 2025 - Japan - Global Practice Guides', 'snippet': "In terms of data protection, the firm has noted expertise in leveraging user information while protecting clients' businesses. Mori Hamada &amp; ...", 'date': '2025-03-13', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.mext.go.jp/en/news/topics/detail/__icsFiles/afieldfile/2015/07/03/1359554_2.pdf', 'title': "[PDF] Japan's STI Policies Main Points", 'snippet': '○ Deal with the ramifications of cyber space on actual society, from the perspective also of social systems, about dealing with personal information, cyber ...', 'date': None, 'last_updated': '2025-05-02', 'matched': True}, {'url': 'https://iclg.com/practice-areas/cybersecurity-laws-and-regulations/japan', 'title': 'Cybersecurity Laws and Regulations Report 2025 Japan - ICLG.com', 'snippet': '2. Cybersecurity Laws · Recognise cybersecurity risks and develop company-wide measures. · Build a structure or process for cybersecurity risk ...', 'date': '2024-06-11', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.mext.go.jp/en/news/topics/detail/__icsFiles/afieldfile/2015/07/03/1359554_1.pdf', 'title': "[PDF] Japan's STI Policies looking beyond Mid-Long Term", 'snippet': '✓ Promote R&amp;D directed toward the creation of new cyberspace-based services; respond to the influence of cyberspace activities on actual society, such as cyber ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology in EQUATORIAL GUINEA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Heritage and Arts, Fiji in FIJI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3873,17 +3881,17 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology in EQUATORIAL GUINEA</t>
+          <t>Ministry of Education, Heritage and Arts, Fiji in FIJI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology</t>
+          <t>Ministry of Education, Heritage and Arts</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3893,7 +3901,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>There is no evidence that the Ministry of Higher Education, Research, Science and Technology in Equatorial Guinea is explicitly responsible for national cybersecurity policy, implementation, or technical coordination. The available sources indicate that Equatorial Guinea's cybersecurity infrastructure is still in its infancy, and there is no national legislation, strategy, or equivalent document that assigns cybersecurity responsibilities to this ministry[10][7]. No evidence was found that the ministry hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or participates in cybersecurity events or international initiatives. The responsibility for cybersecurity in Equatorial Guinea appears to be either undeclared or assigned to other entities, but not to the Ministry of Higher Education, Research, Science and Technology.</t>
+          <t>The Ministry of Education, Heritage and Arts (MEHA) in Fiji is primarily responsible for educational legislation, policy, and program implementation, as well as cultural and heritage preservation[3]. The Ministry has policies related to information privacy and security concerning students and staff within its domain, such as the Electronics and Mobile Policy regulating device use in schools, which addresses some aspects of cybersecurity and online safety indirectly[2]. However, there is no evidence that MEHA is explicitly responsible for national cybersecurity governance, policy coordination, or technical cybersecurity infrastructure like a national CERT/CSIRT. National cybersecurity issues, including significant policy and enforcement mechanisms, are generally handled by other government agencies focused on law enforcement, national security, or specialized cybersecurity commissions[7]. Therefore, the Ministry's responsibility for cybersecurity is limited to the educational context, focusing on protecting information privacy and promoting safe use of technology in schools, not on broad national cybersecurity planning or enforcement. This leads to an assessment that MEHA holds a low level of cybersecurity responsibility within Fiji.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3903,14 +3911,14 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.cohnreznick.com/insights/higher-ed-cmmc-cybersecurity-compliance-obligations', 'title': 'Higher Ed: Your CMMC Cybersecurity Compliance Obligations', 'snippet': 'Higher education: Check your obligations for CMMC cyber research compliance. Any institution engaged in research for the DoD or a contractor ...', 'date': '2024-12-17', 'last_updated': '2025-08-19', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://www.globalsign.com/en/blog/why-education-sector-needs-prioritize-cybersecurity', 'title': 'The Need for Cybersecurity in the Education Sector - GlobalSign', 'snippet': 'Educational institutions need to prioritize creating a robust digital security infrastructure to prevent significant disruption and financial losses.', 'date': '2025-02-10', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.worldbank.org/en/news/press-release/2024/06/25/equatorial-guinea-new-report-proposes-a-way-forward-to-develop-a-safe-and-inclusive-digital-economy', 'title': 'Equatorial Guinea: New Report Proposes a Way Forward to ...', 'snippet': 'The report focuses on challenges and opportunities facing Equatorial Guinea along the five foundations of the digital economy.', 'date': '2024-06-25', 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=guinea', 'title': 'Guinea - Cybil Portal', 'snippet': "An overview of Guinea's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here.", 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://securitydelta.nl/media/com_hsd/report/135/document/Cyber-security-trends-report-Africa-en.pdf', 'title': '[PDF] CYBER CRIME &amp; CYBER SECURITY TRENDS IN AFRICA', 'snippet': 'According to the government of Equatorial Guinea, their cyber security infrastructure is very much at its infancy. At this time, the government has not ...', 'date': None, 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://www.peaceau.org/en/article/communique-of-the-1171st-meeting-of-the-psc-held-on-24-august-2023-on-updated-briefing-on-the-development-of-the-common-african-position-on-cyber-security-in-africa', 'title': 'Communique of the 1171st meeting of the PSC held on 24 August ...', 'snippet': 'Determined to find a lasting solution to the growing threat to peace, security and stability in the Continent posed by the increasing cyber-attacks.', 'date': '2023-08-31', 'last_updated': '2025-02-12', 'matched': True}, {'url': 'https://docs.un.org/en/A/HRC/58/14', 'title': '[PDF] A/HRC/58/14 - General Assembly - the United Nations', 'snippet': 'Botswana commended Equatorial Guinea on having appointed the first woman as a. Prime Minister for 2023 and 2024 and for depositing the ...', 'date': '2024-12-16', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Equatorial-Guinea.pdf', 'title': '[PDF] Equatorial Guinea | GHS Index', 'snippet': 'There is no evidence of a national legislation, plans or equivalent strategy document(s) which includes measures for risk identification and reduction for ...', 'date': None, 'last_updated': '2025-11-05', 'matched': True}]</t>
+          <t>[{'url': 'https://www.education.govt.nz/education-professionals/schools-year-0-13/digital-technology/staff-roles-and-responsibilities', 'title': 'Staff roles and responsibilities - Ministry of Education', 'snippet': 'They are responsible for: overseeing the implementation of cyber security policies and procedures; overseeing cyber training for staff ...', 'date': '2025-04-30', 'last_updated': '2025-05-04', 'matched': True}, {'url': 'https://education-profiles.org/oceania/fiji/~technology', 'title': 'Fiji | Technology - Education Profiles', 'snippet': 'To ensure proper security, privacy, and use of the information within the Ministry of Education, Heritage and Arts (MEHA) (Central Office, ...', 'date': '2025-01-17', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.parliament.gov.fj/wp-content/uploads/2023/09/Ministry-of-Education-Heritage-and-Arts-Annual-Report-2020%E2%80%932021.pdf', 'title': '[PDF] Ministry-of-Education-Heritage-and-Arts-Annual-Report-2020–2021 ...', 'snippet': 'The explicit roles and responsibilities of the Ministry include: Design, implementation, monitoring and evaluation of educational legislation, policies and ...', 'date': None, 'last_updated': '2025-04-11', 'matched': True}, {'url': 'https://www.saac.gov.fj/publications/policy/ChildProtectionPolicy.pdf', 'title': '[PDF] Ministry of Education, Heritage, &amp; Arts POLICY ON CHILD ...', 'snippet': 'As a signatory, Fiji has an obligation to protect children against: a. All forms of physical or mental abuse (violence), neglect or negligent treatment,.', 'date': None, 'last_updated': '2025-10-07', 'matched': True}, {'url': 'https://www.finance.gov.fj/wp-content/uploads/2024/09/NPDF_final-9.pdf', 'title': '[PDF] Fiji National Development Plan 2025- 2029 and Vision 2050', 'snippet': 'The Plan sets out to enhance the social wellbeing of our people by alleviating poverty and providing better quality of education, housing, healthcare and ...', 'date': None, 'last_updated': '2024-09-17', 'matched': True}, {'url': 'https://www.education.gov.fj/wp-content/uploads/2024/04/2023-2026-MOE-SP.pdf', 'title': '[PDF] Strategic Plan 2023 - 2026 - Ministry of Education', 'snippet': 'The plan aims to improve education service delivery with 10 key priorities, enhance quality and accessibility, and address skill gaps and inefficiencies.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.homeaffairs.gov.fj/wp-content/uploads/2025/08/National-Security-Strategy-2025-2029.pdf', 'title': '[PDF] National Security Strategy 2025-2029 | Protect, Progress, and Promote', 'snippet': "Key global and regional trends, including geopolitical shifts, transnational organised crime, climate change, and cybersecurity threats, shape Fiji's security ...", 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Department for Science, Innovation and Technology in UNITED KINGDOM responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Religious Affairs (through the General Secretariat for Research and Technology) in GREECE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3918,27 +3926,29 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Department for Science, Innovation and Technology in UNITED KINGDOM</t>
+          <t>Ministry of Education and Religious Affairs (through the General Secretariat for Research and Technology) in GREECE</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Department for Science, Innovation and Technology</t>
+          <t>Ministry of Education and Religious Affairs (through the General Secretariat for Research and Technology)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>The Department for Science, Innovation and Technology (DSIT) in the United Kingdom is explicitly responsible for cybersecurity related to the government and public sector. On June 3, 2025, it was announced that responsibility for government and public sector cybersecurity transferred from the Cabinet Office to the Government Digital Service (GDS), which is part of DSIT[1][2][9]. This reorganization aims to improve integration of cybersecurity expertise, strengthen resilience, and enhance policy development across the public sector. DSIT is also involved in legislative initiatives, such as the UK's Cyber Security and Resilience Bill, which enforces cybersecurity standards across critical sectors like healthcare, transport, energy, and water, and grants the Technology Secretary (a DSIT minister) powers to instruct regulators and organizations to prevent cyberattacks and respond to significant incidents promptly[4][5][6][7][8]. This indicates a high level of cybersecurity responsibility, encompassing governance, prevention, planning, response, and enforcement in the UK's public sector cybersecurity landscape.</t>
+          <t>The Ministry of Education and Religious Affairs in Greece is responsible for cybersecurity within the context of the educational sector, particularly regarding the protection of personal data and privacy in schools, and the safe use of digital technologies in education. The 2020-25 National Cybersecurity Strategy explicitly mentions the Ministry's role in ensuring a secure digital environment for information and network infrastructures in education, and it is required to comply with GDPR and national data protection laws for student, parent, and teacher data [1]. The Ministry oversees the Directorate-General for Digital Systems, Infrastructure and Examinations, which includes the Directorate of Educational Technology and Innovation, and is involved in the development and operation of digital educational systems and infrastructure [1].
+However, the Ministry is not the primary national authority for overall cybersecurity policy, implementation, or technical coordination. The Ministry of Digital Governance holds the main coordinating role for national cybersecurity, and the Ministry of Citizen Protection is responsible for broader national security, including cybersecurity threats [5]. The Ministry of Education and Religious Affairs does not host the national CERT/CSIRT, nor does it lead or participate in national cybersecurity committees or councils as the main authority. Its responsibilities are sector-specific, focusing on education and the protection of educational data, rather than overarching national cybersecurity governance [1, 5].
+Therefore, while the Ministry of Education and Religious Affairs has a role in cybersecurity within the education sector, its responsibility is limited to that domain and does not extend to national-level cybersecurity policy or coordination.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3948,14 +3958,14 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.wired-gov.net/wg/news.nsf/articles/DSIT+Assumes+Responsibility+for+Government+and+Public+Sector+Cyber+Security+05062025150500?open', 'title': 'DSIT Assumes Responsibility for Government and Public Sector ...', 'snippet': 'The Department for Science, Innovation and Technology takes responsibility for government and public sector Cyber Security.', 'date': '2025-06-05', 'last_updated': '2025-08-21', 'matched': True}, {'url': 'https://www.globalgovernmentforum.com/responsibility-for-uk-public-sector-cybersecurity-moves-to-government-digital-service/', 'title': 'Responsibility for UK public sector cybersecurity moves to ...', 'snippet': 'Responsibility for government and public sector cybersecurity in the UK has moved from the Cabinet Office to the Government Digital Service (GDS).', 'date': '2025-06-04', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.nao.org.uk/wp-content/uploads/2024/11/dsit-overview-2023-24.pdf', 'title': '[PDF] An Overview of the - Department for Science, Innovation &amp; Technology', 'snippet': "The UK's regulatory framework for cyber security comes from multiple pieces of primary and secondary legislation. Different legislation covers ...", 'date': '2024-11-24', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://iclg.com/news/23269-uk-unveils-cyber-defence-bill', 'title': 'UK unveils cyber-defence bill - ICLG.com', 'snippet': 'With cyberattacks setting the country back GBP 15 billion per year, the government has taken action to bolster cyber defences for the ...', 'date': '2025-11-12', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.helpnetsecurity.com/2025/11/12/uk-cyber-security-and-resilience-bill/', 'title': "UK's new Cyber Security and Resilience Bill targets weak links in ...", 'snippet': 'The UK government has introduced the Cyber Security and Resilience Bill, to strengthen the digital defenses of essential public services.', 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.gov.uk/government/organisations/department-for-science-innovation-and-technology', 'title': 'Department for Science, Innovation and Technology - GOV.UK', 'snippet': 'Proposed new laws will strengthen cyber defences for essential public services like healthcare, drinking water providers, transport and energy. New cyber laws ...', 'date': '2025-11-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.gov.uk/government/news/tough-new-laws-to-strengthen-the-uks-defences-against-cyber-attacks-on-nhs-transport-and-energy', 'title': "Tough new laws to strengthen the UK's defences against cyber ...", 'snippet': 'Proposed new laws will strengthen cyber defences for essential public services like healthcare, drinking water providers, transport and energy.', 'date': '2025-11-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://industrialcyber.co/regulation-standards-and-compliance/uk-cyber-resilience-bill-extends-oversight-to-ot-suppliers-and-managed-service-providers-raises-security-baseline/', 'title': 'UK Cyber Resilience Bill extends oversight to OT suppliers and ...', 'snippet': 'The U.K. government on Wednesday introduced new legislation to strengthen national defenses against cyberattacks targeting critical sectors ...', 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.techuk.org/resource/dsit-assumes-responsibility-for-government-and-public-sector-cyber-security.html', 'title': 'DSIT Assumes Responsibility for Government and Public Sector ...', 'snippet': 'The Department for Science, Innovation and Technology takes responsibility for government and public sector Cyber Security.', 'date': '2025-06-04', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.thinkdigitalpartners.com/news/2025/11/13/new-cyber-bill-aims-to-keep-the-lights-on-and-the-taps-running/', 'title': "New Cyber Bill Aims to Keep 'The Lights On and the Taps Running'", 'snippet': 'The Cyber Security and Resilience Bill is designed to protect hospitals, utilities and transport networks from cyberattack, giving regulators ...', 'date': '2025-11-13', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/greece/~technology', 'title': 'Greece | Technology - Education Profiles', 'snippet': 'The vision of the 2020-25 National Cybersecurity Strategy is a “modern and secure digital environment of information and network infrastructures ...', 'date': '2025-01-14', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.cti.gr/en/organisational-units/', 'title': 'ORGANISATIONAL UNITS – CTI DIOPHANTUS - ΙΤΥΕ ΔΙΟΦΑΝΤΟΣ', 'snippet': "INFORMATION SYSTEMS, APPLICATIONS AND CYBERSECURITY DIVISION\u200b\u200b The Division's responsibilities include the following: Development, operation, and support of e- ...", 'date': '2024-04-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://better-internet-for-kids.europa.eu/en/knowledge-hub/greece-policy-monitor-country-profile', 'title': 'Greece - Policy monitor country profile - Better Internet for Kids', 'snippet': 'The Better Internet for Kids (BIK) Policy monitor is a tool to compare and exchange knowledge on policy making and implementation in EU Member States, ...', 'date': '2025-05-01', 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://cybersec4europe.eu/associates/cti/', 'title': 'CTI - CyberSec4Europe | Cyber Security for Europe', 'snippet': '... Greek Ministry of Education and Religious Affairs and all educational units. ... role in building and operating a large scale pilot system based on user ...', 'date': '2019-07-23', 'last_updated': '2025-03-27', 'matched': True}, {'url': 'https://www.eliamep.gr/en/drafting-greeces-internal-security-strategy-challenges-and-prospects/', 'title': "Drafting Greece's “Internal Security Strategy” - ΕΛΙΑΜΕΠ", 'snippet': 'The Ministry of Digital Governance has the main coordinating role in cyber security, which also falls within the ambit of the Ministry of ...', 'date': '2023-03-30', 'last_updated': '2025-06-09', 'matched': True}, {'url': 'https://www.iarjournals.com/upload/422632.pdf', 'title': '[PDF] Policy and Legislation of the Greek Ministry of Education and ...', 'snippet': 'Education policy is part of general government policy and aims to: (a) meet the needs of individuals for their own benefit and (b) to meet the needs of society ...', 'date': None, 'last_updated': '2024-10-01', 'matched': True}, {'url': 'https://www.cti.gr/en/iac-division/', 'title': 'INFORMATION SYSTEMS, APPLICATIONS AND CYBERSECURITY ...', 'snippet': 'Conducting security audits, evaluating protection mechanisms, providing advisory services to enhance security, and developing security policies. Participation ...', 'date': None, 'last_updated': '2025-06-18', 'matched': True}, {'url': 'https://www.mindigital.gr/wp-content/uploads/2022/11/E%CE%9D-NATIONAL-CYBER-SECURITY-STRATEGY-2020_2025.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY 2020 - 2025', 'snippet': 'Continuous adaptability, prevention, and timely response to challenges in a changing environment consist the firmest foundation for the effective.', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research and Technological Innovation (MESRSIT) in CENTRAL AFRICAN REPUBLIC responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Innovation and Technology in PERU responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -3963,27 +3973,27 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Technological Innovation (MESRSIT) in CENTRAL AFRICAN REPUBLIC</t>
+          <t>Ministry of Science, Innovation and Technology in PERU</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Technological Innovation (MESRSIT)</t>
+          <t>Ministry of Science, Innovation and Technology</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>There is no evidence that the Ministry of Higher Education, Scientific Research and Technological Innovation (MESRSIT) is responsible for cybersecurity in the Central African Republic. The available sources indicate that the Ministry of Posts and New Technologies is the entity responsible for cybersecurity policy, but there is no specific law enforcement division or agency dedicated to cybersecurity in the country. The Central African Internet and Security Unit (CCIS) is mentioned as being involved in monitoring and technical support, but it is not linked to MESRSIT. There is no mention of MESRSIT hosting a national CERT/CSIRT/CIRT, leading or being a member of a cybersecurity committee, overseeing information security standards, or participating in cybersecurity events or initiatives. The ITU Cyberwellness Profile and other reports confirm that there is no agency responsible for cybersecurity in the Central African Republic, and MESRSIT is not cited as having any cybersecurity responsibilities in the available documentation.</t>
+          <t>The available evidence does not indicate that the Ministry of Science, Innovation and Technology in Peru is the primary or leading body responsible for cybersecurity policy, implementation, or technical coordination. Instead, the Secretariat of Digital Government (Secretaría de Gobierno Digital – SEGDI), which operates under the Presidency of the Council of Ministers, is highlighted as the entity responsible for leading national strategies related to digital transformation and cybersecurity in Peru [4]. The regulatory framework for data protection is managed by the National Institute for Transparency, Access to Information and Protection of Personal Data (INAI), and the main authority for cybersecurity incidents and policy is not identified as the Ministry of Science, Innovation and Technology in the reviewed sources [3][4]. There is no mention of the ministry hosting a national CERT/CSIRT, leading cybersecurity committees, or overseeing information security standards in Peru. Therefore, while the ministry may have some involvement in technology and innovation, its direct responsibility for cybersecurity is limited compared to other entities [4].</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3993,14 +4003,14 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[{'url': 'https://en.ccis-rca.org/InternetSecurity', 'title': 'Internet Security in Central Africa - CCIS_eng', 'snippet': 'The Central African Internet and Security Unit (CCIS) is committed to protecting our country and the security of our citizens in the face of cyber threats.', 'date': '2025-01-28', 'last_updated': '2025-05-22', 'matched': True}, {'url': 'https://carnegieendowment.org/research/2023/05/securing-digital-finance-in-post-conflict-central-african-republic?lang=en', 'title': 'Securing Digital Finance in Post-Conflict Central African Republic', 'snippet': 'A CEMAC directive requires member states to develop cybersecurity and cyber crime policies, including measures and laws aimed at protecting ...', 'date': '2023-05-22', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/cybersecurity-cybercrime-africa-continental-regional-policies/', 'title': 'Regional cybersecurity and cybercrime policies in Africa', 'snippet': 'Several RECs have developed strategies, policies, or model laws on cybersecurity, critical infrastructure protection, and cybercrime.', 'date': '2024-04-12', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://upload.wikimedia.org/wikipedia/commons/8/82/The_challenge_of_cyber_power_for_central_African_countries-_risks_and_opportunities_(IA_thechallengeofcy1094527878).pdf', 'title': '[PDF] The challenge of cyber power for central African countries', 'snippet': "... cybersecurity is becoming a major concern of so many of the world's countries, some in Central. Africa seem not to be concerned. In the ...", 'date': '2012-12-31', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/cybersecurity-cybercrime-cop-in-africa-national-approaches/', 'title': 'National cybersecurity and cybercrime policies in Africa', 'snippet': 'African overnments are putting in place cybersecurity strategies and cybercrime laws focused on issues such as building individual and institutional ...', 'date': '2024-04-12', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Central_African_Rep.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE CENTRAL AFRICAN REPUBLIC - ITU', 'snippet': 'There is no agency responsible for cybersecurity in Central African Republic. 1.3.4 NATIONAL BENCHMARKING. Central African Republic does not ...', 'date': '2015-03-12', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://en.ccis-rca.org/SecurityIndustry', 'title': 'Information Security Industry - CCIS_eng', 'snippet': 'Its primary role is to facilitate intergovernmental cooperation and promote talent and operations in information security in emerging and global markets. These ...', 'date': None, 'last_updated': '2025-05-22', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=central-african-republic-the', 'title': 'Central African Republic (the) - Cybil Portal', 'snippet': "Study and analyse the country's current cybersecurity status and needs. Information will be gathered by the ITU Global Cybersecurity Index, as ...", 'date': None, 'last_updated': '2025-07-28', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/q7n5qj6cz5m?page=1&amp;file=1676835543881vbgqbwqupk.pdf', 'title': 'U.S., DRC Host Central African Cybersecurity and Cybercrime ...', 'snippet': 'U.S., DRC Host Central African Cybersecurity and Cybercrime Workshop in Kinshasa ; State. Democratic Republic of Congo · United States of America ...', 'date': '2023-02-16', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.micitt.go.cr/sites/default/files/2023-11/NCS%20Costa%20Rica%20-%2010Nov2023%20ENG.pdf', 'title': '[PDF] National Cybersecurity Strategy - MICITT', 'snippet': 'The National Cybersecurity Strategy 2023-2027 will focus on guiding principles, pillars, work objectives and lines of action; that will guide our actions ...', 'date': None, 'last_updated': '2024-06-02', 'matched': True}, {'url': 'https://www.adp.edu.pe/uploads/seccion/26-07-23-1260737462.pdf', 'title': '[PDF] Opportunity for cooperation as a digital government partner on the ...', 'snippet': "Based on Korea's advanced digital government system and Peru's commitment to government innovation and digital transformation, cooperation has been strengthened ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.itic.org/dotAsset/c29fddaa-78d1-44b6-a07a-41a580824a0b.pdf', 'title': '[PDF] digital strategies countries - Information Technology Industry Council', 'snippet': 'The Digital Government Secretariat of the Presidency of the Council of Ministers leads the processes of technological innovation and digital transformation of.', 'date': None, 'last_updated': '2024-02-07', 'matched': True}, {'url': 'https://www.oecd.org/content/dam/oecd/en/publications/reports/2019/06/digital-government-in-peru_2cf04c8f/0c1eb85b-en.pdf', 'title': '[PDF] Digital Government in Peru (EN) - OECD', 'snippet': 'The speed, breadth and scope of digital disruption is challenging governments to adapt, manage and embrace a new wave of transformation.', 'date': None, 'last_updated': '2025-01-16', 'matched': True}, {'url': 'https://www.summit-americas.org/sisca/sci.html', 'title': 'Technology - SISCA', 'snippet': 'Promote technical assistance, programs, projects, and transfer of capacity and experiences in preventing cybercrime in information and communication ...', 'date': '2022-01-01', 'last_updated': '2024-12-16', 'matched': True}, {'url': 'https://ceeep.mil.pe/2025/05/22/inteligencia-artificial-y-ciberdefensa/?lang=en', 'title': 'Artificial Intelligence and Cyber Defense', 'snippet': 'This article explores the impact and potential of AI in cyber defense, highlighting its crucial role in protecting digital assets and strengthening military ...', 'date': '2025-05-22', 'last_updated': '2025-05-22', 'matched': True}, {'url': 'https://eucyberdirect.eu/atlas/country/costa-rica/compare/japan/peru', 'title': 'Compare Costa Rica, Japan and Peru - EU Cyber Direct', 'snippet': 'The initiative seeks to promote the use of digital technologies and access to scientific knowledge, innovation, technology, and telecommunications for social ...', 'date': None, 'last_updated': '2025-09-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science, Technology and Innovation (MESCTI) in ANGOLA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science, Research and Innovation in THAILAND responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4008,17 +4018,17 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, Technology and Innovation (MESCTI) in ANGOLA</t>
+          <t>Ministry of Higher Education, Science, Research and Innovation in THAILAND</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, Technology and Innovation (MESCTI)</t>
+          <t>Ministry of Higher Education, Science, Research and Innovation</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4028,8 +4038,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Based on the available information, the Ministry of Higher Education, Science, Technology and Innovation (MESCTI) is not explicitly mentioned as the lead or primary body responsible for national cybersecurity policy, implementation, or technical coordination in Angola. The main responsibility for cybersecurity governance appears to rest with the Ministry of Telecommunications, Information Technologies and Social Communication (MINTTICS), which is spearheading the development and public consultation of key cybersecurity laws and strategies, including the National Cybersecurity Strategy and the draft law against false information on the internet [3][5].
-MESCTI’s role is more focused on higher education, science, and technology, which may include supporting cybersecurity education and research initiatives, but there is no evidence that MESCTI hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity council, or oversees information security standards or network protection at the national level. While MESCTI may contribute to cybersecurity capacity building through academic programs and research, the primary responsibility for cybersecurity governance, prevention, planning, and response lies with MINTTICS and other relevant ministries and agencies [3][5].</t>
+          <t>The Ministry of Higher Education, Science, Research and Innovation in Thailand primarily focuses on academic, scientific, and research development and does not appear explicitly in national cybersecurity laws or strategies as a key coordinating or regulatory body for cybersecurity. Key cybersecurity governance roles—such as policy development, incident response, regulation, and coordination—are largely assigned to the Ministry of Digital Economy and Society, the National Cyber Security Agency (NCSA), and the National Cyber Security Committee (NCSC). The Ministry of Digital Economy and Society chairs the Cyber Security Regulatory Committee and leads major initiatives, including training cyber personnel and managing ThaiCERT, the national computer emergency response team. Although the Ministry of Higher Education, Science, Research and Innovation may contribute indirectly via research or education, it is not designated as a cybersecurity policy or operational authority per the Cybersecurity Act B.E. 2562 (2019) or related frameworks and public reports on Thailand's cybersecurity governance[1][2][4][5].</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4039,14 +4048,14 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.aman-alliance.org/Home/ContentDetail/96459', 'title': 'Angola: National cybersecurity centre, advisory council to be set up', 'snippet': 'Luanda, Oct. 27, 2025 (Lusa) - Angola will move forward with the creation of a National Cybersecurity Centre and a National Cybersecurity ...', 'date': '2025-10-28', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.lawgratis.com/blog-detail/cyber-law-at-angola', 'title': 'Cyber Law at Angola - Law Gratis', 'snippet': 'National Cybersecurity Strategy: The government is developing a comprehensive strategy to protect critical systems and infrastructure ...', 'date': '2025-05-20', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://360mozambique.com/world/angola/angola-launches-public-consultation-on-fake-news-and-cybersecurity-laws/', 'title': 'Angola Launches Public Consultation on Fake News and ...', 'snippet': 'The public consultation, which began in March 2025, will remain open until 30 April 2025, with citizens invited to provide feedback via ...', 'date': '2025-04-24', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ao/', 'title': 'NCSI :: Angola - National Cyber Security Index', 'snippet': '0 20 40 60 80 100 2023 2024 2025 ... There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy ...', 'date': '2023-11-29', 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://globalvalidity.com/angola-national-strategy-expands-internet-access-and-digital-inclusion/', 'title': 'Angola: National Strategy Expands Internet Access - Global Validity', 'snippet': "Angola's strategy includes expanding 3G, 4G, and 5G access, fiber optic cables, and a government cloud, aiming for 93% 3G, 32% 4G, and 21% 5G ...", 'date': '2025-05-02', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://angola.org/cyber-security/', 'title': 'Cyber security - The Embassy of Angola', 'snippet': 'Combating financial hardships is one of the priority needs to discourage cyber space threats. The need for investment in this sector is one of the priorities ...', 'date': '2019-04-01', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://www.interpol.int/content/download/23094/file/INTERPOL_Africa_Cyberthreat_Assessment_Report_2025.pdf', 'title': '[PDF] INTERPOL AFRICA CYBERTHREAT ASSESSMENT REPORT 2025', 'snippet': 'The goal of this report is to support law enforcement, policymakers, and cybersecurity stakeholders in identifying emerging threats, addressing capability gaps, ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://cioafrica.co/angola-most-attacked-country-in-september-2025/', 'title': 'Angola Most Attacked Country In September 2025 | CIO Africa', 'snippet': '“The only sustainable defence is a prevention-first strategy powered by real-time AI, ensuring protection across the network, cloud, endpoints, ...', 'date': '2025-10-09', 'last_updated': None, 'matched': True}, {'url': 'https://www.darkreading.com/cybersecurity-analytics/angola-marks-technology-advancements-with-cybersecurity-academy-plans', 'title': 'Angola Marks Technology Advancements With Cybersecurity ...', 'snippet': "Angola President João Lourenço announced plans to open a cybersecurity academy to better secure the nation's telecommunications and IT networks.", 'date': '2023-10-19', 'last_updated': '2025-07-24', 'matched': True}, {'url': 'https://www.asperiq.com/cyberstrategy', 'title': 'On National Cybersecurity Strategy - WHITE PAPER - Asperiq', 'snippet': 'Given the critical importance of cybersecurity it is thus imperative for governments to properly set out their national cybersecurity strategy. ... Angola ...', 'date': '2025-02-11', 'last_updated': '2025-10-31', 'matched': True}]</t>
+          <t>[{'url': 'https://asialawportal.com/cybersecurity-law-in-thailand/', 'title': 'Cybersecurity Law: Thailand - AsiaLawPortal', 'snippet': "Cybersecurity Law in Thailand aims to protect the country's critical infrastructure and citizens from cyber threats, with regulations.", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://cc.kmutt.ac.th/Files/Act%20Eng/cybersecrutiy-act-2019-en.pdf', 'title': '[PDF] Cybersecurity Act B.E. 2562 (2019) - Computer Center', 'snippet': '(8) assign the supervision and regulation, including the issuing of regulations, objectives, duties and power, and the operational framework ...', 'date': '2019-05-27', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.iqpc.com/media/9312/22253.pdf', 'title': '[PDF] Enhancing Cyber Security for Government in Thailand - IQPC', 'snippet': '• Publication and Repository Responsibilities ( Security. Control, Trade Secret, Access Control). • Identification and Authentication. • Certificate Life-Cycle ...', 'date': None, 'last_updated': '2025-02-06', 'matched': True}, {'url': 'https://www.nationthailand.com/business/tech/40049600', 'title': 'Thailand Boosts Cyber Defences with 100,000-Strong Security ...', 'snippet': 'Thailand is significantly bolstering its cybersecurity capabilities with the successful completion of the second phase of a national training programme.', 'date': '2025-05-05', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://archive.opengovasia.com/2024/10/19/building-a-safer-digital-future-thailands-cybersecurity-initiatives/', 'title': "Building a Safer Digital Future: Thailand's Cybersecurity Initiatives", 'snippet': 'These initiatives underscore the importance of enhancing cybersecurity and addressing technology-related crimes in Thailand.', 'date': '2024-10-19', 'last_updated': '2025-07-25', 'matched': True}, {'url': 'https://techforgoodinstitute.org/blog/country-spotlights/thailands-cyber-resilience-journey-understanding-obstacles-and-uncovering-remedies/', 'title': "Thailand's Cyber Resilience Journey: Understanding Obstacles and ...", 'snippet': 'Developing an efficient and adaptable cybersecurity strategy is of utmost importance for Thailand. The strategy should align with global norms, facilitate the ...', 'date': '2025-07-29', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://www.factsasia.org/blog/cybersecurity-in-thailand-balancing-progress-geopolitical-influences-and-the-need-for-enhanced-readiness', 'title': 'Cybersecurity in Thailand: Balancing Progress, Geopolitical ...', 'snippet': "Thailand's cybersecurity framework is built upon a comprehensive set of regulations aimed at safeguarding critical infrastructure, data protection, and ...", 'date': '2025-03-26', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Office of the Prime Minister, Industry and Innovation Unit in GUYANA responsible for cybersecurity?
+          <t xml:space="preserve">Is the National Council for Science and Technology (NCST) in RWANDA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4054,27 +4063,27 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Office of the Prime Minister, Industry and Innovation Unit in GUYANA</t>
+          <t>National Council for Science and Technology (NCST) in RWANDA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Office of the Prime Minister, Industry and Innovation Unit</t>
+          <t>National Council for Science and Technology (NCST)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>The Industry and Innovation Unit (IIU) within the Office of the Prime Minister in Guyana primarily focuses on fostering an ICT-driven private sector and economic growth through innovation challenges, ICT literacy training programs, and digital skills development initiatives. They conduct events such as the Innovation Challenge to promote technology solutions and have initiatives targeting digital transformation and STEM education. However, the unit does not appear explicitly responsible for national cybersecurity policy, hosting a national CERT/CSIRT, overseeing information security standards, or leading cybersecurity governance or enforcement. There is mention of work related to Data Protection Legislation and a National ICT Strategic Plan, but no clear indication that the IIU leads or directly manages cybersecurity operations or governmental cybersecurity strategy. Thus, its role in cybersecurity is indirect and supportive rather than governing or operational in cybersecurity matters[1][2][3][4][6].</t>
+          <t>Based on the available documentation, including the National Cybersecurity Strategy 2024-2029, the Law establishing the National Cyber Security Authority, the National Cyber Security Policy, and other relevant reports, there is no mention of the National Council for Science and Technology (NCST) being responsible for cybersecurity policy, implementation, technical coordination, or any related functions. The primary responsibility for cybersecurity in Rwanda is assigned to the National Cyber Security Authority (NCSA), which is explicitly tasked with advising the President, developing strategies, monitoring ICT security programs, preventing cyber-attacks, and fostering national cybersecurity education and awareness [2][3][4][5]. The Ministry of Information and Communications Technology (MINICT) is also referenced as the agency in charge of cybersecurity policy and governance [3]. There is no evidence that NCST hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or participates in cybersecurity events or international initiatives related to cybersecurity [1][2][3][4][5][6][7][8][9].</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4084,14 +4093,14 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[{'url': 'https://innovation.gov.gy', 'title': 'Industry and Innovation Unit of the Office of the Prime Minister', 'snippet': 'The Industry and Innovations Unit is mandated to create an enabling environment that will support an ICT driven private sector, drive economic growth.', 'date': '2025-06-01', 'last_updated': '2025-06-09', 'matched': True}, {'url': 'https://guyanatimesgy.com/2025-innovation-challenge-a-testament-to-the-talents-determination-of-guyanese-youth-pm/', 'title': '2025 Innovation Challenge “a testament to the talents, determination ...', 'snippet': 'The fifth edition of the Innovation Challenge, hosted by the Industry and Innovation Unit (IIU) of the Office of the PM attracted young innovators from Regions ...', 'date': '2025-07-07', 'last_updated': '2025-07-07', 'matched': True}, {'url': 'https://caricom.org/wp-content/uploads/GUYANA-OPM-Girls-in-ICTs-Programme-2023-1.pdf', 'title': '[PDF] OFFICE OF THE PRIME MINISTER - Caricom', 'snippet': 'Industry and Innovation Unit. Girls in ICT Programme 2023. The capacity ... Guyana o Objectives: ▫ Build capacity among youths, particularly girls ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'http://guyanaembassybeijing.cn/gyn/js/pdf/ICT_brochure_.pdf', 'title': '[PDF] guyana office for investment', 'snippet': 'The Industry and Innovation Unit is currently doing a Data Protection. Legislation to be completed in 2022/2023. A National ICT Strategic Plan 2030.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://guyanachronicle.com/2024/09/02/innovation-challenge-2024-served-as-unique-platform-for-local-talent/', 'title': 'Innovation Challenge 2024 served as unique platform for local talent', 'snippet': 'The participating youths had the opportunity to showcase their technological skills on a unique platform for local talent.', 'date': '2024-09-02', 'last_updated': None, 'matched': True}, {'url': 'https://dpi.gov.gy/tag/industry-and-innovations-unit/', 'title': 'Industry and Innovations Unit – DPI Guyana', 'snippet': 'Over 1,600 persons trained in ICT in 2023 · - December 23, 2023. Over 1,600 persons have been instructed in various facets of information and communications ...', 'date': None, 'last_updated': '2025-03-28', 'matched': True}]</t>
+          <t>[{'url': 'https://cyber.gov.rw/index.php?t=f&amp;f=427&amp;token=6375c4cab9b091a9747cd9f07f8dc616ba825245', 'title': '[PDF] National Cybersecurity Strategy of the Republic of Rwanda 2024-2029', 'snippet': 'We will enhance the national legal, regulatory, and governance framework that governs cybersecurity in. Rwanda and adapt it accordingly as the cyber threat ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://bwcimplementation.org/sites/default/files/resource/Law%20establishing%20the%20National%20Cyber%20Security%20Authority%20and%20Determining%20its%20Mission%20Organisation%20and%20Functioning.pdf', 'title': '[PDF] Law establishing the National Cyber Security Authority and ...', 'snippet': "1° to advise the President of the Republic and other public and private institutions on strategies to defend Rwanda's interests in cyberspace; ...", 'date': None, 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://www.minict.gov.rw/fileadmin/user_upload/minict_user_upload/Documents/Policies/National_Cyber_Security_Policy_Rwanda.pdf', 'title': '[PDF] National Cyber Security Policy - MINICT', 'snippet': 'The government of Rwanda has embarked on developing a cyber security policy and strategy as response to the growing cyber threat and improving cyber ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://xdemia.com/newsroom/why-rwanda-is-ahead-of-the-rest-in-cybersecurity-in-africa/', 'title': 'Why Rwanda Is Ahead of the Rest in Cybersecurity in Africa - Xdemia', 'snippet': 'In addition, in 2016, Rwanda passed an information and communications law that contains provisions on cybercrime and computer misuse. The law ...', 'date': '2025-03-24', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/cybersecurity-cybercrime-cop-in-africa-national-approaches/', 'title': 'National cybersecurity and cybercrime policies in Africa', 'snippet': 'The National Cybersecurity Strategic Plan of Rwanda defines the establishment of a National Cyber Security Agency which will, among other things, promote ...', 'date': '2024-04-12', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://rwandalii.org/akn/rw/act/reg/2018/2/eng@2018-05-02/source', 'title': '[PDF] Regulation on Cyber Security - RwandaLII', 'snippet': 'a) cybersecurity strategy linked with business objectives; b) governing security program that addresses each aspect of the strategy, controls ...', 'date': None, 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://cyber.gov.rw/documentation/', 'title': 'National Cyber Security Authority | Cyber Documentation', 'snippet': 'Law Nº 058 ... National Cybersecurity Strategy 2024-2029, This document outlines the cybersecurity strategy that Rwanda intends to implement in 2024-2029.', 'date': '2025-01-01', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/rw/', 'title': 'NCSI :: Rwanda - National Cyber Security Index', 'snippet': 'The central government has established a national-level cybersecurity strategy defining strategic cybersecurity objectives and measures to improve ...', 'date': '2023-11-29', 'last_updated': '2025-08-12', 'matched': True}, {'url': 'https://www.lawgratis.com/blog-detail/cyber-law-at-rwanda-1', 'title': 'Cyber Law at Rwanda - Law Gratis', 'snippet': "Rwanda's National Cyber Security Policy (2011) and the National Cyber Security Strategy (2013) outline the country's approach to safeguarding ...", 'date': None, 'last_updated': '2025-04-23', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Research and Technology (MSRT) in IRAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Innovation and Technology (MInT) in ETHIOPIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4099,27 +4108,27 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ministry of Science, Research and Technology (MSRT) in IRAN</t>
+          <t>Ministry of Innovation and Technology (MInT) in ETHIOPIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ministry of Science, Research and Technology (MSRT)</t>
+          <t>Ministry of Innovation and Technology (MInT)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Research and Technology (MSRT) in Iran primarily focuses on higher education, scientific research, and the development of national science and technology policies [8][9]. There is no direct mention of MSRT having responsibility for cybersecurity governance, enforcement, or policy implementation in authoritative sources. Instead, cybersecurity duties in Iran are mainly handled by organizations such as the Information Technology Organization of Iran, which hosts the national CERT (Maher Center), and the Ministry of Information and Communications Technology, alongside the Supreme Cyber Space Council and the National Cyber Center [1][2]. These bodies are explicitly involved in cybersecurity strategy, incident response, technical coordination, and regulation. MSRT may indirectly influence technological aspects or AI research, but it is not a central agency for national cybersecurity efforts [4][7]. Thus, MSRT’s role in cybersecurity is minimal or indirect, not involving operational or policy leadership in this domain.</t>
+          <t>The Ministry of Innovation and Technology (MInT) in Ethiopia is explicitly responsible for cybersecurity policy, standards, and coordination. MInT's powers and duties include initiating policies and strategies for technology and innovation, preparing and implementing national innovation and technology research and development policies, setting standards for the quality, reliability, and security of ICT services, monitoring their implementation, supporting the development and coordination of information systems, and providing support for the deployment of secured information networks within federal and regional government institutions[2]. MInT is also a key stakeholder in the formulation and consultation of the national cyber security policy, as evidenced by its participation in the consultative forum convened by INSA on the draft National Cyber-Security Policy[1]. Furthermore, MInT identified the necessity for a comprehensive data protection framework, which led to the enactment of the Personal Data Protection Proclamation No. 1321/2024, a significant cybersecurity-related law[4]. These roles and responsibilities clearly establish MInT as a central entity in Ethiopia's cybersecurity governance, prevention, planning, and response.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4129,14 +4138,14 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[{'url': 'https://en.ito.gov.ir/news/13/cybersecurity', 'title': 'Cybersecurity | Information Technology Organization Of Iran', 'snippet': 'The Cyber Security Deputy of the Information Technology Organization of Iran supervises companies that hold certification for security services and products. It ...', 'date': None, 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.inss.org.il/wp-content/uploads/2024/02/Part-2.pdf', 'title': "[PDF] Iran's Cyber Strategy, Institutions, and Capabilities - INSS", 'snippet': "Part 2: Iran's Cyber Strategy, Institutions, and Capabilities and scientific and research organizations to gain access to foreign scientific resources.31. As ...", 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.washingtoninstitute.org/policy-analysis/navigating-cybersecurity-and-surveillance-irans-dual-strategy-national-security', 'title': "Navigating Cybersecurity and Surveillance: Iran's Dual Strategy for ...", 'snippet': "Iran's approach towards cybersecurity and artificial intelligence reflects complex dynamics at the intersection of national security strategy, domestic control ...", 'date': '2024-03-29', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.recordedfuture.com/research/irans-ai-ambitions-balancing-economic-isolation-national-security-imperatives', 'title': "Iran's AI Ambitions: National Security, Global Influence, and ...", 'snippet': "Explore how Iran is leveraging AI for cyberwarfare, influence ops, military tech, and domestic surveillance. A deep dive into Tehran's ...", 'date': '2025-04-17', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.lawfaremedia.org/article/artificial-intelligence-is-accelerating-iranian-cyber-operations', 'title': 'Artificial Intelligence Is Accelerating Iranian Cyber Operations', 'snippet': 'Iran uses cyber operations to complement its broader geopolitical strategies, often employing cyber espionage and sabotage to gain strategic ...', 'date': '2024-10-09', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.trellix.com/blogs/research/the-iranian-cyber-capability/', 'title': 'The Iranian Cyber Capability - Trellix', 'snippet': "This report aims to offer a detailed analysis of Iran's cyber threat actors, their tactics, techniques, and procedures (TTPs), and some of their most recent ...", 'date': '2024-09-19', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://secure-analytics.org/wp-content/uploads/2025/09/NSF_ADVISORY_02_Irans-ST-Ecosystem_web-250930.pdf', 'title': "[PDF] Iran's S&amp;T Ecosystem: A Primer for Research Security Professionals", 'snippet': 'Chairs the SCSRT, which sets national S&amp;T policy, identifies research and higher education priorities, manages international cooperation, and ...', 'date': '2025-09-02', 'last_updated': None, 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-science-research-and-technology', 'title': 'Ministry of Science, Research and Technology (MSRT)', 'snippet': 'MSRT is a public body of executive power, which carries out functions on elaborating state policy and normative-lawful regulation in the sphere of higher ...', 'date': None, 'last_updated': '2025-09-05', 'matched': True}, {'url': 'http://en.cpdi.ir/uploads/1/2021/Nov/22/Science%20and%20Technology%20in%20Iran-A%20brief%20review%202019.pdf', 'title': '[PDF] SCIENCE AND TECHNOLOGY IN IRAN: A BRIEF REVIEW', 'snippet': 'The Ministry of Science, Research and Technology (MSRT) is the main state ministry involved in higher education, science, research and ...', 'date': '2021-11-22', 'last_updated': '2024-03-07', 'matched': True}]</t>
+          <t>[{'url': 'https://www.fanamc.com/english/insa-convenes-consultation-on-draft-of-national-cyber-security-policy/', 'title': 'INSA convenes consultation on draft of national cyber security policy', 'snippet': "It is indicated that INSA is engaged in protecting the country's cyber-security as its priority mission. 470. Share FacebookTwitter.", 'date': '2023-10-02', 'last_updated': '2025-04-16', 'matched': True}, {'url': 'http://www.mint.gov.et/power-duties', 'title': 'Power &amp; duties - MINT - Ministry of Innovation and Technology', 'snippet': 'The Ministry of Innovation and Technology shall have the following powers and duties: a) initiate policies, strategies, laws and programs that sustainably ...', 'date': '2024-01-01', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://digikogu.taltech.ee/en/Download/06ef8980-905c-4c08-94d1-7918a42e80a0', 'title': '[PDF] DEVELOPING NATIONAL CYBERSECURITY STRATEGY FOR ...', 'snippet': 'The agency-specific duties include promoting the growth of ICT services, regulating telecommunication, monitor government domain names and ...', 'date': '2019-05-13', 'last_updated': '2025-03-29', 'matched': True}, {'url': 'https://cipit.org/ethiopias-personal-data-protection-proclamation-of-2024-and-its-budding-digital-identity-regime/', 'title': "Ethiopia's Personal Data Protection Proclamation of 2024 and its ...", 'snippet': 'The PDPP 2024 establishes data subject rights, obligations for processors, and a framework for data protection, including data access, erasure, ...', 'date': '2024-11-12', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://press.et/herald/?p=61802', 'title': "Cyber-security top Nat'l priority for Ethiopia – Ethiopian Press Agency", 'snippet': "Minimizing institutions' cyber-attack vulnerability, enhancing the role of private sector in the area and creating an environment where ...", 'date': '2022-10-12', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research, and Information and Communication Technologies in MAURITANIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Innovation in CABO VERDE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4144,17 +4153,17 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research, and Information and Communication Technologies in MAURITANIA</t>
+          <t>Ministry of Higher Education, Science and Innovation in CABO VERDE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research, and Information and Communication Technologies</t>
+          <t>Ministry of Higher Education, Science and Innovation</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4164,9 +4173,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Scientific Research, and Information and Communication Technologies in Mauritania is not explicitly mentioned as the lead or primary body responsible for national cybersecurity policy, implementation, or technical coordination in the available national strategies, laws, or reports. The main responsibility for cybersecurity governance is assigned to a newly established Ministerial Department dedicated to digital transition, innovation, and administrative modernisation, which oversees the implementation of the National Digital Security Strategy (2022-2025) and the creation of the National Cybersecurity Agency and national CSIRT[1].
-While the Ministry of Higher Education, Scientific Research, and Information and Communication Technologies is involved in the development of higher education and scientific research, including ICTs, and may contribute to building digital skills and awareness, these activities are part of broader national efforts and are not exclusive to this ministry[3]. The ministry's role is more focused on education and research rather than direct cybersecurity policy, enforcement, or technical coordination. There is no evidence that this ministry hosts a national CERT/CSIRT/CIRT, leads a cybersecurity committee, or is the primary entity for information security standards or network protection[1][3].
-Therefore, the ministry's responsibility for cybersecurity is indirect and supportive, primarily through education and research, rather than direct governance or operational responsibility.</t>
+          <t>The available information on Cabo Verde's cybersecurity governance highlights key roles for other government bodies rather than the Ministry of Higher Education, Science and Innovation. The Ministry of State Modernization and Public Administration, along with the Secretary of State for the Digital Economy, are specifically mentioned as leading digital transformation and cybersecurity efforts, including launching a national Security Operations Center (SOC) and Computer Security Incident Response Team (CSIRT)[1]. Additionally, the national cybersecurity strategy and related initiatives such as the National Council for Cybersecurity appear to be coordinated outside the Ministry of Higher Education, Science and Innovation[2][3]. The role of this Ministry in cybersecurity is not explicitly documented in national strategies, reports, or implementation activities. However, it may play a limited or indirect role, such as through collaboration with universities or R&amp;D efforts referenced in the Digital Economy Strategy but without clear responsibility for cybersecurity policy, implementation, or incident response[2]. Hence, the Ministry has a low level of responsibility in Cabo Verde's cybersecurity governance compared to other specialized ministries and agencies.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4176,14 +4183,14 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/mauritanian-cybersecurity-strategy', 'title': 'Mauritanian Cybersecurity Strategy - Digital Watch Observatory', 'snippet': 'The National Digital Security Strategy (2022-2025) is an ambitious plan set forth by the Mauritanian government to safeguard its digital transformation efforts.', 'date': '2024-06-24', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.lamoncloa.gob.es/lang/en/gobierno/news/paginas/2025/20250716-spain-mauritania-collaboration-cybersecur.aspx', 'title': 'The Governments of Spain and Mauritania reinforce collaboration ...', 'snippet': 'This project also aims to boost research, talent and industry in cybersecurity, as well as child online protection. Planned activities include ...', 'date': '2025-07-16', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://tahseen.ae/tech-policy/mauritania/', 'title': 'Mauritania - Tahseen Consulting', 'snippet': 'National Cybercrime Strategy 2019-2022. Develops plan to equip the public and private sector stakeholders with the means to protect themselves against ...', 'date': '2020-06-04', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.etsi.org/deliver/etsi_tr/103300_103399/103306/01.03.01_60/tr_103306v010301p.pdf', 'title': '[PDF] TR 103 306 - V1.3.1 - CYBER - ETSI', 'snippet': 'The present document is a basic reference document for undertaking the responsibilities, areas of activity, organization and working methods enumerated in the ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://paradigmhq.org/wp-content/uploads/2024/06/Mauritania-Country-Report.pdf', 'title': '[PDF] Mauritania | Paradigm Initiative', 'snippet': 'This report assesses the situation of digital rights in Mauritania during the year. 2023. To this end, the report addressed internet access and disruptions, ...', 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://mtnima.gov.mr/wp-content/uploads/2024/07/strategie-EN-Final-26-07-2024-.pdf', 'title': '[PDF] strategie EN Final 21 07 2024', 'snippet': "The national artificial intelligence strategy of Mauritania represents a crucial step in the country's digital transformation and economic.", 'date': '2024-07-26', 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://allafrica.com/stories/201411210879.html', 'title': 'Mauritania to Boost Cyber-Security - allAfrica.com', 'snippet': 'Bolstering information and network security as well as protecting private data are essential prerequisites for developing the information ...', 'date': '2014-11-20', 'last_updated': '2024-12-16', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Mauritania.pdf', 'title': '[PDF] Mauritania | GHS Index', 'snippet': "The Ministry of Environment and Sustainable. Development (Ministère de l'Environnement et du Développement Durable) does not conduct detection or surveillance.", 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://au.int/pt/node/37944', 'title': 'The 2019 North African School on Internet Governance (NASIG ...', 'snippet': 'The School saw 35 participants from 7 North African countries (Algeria, Egypt, Libya, Mauritania, Morocco, Tunisia and Sudan) engaged in ...', 'date': '2019-12-27', 'last_updated': '2025-08-29', 'matched': True}]</t>
+          <t>[{'url': 'https://www.ecofinagency.com/news-digital/3110-50013-cape-verde-steps-up-cybersecurity-efforts-with-national-soc-incident-response-team', 'title': 'Cape Verde Steps Up Cybersecurity Efforts with National SOC ...', 'snippet': 'Cape Verde launches national cybersecurity center and incident response team SOC and CSIRT aim to secure digital services and boost cyber.', 'date': '2025-10-31', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://med.gov.cv/documents/40469/73467/Executive+Summary-EEDCV.pdf/1588ef2c-160d-59b8-e36e-ca4ee4652ffc?t=1728390932982&amp;download=true', 'title': '[PDF] Digital Economy Strategy of Cabo Verde (EEDCV)', 'snippet': '[SR 1] Update and implement the national cybersecurity plan. • [SR 2] Ensure digital resilience. • [SR 3] Strengthen data protection in Cabo Verde. • [SR 4] ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/sites/default/files/gcscc/documents/media/cmm_cape_verde_2019_final.pdf', 'title': '[PDF] CYBERSECURITY CAPACITY REVIEW', 'snippet': 'The national cybersecurity strategy for Cape Verde, Estrategia Nacional para a Ciberseguranca2, was formally approved and published in March 2016. The strategy ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-cape-verde/', 'title': 'Cyber Security in Cape Verde - Blog | Gavin Dennis - Certified and ...', 'snippet': 'The government of Cape Verde recognises the importance of cyber security and is working on plans and strategies to improve it. This includes ...', 'date': '2024-10-04', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ugpe.gov.cv/en/noticia/cabo-verde-reforca-confianca-digital-com-selo-webtrust-atribuido-a-arme', 'title': 'Cape Verde strengthens digital trust with WebTrust Seal awarded to ...', 'snippet': 'The recognition validates the root digital certificate of the national infrastructure and allows it to be included in global repositories and browsers, boosting ...', 'date': '2023-05-26', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cyrilla.org/api/files/15986325261173kck0yb2ht6.pdf', 'title': '[PDF] Brief Overview of Cape Verde Digital Strategy - CYRILLA', 'snippet': 'Cape Verde aims to provoke changes in this generation in learning "basic skills" in the field of digital tools with a view to its use in economic and social ...', 'date': None, 'last_updated': '2025-07-20', 'matched': True}, {'url': 'https://www.macaubusiness.com/cabo-verde-government-wants-eu-help-to-create-national-cybersecurity-centre/', 'title': 'Cabo Verde: Govt wants EU help to create national cybersecurity ...', 'snippet': "... Cabo Verde's digital strategy, regional integration in cybersecurity matters and response to cybersecurity incidents will be under discussion.", 'date': '2023-01-31', 'last_updated': None, 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=cabo-verde', 'title': 'Cabo Verde - Cybil Portal', 'snippet': "The Partnership for Strengthening Cybersecurity project reinforces selected bilateral and regional partners' capabilities to prevent, ...", 'date': None, 'last_updated': '2025-09-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Office of Science and Technology Policy in UNITED STATES responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Infrastructure and Education in LIECHTENSTEIN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4191,27 +4198,27 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy in UNITED STATES</t>
+          <t>Ministry of Infrastructure and Education in LIECHTENSTEIN</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy</t>
+          <t>Ministry of Infrastructure and Education</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UNITED STATES</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>The Office of Science and Technology Policy (OSTP) is explicitly responsible for cybersecurity policy and coordination in the United States. OSTP leads interagency science and technology policy coordination efforts, including cybersecurity, and assists the Office of Management and Budget with annual reviews and priority setting for federal research and development budgets, which includes cybersecurity initiatives[3][4]. OSTP has issued memos and guidance mandating stricter cybersecurity requirements for research and development institutions, requiring them to implement cybersecurity programs and certify compliance with federal standards[1][6]. OSTP also chairs the National Science and Technology Council (NSTC), which coordinates cybersecurity research and development strategies across federal agencies, and oversees the development of consensus-based standards and best practices for cybersecurity[4][6]. OSTP's responsibilities are further defined in national strategies and executive orders, and it works closely with other agencies and international partners on cybersecurity matters[3][4][6].</t>
+          <t>Liechtenstein's national cybersecurity governance and implementation responsibilities are primarily assigned to the National Cyber Security Unit (NCSU), which coordinates the national strategy, and the Computer Security Incident Response Team (CSIRT.LI), which acts as the national incident response coordinator[1][3][5][6]. These bodies handle policy implementation, incident response coordination, and cyber crisis management. The Ministry of Infrastructure and Education is not explicitly named in national cybersecurity laws, strategies, or implementation frameworks as responsible for cybersecurity policy, technical coordination, or hosting CSIRT functions. Although education and awareness are key components of Liechtenstein’s cybersecurity strategy, these are promoted broadly by the public sector and advisory bodies rather than being directly led by this Ministry[1][4][8]. In addition, a cybersecurity committee is organized outside this Ministry, and the National Cyber Security Unit reports directly to the Prime Minister’s Office, indicating centralized responsibility elsewhere[2][7]. Thus, the Ministry's involvement in cybersecurity is limited and indirect, mainly through education or digital infrastructure aspects, but it does not hold central governance, enforcement, or technical coordination roles.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4221,14 +4228,14 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ibm.com/think/news/white-house-mandates-stricter-cybersecurity-for-research-and-development', 'title': 'White House mandates stricter cybersecurity for R&amp;D institutions - IBM', 'snippet': 'A recent memo from the Office of Science and Technology Policy heralds big changes in cybersecurity policy impacting research and development.', 'date': '2024-07-22', 'last_updated': '2025-04-28', 'matched': True}, {'url': 'https://www.nist.gov/cybersecurity-and-privacy', 'title': 'Cybersecurity and privacy | NIST', 'snippet': 'NIST develops cybersecurity and privacy standards, driven by U.S. industry and public needs, and also manages privacy risks related to cybersecurity.', 'date': '2025-09-15', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.whitehouse.gov/ostp/', 'title': 'Office of Science and Technology Policy - The White House', 'snippet': "The OSTP Director oversees the development and execution of the nation's science and technology policy agenda, leading White House efforts in critical and ...", 'date': '2025-04-08', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://bidenwhitehouse.archives.gov/wp-content/uploads/2024/01/Federal-Cybersecurity-RD-Strategic-Plan-2023.pdf', 'title': '[PDF] FEDERALCYBERSECURITY RESEARCHAND DEVELOPMENT ...', 'snippet': 'OSTP leads interagency science and technology policy coordination efforts, assists the Office of Management and Budget with an annual review and analysis of ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.nist.gov/itl/executive-order-14028-improving-nations-cybersecurity', 'title': "Executive Order 14028, Improving the Nation's Cybersecurity | NIST", 'snippet': 'The EO also assigns NIST to work on two labeling efforts related to consumer Internet of Things (IoT) devices and consumer software with the goal of encouraging ...', 'date': '2022-07-11', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.stonybrook.edu/commcms/ors/Federal_Policies_and_Guidance.php', 'title': 'Federal Policies and Guidance | Office of Research Security', 'snippet': 'The Office of Science and Technology Policy issued guidelines to federal research agencies on research security programs at certain universities and federally- ...', 'date': '2024-07-09', 'last_updated': '2025-06-14', 'matched': True}, {'url': 'https://www.gsa.gov/technology/government-it-initiatives/cybersecurity/cybersecurity-programs-and-policy', 'title': 'Cybersecurity programs and policy - GSA', 'snippet': "We manage many IT security programs, and help agencies implement IT policy that enhances the safety and resiliency of the government's systems and networks.", 'date': '2025-01-23', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://2021-2025.state.gov/united-states-international-cyberspace-and-digital-policy-strategy/', 'title': 'United States International Cyberspace &amp; Digital Policy Strategy', 'snippet': 'We have prioritized building capacity and expertise in cyber, digital, and emerging technology issues as part of our broader efforts to modernize diplomacy.', 'date': '2024-12-30', 'last_updated': '2025-06-16', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/liechtensteins-national-strategy-for-protection-against-cyber-risks-2025', 'title': "Liechtenstein's national strategy for protection against cyber risks 2025", 'snippet': "Liechtenstein's National Strategy for Protection Against Cyber Risks 2025, effective from 1 February 2025, builds upon the previous national strategy.", 'date': '2025-08-14', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://copla.com/blog/compliance-regulations/nis2-directive-regulations-and-implementation-in-liechtenstein/', 'title': 'NIS2 directive regulations and implementation in Liechtenstein - Copla', 'snippet': "Liechtenstein's NIS2 implementation enhances cybersecurity across key sectors. Learn how you can comply with the new Cyber-Security Act and avoid penalties.", 'date': '2025-08-25', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.llv.li/en/national-administration/national-cyber-security-unit', 'title': 'National Cyber Security Unit - Liechtensteinische Landesverwaltung', 'snippet': 'The Cyber Security Unit of the Principality of Liechtenstein is the central point of contact for all matters relating to dealing with cyber risks.', 'date': '2024-01-09', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/LI_NCSS_2025_en.pdf', 'title': '[PDF] LI_NCSS_2025_en.pdf - ENISA', 'snippet': "Liechtenstein's cybersecurity policy is based on personal responsibility, networking, cooperation and efficiency. It relies on fostering ...", 'date': '2020-10-20', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.llv.li/en/national-administration/national-cyber-security-unit/csirt', 'title': 'Constituency of CSIRT.LI', 'snippet': 'The CSIRT.LI acts as the international point of contact (PoC) and functions as the national cyber security incident response coordinator.', 'date': '2025-04-16', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.regierung.li/files/attachments/2025111000-csg-en.pdf', 'title': '[PDF] Cyber Security Law (CSG) of 5 December 2025 - Regierung LI', 'snippet': '14. Responsibilities. The National Cyber Security Unit is deemed to be: a) the national competent authority for cybersecurity pursuant to Art.', 'date': '2025-02-01', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.smartcountry.berlin/en/newsblog/liechtenstein-on-the-way-to-becoming-a-smart-country.html', 'title': 'Liechtenstein on the way to becoming a smart country', 'snippet': 'A cybersecurity conference is organised in Liechtenstein every year. A very similar problem with digitalisation in Liechtenstein is the shortage ...', 'date': '2024-06-06', 'last_updated': '2025-07-16', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/liechtenstein/~technology', 'title': 'Liechtenstein | Technology | Education Profiles', 'snippet': "Liechtenstein has data protection regulations that specifically address schools' use of data, such as the 2020 Leaflet on data protection in ...", 'date': '2023-05-23', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.trustlesscomputing.org/blog/2022/6/7/how-liechtenstein-could-co-lead-in-building-a-global-digital-infrastructure-for-positive-systemic-changenbsp', 'title': 'How Liechtenstein could co-lead in building a global digital ...', 'snippet': 'Liechtenstein could co-lead with a few like-minded nations the creation of a needed digital infrastructure for fair, secure and effective ...', 'date': '2022-06-07', 'last_updated': '2025-09-09', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Research, Innovation and Digitalization in ROMANIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Research in SWEDEN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4236,27 +4243,27 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ministry of Research, Innovation and Digitalization in ROMANIA</t>
+          <t>Ministry of Education and Research in SWEDEN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ministry of Research, Innovation and Digitalization</t>
+          <t>Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>The Ministry of Research, Innovation and Digitalization (MCID) is explicitly responsible for cybersecurity policy, implementation, and technical coordination in Romania. It is the main policy and strategy provider in the information society and communications domain, including cybersecurity [4]. The Ministry oversees the Authority for the Digitisation of Romania (ADR), which is tasked with implementing public strategies and policies in digital transformation and information society, including cybersecurity compliance and monitoring [3][4]. The MCID also hosts and coordinates the National Directorate of Cybersecurity (DNSC), which is the national CERT/CSIRT responsible for preventing, analyzing, identifying, and reacting to cyber incidents, as well as developing and distributing public policies to counteract cyber threats [4]. The Ministry is involved in the implementation of the Romanian Cybersecurity Strategy (2022-2027) and the Action Plan for its implementation, which identifies key objectives for national cybersecurity and resilience [1][8]. The Ministry's role is further confirmed by its executive control over information society and communications, and its responsibility for the implementation of policies and strategies in the information society and communications sector [4][6][9].</t>
+          <t>The Ministry of Education and Research in Sweden is involved in cybersecurity primarily through its role in education. National curricula managed under agencies linked to this ministry include cyber safety and digital competence education for students at compulsory schooling levels, as part of broader digital skills development[3]. However, the ministry is not explicitly mentioned as responsible for national cybersecurity policy, technical coordination, or implementation. These roles are primarily associated with the Ministry of Defense and the Swedish Civil Contingencies Agency (MSB), with key cybersecurity strategies and operational responses led or coordinated by those entities[1][4][6]. The Ministry of Education and Research contributes by fostering knowledge and skills development in cybersecurity in line with national cybersecurity strategies but does not lead or directly manage cybersecurity governance, incident response, or enforcement activities in Sweden. This aligns with a LOW responsibility level, focused on education and competence development rather than overall cybersecurity governance or incident management.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4266,14 +4273,14 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/romanian-cybersecurity-strategy-2022-2027', 'title': 'Romanian cybersecurity strategy (2022-2027)', 'snippet': 'Romania must continue to play an active and relevant role in major international structures and initiatives related to actions in the digital and cybersecurity ...', 'date': '2024-11-28', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.sri.ro/assets/files/legislatie/2024-eng/the_Law_No_58.pdf', 'title': "[PDF] LAW No 58, dated March 14th, 2023 on Romania's cyber security ...", 'snippet': 'ARTICLE 1. (1) This Law sets out the legal and institutional framework regarding the organization and conduct of activities in the field of cyber.', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://ceelegalmatters.com/mpr-partners-maravela-popescu-asociatii/24529-romania-digitizing-during-and-after-the-pandemic', 'title': 'Romania: Digitizing During and After the Pandemic', 'snippet': 'The ADR is subordinated to the Ministry of Research, Innovation, and Digitization, having the role of implementing public strategies and ...', 'date': '2023-10-05', 'last_updated': '2025-05-09', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/collection/iopeu-monitoring/governance-romania', 'title': 'Governance - Romania - Interoperable Europe Portal', 'snippet': 'The Ministry of Research, Innovation and Digitisation (MCID) has executive control over information society and communications. This dedicated Ministry is the ...', 'date': '2025-02-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://edgeinstitute.ro/wp-content/uploads/2025/10/Digital-Governance-Framework-for-Romania-by-Digital-Nation.pdf', 'title': '[PDF] Digital Governance Framework for Romania | Edge Institute', 'snippet': "Romania's digital state is stuck at a standstill: much has been done on paper, in law, and in isolated projects, yet citi-.", 'date': '2025-10-01', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/190206/ministry-of-research-and-innovation-ministerul-cercetarii-si-inovarii', 'title': '️Ministry of Research, Innovation and Digitalization(Ministerul ...', 'snippet': 'The Ministry of Research and Innovation is a specialized body of the central public administration, with the role to implement policies in the areas of ...', 'date': None, 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/romania-digital-transformation-launch-major-procurement-government-private', 'title': 'Launch of Major Procurement for Government Private Cloud Migration', 'snippet': 'Enhanced Security: Dedicated cybersecurity services will help protect sensitive government data from evolving cyber threats. • Improved Citizen ...', 'date': '2025-02-11', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://depp.oecd.org/policies/ROU1594', 'title': 'Policy Detail - The cybersecurity strategy of Romania (2022-2027)', 'snippet': 'The Romanian Cybersecurity Strategy 2022-2027 guarantees the maintenance of openness, freedom, stability and safety of the cyberspace.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.healthydietforhealthylife.eu/romania', 'title': 'Romania | HDHL', 'snippet': 'The Ministry of Research, Innovation, and Digitalization assumes a pivotal role as a synthesizer and coordinator in the realms of scientific research, ...', 'date': '2025-02-21', 'last_updated': '2025-02-23', 'matched': True}, {'url': 'https://www.leadersmag.com/issues/2024.1_Jan/PDFs/LEADERS_Bogdan-Gruia_Ivan_Min_RID.pdf', 'title': '[PDF] A Regional Tech Hub For Emerging Technologies', 'snippet': 'By becoming a regional hub for innovative technologies and cybersecurity, Romania can assist its neighbors in their cyber efforts.', 'date': None, 'last_updated': '2024-06-18', 'matched': True}]</t>
+          <t>[{'url': 'https://www.cybercampus.se/en/articles/nationell-strategi-for-cybersakerhet-en-ny-riktning-for-kompetensutveckling-1.1434646', 'title': 'National Cybersecurity Strategy – a new direction for skills ...', 'snippet': 'Cybercampus Sweden is a Swedish national initiative that conducts agile and cutting-edge research, innovation and education in cybersecurity and ...', 'date': '2025-10-24', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.ri.se/en/news/blog/cybersecurity-is-everyones-responsibility', 'title': "Cybersecurity is everyone's responsibility - RISE", 'snippet': 'Sweden has everything it needs to be a leader in cyber security. We have world-class technical expertise, a strong tradition of cooperation ...', 'date': '2025-10-13', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/se/', 'title': 'NCSI :: Sweden - National Cyber Security Index', 'snippet': 'Cybercampus Sweden is a national initiative that conducts agile and cutting-edge research, innovation and education in cyber security and cyber defence. 4.2 ...', 'date': '2025-09-30', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.government.se/government-policy/sweden-in-a-digital-world/security-policy/', 'title': 'Security policy - Government.se', 'snippet': 'Sweden faces a number of challenges in the area of cyber and digital issues that need to be addressed, integrated into and managed in a security policy context.', 'date': '2024-12-09', 'last_updated': '2024-12-10', 'matched': True}, {'url': 'https://www.government.se/press-releases/2024/12/minister-for-foreign-affairs-launches-governments-strategy-on-cyber-and-digital-issues-in-foreign-and-security-policy/', 'title': "Minister for Foreign Affairs launches Government's strategy on cyber ...", 'snippet': 'This is the first Swedish strategy on cyber and digital issues in foreign and security policy. It encompasses all of foreign policy.', 'date': '2024-12-09', 'last_updated': '2024-12-09', 'matched': True}, {'url': 'https://sectraprodstorage01.blob.core.windows.net/communication-uploads/sites/4/2025/03/sectra-newsletter-march.pdf', 'title': "[PDF] One year with NATO – Sweden's role in cyber defense - NET", 'snippet': 'It focuses on three pillars: systematic cybersecurity efforts, knowledge development, and the ability to handle incidents. Civil Defense Minister Carl-Oskar ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.riksrevisionen.se/download/18.3ad2ec4c19329a0a7e562e9/1731922477455/RiR_2023_20_summary.pdf', 'title': '[PDF] Information security at higher education institutions - Riksrevisionen', 'snippet': 'For example, both heads of department and researchers are unsure what responsibility they have for information security and what this means in ...', 'date': '2023-11-23', 'last_updated': '2025-03-30', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Religious Affairs (through its General Secretariat for Research and Innovation) in GREECE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Scientific Research and Technological Innovation in DEMOCRATIC REPUBLIC OF THE CONGO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4281,27 +4288,27 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ministry of Education and Religious Affairs (through its General Secretariat for Research and Innovation) in GREECE</t>
+          <t>Ministry of Scientific Research and Technological Innovation in DEMOCRATIC REPUBLIC OF THE CONGO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ministry of Education and Religious Affairs (through its General Secretariat for Research and Innovation)</t>
+          <t>Ministry of Scientific Research and Technological Innovation</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Religious Affairs in Greece is primarily responsible for educational system oversight, including processing personal data related to education and developing educational technology infrastructure. Several directorates under the Ministry oversee educational technology and digital systems, and its affiliated research organizations (e.g., the Computer Technology Institute "Diophantus") are involved in ICT research and support digital infrastructure including security audits and policy development in an educational context. However, the Ministry is not explicitly identified as responsible for national cybersecurity governance, policy implementation, or coordination in official national cybersecurity strategy documents. The primary national cybersecurity coordination role lies with the Ministry of Digital Governance, with cross-sector collaboration involving multiple ministries, but the Ministry of Education's role appears focused on education-related cybersecurity aspects such as data protection compliance, safe use of digital education platforms, and promoting safe internet use among students. Evidence from national strategy and policy documents and institutional roles indicates that the Ministry’s responsibility in cybersecurity is limited and specific to educational domain protection, not overall national cybersecurity governance or enforcement.[1][3][4][6][7][8]</t>
+          <t>The available information on the Democratic Republic of the Congo’s cybersecurity governance and legal framework does not indicate that the Ministry of Scientific Research and Technological Innovation holds any explicit responsibility for cybersecurity. The national Digital Code (Ordonnance-Loi No. 23/010 of March 2023) and related digital governance frameworks assign primary policy and regulatory roles related to cybersecurity to the Ministry of Digital Affairs and the Agence nationale de cybersécurité (ANC). Coordination, implementation, and training initiatives in cybersecurity are led or associated mainly with the Ministry of Digital Economy or the Ministry of Digital Affairs and other agencies, but there is no mention of the Ministry of Scientific Research and Technological Innovation in this context. Therefore, it does not meet the criteria of hosting a CERT/CSIRT, leading committees, overseeing standards, or participating in cybersecurity events or international cybersecurity initiatives.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4311,14 +4318,14 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/greece/~technology', 'title': 'Greece | Technology - Education Profiles', 'snippet': 'The Greek educational system is under the central responsibility and supervision of the Ministry of Education and Religious Affairs. There ...', 'date': '2025-01-14', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://better-internet-for-kids.europa.eu/en/knowledge-hub/greece-policy-monitor-country-profile', 'title': 'Greece - Policy monitor country profile - Better Internet for Kids', 'snippet': 'The Better Internet for Kids (BIK) Policy monitor is a tool to compare and exchange knowledge on policy making and implementation in EU Member States, ...', 'date': '2025-05-01', 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://cybersec4europe.eu/associates/cti/', 'title': 'CTI - CyberSec4Europe | Cyber Security for Europe', 'snippet': 'Particular emphasis is placed on education, by developing and deploying conventional and digital media in education and lifelong learning; publishing printed ...', 'date': '2019-07-23', 'last_updated': '2025-03-27', 'matched': True}, {'url': 'https://www.eliamep.gr/en/drafting-greeces-internal-security-strategy-challenges-and-prospects/', 'title': "Drafting Greece's “Internal Security Strategy” - ΕΛΙΑΜΕΠ", 'snippet': 'The Ministry of Digital Governance has the main coordinating role in cyber security, which also falls within the ambit of the Ministry of ...', 'date': '2023-03-30', 'last_updated': '2025-06-09', 'matched': True}, {'url': 'https://www.iarjournals.com/upload/422632.pdf', 'title': '[PDF] Policy and Legislation of the Greek Ministry of Education and ...', 'snippet': 'Education policy is part of general government policy and aims to: (a) meet the needs of individuals for their own benefit and (b) to meet the needs of society ...', 'date': None, 'last_updated': '2024-10-01', 'matched': True}, {'url': 'https://www.cti.gr/en/organisational-units/', 'title': 'ORGANISATIONAL UNITS – CTI DIOPHANTUS - ΙΤΥΕ ΔΙΟΦΑΝΤΟΣ', 'snippet': "INFORMATION SYSTEMS, APPLICATIONS AND CYBERSECURITY DIVISION. The Division's responsibilities include the following: Development, operation, and support of e- ...", 'date': None, 'last_updated': '2025-06-18', 'matched': True}, {'url': 'https://www.cti.gr/en/iac-division/', 'title': 'INFORMATION SYSTEMS, APPLICATIONS AND CYBERSECURITY ...', 'snippet': 'Conducting security audits, evaluating protection mechanisms, providing advisory services to enhance security, and developing security policies. Participation ...', 'date': None, 'last_updated': '2025-06-18', 'matched': True}, {'url': 'https://www.mindigital.gr/wp-content/uploads/2022/11/E%CE%9D-NATIONAL-CYBER-SECURITY-STRATEGY-2020_2025.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY 2020 - 2025', 'snippet': 'Continuous adaptability, prevention, and timely response to challenges in a changing environment consist the firmest foundation for the effective.', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/democratic-republic-of-the-congos-digital-code', 'title': "Democratic Republic of the Congo's digital code", 'snippet': 'It establishes a legal framework for digital activities, services, infrastructure, cybersecurity, electronic transactions, and data protection in the country.', 'date': '2025-06-27', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cd/', 'title': 'Congo (Democratic Republic of the) - NCSI', 'snippet': 'The central government has established a national-level cybersecurity strategy defining strategic cybersecurity objectives and measures to improve cybersecurity ...', 'date': '2025-07-15', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://www.dlapiperdataprotection.com/index.html?t=law&amp;c=CD', 'title': 'Data protection laws in the Democratic Republic of Congo', 'snippet': 'The protection of personal data is included in the law establishing the digital code N°23-010 of 13 March 2023 and published in the official ...', 'date': '2025-01-06', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.uneca.org/eca-events/democratic-republic-congos-capacity-building-and-validation-workshops-national-data-governance', 'title': "Democratic Republic of Congo's Capacity-Building and Validation ...", 'snippet': 'The DRC has shown strong leadership and commitment to advancing its national data governance agenda through the elaboration of its National Data ...', 'date': '2025-11-11', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://bankable.africa/en/digital/3009-1752-drc-to-invest-1-billion-in-digital-transformation-by-2030', 'title': 'DRC to Invest $1 Billion in Digital Transformation by 2030 - bankable', 'snippet': 'President Félix Tshisekedi pledged $1 billion in public spending from 2026–2030 to implement the new national digital plan.', 'date': '2025-09-30', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://govinsider.asia/intl-en/article/a-giant-in-africa-takes-baby-steps-in-digital-government', 'title': 'A giant in Africa takes baby steps in digital government - GovInsider', 'snippet': "DRC's Minister of Post, Telecommunications and Digital Affairs, H.E. Augustin Kibassa Maliba, shares about the country's digitalisation ...", 'date': '2025-04-28', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/2909-49081-the-drc-cisco-and-cybastion-launch-a-plan-to-train-250-000-in-tech-skills', 'title': 'The DRC, Cisco and Cybastion Launch a Plan to Train 250,000 in ...', 'snippet': 'DRC, Cisco, Cybastion to train 250000 youth in digital skills• Program covers cybersecurity, coding, entrepreneurship, and job placement• ...', 'date': '2025-09-29', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.dataguidance.com/jurisdictions/democratic-republic-of-congo', 'title': 'Democratic Republic of Congo | Jurisdictions - DataGuidance', 'snippet': 'The Democratic Republic of Congo is yet to enact a general data protection law. However, the Constitution of the DRC (only available in French here) prescribes ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.worldbank.org/en/news/factsheet/2024/06/27/inclusive-digitalization-in-eastern-and-southern-africa-program-democratic-republic-of-congo-afe-drc', 'title': 'Inclusive Digitalization in Eastern and Southern Africa Program', 'snippet': 'The DRC Digital Transformation Project under IDEA aims to increase inclusive access and use of the internet and strengthen the foundations ...', 'date': '2024-06-27', 'last_updated': '2025-10-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (MOSTI) in MALAYSIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Industry and Advanced Technology in UNITED ARAB EMIRATES responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4326,27 +4333,27 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation (MOSTI) in MALAYSIA</t>
+          <t>Ministry of Industry and Advanced Technology in UNITED ARAB EMIRATES</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation (MOSTI)</t>
+          <t>Ministry of Industry and Advanced Technology</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology and Innovation (MOSTI) in Malaysia is significantly responsible for the country's cybersecurity governance and coordination. CyberSecurity Malaysia, the national cybersecurity specialist and technical agency directly under MOSTI, provides critical cybersecurity services including emergency response, incident handling, and protecting national critical information infrastructure. MOSTI led the early development of Malaysia's National Cyber Security Policy and continues to support cybersecurity initiatives through CyberSecurity Malaysia. Additionally, CyberSecurity Malaysia assists in policy formulation, threat assessment, and national coordination, highlighting MOSTI’s central role. National cybersecurity governance also involves agencies like the National Security Council, but MOSTI’s oversight of CyberSecurity Malaysia and its continuous involvement in policy, operational response, and advisory services demonstrate its high-level responsibility for cybersecurity in Malaysia.[3][4][5][6]</t>
+          <t>The Ministry of Industry and Advanced Technology (MOIAT) in the UAE is not explicitly mentioned as a primary responsible entity for cybersecurity policy, implementation, or technical coordination. The national cybersecurity governance framework is led by the Telecommunications and Digital Government Regulatory Authority (TDRA), which is responsible for ICT sector regulation, digital transformation, and cybersecurity strategy development. The UAE Cybersecurity Council, established in 2020, oversees national cybersecurity strategy implementation and consists of multiple government agencies along with private and academic members, but MOIAT is not identified as a leading member. Key cybersecurity functions such as managing the national Computer Emergency Response Team (aeCERT) are performed by TDRA and related agencies. The MOIAT may play a role in cybersecurity standards relevant to industrial technologies but is not documented as hosting national CERT/CSIRT, leading cybersecurity councils, or directly overseeing information security standards or incident response. The primary cybersecurity responsibilities thus rest with TDRA, the Cyber Security Council, the Signals Intelligence Agency, and other designated bodies rather than MOIAT.[1][2][4][5][6]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4356,14 +4363,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dataclassification.fortra.com/blog/malaysias-cyber-security-act-2024-key-insights-and-implications-organizations', 'title': "Malaysia's Cyber Security Act 2024: Key Insights and Implications ...", 'snippet': "The Cyber Security Act 2024 is primarily designed to safeguard Malaysia's eleven NCII sectors, which can be thought of as the Malaysian government's defined ...", 'date': '2024-09-18', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://insightplus.bakermckenzie.com/bm/data-technology/malaysia-the-cyber-security-bill-2024-a-new-era-for-cyber-security', 'title': 'Malaysia: The Cyber Security Bill 2024: A new era ... - Baker McKenzie', 'snippet': "The Bill aims to provide a regulatory framework for the safeguarding of Malaysia's cyber security landscape.", 'date': '2024-03-26', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/5218978/Department-of-Commerce-US-Performance-Work.pdf', 'title': "[PDF] Malaysia's National Cyber Security Policy", 'snippet': "However in 2010, with the amendments to the duties of the ministers, the responsibility of the nation's cyber security is placed with the. National Security ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.tableau.com/solutions/customer/cybersecurity-malaysia-addresses-cyber-threats-faster-protecting-critical', 'title': 'CyberSecurity Malaysia addresses cyber-threats faster, protecting ...', 'snippet': 'CyberSecurity Malaysia provides cybersecurity services to help prevent and minimize disruptions to critical information infrastructures to protect the public, ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://itlaw.fandom.com/wiki/CyberSecurity_Malaysia', 'title': 'CyberSecurity Malaysia - The IT Law Wiki - Fandom', 'snippet': 'The role of CyberSecurity Malaysia is to provide specialised cyber security services, such as: Cyber security emergency response, incident handling, and digital ...', 'date': None, 'last_updated': '2024-04-27', 'matched': True}, {'url': 'https://www.mosti.gov.my/en/berita/18-october-2016-cyber-resilience-a-shared-responsibility-among-public-private-to-mitigate-cyber-treats/', 'title': 'Cyber Resilience – A Shared Responsibility Among Public-Private ...', 'snippet': '“CyberSecurity Malaysia will continue to nurture a culture of cyber security awareness. It aims to achieve this by educating and offering ...', 'date': '2016-10-18', 'last_updated': '2024-11-22', 'matched': True}, {'url': 'https://securiti.ai/overview-of-malaysia-cyber-securitiy-act-2024/', 'title': 'An Overview of Malaysia Cyber Security Act 2024', 'snippet': 'In addition to advising the government on cybersecurity policies, the NCSC is in charge of planning, developing, and determining national ...', 'date': '2025-01-15', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://asset.mkn.gov.my/wp-content/uploads/2020/10/MalaysiaCyberSecurityStrategy2020-2024.pdf', 'title': '[PDF] Malaysia Cyber Security Strategy 2020-2024', 'snippet': 'The Malaysia Cyber Security Strategy (MCSS) has been designed with tools to provide trust in our cyber environment not only for national security, but also to ...', 'date': None, 'last_updated': '2024-09-05', 'matched': True}, {'url': 'https://www.cybersecurity.my/portal-main/article/corporate-overview', 'title': 'CyberSecurity Malaysia', 'snippet': 'CyberSecurity Malaysia is committed to provide a broad range of cybersecurity innovation-led services, programmes, and initiatives to reduce vulnerability of ...', 'date': '2025-01-01', 'last_updated': '2025-04-15', 'matched': True}]</t>
+          <t>[{'url': 'https://www.integrated-cyber.com/uae-framework', 'title': 'UAE Cybersecurity Federal Decree | Integrated Cyber', 'snippet': 'Purpose: To provide legal protection against cyber threats, safeguard individuals and organizations from cybercrimes, and regulate online activities to ensure ...', 'date': '2016-01-01', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/united-arab-emirates-digital-economy', 'title': 'United Arab Emirates - Digital Economy', 'snippet': "The UAE's National Cybersecurity strategy aims to create a safe and strong cyber infrastructure in the UAE that enables citizens to fulfill ...", 'date': '2024-09-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://uaebusinessconsultant.com/uae-cybersecurity-law-2024-essential-tips-to-prevent-cybercrime/', 'title': 'UAE Cybersecurity Law 2024', 'snippet': "It further seeks to protect the UAE's government websites and databases, combat the spread of rumours and fake news, safeguard against ...", 'date': '2024-06-03', 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.weforum.org/stories/2025/06/uae-securing-cyberspace/', 'title': 'Developing a national cybersecurity strategy for the UAE', 'snippet': "The UAE's national cybersecurity uses a public-private-people partnership model involving government, industry and society collaboration.", 'date': '2025-06-20', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://jsis.washington.edu/news/cybersecurity-profile-2025-united-arab-emirates/', 'title': 'Cybersecurity Profile 2025: United Arab Emirates (UAE)', 'snippet': 'The UAE has a sophisticated cybersecurity policy framework driven by national security priorities. The Cyber Security Council, Signals ...', 'date': '2025-04-25', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://u.ae/en/information-and-services/justice-safety-and-the-law/cyber-safety-and-digital-security', 'title': 'Cyber safety and digital security | The Official Platform of the UAE ...', 'snippet': "It further seeks to protect the UAE's government websites and databases, combat the spread of rumours and fake news, safeguard against ...", 'date': '2025-11-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/uae', 'title': 'Data protection and cybersecurity laws in UAE | CMS Expert Guide', 'snippet': "In accordance with Article 5 of the Decree, the Authority is responsible for the design, national coordination and enforcement of the UAE's ...", 'date': '2022-03-03', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://uaelegislation.gov.ae/en/policy/details/lsy-s-lotny-lamn-ntrnt-lashy', 'title': 'The National Policy for the Internet of Things Security', 'snippet': 'This policy outlines the main directives for the cybersecurity system, assigning essential tasks and responsibilities to improve its operational ...', 'date': '2025-10-31', 'last_updated': '2025-01-30', 'matched': True}, {'url': 'https://itwisetech.com/blogs/guide-cybersecurity-uae-financial-security/', 'title': 'The Role of Cybersecurity in UAE Healthcare - ITWiseTech', 'snippet': 'Explore how cybersecurity protects UAE healthcare by securing patient data, financial and medical IT systems from growing cyber threats.', 'date': '2025-07-18', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=WJA3Iy2Qty0', 'title': "UAE Police: Cybersecurity Is Everyone's Responsibility - YouTube", 'snippet': 'UAE Police are calling on residents to take personal responsibility for cybersecurity as threats grow more sophisticated.', 'date': '2025-10-14', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry in the President’s Office in Charge of Science, Technology and Scientific Research in RWANDA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department of Research, Science and Technology, within the Ministry of Infrastructure, Science and Technology in MICRONESIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4371,28 +4378,27 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ministry in the President’s Office in Charge of Science, Technology and Scientific Research in RWANDA</t>
+          <t>Department of Research, Science and Technology, within the Ministry of Infrastructure, Science and Technology in MICRONESIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ministry in the President's Office in Charge of Science, Technology and Scientific Research</t>
+          <t>Department of Research, Science and Technology, Ministry of Infrastructure, Science and Technology</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>Federated States of Micronesia</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>The Ministry in the President's Office in Charge of Science, Technology and Scientific Research is not explicitly mentioned in Rwanda's National Cybersecurity Strategy 2024-2029, National Cyber Security Policy, or related official documents as having primary responsibility for cybersecurity policy, implementation, or technical coordination[1][2][3]. The lead agency for cybersecurity is the National Cyber Security Authority (NCSA), which is responsible for building skills, capacities, and ensuring the protection of national integrity and security in the context of cybersecurity[1][3]. The Ministry of ICT and Innovation, in collaboration with the NCSA, sector regulators, critical information infrastructure owners, law enforcement agencies, and Academia, took the lead in developing the national cybersecurity strategy and policy[1][2].
-While the Ministry of Education (Mineduc) and the Ministry of ICT and Innovation are involved in science, technology, and innovation policy, and the University of Rwanda's College of Science and Technology hosts the CyberHub in partnership with the NCSA, there is no evidence that the Ministry in the President's Office in Charge of Science, Technology and Scientific Research hosts a national CERT/CSIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or is directly responsible for cybersecurity enforcement or planning[4][7][8]. The ministry's role is more focused on broader science, technology, and innovation policy rather than specific cybersecurity governance or operational responsibilities[8].</t>
+          <t>The available evidence regarding Federated States of Micronesia's government structure and responsibilities shows that cybersecurity is not explicitly mentioned under the Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology. Key national infrastructure and ICT responsibilities are mainly associated with the Department of Transportation, Communications and Infrastructure (DTC&amp;I), which acts as the national secretariat for infrastructure projects and program management in FSM but not specifically for cybersecurity policy or coordination[1][2][3]. The National ICT policy references broader development goals but does not assign cybersecurity responsibilities to this department or the ministry in question[4]. There is no indication that the Department of Research, Science and Technology hosts a national CERT/CSIRT, leads or participates in cybersecurity committees, sets information security standards, or leads joint cybersecurity initiatives. Therefore, it does not appear to have responsibility for cybersecurity governance, prevention, planning or enforcement within FSM.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4402,14 +4408,14 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cyber.gov.rw/index.php?t=f&amp;f=427&amp;token=6375c4cab9b091a9747cd9f07f8dc616ba825245', 'title': '[PDF] National Cybersecurity Strategy of the Republic of Rwanda 2024-2029', 'snippet': 'Achieving a satisfactory level of national cybersecurity for Rwanda is a responsibility that rests not only on the shoulders of its institutional actors ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.minict.gov.rw/fileadmin/user_upload/minict_user_upload/Documents/Policies/National_Cyber_Security_Policy_Rwanda.pdf', 'title': '[PDF] National Cyber Security Policy - MINICT', 'snippet': 'The first. National Cyber Security Policy for Rwanda to establish an environment that shall assure the trust and confidence while using ICT facilities and ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://dig.watch/resource/national-cybersecurity-strategy-of-the-republic-of-rwanda-2024-2029', 'title': 'National Cybersecurity Strategy of the Republic of Rwanda 2024-2029', 'snippet': "Consolidate the national cybersecurity framework: Enhance the roles, responsibilities, and legal obligations of national entities. · Increase Rwanda's cyber risk ...", 'date': '2024-08-20', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/0310-49247-rwanda-opens-cybersecurity-innovation-and-training-center', 'title': 'Rwanda Opens Cybersecurity Innovation and Training Center', 'snippet': 'Rwanda launched a CyberHub in Kigali to train 200 graduates annually, with at least 30% women, in cybersecurity and emerging technologies.', 'date': '2025-10-03', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://edinburgjournals.org/journals/index.php/journal-of-information-technolog/article/download/659/704/2551', 'title': "[PDF] Cybersecurity Challenges and Policy Imperatives in Rwanda's ...", 'snippet': 'This paper examines the multifaceted impact of digital device adoption on the Rwandan population, with a focus on the evolving cyber threat ...', 'date': '2025-11-03', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/rw/', 'title': 'NCSI :: Rwanda - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2023-11-29', 'last_updated': '2025-08-12', 'matched': True}, {'url': 'https://cyber.gov.rw/updates/article/ncsa-launches-cyberhub-to-boost-cybersecurity-skills-and-innovation-2/', 'title': 'Rwanda launches CyberHub to boost cybersecurity skills and ...', 'snippet': 'Cyberhub aims to mobilize industry leaders, key international partners, and leading technology providers to create a world-class, vibrant center ...', 'date': '2025-10-02', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.mineduc.gov.rw/index.php?t=f&amp;f=17135&amp;token=c64ea84e90450da788598d96cc37bcd124d001e7', 'title': '[PDF] SCIENCE, TECHNOLOGY AND INNOVATION POLICY - Mineduc', 'snippet': "Ministry and Institutions in charge of Science, Technology, Research ... Growing Rwanda's scientific research and technology innovation ...", 'date': '2020-06-02', 'last_updated': '2025-10-14', 'matched': True}]</t>
+          <t>[{'url': 'https://mra.fm/wp-content/uploads/2020/11/idp.pdf', 'title': '[PDF] Federated States of Micronesia INFRASTRUCTURE ...', 'snippet': '1(i) Policy consensus on government structures and organization that allow for maximum efficiency in delivery of public services. 1(ii) Strengthened ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://tci.gov.fm/documents/infrastructure/IDP/FSM%20IDP%20FY2016-FY2025%20-%20Outline%20(version%20151202).pdf', 'title': '[PDF] Federated States of Micronesia INFRASTRUCTURE ...', 'snippet': 'The priority infrastructure development projects that make up the majority of the Plan have been identified and prioritized by each of the governments through ...', 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/2020-08/FSM%20Infrastructure%20Development%20Plan%202016-2025.pdf', 'title': '[PDF] FSM Infrastructure Development Plan FY2016-FY2025', 'snippet': 'The Plan covers the infrastructure in ten sectors: electric power, water/wastewater systems, solid waste management, road and pedestrian facilities, maritime.', 'date': None, 'last_updated': '2024-08-13', 'matched': True}, {'url': 'https://education-profiles.org/oceania/micronesia-federated-states-of/~technology', 'title': 'Micronesia, Federated States of | Technology - Education Profiles', 'snippet': '4) Infrastructure, All students and educators will have access to a comprehensive ICT infrastructure. 5) Productivity, the Ministry of Education ...', 'date': '2023-05-27', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.adb.org/where-we-work/micronesia/overview', 'title': 'Federated States of Micronesia: In-Depth | Asian Development Bank', 'snippet': 'ADB supports the Federated States of Micronesia through investments in energy, water, transport, and education, including through technical ...', 'date': '2025-05-06', 'last_updated': '2025-07-16', 'matched': True}, {'url': 'https://www.national.doe.fm/wp-content/uploads/2023/03/FSM-Tech-Plan-K-12.pdf', 'title': '[PDF] Federated States of Micronesia Technology Plan for Grades K - NDOE', 'snippet': "The core of the plan is adoption and implementation of the International Society for Technology in Education NETS. Standards' for Students, Teachers and ...", 'date': None, 'last_updated': '2024-02-27', 'matched': True}, {'url': 'https://research.fit.edu/media/site-specific/researchfitedu/coast-climate-adaptation-library/pacific-islands/micronesia/Haga-et-al.--Development--Infrasturucture-of-the-Federated-States-of-Micronesia.pdf', 'title': '[PDF] Development and infrastructure of the Federated States of Micronesia', 'snippet': 'The rise in sea levels associated with global warming is a very serious issue in the 607 islands that constitute the Federated States of Micronesia (FSM).', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://pacific-data.sprep.org/system/files/1e29a2f8-5cf9-43d3-a007-5724a7c30525/250205%2520FSM%2520SDP%2520FINAL.pdf', 'title': '[PDF] FEDERATED STATES OF MICRONESIA STRATEGIC ...', 'snippet': 'Systems and Technology: A governance infrastructure system using available technology to monitor and manage the delivery of public services.', 'date': '2025-10-18', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.worldbank.org/en/news/press-release/2025/05/28/thousands-in-federates-states-of-micronesia-to-gain-access-to-clean-reliable-electricity-through-new-world-bank-project', 'title': 'Thousands in Federated States of Micronesia to Gain ... - World Bank', 'snippet': 'The ARISE Project will strengthen grid resilience in Pohnpei, Yap and Kosrae, replacing vulnerable infrastructure and upgrading systems to ...', 'date': '2025-05-27', 'last_updated': '2025-10-09', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministère de l’Enseignement Supérieur, de la Recherche et de l’Innovation (MESRI) in SENEGAL responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Communications and Information Technology in AFGHANISTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4417,27 +4423,27 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ministère de l’Enseignement Supérieur, de la Recherche et de l’Innovation (MESRI) in SENEGAL</t>
+          <t>Ministry of Communications and Information Technology in AFGHANISTAN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ministère de l’Enseignement Supérieur, de la Recherche et de l’Innovation (MESRI)</t>
+          <t>Ministry of Communications and Information Technology</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Research and Innovation (MESRI) in Senegal is not the primary body responsible for national cybersecurity policy, implementation, or technical coordination. The main responsibility for cybersecurity lies with the Ministry of Communication, Telecommunications and the Digital Economy (MCTEN), which coordinates and oversees cybersecurity initiatives, including the National Cybersecurity Strategy (SNC2022) and the Information Systems Security Policy of the State of Senegal (PSSI-ES) [1][4][6]. MESRI is mentioned in the context of conducting an exhaustive survey of vulnerabilities and levels of security of critical information infrastructures (CIIs) and information systems, which is a supporting role rather than a leading one [7]. There is no evidence that MESRI hosts a national CERT/CSIRT/CIRT, leads a cybersecurity committee, or oversees information security standards or network protection for the country. Its involvement is limited to research and assessment activities related to cybersecurity, rather than direct governance, prevention, planning, response, or enforcement [7].</t>
+          <t>The Ministry of Communications and Information Technology (MCIT) in Afghanistan is explicitly responsible for cybersecurity policy, implementation, and technical coordination. The Afghan Cyber Security Bill, prepared by MCIT, defines cybercrime and outlines procedures to tackle cybercrimes, proposing the establishment of a Cyber Emergency Response Team (CERT) and a forensics laboratory within the ministry to investigate alleged crimes and support other agencies [1]. MCIT is also tasked with procuring equipment for internet security, connecting major internet service providers to the National Internet Exchange Center for traffic control, and developing the Afghan cyber security team to combat cyber-attacks [2]. Furthermore, MCIT is involved in creating electronic certification systems and digital authentication for government websites, indicating its role in overseeing information security standards and network protection [2]. The ministry's activities and legislative initiatives demonstrate its central role in cybersecurity governance, prevention, planning, and response in Afghanistan [1][2].</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4447,14 +4453,14 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/senegalese-national-cybersecurity-strategy-snc2022', 'title': 'Senegalese national cybersecurity strategy (SNC2022)', 'snippet': 'Senegal prioritises the rule of law, shared responsibility, a risk-based approach, universal cyberspace access, and stakeholder collaboration. The government ...', 'date': '2023-12-20', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/files/senegal-report-v4pdf', 'title': '[PDF] Cybersecurity Capacity Review of the Republic of Senegal', 'snippet': 'Both the Gendarmerie and the National Police have dedicated units for cybercrime and cyber defence, which have a key role in cyber defence management, receive.', 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://thegfce.org/initiative/progressing-cybersecurity-in-senegal-and-west-africa/', 'title': 'Progressing Cybersecurity In Senegal And West Africa - The GFCE', 'snippet': 'Senegal and the Netherlands have teamed up to exchange practical steps and expertise to address cybersecurity issues in Senegal and the broader West African ...', 'date': '2023-11-15', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://senegalnumeriquesa.sn/en/expertise/s%C3%A9curit%C3%A9', 'title': 'Security | Société Senegal Numerique SA', 'snippet': 'Our department in charge of information systems security coordinates a vast digital trust program, in collaboration with its national and international partners ...', 'date': None, 'last_updated': '2025-05-26', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/yn0skvitur?file=16637650409387wo8lu6g3mw.pdf', 'title': 'Stratégie Nationale de Cybersécurité 2022 (National Cybersecurity ...', 'snippet': 'Strengthen the legal and institutional framework for cybersecurity in Senegal; · Protect critical information infrastructure (CII) and government information ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.unesco.org/ethics-ai/en/senegal', 'title': 'Senegal | Global AI Ethics and Governance Observatory - UNESCO', 'snippet': 'The Ministry of Communication, Telecommunications and the Digital Economy (MCTEN) is responsible for coordinating and overseeing AI-related initiatives.', 'date': '2024-02-02', 'last_updated': '2025-02-02', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/api/files/16637650409387wo8lu6g3mw.pdf', 'title': '[PDF] SENEGALESE NATIONAL CYBERSECURITY STRATEGY (SNC2022)', 'snippet': 'MESRI Ministry of Higher Education, Research and Innovation ... • An exhaustive survey of vulnerabilities and levels of security of CIIs and information systems ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sgciafrica.org/council/ministere-de-lenseignement-superieur-de-la-recherche-et-de-iinnovation-senegal/', 'title': "Ministère de l'Enseignement supérieur, de la Recherche et de I ...", 'snippet': 'The Ministry of Higher Education, Research and Innovation (MESRI) is the lead agency in Senegal responsible for shaping national policies in higher ...', 'date': '2025-07-31', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://fr.ichei.org/static/upload/2025/07/17/202507171212.pdf', 'title': '[PDF] Digital Transformation of African Higher Education in an AI Era', 'snippet': "Senegal's Ministry of Communication, Telecommunications and the Digital. Economy (MCTEN) plays a leading role in AI policy development. In.", 'date': '2025-07-17', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://cenfri.org/wp-content/uploads/Senegal-Digital-Economy-Diagnostic-1.pdf', 'title': '[PDF] Unlocking the digital economy in Senegal | Cenfri', 'snippet': 'Senegal has a well-implemented national cybersecurity strategy which caters for national cybersecurity and infrastructure improvement ...', 'date': '2021-06-03', 'last_updated': '2025-04-28', 'matched': True}]</t>
+          <t>[{'url': 'https://www.vice.com/en/article/afghanistan-first-cyber-security-law/', 'title': 'As Afghanistan Comes Online, It Grapples With Its First Cyber ... - VICE', 'snippet': 'The Afghan Cyber Security Bill, prepared by the Afghan Ministry of Communication, Information and Technology (MCIT), lays down definitions of cybercrime and ...', 'date': '2017-01-07', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://mcit.gov.af/en/node/6949', 'title': 'About the Ministry | Ministry of communications &amp; IT', 'snippet': 'To promote information technology in all sectors · To provide affordable, secure access · To Attract national and international investments in this sector ...', 'date': '2021-02-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Afghanistan.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE AFGHANISTAN - ITU', 'snippet': 'The role of AFCERT is to actively work with law enforcement to combat cybercrimes in the country. 1.2.2 STANDARDS. Afghanistan does not have any ...', 'date': '2014-08-12', 'last_updated': '2025-09-20', 'matched': True}, {'url': 'https://www.ijeast.com/papers/213-230,Tesma602,IJEAST.pdf', 'title': '[PDF] A COMPREHENSIVE CYBERSECURITY FRAMEWORK ... - IJEAST', 'snippet': "The aim of this paper is to propose a comprehensive cybersecurity framework for. Afghanistan's cyberspace in order to protect and assure data, information and ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.chathamhouse.org/2024/08/internet-under-attack/03-internet-resilience-afghanistan', 'title': 'The internet under attack | 03 Internet resilience in Afghanistan', 'snippet': 'The paper draws on two case studies for key insights on elements of internet resilience such as digital infrastructure, conflict dynamics and policy priorities.', 'date': '2024-08-23', 'last_updated': '2025-02-13', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology in NAURU responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology in PAKISTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4462,27 +4468,27 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology in NAURU</t>
+          <t>Ministry of Science and Technology in PAKISTAN</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology</t>
+          <t>Ministry of Science and Technology</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Available documentation does not mention the Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology as responsible for cybersecurity in Nauru. Cybersecurity responsibilities and ICT operations are primarily under the Ministry of Telecommunication and its Department of ICT, which manages government communications, information systems, and related infrastructure. Key infrastructure plans and strategies reference the Ministry of Infrastructure for general infrastructure development, but do not link it to cybersecurity policy, coordination, or national cybersecurity initiatives. No national CERT/CSIRT, cybersecurity committees, or related enforcement roles are described as hosted or led by the Department of Research, Science and Technology within this Ministry in the provided sources[2][4][5][8].</t>
+          <t>The Ministry of Information Technology and Telecommunication (MoITT), not the Ministry of Science and Technology, is explicitly designated as Pakistan's primary federal entity responsible for cybersecurity governance, policy formulation, implementation, and coordination, as per the National Cyber Security Policy 2021 and related documents[1][4]. MoITT hosts the National Computer Emergency Response Team (nCERT/PCERT), leads the Cyber Governance Policy Committee (CGPC), and coordinates national cybersecurity actions[1][4][5]. There is no mention in the primary national cybersecurity strategy documents or reports that the Ministry of Science and Technology holds direct responsibility for cybersecurity policy, management of national CERTs, or similar cybersecurity functions. The Ministry of Science and Technology primarily focuses on scientific research and development, and while cybersecurity research and innovation may fall under its broader scientific mandate tangentially, it is not identified as a cybersecurity governance or enforcement body in Pakistan's official cybersecurity frameworks and laws[1][3]. Given these points, the Ministry of Science and Technology’s role in Pakistan’s cybersecurity appears minimal to none in official policy or operational terms.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4492,14 +4498,14 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.theprif.org/sites/theprif.org/files/2020-08/Nauru%20NEISIP%202011.pdf', 'title': '[PDF] Nauru Economic Infrastructure Strategy and Investment Plan', 'snippet': 'PIAC operates under the coordination of the Pacific Region Infrastructure Facility. (PRIF), a partnership for improved infrastructure in the Pacific Region ...', 'date': None, 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://www.nauru.gov.nr/government/departments/department-of-telecommunications.aspx', 'title': 'Department of ICT - The Government of the Republic of Nauru', 'snippet': 'ICT department consist of twenty-six employees assigned to the four divisions which all contributes to the ICT goal. Administration,', 'date': '2017-08-21', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.dfat.gov.au/sites/default/files/nauru%20economic%20infrastructure%20strategy%20and%20investment%20plan.pdf', 'title': '[PDF] NAURU - Economic Infrastructure Strategy and Investment Plan', 'snippet': "This is Nauru's Economic Infrastructure Strategy and Investment Plan, published in November 2011, prepared by consultants with PIAC support.", 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://nauru-data.sprep.org/system/files/Nauru%20NIISP%202019_0.pdf', 'title': '[PDF] Nauru Integrated Infrastructure Strategic Plan', 'snippet': 'This ministry was responsible for developing infrastructure policy and coordinating activities for infrastructure management. Subsequently,.', 'date': '2019-11-27', 'last_updated': '2024-09-17', 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/documents/PRIF_Nauru-NIISP-2024_final_web.pdf', 'title': '[PDF] Nauru Integrated Infrastructure Strategic Plan', 'snippet': 'The Nauru Integrated Infrastructure Strategic Plan is a guide to public infrastructure investment planning and budgeting. The report was prepared by the ...', 'date': None, 'last_updated': '2024-11-29', 'matched': True}, {'url': 'https://sdgs.un.org/partnerships/sustainable-and-climate-resilient-connectivity-nauru', 'title': 'Sustainable and Climate Resilient Connectivity for Nauru', 'snippet': 'The upgraded port infrastructure will feature a channel for oceangoing ships, a wharf with a turning berth, a breakwater to shelter the wharf ...', 'date': '1970-01-01', 'last_updated': '2025-03-09', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Regional-Presence/AsiaPacific/Documents/Projects/SVSI/APPROVED%20by%20Gov_Nauru%20Needs%20Assessment%20Final.pdf', 'title': '[PDF] NAURU NEEDS ASSESSMENT REPORT - ITU', 'snippet': 'In Nauru, the integration of technology into the education sector has faced challenges and this continues to be addressed through government policies. Digital ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://naurufinance.info/wp-content/uploads/2020/07/NAURU-VNR-REPORT_Final.pdf', 'title': '[PDF] Voluntary National Review on the Implementation of the 2030 Agenda', 'snippet': 'The Ministry of Information and Communications Technology oversees the management and improvement of communications infrastructure in Nauru. The Ministry is ...', 'date': None, 'last_updated': '2025-03-25', 'matched': True}, {'url': 'https://unfccc.int/sites/default/files/resource/Final_Nauru_SNC_Report_revised.pdf', 'title': '[PDF] Republic of Nauru - Second National Communication - UNFCCC', 'snippet': 'This report is based on the data available with the. Government of Nauru and information available in public domain. Reasonable skill, care and diligence ...', 'date': None, 'last_updated': '2025-01-28', 'matched': True}, {'url': 'https://tech-action.unepccc.org/country/nauru/', 'title': 'Nauru - Technology Needs Assessment', 'snippet': 'Nauru prioritizes technologies for adaptation like coastal restoration and water management, and for mitigation like OTEC, hydroelectricity, and solar PV.', 'date': '2025-09-09', 'last_updated': '2025-09-13', 'matched': True}]</t>
+          <t>[{'url': 'https://moitt.gov.pk/SiteImage/Misc/files/National%20Cyber%20Security%20Policy%202021%20Consultation%20Draft(1).pdf', 'title': '[PDF] National CYBER SECURITY POLICY 2021', 'snippet': 'To mitigate cyber threats the country faces today and to improve the national cyber security outlook, it is imperative to undertake the ...', 'date': '2021-01-25', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://portswigger.net/daily-swig/pakistan-government-approves-new-cybersecurity-policy-cybercrime-agency', 'title': 'Pakistan government approves new cybersecurity policy, cybercrime ...', 'snippet': "Pakistan's new cybersecurity policy will include a new governance and institutional framework for a 'secure cyber ecosystem', along with ...", 'date': '2021-08-05', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.ibanet.org/Developing-cybersecurity-framework-in-Pakistan', 'title': 'The developing cybersecurity framework in Pakistan', 'snippet': 'Its role is to respond to any threat against or attack on critical infrastructure information systems or critical infrastructure data, or ...', 'date': '2023-03-27', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://moitt.gov.pk/SiteImage/Misc/files/National%20Cyber%20Security%20Policy%202021%20Final.pdf', 'title': '[PDF] National CYBER SECURITY POLICY 2021', 'snippet': 'The Ministry of IT &amp; Telecom, in consultation with the Central Entity, will: •. Work with all international partners such as ITU-IMPACT etc. •. Maintain ...', 'date': None, 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://pkcert.gov.pk/csgov.asp', 'title': 'Cyber Secure Gov - PKCERT - The National CERT of Pakistan', 'snippet': 'Educates officials on securing communication channels, protecting classified information, and implementing encryption techniques for data security. Who ...', 'date': '2025-05-08', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.isaca.org/resources/news-and-trends/industry-news/2021/pakistans-cybersecurity-policy-in-2021-a-review', 'title': 'Industry News 2021 Pakistans Cybersecurity Policy in 2021 A Review', 'snippet': "Pakistan's cybersecurity policy effectively addresses capacity building and the need for research, development and public-private partnership. ...", 'date': '2021-11-08', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://www.idealsols.com/pakistan-computer-emergency-response-team-pcert/', 'title': 'What Is Pakistan Computer Emergency Response Team PCERT?', 'snippet': "Think of PCERT as Pakistan's cybersecurity front line. It's a national team that works around the clock to spot, stop, and fix cyber threats.", 'date': '2025-01-05', 'last_updated': '2025-04-11', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/pakistan-cybersecurity', 'title': 'Pakistan - Cybersecurity - International Trade Administration', 'snippet': 'Overview · Develop and establish a broad governance framework, that addresses the importance of critical information systems infrastructure.', 'date': '2024-01-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.stimson.org/2025/how-does-international-law-byte-into-pakistans-cyber-governance/', 'title': "How Does International Law Byte into Pakistan's Cyber Governance?", 'snippet': "Pakistan's cybersecurity strategy reflects a core tension: protecting state sovereignty while respecting international norms.", 'date': '2025-06-24', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Business, Innovation and Employment in NEW ZEALAND responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Education of the Republic of Azerbaijan in AZERBAIJAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4507,17 +4513,17 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ministry of Business, Innovation and Employment in NEW ZEALAND</t>
+          <t>Ministry of Science and Education of the Republic of Azerbaijan in AZERBAIJAN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ministry of Business, Innovation and Employment</t>
+          <t>Ministry of Science and Education of the Republic of Azerbaijan</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4527,7 +4533,8 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>The Ministry of Business, Innovation and Employment (MBIE) in New Zealand has a role related to cybersecurity primarily within its own organizational portfolio, supporting cybersecurity assurance across its business groups and managing internal cyber risk assessments and security certifications (search results [2][5]). MBIE contributes to cyber security workforce development, communications policy, and engages with government initiatives including collaboration with the Government Communications Security Bureau (GCSB) and the National Cyber Policy Office (NCPO), but the primary ministerial responsibility for national cybersecurity policy lies with the Minister for Communications, Broadcasting and Digital Media under the Prime Minister and Cabinet structure, specifically the NCPO (search result [1]). MBIE does not host the national CERT (CERT NZ is under the Minister for Communications), nor is it identified as leading national cybersecurity strategy or enforcement; rather it provides cyber security assurance internally and supports cross-government coordination. MBIE also participates in international engagement and policy implementation efforts but is not the top-level responsible agency for cybersecurity governance across New Zealand. Therefore, MBIE's responsibility level for national cybersecurity governance is assessed as LOW with HIGH confidence based on official governmental documents and job descriptions within MBIE indicating an operational/support role rather than lead policy or enforcement authority.</t>
+          <t>The Ministry of Science and Education of Azerbaijan is involved in cybersecurity primarily through the development and oversight of educational programs and curricula in the field of information security and cybersecurity. For example, the Ministry approved a Bachelor's degree program in "Information Security" and has implemented projects such as "Introduction to Cybersecurity" for students in higher education institutions, aiming to build a skilled workforce and raise awareness among students and young people [3][7][10]. The Ministry also supports initiatives like "CyberCamp," which provides hands-on training in cybersecurity for students and young people [5].
+However, the Ministry does not appear to be responsible for national cybersecurity policy, technical coordination, or operational response. The primary responsibility for national cybersecurity governance, including the coordination of state institutions, incident response, and the protection of critical information infrastructure, lies with other entities such as the Ministry of Digital Development and Transport, the Ministry of Communication and Informational Technology, and the Ministry of National Security [2][4]. The Ministry of Science and Education's role is thus focused on education and workforce development rather than direct cybersecurity policy or operational management.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4537,14 +4544,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.dpmc.govt.nz/sites/default/files/2018-11/bim-cyber-security-policy-nov-2018.pdf', 'title': '[PDF] Briefing to Incoming Minister responsible for cyber security policy', 'snippet': 'The Ministry of Business, Innovation and Employment (MBIE) links with cyber security in the areas of communications policy, the Digital Economy. Work Programme, ...', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.mbie.govt.nz/position-descriptions/cyber-security/cyber-security-portfolio-manager', 'title': 'Cyber Security Portfolio Manager | Ministry of Business, Innovation ...', 'snippet': 'The Cyber Security Portfolio Manager is responsible for supporting cyber security assurance across a Portfolio of MBIE Business Groups.', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.gw.govt.nz/assets/Documents/2021/12/Cyber-security-skills-report-final.pdf', 'title': '[PDF] Cyber Security Skills Report - Greater Wellington Regional Council', 'snippet': '2.1.\u200b\u200b Cyber security is at the forefront of protecting critical infrastructure, business and computer networks from attack by foreign nations, criminal groups, ...', 'date': None, 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://insiconcyber.com/blog/nz-cybersecurity-landscape', 'title': "How New Zealand's Cybersecurity Landscape is Reshaping Board ...", 'snippet': "Explore how New Zealand's evolving cybersecurity regulations are reshaping director accountability for Australian businesses with ...", 'date': '2025-09-11', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://www.mbie.govt.nz/position-descriptions/cyber-security/cyber-security-architect', 'title': 'Cyber Security Architect | Ministry of Business, Innovation ...', 'snippet': 'The Cyber Security Architect is responsible for conducting cyber security risk assessments across current and future ICT solutions using industry best practice.', 'date': '2024-01-01', 'last_updated': '2024-09-26', 'matched': True}, {'url': 'https://www.nzsis.govt.nz/assets/NZSIS-Documents/Secure-Innovation-Security-Advice-for-Emerging-Technology-Companies.pdf', 'title': '[PDF] innovation - New Zealand Security Intelligence Service', 'snippet': 'The five secure innovation principles are: know the threats, secure your environment, secure your products, secure your partnerships, and secure your growth.', 'date': None, 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.ncsc.govt.nz/insights-and-research/cyber-threat-reports/ncsc-cyber-threat-report-20222023/about-our-work/', 'title': 'About our work - the National Cyber Security Centre', 'snippet': 'We provide system leadership for government cyber security. One of the ways we provide leadership is by developing standards and frameworks for Aotearoa New ...', 'date': '2023-08-31', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.upguard.com/blog/new-zealand-cybersecurity-standards', 'title': "A Guide to New Zealand's Cybersecurity Standards - UpGuard", 'snippet': "This blog provides a comprehensive overview of New Zealand's cybersecurity standards, including which specific sectors different regulations apply to.", 'date': '2025-07-10', 'last_updated': '2025-11-09', 'matched': True}]</t>
+          <t>[{'url': 'https://mincom.gov.az/en/media-en/news/azerbaijan-cybersecurity-center-to-train-highly-qualified-personnel1792', 'title': 'Azerbaijan Cybersecurity Center to train highly qualified personnel', 'snippet': 'The main role of the center is to train highly qualified specialists and instructors in the field of cyber security. Over 1000 people, including ...', 'date': '2023-03-28', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/AzerbaijanCybersecurityGovernanceAssessment.pdf', 'title': '[PDF] Azerbaijan Cybersecurity Governance Assessment - DCAF', 'snippet': 'The National Cybersecurity Service of Azerbaijan includes pen- etration testing, malware analysis, incident response, attack examinations and other services ...', 'date': None, 'last_updated': '2024-01-30', 'matched': True}, {'url': 'https://wcu.edu.az/uploads/files/050615%20%E2%80%93Information%20Security.pdf', 'title': '[PDF] MINISTRY OF EDUCATION OF THE REPUBLIC OF AZERBAIJAN ...', 'snippet': 'CLO 4 To be familiar with the functions of essential tools used in both defensive and offensive cybersecurity. CLO 5 To be able to implement security ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/az/', 'title': 'NCSI :: Azerbaijan - National Cyber Security Index', 'snippet': 'Therefore, public sector organizations determined as CII subjects are also required to assess and manage cyber risks and/or implement cybersecurity measures ...', 'date': '2024-10-15', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://edu.gov.az/en/news-and-updates/page/37', 'title': 'Ministry of Science and Education Republic of Azerbaijan', 'snippet': 'The project aims to bring together students and young people who want to improve themselves in cybersecurity and have career goals in this field, to involve ...', 'date': '2022-07-06', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cympire.com/azerbaijan-cybersecurity-workforce-development/', 'title': 'Azerbaijan Cybersecurity Workforce Development - Cympire', 'snippet': "Discover how Azerbaijan built a national cybersecurity workforce with Technion and Cympire's cloud-based cyber range, driving cyber resilience at scale.", 'date': '2025-04-27', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/azerbaijan/~technology', 'title': 'Azerbaijan | Technology - Education Profiles', 'snippet': '"Introduction to Cybersecurity" (2020-2022) and "Artificial Intelligence and data science" (2022) projects were implemented by the Ministry of ...', 'date': '2024-08-05', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://icdl.org/from-training-to-certification-how-azerbaijan-is-building-classroom-ready-digital-skills/', 'title': 'How Azerbaijan is Building Classroom-Ready Digital Skills - ICDL', 'snippet': 'Teachers learn how to plan lessons, communicate safely online, collaborate effectively, and evaluate student learning using digital workflows.', 'date': '2025-10-24', 'last_updated': None, 'matched': True}, {'url': 'https://www.etf.europa.eu/sites/default/files/2021-03/digital_factsheet_azerbaijan_0.pdf', 'title': '[PDF] DIGITAL SKILLS AND ONLINE LEARNING IN AZERBAIJAN - ETF', 'snippet': 'The state undertakes the responsibility to supply ICT, digital training resources and other technical means to general education institutions (Article 4.0.13).', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.trend.az/azerbaijan/society/3816343.html', 'title': 'Azerbaijan creates new educational program specializing on ...', 'snippet': 'A new educational program in the specialty "Information Security" has been developed in Azerbaijan at the bachelor\'s level, which meets modern requirements.', 'date': '2023-10-24', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Office for Digital Innovation, Ministry of General Government Affairs and Finance in LIECHTENSTEIN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Culture in TIMOR-LESTE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4552,17 +4559,17 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Office for Digital Innovation, Ministry of General Government Affairs and Finance in LIECHTENSTEIN</t>
+          <t>Ministry of Higher Education, Science and Culture in TIMOR-LESTE</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Office for Digital Innovation, Ministry of General Government Affairs and Finance</t>
+          <t>Ministry of Higher Education, Science and Culture</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4572,24 +4579,24 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>The Office for Digital Innovation (ODI) is described as the central coordination and advisory body for innovation and digitalisation in Liechtenstein, operating at the intersection of government, economy, and society. Its responsibilities include strategic coordination, regulatory frameworks, and cross-sectoral implementation of digital and innovation agendas, including the adoption, implementation, and enforcement of EU digital legislation [4]. However, the ODI is not explicitly mentioned as being responsible for cybersecurity policy, implementation, or technical coordination. Instead, the National Cyber Security Unit (NCSU) is designated as the central office for all matters related to cyber risks, serving as the hub and intermediary for the general public, companies, operators of critical infrastructure, and authorities [2][3][5]. The ODI's role is more focused on broader digital innovation and regulatory coordination rather than direct cybersecurity governance, prevention, planning, response, or enforcement [4].</t>
+          <t>The Ministry of Higher Education, Science and Culture in Timor-Leste is not explicitly mentioned in national strategies, laws, or reports as being responsible for cybersecurity policy, implementation, or technical coordination. There is no evidence that it hosts a national CERT/CSIRT/CIRT or leads or is a member of a cybersecurity committee, council, or working group. The ministry does not oversee information security standards, network protection, or similar functions. However, it may play an indirect role in cybersecurity through its responsibility for higher education, which could include supporting the development of cybersecurity expertise and training programs. For example, Fundasaun Mahein (FM) has highlighted the need for the government to prioritize the development of local cybersecurity expertise through targeted training programs and partnerships, and adapting the education system to the needs of the digital era, which would fall under the purview of the Ministry of Higher Education, Science and Culture[5]. This suggests a potential, albeit indirect, contribution to capacity development in cybersecurity, but not direct responsibility for cybersecurity governance, prevention, planning, response, or enforcement.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/liechtensteins-national-strategy-for-protection-against-cyber-risks-2025', 'title': "Liechtenstein's national strategy for protection against cyber risks 2025", 'snippet': 'Establishes a national crisis response organisation, supports stakeholders during cyber crises, promotes simulation exercises, and fosters transnational ...', 'date': '2025-08-14', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/collection/iopeu-monitoring/governance-liechtenstein', 'title': 'Governance - Liechtenstein | Interoperable Europe Portal', 'snippet': '... Liechtenstein established a new National Cybersecurity Unit. The National Cyber Security Unit is the central office for all matters related to cyber risks.', 'date': '2022-01-01', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.llv.li/en/national-administration/national-cyber-security-unit', 'title': 'National Cyber Security Unit - Liechtensteinische Landesverwaltung', 'snippet': 'The Cyber Security Unit of the Principality of Liechtenstein is the central point of contact for all matters relating to dealing with cyber risks.', 'date': '2024-01-09', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.llv.li/en/national-administration/office-for-digital-innovation', 'title': 'Office for Digital Innovation - National Administration - Company Name', 'snippet': 'Additionally, it plays a key regulatory role by coordinating the adoption, implementation, and enforcement of EU digital legislation.', 'date': '2025-07-14', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.regierung.li/files/attachments/2025111000-csg-en.pdf', 'title': '[PDF] Cyber Security Law (CSG) of 5 December 2025 - Regierung LI', 'snippet': '14. Responsibilities. The National Cyber Security Unit is deemed to be: a) the national competent authority for cybersecurity pursuant to Art.', 'date': '2025-02-01', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-liechtenstein-lie-government-how-ai-is-helping-government-companies-in-liechtenstein-cut-costs-and-improve-efficiency', 'title': 'How AI Is Helping Government Companies in Liechtenstein Cut ...', 'snippet': 'Protecting AI‑driven savings in Liechtenstein means treating cyber resilience as an operational priority: the digital‑roadmap partners have ...', 'date': '2025-09-10', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.digitalfirstmagazine.com/guiding-inspiring-the-next-generation-of-cybersecurity-professionals/', 'title': 'Guiding &amp; Inspiring the Next Generation of Cybersecurity ...', 'snippet': 'In my current role as the Legal &amp; Compliance Officer at the Liechtenstein Office for Communications, my responsibilities include regulatory ...', 'date': '2024-02-28', 'last_updated': '2025-04-10', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/sites/default/files/inline-files/NIFO_2024%20Supporting%20Document_Liechtenstein_vFinal.pdf', 'title': '[PDF] Liechtenstein - Interoperable Europe Portal', 'snippet': 'Its tasks include: •. Raising awareness on cyber risks among the population and the economy;. •. Advising and supporting authorities, companies and individuals ...', 'date': None, 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://www.clustercollaboration.eu/sites/default/files/sites/default/files/editor/ECCPfactsheet_Liechtenstein_2024.pdf', 'title': '[PDF] Country factsheet - European Cluster Collaboration Platform', 'snippet': 'The Digital Agenda Liechtenstein has nine main priorities areas: e-government, digital skills and ICT education, digital transition in the industry, blockchain ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://finance.li/en/quality-and-strength-of-innovation/', 'title': 'Innovation &amp; Quality - Liechtenstein Finance', 'snippet': "Office for Digital Innovation (SDI) ... The government's competence centre is the central point of contact for companies from the financial market environment ...", 'date': '2025-04-28', 'last_updated': '2025-10-05', 'matched': True}]</t>
+          <t>[{'url': 'https://cybilportal.org/projects/timor-leste-national-cyber-strategy-development-implementation-planning/', 'title': 'Timor-Leste National Cyber Strategy Development ... - Cybil Portal', 'snippet': "The aim of this project was to develop Timor-Leste's cybersecurity strategy to ensure international investment and growth opportunities can be catalyzed to its ...", 'date': '2025-03-12', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://en.tatoli.tl/2024/09/27/timor-leste-digital-transformation-strengthening-cybersecurity-in-e-government-services/18/', 'title': 'Timor-Leste Digital Transformation: Strengthening Cybersecurity in ...', 'snippet': 'Timor-Leste is making significant strides in its digital transformation journey, particularly in the realm of e-government services.', 'date': '2024-09-27', 'last_updated': '2024-10-03', 'matched': True}, {'url': 'https://timor-leste.gov.tl/?p=42293&amp;lang=en&amp;n=1', 'title': 'Timor-Leste and Australia discuss Cybersecurity Co-operation', 'snippet': 'Among the initiatives discussed were identifying vulnerabilities, strengthening inter-institutional coordination and carrying out cybersecurity ...', 'date': '2025-03-14', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://sdi.gov.tl/press_detalhe/704/show', 'title': 'Timor-Leste and Australia discuss cooperation on cybersecurity', 'snippet': 'Among the initiatives discussed were identifying vulnerabilities, strengthening inter-institutional coordination, and conducting joint ...', 'date': '2025-10-27', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.fundasaunmahein.org/2024/07/25/timor-lestes-digital-transformation-cybersecurity-and-the-geopolitics-of-data/', 'title': "Timor-Leste's Digital Transformation, Cybersecurity and the ...", 'snippet': "In FM's view, the only way to guarantee national sovereignty is through secure control of our own electronic data and digital infrastructure.", 'date': '2024-07-25', 'last_updated': '2025-05-13', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Timor_Leste.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE DEMOCRATIC REPUBLIC OF TIMOR ...', 'snippet': 'Timor-Leste does not have an officially recognized national or sector-specific cybersecurity strategy. There is no national governance roadmap ...', 'date': '2015-03-12', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://cyberpolicyportal.org/states/timor-leste', 'title': 'Timor-Leste - Cyber Policy Portal', 'snippet': 'Relevant Multilateral Agreements, UN Processes, Bilateral and Multilateral Cooperation, Select Activities, and Membership. (9).', 'date': None, 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://apnic.foundation/what-we-do/empowertech/empowertechtlenglish/', 'title': 'EmpowerTech Timor-Leste - The APNIC Foundation', 'snippet': 'Timor-Leste is on the brink of a digital revolution with the anticipated arrival of a submarine cable promising faster and more affordable internet access.', 'date': '2025-07-01', 'last_updated': '2025-07-22', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science, Research and Innovation in THAILAND responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Culture, Science and Technology (MoECST) in BELIZE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4597,17 +4604,17 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, Research and Innovation in THAILAND</t>
+          <t>Ministry of Education, Culture, Science and Technology (MoECST) in BELIZE</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, Research and Innovation</t>
+          <t>Ministry of Education, Culture, Science and Technology (MoECST)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4617,24 +4624,24 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science, Research and Innovation in Thailand primarily focuses on education, research, and innovation development related to science and technology. There is no direct evidence from national cybersecurity laws, strategies, or official government documents that this ministry is explicitly responsible for cybersecurity policy, implementation, coordination, or enforcement. Cybersecurity governance and key initiatives in Thailand are mainly led by the Ministry of Digital Economy and Society and related agencies such as the National Cyber Security Agency (NCSA) and ThaiCERT. The ministry is involved in educational collaborations, such as AI skill development, but does not appear to host national CERTs/CSIRTs, lead cybersecurity committees, or oversee cybersecurity standards and incident responses, as per current public information. Therefore, its direct cybersecurity responsibility is assessed as low.</t>
+          <t>The Ministry of Education, Culture, Science and Technology (MoECST) in Belize is primarily responsible for educational policy, including integrating technology and digital skills into the education system, supporting STEM/STEAM initiatives, and promoting awareness of cybersecurity risks for learners as part of education programs. The Ministry supports youth education on cybersecurity threats and strategies to stay safe online, as shown in the National Digital Agenda and related education projects. However, cybersecurity governance, policy implementation, and technical coordination for the country’s overall cybersecurity strategy, including national CERT activities or e-Governance coordination, are handled chiefly by other government bodies, notably the Ministry of Youth, Sports and E-Governance. Hence, MoECST's role in cybersecurity is indirect, focusing on education and awareness rather than national cybersecurity policy or enforcement. This assessment is supported by Belize's National Digital Agenda doc[1][2], the involvement of MoECST in cybersecurity education initiatives [1][3], and absence of MoECST as a lead or member in cybersecurity governance roles or national CERT operations. The confidence level is medium, given official strategy documents and education-focused initiatives are clear but full government cybersecurity governance structures are not detailed here.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[{'url': 'https://asialawportal.com/cybersecurity-law-in-thailand/', 'title': 'Cybersecurity Law: Thailand - AsiaLawPortal', 'snippet': "Cybersecurity Law in Thailand aims to protect the country's critical infrastructure and citizens from cyber threats, with regulations.", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.iqpc.com/media/9312/22253.pdf', 'title': '[PDF] Enhancing Cyber Security for Government in Thailand - IQPC', 'snippet': '• Publication and Repository Responsibilities ( Security. Control, Trade Secret, Access Control). • Identification and Authentication. • Certificate Life-Cycle ...', 'date': None, 'last_updated': '2025-02-06', 'matched': True}, {'url': 'https://www.nationthailand.com/business/tech/40049600', 'title': 'Thailand Boosts Cyber Defences with 100,000-Strong Security ...', 'snippet': 'Thailand is significantly bolstering its cybersecurity capabilities with the successful completion of the second phase of a national training programme.', 'date': '2025-05-05', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://archive.opengovasia.com/2025/05/12/thailand-nationwide-collaboration-to-drive-cyber-security-year/', 'title': 'Thailand: Nationwide Collaboration to Drive “Cyber Security Year”', 'snippet': "A major collaborative initiative that unites the power of secure networks to drive the country's national mission, “Cyber Security Year.”", 'date': '2025-05-12', 'last_updated': '2025-07-14', 'matched': True}, {'url': 'https://techforgoodinstitute.org/blog/country-spotlights/thailands-cyber-resilience-journey-understanding-obstacles-and-uncovering-remedies/', 'title': "Thailand's Cyber Resilience Journey: Understanding Obstacles and ...", 'snippet': 'Developing an efficient and adaptable cybersecurity strategy is of utmost importance for Thailand. The strategy should align with global norms, facilitate the ...', 'date': '2025-07-29', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://news.microsoft.com/source/asia/2025/06/09/ministry-of-education-mhesi-and-microsoft-join-forces-to-transform-thai-education-with-ai/', 'title': 'Ministry of Education, MHESI, and Microsoft Join Forces to ...', 'snippet': "This collaboration aims to revolutionize Thailand's education system using artificial intelligence (AI), laying the foundation for equitable access to future- ...", 'date': '2025-06-09', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.factsasia.org/blog/cybersecurity-in-thailand-balancing-progress-geopolitical-influences-and-the-need-for-enhanced-readiness', 'title': 'Cybersecurity in Thailand: Balancing Progress, Geopolitical ...', 'snippet': "Thailand's cybersecurity framework is built upon a comprehensive set of regulations aimed at safeguarding critical infrastructure, data protection, and ...", 'date': '2025-03-26', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://education-profiles.org/eastern-and-south-eastern-asia/thailand/~technology', 'title': 'Thailand | Technology - Education Profiles', 'snippet': 'It launched "Dtac Safe", a new cybersecurity service on the dtac app (whose subscribers are also students) for to combat cyberthreats.', 'date': '2025-01-17', 'last_updated': '2025-11-09', 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/latin-america-and-the-caribbean/belize/~technology', 'title': 'Belize | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Culture, Science and Technology (MoECST) is charged with the responsibility of “ensuring that all Belizeans are ...', 'date': '2023-06-14', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://digitalagenda.gov.bz/wp-content/uploads/2022/05/NATIONAL-DIGITAL-AGENDA-FINAL.pdf', 'title': '[PDF] Belize National Digital Agenda', 'snippet': 'The Agenda is an integrated transformation and modernization of the state plan, addressing key areas from infrastructure and connectivity programs to training,.', 'date': None, 'last_updated': '2024-06-29', 'matched': True}, {'url': 'https://trust-oea.org/en/code-caribbean-project-transforms-education-in-belize/', 'title': 'Code Caribbean Project Transforms Education in Belize', 'snippet': 'Teachers work closely with experienced facilitators to overcome challenges and better understand computer science education. The enthusiastic response from the ...', 'date': '2024-10-01', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://global.mit.edu/news-stories/a-revolutionary-bold-educational-endeavor-for-belize/', 'title': 'A revolutionary, bold educational endeavor for Belize - Global MIT', 'snippet': "The school's mission is to create a diverse and inclusive community for all, especially girls, students with special educational needs, and ...", 'date': '2024-03-26', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.moecst.gov.bz/wp-content/uploads/2022/02/The-Belize-Education-Sector-Plan-2021-2025_MoECST.pdf', 'title': '[PDF] The Belize Education Sector Plan 2021-2025', 'snippet': "The Belize Education Sector Plan 2021-2025 sets out the Ministry of Education's vision and plan for Making Education Work for. Belize.", 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.pressoffice.gov.bz/wp-content/uploads/2019/12/Min-of-Educ-Culture-Science-Techn.-ATR-2023-2024.pdf', 'title': '[PDF] Ministry of Education, Culture, Science and Technology 2023-2024', 'snippet': 'The targets for 2023 included reassessing the National Curriculum. Framework (NCF), validating the updated Belize Standards of Practice for Teaching and Teacher ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.moecst.gov.bz/more/', 'title': 'MoRE - Ministry of Education, Science and Technology', 'snippet': 'MoECST wants to challenge individuals and schools to do more, so together we can make education work for Belize. The Ministry has invested our efforts and ...', 'date': None, 'last_updated': '2024-06-26', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/api/files/16589304890597k9t4z0dma5.pdf', 'title': '[PDF] Belize Cyber Security Strategy 2020', 'snippet': 'Cybersecurity Impacts many actors within the public domain, including policymakers, the private sector, law enforcement, academia and civil ...', 'date': '2025-10-18', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Research in SWEDEN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministère de l’Enseignement Supérieur, de la Recherche et de l’Innovation (MESRI) in SENEGAL responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4642,17 +4649,17 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ministry of Education and Research in SWEDEN</t>
+          <t>Ministère de l’Enseignement Supérieur, de la Recherche et de l’Innovation (MESRI) in SENEGAL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ministry of Education and Research</t>
+          <t>Ministère de l’Enseignement Supérieur, de la Recherche et de l’Innovation (MESRI)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4662,7 +4669,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Research in Sweden is involved in cybersecurity primarily through education policy and the inclusion of cybersecurity-related competencies in national curricula. The Swedish National Agency for Education (Skolverket) has integrated cyber safety and digital competence into the national compulsory school curriculum (Lgr22) to teach students safe and responsible use of digital tools[3]. However, the primary responsibility for national cybersecurity strategy, policy implementation, technical coordination, and incident management lies with other bodies such as the Ministry of Defense, the Swedish Civil Contingencies Agency (MSB), and the National Coordination Centre for Research and Innovation in Cybersecurity (NCC-SE)[1][2][4][6]. The Ministry of Education and Research does not host national CERT/CSIRT teams nor is it explicitly mentioned as leading cybersecurity committees or operational enforcement roles in cybersecurity. Its role is more indirect and focused on capacity building and skills development within the education sector as part of pillar B in the national cybersecurity strategy[1]. Therefore, it has a low level of direct responsibility for Sweden’s cybersecurity governance, prevention, or response measures but contributes to human capital development for cybersecurity.</t>
+          <t>The MESRI in Senegal primarily focuses on higher education, research, and innovation policies, supporting scientific and technological development aligned with national economic and social goals. While MESRI participates in science and innovation initiatives and research funding, available evidence from the national cybersecurity strategy and related reviews does not identify MESRI as a primary actor responsible for cybersecurity governance, policy implementation, or coordination in Senegal. Instead, cybersecurity responsibilities, including national strategy development and operational cybersecurity tasks, are mainly led by the Ministry of Posts and Telecommunications (MPT) and the Agency for the State Information Technology (ADIE), which hosts the national CSIRT and drives cybersecurity policy and infrastructure protection. MESRI's mandate centers on advancing research and innovation rather than direct cybersecurity governance or enforcement activities, indicating a low responsibility level in this domain[1][2][4][7][8].</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4672,14 +4679,14 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.cybercampus.se/en/articles/nationell-strategi-for-cybersakerhet-en-ny-riktning-for-kompetensutveckling-1.1434646', 'title': 'National Cybersecurity Strategy – a new direction for skills ...', 'snippet': 'Cybercampus Sweden is a Swedish national initiative that conducts agile and cutting-edge research, innovation and education in cybersecurity and ...', 'date': '2025-10-24', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.ri.se/en/news/blog/cybersecurity-is-everyones-responsibility', 'title': "Cybersecurity is everyone's responsibility - RISE", 'snippet': 'Sweden has everything it needs to be a leader in cyber security. We have world-class technical expertise, a strong tradition of cooperation ...', 'date': '2025-10-13', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/se/', 'title': 'NCSI :: Sweden - National Cyber Security Index', 'snippet': 'Cybercampus Sweden is a national initiative that conducts agile and cutting-edge research, innovation and education in cyber security and cyber defence. 4.2 ...', 'date': '2025-09-30', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.government.se/government-policy/sweden-in-a-digital-world/security-policy/', 'title': 'Security policy - Government.se', 'snippet': 'Sweden faces a number of challenges in the area of cyber and digital issues that need to be addressed, integrated into and managed in a security policy context.', 'date': '2024-12-09', 'last_updated': '2024-12-10', 'matched': True}, {'url': 'https://www.government.se/press-releases/2024/12/minister-for-foreign-affairs-launches-governments-strategy-on-cyber-and-digital-issues-in-foreign-and-security-policy/', 'title': "Minister for Foreign Affairs launches Government's strategy on cyber ...", 'snippet': 'This is the first Swedish strategy on cyber and digital issues in foreign and security policy. It encompasses all of foreign policy.', 'date': '2024-12-09', 'last_updated': '2024-12-09', 'matched': True}, {'url': 'https://sectraprodstorage01.blob.core.windows.net/communication-uploads/sites/4/2025/03/sectra-newsletter-march.pdf', 'title': "[PDF] One year with NATO – Sweden's role in cyber defense - NET", 'snippet': 'It focuses on three pillars: systematic cybersecurity efforts, knowledge development, and the ability to handle incidents. Civil Defense Minister Carl-Oskar ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.riksrevisionen.se/download/18.3ad2ec4c19329a0a7e562e9/1731922477455/RiR_2023_20_summary.pdf', 'title': '[PDF] Information security at higher education institutions - Riksrevisionen', 'snippet': 'For example, both heads of department and researchers are unsure what responsibility they have for information security and what this means in ...', 'date': '2023-11-23', 'last_updated': '2025-03-30', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/senegalese-national-cybersecurity-strategy-snc2022', 'title': 'Senegalese national cybersecurity strategy (SNC2022)', 'snippet': 'Senegal prioritises the rule of law, shared responsibility, a risk-based approach, universal cyberspace access, and stakeholder collaboration. The government ...', 'date': '2023-12-20', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/files/senegal-report-v4pdf', 'title': '[PDF] Cybersecurity Capacity Review of the Republic of Senegal', 'snippet': 'Both the Gendarmerie and the National Police have dedicated units for cybercrime and cyber defence, which have a key role in cyber defence management, receive.', 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://thegfce.org/initiative/progressing-cybersecurity-in-senegal-and-west-africa/', 'title': 'Progressing Cybersecurity In Senegal And West Africa - The GFCE', 'snippet': 'Senegal and the Netherlands have teamed up to exchange practical steps and expertise to address cybersecurity issues in Senegal and the broader West African ...', 'date': '2023-11-15', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://senegalnumeriquesa.sn/en/expertise/s%C3%A9curit%C3%A9', 'title': 'Security | Société Senegal Numerique SA', 'snippet': 'Our department in charge of information systems security coordinates a vast digital trust program, in collaboration with its national and international partners ...', 'date': None, 'last_updated': '2025-05-26', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/yn0skvitur?file=16637650409387wo8lu6g3mw.pdf', 'title': 'Stratégie Nationale de Cybersécurité 2022 (National Cybersecurity ...', 'snippet': 'Strengthen the legal and institutional framework for cybersecurity in Senegal; · Protect critical information infrastructure (CII) and government information ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.unesco.org/ethics-ai/en/senegal', 'title': 'Senegal | Global AI Ethics and Governance Observatory - UNESCO', 'snippet': 'The Ministry of Communication, Telecommunications and the Digital Economy (MCTEN) is responsible for coordinating and overseeing AI-related initiatives.', 'date': '2024-02-02', 'last_updated': '2025-02-02', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/api/files/16637650409387wo8lu6g3mw.pdf', 'title': '[PDF] SENEGALESE NATIONAL CYBERSECURITY STRATEGY (SNC2022)', 'snippet': 'MESRI Ministry of Higher Education, Research and Innovation ... • An exhaustive survey of vulnerabilities and levels of security of CIIs and information systems ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sgciafrica.org/council/ministere-de-lenseignement-superieur-de-la-recherche-et-de-iinnovation-senegal/', 'title': "Ministère de l'Enseignement supérieur, de la Recherche et de I ...", 'snippet': 'The Ministry of Higher Education, Research and Innovation (MESRI) is the lead agency in Senegal responsible for shaping national policies in higher ...', 'date': '2025-07-31', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://fr.ichei.org/static/upload/2025/07/17/202507171212.pdf', 'title': '[PDF] Digital Transformation of African Higher Education in an AI Era', 'snippet': "Senegal's Ministry of Communication, Telecommunications and the Digital. Economy (MCTEN) plays a leading role in AI policy development. In.", 'date': '2025-07-17', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://cenfri.org/wp-content/uploads/Senegal-Digital-Economy-Diagnostic-1.pdf', 'title': '[PDF] Unlocking the digital economy in Senegal | Cenfri', 'snippet': 'Senegal has a well-implemented national cybersecurity strategy which caters for national cybersecurity and infrastructure improvement ...', 'date': '2021-06-03', 'last_updated': '2025-04-28', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Eritrean Science and Technology Development Agency (ESTDA) in ERITREA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology (MINCYT) in VENEZUELA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4687,27 +4694,27 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Eritrean Science and Technology Development Agency (ESTDA) in ERITREA</t>
+          <t>Ministry of Science and Technology (MINCYT) in VENEZUELA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Eritrean Science and Technology Development Agency (ESTDA)</t>
+          <t>Ministry of Science and Technology (MINCYT)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>The Eritrean Science and Technology Development Agency (ESTDA), established under the 2002 Proclamation, primarily focuses on building national capabilities for research and development in science and technology, coordinating science and technology activities, and overseeing science and technology education institutions. It promotes and coordinates the application of science and technology in Eritrea's overall development but is not explicitly mentioned as the lead or an active entity responsible for cybersecurity governance, policy, or enforcement. There is no evidence that ESTDA hosts a national CERT/CSIRT or leads cybersecurity committees, nor that it manages information security standards or technical cybersecurity coordination. Eritrea's cybersecurity efforts appear limited and underdeveloped according to available information, with no clear indication that ESTDA holds a primary role in cybersecurity policy or response. In contrast, cybersecurity-related incidents and statements in Eritrea reference the Ministry of Information or IT-related entities more generally, but even these show minimal concrete activity. Therefore, ESTDA's direct responsibility for cybersecurity governance is assessed as low.[3][1][4][2]</t>
+          <t>The Ministry of Science and Technology (MINCYT) in Venezuela is explicitly involved in national cybersecurity governance. It was the ministry itself that suggested the creation of the National Cybersecurity Council in 2024 to strengthen technological platforms and respond to cyberattacks, indicating active policy and strategic involvement in cybersecurity matters[3]. Moreover, the National Cybersecurity Council, which includes MINCYT as a core participant, is tasked with developing cybersecurity policies, promoting training, monitoring cyber threats, and coordinating interinstitutional responses to cyber incidents[1][2]. The ministry has a National Cybersecurity Plan which was activated to mitigate cyber-attacks, showing implementation responsibility[3]. Representation of MINCYT in this council and its foundational role demonstrates a high level of responsibility for Venezuela’s cybersecurity policy, implementation, and coordination. Although the council encompasses multiple governmental bodies, the ministry’s leadership role in technical and strategic cybersecurity efforts is clear and therefore classifies it as holding a high cybersecurity responsibility in Venezuela.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4717,14 +4724,14 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[{'url': 'https://erisat.org/2021/09/12/eritreas-ministry-of-it-technology-is-a-phony-here-is-why/', 'title': "Eritrea's Ministry of IT/Technology is a Phony: Here is Why... - Erisat", 'snippet': "– Since Eritrea doesn't allow free business, it is ultimately his job to make sure all the computers are of compliance with security rules ( ...", 'date': '2021-09-12', 'last_updated': '2025-04-26', 'matched': True}, {'url': 'https://african.business/2024/05/apo-newsfeed/massive-cyber-attack-against-eritreas-internet-system', 'title': "Massive cyber attack against Eritrea's Internet System", 'snippet': "A massive cyber attack was unleashed against Eritrea's Internet System on Independence Day, Friday, 24 May 2024, at 12:32':47 in the afternoon hours.", 'date': '2024-05-26', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/eritrea/~technology', 'title': 'Eritrea | Technology - Education Profiles', 'snippet': 'It outlines several key objectives and responsibilities of the agency, including building up national capability for research and development in ...', 'date': '2023-06-23', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.lawgratis.com/blog-detail/cyber-law-at-eritrea', 'title': 'Cyber Law at Eritrea - Law Gratis', 'snippet': "Eritrea's legal framework for cybersecurity and data protection is currently underdeveloped, with limited legislation and institutional ...", 'date': '2025-05-20', 'last_updated': '2025-04-17', 'matched': True}, {'url': 'https://cybilportal.org/projects/horn-of-africa-digital-governance-and-cybersecurity-initiative/', 'title': 'Horn of Africa Digital Governance and Cybersecurity Initiative', 'snippet': 'Activities include: convening with national partners in the region, improving the policy framework; raising awareness of cyber security among users; improve ...', 'date': '2024-02-15', 'last_updated': '2025-03-06', 'matched': True}, {'url': 'https://www.giac.org/certifications/global-industrial-cyber-security-professional-gicsp/', 'title': 'Global Industrial Cyber Security Professional Certification (GICSP)', 'snippet': 'The GICSP assesses a diverse set of professionals who engineer or support control systems and share responsibility for the security of these environments.', 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.zerofox.com', 'title': 'ZeroFox | External Cybersecurity.', 'snippet': 'ZeroFox provides full-spectrum protection across social media, domains, and the deep/dark web, eliminating risks with automated workflows and monitoring ...', 'date': '2025-10-20', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-eritrea/', 'title': 'Cyber Security in Eritrea - Blog | Gavin Dennis - Gavin Dennis', 'snippet': "Let's examine the current state of cyber security in Eritrea. It covers topics such as cybercrime laws, incident response, the cyber security market, ...", 'date': '2024-10-01', 'last_updated': '2025-02-17', 'matched': True}, {'url': 'https://unctad.org/page/data-protection-and-privacy-legislation-worldwide', 'title': 'Data protection and privacy legislation worldwide - UNCTAD', 'snippet': 'As social and economic activities continue to shift online, the importance of privacy and data protection has become increasingly critical.', 'date': '2025-06-20', 'last_updated': '2025-11-14', 'matched': True}]</t>
+          <t>[{'url': 'https://bentata.com/venezuela-establishes-national-cybersecurity-council/', 'title': 'Venezuela Establishes National Cybersecurity Council - Bentata', 'snippet': 'Developing cybersecurity policies and regulations aimed at preventing the misuse of information and communication technologies for criminal ...', 'date': '2024-08-12', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://tvbrics.com/en/news/venezuela-creates-national-cyber-security-council/', 'title': 'Venezuela creates National Cyber Security Council - TV BRICS', 'snippet': "The Council's main functions include establishing a telematic incident supervision network, promoting cyber security training programmes, ...", 'date': '2024-08-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://mronline.org/2024/08/20/cyber-attacks-against-venezuela-their-scope-and-technical-dimensions/', 'title': 'Cyber-attacks against Venezuela: Their scope and technical ...', 'snippet': 'Cybersecurity has become a central element in Venezuela, in a context where computer attacks have not ceased since the presidential ...', 'date': '2024-08-20', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=RxAzDZMakho', 'title': 'Venezuelan President signs decree to create National Commission ...', 'snippet': '... Cybersecurity, during the meeting of the Defense Council, where the ... The collapse of Venezuela, explained. Vox•8.7M views · 29:27. Go to ...', 'date': '2024-08-13', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ve/', 'title': 'NCSI :: Venezuela - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2025-08-15', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://orinocotribune.com/venezuela-launches-national-cybersecurity-council/', 'title': 'Venezuela Launches National Cybersecurity Council', 'snippet': 'The president of Venezuela, Nicolás Maduro, signed a decree for the creation of the National Cybersecurity Council of Venezuela to confront cyber attacks.', 'date': '2024-08-13', 'last_updated': None, 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/latin-america/venezuela/topics/regulators-enforcement-priorities-and-penalties', 'title': 'Regulators, Enforcement Priorities and Penalties | Venezuela', 'snippet': 'The National Cybersecurity Council is expected to implement cybersecurity measures to protect the nation from technology attacks and cybersecurity risks.', 'date': '2025-01-13', 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.accessnow.org/a-bill-in-venezuela-seeks-to-give-the-government-absolute-control-over-the-internet/', 'title': 'A bill in Venezuela seeks to give the government absolute control ...', 'snippet': 'A proposed cybersecurity bill in Venezuela puts the digital rights of Venezuelans — and the entire internet in the country — in jeopardy.', 'date': '2019-01-17', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://eslared.net/sites/default/files/2021-12/principles_internet_governance_Venezuela_diagnosis_and_roadmap_vfinal.pdf', 'title': '[PDF] PRINCIPLES FOR INTERNET GOVERNANCE, DEMOCRATIC AND ...', 'snippet': 'This section shows a series of aspects related to IG in Venezuela from a strategic, operational and legal point of view, which allow us to find ...', 'date': '2021-12-01', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Culture, Science and Technology (MoECST) in BELIZE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Technology in SOUTH SUDAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4732,17 +4739,17 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture, Science and Technology (MoECST) in BELIZE</t>
+          <t>Ministry of Higher Education, Science and Technology in SOUTH SUDAN</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture, Science and Technology (MoECST)</t>
+          <t>Ministry of Higher Education, Science and Technology</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4752,7 +4759,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Culture, Science and Technology (MoECST) in Belize is primarily responsible for education policies and initiatives integrating technology and digital skills education within the education sector. It manages the Science and Education Technology Unit, which implements science and education technology initiatives, and is involved in projects such as STEAM education and computer science training for youth. While the Ministry participates in cybersecurity-related education components, such as youth education in cybersecurity threats and safe online practices, and supports digital literacy programs, it is not identified as the lead for national cybersecurity governance, policy, or technical coordination. The national cybersecurity strategy and coordination primarily lie with other bodies, notably the Ministry of Youth, Sports and E-Governance, which leads e-governance and digital government initiatives, including cybersecurity implementation and coordination. Additionally, the MoECST does not host a national CERT/CSIRT or explicitly oversee national cybersecurity policy or enforcement. Therefore, its role in cybersecurity is limited to educational aspects rather than overarching cybersecurity governance or operational responsibilities.[1][2][6][9]</t>
+          <t>The Ministry of Higher Education, Science and Technology (MoHEST) in South Sudan primarily focuses on policies, programs, and coordination of higher education, science, and technological innovation within tertiary institutions. Its documented roles include implementing policies for higher education, promoting research and technological innovation, developing curricula, and supporting technical and vocational education (Search results [1][2][3][6]). There is no explicit mention of responsibility for cybersecurity governance, national cybersecurity policy, hosting a national CERT/CSIRT, or participation in national cybersecurity committees or enforcement activities within available official policy frameworks or organizational descriptions for this ministry. The ministry's tasks revolve around educational and technological advancement rather than cybersecurity operational or policy leadership. Therefore, while it may contribute indirectly through education and technology initiatives, it is not identified as a principal actor responsible for the country's cybersecurity governance, prevention, planning, response, or enforcement per the criteria given.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4762,14 +4769,14 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/latin-america-and-the-caribbean/belize/~technology', 'title': 'Belize | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Culture, Science and Technology (MoECST) is charged with the responsibility of “ensuring that all Belizeans are ...', 'date': '2023-06-14', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://digitalagenda.gov.bz/wp-content/uploads/2022/05/NATIONAL-DIGITAL-AGENDA-FINAL.pdf', 'title': '[PDF] Belize National Digital Agenda', 'snippet': 'The Agenda is an integrated transformation and modernization of the state plan, addressing key areas from infrastructure and connectivity programs to training,.', 'date': None, 'last_updated': '2024-06-29', 'matched': True}, {'url': 'https://jobs.publicservice.gov.bz/index.php/job-seeker-control-panel/company-detail/company-Ministry-of-Education,-Science-and-Technology-Belmopan-City-10/nav-42', 'title': 'Ministry of Education, Science and Technology - Jobs - Job Seeker', 'snippet': 'The Ministry of Education, Culture, Science and Technology (MoECST) of Belize is charged with the responsibility of ensuring that all Belizeans are given an ...', 'date': None, 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.trustfortheamericas.org/en/code-caribbean-project-transforms-education-in-belize/', 'title': 'Code Caribbean Project Transforms Education in Belize', 'snippet': 'Training is facilitated by Code.org, an education innovation nonprofit dedicated to the vision that every student in every school can learn computer science.', 'date': '2024-10-01', 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://global.mit.edu/news-stories/a-revolutionary-bold-educational-endeavor-for-belize/', 'title': 'A revolutionary, bold educational endeavor for Belize - Global MIT', 'snippet': "The school aims to create career pathways to strengthen Belize's existing industries, such as agriculture and food systems, while also ...", 'date': '2024-03-26', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.moecst.gov.bz/education-services/planning-and-development-services/science-and-technology-unit/', 'title': 'Science and Education Technology Unit', 'snippet': 'The Science and Education Technology Unit operates to manage the implementation of science and education technology initiatives within the MoECST.', 'date': None, 'last_updated': '2024-07-22', 'matched': True}, {'url': 'https://www.pressoffice.gov.bz/wp-content/uploads/2019/12/Min-of-Educ-Culture-Science-Techn.-ATR-2023-2024.pdf', 'title': '[PDF] Ministry of Education, Culture, Science and Technology 2023-2024', 'snippet': "It addresses the challenges of inequity and comprehensively supports the Ministry of Education to prepare the nation's students for future needs, technological ...", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.moecst.gov.bz/more/', 'title': 'MoRE - Ministry of Education, Science and Technology', 'snippet': 'MoECST wants to challenge individuals and schools to do more, so together we can make education work for Belize. The Ministry has invested our efforts and ...', 'date': None, 'last_updated': '2024-06-26', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/api/files/16589304890597k9t4z0dma5.pdf', 'title': '[PDF] Belize Cyber Security Strategy 2020', 'snippet': 'Cybersecurity Impacts many actors within the public domain, including policymakers, the private sector, law enforcement, academia and civil ...', 'date': '2025-10-18', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dr.211check.org/wp-content/uploads/2021/12/South-Sudan-Ministry-of-Higher-Education-Policy-Framework.pdf', 'title': '[PDF] Republic of South Sudan Ministry of Higher Education, Science and ...', 'snippet': 'With the independence of South Sudan July 9th,. 2011, the Ministry of Higher Education, Science and Technology has assumed full responsibility over HEIs in ...', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.unesco.org/en/articles/south-sudan-national-higher-education-policy-framework-2021-2025-validated-stakeholders', 'title': 'The South Sudan National Higher Education Policy Framework ...', 'snippet': 'The Ministry of Higher Education, Sciences and Technology (MoHEST) validated the Higher Education Policy Framework 2021-2025 in Juba.', 'date': '2023-04-20', 'last_updated': '2024-10-26', 'matched': True}, {'url': 'https://mogei.gov.ss/super/assets/documents/resources/SS%20Structure.pdf', 'title': '[PDF] BOOK total.pmd - MOGEI', 'snippet': 'We widely consulted States Ministries of Education, Science and Technology to jointly review all the structures and harmonize the policies of the education in ...', 'date': None, 'last_updated': '2024-12-20', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-4', 'title': 'Ministry of Higher Education and Scientific Research', 'snippet': 'Government ministry that is responsible for determining the policies and direction of the higher education system in Sudan.', 'date': '2004-02-01', 'last_updated': '2024-12-04', 'matched': True}, {'url': 'https://www.mohest.gov.ss', 'title': 'Ministry Of higher Education', 'snippet': 'Currently, higher Education and General Education Are Sectors of Ministry of Education, Science and Technology of the Republic of South Sudan.', 'date': '2024-04-02', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.unirank.org/ss/org/ministry-of-higher-education-science-and-technology-of-south-sudan/', 'title': 'Ministry of Higher Education, Science and Technology of South Sudan', 'snippet': 'The Ministry is responsible for developing and implementing educational policies, overseeing accreditation processes, and coordinating scientific research ...', 'date': None, 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/485912/ministry-of-education-science-and-technology', 'title': '️Ministry of Education, Science and Technology - DevelopmentAid', 'snippet': 'The Ministry is guided by the following principles: Mandate: Implement policies, plans, programs, and general coordination of higher education, science and ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Industry, Energy and Mining (Ministerio de Industria, Energía y Minería - MIEM) in URUGUAY responsible for cybersecurity?
+          <t xml:space="preserve">Is the NONE in HAITI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4777,27 +4784,27 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ministry of Industry, Energy and Mining (Ministerio de Industria, Energía y Minería - MIEM) in URUGUAY</t>
+          <t>NONE in HAITI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ministry of Industry, Energy and Mining (Ministerio de Industria, Energía y Minería - MIEM)</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>HAITI</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>The Ministry of Industry, Energy and Mining (MIEM) in Uruguay is involved in areas related to critical sectors such as energy and telecommunications, and has engaged in agreements and cooperation on emerging technologies, including cybersecurity. However, the primary cybersecurity governance, policy implementation, and coordination roles are led by other institutions, notably AGESIC (Agency for Electronic Government and Information Society), which heads the National Cybersecurity Strategy implementation, and CERTuy, which handles incident response coordination. The Ministry of Defense focuses on cyber resilience. MIEM participates in international cooperation on technology and cybersecurity (e.g., the 2024 MoU with the USA), but it is not explicitly mandated as the central national cybersecurity authority. Moreover, national directives (Decree No. 66/025 and the National Cybersecurity Strategy 2024-2030) assign explicit cybersecurity responsibilities primarily to AGESIC and CERTuy, among others. Therefore, MIEM plays a supporting or sector-related role rather than leading cybersecurity governance or response in Uruguay.[1][2][4][6][8]</t>
+          <t>There is no evidence that an organization named "NONE" exists in Haiti or that it is responsible for cybersecurity. The available information indicates that cybersecurity responsibilities in Haiti are distributed among several entities, including the Statistics and Information Technology Institute (IHSI), which is the national digital government agency responsible for coordinating digital transformation and cybersecurity policy, and the Ministry of Justice and Public Security, which is involved in law enforcement and security matters, including cybersecurity. The National Telecommunications Council (CONATEL) also plays a role as the regulator of digital connectivity infrastructure. None of the sources mention an organization called "NONE" in the context of cybersecurity or any other governmental function in Haiti[1][3][4][6].</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4807,14 +4814,14 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[{'url': 'https://nextfense.com/en/blogs/decree-66-025-cybersecurity', 'title': "Comply with Uruguay's Decree No. 66/025 on cybersecurity. Learn ...", 'snippet': 'Main obligations of Decree No. 66/025 · Follow national and international standards in cybersecurity. \u200d · Perform cybersecurity audits: ...', 'date': '2025-10-17', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://cybermidnight.club/uruguays-cybersecurity-landscape-a-synthesis-of-strategy-threats-and-systemic-challenges/', 'title': "Uruguay's Cybersecurity Landscape: A Synthesis of Strategy ...", 'snippet': 'Establishes the mechanisms for national cybersecurity leadership, defining the roles and responsibilities of all involved actors. 2 ...', 'date': '2025-10-16', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://iari.site/2025/10/16/uruguay-in-the-digital-spotlight-cyber-vulnerabilities-and-strategic-scenarios-toward-2030/', 'title': 'URUGUAY IN THE DIGITAL SPOTLIGHT: CYBER ... - IARI', 'snippet': "According to Brecha.uy, Uruguay's cybersecurity management remains fragmented, lacking a unified regulatory framework and leaving security ...", 'date': '2025-10-16', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/uruguay-critical-and-emerging-technologies-agreement-usa', 'title': 'Uruguay Critical and Emerging Technologies Agreement with USA', 'snippet': "U.S. companies can contribute to bolstering Uruguay's digital infrastructure and enhancing its cybersecurity capacity.", 'date': '2024-09-26', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/uruguay-strategic-technologies', 'title': 'Uruguay - Strategic Technologies - International Trade Administration', 'snippet': 'The MoU includes a focus on AI, data privacy and cross-border data flows, providing avenues for technical exchanges, consultations, and training ...', 'date': '2025-09-09', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://marcasur.com/en/noticia/cybersecurity-in-focus-uruguay-sets-clear-rules-for-public-agencies-and-strategic-sectors-4927&amp;f=-2025', 'title': 'Cybersecurity in Focus: Uruguay Sets Clear Rules for Public ...', 'snippet': "-Implementing security measures based on each organization's specific risk profile. -Appointing a person responsible for ensuring compliance with cybersecurity ...", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/latin-america/uruguay/topics/key-data-and-cybersecurity-laws', 'title': 'Key Data &amp; Cybersecurity Laws | Uruguay | Global Data and Cyber ...', 'snippet': 'The guidelines aim to promote the availability and strategic use of data as an asset for evidence-based decision-making, innovation for the benefit of the ...', 'date': '2024-12-26', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://pittaluga.com/en/cybersecurity-in-focus-uruguay-sets-clear-rules-for-public-entities-and-strategic-sectors/', 'title': 'Cybersecurity in Focus: Uruguay Sets Clear Rules for Public Entities ...', 'snippet': "Implementing security measures based on each organization's specific risks. · Appointing a person responsible for overseeing compliance with these policies.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.gtai.de/:PRO201909275002', 'title': '[PDF] uruguay strengthening cybersecurity in uruguay', 'snippet': 'The director will serve as general program coordinator, will be responsible for directing the program, and will hold strategic and planning ...', 'date': '2019-09-28', 'last_updated': '2025-10-10', 'matched': True}]</t>
+          <t>[{'url': 'https://www.iadb.org/en/news/haiti-boost-governments-digital-transformation-idb-support', 'title': "Haiti to Boost Government's Digital Transformation with IDB Support", 'snippet': 'The Inter-American Development Bank (IDB) approved a $16 million grant to improve policy implementation and service delivery to citizens in Haiti.', 'date': '2024-07-19', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.haitilibre.com/en/news-7044-haiti-security-protection-of-haitian-cyberspace.html', 'title': 'Haiti - Security : Protection of Haitian Cyberspace - HaitiLibre.com', 'snippet': 'A two-day workshop, on the cybersecurity in Haiti. Haitians are using the Internet for personal or business, computers, cell phones and wireless devices every ...', 'date': '2012-10-31', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://ewsdata.rightsindevelopment.org/files/documents/10/IADB-HA-J0010_M44bQ1G.pdf', 'title': '[PDF] haiti strengthening the foundations of digital transformation of public ...', 'snippet': "2.3 The Ministry of Economy and Finance (MEF) is at the heart of the country's center of government and is responsible for the core crosscutting ...", 'date': '2024-01-17', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Ministry_of_Justice_and_Public_Security_(Haiti)', 'title': 'Ministry of Justice and Public Security (Haiti) - Wikipedia', 'snippet': "This ministry is responsible for law enforcement roles, along with playing an integral role in the Prime Minister's Cabinet.", 'date': '2014-10-16', 'last_updated': '2025-09-23', 'matched': True}, {'url': 'https://www.stimson.org/2025/sharing-the-burden-of-securing-haiti/', 'title': 'Sharing the Burden of Securing Haiti - Stimson Center', 'snippet': 'The mandate of the Multinational Security Support mission in Haiti is set to expire in early October 2025, even while the country remains ...', 'date': '2025-09-05', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/ht/?allData=1', 'title': 'NCSI :: Haiti - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.gtai.de/resource/blob/1797228/532cd0665c984ac082be3b88ab487850/PRO202404191758862.pdf', 'title': '[PDF] haiti strengthening the foundations of digital transformation of public ...', 'snippet': "1.4. The Ministry of Economy and Finance (MEF) is at the heart of the country's center of government and is responsible for the core crosscutting management ...", 'date': '2024-07-11', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://mfcs.oas.org/Home/CountryDetail?countryId=98', 'title': 'Haiti - CSBMs', 'snippet': 'Exchange information on the functions, procedures, and institutional organization of ministries of defense and security, and related and pertinent institutions.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ht.usembassy.gov/u-s-agency-for-international-development/', 'title': 'U.S. Agency for International Development - U.S. Embassy in Haiti', 'snippet': 'The U.S. Agency for International Development (USAID), a federal agency, has been on the ground and working to help the people of Haiti improve their social ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Science in BULGARIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Human Resource Planning, Vocational Training and National Excellence in DOMINICA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4822,17 +4829,17 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science in BULGARIA</t>
+          <t>Ministry of Education, Human Resource Planning, Vocational Training and National Excellence in DOMINICA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science</t>
+          <t>Ministry of Education, Human Resource Planning, Vocational Training and National Excellence</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4842,7 +4849,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Science in Bulgaria is responsible for integrating cybersecurity into the education system, including the development of curricula, digital competencies, and awareness campaigns for students and educators. It participates in national strategies and collaborates with other ministries and organizations on cybersecurity initiatives, such as promoting information security and counteracting cyber threats in schools (Reference [4], [5]). The Ministry also supports the assessment of students' digital competencies and the modernization of ICT education, including cybersecurity content, in secondary and higher education (Reference [3], [5]). However, the primary responsibility for national cybersecurity policy, technical coordination, and incident response lies with the Ministry of Transport, Information Technology and Communications and the E-Government Agency, which oversee the implementation of cybersecurity legislation and host the national Computer Security Incident Response Team (NCSIRT) (Reference [1], [5], [7]). The Ministry of Education and Science does not host a national CERT/CSIRT or lead the national cybersecurity committee, but it does participate in events and workshops related to cybersecurity in education (Reference [6], [8]).</t>
+          <t>The Ministry of Education, Human Resource Planning, Vocational Training and National Excellence in Dominica is not explicitly mentioned in national cybersecurity strategies, laws, or reports as responsible for cybersecurity governance, policy, or incident response. The Ministry of Public Works, Utilities, and the Digital Economy is identified as the lead ministry involved in cybersecurity initiatives such as coordinating the national Computer Emergency Response Team (CERT) and leading public awareness campaigns in Dominica[1][4]. There is no direct evidence that the Ministry of Education leads or participates in cybersecurity committees, oversees information security standards, or hosts a national CERT. However, given its educational mandate, it may be indirectly involved through fostering cybersecurity awareness and integrating cybersecurity education at certain levels, although this is not explicitly documented in the provided sources. Thus, while it may contribute to cybersecurity education efforts, the Ministry’s formal level of responsibility for national cybersecurity governance and response is low.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4852,14 +4859,14 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/bulgaria', 'title': 'Data protection and cybersecurity laws in Bulgaria | CMS Expert Guide', 'snippet': 'The Cybersecurity Act is the main piece of legislation dealing with cybersecurity and transposing the NIS Directive in Bulgaria.', 'date': '2021-03-05', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/bg/', 'title': 'NCSI :: Bulgaria - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2025-07-15', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'http://proceedings.informingscience.org/InSITE2023/InSITE2023Art03Syarova9146.pdf', 'title': '[PDF] Cybersecurity Issues in the Secondary and Higher Education ...', 'snippet': 'Identifying and describing the competencies, responsibilities, and curriculum con- tent for cybersecurity are among the challenges facing ...', 'date': '2023-06-26', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.unesco.org/sites/default/files/medias/files/2021/12/4th_consolidated_report_multilingualism_bulgaria.pdf', 'title': '[PDF] INFORMATION From the Bulgarian Ministry of Education and Science', 'snippet': 'Providing high-speed internet connection between educational institutions is one of the main activities of the Strategy. Over the past year, under the “ICT in ...', 'date': None, 'last_updated': '2024-01-28', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/bulgaria/~technology', 'title': 'Bulgaria | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Science is responsible for the education sector at all levels along with the Council of Ministers. The coordinator ...', 'date': '2025-01-14', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://dihtrakia.org/edih-days-in-education', 'title': 'The connection between education and cybersecurity - EDIH Trakia', 'snippet': 'Boyan Zhekov , National Coordinator of Horizon Europe , Ministry of Education and Science and Eli Kaneva , National Contact Person for Digital ...', 'date': '2025-05-11', 'last_updated': '2025-06-08', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/bulgaria-digital-economy', 'title': 'Bulgaria - Digital Economy - International Trade Administration', 'snippet': 'Bulgaria has already implemented major cybersecurity and tech projects at the Ministry of e-Governance, Ministry of Foreign Affairs ...', 'date': '2024-09-18', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://dss.bg/news/dss-experts-share-cybersecurity-insights', 'title': 'DSS Experts Share Cybersecurity Insights with Educators', 'snippet': 'For years, DSS has aimed to strengthen cybersecurity awareness and practices within the Bulgarian education sector by equipping educators and ...', 'date': '2024-10-30', 'last_updated': '2024-11-28', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/BG_NCSS_2021_en%20(draft%20translation).pdf', 'title': '[PDF] REPUBLIC OF BULGARIA - ENISA', 'snippet': 'By 2030, Bulgaria must achieve cyber resilience and build a functioning, reliable and secure digital infrastructure to unlock the full potential of digital ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://blacksea-caspia.eu/index.php/en/hsse-vusi-and-academy-ministry-interior-initiate-legislative-changes-field-cybersecurity-together', 'title': 'HSSE (ВУСИ) and the Academy of the Ministry of Interior initiate ...', 'snippet': 'One concerns the development of cybersecurity in higher education in Bulgaria, and beyond, as modern countries are developing cybersecurity from the ground up.', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://digitaldominica.wordpress.com/2024/09/27/closing-ceremony-of-dominica-csirt-cyber-security-conference/', 'title': 'Closing Ceremony of Dominica CSIRT Cyber Security Conference', 'snippet': 'Providing cybersecurity guidance and support to various sectors 4. Fostering cybersecurity awareness and education 5. Collaborating with ...', 'date': '2024-09-27', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://dig.watch/resource/dominican-republics-national-cybersecurity-strategy-2030', 'title': "Dominican Republic's national cybersecurity strategy 2030", 'snippet': 'Education and culture promote cybersecurity awareness and integrate cybersecurity training at all levels of education. Public-private and international ...', 'date': '2025-02-21', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://troncoso-caceres.com/en/blog/law-project-on-cybersecurity/', 'title': 'Law Project on Cybersecurity - Troncoso y Caceres', 'snippet': 'A legal framework that regulates cybersecurity and institutional strengthening, the protection of critical infrastructures and IT infrastructures of the State.', 'date': '2021-10-11', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://cardtpconnect.org/dominica/', 'title': 'Dominica - CARDTP', 'snippet': 'Dominica – CARDTP Cybersecurity &amp; Cybercrime Public Awareness Campaign. On ... Targeted education and resources to combat cyber violence against women and girls.', 'date': '2025-10-13', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/do/', 'title': 'NCSI :: Dominican Republic - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2024-10-15', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://www.caricomimpacs.org/articles/cardtp-set-to-roll-out-cybercrime-and-cybersecurity-awareness-campaign-across-four-eastern-caribbean-states', 'title': 'CARDTP set to roll out Cybercrime and Cybersecurity Awareness ...', 'snippet': 'Cybersecurity is a shared responsibility, and regional integration strengthens our ability to respond to threats, raise standards, and build ...', 'date': '2025-08-26', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://education-profiles.org/latin-america-and-the-caribbean/dominica/~technology', 'title': 'Dominica | Technology - Education Profiles', 'snippet': 'The 1997 Education Act (as amended lastly in 2008) requires the Minister in charge of education to establish and pursue goals and objectives ...', 'date': '2025-01-15', 'last_updated': '2025-09-09', 'matched': True}, {'url': 'https://dominicanewsonline.com/news/homepage/dominicans-being-prepared-to-defend-against-cyber-threats-with-new-national-awareness-campaign/', 'title': 'Dominicans being prepared to defend against cyber threats with ...', 'snippet': 'Enhancing public understanding of cybersecurity in daily life. · Teaching individuals and organizations how to safeguard sensitive data.', 'date': '2025-09-06', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the National Council of Science, Technology and Technological Innovation (CONCYTEC) in PERU responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Tertiary Education, Science and Technology in MAURITIUS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4867,17 +4874,17 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>National Council of Science, Technology and Technological Innovation (CONCYTEC) in PERU</t>
+          <t>Ministry of Education, Tertiary Education, Science and Technology in MAURITIUS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>National Council of Science, Technology and Technological Innovation (CONCYTEC)</t>
+          <t>Ministry of Education, Tertiary Education, Science and Technology</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4887,7 +4894,9 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>CONCYTEC is the governing body for the National System of Science and Technology and Technological Innovation in Peru, primarily focusing on coordinating, promoting, and evaluating scientific and technological development and innovation across public and private sectors. It does not appear explicitly in national cybersecurity strategies or laws as responsible for cybersecurity policy, implementation, or technical coordination. There is no evidence that CONCYTEC hosts the national CERT (which is under the National Office of Electronic Government and Informatics), leads cybersecurity committees, or oversees information security standards or network protection. While CONCYTEC is involved broadly in science and technology, cybersecurity specific roles such as incident response, policy, or enforcement are handled by other governmental bodies and the National CERT Peru[1][3][4].</t>
+          <t>The Ministry of Education, Tertiary Education, Science and Technology in Mauritius is not explicitly mentioned as the lead or primary agency responsible for national cybersecurity policy, technical coordination, or incident response. The main responsibility for cybersecurity governance, incident response, and national strategy implementation lies with the Ministry of Information Technology, Communication and Innovation, which hosts the Computer Emergency Response Team (CERT-MU) and oversees the National Cybersecurity Committee [1, 2, 3, 6].
+However, the Ministry of Education does play a supporting role in cybersecurity, particularly in the education sector. The National Cybersecurity Strategy 2023-2026 and the Digital Mauritius 2030 Strategic Plan emphasize the importance of cybersecurity education at all levels, including primary, secondary, and tertiary education, and require educational institutions to contribute to the administration and supervision of cybersecurity-related activities [2, 4]. The Ministry is responsible for ensuring that cybersecurity education is included in the curriculum and for fostering a culture of cyber-awareness among students and staff [4].
+Academia, including tertiary education institutions, is also involved in research, development, and training programs for information security professionals as part of the national cybersecurity strategy [5]. Nevertheless, these activities are coordinated and overseen by the Ministry of Information Technology, Communication and Innovation, not the Ministry of Education, which acts in a sectoral and educational capacity rather than a national governance or technical coordination role.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4897,14 +4906,14 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[{'url': 'https://blog.gavindennis.com/cyber-security-in-peru/', 'title': 'Cyber Security in Peru - Blog | Gavin Dennis - Gavin Dennis', 'snippet': "CERT Peru's main job is to help organisations deal with cyberattacks. They do this by sharing information about threats, giving advice on how to ...", 'date': '2024-10-14', 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://www.sbs.gob.pe/Portals/0/jer/PUBLICACIONES/2021/Cybersecurity-report.pdf', 'title': '[PDF] CYBERSECURITY FROM THE PERSPECTIVE OF THE FINANCIAL ...', 'snippet': 'As financial institutions in Peru face the challenge of bringing DFS products to market quickly, cybersecurity considerations are commonly a part of their ...', 'date': None, 'last_updated': '2025-02-09', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/55996/consejo-nacional-de-ciencia-y-tecnologia-concytec', 'title': '️Consejo Nacional de Ciencia y Tecnología (CONCYTEC)', 'snippet': 'Its purpose is to regulate, direct, guide, encourage, coordinate, monitor and evaluate the actions of the State in the field of Science, Technology and ...', 'date': '2021-01-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://resinfra-eulac.eu/jet-popup/concytec/', 'title': 'CONCYTEC – ResInfra European Union – Latin America and the ...', 'snippet': 'CONCYTEC is the governing body of SINACYT, responsible for directing, promoting, coordinating, supervising, and evaluating State actions across the country ...', 'date': '2024-07-12', 'last_updated': '2025-07-10', 'matched': True}, {'url': 'https://www.kaitekiregulacion.pe/en/peru-y-la-nueva-era-de-la-ciber-cooperacion-global-desafios-y-oportunidades-tras-la-convencion-de-la-onu/', 'title': 'Peru and the New Era of Global Cyber Cooperation', 'snippet': 'Peru and the New Era of Global Cyber Cooperation ... obligations arising from international cooperation in the fight against cybercrime.', 'date': '2025-10-04', 'last_updated': None, 'matched': True}, {'url': 'https://alicia.concytec.gob.pe/vufind/Record/REVPJ_599d4406aafee10d229595bd0df8f927', 'title': 'Cybercrime: challenges and difficulties for the administration ... - Alicia', 'snippet': 'Cybercrime: challenges and difficulties for the administration of justice in Peru ... El CONCYTEC no se hace responsable por los contenidos (publicaciones ...', 'date': None, 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://www.surrey.ac.uk/sites/default/files/2024-09/2017_Peru.pdf', 'title': '[PDF] DEFENSE - University of Surrey', 'snippet': 'That, the Political Constitution of Peru establishes in its article. 44, that the primary duties of the State are: to defend national sovereignty, guarantee the ...', 'date': None, 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-peru-per-getting-a-job-in-tech-in-peru-in-2025-the-complete-guide', 'title': 'Getting a Job in Tech in Peru in 2025: The Complete Guide', 'snippet': 'Over 50,000 tech jobs are expected, especially in AI, cloud computing, and cybersecurity. Salaries range from $35,600 to $63,072 annually, with ...', 'date': '2025-06-14', 'last_updated': '2025-07-09', 'matched': True}, {'url': 'https://webfoundation.org/docs/2020/01/Reporte_Peru_Ingles_Digital.pdf', 'title': '[PDF] ARE WE CONNECTED? - World Wide Web Foundation', 'snippet': 'According to CONCYTEC, the percentage of professional women dedicated to science, technology and innovation in Peru reaches 34% of the total number of ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://alicia.concytec.gob.pe/vufind/Record/2662-0286_a12ef62da310a2039ccd41cdfdb562ef', 'title': 'CYBERSECURITY: HOW TO TAKE MEASURES TO PROTECT ...', 'snippet': 'With the implementation of new trends and the impact of digitization, mass data storage represents an appealing target for cyber attackers.', 'date': None, 'last_updated': '2025-03-28', 'matched': True}]</t>
+          <t>[{'url': 'https://www.ohchr.org/sites/default/files/documents/issues/digitalage/cfis/subm-solutions-promote-digital-sta-mauritius.docx', 'title': '[DOC] Mauritius - ohchr', 'snippet': 'Mauritius came up with a new Cybersecurity and Cybercrime Act in December 2021which caters for the emerging threats that can occur in the cyber world and takes ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-2023-2026-of-mauritius', 'title': 'The National Cybersecurity Strategy 2023-2026 of Mauritius', 'snippet': "The strategy aims to bolster law enforcement's technical capabilities, improve incident reporting mechanisms, and foster a culture of collective responsibility ...", 'date': '2024-10-18', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'http://www.ist-africa.org/home/default.asp?page=doc-by-id&amp;docid=5551', 'title': 'Current ICT Initiatives and projects - Mauritius - IST-Africa', 'snippet': 'CERT-MU serves as a focal point in Mauritius for computer security incident reporting and Response. Mauritius is placed 6th globally and first in Africa based ...', 'date': '2013-01-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/mauritius/~technology', 'title': 'Mauritius | Technology - Education Profiles', 'snippet': 'To ensure a safe and secure cyberspace, the 2018 Digital Mauritius 2030 Strategic Plan proposes to tackle cybercrime by strengthening legal ...', 'date': '2023-06-08', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Mauritius_2014_National%20Cyber%20Security%20Strategy%20-%202014%20-%20EN.pdf', 'title': '[PDF] Republic of Mauritius - National Cyber Security Strategy - ITU', 'snippet': 'It is important to provide political guidance and strategic guidelines for cyber security and take necessary decisions regarding the allocation of resources and ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://govmu.org/EN/infoservices/comm/Pages/security.aspx', 'title': 'Cyber Security - Republic of Mauritius', 'snippet': 'The CERT-MU plays a crucial role for coordinating cybersecurity response activities, promoting cybersecurity at national level, monitoring Internet threats and ...', 'date': '2025-09-13', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://cert-mu.govmu.org/cert-mu/?page_id=1700', 'title': 'Cybersecurity Drills – Computer Emergency Response ... - CERT-MU', 'snippet': 'CERT-MU conducts cyber security drills to improve cybersecurity readiness, protection, and incident response capabilities of organisations at regional and ...', 'date': '2023-05-01', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.first.org/resources/papers/aa-dec2021/National-Cyber-Crisis-Management-Plan-Training-slides-Part-3.pdf', 'title': '[PDF] CERT-MU Computer Emergency Response Team of Mauritius', 'snippet': 'CERT-MU is the Computer Emergency Response Team of Mauritius. Contact them at www.cert-mu.org.mu, hotline 800 2378, or contact@cert.ncb.mu.', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.scribd.com/document/684466282/Mauritius', 'title': 'Mauritius | PDF | Computer Security - Scribd', 'snippet': "The mission is to integrate information security into the country's information society. The goals are to: 1) secure cyberspace and defend against cybercrime, 2 ...", 'date': None, 'last_updated': '2024-07-13', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology of the People's Republic of China in CHINA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Mines and Hydrocarbons in EQUATORIAL GUINEA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4912,27 +4921,27 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology of the People's Republic of China in CHINA</t>
+          <t>Ministry of Mines and Hydrocarbons in EQUATORIAL GUINEA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology of the People's Republic of China</t>
+          <t>Ministry of Mines and Hydrocarbons</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Technology of China primarily focuses on science and technology development but is not explicitly identified as a main actor responsible for cybersecurity governance, policy, or enforcement. Chinese cybersecurity responsibilities are chiefly held by the Ministry of Public Security (MPS), the Cyberspace Administration of China (CAC), and the Ministry of Industry and Information Technology (MIIT), which manage cybersecurity policy, critical information infrastructure protection, and related enforcement. The Ministry of State Security (MSS) also plays a role through affiliated entities like CNITSEC in security reviews and intelligence. The Ministry of Science and Technology is not cited in national cybersecurity laws, regulations, or official cybersecurity committees as a leading or major responsible body, nor is it noted as hosting CSCIRT or national cybersecurity coordination functions. Therefore, its cybersecurity responsibility is considered low or indirect at most.[1][2][3][4][5][9]</t>
+          <t>There is no evidence that the Ministry of Mines and Hydrocarbons in Equatorial Guinea is responsible for cybersecurity policy, implementation, technical coordination, or enforcement. The available sources, including the World Bank Digital Economy Country Diagnostic, the Cyber Policy Portal, and the Kearney report on cybersecurity in Africa, do not mention this ministry in relation to cybersecurity responsibilities[1][5][6]. Instead, cybersecurity responsibilities are generally attributed to dedicated agencies, such as a national CERT/CSIRT, or to ministries focused on telecommunications, information technology, or digital transformation[6]. The Ministry of Mines and Hydrocarbons is typically associated with the management of oil, gas, and mineral resources, not with cybersecurity governance or digital infrastructure[1].</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4942,14 +4951,14 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.recordedfuture.com/research/china-cybersecurity-law', 'title': "China's Cybersecurity Law Gives the Ministry of State Security ...", 'snippet': 'The law gives “network information departments,” including CNITSEC, the power to conduct “national security reviews” (see Article 35) of technology that ...', 'date': '2017-08-31', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://digichina.stanford.edu/work/chinese-government-clarifies-cybersecurity-authorities-translation/', 'title': 'Translation: Chinese Government Clarifies Cybersecurity Authorities', 'snippet': 'Cybersecurity responsibilities are to be effectively implemented, cybersecurity management and defense, supervision and guidance, investigation ...', 'date': '2020-09-25', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.twobirds.com/en/insights/2025/china/china-cybersecurity-and-data-protection-monthly-update--october-2025-issue', 'title': 'China Cybersecurity and Data Protection: Monthly Update - Bird &amp; Bird', 'snippet': 'The draft also introduces legal responsibilities for the sale or provision of network critical equipment and cybersecurity products that have ...', 'date': '2025-10-31', 'last_updated': '2025-11-14', 'matched': True}, {'url': "https://en.wikipedia.org/wiki/Cybersecurity_Law_of_the_People's_Republic_of_China", 'title': "Cybersecurity Law of the People's Republic of China - Wikipedia", 'snippet': 'A law formulated in order to: ensure cybersecurity; safeguard cyberspace sovereignty and national security, social and public interests; the lawful rights and ...', 'date': '2020-11-05', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://interpret.csis.org/governing-cybersecurity/', 'title': 'Governing Cybersecurity - Interpret: China - CSIS', 'snippet': 'Cybersecurity situation sensing and emergency response: If task one is to report and collect data, task two is to use government oversight and ...', 'date': '2024-05-20', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/CS_organisation_CHINA_092016_FINAL.pdf', 'title': '[PDF] China and Cyber - CCDCOE', 'snippet': 'In particular, the reports give an overview of the mandate, tasks and competences of the relevant organisations and of coordination between them. The scope of ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.tradecommissioner.gc.ca/en/market-industry-info/search-country-region/country/canada-china-export/china-cybersecurity-regime.html', 'title': "China's cybersecurity regime - Tradecommissioner.gc.ca", 'snippet': "China's cybersecurity regime · It imposes baseline data protection and cybersecurity obligations on network operators, including compliance ...", 'date': '2022-10-22', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.mfa.gov.cn/eng/zy/gb/202405/t20240531_11367255.html', 'title': 'International Code of Conduct for Information Security_Ministry of ...', 'snippet': '3. To cooperate in combating criminal and terrorist activities which use ICTs including networks, and curbing dissemination of information which ...', 'date': '2011-09-12', 'last_updated': '2025-06-09', 'matched': True}, {'url': 'https://www.newamerica.org/cybersecurity-initiative/reports/russia-china-cyber-offensive-latam-caribbean/china-and-cyberspace/', 'title': 'China and Cyberspace - New America', 'snippet': '43 Consequently, the MPS has a substantial role in overseeing network governance within China and plays a key part in maintaining network security. As a result, ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.worldbank.org/en/country/equatorialguinea/publication/equatorial-guinea-digital-economy-country-diagnostic-bridging-the-gaps-to-develop-a-safe-and-inclusive-digital-transform', 'title': 'Equatorial Guinea Digital Economy Country Diagnostic - World Bank', 'snippet': 'In 2021, the National Development Plan 2035 introduced technology and innovation as a cross-cutting theme, putting the digital economy at the ...', 'date': '2024-06-25', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.diplomacy.edu/resource/report-stronger-digital-voices-from-africa/cybersecurity-cybercrime-africa-continental-regional-policies/', 'title': 'Regional cybersecurity and cybercrime policies in Africa', 'snippet': "At the core of AU's cybersecurity initiatives lies the 2014 Convention on Cyber Security and Personal Data Protection (Malabo Convention). Several RECs have ...", 'date': '2024-04-12', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://cybilportal.org/projects/guinea-national-cybersecurity-strategy-development/', 'title': 'Guinea National Cybersecurity Strategy Development - Cybil Portal', 'snippet': 'The aim of this initiative is to address the clear gap in the knowledge and awareness of Latin American and the Caribbean countries on the benefits of e- ...', 'date': '2020-07-03', 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://www.pwc.com/us/en/services/consulting/cybersecurity-risk-regulatory/library/national-cybersecurity-implementation-strategy.html', 'title': 'National Cybersecurity Implementation Strategy - PwC', 'snippet': 'The strategy intends to hold software companies liable for cybersecurity failures. It proposes regulations to protect critical infrastructure.', 'date': '2023-07-24', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Equatorial Guinea. Comoros. Burkina Faso ... A few African countries have already defined their national cybersecurity strategy and implementation road map.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://cyberpolicyportal.org/states/equatorial-guinea', 'title': 'Equatorial Guinea - Cyber Policy Portal', 'snippet': 'Equatorial Guinea - Cyber Policy Portal. Relevant National Centre or Responsible Agency, Key Positions, Dedicated Agencies and Departments, CERT or CSIRT. ...', 'date': None, 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=guinea', 'title': 'Guinea - Cybil Portal', 'snippet': "An overview of Guinea's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here.", 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.statista.com/outlook/tmo/cybersecurity/cyber-solutions/network-security/equatorial-guinea', 'title': 'Network Security - Equatorial Guinea | Market Forecast - Statista', 'snippet': 'Equatorial Guinea is projected to experience a significant growth in revenue within the Network Security market. In 2025, the projected revenue is expected ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.tandfonline.com/doi/full/10.1080/25741292.2023.2199960', 'title': 'Cyber governance in Africa: at the crossroads of politics, sovereignty ...', 'snippet': "The paper examines Africa's extant policies and political strategies for cyber governance, and the region's interaction with international cyber governance ...", 'date': '2023-05-19', 'last_updated': '2025-03-09', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology in IRAQ responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Energy, Telecommunications and Transport (MSETT) in JAMAICA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -4957,27 +4966,27 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology in IRAQ</t>
+          <t>Ministry of Science, Energy, Telecommunications and Transport (MSETT) in JAMAICA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology</t>
+          <t>Ministry of Science, Energy, Telecommunications and Transport (MSETT)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>The available evidence does not indicate that the Ministry of Science and Technology in Iraq is explicitly responsible for national cybersecurity policy, implementation, or technical coordination. Instead, responsibility for cybersecurity is primarily associated with the Ministry of Communications, which is cited as the entity concerned with cyberspace, and there is mention of a need for better coordination between this ministry and others [3]. There is no evidence that the Ministry of Science and Technology hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or is mentioned in national cybersecurity strategies or laws as having a leading role in cybersecurity [2][3]. The Ministry of Education and Ministry of Planning are involved in ICT and digitization in education, but again, not specifically in cybersecurity governance [5]. The Ministry of Interior and National Security Service are involved in responding to cyberattacks and enforcing cybersecurity laws, but not the Ministry of Science and Technology [6]. Therefore, while the ministry may have some tangential involvement in technology and digital infrastructure, there is no evidence of a direct or leading cybersecurity responsibility.</t>
+          <t>The Ministry of Science, Energy, Telecommunications and Transport (MSETT) is responsible for cybersecurity in Jamaica, as it is the ministry with responsibility for ICT, which includes cybersecurity policy and implementation. The National Cybersecurity Strategy of Jamaica (2015) states that the Ministry with responsibility for ICT will lead the implementation of the strategy and develop an implementation plan for cybersecurity initiatives[2]. This ministry oversees the development and execution of technical measures, human resource capacity building, legal and regulatory frameworks, and public education related to cybersecurity[2]. Additionally, the Ministry is responsible for establishing and supporting the national Computer Incident Response Team (CIRT), which is tasked with monitoring threats and responding to cyber incidents[2][4]. The Ministry's leadership is also evident in public statements and events, such as the opening of the Guardsman Cyber Intelligence Security Operations Centre, where the Prime Minister highlighted the government's commitment to cybersecurity through its national strategy and CIRT, both under the purview of the ICT ministry[1].</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4987,14 +4996,14 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ijsu.researchcommons.org/cgi/viewcontent.cgi?article=1108&amp;context=ijsu', 'title': '[PDF] The Role of Cyber Threats in Shaping National Security in Iraq', 'snippet': 'Iraq should adopt a national cybersecurity strategy to safeguard national security and protect the Iraqi state in cyberspace. 2. Cybersecurity ...', 'date': '2025-05-13', 'last_updated': '2025-05-24', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/iq/', 'title': 'NCSI :: Iraq - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2023-11-29', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://www.sysrevpharm.org/articles/relationship-of-cybersecurity-and-the-national-security-of-the-country-iraq-case-study.pdf', 'title': '[PDF] Relationship of Cybersecurity and the National Security of the Country', 'snippet': 'It can be inferred that the Iraqi ministries have been compromised, Iraq lags behind in the global cybersecurity index, ranked. 107th internationally in 2018, ...', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://uoalkitab.edu.iq/department-of-cybersecurity-technical-engineering-en/', 'title': 'Department Of Cybersecurity Technical Engineering', 'snippet': 'Our department focuses on equipping students to meet the cybersecurity challenges faced by both public and private sectors, including government agencies, ...', 'date': '2025-07-12', 'last_updated': '2025-08-08', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/iraq/~technology', 'title': 'Iraq | Technology - Education Profiles', 'snippet': 'ICT is defined as “New tools and processes of accessing and processing information, as well as communicating it based on electronic means.', 'date': '2024-02-15', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://jummar.media/en/9299', 'title': 'Artificial intelligence in Iraq: Between digital ambitions and fragile ...', 'snippet': 'But in reality, Iraqi government websites — especially those related to security and intelligence — have proven fragile. Many use free domains ...', 'date': '2025-08-07', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://iraq.un.org/en/303623-digital-empowerment-iraq-bridging-education-employment-and-entrepreneurship', 'title': 'Digital Empowerment in Iraq: Bridging Education, Employment, and ...', 'snippet': 'The technical sessions were led by four experienced trainers in computer networking and cybersecurity. They were supported by national experts ...', 'date': '2025-10-20', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://ina.iq/en/local/43586-the-defense-ministry-announces-use-of-cybersecurity-ai-in-the-election-security-plan.html', 'title': 'The Defense Ministry announces use of cybersecurity and AI in the ...', 'snippet': 'The Defense Ministry announces use of cybersecurity and AI in the election security plan. Today, 15:02.', 'date': '2025-11-12', 'last_updated': None, 'matched': True}, {'url': 'https://www.undp.org/sites/g/files/zskgke326/files/2023-06/undp_iq_digital_landscape_assessment_en.pdf', 'title': '[PDF] Digital Landscape Assessment of Iraq', 'snippet': "This report assesses Iraq's digital landscape, including a Rapid Integrated Assessment, Digital Maturity Assessment, and Accelerator/Bottleneck ...", 'date': '2023-06-07', 'last_updated': '2024-04-03', 'matched': True}]</t>
+          <t>[{'url': 'https://jis.gov.jm/govt-fortifying-jamaicas-cybersecurity-resilience/', 'title': "Gov't Fortifying Jamaica's Cybersecurity Resilience", 'snippet': "The Government is enhancing Jamaica's cybersecurity resilience through a comprehensive strategy that strengthens prevention, detection, and response ...", 'date': '2025-05-14', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://dig.watch/resource/national-cyber-security-strategy-of-jamaica', 'title': 'National cybersecurity strategy of Jamaica | Digital Watch Observatory', 'snippet': "Shared responsibilities: Encouraging all users to secure their own IT systems. Protection of fundamental rights and freedom: Ensuring citizens' rights are not ...", 'date': '2025-08-05', 'last_updated': '2025-08-07', 'matched': True}, {'url': 'https://moj.gov.jm/sites/default/files/careers/Job%20Profile%20-%20Manager%20ICT%20Security.pdf', 'title': '[PDF] CIVIL SERVICE OF JAMAICA JOB DESCRIPTION AND ...', 'snippet': '• Cyber security strategies managed in accordance with established guidelines, agreements and timeframes;. • ICT Infrastructure and Applications Audited in ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.cirt.gov.jm/page/risk-management', 'title': 'Risk Management - Jamaica Cyber Incident Response Team', 'snippet': 'The Jamaica CIRT division is responsible for continuously monitoring threats and reporting them to the relevant stakeholders. The division tracks threats across ...', 'date': None, 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://opm.gov.jm/strong-national-push-on-cybersecurity-as-jamaica-observes-cybersecurity-awareness-month/', 'title': 'Strong National Push on Cybersecurity as Jamaica Observes ...', 'snippet': 'The Government of Jamaica signals a strong commitment to tackling cyber threats with a month-long series of activities to mark Cybersecurity ...', 'date': '2025-10-01', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Scientific Research and Technological Innovation in DEMOCRATIC REPUBLIC OF THE CONGO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in KENYA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5002,27 +5011,27 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ministry of Scientific Research and Technological Innovation in DEMOCRATIC REPUBLIC OF THE CONGO</t>
+          <t>Ministry of Education, Science and Technology in KENYA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ministry of Scientific Research and Technological Innovation</t>
+          <t>Ministry of Education, Science and Technology</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>The Ministry of Scientific Research and Technological Innovation in the Democratic Republic of the Congo is not mentioned in any national strategy, law, or official report as responsible for cybersecurity policy, implementation, or coordination. The Digital Code law of 2023 and related official documents consistently designate the Ministry of Digital Affairs, the Agence Nationale de Cybersécurité (ANC), and the Autorité de Régulation des Postes, Télécommunications et Technologies de l’Information et de la Communication (ARPTIC) as the key institutions managing cybersecurity governance, regulation, and enforcement. The Ministry of Scientific Research and Technological Innovation is not cited as hosting a national CERT/CSIRT, participating in cybersecurity committees, or leading cybersecurity initiatives. Digital and cybersecurity programs and collaborations with international partners such as Cisco are overseen by ministries related to digital affairs and youth, not this ministry. Therefore, based on authoritative sources, this ministry does not hold cybersecurity governance responsibilities in the DRC.[1][3][4][5][6][7]</t>
+          <t>The Ministry of Education, Science and Technology in Kenya has established and enforces ICT security policies internally to safeguard its operations, including rules on data security, access control, and employee ICT skills development[1]. It also promotes cybersecurity capacity building, research, and awareness in education as part of the national cybersecurity strategy's goals[4]. However, the ministry is not explicitly charged with national cybersecurity governance, policy formulation, implementation, or technical coordination. These higher-level roles are primarily assigned to the Ministry of ICT, Innovation and Youth Affairs, which leads the national cybersecurity strategy, coordinates national CERT/CSIRT (KE-CIRT), and engages in multi-agency cybersecurity governance and enforcement efforts[3][5]. Additionally, national cybersecurity laws and strategies emphasize cross-ministerial collaboration, but the Ministry of Education focuses mainly on ICT security within education and training contexts rather than overarching cybersecurity governance or enforcement[2][7]. Thus, while involved in cybersecurity capacity development and internal ICT security, the Ministry of Education is not a principal responsible body for Kenya’s national cybersecurity governance or critical incident response.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5032,14 +5041,14 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/democratic-republic-of-the-congos-digital-code', 'title': "Democratic Republic of the Congo's digital code", 'snippet': 'It establishes a legal framework for digital activities, services, infrastructure, cybersecurity, electronic transactions, and data protection in the country.', 'date': '2025-06-27', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cd/', 'title': 'Congo (Democratic Republic of the) - NCSI', 'snippet': 'The central government has established a national-level cybersecurity strategy defining strategic cybersecurity objectives and measures to improve cybersecurity ...', 'date': '2025-07-15', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://www.dlapiperdataprotection.com/index.html?t=law&amp;c=CD', 'title': 'Data protection laws in the Democratic Republic of Congo', 'snippet': 'The protection of personal data is included in the law establishing the digital code N°23-010 of 13 March 2023 and published in the official ...', 'date': '2025-01-06', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.uneca.org/eca-events/democratic-republic-congos-capacity-building-and-validation-workshops-national-data-governance', 'title': "Democratic Republic of Congo's Capacity-Building and Validation ...", 'snippet': 'The DRC has shown strong leadership and commitment to advancing its national data governance agenda through the elaboration of its National Data ...', 'date': '2025-11-11', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://bankable.africa/en/digital/3009-1752-drc-to-invest-1-billion-in-digital-transformation-by-2030', 'title': 'DRC to Invest $1 Billion in Digital Transformation by 2030 - bankable', 'snippet': 'President Félix Tshisekedi pledged $1 billion in public spending from 2026–2030 to implement the new national digital plan.', 'date': '2025-09-30', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://govinsider.asia/intl-en/article/a-giant-in-africa-takes-baby-steps-in-digital-government', 'title': 'A giant in Africa takes baby steps in digital government - GovInsider', 'snippet': "DRC's Minister of Post, Telecommunications and Digital Affairs, H.E. Augustin Kibassa Maliba, shares about the country's digitalisation ...", 'date': '2025-04-28', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/2909-49081-the-drc-cisco-and-cybastion-launch-a-plan-to-train-250-000-in-tech-skills', 'title': 'The DRC, Cisco and Cybastion Launch a Plan to Train 250,000 in ...', 'snippet': 'DRC, Cisco, Cybastion to train 250000 youth in digital skills• Program covers cybersecurity, coding, entrepreneurship, and job placement• ...', 'date': '2025-09-29', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.dataguidance.com/jurisdictions/democratic-republic-of-congo', 'title': 'Democratic Republic of Congo | Jurisdictions - DataGuidance', 'snippet': 'The Democratic Republic of Congo is yet to enact a general data protection law. However, the Constitution of the DRC (only available in French here) prescribes ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.worldbank.org/en/news/factsheet/2024/06/27/inclusive-digitalization-in-eastern-and-southern-africa-program-democratic-republic-of-congo-afe-drc', 'title': 'Inclusive Digitalization in Eastern and Southern Africa Program', 'snippet': 'The DRC Digital Transformation Project under IDEA aims to increase inclusive access and use of the internet and strengthen the foundations ...', 'date': '2024-06-27', 'last_updated': '2025-10-16', 'matched': True}]</t>
+          <t>[{'url': 'https://www.education.go.ke/sites/default/files/2022-05/ict-security-policy-system-controls-and-security-policies.pdf', 'title': '[PDF] ICT SECURITY POLICY CONTROLS - Ministry of Education', 'snippet': 'Inventory of computers shall be reviewed and updated continuously. Ministry of Education Science and Technology employees must possess basic computer skills.', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/kenya/~technology', 'title': 'Kenya | Technology - Education Profiles', 'snippet': "The 2014 Cybersecurity Strategy defines Kenya's cybersecurity vision, key objectives, and ongoing commitment to support national priorities by ...", 'date': '2023-05-22', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.interior.go.ke/sites/default/files/2024-05/L-897-KENYA-CYBERSECURITY-STRATEGY-6_220922_103959_220930_161437.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY', 'snippet': "GoK will spearhead its main responsibility of defending the Republic of Kenya's cyberspace from all threats, to protect Kenyan citizens and the economy from ...", 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ipi.media/wp-content/uploads/2025/05/National-Cybersecurity-Strategy-2025-2029-Draft-upload.pdf', 'title': '[PDF] DRAFT KENYA CYBERSECURITY STRATEGY, 2025 - 2029', 'snippet': 'Ministry of Education ... Goal: To develop cybersecurity capacity. Objective: To increase cybersecurity expertise, education, research and awareness across the ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.sicurezzacibernetica.it/db/%5BKenya%5D%20National%20Cyber%20Security%20Strategy%20-%202014%20-%20EN.pdf', 'title': '[PDF] [Kenya] National Cyber Security Strategy - 2014 - EN.pdf', 'snippet': "GoK will continue to refine its cybersecurity governance model, define steady state and incident response roles and responsibilities, and expand KE-CIRT's ...", 'date': None, 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://allthingsprogramming.com/what-the-new-ministry-of-education-ict-policy-means-for-your-school/', 'title': 'What the New Ministry of Education ICT Policy Means for Your School', 'snippet': "The ICT policy outlines strict measures to safeguard student and school data and ensure compliance with Kenya's data protection laws. It also ...", 'date': '2025-10-15', 'last_updated': None, 'matched': True}, {'url': 'https://www.education.go.ke/sites/default/files/2023-01/ICT%20IN%20EDUCATION%20AND%20TRAINING%20POLICY%202021.pdf', 'title': '[PDF] ICT IN EDUCATION AND TRAINING POLICY 2021.pdf', 'snippet': 'Ministry of Education: Policy on Information ... The Kenya Vision 2030 has emphasised science, technology and innovation as the key levers.', 'date': '2023-01-16', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.kictanet.or.ke/?mdocs-file=40195', 'title': '[PDF] Cybersecurity in Kenya – Priorities for 2019', 'snippet': 'The overall objective of the roundtable was; to increase local stakeholder awareness of cybersecurity issues, and to identify common cybersecurity ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/kenya', 'title': 'Data protection and cybersecurity laws in Kenya | CMS Expert Guide', 'snippet': 'Data protection in Kenya is regulated by the Data Protection Act No. 24 of 2019 (the "DPA"). The DPA came into effect on 25 November 2019.', 'date': '2022-03-11', 'last_updated': '2025-06-21', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology (MINCYT) in VENEZUELA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Federal Ministry of Innovation, Science and Technology (FMIST) in NIGERIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5047,27 +5056,27 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology (MINCYT) in VENEZUELA</t>
+          <t>Federal Ministry of Innovation, Science and Technology (FMIST) in NIGERIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology (MINCYT)</t>
+          <t>Federal Ministry of Innovation, Science and Technology (FMIST)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Technology (MINCYT) in Venezuela is explicitly responsible for cybersecurity. It is mentioned as the entity that suggested the creation of the National Cybersecurity Council, which was established by presidential decree to strengthen the country's technological platforms and respond to cyber threats [3]. MINCYT is also a member of the National Cybersecurity Council, which is tasked with developing cybersecurity policies, promoting training programs, and establishing surveillance networks for telematic incidents [1][2][7]. The ministry hosts the National Cybersecurity Plan, whose protocol was activated for the mitigation of cyberattacks, indicating its central role in both policy and technical coordination [3]. MINCYT's involvement in the council and its leadership in national cybersecurity initiatives confirm its high level of responsibility for cybersecurity governance, prevention, planning, and response in Venezuela [1][2][3][7].</t>
+          <t>The Federal Ministry of Innovation, Science and Technology (FMIST) is primarily responsible for driving Nigeria's socio-economic development through science, innovation, and technology initiatives but is not explicitly identified as responsible for national cybersecurity policy, coordination, or enforcement. Cybersecurity responsibilities in Nigeria are mainly assigned to other bodies, such as the Office of the National Security Adviser (which hosts the National Cybersecurity Coordination Center and ngCERT), the National Information Technology Development Agency (NITDA), and the Nigerian Communications Commission (NCC) under the Federal Ministry of Communications, Innovation and Digital Economy, which manages the NCC CSIRT. The FMIST’s mandate does not include hosting a national CERT, leading cybersecurity enforcement, or being prominently mentioned in the national cybersecurity strategy and policy documents as a cybersecurity lead agency or focal point. Thus, FMIST's role in cybersecurity governance or direct prevention, planning, or enforcement is minimal or indirect at best.[1][2][4][6][7][8]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5077,14 +5086,14 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>[{'url': 'https://bentata.com/venezuela-establishes-national-cybersecurity-council/', 'title': 'Venezuela Establishes National Cybersecurity Council - Bentata', 'snippet': 'Developing cybersecurity policies and regulations aimed at preventing the misuse of information and communication technologies for criminal ...', 'date': '2024-08-12', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://tvbrics.com/en/news/venezuela-creates-national-cyber-security-council/', 'title': 'Venezuela creates National Cyber Security Council - TV BRICS', 'snippet': "The Council's main functions include establishing a telematic incident supervision network, promoting cyber security training programmes, ...", 'date': '2024-08-25', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://mronline.org/2024/08/20/cyber-attacks-against-venezuela-their-scope-and-technical-dimensions/', 'title': 'Cyber-attacks against Venezuela: Their scope and technical ...', 'snippet': 'Cybersecurity has become a central element in Venezuela, in a context where computer attacks have not ceased since the presidential ...', 'date': '2024-08-20', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ve/', 'title': 'NCSI :: Venezuela - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2025-08-15', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://orinocotribune.com/venezuela-launches-national-cybersecurity-council/', 'title': 'Venezuela Launches National Cybersecurity Council', 'snippet': 'The president of Venezuela, Nicolás Maduro, signed a decree for the creation of the National Cybersecurity Council of Venezuela to confront cyber attacks.', 'date': '2024-08-13', 'last_updated': None, 'matched': True}, {'url': 'https://www.accessnow.org/a-bill-in-venezuela-seeks-to-give-the-government-absolute-control-over-the-internet/', 'title': 'A bill in Venezuela seeks to give the government absolute control ...', 'snippet': 'A proposed cybersecurity bill in Venezuela puts the digital rights of Venezuelans — and the entire internet in the country — in jeopardy.', 'date': '2019-01-17', 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/latin-america/venezuela/topics/key-data-and-cybersecurity-laws', 'title': 'Key Data &amp; Cybersecurity Laws | Global Data and Cyber Handbook', 'snippet': 'The National Cybersecurity Council of Venezuela was established on 12 August 2024 to protect the nation from cybersecurity attacks. Additionally, there is a ...', 'date': '2019-06-01', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://eslared.net/sites/default/files/2021-12/principles_internet_governance_Venezuela_diagnosis_and_roadmap_vfinal.pdf', 'title': '[PDF] PRINCIPLES FOR INTERNET GOVERNANCE, DEMOCRATIC AND ...', 'snippet': 'This section shows a series of aspects related to IG in Venezuela from a strategic, operational and legal point of view, which allow us to find ...', 'date': '2021-12-01', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=RxAzDZMakho', 'title': 'Venezuelan President signs decree to create National Commission ...', 'snippet': '... Cybersecurity, during the meeting of the Defense Council, where the ... The collapse of Venezuela, explained. Vox•8.7M views · 29:27. Go to ...', 'date': '2024-08-13', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://nitda.gov.ng/department/cyber-security/', 'title': 'Cyber Security - NITDA', 'snippet': 'Functions · Track local and global cyber activities/programmes/incidences/research, analyze and share findings and mitigations with Nigerians; · Develop policies ...', 'date': '2024-11-01', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/5014254/Nigerian-Government-National-Cybersecurity.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY POLICY', 'snippet': 'Provide coordination and implementation of cybercrime counter- measures for law enforcement and security agencies.', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://rsisinternational.org/journals/ijriss/articles/protecting-critical-infrastructure-in-nigeria-a-framework-for-integrated-cybersecurity-approach/', 'title': 'Protecting Critical Infrastructure in Nigeria: Cybersecurity Framework', 'snippet': "This paper proposes an integrated cybersecurity framework optimised for Nigeria's critical infrastructure protection. The framework leverages ...", 'date': '2025-07-31', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cert.gov.ng/ngcert/resources/draft-action-plan-ncss.pdf', 'title': '[PDF] action plan for implementation of the national cybersecurity strategy', 'snippet': 'Establishment of Nigerian Computer Emergency Response Team (ngCERT), which serves as the Coordination Centre responsible managing for managing cyber incidents ...', 'date': None, 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://sherloc.unodc.org/cld/uploads/res/treaties/strategies/nigeria/nga0001s_html/NATIONAL_CYBESECURITY_STRATEGY.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY POLICY - UNODC Sherloc', 'snippet': 'It is the cardinal objective of this National Cybersecurity Policy to complement the efforts of the Federal Government of Nigeria on the existing plans and ...', 'date': None, 'last_updated': '2025-04-03', 'matched': True}, {'url': 'https://fmcide.gov.ng/about/', 'title': 'About Us | The Federal Ministry of Communications, Innovation and ...', 'snippet': 'At our core, we exist to catalyze a technological revolution. Our mission is clear: we leverage the power of Information and Communication Technology (ICT) to ...', 'date': '2024-01-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncc.gov.ng/consumers/cybersecurity', 'title': 'CyberSecurity - NCC', 'snippet': '... Federal Ministry of Communications, Innovation &amp; Digital Economy is mandated to work with all stakeholders to ensure a secure cyberspace that is safe for ...', 'date': '2025-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://scienceandtech.gov.ng', 'title': 'Federal Ministry of Innovation, Science and Technology: FMIST', 'snippet': "The Federal Ministry of Innovation, Science and Technology (FMIST) plays a pivotal role in driving Nigeria's socio-economic development.", 'date': '2025-10-30', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ijcaonline.org/archives/volume186/number55/cybersecurity-and-it-governance-challenges-in-nigeria-strategic-investment-needs-and-the-path-forward-for-a-resilient-digital-economy/', 'title': 'Cybersecurity and IT Governance Challenges in Nigeria', 'snippet': "This paper addresses Nigeria's critical cybersecurity challenges and the urgent need for strategic investment to safeguard its digital economy.", 'date': '2024-12-27', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://mist.lagosstate.gov.ng/about', 'title': 'Ministry of Innovation: Creating a Tech-Driven Lagos', 'snippet': 'Initiate, formulate, execute, monitor and evaluate policies relating to Science &amp; Information Communication Technology (ICT).', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Communications, Knowledge and Technology in BOTSWANA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Science in NORTH MACEDONIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5092,27 +5101,27 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ministry of Communications, Knowledge and Technology in BOTSWANA</t>
+          <t>Ministry of Education and Science in NORTH MACEDONIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Ministry of Communications, Knowledge and Technology</t>
+          <t>Ministry of Education and Science</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>The Ministry of Communications, Knowledge and Technology in Botswana is explicitly responsible for cybersecurity policy, strategy, and coordination. According to the National Cyber Security Index (NCSI), there is an entity with clearly assigned responsibility to lead and coordinate national cybersecurity awareness activities, and this is attributed to the Ministry of Communications, Knowledge and Technology[1]. The Ministry's mandate includes providing leadership and overall policy development, strategy, and standards on communications, knowledge utilization, research, science, and technology, which encompasses information technology policy and infrastructure[2]. The Ministry is also responsible for the national-level development and oversight of cybersecurity strategy, as well as the implementation and periodic review of such strategies[1]. Furthermore, the Ministry is mentioned in official reports as reinforcing Botswana's cybersecurity commitment through national awareness initiatives and legislation, indicating active involvement in both policy and implementation[3].</t>
+          <t>The Ministry of Education and Science in North Macedonia is involved in the educational aspects of cybersecurity, such as integrating cybersecurity skills into curricula and organizing capacity building and awareness activities for students and teachers. However, it is not explicitly identified as responsible for cybersecurity governance, policy implementation, or technical coordination at the national level. Core cybersecurity responsibilities, including policy leadership, governance structure, and operational cybersecurity capacities, reside primarily with the Ministry of Digital Transformation and the Ministry of Information Society and Administration, as outlined in national cybersecurity strategies and official documents. The Ministry of Education and Science supports cybersecurity through education and training initiatives but does not lead or coordinate national cybersecurity efforts or host key cybersecurity bodies such as CERT/CSIRT. This assessment is based on information from multiple sources including the 2021-2025 National ICT Strategy, the Cybersecurity Strategy 2025-2028, and reports on education and cybersecurity in North Macedonia[1][2][4][5][7].</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5122,14 +5131,14 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/bw/', 'title': 'NCSI :: Botswana - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-05-15', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'http://gov.bw/ministries/ministry-communications-knowledge-and-technology', 'title': 'Ministry of Communications, Knowledge and Technology', 'snippet': 'The Ministry of Communications, Knowledge and Technology is responsible for providing leadership and overall policy development, strategy and standards.', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.tjgtqc.com/news/do-what-a-responsible-country-do?s-news-4879115-2025-11-03-botswana-reinforces-cybersecurity-commitment-with-national-awareness-initiatives-and-legislation', 'title': 'Botswana Reinforces Cybersecurity Commitment with National ...', 'snippet': 'This legislation aims to establish a comprehensive legal framework to address cybercrimes, provide guidelines for data protection, and define ...', 'date': '2025-11-03', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/north-macedonia/~technology', 'title': 'North Macedonia | Technology - Education Profiles', 'snippet': 'The Ministry of Information Society and Administration is mandated to promote digital development at the country level. The Ministry engages ...', 'date': '2025-01-17', 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://dig.watch/resource/cybersecurity-strategy-2025-2028-of-the-republic-of-north-macedonia', 'title': 'Cybersecurity Strategy 2025–2028 of the Republic of North ...', 'snippet': "The Cybersecurity Strategy 2025–2028 is positioned as a core pillar of North Macedonia's national security, digital transformation, and societal resilience.", 'date': '2025-09-05', 'last_updated': '2025-09-06', 'matched': True}, {'url': 'https://portal.mdt.gov.mk/post-body-files/strategija-za-sajber-bezbednost-file-KiRF.pdf', 'title': '[PDF] Minimum Mandatory Cyber Security Standards for Government ...', 'snippet': 'These minimum cybersecurity standards consist of baseline cybersecurity requirements, guidelines and practices to implement in North Macedonia ...', 'date': '2025-01-26', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://knowcyber.eu/cybersecurity-in-north-macedonia/', 'title': 'Cybersecurity in North Macedonia - KnowCyber', 'snippet': 'North Macedonia demonstrates a higher level of responsive cybersecurity, closely followed by strategic cybersecurity and a lower level of preventive ...', 'date': '2025-05-08', 'last_updated': '2025-05-29', 'matched': True}, {'url': 'https://sherloc.unodc.org/cld/uploads/res/treaties/strategies/macedonia_the_former_yugoslav_republic_of/mkd0002s_html/ap_cybersec_v1.13_eng.pdf', 'title': '[PDF] National Cyber Security Strategy 2018-2022 Action Plan 2018-2022', 'snippet': 'The responsibilities of this working group will be extended in order to include the implementation of the activities of the Body with operational cyber security.', 'date': None, 'last_updated': '2025-02-03', 'matched': True}, {'url': 'https://gordoninstitute.fiu.edu/cybersecurity-policy/training/international-capacity-building/workforce-deficiencies-assessment-north-macedonia.pdf', 'title': '[PDF] CRITICAL INFRASTRUCTURE DIGITALIZATION AND RESILIENCE', 'snippet': 'To systematically assess the current need for cybersecurity personnel, the FIU and CIDR/North. Macedonia teams designed a questionnaire to ...', 'date': '2023-11-09', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.analyticamk.org/images/2024/Cyber/_WEB_Cyber_EN__.pdf', 'title': '[PDF] Handbook for development of cyber security culture in the ...', 'snippet': 'The Handbook is intended for a wide group of stakeholders in North. Macedonia who work in the field of cyber security of students, prevention of ...', 'date': '2024-03-05', 'last_updated': '2025-04-17', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/NS%20Cyber%20Security%202018-2022_ENG.pdf', 'title': '[PDF] REPUBLIC OF MACEDONIA REPUBLIC OF MACEDONIA ... - ITU', 'snippet': 'Strengthening the national capacities for prevention and protection of cyber attacks, as well as conducting activities in order to raise the ...', 'date': '2019-01-30', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://mdt.gov.mk/en-GB/regulativa/strategija-za-sajber-bezbednost', 'title': 'Cybersecurity Strategy - Regulation - Republic of North Macedonia', 'snippet': "Within the process of the state's digital transformation, the security of information systems (cybersecurity) represents a key national priority for protecting ...", 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mk_2022/?allData=1', 'title': 'NCSI :: North Macedonia - National Cyber Security Index', 'snippet': 'GENERAL CYBER SECURITY INDICATORS · Requirements · Evidence · Requirements · Evidence · Requirements · Evidence · Requirements · Evidence.', 'date': '2023-05-03', 'last_updated': '2024-12-01', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology in PAKISTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Sports and Creative Industries in ANTIGUA AND BARBUDA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5137,17 +5146,17 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology in PAKISTAN</t>
+          <t>Ministry of Education, Sports and Creative Industries in ANTIGUA AND BARBUDA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology</t>
+          <t>Ministry of Education, Sports and Creative Industries</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5157,8 +5166,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Technology in Pakistan is not explicitly mentioned in the National Cyber Security Policy 2021 or related official documents as having primary responsibility for cybersecurity policy, implementation, or technical coordination[1][4][5]. The Ministry of Information Technology &amp; Telecom (MoITT) is designated as the lead entity for cybersecurity governance, policy formulation, and implementation, including the establishment of the Cyber Governance Policy Committee and the central authority for cybersecurity matters[1][4][5]. The MoITT also oversees the National Computer Emergency Response Team (nCERT) and the National Security Operation Center (nSOC), which are central to national cybersecurity response and coordination[4][6][7].
-There is no evidence that the Ministry of Science and Technology hosts a national CERT/CSIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or is responsible for network protection or cybersecurity enforcement in Pakistan[1][4][5]. The policy and related reports emphasize the roles of MoITT, PTA, and other sector-specific entities, but do not assign cybersecurity responsibilities to the Ministry of Science and Technology[1][4][5].</t>
+          <t>The Ministry of Education, Sports and Creative Industries in Antigua and Barbuda is involved in cybersecurity primarily through the integration of ICT and cyber safety into the education system. The Ministry is responsible for developing policies and curricula that include cyber safety competencies at both primary and secondary levels, as well as promoting awareness of cyberbullying and online safety within schools[1][2]. The Ministry also participates in public awareness campaigns and workshops related to cybersecurity for students and staff[2][9]. However, there is no evidence that the Ministry is responsible for national cybersecurity policy, technical coordination, incident response, or enforcement. The primary responsibility for national cybersecurity strategy, incident response, and technical coordination appears to lie with the Ministry of ICT and its Cyber-Security Unit, which leads awareness campaigns and advises on online safety at the national level[6][8]. The Ministry of Education's role is thus limited to education and awareness within the school system, rather than broader national cybersecurity governance or technical functions.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5168,14 +5176,14 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>[{'url': 'https://moitt.gov.pk/SiteImage/Misc/files/National%20Cyber%20Security%20Policy%202021%20Consultation%20Draft(1).pdf', 'title': '[PDF] National CYBER SECURITY POLICY 2021', 'snippet': 'To mitigate cyber threats the country faces today and to improve the national cyber security outlook, it is imperative to undertake the ...', 'date': '2021-01-25', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://portswigger.net/daily-swig/pakistan-government-approves-new-cybersecurity-policy-cybercrime-agency', 'title': 'Pakistan government approves new cybersecurity policy, cybercrime ...', 'snippet': "Pakistan's new cybersecurity policy will include a new governance and institutional framework for a 'secure cyber ecosystem', along with ...", 'date': '2021-08-05', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.ibanet.org/Developing-cybersecurity-framework-in-Pakistan', 'title': 'The developing cybersecurity framework in Pakistan', 'snippet': 'Its role is to respond to any threat against or attack on critical infrastructure information systems or critical infrastructure data, or ...', 'date': '2023-03-27', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://moitt.gov.pk/SiteImage/Misc/files/National%20Cyber%20Security%20Policy%202021%20Final.pdf', 'title': '[PDF] National CYBER SECURITY POLICY 2021', 'snippet': 'The Ministry of IT &amp; Telecom, in consultation with the Central Entity, will: •. Work with all international partners such as ITU-IMPACT etc. •. Maintain ...', 'date': None, 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://www.isaca.org/resources/news-and-trends/industry-news/2021/pakistans-cybersecurity-policy-in-2021-a-review', 'title': 'Industry News 2021 Pakistans Cybersecurity Policy in 2021 A Review', 'snippet': "Pakistan's cybersecurity policy effectively addresses capacity building and the need for research, development and public-private partnership. ...", 'date': '2021-11-08', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://www.idealsols.com/pakistan-computer-emergency-response-team-pcert/', 'title': 'What Is Pakistan Computer Emergency Response Team PCERT?', 'snippet': "Think of PCERT as Pakistan's cybersecurity front line. It's a national team that works around the clock to spot, stop, and fix cyber threats.", 'date': '2025-01-05', 'last_updated': '2025-04-11', 'matched': True}, {'url': 'https://pkcert.gov.pk/csgov.asp', 'title': 'Cyber Secure Gov - PKCERT - The National CERT of Pakistan', 'snippet': 'Educates officials on securing communication channels, protecting classified information, and implementing encryption techniques for data security. Who ...', 'date': '2025-05-08', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.stimson.org/2025/how-does-international-law-byte-into-pakistans-cyber-governance/', 'title': "How Does International Law Byte into Pakistan's Cyber Governance?", 'snippet': "Pakistan's cybersecurity strategy reflects a core tension: protecting state sovereignty while respecting international norms.", 'date': '2025-06-24', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/pakistan-cybersecurity', 'title': 'Pakistan - Cybersecurity - International Trade Administration', 'snippet': 'Overview · Develop and establish a broad governance framework, that addresses the importance of critical information systems infrastructure.', 'date': '2024-01-12', 'last_updated': '2025-11-13', 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/ag/', 'title': 'NCSI :: Antigua and Barbuda - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-15', 'last_updated': '2025-04-08', 'matched': True}, {'url': 'https://education-profiles.org/latin-america-and-the-caribbean/antigua-and-barbuda/~technology', 'title': 'Antigua and Barbuda | Technology - Education Profiles', 'snippet': 'The Government of Antigua and Barbuda is committed to integrating ICT into its education system in ways that directly advance these key strategic priorities.', 'date': '2025-01-17', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-antigua-and-barbuda/', 'title': 'Cyber Security in Antigua and Barbuda - Blog | Gavin Dennis', 'snippet': 'Antigua and Barbuda has laws that address cybercrime. The Computer Misuse Act criminalises unauthorised access to computer systems, data theft, and spreading ...', 'date': '2024-10-19', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://caribbeanmilitaryacademy.edu.jm/Cybersecurity_Training_Needs_Assessment_2022.pdf', 'title': '[PDF] Caribbean Regional Cybersecurity Training Needs Analysis', 'snippet': 'This report informs the development of a Cyber Academy to create cybersecurity professionals and serve as a resource for the Caribbean, with recommendations ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://rysfarthing.com/wp-content/uploads/2023/08/abreportfinal202303.pdf', 'title': '[PDF] The Digital Future of Antigua &amp; Barbuda', 'snippet': 'The Government of Antigua and Barbuda is committed to integrating ICT into its education system in ways that directly advance these key strategic priorities ...', 'date': None, 'last_updated': '2024-12-28', 'matched': True}, {'url': 'https://antigua.news/2025/10/17/cyber-security-unit-shares-tips-on-securing-devices-during-awareness-month/', 'title': 'Cyber-Security Unit shares tips on securing devices during ...', 'snippet': "The Cyber-Security Unit within the Ministry of ICT's is continuing to advise persons on creating a safe environment online.", 'date': '2025-10-17', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://abstvradio.com/ministry-of-education-to-assume-full-responsibility-of-security-for-all-schools/', 'title': 'Ministry of Education to assume full responsibility of security for all ...', 'snippet': 'The Ministry of Education has begun the process of assuming full responsibility of security for all schools.', 'date': '2015-12-16', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://antiguaobserver.com/cyber-alert-security-director-warns-human-factor-is-weakest-link/', 'title': 'Cyber Alert: Security director warns human factor is weakest link', 'snippet': "The local director of Cyber Security has raised an urgent warning that the “human factor” remains the most vulnerable point in the nation's ...", 'date': '2025-10-15', 'last_updated': None, 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': "Government of Antigua and Barbuda, press release, “Ministry Holds Cyber. Security Awareness Workshop for Employees”, St. John's. January 5, 2012, http://www ...", 'date': None, 'last_updated': '2024-04-30', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Culture in TIMOR-LESTE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC) in TONGA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5183,27 +5191,27 @@
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Culture in TIMOR-LESTE</t>
+          <t>Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC) in TONGA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Culture</t>
+          <t>Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>There is no indication from national cybersecurity strategies, laws, official reports, or government sources that the Ministry of Higher Education, Science and Culture in Timor-Leste holds responsibility for cybersecurity governance, policy implementation, or technical coordination. Timor-Leste currently lacks a designated national agency for cybersecurity, and cybersecurity initiatives and responsibilities appear distributed among other government entities such as the Minister for the Presidency of the Council of Ministers and intelligence services. Efforts in cybersecurity focus on developing national strategy, inter-institutional coordination, and international cooperation but do not attribute these to the Ministry of Higher Education, Science and Culture. The Ministry is noted for having limited capacity in cybersecurity human resource development, highlighting a lack of direct leadership role in the field [1][2][3][4][7].</t>
+          <t>The Ministry of Meteorology, Energy, Information, Disaster Management, Environment, Climate Change and Communications (MEIDECC) in Tonga is directly responsible for cybersecurity governance and operations. CERT Tonga, the national Computer Emergency Response Team, is an integral part of MEIDECC and serves as the national point of contact for cybersecurity issues. CERT Tonga provides advice and support regarding cyber threats and vulnerabilities to critical infrastructure and national systems of interest. It coordinates incident response, issues security warnings, conducts awareness programs, and collaborates with international CERTs. Additionally, MEIDECC is listed among lead agencies tasked with implementing Tonga's National Cybersecurity Framework, which includes governance, risk management, incident response, and awareness-raising measures. This body also engages with other ministries, law enforcement, and stakeholders to build cyber resilience in the country. These points confirm MEIDECC's high level of responsibility in cybersecurity policy, implementation, coordination, and capacity-building in Tonga.[1][2][3][4][5][6][9][10]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5213,14 +5221,14 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cybilportal.org/projects/timor-leste-national-cyber-strategy-development-implementation-planning/', 'title': 'Timor-Leste National Cyber Strategy Development ... - Cybil Portal', 'snippet': "The aim of this project was to develop Timor-Leste's cybersecurity strategy to ensure international investment and growth opportunities can be catalyzed to its ...", 'date': '2025-03-12', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://en.tatoli.tl/2024/09/27/timor-leste-digital-transformation-strengthening-cybersecurity-in-e-government-services/18/', 'title': 'Timor-Leste Digital Transformation: Strengthening Cybersecurity in ...', 'snippet': 'Timor-Leste is making significant strides in its digital transformation journey, particularly in the realm of e-government services.', 'date': '2024-09-27', 'last_updated': '2024-10-03', 'matched': True}, {'url': 'https://timor-leste.gov.tl/?p=42293&amp;lang=en&amp;n=1', 'title': 'Timor-Leste and Australia discuss Cybersecurity Co-operation', 'snippet': 'Among the initiatives discussed were identifying vulnerabilities, strengthening inter-institutional coordination and carrying out cybersecurity ...', 'date': '2025-03-14', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.fundasaunmahein.org/2024/07/25/timor-lestes-digital-transformation-cybersecurity-and-the-geopolitics-of-data/', 'title': "Timor-Leste's Digital Transformation, Cybersecurity and the ...", 'snippet': "In FM's view, the only way to guarantee national sovereignty is through secure control of our own electronic data and digital infrastructure.", 'date': '2024-07-25', 'last_updated': '2025-05-13', 'matched': True}, {'url': 'https://sdi.gov.tl/press_detalhe/704/show', 'title': 'Timor-Leste and Australia discuss cooperation on cybersecurity', 'snippet': 'Among the initiatives discussed were identifying vulnerabilities, strengthening inter-institutional coordination, and conducting joint ...', 'date': '2025-10-27', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=timor-leste', 'title': 'Timor-Leste - Cybil Portal', 'snippet': 'Engages and supported the Timor-Leste government to develop a national cyber strategy appropriate to the local cyber risk and opportunity ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Timor_Leste.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE DEMOCRATIC REPUBLIC OF TIMOR ...', 'snippet': 'Timor-Leste does not have an officially recognized national or sector-specific cybersecurity strategy. There is no national governance roadmap ...', 'date': '2015-03-12', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://cyberpolicyportal.org/states/timor-leste', 'title': 'Timor-Leste - Cyber Policy Portal', 'snippet': 'Relevant Multilateral Agreements, UN Processes, Bilateral and Multilateral Cooperation, Select Activities, and Membership. (9).', 'date': None, 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://apnic.foundation/what-we-do/empowertech/empowertechtlenglish/', 'title': 'EmpowerTech Timor-Leste - The APNIC Foundation', 'snippet': 'Timor-Leste is on the brink of a digital revolution with the anticipated arrival of a submarine cable promising faster and more affordable internet access.', 'date': '2025-07-01', 'last_updated': '2025-07-22', 'matched': True}]</t>
+          <t>[{'url': 'https://cybilportal.org/projects/cert-tonga-support/', 'title': 'CERT Tonga support - Cybil Portal', 'snippet': 'CERT Tonga is the national computer emergency response team of Tonga. The CERT is part of MEIDECC and provides advice and support on cyber threats and ...', 'date': '2021-05-11', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://cert.gov.to/about-us/', 'title': 'About Us - CERT Tonga', 'snippet': 'We are the point of contact in Tonga for cyber security issues affecting major Tongan businesses. The CERT is under the Ministry of the MEIDECC. We have ...', 'date': '2024-02-05', 'last_updated': '2025-03-11', 'matched': True}, {'url': 'https://blog.apnic.net/2021/03/09/cert-tonga-mitigates-risk-with-awareness/', 'title': 'CERT Tonga mitigates risk with awareness - APNIC Blog', 'snippet': 'CERT Tonga is the national Computer Emergency Response Team of Tonga (part of MEIDECC) to provide advice and support on cyber threats and ...', 'date': '2021-03-09', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://dig.watch/resource/tonga-national-cybersecurity-framework', 'title': 'Tonga National Cybersecurity Framework - Digital Watch Observatory', 'snippet': 'Strategic tasks and objectives · 1. Implement safe digital governance · 2. Risk management · 3. Threat preparedness and incident response · 4. Enhanced skills and ...', 'date': '2025-06-03', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://digitaltransformation.gov.to/wp-content/uploads/2022/08/Tonga_National_Cybersecurity_Framework_final.pdf', 'title': '[PDF] Tonga National Cybersecurity Framework', 'snippet': 'At the national level, cybersecurity is a shared responsibility that requires coordinated action for prevention, preparation, response, and incident recovery on ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://cert.gov.to/rfc-2350/', 'title': 'RFC-2350 - CERT Tonga', 'snippet': 'CERT Tonga is the center for expertise on cyber security and incident response of the Tongan government. It is aimed at preventing ICT and internet related ...', 'date': None, 'last_updated': '2025-05-26', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-tonga-ton-how-to-get-a-cybersecurity-analyst-role-in-tonga', 'title': 'How to Get a Cybersecurity Analyst Role in Tonga?', 'snippet': 'Key skills required for a cybersecurity analyst role in Tonga include expertise in network security, ethical hacking, risk assessment, incident ...', 'date': '2024-12-25', 'last_updated': '2025-03-20', 'matched': True}, {'url': 'https://hackernoon.com/beyond-policy-papers-tongas-cybersecurity-reality-check', 'title': "Beyond Policy Papers - Tonga's Cybersecurity Reality Check", 'snippet': '"Ko e Otua mo Tonga ko hotau tofi\'a" means our inheritance includes both our islands and our responsibility to protect them in the digital age.', 'date': '2025-09-07', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://pacson.org/members/tonga', 'title': 'Tonga | Pacific Cyber Security Operational Network (PaCSON)', 'snippet': 'The CERT Tonga provides advice and support on cyber threats and vulnerabilities to the owners and operators of Tongan critical infrastructure and other systems ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.dfat.gov.au/international-relations/themes/cyber-affairs/cyber-cooperation-program/Pages/government-of-tonga', 'title': 'Government of Tonga - Department of Foreign Affairs and Trade', 'snippet': 'The CERT is part of MEIDECC and provides advice and support on cyber threats and vulnerabilities to the owners and operators of Tongan critical ...', 'date': '2019-07-01', 'last_updated': '2025-09-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Information, Science, Telecommunications and Technology in DOMINICA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Education and Youth in CROATIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5228,17 +5236,17 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ministry of Information, Science, Telecommunications and Technology in DOMINICA</t>
+          <t>Ministry of Science, Education and Youth in CROATIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ministry of Information, Science, Telecommunications and Technology</t>
+          <t>Ministry of Science, Education and Youth</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5248,24 +5256,24 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Current information about Dominica's cybersecurity governance does not explicitly identify the Ministry of Information, Science, Telecommunications and Technology as the primary responsible agency for national cybersecurity policy or coordination. The National Digital Transformation Strategy 2022-2026, authored by the Ministry of Public Works and the Digital Economy, highlights cybersecurity awareness and digital literacy as important components but does not attribute direct cybersecurity governance responsibility to the Ministry of Information, Science, Telecommunications and Technology[6]. There is no public evidence that this ministry hosts a national CERT or leads a cybersecurity council or committee in Dominica. Regional and national cybersecurity initiatives in the Caribbean often emphasize inter-ministerial collaboration and international partnerships, but roles are generally assigned to ministries or agencies charged specifically with digital economy or digital infrastructure modernization rather than this particular ministry in Dominica[2][6][7]. Although cybersecurity is recognized as critical and efforts for capacity building and strategy development exist, the explicitly assigned top-level management and coordination roles appear to reside elsewhere, such as the Ministry of Public Works and the Digital Economy or similar entities overseeing digital government infrastructure and policies. Thus, while the Ministry of Information, Science, Telecommunications and Technology may contribute to ICT development broadly, its direct responsibility for national cybersecurity governance, prevention, and response is not clearly documented at a high level in public strategic or legal documents related to Dominica's cybersecurity.</t>
+          <t>The Ministry of Science, Education and Youth in Croatia is primarily responsible for overseeing the education system, including integrating cybersecurity awareness, digital literacy, and media literacy into formal education across all levels, as mandated by the 2015 National Cybersecurity Strategy and related national policies. It plays a significant role in educating students and teachers about cybersecurity risks, data protection, and safe digital practices. However, it is not identified as the central authority for cybersecurity policy, implementation, or incident response. Dedicated cybersecurity governance and operational response functions—such as hosting the National CERT (CERT.hr)—are performed by other bodies, notably the Croatian Academic and Research Network (CARNET) and the National Cyber Security Centre (NCSC-HR). The Ministry is described as the state administration authority responsible for science and education but not the central government authority for cybersecurity or information security governance. Thus, it contributes to prevention and education aspects of cybersecurity but does not lead national cybersecurity governance, enforcement, or technical coordination[1][3][4][6][9].</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.MEDIUM</t>
+          <t>ConfidenceLevel.HIGH</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>[{'url': 'https://troncoso-caceres.com/en/blog/law-project-on-cybersecurity/', 'title': 'Law Project on Cybersecurity - Troncoso y Caceres', 'snippet': 'A legal framework that regulates cybersecurity and institutional strengthening, the protection of critical infrastructures and IT infrastructures of the State.', 'date': '2021-10-11', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.dom767.com/job/development-of-national-cybersecurity-capability/', 'title': 'Development of National Cybersecurity Capability - DOM767', 'snippet': 'The project will bolster cybersecurity policy, capacity, and planning tools in the region. It will facilitate technology adoption to improve the productivity ...', 'date': '2022-08-26', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/dominican-republic-information-and-communication-technology', 'title': 'Dominican Republic - Information and Communication Technology', 'snippet': 'By the end of 2021, the GODR had implemented numerous projects to boost the digital economy and promote cyber-security in government and ...', 'date': '2024-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/do/', 'title': 'NCSI :: Dominican Republic - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2024-10-15', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://unstats.un.org/unsd/dnss/docViewer.aspx?docID=2241', 'title': '[PDF] Dominica Draft E-Government Strategy', 'snippet': '❑ Ensure that Information Technology meets the stated vision and mission of the Government of Dominica ... ensure appropriate Information ...', 'date': '2005-04-18', 'last_updated': '2024-10-17', 'matched': True}, {'url': 'https://dig.watch/resource/dominica-national-digital-transformation-strategy-2022-2026', 'title': 'Dominica National Digital Transformation Strategy 2022-2026', 'snippet': 'Access and affordability: Ensuring all Dominicans have access to affordable, high-speed internet and devices. Programs like digital literacy and cybersecurity ...', 'date': '2024-11-01', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://dominicanewsonline.com/news/homepage/news/technology/dominica-embarks-on-major-ict-project/', 'title': 'Dominica embarks on major ICT project', 'snippet': 'He noted further that cyber security has become a major economic threat to all nations and it is even more threatening to Small Island ...', 'date': '2015-03-10', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/croatia/~technology', 'title': 'Croatia | Technology - Education Profiles', 'snippet': 'The Ministry of Science, Education, and Sports oversees the whole Croatian educational system. The Ministry\'s role is also extended to "the ...', 'date': '2024-08-05', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://better-internet-for-kids.europa.eu/en/knowledge-hub/croatia-policy-monitor-country-profile', 'title': 'Croatia - Policy monitor country profile - Better Internet for Kids', 'snippet': 'The Better Internet for Kids (BIK) Policy monitor is a tool used to compare and exchange knowledge on policy making and implementation in EU Member States, ...', 'date': '2025-05-01', 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.uvns.hr/UserDocsImages/en/dokumenti/Croatian%20National%20Cyber%20Security%20Strategy%20(2015).pdf', 'title': '[PDF] THE NATIONAL CYBER SECURITY STRATEGY OF THE ...', 'snippet': "Croatia's basic objectives related to education, research, development and awareness raising in the area of cyber security are: Objective I ...", 'date': '2015-10-07', 'last_updated': '2025-09-09', 'matched': True}, {'url': 'https://ncsc.hr/UserDocsImages/ostalo/Cybersecurity_Act.pdf?vel=1434556', 'title': '[PDF] Cybersecurity Act', 'snippet': 'Article 49. Control of compliance of the actions of the ccTLD name registry with the specific requirements for the management of domain name registration data ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/hr/', 'title': 'NCSI :: Croatia - National Cyber Security Index', 'snippet': 'At least one undergraduate education programme is available in the country to train students in cybersecurity. ... Ministry of Science, Education and Youth (MZOM) ...', 'date': '2025-04-30', 'last_updated': '2025-08-12', 'matched': True}, {'url': 'https://gov.hr/en/national-cert/1230', 'title': 'National CERT - gov.hr', 'snippet': "The department's main task is handling cyber security incidents to preserve cyber security in the Republic of Croatia. CERT.hr department handles incidents if ...", 'date': '2018-06-01', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://www.ohchr.org/sites/default/files/documents/issues/digitalage/cfis/hrc57-promote-digital-education-young-people/subm-solutions-promote-digital-sta-croatia.docx', 'title': '[DOC] Croatia - ohchr', 'snippet': 'On 11 March 2020, the Croatian Ministry of Science and Education (MZO) has published Guidelines for distance learning for primary and secondary schools thus ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'http://nis2certification.eu/croatia/', 'title': 'NIS2 Croatia – Requirements &amp; Certification for Compliance', 'snippet': 'The authorities responsible for implementing cybersecurity management measures, including the National Cyber Security Centre (NCSC-HR), draw up lists of ...', 'date': '2025-07-14', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://ncsc.hr/en/about-us', 'title': 'About us | NCSC-HR', 'snippet': 'Along with NCSC-HR, which is the competent authority for implementing cybersecurity requirements for the majority of NIS2 sectors, other competent authorities ...', 'date': '2024-01-01', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://cyber-guard.hr/en/', 'title': 'Cyber Guard 2025', 'snippet': 'A key focus will be on the role of bystanders: how ordinary observers can be empowered to step in, act, and help create a safer digital world.', 'date': '2025-10-02', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Culture, Sports, Science and Technology (MEXT) in JAPAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research, and Innovation of Morocco in MOROCCO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5273,17 +5281,17 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture, Sports, Science and Technology (MEXT) in JAPAN</t>
+          <t>Ministry of Higher Education, Scientific Research, and Innovation of Morocco in MOROCCO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture, Sports, Science and Technology (MEXT)</t>
+          <t>Ministry of Higher Education, Scientific Research, and Innovation</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5293,7 +5301,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>MEXT in Japan primarily focuses on education, culture, sports, science, and technology policies. Although it deals with science and technology policies that may include aspects of IT and research, it is not explicitly responsible for national cybersecurity governance, policy implementation, or enforcement. National cybersecurity coordination and policy leadership is primarily conducted by the National Center of Incident Readiness and Strategy for Cybersecurity (NISC) under the Cybersecurity Strategic Headquarters. Other ministries specifically handle cybersecurity in their domains, such as METI (Ministry of Economy, Trade and Industry) for industrial sector cybersecurity and MIC (Ministry of Internal Affairs and Communications) for telecommunications regulation. MEXT also works on science and technology policy initiatives, which may touch indirectly on cybersecurity research or development, but it does not host a national CERT/CSIRT nor lead cybersecurity committees or standardization efforts. Therefore, MEXT's responsibility in cybersecurity is low and largely indirect or supportive rather than central or direct[1][2][3][4][7][9].</t>
+          <t>The Ministry of Higher Education, Scientific Research, and Innovation of Morocco is involved in cybersecurity primarily through fostering research, innovation, and education related to cybersecurity, as part of broader national efforts. It is a partner in establishing the Cybersecurity Innovation Center that promotes research, development, and startup support in cybersecurity alongside other ministries such as the Ministry of Digital Transition and Administration Reform and the National Defense Administration. However, the Ministry is not explicitly responsible for cybersecurity policy, implementation, or technical coordination of national cybersecurity governance. The key operational and strategic cybersecurity responsibilities, including hosting CERT teams and national cybersecurity strategy leadership, are handled mainly by the Ministry of Digital Transition and Administration Reform and the General Directorate of Information Systems Security (DGSSI) under National Defense. The Ministry of Higher Education's role is supportive, centered on academic research, talent development, and innovation rather than direct cybersecurity governance or enforcement.[1][2][3][4][5][8]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5303,14 +5311,14 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.fortra.com/blog/cybersecurity-regulatory-landscape-japan-primer-business', 'title': 'Cybersecurity Regulatory Landscape in Japan: A Primer for Business', 'snippet': 'The article looks at the legal foundations of cybersecurity in Japan, what businesses need to do, and how Japan aligns with the global ...', 'date': '2025-08-22', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.meti.go.jp/english/policy/safety_security/cybersecurity/index.html', 'title': 'Cybersecurity / METI Ministry of Economy, Trade and Industry', 'snippet': 'In Japan, each ministry is responsible for cyber security policies in their respective areas, and overall coordination of cybersecurity policy is conducted by ...', 'date': '2025-10-16', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.japaneselawtranslation.go.jp/en/laws/view/3677/en', 'title': 'The Basic Act on Cybersecurity - English - Japanese Law Translation', 'snippet': 'Article 4The national government is responsible for formulating and implementing comprehensive cybersecurity policies in line with the basic principles in the ...', 'date': '2024-11-13', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.nisc.go.jp/pdf/policy/kihon-s/cs-senryaku2021-en-booklet.pdf', 'title': '[PDF] Cybersecurity for All', 'snippet': 'Japan will continuously examine the role of each stakeholder, including the role of “public help” that serves as their foundation, and what ...', 'date': '2021-09-01', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://cadeproject.org/updates/japan-to-develop-new-cybersecurity-strategy-and-measures/', 'title': 'Japan plans to develop new cybersecurity strategy - CADE', 'snippet': 'Japan plans to develop a new strategy, transition to post-quantum cryptography, expand cybersecurity personnel to 50,000 by 2030, and inspect ...', 'date': '2025-06-02', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/japan', 'title': 'Cybersecurity 2025 - Japan - Global Practice Guides', 'snippet': "In terms of data protection, the firm has noted expertise in leveraging user information while protecting clients' businesses. Mori Hamada &amp; ...", 'date': '2025-03-13', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.mext.go.jp/en/news/topics/detail/__icsFiles/afieldfile/2015/07/03/1359554_2.pdf', 'title': "[PDF] Japan's STI Policies Main Points", 'snippet': '○ Deal with the ramifications of cyber space on actual society, from the perspective also of social systems, about dealing with personal information, cyber ...', 'date': None, 'last_updated': '2025-05-02', 'matched': True}, {'url': 'https://iclg.com/practice-areas/cybersecurity-laws-and-regulations/japan', 'title': 'Cybersecurity Laws and Regulations Report 2025 Japan - ICLG.com', 'snippet': "Japan's cybersecurity laws cover cybercrime, including unauthorized access, and include the Basic Act on Cybersecurity (BAC) and the UCAL.", 'date': '2024-06-11', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.mext.go.jp/component/english/__icsFiles/afieldfile/2017/04/14/1384513_013.pdf', 'title': '[PDF] Part II Measures Implemented to Promote Science and Technology', 'snippet': "✓ Acquiring, retaining and developing technologies affecting the nation's existence (national strategy core technologies) for ensuring security ...", 'date': '2016-02-26', 'last_updated': '2025-06-06', 'matched': True}]</t>
+          <t>[{'url': 'https://mail.techreviewafrica.com/public/news/1420/morocco-establishes-innovation-center-for-cybersecurity', 'title': 'Morocco establishes innovation center for cybersecurity', 'snippet': 'The newly established innovation center is set to play a crucial role in enhancing research, development, and innovation in cybersecurity.', 'date': '2025-11-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.ecofinagency.com/news-digital/1306-47261-morocco-launches-new-cybersecurity-strategy-as-attacks-on-state-systems-rise', 'title': 'Morocco launches new cybersecurity strategy as attacks on state ...', 'snippet': 'The plan focuses on securing state information systems through early-stage risk mitigation, system audits, and the implementation of cybersecurity standards.', 'date': '2025-06-13', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.dgssi.gov.ma/en/actualites/publication-joint-order-no-114825-approving-convention-establishing-cybersecurity', 'title': 'Publication of the Joint Order No. 1148.25 Approving the ... - | DGSSI', 'snippet': 'The CIC will carry out a multidimensional mission for the benefit of its members, including in particular: Higher education in cybersecurity professions; ...', 'date': '2025-06-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://emiratesscholar.com/directory/index.php/ijidc/article/view/487/478', 'title': "[PDF] Morocco's cybersecurity strategy between challenges and aspirations", 'snippet': 'This strategy focused on four main pillars: risk assessment, protection of the information systems of government agencies, public institutions, ...', 'date': '2024-12-30', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Science_and_technology_in_Morocco', 'title': 'Science and technology in Morocco - Wikipedia', 'snippet': 'The Ministry of Higher Education and Scientific Research is supporting research in advanced technologies and the development of innovative cities in Fez, Rabat ...', 'date': '2009-11-10', 'last_updated': '2025-06-04', 'matched': True}, {'url': 'https://www.moroccoworldnews.com/2025/10/262497/knext-rabat-2025-explores-ais-expanding-role-in-cybersecurity/', 'title': "KNext Rabat 2025 Explores AI's Expanding Role in Cybersecurity", 'snippet': 'In recent years, Morocco has steadily expanded its national cybersecurity framework to keep pace with rapid digitalization across public and ...', 'date': '2025-10-07', 'last_updated': None, 'matched': True}, {'url': 'https://www.universityworldnews.com/post.php?story=20250511213737867', 'title': 'New national plan to attract and retain researchers launched', 'snippet': "Morocco has launched a three-year national programme (2025-28) to attract and retain researchers in an effort to enhance the country's innovation ecosystem.", 'date': '2025-05-15', 'last_updated': '2025-05-15', 'matched': True}, {'url': 'https://initiatives.weforum.org/cyberresilienceindustries/case-studies/fortinet-and-the-ministry-of-higher-education,-scientific-research-and-professional-training-of-morocco/aJYTG0000000cuv4AA', 'title': 'Fortinet and the Ministry of Higher Education, Scientific Research ...', 'snippet': 'Fortinet provides cybersecurity training and certification, at no cost to this initiative, through its Academic Partner Program. Through this ...', 'date': '2025-06-12', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Communications and Information Technology of Afghanistan in AFGHANISTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Culture, Science and Communication in SAO TOME &amp; PRINCIPE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5318,27 +5326,27 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ministry of Communications and Information Technology of Afghanistan in AFGHANISTAN</t>
+          <t>Ministry of Education, Culture, Science and Communication in SAO TOME &amp; PRINCIPE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ministry of Communications and Information Technology of Afghanistan</t>
+          <t>Ministry of Education, Culture, Science and Communication</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>São Tomé and Príncipe</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>The Ministry of Communications and Information Technology (MCIT) of Afghanistan is explicitly responsible for cybersecurity policy, coordination, and implementation in the country. According to the 2014 National Cybersecurity Strategy of Afghanistan, the Information Systems Security Directorate (ISSD) within MCIT is tasked with coordinating all cyber and information security activities, conducting risk assessments, maintaining security standards for critical information infrastructure, and organizing cybersecurity exercises and capacity building programs. Furthermore, MCIT works jointly with the Ministry of Justice to develop the country's cyber law and regulatory frameworks. The Ministry also oversees the Afghanistan Root Certification Authority aiming to enforce digital signature policies for e-Government services. Additionally, MCIT’s 2018-2022 ICT Policy highlights its role in information security as integral to national ICT development and e-Government initiatives. These points collectively demonstrate MCIT’s central and high-level responsibility for cybersecurity governance, prevention, planning, and enforcement in Afghanistan[1][2].</t>
+          <t>The Ministry of Education and Higher Education in São Tomé and Príncipe is responsible for educational regulation and ICT integration in schools, including development of digital literacy and a cybersecurity curriculum in educational institutions[1][3]. However, there is no evidence from the national cybersecurity strategy, legal framework, or government documentation that this ministry holds explicit responsibility for national cybersecurity governance, policy, coordination, or incident response functions. The national cybersecurity responsibilities, including the establishment of a Cybersecurity Committee and a national CERT, appear to be coordinated at the government-wide level, without specific attribution to the Ministry of Education, Culture, Science and Communication[1][2][4]. Thus, while the ministry contributes indirectly via education and awareness efforts, it does not lead or coordinate cybersecurity policy, enforcement, or technical response activities at the national level.</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5348,14 +5356,14 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Afghanistan_2014_National%20Cybersecurity%20Strategy%20of%20Afghanistan%20(November2014).pdf', 'title': '[PDF] National Cyber Security Strategy of Afghanistan (NCSA) - ITU', 'snippet': 'a) Information Systems Security Directorate (ISSD) of Ministry of Communications and. Information Technologies (MCIT) to coordinate all cyber and information ...', 'date': None, 'last_updated': '2024-02-07', 'matched': True}, {'url': 'https://dig.watch/resource/information-and-communications-technology-ict-policy-of-afghanistan-draft', 'title': 'Information and Communications Technology (ICT) Policy of ...', 'snippet': 'The 2018-2022 ICT Policy outlines the strategic vision, goals, and approaches that MCIT will employ to achieve these objectives, ensuring that Afghanistan not ...', 'date': '2024-08-25', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.ijeast.com/papers/213-230,Tesma602,IJEAST.pdf', 'title': '[PDF] A COMPREHENSIVE CYBERSECURITY FRAMEWORK ... - IJEAST', 'snippet': "The aim of this paper is to propose a comprehensive cybersecurity framework for. Afghanistan's cyberspace in order to protect and assure data, information and ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://jobs.af/jobs/cyber-security-consultant-re-advertised', 'title': 'Cyber Security Consultant (Re-Advertised) - Jobs.af', 'snippet': 'Duties &amp; Responsibilities: Assist afghan Telecom in planning network expansion. Develop network strategy for minimizing downtimes. Plan and execute IT NOC ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://blog.apnic.net/2016/03/14/light-at-the-end-of-the-tunnel-for-afghanistans-ict-industry/', 'title': "Light at the end of the tunnel for Afghanistan's ICT industry", 'snippet': '“The Afghanistan Ministry of Communications and Information Technology is currently working on an Open Access Policy,” says Zmarialai, who as ...', 'date': '2016-03-14', 'last_updated': '2024-10-17', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-of-sao-tome-and-principe-2024-2028', 'title': 'The National Cybersecurity Strategy of São Tomé and Príncipe ...', 'snippet': "Strategic objectives · Updating laws on cybercrime, data protection, and digital identity. · Enhancing the judicial system's ability to handle cybercrimes.", 'date': '2025-02-04', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://afap.st/wp-content/uploads/2025/03/Adenda-CSIRT-4-STP-DIGITAL-04CDSTP2023.pdf', 'title': '[PDF] República Democrática de São Tomé e Príncipe - AFAP', 'snippet': "Currently, the Government's cybersecurity capacity is nascent, with no national legislation or strategy for cybersecurity in place. However, a separate ...", 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/sao-tome-and-principe/~technology', 'title': 'São Tomé and Príncipe | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Higher Education (MEES) of São Tomé e Príncipe is responsible for the regulation of the education system. As ...', 'date': '2023-06-08', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://cybilportal.org/projects/development-of-the-national-cybersecurity-strategy-and-action-plan-for-sao-tome-and-principe/', 'title': 'Development of the National Cybersecurity Strategy and Action Plan ...', 'snippet': "Currently, the Government's cybersecurity capacity is nascent, with no national legislation or strategy for cybersecurity in place. This project focuses on ...", 'date': '2024-02-06', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.undp.org/africa/waca/press-releases/cybersecurity-training-participants-confirmed-step-forward-digital-resilience-west-and-central-africa', 'title': 'A Step Forward for Digital Resilience in West and Central Africa', 'snippet': 'The initiative responded to growing cybersecurity challenges in a region undergoing rapid digital transformation, where demand for practical ...', 'date': '2025-09-08', 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://www.ibanet.org/document?id=Digital-Regulations-in-the-Metaverse-Era-Sao-Tome-Principe', 'title': '[PDF] SÃO TOMÉ AND PRÍNCIPE - International Bar Association', 'snippet': 'The law establishes a range of fines and criminal sanctions for various breaches, including violations of the data protection principles, obligations and rights ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.gov.br/g20/en/news/cyber-security-strengthening-policies-to-combat-threats-in-the-digital-world', 'title': 'Cyber security: strengthening policies to combat threats in the digital ...', 'snippet': '"The G20 countries must strengthen cooperation and trust concerning digital security, exchanging experiences and good practices in safer connectivity, and ...', 'date': '2024-10-06', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://securitydelta.nl/media/com_hsd/report/135/document/Cyber-security-trends-report-Africa-en.pdf', 'title': '[PDF] CYBER CRIME &amp; CYBER SECURITY TRENDS IN AFRICA', 'snippet': 'Sao Tome and Principe. No. • No specific legislation in force (amendments to the Penal Code (Law 6/2012) cover illegal interception, computer-related fraud ...', 'date': None, 'last_updated': '2024-02-02', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation of Colombia in COLOMBIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Development, Industry and Trade in NICARAGUA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5363,27 +5371,27 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation of Colombia in COLOMBIA</t>
+          <t>Ministry of Development, Industry and Trade in NICARAGUA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation</t>
+          <t>Ministry of Development, Industry and Trade</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology and Innovation (MinCiencias) is explicitly responsible for cybersecurity in Colombia. It is designated as the national authority for AI, which includes cybersecurity aspects, and is responsible for technical guidance, coordination, and oversight in this area [5]. The Ministry released a preliminary roadmap for the ethical and sustainable adoption of Artificial Intelligence, which includes privacy, cybersecurity, and defense as key focus areas [6]. Furthermore, MinCiencias published the strategic plan for information technologies (IT) and digital transformation 2023–2026, which emphasizes cybersecurity preparedness and positions IT management as a strategic function, including cybersecurity as a core component [2]. The Ministry also leads or is a member of multi-sectoral committees and councils that coordinate cybersecurity policy and governance, such as the National Advisory Council of AI Experts, which supports inter-institutional collaboration on cybersecurity and digital transformation [5]. These roles and responsibilities are clearly defined in national strategies, laws, and official reports, confirming MinCiencias' high level of responsibility for cybersecurity in Colombia.</t>
+          <t>The Ministry of Development, Industry and Trade in Nicaragua primarily leads efforts related to technical standards, regulations, and trade under CAFTA-DR guidance, including standardization, metrology, and accreditation activities[4]. However, Nicaragua's National Cybersecurity Strategy 2020–2025, which focuses on cyberspace security and incident response, is coordinated by the Ministry of Foreign Affairs and TELCOR (Nicaraguan Institute of Telecommunications and Postal Services), with no explicit mention of the Ministry of Development, Industry and Trade playing a direct role in cybersecurity governance, implementation, or technical coordination[1]. There is no evidence that this Ministry hosts a national CSIRT/CERT, leads cybersecurity committees, or enforces cybersecurity standards. Thus, while the Ministry has an important role in standards and trade, it does not appear to be responsible for the country's cybersecurity policies or technical coordination.</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5393,14 +5401,14 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/colombia', 'title': 'Data protection and cybersecurity laws in Colombia - CMS Law Firm', 'snippet': 'Its main purpose is to coordinate necessary actions to protect infrastructure from cybersecurity emergencies that may threaten or compromise ...', 'date': '2021-02-18', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://dig.watch/resource/colombias-strategic-plan-for-information-technologies-it-and-digital-transformation-2023-2026', 'title': "Colombia's strategic plan for information technologies (IT) and ...", 'snippet': "The strategy aims to align IT with the Ministry's mission, vision, and institutional objectives by using technology as a key enabler of digital transformation.", 'date': '2025-07-17', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://www.cgfm.mil.co/en/multimedia/noticias/digital-governance-defense-sector-urgent-challenge', 'title': 'Digital governance in the Defense Sector: an urgent challenge', 'snippet': 'To strengthen digital governance, the Ministry of Defense has promoted the Science, Technology and Innovation Policy for the Security and ...', 'date': '2025-05-06', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://insightplus.bakermckenzie.com/bm/intellectual-property/colombia-the-government-of-colombia-introduces-a-new-bill-to-regulate-artificial-intelligence_1', 'title': 'The Government of Colombia introduces a new bill to regulate ...', 'snippet': 'Under the Bill, the Ministry of Science, Technology, and Innovation will serve as the primary enforcement authority under the Bill, with the ...', 'date': '2025-07-30', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'http://www.bu.com.co/en/insights/noticias/regulatory-developments-artificial-intelligence-colombia', 'title': 'Regulatory developments in Artificial Intelligence in Colombia', 'snippet': 'The Ministry of Science, Technology, and Innovation is designated as the national authority for AI, responsible for technical guidance ...', 'date': '2025-08-06', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://regulatingai.org/roadmap-for-ethical-and-sustainable-adoption-of-artificial-intelligence-ai/', 'title': 'Roadmap for Ethical and Sustainable Adoption of Artificial ...', 'snippet': 'Ethics and governance are crucial for the successful implementation of AI systems in Colombia, ensuring respect for citizen rights and privacy. The roadmap also ...', 'date': '2024-07-03', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/colombia-defense-and-security-innovation-initiative', 'title': 'Colombia Defense and Security innovation initiative', 'snippet': "The 'Fuerza Innovación' initiative provides a strategic platform for US companies to contribute to Colombia's defense and security advancements.", 'date': '2024-10-31', 'last_updated': '2024-11-07', 'matched': True}, {'url': 'https://itif.org/publications/2020/11/30/digital-economy-strategy-colombia-analysis-and-recommendations/', 'title': 'Digital Economy Strategy in Colombia: An Analysis and ...', 'snippet': 'With two iterations of its digital security policies, Colombia is one of the most advanced countries in the region in terms of cybersecurity.', 'date': '2020-11-30', 'last_updated': '2025-09-07', 'matched': True}, {'url': 'https://iuslaboris.com/insights/unpacking-colombias-new-ai-bill/', 'title': "Colombia's AI Bill: what employers need to know - Ius Laboris", 'snippet': 'Colombia introduces an AI Bill to regulate responsible use of technology. We explain the key principles and what it means for employers.', 'date': '2025-09-02', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-of-nicaragua-2020-2025', 'title': 'The national cybersecurity strategy of Nicaragua 2020–2025', 'snippet': 'The general objective is to guarantee the sovereign, safe, and reliable use of cyberspace to support peace, stability, security, and sustainable development.', 'date': '2025-09-12', 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://trade.ec.europa.eu/access-to-markets/en/country-assets/euca_05_Cybersecurity%20sector%20in%20Central%20America.pdf', 'title': '[PDF] Cybersecurity sector in Central America', 'snippet': 'Nicaragua approved a national cybersecurity strategy in 20204, which contains within its axes, among others, the creation of a cybersecurity incident response ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://ipi.media/nicaraguas-proposed-cyber-security-laws-threaten-press-freedom/', 'title': "Nicaragua's proposed 'cyber security' laws threaten press freedom", 'snippet': "The following day, Ortega approved the 'National Cybersecurity Strategy', which “guarantees the sovereign, secure, and trustworthy use of the ...", 'date': '2020-11-09', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/nicaragua-standards-trade', 'title': 'Nicaragua - Standards for Trade - International Trade Administration', 'snippet': 'The Ministry of Development, Industry, and Trade leads government efforts to develop standards under the CAFTA-DR guidance. It is primarily a ...', 'date': '2024-02-29', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://ustr.gov/sites/default/files/files/Press/Releases/2025/Nicaragua%20Section%20301%20Report.pdf', 'title': "[PDF] section 301 investigation report on nicaragua's acts, policies, and ...", 'snippet': "... trade.gov/country-commercial-guides/nicaragua-market- challenges ... Business chambers had for decades played a crucial role in Nicaragua's ...", 'date': '2025-10-20', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.state.gov/wp-content/uploads/2025/09/638719_2025-Nicaragua-Investment-Climate-Statement.pdf', 'title': '[PDF] 2025 Nicaragua Investment Climate Statement', 'snippet': 'The new FDI law introduced a mandatory registration mechanism for all foreign direct investment, administered through the Ministry of Development, Industry, and ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://freedomhouse.org/country/nicaragua/freedom-net/2023', 'title': 'Nicaragua: Freedom on the Net 2023 Country Report', 'snippet': "Internet freedom continued to decline in Nicaragua amid a broader crackdown on dissent that has been ongoing since the country's 2018 antigovernment protests.", 'date': '2023-03-10', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ni.usembassy.gov/business/', 'title': 'Business - Learn about bilateral investment and trade', 'snippet': 'We work with the U.S. and Foreign Commercial Service and entities across government to facilitate job-creating business investment into the United States and ...', 'date': '2025-03-06', 'last_updated': '2025-05-21', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Education in CROATIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology in NAURU responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5408,17 +5416,17 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ministry of Science and Education in CROATIA</t>
+          <t>Department of Research, Science and Technology within the Ministry of Infrastructure, Science and Technology in NAURU</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ministry of Science and Education</t>
+          <t>Department of Research, Science and Technology, Ministry of Infrastructure, Science and Technology</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5428,7 +5436,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Education in Croatia is mentioned in the Cybersecurity Act as the state administration authority responsible for science and education (point 59 of the Act) [2]. It is also listed as one of the competent authorities for implementing cybersecurity requirements in certain sectors, particularly those related to education [8]. However, the primary responsibility for cybersecurity policy, implementation, and technical coordination lies with the National Cyber Security Centre (NCSC-HR), which is part of the Security and Intelligence Agency (SOA) [8]. The Ministry's role is sector-specific and does not extend to overall national cybersecurity governance, prevention, planning, or enforcement. The Ministry may participate in broader cybersecurity initiatives, such as raising awareness and stimulating education programs, but these are supportive rather than leading roles [6].</t>
+          <t>The available documentation does not explicitly mention the Department of Research, Science and Technology, or the Ministry of Infrastructure, Science and Technology, as being responsible for cybersecurity policy, implementation, or technical coordination in Nauru. Instead, cybersecurity responsibilities are attributed to the Department of Information and Communications Technology (ICT), which hosts the Cyber Security Awareness Team (CSAT) and is tasked with providing cyber safety awareness and basic incident handling for government departments [1, 2]. The Nauru National Digital Transformation Strategy and other national reports emphasize the development of a comprehensive cybersecurity framework, but these initiatives are led by the ICT sector, not the Department of Research, Science and Technology [3]. There is no evidence that this department hosts a national CERT/CSIRT/CIRT, leads cybersecurity committees, oversees information security standards, or participates in cybersecurity events or international initiatives. While the department may have a tangential role in science and technology policy, its direct involvement in cybersecurity governance, prevention, planning, response, or enforcement is not substantiated by the available sources.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5438,14 +5446,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>[{'url': 'http://nis2certification.eu/croatia/', 'title': 'NIS2 Croatia – Requirements &amp; Certification for Compliance', 'snippet': 'The authorities responsible for implementing cybersecurity management measures, including the National Cyber Security Centre (NCSC-HR), draw up lists of ...', 'date': '2025-07-14', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://ncsc.hr/UserDocsImages/ostalo/Cybersecurity_Act.pdf?vel=1434556', 'title': '[PDF] Cybersecurity Act', 'snippet': '(3) Achieving and maintaining a high common level of cybersecurity, especially through the development and continuous improvement of cybersecurity policies and ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://gov.hr/en/national-cert/1230', 'title': 'National CERT - gov.hr', 'snippet': "The department's main task is handling cyber security incidents to preserve cyber security in the Republic of Croatia. CERT.hr department handles incidents if ...", 'date': '2018-06-01', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://www.cert.hr/en/home-page/', 'title': 'About National CERT - CERT.hr', 'snippet': 'CERT.hr cooperates in the field of cybersecurity with relevant bodies at the national and international level. Memberships. CSIRT network was established by the ...', 'date': '2025-06-16', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.openkritis.de/eu/eu-nis-2-croatia.html', 'title': 'EU NIS2 in Croatia - OpenKRITIS', 'snippet': 'For banking, financial market infrastructure, digital infrastructure, research, and the education system, the national CSIRT is directly responsible.', 'date': '2023-12-13', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://www.uvns.hr/UserDocsImages/en/dokumenti/Croatian%20National%20Cyber%20Security%20Strategy%20(2015).pdf', 'title': '[PDF] THE NATIONAL CYBER SECURITY STRATEGY OF THE ...', 'snippet': "E-Government is Croatia's strategic goal, ensuring a quick, transparent and secure service for all citizens via cyberspace. For this purpose it ...", 'date': '2015-10-07', 'last_updated': '2025-09-09', 'matched': True}, {'url': 'https://mvep.gov.hr/UserDocsImages/2025/datoteke/Uredba%20o%20kiberneti%C4%8Dkoj%20sigurnosti%20NN%20135-24%20ENG.pdf', 'title': '[PDF] GOVERNMENT OF THE REPUBLIC OF CROATIA', 'snippet': '4.7 Define cybersecurity responsibilities according to clear job roles of employees and provide replacements for each role. Employee access ...', 'date': '2024-11-21', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://ncsc.hr/en/about-us', 'title': 'About us | NCSC-HR', 'snippet': 'As part of that framework, NCSC-HR carries out the tasks of the central government authority for cybersecurity, government CERT, competent authority for ...', 'date': '2024-01-01', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.techinsights.pro/post/cybersecurity-regulation-the-croatia-example', 'title': 'Cybersecurity regulation - the Croatia example - TechInsights', 'snippet': 'Under NIS2, SOA will expand its capabilities and boost a National Cybersecurity Center (NCSC). The NCSC will become the default supervisor for ...', 'date': '2023-11-12', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://www.span.eu/en/insights/cyber-security-act-application-of-the-nis2-directive-in-croatia/', 'title': 'Cyber Security Act – application of the NIS2 Directive in Croatia', 'snippet': 'Croatian Cyber Security Act has just entered into force on Thursday, 15 February 2024 (Official Gazette No. 14/2024).', 'date': '2024-02-19', 'last_updated': '2024-07-14', 'matched': True}]</t>
+          <t>[{'url': 'https://www.nauru.gov.nr/media/118456/csat_rfc_2350.pdf', 'title': '[PDF] Cyber Security Awareness Team Committee (CSAT) RFC2350 - Nauru', 'snippet': 'This document contains a description of Cyber Security Awareness Team (CSAT) according to the RFC 2350. It provides basic information about the Nauru government.', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.nauru.gov.nr/government/departments/department-of-telecommunications.aspx', 'title': 'Department of ICT - The Government of the Republic of Nauru', 'snippet': 'To provision and support national and government telecommunications infrastructure to support high speed transfer of data securely. · To provide safe, secure and ...', 'date': '2017-08-21', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.nauru.gov.nr/media/204028/nndts_final_version_2025.pdf', 'title': '[PDF] Nauru National Digital Transformation Strategy', 'snippet': 'This initiative would involve the creation of a comprehensive cybersecurity framework that includes the development of cybersecurity policies ...', 'date': '2025-04-09', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=nauru', 'title': 'Nauru - Cybil Portal', 'snippet': 'The Cybersecurity Roadmap (Roadmap) of the Nauru is intended as a guide to inform the Nauru Government of the priorities for the development ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/documents/PRIF_Nauru-NIISP-2024_web.pdf', 'title': '[PDF] Nauru Integrated Infrastructure Strategic Plan', 'snippet': 'The Nauru Integrated Infrastructure Strategic Plan is a guide to public infrastructure investment planning and budgeting. The report was prepared by the ...', 'date': None, 'last_updated': '2024-09-06', 'matched': True}, {'url': 'https://www.undp.org/sites/g/files/zskgke326/files/2024-06/undp-small-island-digital-states-how-digital-can-catalyse-sids-development-v2-1.pdf', 'title': '[PDF] Small Island Digital States - United Nations Development Programme', 'snippet': 'associated regulations; advising the Minister of Science, Energy and Technology on data protection; disseminating public information; and preparing and.', 'date': None, 'last_updated': '2024-10-24', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Regional-Presence/AsiaPacific/Documents/Projects/SVSI/APPROVED%20by%20Gov_Nauru%20Needs%20Assessment%20Final.pdf', 'title': '[PDF] NAURU NEEDS ASSESSMENT REPORT - ITU', 'snippet': 'Nauru needs a digital inclusion programme to ensure that digital transformation does not leave anyone behind because of the diverse range of responsibilities ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://aiasiapacific.org/wp-content/uploads/2024/08/The-State-of-Artificial-Intelligence-in-the-Pacific-Islands.pdf', 'title': '[PDF] The State of Artificial Intelligence in the Pacific Islands', 'snippet': 'The discussion paper was strongly endorsed in the ASEAN Ministerial Meeting on Science, Technology and Innovation (AMMSTI) Statement on ...', 'date': '2024-08-15', 'last_updated': None, 'matched': True}, {'url': 'https://www.oecd.org/en/publications/oecd-science-technology-and-innovation-outlook-2025_5fe57b90-en/full-report/mobilising-science-technology-and-innovation-policies-for-transformative-change_7c5f5933.html', 'title': 'OECD Science, Technology and Innovation Outlook 2025', 'snippet': 'Ministries and authorities with formal STI policy responsibilities need to help orchestrate this effort and steer public and private ...', 'date': '2025-10-28', 'last_updated': None, 'matched': True}, {'url': 'https://www.state.gov/cybersecurity', 'title': 'Cybersecurity - United States Department of State', 'snippet': 'Generating predictive threat analysis to track malicious cyber activity, delivering threat alerts, hastening deployment of technical countermeasures, and ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Tertiary Education, Science and Technology in MAURITIUS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (Ministerio de Ciencia, Tecnología e Innovación) in COLOMBIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5453,27 +5461,27 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ministry of Education, Tertiary Education, Science and Technology in MAURITIUS</t>
+          <t>Ministry of Science, Technology and Innovation (Ministerio de Ciencia, Tecnología e Innovación) in COLOMBIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ministry of Education, Tertiary Education, Science and Technology</t>
+          <t>Ministry of Science, Technology and Innovation (Ministerio de Ciencia, Tecnología e Innovación)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Tertiary Education, Science and Technology in Mauritius is mentioned in national strategies primarily in the context of promoting cybersecurity education and developing a cyber-aware workforce through inclusion of cybersecurity topics in curricula at primary, secondary, and tertiary levels. It participates in fostering cybersecurity education and research activities but does not appear to have direct responsibility for national cybersecurity policy, implementation, or incident response coordination. The primary cybersecurity operational roles, including hosting of the national CERT-MU and coordination of cybersecurity policy and incident response, are under the Ministry of Information Technology, Communication and Innovation and related bodies. Therefore, the Ministry of Education's role is supportive and educational rather than executive or enforcement-based in cybersecurity governance and management [2][4][5][6].</t>
+          <t>The Ministry of Science, Technology and Innovation (MinCiencias) is explicitly responsible for cybersecurity in Colombia. It is designated as the national authority for Artificial Intelligence (AI), which includes oversight of cybersecurity aspects related to AI systems, and is tasked with technical guidance, coordination, and oversight of AI governance, including cybersecurity preparedness and digital security standards [4][5][6]. The Ministry released a strategic roadmap for the ethical and sustainable adoption of AI, which includes privacy, cybersecurity, and defense as key focus areas [7]. Furthermore, MinCiencias published the Strategic Plan for Information Technologies (IT) and Digital Transformation 2023–2026, which emphasizes cybersecurity as a strategic component and integrates cybersecurity preparedness into institutional planning and governance [2]. The Ministry also leads or is a member of multi-sectoral committees and advisory councils for AI and cybersecurity, ensuring inter-institutional collaboration and policy updates [6][7]. These roles and responsibilities confirm that MinCiencias is a central authority for cybersecurity policy, implementation, and technical coordination in Colombia.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5483,14 +5491,14 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>[{'url': 'https://doingbusinessinmauritius.com/launch-of-national-cyber-drill-2025-mauritius-doubles-down-on-cybersecurity/', 'title': 'Launch of National Cyber Drill 2025: Mauritius Doubles Down on ...', 'snippet': 'Mauritius has strengthened its cybersecurity defences with the launch of the National Cyber Drill 2025 at the Caudan Arts Centre.', 'date': '2025-05-15', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-2023-2026-of-mauritius', 'title': 'The National Cybersecurity Strategy 2023-2026 of Mauritius', 'snippet': "The strategy aims to bolster law enforcement's technical capabilities, improve incident reporting mechanisms, and foster a culture of collective responsibility ...", 'date': '2024-10-18', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'http://www.ist-africa.org/home/default.asp?page=doc-by-id&amp;docid=5551', 'title': 'Current ICT Initiatives and projects - Mauritius - IST-Africa', 'snippet': 'CERT-MU serves as a focal point in Mauritius for computer security incident reporting and Response. Mauritius is placed 6th globally and first in Africa based ...', 'date': '2013-01-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/mauritius/~technology', 'title': 'Mauritius | Technology - Education Profiles', 'snippet': 'One of the four goals of the strategy is to improve cybersecurity education at all levels from primary to tertiary education by including it in ...', 'date': '2023-06-08', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Mauritius_2014_National%20Cyber%20Security%20Strategy%20-%202014%20-%20EN.pdf', 'title': '[PDF] Republic of Mauritius - National Cyber Security Strategy - ITU', 'snippet': 'It is important to provide political guidance and strategic guidelines for cyber security and take necessary decisions regarding the allocation of resources and ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://govmu.org/EN/infoservices/comm/Pages/security.aspx', 'title': 'Cyber Security - Republic of Mauritius', 'snippet': 'The CERT-MU plays a crucial role for coordinating cybersecurity response activities, promoting cybersecurity at national level, monitoring Internet threats and ...', 'date': '2025-09-13', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://cert-mu.govmu.org/cert-mu/?page_id=1700', 'title': 'Cybersecurity Drills – Computer Emergency Response ... - CERT-MU', 'snippet': 'CERT-MU conducts cyber security drills to improve cybersecurity readiness, protection, and incident response capabilities of organisations at regional and ...', 'date': '2023-05-01', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.first.org/resources/papers/aa-dec2021/National-Cyber-Crisis-Management-Plan-Training-slides-Part-3.pdf', 'title': '[PDF] CERT-MU Computer Emergency Response Team of Mauritius', 'snippet': 'Governance Committee: National Disaster Cybersecurity and Cybercrime Committee ( NDCCC – is an apex committee and its role is to coordinate and monitor the.', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.scribd.com/document/684466282/Mauritius', 'title': 'Mauritius | PDF | Computer Security - Scribd', 'snippet': "The mission is to integrate information security into the country's information society. The goals are to: 1) secure cyberspace and defend against cybercrime, 2 ...", 'date': None, 'last_updated': '2024-07-13', 'matched': True}]</t>
+          <t>[{'url': 'https://cms.law/en/int/expert-guides/cms-expert-guide-to-data-protection-and-cyber-security-laws/colombia', 'title': 'Data protection and cybersecurity laws in Colombia - CMS Law Firm', 'snippet': 'Its main purpose is to coordinate necessary actions to protect infrastructure from cybersecurity emergencies that may threaten or compromise ...', 'date': '2021-02-18', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://dig.watch/resource/colombias-strategic-plan-for-information-technologies-it-and-digital-transformation-2023-2026', 'title': "Colombia's strategic plan for information technologies (IT) and ...", 'snippet': "The strategy aims to align IT with the Ministry's mission, vision, and institutional objectives by using technology as a key enabler of digital transformation.", 'date': '2025-07-17', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://www.cgfm.mil.co/en/multimedia/noticias/digital-governance-defense-sector-urgent-challenge', 'title': 'Digital governance in the Defense Sector: an urgent challenge', 'snippet': 'To strengthen digital governance, the Ministry of Defense has promoted the Science, Technology and Innovation Policy for the Security and ...', 'date': '2025-05-06', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://insightplus.bakermckenzie.com/bm/intellectual-property/colombia-the-government-of-colombia-introduces-a-new-bill-to-regulate-artificial-intelligence_1', 'title': 'The Government of Colombia introduces a new bill to regulate ...', 'snippet': 'Under the Bill, the Ministry of Science, Technology, and Innovation will serve as the primary enforcement authority under the Bill, with the ...', 'date': '2025-07-30', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://connectontech.bakermckenzie.com/colombia-the-government-of-colombia-introduces-a-new-bill-to-regulate-artificial-intelligence/', 'title': 'The Government of Colombia introduces a new bill to regulate ...', 'snippet': 'Under the Bill, the Ministry of Science, Technology, and Innovation will serve as the primary enforcement authority under the Bill, with the ...', 'date': '2025-08-05', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'http://www.bu.com.co/en/insights/noticias/regulatory-developments-artificial-intelligence-colombia', 'title': 'Regulatory developments in Artificial Intelligence in Colombia', 'snippet': 'The Ministry of Science, Technology, and Innovation is designated as the national authority for AI, responsible for technical guidance ...', 'date': '2025-08-06', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://regulatingai.org/roadmap-for-ethical-and-sustainable-adoption-of-artificial-intelligence-ai/', 'title': 'Roadmap for Ethical and Sustainable Adoption of Artificial ...', 'snippet': 'Ethics and governance are crucial for the successful implementation of AI systems in Colombia, ensuring respect for citizen rights and privacy. The roadmap also ...', 'date': '2024-07-03', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/colombia-defense-and-security-innovation-initiative', 'title': 'Colombia Defense and Security innovation initiative', 'snippet': "The 'Fuerza Innovación' initiative provides a strategic platform for US companies to contribute to Colombia's defense and security advancements.", 'date': '2024-10-31', 'last_updated': '2024-11-07', 'matched': True}, {'url': 'https://iuslaboris.com/insights/unpacking-colombias-new-ai-bill/', 'title': "Colombia's AI Bill: what employers need to know - Ius Laboris", 'snippet': 'Colombia introduces an AI Bill to regulate responsible use of technology. We explain the key principles and what it means for employers.', 'date': '2025-09-02', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the National Agency for Research and Development (NARD) in MOLDOVA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Environment, Climate Change and Technology in MALDIVES responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5498,27 +5506,27 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>National Agency for Research and Development (NARD) in MOLDOVA</t>
+          <t>Ministry of Environment, Climate Change and Technology in MALDIVES</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>National Agency for Research and Development (NARD)</t>
+          <t>Ministry of Environment, Climate Change and Technology</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>There is no evidence in the provided search results that the National Agency for Research and Development (NARD) in Moldova is responsible for cybersecurity. The sources indicate that cybersecurity responsibilities in Moldova are held by the newly established National Agency for Cyber Security (ANC), which is tasked with implementing state cybersecurity policy, ensuring high security for networks and information systems, forming a national cyber incident response team, and serving as the national contact point for international cooperation in cybersecurity [1][2][5]. The Cyber Security Coordinating Council, established in 2024, is also mentioned as coordinating the implementation of the National Cyber Security Strategy and incident response plans [2]. None of the documents reference NARD as having any role in cybersecurity policy, implementation, technical coordination, hosting a national CERT/CSIRT, leading or participating in cybersecurity committees, overseeing information security standards, or participating in cybersecurity events or international initiatives [1][2][3][4][5][6][7][8].</t>
+          <t>The Ministry of Environment, Climate Change and Technology (MoECCT) in Maldives leads and implements projects aimed at supporting digital technologies for climate adaptation and digital economy development, including fostering legal and regulatory frameworks related to data protection, cybersecurity, and cybercrime. However, there is no explicit indication that the Ministry is primarily responsible for national cybersecurity governance or technical coordination. Key cybersecurity roles such as operational security services and hosting a national CERT/CSIRT are associated with the National Centre for Information Technology (NCIT) and the Ministry of Homeland Security and Technology. MoECCT's role includes supporting cybersecurity via regulatory frameworks and capacity building alongside other agencies, but it is not the lead body for cybersecurity policy, enforcement, or incident response[1][3][5][7][9].</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5528,14 +5536,14 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ega.ee/moldova-establishes-national-cybersecurity-agency/', 'title': 'Moldova Establishes National Cybersecurity Agency with eGA ...', 'snippet': 'The newly formed Agency will be responsible for implementing state policies on cybersecurity, ensuring high security for the networks and ...', 'date': '2023-12-27', 'last_updated': '2025-02-04', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/md/', 'title': 'NCSI :: Moldova (Republic of) - National Cyber Security Index', 'snippet': "The Agency is responsible for identification and accounting of service providers; state supervision and control of service providers' compliance with legal ...", 'date': '2024-10-11', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/MoldovaCybersecurityGovernanceAssessment.pdf', 'title': '[PDF] Moldova Cybersecurity Governance Assessment - DCAF', 'snippet': "This report analyzes Moldova's cybersecurity, including legislative framework, key actors, threats, and needs, aiming to identify future reform ...", 'date': '2020-11-25', 'last_updated': '2023-10-17', 'matched': True}, {'url': 'https://www.csis.org/analysis/strengthening-moldovas-cyber-landscape', 'title': "Strengthening Moldova's Cyber Landscape - CSIS", 'snippet': 'This law requires incident reporting, as well as safeguards, cooperation, and network standards for all medium-sized or larger internet service ...', 'date': '2024-10-08', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.eeas.europa.eu/delegations/moldova/moldova-adopted-eu-backed-cybersecurity-law_en', 'title': 'Moldova adopted the EU-backed Cybersecurity Law - EEAS', 'snippet': '"The adoption of the cybersecurity law is an important step for the Republic of Moldova to improve its resilience to hybrid threats and to ...', 'date': '2023-05-11', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://eufordigital.eu/moldova-enhances-cybersecurity-measures-to-protect-national-interests/', 'title': 'Moldova enhances cybersecurity measures to protect national ...', 'snippet': 'Moldova strengthens cybersecurity by aligning regulations with the new law, enhancing protection for critical sectors and public safety.', 'date': '2025-03-24', 'last_updated': '2025-04-09', 'matched': True}, {'url': 'https://ncsc.md/cyberforum', 'title': 'cybersecurity - ASC', 'snippet': 'The Moldova Cybersecurity Forum 2025, organized by ASC, will be held April 10-11, 2025, focusing on digital security and threat intelligence.', 'date': '2025-04-10', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://edutechtalks.com/moldovas-cybersecurity-revolution-empowering-education-in-the-digital-age/', 'title': "Moldova's cybersecurity revolution: empowering education in the ...", 'snippet': "The ANC epitomises Moldova's proactive approach, actively safeguarding critical infrastructure, government systems, and citizens from cyber ...", 'date': '2024-02-16', 'last_updated': '2025-06-20', 'matched': True}]</t>
+          <t>[{'url': 'https://www.environment.gov.mv/v2/en/project/19723', 'title': 'The Digital Maldives for Adaptation, Decentralization and ...', 'snippet': 'The proposed Project aims to support the use of digital technologies to decentralize, diversify and to adapt to climate change.', 'date': '2023-04-27', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://tech-action.unepccc.org/wp-content/uploads/sites/2/2024/07/maldives-tna-adaptation-report.pdf', 'title': '[PDF] maldives - technology needs assessment report', 'snippet': 'The TNA process is designed to support countries to carry out improved Technology Needs Assessments within the framework of the UNFCCC. The Ministry of ...', 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://presidency.gov.mv/Press/Article/27369', 'title': "'Cyber Safe Maldives' will be the basis for safe internet and ...", 'snippet': "'Cyber Safe Maldives' will be the basis for safe internet and technology use in Maldives, says Vice President.", 'date': '2022-10-04', 'last_updated': '2025-03-29', 'matched': True}, {'url': 'https://dmadd.gov.mv/en/announcements/hiring-of-an-individual-consultant-for-system-penetration-testing-national', 'title': 'Hiring of an Individual consultant for system penetration testing ...', 'snippet': "The primary goal is to enhance the overall security posture and resilience of DNR's digital assets by addressing potential weaknesses and ...", 'date': '2024-03-26', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://www.undp.org/sites/g/files/zskgke326/files/2025-06/stateofdigitalmay20th.pdf', 'title': '[PDF] THE STATE OF DIGITAL IN THE MALDIVES', 'snippet': 'The Ministry of Homeland Security and Technology houses many key agencies related to digital initiatives, including the National Centre for Information.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.environment.gov.mv/v2/download/2830/', 'title': '[PDF] Ministry of Environment, Climate Change and Technology', 'snippet': 'The project objective is to enhance the enabling environment for the digital economy in Maldives, to improve identification for in-person ...', 'date': '2023-05-31', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://storage.googleapis.com/gazette.gov.mv/docs/iulaan/85083.pdf', 'title': '[PDF] National Centre for Information Technology - Googleapis.com', 'snippet': 'The Ministry intends to hire a Lead Security Operations Center (SOC) Engineer with experience in Network. Security and manage the operations of the Cyber ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.worldbank.org/en/news/feature/2022/02/08/realising-a-digital-future-for-maldives', 'title': 'Realising a Digital Future for Maldives - World Bank', 'snippet': 'Digital technologies can help individuals and industries foresee and react to climate change, as well as manage catastrophe risks, by gathering ...', 'date': '2022-02-08', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.itu.int/itu-d/sites/bdt-highlights/highlights-november-2023/', 'title': 'Highlights November 2023 - ITU', 'snippet': 'ITU provided technical cybersecurity trainings to the Maldives, as part of the Ministry of Environment, Climate Change and Technology (MECCT) ...', 'date': '2023-12-01', 'last_updated': '2025-11-05', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Technology, Higher Education and Professional Technical in MOZAMBIQUE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Transport, Energy, Communications and Innovation in TUVALU responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5543,27 +5551,27 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology, Higher Education and Professional Technical in MOZAMBIQUE</t>
+          <t>Ministry of Transport, Energy, Communications and Innovation in TUVALU</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Ministry of Science and Technology, Higher Education and Professional Technical</t>
+          <t>Ministry of Transport, Energy, Communications and Innovation</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Technology, Higher Education and Professional Technical in Mozambique is involved in cybersecurity matters, particularly in the context of higher education and technical institutions, and participates in discussions and meetings regarding the development of cybersecurity policy and legal frameworks. For example, the Minister from this ministry has attended meetings with stakeholders such as MISA-Mozambique to explore synergies for cybersecurity and has highlighted the need for effective data protection and alignment with international standards [3]. However, the primary responsibility for national cybersecurity policy, coordination, and technical oversight is assigned to other entities. The National Institute of Information and Communication Technologies (INTIC) is designated as the central government entity responsible for leading and directing cybersecurity policy development and strategy implementation [4][6]. The National Cyber Security Council, chaired by the Minister responsible for ICTs, coordinates cybersecurity efforts and includes representatives from various ministries, defense, justice, finance, education, health, and regulatory agencies, as well as the private sector, civil society, and academia [2][5]. While the Ministry of Science and Technology, Higher Education and Professional Technical is a participant in these broader efforts, it does not hold the lead or primary responsibility for cybersecurity governance, prevention, planning, response, or enforcement at the national level.</t>
+          <t>The Ministry of Transport, Energy, Communications and Innovation in Tuvalu is responsible for cybersecurity as it oversees the Department of ICT, which is tasked with ensuring the availability of secure ICT services and advancing digital transformation initiatives, including cybersecurity (Source 3). The Ministry is also associated with the implementation of the Tuvalu National ICT Policy, which explicitly outlines cybersecurity as a key focus area, including the establishment of a Tuvalu Computer Emergency Response Team (CERT) and the promotion of cyber security awareness programs (Source 2). The Ministry's leadership, under Minister Simon Kofe, has been instrumental in advancing cybersecurity and digital resilience, including the development of digital public infrastructure and the protection of national digital assets (Source 5). These responsibilities and activities indicate a high level of cybersecurity responsibility for the Ministry.</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5573,14 +5581,14 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>[{'url': 'https://360mozambique.com/development/government-strengthens-cyber-defense-capacity-in-public-and-academic-institutions/', 'title': 'Government Strengthens Cyber Defense Capacity in Public and ...', 'snippet': 'The Government has also promoted awareness campaigns on information security, as well as established governmental and academic CSIRTs to protect ...', 'date': '2025-09-03', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://dig.watch/resource/mozambiques-national-cybersecurity-policy', 'title': "Mozambique's national cybersecurity policy", 'snippet': 'Safeguard national critical infrastructure and digital assets. · Regulate the use of cyberspace. · Build institutional and operational cybersecurity capacity.', 'date': '2025-06-21', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://misa.org.mz/government-and-misa-mozambique-explore-synergies-for-cyber-security/', 'title': 'Government and MISA Mozambique explore synergies for cyber ...', 'snippet': 'This is one of several meetings promoted by MISA-Mozambique with key stakeholders in the process of identifying the main challenges and opportunities that exist ...', 'date': '2020-07-07', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://papers.academic-conferences.org/index.php/eccws/article/download/1194/1203/4430', 'title': '[PDF] Cybersecurity in Mozambique: Status and Challenges', 'snippet': 'This. “requires enforceable policy safeguard, risk prevention and management approaches, along with technologies and infrastructure that can protect each ...', 'date': None, 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://paradigmhq.org/wp-content/uploads/2024/06/Mozambique-Country-Report.pdf', 'title': '[PDF] MOZAMBIQUE - Paradigm Initiative', 'snippet': 'In particular, the report analysed topics related to freedom of expression, cyber security, and surveillance, as well as data protection, given that. Mozambique ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mz/', 'title': 'NCSI :: Mozambique - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2023-11-29', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://wjis.org/index.php/wjis/article/download/11/8', 'title': '[PDF] Proposal for a Cybersecurity Framework for the Digital ...', 'snippet': 'Therefore, the DSR will allow the development and evaluation of effective practical solutions to mitigate and resolve Cybersecurity risks in SMEs in Mozambique ...', 'date': None, 'last_updated': '2025-05-19', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/mozambique/~technology', 'title': 'Mozambique | Technology - Education Profiles', 'snippet': 'The 2022 National Cybersecurity Policy and Strategy aims to create and develop an institutional and operational capacity to create a safe ...', 'date': '2024-08-06', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://intic.gov.mz/wp-content/uploads/2025/04/Draft-Mozambique-Data-Diagnostic-April-2025-for-Government-2.pdf', 'title': '[PDF] Data GOVERNANCE IN Mozambique - INTIC', 'snippet': 'This report is a product of close and constructive collaboration between the Government of Mozambique, the African Development Bank Group, and the World ...', 'date': None, 'last_updated': '2025-11-03', 'matched': True}]</t>
+          <t>[{'url': 'https://finance.gov.tv/wp-content/uploads/2022/08/National-ICT-Policy-2021.pdf', 'title': '[PDF] Tuvalu National ICT Policy - 2021.docx', 'snippet': 'The Ministry of Justice, Communication and Foreign Affairs has the overall responsibility for the implementation of the 2021 Tuvalu National ICT Policy.', 'date': None, 'last_updated': '2024-06-04', 'matched': True}, {'url': 'https://ict.gov.tv/wp-content/uploads/2024/11/Tuvalu-National-ICT-Policy_final-y.pdf', 'title': '[PDF] TUVALU NATIONAL ICT POLICY', 'snippet': "Tuvalu's ICT policy aims to transform public services, promote citizen opportunities, enhance economic development, and extend mobile services to outer islands.", 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ict.gov.tv', 'title': 'Department of ICT', 'snippet': 'To improve the livelihoods of Tuvaluan by ensuring the availability of accessible, efficient, reliable, affordable and secure ICT services.', 'date': '2020-07-06', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://tech-action.unepccc.org/wp-content/uploads/sites/2/2025/01/tna-mitigation-tuvalu-final.pdf', 'title': '[PDF] Government of Tuvalu TECHNOLOGY NEEDS ASSESSMENT ...', 'snippet': 'This study covers all islands and focuses on Community Vulnerabilities in five sectors;. ○ Water resources and security. ○ Health and Sanitation. ○ Energy ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://interweavegov.substack.com/p/a-conversation-with-simon-kofe-tuvalus', 'title': "A conversation with Simon Kofe, Tuvalu's Minister for Transport ...", 'snippet': 'By 2050, Tuvalu could potentially be entirely underwater, and digital is being employed as one of the primary methods of defense for preserving ...', 'date': '2025-10-12', 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://www.adb.org/news/adb-tuvalu-commission-latest-achievements-clean-energy-project-funafuti', 'title': 'ADB, Tuvalu Commission Latest Achievements of Clean Energy ...', 'snippet': '“The completed project is helping the government to transform energy supply in Funafuti and the outer islands from a manual diesel-based power system into a ...', 'date': '2024-11-20', 'last_updated': '2025-07-06', 'matched': True}, {'url': 'https://www.imo.org/en/MediaCentre/Pages/WhatsNew-2179.aspx', 'title': "Supporting shipping's digitalization in Tuvalu - WhatsNewNews", 'snippet': 'The regulations requiring MSWs in all IMO Member States mark a significant step in accelerating the digitalization of shipping. Representatives ...', 'date': '2024-11-12', 'last_updated': '2025-01-07', 'matched': True}, {'url': 'https://www.dfat.gov.au/sites/default/files/australia-tuvalu-development-partnership-plan-2025-2030.pdf', 'title': "[PDF] Australia's – Tuvalu Development Partnership Plan 2025 – 2029", 'snippet': 'The plan supports Tuvalu in climate adaptation, education, health, telecommunications, connectivity, economic resilience, and includes a mobility pathway and ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Technology in KIRIBATI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology (Iraq) in IRAQ responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5588,17 +5596,17 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology in KIRIBATI</t>
+          <t>Ministry of Science and Technology (Iraq) in IRAQ</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Technology</t>
+          <t>Ministry of Science and Technology (Iraq)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5608,7 +5616,10 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Technology in Kiribati is primarily responsible for integrating cybersecurity education into the national curricula for primary and high school students as part of the Kiribati National Cybersecurity Strategy 2020. They cooperate with CERT Kiribati and other authorities in developing training materials, awareness programs, and child online protection initiatives within educational settings. However, the main responsibility for national cybersecurity policy, cybersecurity implementation, and technical coordination—including hosting CERT Kiribati—rests with the Ministry of Information, Communications, Transport and Tourism Development (MICTTD). The Ministry of Education's role in cybersecurity is focused on educational aspects and awareness rather than governance, incident response, or enforcement functions. Therefore, the Ministry of Education has a supportive but limited role in the overall cybersecurity governance of Kiribati[1][2][3][4][10].</t>
+          <t>The Ministry of Science and Technology in Iraq is not explicitly mentioned as the primary entity responsible for national cybersecurity policy, implementation, or technical coordination in available national strategies, laws, or official reports. Evidence from the National Cyber Security Index (NCSI) indicates that responsibility for national cybersecurity strategy and policy development is assigned to a competent entity within the central government, but this is not identified as the Ministry of Science and Technology [2]. Instead, the Council of Ministers Secretariat (CoMSec) is referenced as having a division tasked with overseeing e-governance, and there are calls for a supreme body or higher council for cyberspace directly linked to the Council of Ministers, not the Ministry of Science and Technology [1, 4].
+There is no evidence that the Ministry of Science and Technology hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee or council, or oversees information security standards or network protection for the country. The Ministry of Communications is mentioned as being concerned with cyberspace, but even its relationship with other ministries is described as lacking, indicating a fragmented landscape [4].
+The Ministry of Science and Technology does play a role in the broader ICT and digital transformation landscape, including supporting research and development, and universities under its purview may engage in cybersecurity-related research or education. However, this does not equate to direct responsibility for national cybersecurity governance, prevention, planning, response, or enforcement [7].
+Therefore, while the Ministry may have some indirect involvement in cybersecurity through research or education, its responsibility for national cybersecurity is low.</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5618,14 +5629,14 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/the-kiribati-national-cybersecurity-strategy-2020', 'title': 'The Kiribati national cybersecurity strategy 2020', 'snippet': "Safeguard citizens' rights and protect the country's digital infrastructure. · Enhance the resilience of Kiribati's growing ICT ecosystem against cyber threats.", 'date': '2025-07-10', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://education-profiles.org/oceania/kiribati/~technology', 'title': 'Kiribati | Technology - Education Profiles', 'snippet': 'The Ministry of Education is overall responsible for the integration of ICT in education in various areas, such as e-learning and the ...', 'date': '2023-05-26', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.mict.gov.ki/sites/default/files/publications/National%20Cybersecurity%20Policy_0.pdf', 'title': '[PDF] Kiribati National Cybersecurity Strategy 2020', 'snippet': 'CERTKiribati will make recommendations and work in collaboration with the Ministry of Education for introduction of cybersecurity into the national education.', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/cmm-impact-note-empowering-cyber-development-kiribati', 'title': 'Kiribati | Global Cyber Security Capacity Centre - University of Oxford', 'snippet': 'Capacity Building: Kiribati prioritised cybersecurity awareness and education initiatives, integrating cybersecurity into the national education curriculum.', 'date': '2004-02-01', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ki/?allData=1', 'title': 'NCSI :: Kiribati - National Cyber Security Index', 'snippet': 'PREVENTIVE CYBERSECURITY INDICATORS · 7. CYBER THREAT ANALYSIS AND AWARENESS RAISING 0/12 0%. 0. 12 0%. 7.1. Cyber threat analysis 0. 0. 3. Requirements.', 'date': '2025-02-14', 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://www.employment.gov.ki/sites/default/files/2023-05/JD-%20Information_Security_Analyst.pdf', 'title': '[PDF] Information Security Analyst - GOVERNMENT OF KIRIBATI', 'snippet': '• Develop a plan for Cybersecurity capacity building for all of government. • Assist in developing and planning for. Cybersecurity inclusion in Education ...', 'date': None, 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://www.employment.gov.ki/sites/default/files/2023-03/L6-5%20-%20Senior%20Information%20System%20Analyst%20(1).pdf', 'title': '[PDF] Senior Information System Analyst (1) - GOVERNMENT OF KIRIBATI', 'snippet': 'Lead the development and plan for Cybersecurity inclusion in Education curricula. Officials and students have sound knowledge on Cybersecurity and internet ...', 'date': None, 'last_updated': '2024-12-01', 'matched': True}, {'url': 'https://pacson.org/members/kiribati', 'title': 'Kiribati | Pacific Cyber Security Operational Network (PaCSON)', 'snippet': 'The ICT Policy and Development Division of MICTTD is the division responsible for advising the Government on ICT related matters, coordinating the ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://bidenwhitehouse.archives.gov/briefing-room/statements-releases/2023/09/25/fact-sheet-enhancing-the-u-s-pacific-islands-partnership/', 'title': 'FACT SHEET: Enhancing the U.S.-Pacific Islands Partnership', 'snippet': 'In addition, through partnership with the Kiribati Ministry of Education, the program would empower youth with the skills they need to thrive in ...', 'date': '2023-09-25', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://www.mict.gov.ki/sites/default/files/publications/National%20ICT%20Policy_4.pdf', 'title': '[PDF] Kiribati National ICT Policy 2019', 'snippet': 'Ministry of Education, to bring the level of knowledge about cyber security and ways to protect the children, citizens and businesses of Kiribati against ...', 'date': None, 'last_updated': '2025-10-13', 'matched': True}]</t>
+          <t>[{'url': 'https://ouriraq.org/article/policy-brief-advancing-e-governance-and-digital-transformation-iraq', 'title': 'Advancing E-Governance and Digital Transformation in Iraq | ouraq', 'snippet': 'Iraq has faced significant cybersecurity challenges, including frequent hacking incidents targeting government websites and the leakage of ...', 'date': '2024-10-30', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/iq/', 'title': 'NCSI :: Iraq - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2023-11-29', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://ijsu.researchcommons.org/cgi/viewcontent.cgi?article=1108&amp;context=ijsu', 'title': '[PDF] The Role of Cyber Threats in Shaping National Security in Iraq', 'snippet': 'Iraq should adopt a national cybersecurity strategy to safeguard national security and protect the Iraqi state in cyberspace. 2. Cybersecurity ...', 'date': '2025-05-13', 'last_updated': '2025-05-24', 'matched': True}, {'url': 'https://www.sysrevpharm.org/articles/relationship-of-cybersecurity-and-the-national-security-of-the-country-iraq-case-study.pdf', 'title': '[PDF] Relationship of Cybersecurity and the National Security of the Country', 'snippet': 'Establishing a supreme body or a higher council for cyberspace, directly linked to the Council of Ministers, take charge of cyberspace directly in Iraq, ...', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.tamimi.com/law-update-articles/cybercrime-legislation-iraq/', 'title': 'Cybercrime Legislation in Iraq | Al Tamimi &amp; Company', 'snippet': 'Al Tamimi &amp; Company provides an overview of cybercrime in Iraq and discuss the efficacy of Iraqi legislation surrounding cybercrime.', 'date': '2018-05-03', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://channel8.com/english/news/30306', 'title': 'Iraq and Iran Seek Stronger ICT Ties, Eyeing AI and Cybersecurity ...', 'snippet': 'Currently, 13 universities and a research institute affiliated with the Ministry of Science, Research, and Technology offer aerospace programs, ...', 'date': '2025-01-31', 'last_updated': '2025-06-22', 'matched': True}, {'url': 'https://jummar.media/en/9299', 'title': 'Artificial intelligence in Iraq: Between digital ambitions and fragile ...', 'snippet': 'At the university level, the University of Baghdad and Al-Nahrain University have established labs dedicated to developing AI technologies.', 'date': '2025-08-07', 'last_updated': '2025-10-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Research, Science and Technology (MoHERST) in GAMBIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technological Development and Innovation in SERBIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5633,17 +5644,17 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology (MoHERST) in GAMBIA</t>
+          <t>Ministry of Science, Technological Development and Innovation in SERBIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Research, Science and Technology (MoHERST)</t>
+          <t>Ministry of Science, Technological Development and Innovation</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5653,7 +5664,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Comprehensive review of multiple official Gambian cybersecurity strategy and policy documents from 2016 to 2024 shows that the primary responsibility for cybersecurity governance and coordination lies with the Ministry of Information and Communication Infrastructure (MOICI)/Ministry of Communications and Digital Economy (MOCDE), which leads the National Cybersecurity Coordination Directorate (NCCD), the National Cybersecurity Committee (NCSC), and the Gambia Computer Security Incident Response Team (GM-CSIRT)[1][2][3][4][6]. MoHERST is mentioned as a participant mainly in the context of organizing practical ICT courses and workshops for students in coordination with NCCD and other ministries, indicating a support role in cybersecurity education rather than leadership or technical responsibility[2]. There is no evidence that MoHERST is explicitly mentioned in national strategies, laws, or policies as responsible for cybersecurity policy, implementation, technical coordination, or hosting a national CERT/CSIRT. The focal governance and operational cybersecurity roles are centralized under MOICI/MOCDE and its affiliated institutions and working groups[1][3][4][6]. Therefore, MoHERST’s role in Gambian cybersecurity is limited and indirect, mainly in capacity building through education rather than cybersecurity governance or operational responsibility.</t>
+          <t>The Ministry of Science, Technological Development and Innovation in Serbia primarily focuses on research, technological development, innovation, and strategies related to artificial intelligence and technological advancement, but it is not explicitly mentioned as responsible for cybersecurity governance, policy, implementation, or hosting national cybersecurity teams. Cybersecurity responsibilities in Serbia are centered largely in the Ministry of Information and Telecommunications, which prepares cybersecurity laws, hosts the National CERT, and coordinates national cybersecurity policy and operational response. The Ministry of Science supports digital transformation and technological development, which indirectly relates to information technology progress, but direct cybersecurity governance roles like policy leadership, national CERT operation, or enforcement are not attributed to it in the available sources[1][3][6].</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5663,14 +5674,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>[{'url': 'https://policies.gov.gm/d/caa6e199-5bad-11ec-9b31-029254d29bb1', 'title': '[PDF] The Gambia National Cybersecurity Strategy', 'snippet': "Cybersecurity is everyone's responsibility, whether they are users, owners, operators of ICT systems or government; hence this Strategy is based ...", 'date': '2016-07-12', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://gmcsirt.gm/wp-content/uploads/2021/12/20160628-Gambia-Cybersecurity-Action-Plan-V5-11.pdf', 'title': '[PDF] The Gambia Cybersecurity Strategy – Action Plan (Draft V5)', 'snippet': 'G0A1. Identify a small group of people (around 10-15 persons) with skills or interest in cybersecurity, selected preferably among the most active participants ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://mocde.gov.gm/wp-content/uploads/2023/12/National-Cybersecurity-Strategy-2022-2026.pdf', 'title': '[PDF] THE NATIONAL CYBERSECURITY STRATEGY AND ACTION ...', 'snippet': "Gambia's strategic cybersecurity goals etc. This provides a holistic ... Ministry of the Interior &amp; Gambia Police Force (GPF). The Gambia Police Force ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://mocde.gov.gm/wp-content/uploads/2023/12/Cybersecurity-Policy-2022-2026.pdf', 'title': '[PDF] THE NATIONAL CYBERSECURITY POLICY OF THE GAMBIA 2022', 'snippet': "In order to ensure safety and protection of citizens from cyber threats, it becomes a collective responsibility of all stakeholders to protect Gambia's cyber- ...", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://policies.gov.gm/f/46499671-80c9-11ef-b086-029254d29bb1', 'title': 'Cybersecurity-Policy-2022-2026 - Government', 'snippet': 'The policy aims to establish a resilient and secure cyberspace in The Gambia, safeguarding citizens, businesses, and government entities from cyber threats.', 'date': '2022-10-01', 'last_updated': '2025-07-05', 'matched': True}, {'url': 'https://gid.gov.gm/wp-content/uploads/2023/10/CYBERSECURITY-POLICY-2024.pdf', 'title': '[PDF] GAMBIA NATIONAL CYBER SECURITY POLICY 2020 - 2024', 'snippet': 'The Ministry in charge of national cyber security (MOICI) in collaboration with ... The Government of The Gambia (GoTG) recognizes the positive role of ICT as a.', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=jFHSmzT4sNs', 'title': "NCSC Unveils Operational Manual to Strengthen Gambia's Cyber ...", 'snippet': "In a significant move to bolster the nation's digital security, The Ministry of Communications and Digital Economy with support from the ...", 'date': '2025-11-14', 'last_updated': None, 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/en/entity/ldcgsbfb4jf/metadata?page=3&amp;file=1669307302538k7hqhxmgxzb.pdf', 'title': 'Gambia National Cyber Security Strategy and Action Plan 2020-2024', 'snippet': 'Enhance and coordinate the fight against all forms of cybercrime;; Promote the use of cyberspace to drive social and economic development. Its mission is to ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.telecomreviewafrica.com/articles/exclusive-interviews/4337-strengthening-cybersecurity-in-the-gambia-an-interview-with-sanusi-drammeh/', 'title': 'Strengthening Cybersecurity in The Gambia: An Interview with ...', 'snippet': 'Our key priorities include developing and implementing national cyber contingency and crisis plans, establishing a national Security Operating ...', 'date': '2024-07-02', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/1f7221545bf1b7c89b850dd85cb409b0-0400072021/related/The-Gambia-Digital-Economy-Diagnostic-Report-Final.pdf', 'title': '[PDF] The Gambia Digital Economy Diagnostic - The World Bank', 'snippet': 'Gambia National Cybersecurity Strategy - succeeded by National Cybersecurity Policy &amp; Strategy 2020-2024. 2016. National Information and Communication ...', 'date': None, 'last_updated': '2024-03-01', 'matched': True}]</t>
+          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/serbia-digital-economy', 'title': 'Serbia - Digital Economy - International Trade Administration', 'snippet': 'The Serbian Government has announced investments of over $70 million in Artificial Intelligence (AI) and other related technological and scientific research ...', 'date': '2024-09-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.osce.org/files/f/documents/d/2/404252.pdf', 'title': '[PDF] Guide through Information Security in the Republic of Serbia 2.0', 'snippet': 'The Directive further prescribes that security measures should be based on the principle of risk assessment-based governance – a culture that should be ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/serbia/~technology', 'title': 'Serbia | Technology - Education Profiles', 'snippet': 'The Serbian government recognizes the essential role that schools and teachers play in promoting digital literacy and aims to provide a ...', 'date': '2025-01-17', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://arhiva1.mtt.gov.rs/extfile/sr/35315/Information%20Society%20and%20InfoSec%20Strategy%202021-2026111.pdf', 'title': '[PDF] Pursuant to Article 38 paragraph 1 of the Law on Planning System of ...', 'snippet': 'The Information Society Development Strategy adopted in 2010 aimed at developing an information society focused on harnessing the potential of information and ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/sites/default/files/inline-files/NIFO_2024%20Supporting%20Document_Serbia_vFINAL.pdf', 'title': '[PDF] SERBIA - Interoperable Europe Portal', 'snippet': 'In the information society area, the Ministry is responsible for (i) the proposal of policies and strategies for the development of the information society; (ii) ...', 'date': None, 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://cordmagazine.com/interview/jelena-begovic-serbian-minister-of-science-technological-development-and-innovationtitle/', 'title': 'Jelena Begovic, Serbian Minister of Science, Technological ...', 'snippet': 'We aim to facilitate and accelerate exchanges of knowledge and resources, as well as the transfer of technologies between academia, industry and start-ups.', 'date': '2024-12-02', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://pametnaspecijalizacija.mpn.gov.rs/wp-content/uploads/2021/06/Strategija-pametne-specijalizacije_EN_WEB.pdf', 'title': '[PDF] SMART SPECIALISATION STRATEGY OF THE REPUBLIC OF ...', 'snippet': 'The Ministry of Education, Science and Technological Development of the Republic of Serbia, as the key actor in the development and coordination of the Smart ...', 'date': None, 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://ai.gov.rs/vest/en/1317/serbia-a-regional-leader-in-science-technology-and-innovation.php', 'title': 'Serbia: A Regional Leader in Science, Technology, and Innovation!', 'snippet': 'Serbia has been recognized as a leader in science, technology, and innovation (STI) in the Western Balkans region.', 'date': '2024-11-05', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.ebrd.com/content/dam/ebrd_dxp/documents/project/54083/project-science.pdf', 'title': '[PDF] serbia project science | ebrd', 'snippet': 'The Borrower will implement the Project through the Ministry of Science, Technological Development and Innovation (“MoSTDI”) and the Ministry.', 'date': '2025-06-14', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Sports in ALBANIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology, Higher Education and Professional Technical in MOZAMBIQUE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5678,17 +5689,17 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ministry of Education and Sports in ALBANIA</t>
+          <t>Ministry of Science and Technology, Higher Education and Professional Technical in MOZAMBIQUE</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Ministry of Education and Sports</t>
+          <t>Ministry of Science and Technology, Higher Education and Professional Technical</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5698,7 +5709,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Sports in Albania is involved in cybersecurity-related activities primarily focused on protecting children and raising awareness in educational contexts. It cooperates with national cybersecurity agencies such as the National Authority for Electronic Certification and Cyber Security (AKSK) and participates in workshops and training to increase cybersecurity capacities among its employees and in schools[1][2][3]. It supports filtering and protection against abusive and illegal online content for children in schools, working in conjunction with agencies responsible for cybersecurity policy and implementation[2][6]. The Ministry acts as the representative authority communicating with online platforms on public and social security issues in the digital environment but is not the primary body responsible for national cybersecurity governance, technical coordination, or enforcement[5]. The National Cybersecurity Authority (NAECCS/AKSK) and the National Agency for Information Society (AKSHI) are the main institutions mandated by law and national strategy to lead cybersecurity policy, incident response, and protection of critical infrastructure[1][2][4]. Therefore, the Ministry’s role is supportive and specialized in education-related cybersecurity matters rather than overarching policy or technical coordination. Confidence in this assessment is HIGH given official national cybersecurity strategy documents and governance reports that consistently identify other agencies as central cybersecurity actors and describe the Ministry of Education and Sports’ more limited, focused role in the cybersecurity ecosystem of Albania.</t>
+          <t>The Ministry of Science and Technology, Higher Education and Professional Technical in Mozambique is actively involved as a stakeholder in cybersecurity discussions and policy development, as evidenced by their engagement with MISA-Mozambique and emphasis on the need for cybersecurity legislation and policy aligned with international frameworks[3]. The Minister highlights the urgency of establishing a national cybersecurity policy and strategy, indicating a coordination or advocacy role rather than direct lead responsibility. The primary entity responsible for national cybersecurity governance and policy implementation is the National Institute of Information and Communication Technologies (INTIC), designated in 2017 to oversee cybersecurity at the national level[4][6]. Mozambique's national cybersecurity policy and strategy are led by the Conselho Nacional de Segurança Cibernética (CNSC), chaired by the Minister responsible for ICTs and supported by multiple ministries including education, health, and justice[2]. While the Ministry of Science and Technology is engaged in shaping cybersecurity policy and capacity building initiatives, it does not appear to have direct operational responsibility such as hosting a national CERT/CSIRT or leading cybersecurity enforcement, which is managed by INTIC and supported by other public entities like INAGE for electronic governance[1][4]. Accordingly, the Ministry holds a low level of cybersecurity responsibility related mainly to policy advocacy, coordination, and capacity development within academic and research sectors rather than primary cybersecurity governance or enforcement.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5708,14 +5719,14 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>[{'url': 'https://aksk.gov.al/wp-content/uploads/2024/01/Monitoring-of-the-National-Cyber-Security-Strategy-2022.pdf', 'title': '[PDF] Monitoring of National Cybersecurity Strategy 2020-2025 - AKSK', 'snippet': 'The strategy aims to guarantee national cybersecurity, build a safe cyber environment, protect children, and increase cooperation. It is based on principles ...', 'date': None, 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://aksk.gov.al/wp-content/uploads/2024/06/GOVERNANCE-REPORT-NAECCS-2023.pdf', 'title': '[PDF] REPORT CYBERSECURITY GOVERNANCE IN ALBANIA YEAR 2023', 'snippet': '- Raising awareness and education, as well as improving preventive and protective measures regarding cyber security threats, cybercrime and illegal online ...', 'date': None, 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://aksk.gov.al/wp-content/uploads/2024/10/MONITORING-REPORT-.pdf', 'title': '[PDF] MONITORING REPORT OF THE NATIONAL CYBER SECURITY ...', 'snippet': 'Starting in 2021, Albania, through NAECCS as the responsible institution for protecting children and raising awareness about potential online risks, committed ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.eeas.europa.eu/delegations/albania/cybersecurity-albania-new-era-fragmented-and-partially-manual-processes-fully-centralized-system_en', 'title': 'Cybersecurity in Albania in a new era, from fragmented and partially ...', 'snippet': "The mission of Albania's National Cybersecurity Authority (NCSA) is to ensure a secure digital environment for Albania's institutions, critical ...", 'date': '2025-09-30', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://scidevcenter.org/wp-content/uploads/2025/03/Working-paper_The-anatomy-of-a-DCoM.pdf', 'title': '[PDF] The Anatomy of a Decision Restricting Digital Rights - SCiDEV', 'snippet': 'The Ministry of Education and Sport, as representative of the Council of Minister, is mandated to communicate and negotiate with representatives ...', 'date': '2025-03-21', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/albania/~technology', 'title': 'Albania | Technology - Education Profiles', 'snippet': 'The Albanian Ministry of Education and Sport (MAS) took on the responsibility of creating online resources in the form of video recordings ...', 'date': '2024-08-05', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://papers.ssrn.com/sol3/Delivery.cfm/SSRN_ID3658345_code4291678.pdf?abstractid=3658345&amp;mirid=1', 'title': '[PDF] REPORT ON CYBERSECURITY MATURITY LEVEL IN ALBANIA', 'snippet': 'The Ministry of Education, Sport and Youth mandates that only doctorate. (PhD) holders can teach courses. As participants mentioned, this mandate creates a ...', 'date': None, 'last_updated': '2024-06-14', 'matched': True}, {'url': 'https://rtsh.al/rti/en/cybersecurity-strategy-2025-2030-faber-says-albania-now-fully-equipped-to-face-cyberattacks/', 'title': 'Cybersecurity Strategy 2025–2030: Faber Says Albania Now Fully ...', 'snippet': 'The approval of the National Cybersecurity Strategy 2025–2030 aims to strengthen the protection of critical digital infrastructures.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Regional-Presence/Europe/Documents/Events/2020/CSF/S6%20Vilma%20Tomco.pdf', 'title': '[PDF] Organization Introduction &amp; Current Situation of Cyber Security in ...', 'snippet': '➢ Register/ accredits Qualified Trusted Service Provider and oversees their activity. ➢ Determines the rules on electronic identification schemes, electronic ...', 'date': None, 'last_updated': '2023-10-12', 'matched': True}, {'url': 'https://www.mod.gov.al/images/PDF/2024/SSK-NSS-english.pdf', 'title': '[PDF] REPUBLIC OF ALBANIA ASSEMBLY LAW No. 14/2024 ON THE ...', 'snippet': 'At the same time, we are committed to fulfilling national obligations for responsible state behavior in cyberspace under the framework adopted by the UN General ...', 'date': None, 'last_updated': '2025-09-08', 'matched': True}]</t>
+          <t>[{'url': 'https://360mozambique.com/development/government-strengthens-cyber-defense-capacity-in-public-and-academic-institutions/', 'title': 'Government Strengthens Cyber Defense Capacity in Public and ...', 'snippet': 'According to the official, the initiatives come in response to the “significant increase in cyberattacks recorded in recent years” in Mozambique ...', 'date': '2025-09-03', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://dig.watch/resource/mozambiques-national-cybersecurity-policy', 'title': "Mozambique's national cybersecurity policy", 'snippet': 'Safeguard national critical infrastructure and digital assets. · Regulate the use of cyberspace. · Build institutional and operational cybersecurity capacity.', 'date': '2025-06-21', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://misa.org.mz/government-and-misa-mozambique-explore-synergies-for-cyber-security/', 'title': 'Government and MISA Mozambique explore synergies for cyber ...', 'snippet': 'This is one of several meetings promoted by MISA-Mozambique with key stakeholders in the process of identifying the main challenges and opportunities that exist ...', 'date': '2020-07-07', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://papers.academic-conferences.org/index.php/eccws/article/download/1194/1203/4430', 'title': '[PDF] Cybersecurity in Mozambique: Status and Challenges', 'snippet': 'According to the Ministry of Science and Technology and Higher Education this system will allow the integration of the public and private sector such as ...', 'date': None, 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/mozambique-information-and-communications-technology-ict', 'title': 'Mozambique - Information and Communications Technology (ICT)', 'snippet': 'The government tends to include minimum cybersecurity requirements in public procurement contracts to meet minimum ICT requirements, but ...', 'date': '2024-03-13', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mz/', 'title': 'NCSI :: Mozambique - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2023-11-29', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://wjis.org/index.php/wjis/article/download/11/8', 'title': '[PDF] Proposal for a Cybersecurity Framework for the Digital ...', 'snippet': 'Therefore, the DSR will allow the development and evaluation of effective practical solutions to mitigate and resolve Cybersecurity risks in SMEs in Mozambique ...', 'date': None, 'last_updated': '2025-05-19', 'matched': True}, {'url': 'https://education-profiles.org/sub-saharan-africa/mozambique/~technology', 'title': 'Mozambique | Technology - Education Profiles', 'snippet': 'The 2022 National Cybersecurity Policy and Strategy aims to create and develop an institutional and operational capacity to create a safe ...', 'date': '2024-08-06', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://intic.gov.mz/wp-content/uploads/2025/04/Draft-Mozambique-Data-Diagnostic-April-2025-for-Government-2.pdf', 'title': '[PDF] Data GOVERNANCE IN Mozambique - INTIC', 'snippet': 'This report is a product of close and constructive collaboration between the Government of Mozambique, the African Development Bank Group, and the World ...', 'date': None, 'last_updated': '2025-11-03', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Technology in SOUTH SUDAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the NONE in LAOS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5723,27 +5734,27 @@
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Technology in SOUTH SUDAN</t>
+          <t>NONE in LAOS</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Technology</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science and Technology (MoHEST) in South Sudan is primarily responsible for developing higher education policies, promoting science and technology research, and improving ICT within educational institutions as part of capacity-building and education development efforts[1][5][6]. However, there is no explicit evidence that MoHEST is responsible for national cybersecurity policy, implementation, technical coordination, or hosting a national CERT/CSIRT. Cybersecurity governance in South Sudan is not directly linked to this ministry in the available legal frameworks or policy documents. While the ministry focuses on ICT improvements in education and scientific research promotion, responsibilities related to national cybersecurity governance, enforcement, or incident response are not identified within its mandate[1][2][3][6][7]. Therefore, its role related to cybersecurity is limited to the educational and scientific context rather than direct national cybersecurity governance.</t>
+          <t>No evidence found in multiple authoritative sources indicates that an organization named 'NONE' in Laos is responsible for cybersecurity. The recognized entity leading cybersecurity responsibilities in Laos is the Ministry of Technology and Communications (MTC), which houses the Department of Cyber Security and supervises LaoCERT, the national Computer Emergency Response Team. The MTC is explicitly mentioned in legislation, national strategies, and official communications as the key authority managing cybersecurity policy, implementation, and coordination[1][2][3][6]. Other documents further confirm the Ministry of Technology and Communications' role in cybersecurity governance, data protection, and international cooperation, with no indication of any entity called 'NONE' playing a role in these areas[5][7][8].</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5753,14 +5764,14 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.unesco.org/en/articles/south-sudan-national-higher-education-policy-framework-2021-2025-validated-stakeholders', 'title': 'The South Sudan National Higher Education Policy Framework ...', 'snippet': 'The Ministry of Higher Education, Sciences and Technology (MoHEST) validated the Higher Education Policy Framework 2021-2025 in Juba.', 'date': '2023-04-20', 'last_updated': '2024-10-26', 'matched': True}, {'url': 'https://mojca.gov.ss/wp-content/uploads/2023/03/Higher-Education-Act-2012.pdf', 'title': '[PDF] Higher Education Act 2012', 'snippet': 'The Higher Education Act 2012 establishes a regulatory framework for higher education, aiming to meet learning needs, develop skills, and create knowledge.', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://mogei.gov.ss/super/assets/documents/resources/SS%20Structure.pdf', 'title': '[PDF] BOOK total.pmd - MOGEI', 'snippet': 'We widely consulted States Ministries of Education, Science and Technology to jointly review all the structures and harmonize the policies of the education in ...', 'date': None, 'last_updated': '2024-12-20', 'matched': True}, {'url': 'https://planipolis.iiep.unesco.org/sites/default/files/ressources/south_sudan_aes_policy_19.6.14.pdf', 'title': '[PDF] The Republic of South Sudan Ministry of Education, Science and ...', 'snippet': 'To provide equitable access and relevant quality learning opportunities for over age and out of school children, youth and adults in South Sudan so that they ...', 'date': None, 'last_updated': '2025-02-12', 'matched': True}, {'url': 'https://www.mohest.gov.ss', 'title': 'Ministry Of higher Education', 'snippet': 'Higher Education in South Sudan is post-secondary education, part of the Ministry of Education, Science and Technology, and is important for building modern ...', 'date': '2024-04-02', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.unirank.org/ss/org/ministry-of-education-science-and-technology-of-south-sudan/', 'title': 'Ministry of Education, Science and Technology of South Sudan', 'snippet': 'The ministry is also responsible for promoting and developing policies related to science and technology. This includes supporting research and development ...', 'date': None, 'last_updated': '2025-08-05', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/485912/ministry-of-education-science-and-technology', 'title': '️Ministry of Education, Science and Technology - DevelopmentAid', 'snippet': 'The Ministry is guided by the following principles: Mandate: Implement policies, plans, programs, and general coordination of higher education, science and ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}]</t>
+          <t>[{'url': 'https://www.dlapiperdataprotection.com/index.html?t=law&amp;c=LA', 'title': 'Data protection laws in Laos', 'snippet': 'LaoCERT is now a Division under direct supervision of the Department of Cyber Security in the MTC and is the agency on the front lines that ...', 'date': '2025-01-08', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://english.news.cn/20250625/b116614260f84dc0ada7dd314c059eb4/c.html', 'title': 'Laos continues efforts to boost cybersecurity - Xinhua', 'snippet': 'The law is expected to empower the Ministry of Technology and Communications and relevant agencies to better protect critical information ...', 'date': '2025-06-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-lao-pdr/', 'title': 'Cyber Security in Lao PDR - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'Laos has a Computer Emergency Response Team (CERT) under the Ministry of Post and Telecommunications. This team works to handle cyber security ...', 'date': '2024-10-24', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/la_2022/', 'title': 'NCSI :: Lao PDR - National Cyber Security Index', 'snippet': 'Criteria. A central government entity (ministry or equivalent) has a specialised official or unit responsible for national cyber security policy development.', 'date': '2021-09-13', 'last_updated': '2024-10-05', 'matched': True}, {'url': 'https://www.global-dms.com/strengthening-cybersecurity-capacity-in-laos-public-private-collaboration-in-action/', 'title': 'Strengthening Cybersecurity Capacity in Laos: Public–Private ...', 'snippet': 'GDMS joins Lao Ministry seminar to share cybersecurity best practices and support national efforts in digital resilience, awareness, and secure ICT ...', 'date': '2025-07-29', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://kpl.gov.la/En/detail.aspx?id=92111', 'title': 'Laos Takes Big Step Toward a Safer Digital Future with New ...', 'snippet': 'On June 23, 2025, Laos moved closer to building a stronger and safer digital environment as the National Assembly reviewed a new draft Law ...', 'date': '2025-06-23', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://sasiapac.com/lao-govt-officials-beef-up-on-data-security-privacy-in-digitalisation-development/', 'title': 'Lao govt officials beef up on data security, privacy in digitalisation ...', 'snippet': "Director General of the Ministry of Technology and Communications' Department of Cyber Security, Mr Khamla Sounnalat, said “Our government is ...", 'date': '2022-06-28', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://ict4peace.org/activities/norms-of-responsible-state-behavior/asean/', 'title': 'ASEAN - ICT4Peace Foundation', 'snippet': 'ICT4Peace in cooperation with the Department for Cybersecurity of the Lao PDR organised the 5th Cybersecurity Policy and Diplomacy Course for the CLV ASEAN ...', 'date': '2024-03-26', 'last_updated': '2025-03-27', 'matched': True}, {'url': 'https://laocert.gov.la/ftp_upload/Cyber_Crime_Law_EnVersion.pdf', 'title': '[PDF] Law', 'snippet': 'Lao Computer Emergency Response Team is an organization having role at the relevant level of a department of ministry including in the organization structure ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.eria.org/uploads/4_ch_4-Lao-PDR.pdf', 'title': "[PDF] Chapter 4 Digital Economy in Lao People's Democratic Republic", 'snippet': 'Several key government agencies are responsible for the development of the digital economy: Ministry of Technology and Communications (MTC). The MTC is the lead ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Environment, Climate Change and Technology in MALDIVES responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Climate Resilience, the Environment, Forestry, Fisheries, Disaster Management and Information in GRENADA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5768,27 +5779,27 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ministry of Environment, Climate Change and Technology in MALDIVES</t>
+          <t>Ministry of Climate Resilience, the Environment, Forestry, Fisheries, Disaster Management and Information in GRENADA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Ministry of Environment, Climate Change and Technology</t>
+          <t>Ministry of Climate Resilience, the Environment, Forestry, Fisheries, Disaster Management and Information</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>The Ministry of Environment, Climate Change and Technology (MECCT) in the Maldives is primarily responsible for issues related to environment, climate change adaptation, and technology to support development in those sectors, as shown by multiple reports and initiatives focusing on climate adaptation and digital economy growth under its remit[1][2][6]. Although MECCT is involved in technology aspects, there is no direct evidence from national strategies, laws, or reports indicating that MECCT is responsible for national cybersecurity policy, implementation, or technical coordination. Key cybersecurity responsibilities including governance and operations, such as hosting a national CERT/CSIRT and coordination of cybersecurity efforts, are more closely associated with other bodies like the Ministry of Homeland Security and Technology, which houses major digital agencies and cybersecurity initiatives[5][7]. The MECCT received international technical cybersecurity trainings, such as those from ITU, which suggests some involvement or interest in cybersecurity capacity building but does not imply it leads cybersecurity governance or enforcement in the Maldives[9]. Therefore, while MECCT contributes to technology and digital economy-related activities, it does not hold a primary responsibility for cybersecurity governance or enforcement in the Maldives.</t>
+          <t>Information from official and secondary sources indicates that the Ministry of Climate Resilience, the Environment &amp; Renewable Energy (closest named ministry) primarily focuses on climate change adaptation, environmental protection, renewable energy promotion, and related sustainability efforts without any explicit mention of responsibility for cybersecurity policy, implementation, or technical coordination[1]. The Division of ICT under the Cabinet Office in Grenada leads digital government services modernization including cybersecurity threat intelligence, incident response, risk assessment, and information security policies[2]. There are no indications that the Ministry of Climate Resilience or similarly named ministries are involved in cyber governance or host CERT/CSIRTs. Thus, cybersecurity responsibilities appear to be managed outside this ministry, mainly by ICT-specific government divisions[2]. No national strategies, laws, or reports explicitly assign cybersecurity roles to this ministry based on available records. Therefore, the Ministry of Climate Resilience is not responsible for cybersecurity governance or enforcement in Grenada as per current available data.</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5798,14 +5809,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>[{'url': 'https://tech-action.unepccc.org/wp-content/uploads/sites/2/2024/07/maldives-tna-adaptation-report.pdf', 'title': '[PDF] maldives - technology needs assessment report', 'snippet': 'The TNA process is designed to support countries to carry out improved Technology Needs Assessments within the framework of the UNFCCC. The Ministry of ...', 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://www.adpc.net/icare/wp-content/uploads/2022/05/4.pdf', 'title': '[PDF] Maldives - Innovations for Climate Adaptation and Resilience', 'snippet': 'The Maldivian NDMA focuses on disaster risk reduction and building resilience to climate change emphasizing the need for the two institutions - the NDMA and ...', 'date': None, 'last_updated': '2024-07-14', 'matched': True}, {'url': 'https://presidency.gov.mv/Press/Article/27369', 'title': "'Cyber Safe Maldives' will be the basis for safe internet and ...", 'snippet': "'Cyber Safe Maldives' will be the basis for safe internet and technology use in Maldives, says Vice President.", 'date': '2022-10-04', 'last_updated': '2025-03-29', 'matched': True}, {'url': 'https://dmadd.gov.mv/en/announcements/hiring-of-an-individual-consultant-for-system-penetration-testing-national', 'title': 'Hiring of an Individual consultant for system penetration testing ...', 'snippet': "The primary goal is to enhance the overall security posture and resilience of DNR's digital assets by addressing potential weaknesses and ...", 'date': '2024-03-26', 'last_updated': '2025-06-20', 'matched': True}, {'url': 'https://www.undp.org/sites/g/files/zskgke326/files/2025-06/stateofdigitalmay20th.pdf', 'title': '[PDF] THE STATE OF DIGITAL IN THE MALDIVES', 'snippet': 'The Ministry of Homeland Security and Technology houses many key agencies related to digital initiatives, including the National Centre for Information.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.environment.gov.mv/v2/download/2830/', 'title': '[PDF] Ministry of Environment, Climate Change and Technology', 'snippet': 'The project objective is to enhance the enabling environment for the digital economy in Maldives, to improve identification for in-person ...', 'date': '2023-05-31', 'last_updated': '2025-05-14', 'matched': True}, {'url': 'https://storage.googleapis.com/gazette.gov.mv/docs/iulaan/85083.pdf', 'title': '[PDF] National Centre for Information Technology - Googleapis.com', 'snippet': 'The Lead SOC Engineer will work as part of a team to assist in the Cyber Security objectives to support the delivery of the Government Cyber Security Framework ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.worldbank.org/en/news/feature/2022/02/08/realising-a-digital-future-for-maldives', 'title': 'Realising a Digital Future for Maldives - World Bank', 'snippet': 'Digital technologies can help individuals and industries foresee and react to climate change, as well as manage catastrophe risks, by gathering ...', 'date': '2022-02-08', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.itu.int/itu-d/sites/bdt-highlights/highlights-november-2023/', 'title': 'Highlights November 2023 - ITU', 'snippet': 'ITU provided technical cybersecurity trainings to the Maldives, as part of the Ministry of Environment, Climate Change and Technology (MECCT) ...', 'date': '2023-12-01', 'last_updated': '2025-11-05', 'matched': True}]</t>
+          <t>[{'url': 'https://climateresilience.gov.gd/ministry/', 'title': 'Ministry of Climate Resilience, The Environment &amp; Renewable Energy', 'snippet': 'The ministry addresses climate change, enhances sustainability, promotes renewable energy, builds resilience, and protects the environment.', 'date': '2024-09-01', 'last_updated': '2025-01-30', 'matched': True}, {'url': 'https://www.gov.gd/ict', 'title': 'Division of ICT | Cabinet Office - Government of Grenada', 'snippet': 'The Division of ICT aims to modernize government digital services and build resilience to climate risks, focusing on citizen-centric approaches that prioritize ...', 'date': '2025-09-14', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/370621567389621226/pdf/Grenada-Digital-Government-for-Resilience-Project.pdf', 'title': '[PDF] Grenada-Digital-Government-for-Resilience-Project.pdf', 'snippet': 'The project will leverage the data center and public/private cloud infrastructure to protect critical data, records, and electronic service ...', 'date': '2019-08-08', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://easterncaribbean.un.org/sites/default/files/2021-04/undp-bb-Small-Smart-States-Grenada-Final-Report_0.pdf', 'title': '[PDF] Small Smart States Grenada Final Report - United Nations Barbados', 'snippet': 'Grenada can leverage digital tools and data to strengthen disaster preparedness, enhance resilience to environmental and external shocks, and maximise the ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.international-climate-initiative.com/en/iki-media/news/grenada_leading_the_way_for_adaptation/', 'title': 'Grenada leading the way for Adaptation', 'snippet': "The Grenada NAP includes a number of actions and projects aimed at reducing Grenada's vulnerability to climate change. It offers potential donors and funding ...", 'date': '2022-05-05', 'last_updated': '2025-03-21', 'matched': True}, {'url': 'https://nowgrenada.com/2025/08/cardtp-cybercrime-and-cybersecurity-awareness-campaign/', 'title': 'CARDTP Cybercrime and Cybersecurity Awareness Campaign', 'snippet': 'The CARDTP campaign aims to raise cyber risk awareness, encourage protective digital behaviors, and empower vulnerable groups to navigate the ...', 'date': '2025-08-26', 'last_updated': None, 'matched': True}, {'url': 'https://www.finance.gd/docs/Grenada_-_Disaster_Resilience_Strategy_Feb%202%202022.pdf', 'title': '[PDF] GRENADA: DISASTER RESILIENCE STRATEGY - Ministry of Finance', 'snippet': 'The emergency response plan clarifies institutional arrangements, and distribution of responsibilities to rapidly mobilize financial and physical resources and ...', 'date': None, 'last_updated': '2025-05-16', 'matched': True}, {'url': 'https://www.imf.org/en/news/articles/2019/02/13/sp021319-building-resilience-to-natural-disasters-and-climate-change-in-grenada-and-the-caribbean', 'title': 'Building Resilience to Natural Disasters and Climate Change in ...', 'snippet': 'This is part of an important discussion of how to work together to further strengthen your resilience against natural disasters and climate ...', 'date': '2019-02-13', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Tertiary Education in TRINIDAD AND TOBAGO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department of Science and Technology in PHILIPPINES responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5813,17 +5824,17 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Tertiary Education in TRINIDAD AND TOBAGO</t>
+          <t>Department of Science and Technology in PHILIPPINES</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Tertiary Education</t>
+          <t>Department of Science and Technology</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5833,7 +5844,8 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology and Tertiary Education is noted as responsible for national ICT policy and management of the government ICT backbone, indicating some involvement in ICT governance[2]. However, cybersecurity responsibility in Trinidad and Tobago primarily falls under the Ministry of National Security, which oversees cybersecurity policy, governance, and the coordination of cybersecurity measures including the national Computer Security Incident Response Team (TT-CSIRT)[2][3][4][5]. The Ministry of Science, Technology and Tertiary Education is mentioned in relation to promoting advanced training for cybersecurity professionals in public sectors, but it is not explicitly identified as responsible for cybersecurity policy implementation, incident response, or enforcement[3][4]. An inter-ministerial committee including multiple ministries coordinates the national cybersecurity strategy, but the Ministry of Science, Technology and Tertiary Education is not highlighted as a lead or major participant in this coordination[1][2]. Therefore, its role is supportive or limited rather than primary in cybersecurity governance.</t>
+          <t>The Department of Science and Technology (DOST) in the Philippines is not explicitly mentioned as the primary agency responsible for cybersecurity policy, implementation, or technical coordination in the major national laws, strategies, or recent reports. The main cybersecurity laws, the Data Privacy Act of 2012 (RA 10173) and the Cybercrime Prevention Act of 2012 (RA 10175), assign primary responsibility to the National Privacy Commission (NPC) for data protection and the Department of Information and Communications Technology (DICT) for cybercrime enforcement and policy coordination[1][3][4]. The National Cybersecurity Plan 2023-2028 and other government documents highlight DICT, the NPC, and law enforcement agencies as the key players in cybersecurity governance and incident response[3][4][5].
+While DOST may support research and development in cybersecurity and contribute to capacity building, there is no evidence that it hosts a national CERT/CSIRT, leads a cybersecurity committee, oversees information security standards, or is the main agency for network protection or incident response. The available sources do not cite DOST as a leading or coordinating body for cybersecurity in the Philippines[2][3][4][5].</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5843,14 +5855,14 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ttt.live/cabinet-approves-committee-to-deal-with-cyber-security-issues/', 'title': 'Cabinet Approves Committee To Deal With Cyber Security ...', 'snippet': 'Cabinet has approved an Inter-Ministerial Committee to deal with issues relating to cybersecurity and artificial intelligence.', 'date': '2025-09-11', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.oas.org/juridico/spanish/cyber/cyb8_tt.pdf', 'title': 'Cyber Security in Trinidad and Tobago', 'snippet': '• Ministry of Science and Technology responsible for national. ICT policy and management of the government ICT backbone. • Ministry of National Security has ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/TrinidadTobago_2012_National_Cyber_Security%20Strategy_Final.pdf', 'title': 'Government of the Republic of Trinidad &amp; Tobago National ...', 'snippet': 'The Ministries responsible for national security and science and technology will also promote advanced training for cyber security professionals in public.', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://ttcsirt.gov.tt/national-cyber-security-strategy/', 'title': 'National Cyber Security Strategy', 'snippet': 'The Ministries responsible for national security and science and technology will also promote advanced training for cyber security professionals in public and ...', 'date': '2025-09-23', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tt/', 'title': 'NCSI :: Trinidad and Tobago - National Cyber Security Index', 'snippet': "Trinidad and Tobago's Computer Emergency Response Team (TT-CSIRT) operates under the Ministry of National Security and is responsible for nationwide cyber ...", 'date': None, 'last_updated': '2023-10-27', 'matched': True}, {'url': 'http://mpaai.gov.tt/cyber-security-awareness-2025', 'title': 'Cybersecurity Awareness Month 2025', 'snippet': 'October is internationally observed as Cybersecurity Awareness Month - a period dedicated to promoting safer digital practices and strengthening resilience ...', 'date': '2025-09-01', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://newsday.co.tt/2025/07/22/smith-calls-for-urgency-in-ai-adoption-cybersecurity/', 'title': 'Smith calls for urgency in AI adoption, cybersecurity', 'snippet': '"There must be urgency dealing with issues of cybersecurity. There must be urgency dealing with all matters of national threat and that is the ...', 'date': '2025-07-22', 'last_updated': '2025-07-22', 'matched': True}]</t>
+          <t>[{'url': 'https://www.blackpanda.com/blog/cybersecurity-philippines-data-privacy-cybercrime-laws', 'title': 'Cybersecurity in the Philippines: A Dual Legal Framework and How ...', 'snippet': 'The Philippines has two main cybersecurity laws — the Data Privacy Act of 2012 (RA 10173) and the Cybercrime Prevention Act of 2012 (RA 10175) — ...', 'date': '2025-08-13', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://apps.dtic.mil/sti/html/trecms/AD1213133/index.html', 'title': 'The Philippines: Cyber Threats - DTIC', 'snippet': 'This research highlights the roles and functions of three government agencies responsible for cybersecurity policy and program coordination in the Philippines.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/philippines-information-and-communications-technology', 'title': 'Philippines - Information and Communications Technology', 'snippet': 'The Philippines is exposed to a high risk of cyberattacks and security breaches due to its tech-savvy population and limited data protection ...', 'date': '2024-01-23', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://jsis.washington.edu/news/cybersecurity-profile-the-philippines/', 'title': 'Cybersecurity Profile 2025: The Philippines', 'snippet': "The Philippines' current domestic policy focuses on cyber defense from foreign actors, particularly China-based hackers targeting the ...", 'date': '2025-04-01', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://asiafoundation.org/wp-content/uploads/2022/03/Cybersecurity-in-the-Philippines-Global-Context-and-Local-Challenges-.pdf', 'title': '[PDF] CYBERSECURITY IN THE PHILIPPINES: - The Asia Foundation', 'snippet': 'The report traces the shifts in Internet governance and features the cybersecurity policy and posture of select countries and their possible ...', 'date': '2022-03-20', 'last_updated': '2025-07-11', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Transport, Energy, Communications and Innovation in TUVALU responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Research of the Republic of Moldova in MOLDOVA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5858,27 +5870,28 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ministry of Transport, Energy, Communications and Innovation in TUVALU</t>
+          <t>Ministry of Education and Research of the Republic of Moldova in MOLDOVA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Ministry of Transport, Energy, Communications and Innovation</t>
+          <t>Ministry of Education and Research of the Republic of Moldova</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>The Ministry of Transport, Energy, Communications and Innovation in Tuvalu is responsible for cybersecurity as it oversees the Department of ICT, which is tasked with ensuring the availability of secure ICT services and advancing digital transformation initiatives, including cybersecurity and cyber safety (Reference [3]). The Ministry, under Minister Simon Kofe, is leading efforts to establish a digital twin of Tuvalu and is involved in the development of digital public infrastructure, such as digital ID and digital payments, which require robust cybersecurity measures (Reference [4]). The Ministry is also mentioned as the overseeing body for the implementation of the Tuvalu National ICT Policy, which includes provisions for cyber security awareness, protection, and the establishment of a Tuvalu Computer Emergency Response Team (CERT) (Reference [2]). These responsibilities indicate a high level of involvement in cybersecurity governance, prevention, planning, and response.</t>
+          <t>The Ministry of Education and Research of the Republic of Moldova is not explicitly mentioned as the primary authority responsible for national cybersecurity policy, implementation, or technical coordination in the available sources. The main responsibility for cybersecurity in Moldova is assigned to the newly established National Agency for Cyber Security, which is tasked with implementing state policies, ensuring network security for critical service providers, forming a national cyber incident response team, and serving as a national contact point for international cooperation [1]. The Ministry of Economic Development and Digitalization is also highlighted as a key player, having collaborated with the e-Governance Academy to draft the cybersecurity law and define areas of responsibility [3].
+The Ministry of Education and Research is not listed as hosting a national CERT/CSIRT/CIRT, nor is it mentioned as leading or being a member of a cybersecurity committee, council, or working group in the context of national cybersecurity governance [1, 3, 5]. However, the Ministry may have a role in cybersecurity education and research, as indicated by the reference to cybersecurity education and research in the context of the CIRT-MD implementation proposal [6]. This suggests that the Ministry's involvement is likely limited to supporting cybersecurity education and research initiatives rather than direct policy or operational responsibility.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5888,14 +5901,14 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>[{'url': 'https://finance.gov.tv/wp-content/uploads/2022/08/National-ICT-Policy-2021.pdf', 'title': '[PDF] Tuvalu National ICT Policy - 2021.docx', 'snippet': 'The Ministry of Justice, Communication and Foreign Affairs has the overall responsibility for the implementation of the 2021 Tuvalu National ICT Policy.', 'date': None, 'last_updated': '2024-06-04', 'matched': True}, {'url': 'https://ict.gov.tv/wp-content/uploads/2024/11/Tuvalu-National-ICT-Policy_final-y.pdf', 'title': '[PDF] TUVALU NATIONAL ICT POLICY', 'snippet': "To support Tuvalu's digital transformation, the government must prioritize extending mobile services to the 8 Outer Islands, constructing a high-speed ...", 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ict.gov.tv', 'title': 'Department of ICT', 'snippet': 'To improve the livelihoods of Tuvaluan by ensuring the availability of accessible, efficient, reliable, affordable and secure ICT services.', 'date': '2020-07-06', 'last_updated': '2025-02-10', 'matched': True}, {'url': 'https://interweavegov.substack.com/p/a-conversation-with-simon-kofe-tuvalus', 'title': "A conversation with Simon Kofe, Tuvalu's Minister for Transport ...", 'snippet': 'By 2050, Tuvalu could potentially be entirely underwater, and digital is being employed as one of the primary methods of defense for preserving ...', 'date': '2025-10-12', 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://tech-action.unepccc.org/wp-content/uploads/sites/2/2025/09/tuvalu-baef-mitigation-revised-280725lg.pdf', 'title': '[PDF] Government of Tuvalu BARRIER ANALYSIS AND ENABLING ...', 'snippet': "Given Tuvalu's vulnerability to climate change and reliance on imported fossil fuels, this report focuses on technologies that reduce greenhouse gas emissions ...", 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.adb.org/news/adb-tuvalu-commission-latest-achievements-clean-energy-project-funafuti', 'title': 'ADB, Tuvalu Commission Latest Achievements of Clean Energy ...', 'snippet': '“The completed project is helping the government to transform energy supply in Funafuti and the outer islands from a manual diesel-based power system into a ...', 'date': '2024-11-20', 'last_updated': '2025-07-06', 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/documents/PRIF_Strengthening-Cybersecurity_web3.pdf', 'title': '[PDF] Strengthening Cybersecurity in the Pacific Islands', 'snippet': 'The report is published by the PRIF, a multi-partner coordination and technical assistance facility for improved infrastructure in the Pacific region.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.imo.org/en/MediaCentre/Pages/WhatsNew-2179.aspx', 'title': "Supporting shipping's digitalization in Tuvalu - WhatsNewNews", 'snippet': 'The regulations requiring MSWs in all IMO Member States mark a significant step in accelerating the digitalization of shipping. Representatives ...', 'date': '2024-11-12', 'last_updated': '2025-01-07', 'matched': True}]</t>
+          <t>[{'url': 'https://ega.ee/moldova-establishes-national-cybersecurity-agency/', 'title': 'Moldova Establishes National Cybersecurity Agency with eGA ...', 'snippet': 'The newly formed Agency will be responsible for implementing state policies on cybersecurity, ensuring high security for the networks and ...', 'date': '2023-12-27', 'last_updated': '2025-02-04', 'matched': True}, {'url': 'https://procon.bg/system/files/3208_cyber_moldova.pdf', 'title': '[PDF] Creating and Strengthening Cybersecurity in the Republic of Moldova', 'snippet': 'The centre took responsibility for activities related to operative investigation, prosecution, international cooperation and identification of persons who ...', 'date': None, 'last_updated': '2025-06-14', 'matched': True}, {'url': 'https://www.eeas.europa.eu/delegations/moldova/moldova-adopted-eu-backed-cybersecurity-law_en', 'title': 'Moldova adopted the EU-backed Cybersecurity Law - EEAS', 'snippet': '"The adoption of the cybersecurity law is an important step for the Republic of Moldova to improve its resilience to hybrid threats and to ...', 'date': '2023-05-11', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/moldova/~technology', 'title': 'Moldova | Technology - Education Profiles', 'snippet': 'This structure will include the National Council for Digitisation, the Cybersecurity Coordination Group, the Strategic Monitoring and Evaluation ...', 'date': '2025-01-17', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/MoldovaCybersecurityGovernanceAssessment.pdf', 'title': '[PDF] Moldova Cybersecurity Governance Assessment - DCAF', 'snippet': 'At the current stage, they are working by establishing agreements and exchanging information in order to ensure the protection of important ...', 'date': '2020-11-25', 'last_updated': '2023-10-17', 'matched': True}, {'url': 'https://moldova.un.org/sites/default/files/2023-01/CIRT-Assessment-Moldova-final.pdf', 'title': '[PDF] ASSESSMENT REPORT OF MOLDOVA National Computer Incident ...', 'snippet': 'Ensure the security of communication among stakeholders within the redundant communication network. 5.5 Cybersecurity Education and Research. According to the ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.undp.org/sites/g/files/zskgke326/files/2025-05/jsb_2024_undp_moldova_prodoc_cybersec_final_v6_for_signature.docx.pdf', 'title': '[PDF] project document - United Nations Development Programme', 'snippet': "The overall objective of this Action is to strengthen the cyber resilience and security of Moldova's public sector, specifically targeting the Ministry of ...", 'date': None, 'last_updated': '2025-05-09', 'matched': True}, {'url': 'https://eufordigital.eu/moldova-enhances-cybersecurity-measures-to-protect-national-interests/', 'title': 'Moldova enhances cybersecurity measures to protect national ...', 'snippet': 'Moldova strengthens cybersecurity by aligning regulations with the new law, enhancing protection for critical sectors and public safety.', 'date': '2025-03-24', 'last_updated': '2025-04-09', 'matched': True}, {'url': 'https://www.scribd.com/document/853251239/20190101-Moldova-National-Cybersecurity-Strategy', 'title': 'Moldova - National Cybersecurity Strategy | PDF | Information Security', 'snippet': 'The Information Security Strategy of the Republic of Moldova for 2019-2024, approved on November 22, 2018, aims to enhance the security of the cyber and ...', 'date': '2019-01-01', 'last_updated': '2025-06-21', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Innovation in SLOVENIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Secretary of State for Industry, Handicraft, Commerce, Research and Telecommunication in SAN MARINO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5903,17 +5916,17 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Innovation in SLOVENIA</t>
+          <t>Secretary of State for Industry, Handicraft, Commerce, Research and Telecommunication in SAN MARINO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Innovation</t>
+          <t>Secretary of State for Industry, Handicraft, Commerce, Research, Telecommunication and Sport</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5923,24 +5936,24 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science and Innovation in Slovenia primarily focuses on scientific research, innovation, and higher education, including initiatives related to digital transformation, AI, and scientific diplomacy[6][8]. While it collaborates in events addressing security topics, such as cyber defence in the context of broader security and innovation (e.g., joint events with Ministry of Defence and others)[5], it is not explicitly assigned formal responsibility for national cybersecurity governance, policy, or technical coordination. The national cybersecurity system and CERT operations are primarily coordinated by other entities such as the Ministry of Public Administration and dedicated CERT teams (SIGOV-CERT, SI-CERT)[1][2][3]. The Ministry of Higher Education does not host the national CERT, nor is it listed as leading or participating directly in cybersecurity governance or enforcement bodies. Its role in cybersecurity is indirect, related to education and innovation support rather than cyber policy or response coordination, hence the assessed responsibility level is LOW.</t>
+          <t>The Secretary of State for Industry, Handicraft, Commerce, Research, Telecommunication and Sport in San Marino is responsible for telecommunications, which may include aspects of information and communication technology (ICT) policy and infrastructure. However, there is no explicit evidence from the provided sources that this office is directly responsible for cybersecurity policy, implementation, technical coordination, or hosts a national CERT/CSIRT/CIRT. The office's recent activities, such as signing a bilateral cooperation agreement with the European Patent Office, focus on intellectual property, innovation, and technology trends, but do not mention cybersecurity or information security standards (Source 1). There is no indication that this office leads or is a member of a cybersecurity committee, council, or working group, or oversees network protection or information security standards. While telecommunications can overlap with cybersecurity, the provided sources do not establish a direct or primary responsibility for cybersecurity governance, prevention, planning, response, or enforcement for this specific office (Sources 1, 2, 4, 6).</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.gov.si/assets/ministrstva/MDP/DID/Cyber_Security_Strategy_Slovenia.pdf', 'title': '[PDF] Cyber Security Strategy of the Republic of Slovenia - Portal GOV.SI', 'snippet': 'This strategy will help Slovenia define its measures for establishing a national cyber security system that will facilitate a rapid response to security ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2021/08/Slovenia_country_report_final_for_publication_August_2021.pdf', 'title': '[PDF] SLOVENIA - National Cybersecurity Organisation - CCDCOE', 'snippet': "This report provides an overview of Slovenia's national cybersecurity governance, including roles, responsibilities, and mandates of agencies involved.", 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://cyberwiser.eu/slovenia-si', 'title': 'Slovenia (SI) - CYBERWISER.eu', 'snippet': 'Slovenia implemented its Cyber Security Strategy - Establishing a system to ensure a high level of cyber security in 2016.', 'date': '2021-01-01', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/slovenia/~technology', 'title': 'Slovenia | Technology - Education Profiles', 'snippet': 'The NIE also works to promote and support innovation in education, and to improve the quality of education in Slovenia. The NIE collaborates ...', 'date': '2023-06-04', 'last_updated': '2025-09-09', 'matched': True}, {'url': 'https://slovenia.si/business-and-innovation/science-for-peace-and-security', 'title': 'Science for Peace and Security | Slovenia.si', 'snippet': 'The programme provides project funding, expert advice, and technical support for the development of innovative solutions across a wide range of ...', 'date': '2025-11-13', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.gov.si/en/state-authorities/ministries/ministry-of-higher-education-science-and-innovation/', 'title': 'Ministry of Higher Education, Science and Innovation - Portal GOV.SI', 'snippet': 'The Ministry of Higher Education, Science, and Innovation, in cooperation with public research organizations in Slovenia, has produced a scientific diplomacy ...', 'date': '2025-06-23', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://www.enisa.europa.eu/topics/national-cyber-security-strategies/ncss-map/national-cyber-security-strategies-interactive-map/national-cybersecurity-organisations', 'title': 'National Cyber Security Strategies - ENISA - European Union', 'snippet': 'Among others, their key responsibilities include supervising and enforcing compliance by essential and important entities, facilitating operational cooperation ...', 'date': '2024-11-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/progress-in-implementing-the-european-union-coordinated-plan-on-artificial-intelligence-volume-1_6d530a88-en/slovenia_9f609de3-en.html', 'title': 'Progress in Implementing the European Union Coordinated Plan on ...', 'snippet': "Following a public call in the context of Slovenia's smart specialisation strategy, the Ministry of Higher Education, Science and Innovation ...", 'date': '2025-11-10', 'last_updated': None, 'matched': True}, {'url': 'https://journals.plos.org/plosone/article?id=10.1371%2Fjournal.pone.0312266', 'title': 'Factors associated with cybersecurity awareness of cyber and ...', 'snippet': 'In this paper, we study cybersecurity awareness of cyber and information security decision-makers, and investigate factors associated with it.', 'date': '2024-10-18', 'last_updated': '2025-10-21', 'matched': True}]</t>
+          <t>[{'url': 'https://www.epo.org/en/news-events/news/san-marino-secretary-state-industry-handicraft-commerce-research-telecommunication', 'title': '\u200b\u200bSan Marino Secretary of State for Industry, Handicraft, Commerce ...', 'snippet': 'San Marino Secretary of State Rossano Fabbri visits the EPO for the signing of a new bilateral co-operation agreement (2024-2028).', 'date': '2025-03-18', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://2009-2017.state.gov/outofdate/bgn/sanmarino/52605.htm', 'title': 'San Marino (08/05) - State.gov', 'snippet': "The 10 Secretaries are (1) Secretary of State ... The Republic of San Marino's Web Site provides information on politics, trade, and events in San Marino.", 'date': '2005-04-01', 'last_updated': '2025-05-27', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/San_Marino_Secretary_for_Foreign_and_Political_Affairs', 'title': 'San Marino Secretary of State for Foreign and Political Affairs', 'snippet': 'The Secretary of State for Foreign and Political Affairs is the minister for foreign affairs of San Marino. Secretary of State for Foreign and Political ...', 'date': '2010-01-27', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.culturalpolicies.net/country_profile/san-marino-1-2-2/', 'title': 'San Marino 1.2.2 - Compendium of Cultural Policies &amp; Trends', 'snippet': 'General elections in November 2012 determined the new structure of the Ministries and their responsibilities. The Congress of State (the San ...', 'date': '2019-08-10', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://globaledge.msu.edu/countries/san-marino/government', 'title': 'San Marino: Government - globalEDGE', 'snippet': 'The captain regents represent the state and supervise the functioning of public powers and State institutions, as well the compliance of their activities with ...', 'date': '2024-04-01', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://www.visitsanmarino.com/pub1/VisitSM/en/contenuto/About-San-Marino/STRUTTURA-POLITICA.html', 'title': 'Political Structure of San Marino', 'snippet': 'The State Congress consists of a maximum number of ten Secretaries of State, each of whom is entrusted with one or more areas of administrative responsibility.', 'date': '2021-07-16', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://unfccc.int/sites/default/files/resource/INC%20San%20Marino.pdf', 'title': '[PDF] REPUBLIC OF SAN MARINO - First National Communication', 'snippet': 'The national communication that I have the honour to present in my capacity as Secretary of State for Environment of the Republic of San Marino is the first.', 'date': None, 'last_updated': '2024-07-25', 'matched': True}, {'url': 'https://2009-2017.state.gov/outofdate/bgn/sanmarino/81982.htm', 'title': 'San Marino (03/07) - State.gov', 'snippet': "The 10 Secretaries are (1) Secretary of State ... The Republic of San Marino's Web Site provides information on politics, trade, and events in San Marino.", 'date': None, 'last_updated': '2025-01-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Culture and Sciences in SAO TOME &amp; PRINCIPE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Communications, Knowledge and Technology in BOTSWANA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5948,28 +5961,27 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture and Sciences in SAO TOME &amp; PRINCIPE</t>
+          <t>Ministry of Communications, Knowledge and Technology in BOTSWANA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Ministry of Education, Culture and Sciences</t>
+          <t>Ministry of Communications, Knowledge and Technology</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Culture and Sciences in Sao Tome and Principe is not explicitly mentioned as having primary responsibility for cybersecurity policy, implementation, or technical coordination in the available national cybersecurity strategy documents or related reports [3]. The National Cybersecurity Strategy (2024-2028) identifies the Ministry of Infrastructure, Natural Resources, and Environment as a key member of the Cybersecurity Committee, which is responsible for coordinating national cybersecurity policies and assessing risks [3]. Other members include regulatory authorities, the National Institute of Statistics, the Central Bank, and Telecom Operators, but the Ministry of Education, Culture and Sciences is not listed among them [3].
-While the Ministry of Education, Culture and Sciences may be involved in digital education and raising cybersecurity awareness as part of broader digital development efforts, there is no evidence that it hosts or leads the national CERT/CSIRT/CIRT, oversees information security standards, or participates in cybersecurity planning or response at the national level [3]. The strategy does emphasize digital education as a guiding principle, but this is not equivalent to direct responsibility for cybersecurity governance or technical coordination [3].</t>
+          <t>The Ministry of Communications, Knowledge and Technology in Botswana is explicitly responsible for leadership and overall policy development, strategy, and standards related to communications and information technology, which includes cybersecurity. Official information indicates the ministry provides leadership in communications and technology policy, IT infrastructure, e-Government, and digital transformation, all relevant to national cybersecurity policy and implementation[2]. Additionally, the National Cyber Security Index notes that the ministry website is used as evidence for nationally assigned responsibility for cybersecurity coordination at the highest government level[1]. This demonstrates that the ministry holds a key role in cybersecurity governance, prevention, planning, and coordination in Botswana.</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5979,14 +5991,14 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>[{'url': 'https://afap.st/wp-content/uploads/2025/03/Adenda-CSIRT-4-STP-DIGITAL-04CDSTP2023.pdf', 'title': '[PDF] República Democrática de São Tomé e Príncipe - AFAP', 'snippet': 'A key component of the cybersecurity strategy is the establishment of a the National CSIRT. Currently, the. Government does not have the operational capacity to ...', 'date': None, 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Pages/national-CIRT.aspx', 'title': 'National CIRT - ITU', 'snippet': 'ITU is helping countries to establish National Computer Incident Response Teams (CIRT), which serve as a national focus point for coordinating cybersecurity ...', 'date': '2025-11-12', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-of-sao-tome-and-principe-2024-2028', 'title': 'The National Cybersecurity Strategy of São Tomé and Príncipe ...', 'snippet': "The National Cybersecurity Strategy of São Tomé and Príncipe (2024-2028) is a comprehensive roadmap for enhancing the country's digital security.", 'date': '2025-02-04', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.cert.rcts.pt/en/about/', 'title': 'About - CSIRT FCT', 'snippet': "CSIRT FCT is a service managed by FCT's FCCN Unit with the purpose of responding to computer security incidents related to the RCTS community – Science, ...", 'date': '2020-07-01', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://cybilportal.org/projects/development-of-the-national-cybersecurity-strategy-and-action-plan-for-sao-tome-and-principe/', 'title': 'Development of the National Cybersecurity Strategy and Action Plan ...', 'snippet': 'Development of the National Cybersecurity Strategy and Action Plan for Sao Tome and Principe ... Sao Tome and Principe (STP) project to strengthen its ICT sector.', 'date': '2024-02-06', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.nrdcs.eu/customer-stories/sectorial-csirt-for-energy-sector-in-kosovo/', 'title': 'Sectorial CSIRT for energy sector in Kosovo - NRD Cyber Security', 'snippet': 'The Kosovan Ministry of Economy decided to establish a sectoral Cyber Security Incident Response Team (E-CERT).', 'date': None, 'last_updated': '2025-06-19', 'matched': True}, {'url': 'https://online.norwich.edu/online/programs-courses/programs/certificate-computer-forensic-investigationincident-response-team-management', 'title': 'Certificate in Computer Forensic Investigation/Incident Response ...', 'snippet': 'This certificate provides understanding of digital incident investigation, including CSIRT management, and covers topics like response to emergencies and ...', 'date': '2024-02-01', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3897090/International-Telecommunication-Union-Global.pdf', 'title': '[PDF] Global Cybersecurity Index (GCI) 2017 - National Security Archive', 'snippet': 'Brazil has three computer emergency response teams with different functions, name- ly: the national CERT, a government CSIRT and a sector specific SCIRT. The ...', 'date': None, 'last_updated': '2024-01-24', 'matched': True}, {'url': 'https://www.unodc.org/roseap/uploads/archive/documents/2012/05/cyber-crime/ITU_Cybersecurity_COP_UNODC_Workshop.pdf', 'title': '[PDF] ITU Global Cybersecurity Agenda and Child Online Protection (COP)', 'snippet': 'The Guide focuses on the issues that countries should consider when elaborating or reviewing national Cybersecurity strategies. www.itu.int/ITU- ...', 'date': '2012-04-08', 'last_updated': '2025-05-06', 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/bw/', 'title': 'NCSI :: Botswana - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-05-15', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'http://gov.bw/ministries/ministry-communications-knowledge-and-technology', 'title': 'Ministry of Communications, Knowledge and Technology', 'snippet': 'The Ministry of Communications, Knowledge and Technology is responsible for providing leadership and overall policy development, strategy and standards.', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.tjgtqc.com/news/do-what-a-responsible-country-do?s-news-4879115-2025-11-03-botswana-reinforces-cybersecurity-commitment-with-national-awareness-initiatives-and-legislation', 'title': 'Botswana Reinforces Cybersecurity Commitment with National ...', 'snippet': 'This legislation aims to establish a comprehensive legal framework to address cybercrimes, provide guidelines for data protection, and define ...', 'date': '2025-11-03', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Posts and New Information and Communication Technologies in CHAD responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Innovation in SLOVENIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -5994,17 +6006,17 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ministry of Posts and New Information and Communication Technologies in CHAD</t>
+          <t>Ministry of Higher Education, Science and Innovation in SLOVENIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ministry of Posts and New Information and Communication Technologies</t>
+          <t>Ministry of Higher Education, Science and Innovation</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6014,7 +6026,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>The Ministry of Posts and New Information and Communication Technologies in Chad is responsible for developing and implementing policies and maintaining the regulatory framework in the telecommunications, IT, and postal sectors[3][8]. However, specific leadership and coordination for cybersecurity at the national level is assigned to the National Agency for Information Security and Electronic Certification (ANSICE), which oversees cybersecurity regulation, control, monitoring, and protection of government information systems and critical state infrastructure under presidential tutelage[2][5]. The Ministry of Posts supports telecom and ICT development but is not explicitly designated as the main cybersecurity authority in national strategies, laws, or coordination efforts. While the Ministry may participate in some ICT-related initiatives, the primary cybersecurity responsibility rests with ANSICE and related specialized bodies[1][4]. Thus, the Ministry’s role in cybersecurity is limited and indirect within Chad’s governance framework.</t>
+          <t>The Ministry of Higher Education, Science and Innovation in Slovenia is involved in co-financing projects related to digital transformation and innovation, which may include aspects of cybersecurity research and development[9]. However, the primary responsibility for national cybersecurity governance, policy, coordination, and operational response lies with other bodies such as the Ministry of Public Administration, which hosts SIGOV-CERT and manages the strategic planning and implementation of digital and cybersecurity policies[1][2]. The Ministry of Higher Education, Science and Innovation contributes indirectly through supporting education and innovation but is not explicitly designated as responsible for cybersecurity policy, coordination, or enforcement in national strategies or official roles[1][2][4].</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6024,14 +6036,14 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.wearetech.africa/en/fils-uk/news/tech/chad-accelerates-the-development-of-its-national-cybersecurity-strategy', 'title': 'Chad accelerates the development of its national cybersecurity ...', 'snippet': "In recent days, Chad has accelerated its efforts to strengthen its cybersecurity. On December 5, two bills were passed to strengthen the country's cybersecurity ...", 'date': '2022-12-22', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/td/', 'title': 'NCSI :: Chad - National Cyber Security Index', 'snippet': 'RESPONSIVE CYBERSECURITY INDICATORS ; 9.1. National incident response capacity · Legal act or official website ; 9.2. Incident reporting obligations · Legal act or ...', 'date': '2025-07-15', 'last_updated': '2025-08-12', 'matched': True}, {'url': 'https://globaledge.msu.edu/global-resources/resource/10667', 'title': 'Chad: Ministry of Posts and New Information and Communication ...', 'snippet': 'The Ministry of Posts and New Information and Communication Technologies in Chad is responsible for developing and implementing policies as well as maintain ...', 'date': None, 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://www.itu.int/itu-d/sites/bdt-highlights/highlights-march-2023/', 'title': 'Highlights March 2023 - ITU', 'snippet': "From 15 – 21 March, ITU organized a capacity-building session and national consultation workshop in N'Djamena, Chad, to support the National ...", 'date': '2023-03-05', 'last_updated': '2025-04-05', 'matched': True}, {'url': 'https://cipesa.org/wp-content/files/State-of-Internet-Freedom-in-Chad-2019.pdf', 'title': '[PDF] State of Internet Freedom in Chad 2019 | CIPESA', 'snippet': 'Since 2000, Chad has undertaken measures to not only control and regulate the Information and Communication. Technologies (ICT) sector but ...', 'date': '2020-01-01', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.dataguidance.com/jurisdictions/chad', 'title': 'Chad | Jurisdictions - DataGuidance', 'snippet': 'Chad also signed, on June 14, 2015, the African Union Convention on Cyber Security and Personal Data Protection, which sets out several requirements for ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/61714f214ed04bcd6e9623ad0e215897-0400012021/related/Chad-country-diagnostic.pdf', 'title': '[PDF] Chad - The World Bank', 'snippet': 'The overall level of protection of information systems against cyber security threats in the public ... information and communication technologies. With such ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/chad-telecommunications', 'title': 'Chad - Telecommunications - International Trade Administration', 'snippet': 'Leading sub-sectors in telecommunications include: cybersecurity; mobile phone service providers; mobile network maintenance; satellite ...', 'date': '2020-09-07', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://www.state.gov/reports/2018-investment-climate-statements/chad', 'title': 'Chad - United States Department of State', 'snippet': 'There are no rules on maintaining a certain amount of data storage within Chad. The GOC has enacted four laws covering cybersecurity and cyber-criminality. 5.', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.gov.si/assets/ministrstva/MDP/DID/Cyber_Security_Strategy_Slovenia.pdf', 'title': '[PDF] Cyber Security Strategy of the Republic of Slovenia - Portal GOV.SI', 'snippet': 'This strategy will help Slovenia define its measures for establishing a national cyber security system that will facilitate a rapid response to security ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2021/08/Slovenia_country_report_final_for_publication_August_2021.pdf', 'title': '[PDF] SLOVENIA - National Cybersecurity Organisation - CCDCOE', 'snippet': 'Since January 2018, CCDCOE has been responsible for identifying and coordinating education and training solutions in the field of cyber defence operations for ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://cyberwiser.eu/slovenia-si', 'title': 'Slovenia (SI) - CYBERWISER.eu', 'snippet': 'Slovenia implemented its Cyber Security Strategy - Establishing a system to ensure a high level of cyber security in 2016.', 'date': '2021-01-01', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/slovenia/~technology', 'title': 'Slovenia | Technology - Education Profiles', 'snippet': 'The NIE also works to promote and support innovation in education, and to improve the quality of education in Slovenia. The NIE collaborates ...', 'date': '2023-06-04', 'last_updated': '2025-09-09', 'matched': True}, {'url': 'https://www.bscc.si/news/slovenias-technological-future-depends-on-targeted-investments-top-talent-and-a-strong-supportive-ecosystem/', 'title': "Slovenia's Technological Future Depends on Targeted Investments ...", 'snippet': 'Cybersecurity requires investment, education, and cross-sector cooperation. Resilience is a shared responsibility of the state and the economy."', 'date': '2025-05-22', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://slovenia.si/business-and-innovation/science-for-peace-and-security', 'title': 'Science for Peace and Security | Slovenia.si', 'snippet': 'The programme provides project funding, expert advice, and technical support for the development of innovative solutions across a wide range of ...', 'date': '2025-11-13', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.enisa.europa.eu/topics/national-cyber-security-strategies/ncss-map/national-cyber-security-strategies-interactive-map/national-cybersecurity-organisations', 'title': 'National Cyber Security Strategies - ENISA - European Union', 'snippet': 'Among others, their key responsibilities include supervising and enforcing compliance by essential and important entities, facilitating operational cooperation ...', 'date': '2024-11-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://journals.plos.org/plosone/article?id=10.1371%2Fjournal.pone.0312266', 'title': 'Factors associated with cybersecurity awareness of cyber and ...', 'snippet': 'In this paper, we study cybersecurity awareness of cyber and information security decision-makers, and investigate factors associated with it.', 'date': '2024-10-18', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/progress-in-implementing-the-european-union-coordinated-plan-on-artificial-intelligence-volume-1_6d530a88-en/slovenia_9f609de3-en.html', 'title': 'Progress in Implementing the European Union Coordinated Plan on ...', 'snippet': 'In this context, the Ministries of Higher Education, Science and Innovation and of Digital Transformation co-financed two projects: i) defining ...', 'date': '2025-11-10', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Sports and Creative Industries in ANTIGUA AND BARBUDA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Agriculture, Fisheries, and the Environment in PALAU responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6039,17 +6051,17 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ministry of Education, Sports and Creative Industries in ANTIGUA AND BARBUDA</t>
+          <t>Ministry of Agriculture, Fisheries, and the Environment in PALAU</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Ministry of Education, Sports and Creative Industries</t>
+          <t>Ministry of Agriculture, Fisheries, and the Environment</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>PALAU</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6059,7 +6071,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Sports and Creative Industries in Antigua and Barbuda is involved in cybersecurity primarily through the integration of ICT and cyber safety into the education system. The Ministry is responsible for developing policies related to electronic devices in schools, promoting cyber safety education, and implementing awareness-raising measures regarding cyberbullying and online safety as part of the Safe School Policy (2020) [2]. Additionally, the Ministry collaborates with the Ministry of Telecommunications, Science and Technology on ICT integration and cybersecurity education initiatives [2][4]. However, there is no evidence that the Ministry leads or coordinates national cybersecurity policy, hosts a national CERT/CSIRT/CIRT, oversees information security standards, or is the primary agency for technical cybersecurity coordination or incident response. These responsibilities appear to fall under the Ministry of ICT and its Cyber-Security Unit, which leads public awareness campaigns and advises on cybersecurity matters [5][8]. The Ministry of Education's role is thus limited to education and awareness within the school system, rather than broader national cybersecurity governance or technical coordination.</t>
+          <t>The Ministry of Agriculture, Fisheries, and the Environment (MAFE) in Palau is primarily responsible for food security, sustainable food production, and the management of marine and terrestrial resources, as stated in official ministry descriptions and government websites [5][8]. There is no evidence in the provided sources that MAFE is explicitly mentioned as being responsible for cybersecurity policy, implementation, technical coordination, or the oversight of information security standards or network protection. The ministry does not host a national CERT/CSIRT/CIRT, nor is it described as leading or being a member of a cybersecurity committee, council, or working group. There is no indication that MAFE participates in cybersecurity events, workshops, or joint initiatives related to cybersecurity governance, prevention, planning, response, or enforcement. While MAFE is involved in broader national security and environmental stewardship, its role does not extend to cybersecurity responsibilities as defined by the criteria.</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6069,7 +6081,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/ag/', 'title': 'NCSI :: Antigua and Barbuda - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-15', 'last_updated': '2025-04-08', 'matched': True}, {'url': 'https://education-profiles.org/latin-america-and-the-caribbean/antigua-and-barbuda/~technology', 'title': 'Antigua and Barbuda | Technology - Education Profiles', 'snippet': 'The Government of Antigua and Barbuda is committed to integrating ICT into its education system in ways that directly advance these key strategic priorities.', 'date': '2025-01-17', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-antigua-and-barbuda/', 'title': 'Cyber Security in Antigua and Barbuda - Blog | Gavin Dennis', 'snippet': 'Antigua and Barbuda has laws that address cybercrime. The Computer Misuse Act criminalises unauthorised access to computer systems, data theft, and spreading ...', 'date': '2024-10-19', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://rysfarthing.com/wp-content/uploads/2023/08/abreportfinal202303.pdf', 'title': '[PDF] The Digital Future of Antigua &amp; Barbuda', 'snippet': 'The Government of Antigua and Barbuda is committed to integrating ICT into its education system in ways that directly advance these key strategic priorities ...', 'date': None, 'last_updated': '2024-12-28', 'matched': True}, {'url': 'https://antigua.news/2025/10/17/cyber-security-unit-shares-tips-on-securing-devices-during-awareness-month/', 'title': 'Cyber-Security Unit shares tips on securing devices during ...', 'snippet': "The Cyber-Security Unit within the Ministry of ICT's is continuing to advise persons on creating a safe environment online.", 'date': '2025-10-17', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': "Government of Antigua and Barbuda, press release, “Ministry Holds Cyber. Security Awareness Workshop for Employees”, St. John's. January 5, 2012, http://www ...", 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://abstvradio.com/ministry-of-education-to-assume-full-responsibility-of-security-for-all-schools/', 'title': 'Ministry of Education to assume full responsibility of security for all ...', 'snippet': 'The Ministry of Education has begun the process of assuming full responsibility of security for all schools.', 'date': '2015-12-16', 'last_updated': None, 'matched': True}, {'url': 'https://antiguaobserver.com/cyber-alert-security-director-warns-human-factor-is-weakest-link/', 'title': 'Cyber Alert: Security director warns human factor is weakest link', 'snippet': "The local director of Cyber Security has raised an urgent warning that the “human factor” remains the most vulnerable point in the nation's ...", 'date': '2025-10-15', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://pitiviti.org/storage/dm/2022/08/rop-2022-national-security-strategy-20220813191012624.pdf', 'title': '[PDF] NATIONAL SECURITY STRATEGY of the Republic of Palau - PITI-VITI', 'snippet': 'We will ensure a safe and secure EEZ for our fishing, aquaculture and tourist industries, Palauan recreational activities, and international shipping.', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.palaugov.pw/wp-content/uploads/Digital-Residency-Program-Cyber-Security-Regulation.pdf', 'title': '[PDF] Digital Residency Program Cyber Security - PalauGov.pw', 'snippet': 'This regulation applies to the scope and responsibility of the Digital. Residency Office in overseeing all payments made to the Republic of Palau, managing the.', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://netmission.asia/2025/04/03/an-insight-into-palaus-navigation-of-emerging-technologies-geopolitics-and-climate-action-aishik-saha/', 'title': "An Insight into Palau's Navigation of Emerging Technologies ...", 'snippet': 'This chapter explores how Palau is addressing these challenges, leveraging global partnerships, and shaping policies to secure its digital future.', 'date': '2025-04-03', 'last_updated': '2025-04-04', 'matched': True}, {'url': 'https://cordc.ucsd.edu/about/docs/palau_mcs.pdf', 'title': '[PDF] MONITORING, CONTROL, AND SURVEILLANCE - CORDC', 'snippet': 'The Ministry has the duties, functions, and authority to: (a) adopt regulations for the conservation, management, and exploitation of all living resources in ...', 'date': None, 'last_updated': '2023-12-04', 'matched': True}, {'url': 'https://www.palaugov.pw/executive-branch/ministries/agriculture-fisheries-and-environment/', 'title': 'Ministry of Agriculture, Fisheries, and the Environment - PalauGov.pw', 'snippet': 'The Ministry of Agriculture, Fisheries and the Environment has an important task of putting Palau on a path of becoming a food secure nation.', 'date': '2022-03-01', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://2017-2021.state.gov/wp-content/uploads/2019/01/ICS-Palau_UNCLASS_508.pdf', 'title': '[PDF] Palau - state.gov', 'snippet': 'Through this, Palau will improve its resilience to natural disasters and enhance domestic food security. Mission Objective 3.1: Provide technical assistance and ...', 'date': None, 'last_updated': '2025-05-22', 'matched': True}, {'url': 'https://www.pacificrisa.org/pesc/', 'title': 'Pacific Ecological Security Conference (PESC)', 'snippet': 'The PESC was hosted by the Government of Palau Ministry of Agriculture, Fisheries, and Environment. The Secretariat of the Pacific Community (SPC) fosters ...', 'date': '2023-03-15', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.devex.com/organizations/ministry-of-agriculture-fisheries-and-the-environment-mafe-palau-245364', 'title': 'Ministry of Agriculture, Fisheries, and the Environment (MAFE) (Palau)', 'snippet': 'The Ministry of Agriculture, Fisheries and the Environment (MAFE) has an important task of putting Palau on a path of becoming a food secure nation.', 'date': None, 'last_updated': '2025-07-14', 'matched': True}]</t>
         </is>
       </c>
     </row>
@@ -6104,7 +6116,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>The State Secretariat for Education, Research and Innovation (SERI) is not the primary body responsible for cybersecurity policy, implementation, or technical coordination in Switzerland. The main responsibility for cybersecurity lies with the National Cyber Security Centre (NCSC), which is the central authority for prevention, awareness-building, and coordination of cybersecurity efforts across the country [2][4]. SERI's role is more focused on education, research, and innovation (ERI) in the field of cybersecurity. SERI participates in events and initiatives related to cybersecurity research and international cooperation, such as the SwissCyber Initiative, which aims to strengthen the cybersecurity ecosystem by fostering synergies between research, industry, and policymaking [3]. SERI also collaborates with other institutions on cybersecurity-related projects and funding, but does not host a national CERT/CSIRT or lead cybersecurity committees or councils [2][3]. SERI's involvement is primarily in the context of research and innovation, rather than direct cybersecurity governance or operational response [2][3].</t>
+          <t>The State Secretariat for Education, Research and Innovation (SERI) in Switzerland is primarily involved in promoting international cooperation and research related to cybersecurity, notably organizing events and initiatives like the SwissCyber Initiative to strengthen cybersecurity research and innovation[2][3]. However, the direct responsibility for cybersecurity governance, prevention, enforcement, and operational coordination lies with the National Cyber Security Centre (NCSC), which is the main governmental body handling cyberattack reporting, prevention, awareness-building, and coordination of cybersecurity efforts in Switzerland[1][2][4][9]. SERI supports research and innovation aspects linked to cybersecurity but is not the lead organization for national cybersecurity policies or incident response, thus has a low level of cybersecurity responsibility under the criteria provided.</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6114,14 +6126,14 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>[{'url': 'https://educyber.ch/switzerland-enters-a-new-era-of-cyberattack-reporting/', 'title': 'Switzerland Enters a New Era of Cyberattack Reporting', 'snippet': 'Starting today, the mandatory reporting obligation for cyberattacks on critical infrastructures—introduced in April—comes fully into force, ...', 'date': '2025-10-01', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.satw.ch/en/news/enhancing-cyber-resilience-through-coordinated-cooperation', 'title': 'Enhancing cyber resilience through coordinated cooperation', 'snippet': "Switzerland's National Cyber Security Centre (NCSC) is responsible for prevention and awareness-building in cybersecurity. The NCSC started out ...", 'date': '2023-10-31', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://e2-news.ch/en/news/the-swisscyber-initiative-will-strengthen-switzerlands-digital-resilience', 'title': "The SwissCyber Initiative will strengthen Switzerland's digital… | E2", 'snippet': "The SwissCyber Initiative brings clarity to Switzerland's cybersecurity ecosystem and paves the way for synergies between research, industry and ...", 'date': '2025-10-21', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/CH_NCSS_2023_en.pdf', 'title': '[PDF] National Cyberstrategy (NCS) - ENISA', 'snippet': "Switzerland's digital foreign policy. In the field of cybersecurity, Switzerland works to promote international legal standards in ...", 'date': '2023-04-01', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://swisscyberinstitute.com/blog/cybersecurity-roles-implementation-and-operation-io/', 'title': 'Cybersecurity roles: Explore Implementation &amp; Operation (IO)', 'snippet': 'The Implementation and Operation (IO) category focuses on professionals tasked with deploying, managing, and maintaining cybersecurity systems ...', 'date': '2025-01-23', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://www.sepos.admin.ch/en/nsb?id=99270', 'title': 'Federal Council regulates crisis-related activation of ... - admin.ch', 'snippet': 'The Federal Chancellery (FCh) and the State Secretariat for Education, Research and Innovation (SERI) sign a framework agreement with the six ERI institutions.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://css.ethz.ch/content/dam/ethz/special-interest/gess/cis/center-for-securities-studies/pdfs/Cyber-Reports-2019-08-National%20Cybersecurity%20Strategies%20in%20Comparison.pdf', 'title': '[PDF] National Cybersecurity Strategies in Comparison - CSS/ETH Zürich', 'snippet': 'This study compares the cybersecu- rity strategies adopted by Germany, Finland, France, Isra- el, Italy and the Netherlands in order to place the Swiss approach ...', 'date': None, 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.sbfi.admin.ch/en/digitalisation-in-the-eri-sector', 'title': 'Digitalisation in the ERI sector', 'snippet': 'Digitalisation in the ERI sector. The Federal Council aims to ensure that Switzerland exploits the opportunities of digitalisation to the full.', 'date': '2025-03-28', 'last_updated': '2025-07-14', 'matched': True}, {'url': 'https://www.dataguidance.com/news/switzerland-ncsc-publishes-guidelines-cyberincident', 'title': 'Switzerland: NCSC publishes guidelines on cyberincident response', 'snippet': 'On October 27, 2025, the National Cyber Security Centre (NCSC) published its Federal processes for coordinated cyberincident response, ...', 'date': '2025-10-27', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://educyber.ch/switzerland-enters-a-new-era-of-cyberattack-reporting/', 'title': 'Switzerland Enters a New Era of Cyberattack Reporting', 'snippet': 'Starting today, the mandatory reporting obligation for cyberattacks on critical infrastructures—introduced in April—comes fully into force, ...', 'date': '2025-10-01', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.satw.ch/en/news/enhancing-cyber-resilience-through-coordinated-cooperation', 'title': 'Enhancing cyber resilience through coordinated cooperation', 'snippet': "Switzerland's National Cyber Security Centre (NCSC) is responsible for prevention and awareness-building in cybersecurity. The NCSC started out ...", 'date': '2023-10-31', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://e2-news.ch/en/news/the-swisscyber-initiative-will-strengthen-switzerlands-digital-resilience', 'title': "The SwissCyber Initiative will strengthen Switzerland's digital… | E2", 'snippet': "The SwissCyber Initiative brings clarity to Switzerland's cybersecurity ecosystem and paves the way for synergies between research, industry and ...", 'date': '2025-10-21', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/CH_NCSS_2023_en.pdf', 'title': '[PDF] National Cyberstrategy (NCS) - ENISA', 'snippet': "Switzerland's digital foreign policy. In the field of cybersecurity, Switzerland works to promote international legal standards in ...", 'date': '2023-04-01', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://swisscyberinstitute.com/blog/cybersecurity-roles-implementation-and-operation-io/', 'title': 'Cybersecurity roles: Explore Implementation &amp; Operation (IO)', 'snippet': 'Implementation and Operation (IO) roles deploy, manage, and maintain cybersecurity systems, including roles like data analysis, database ...', 'date': '2025-01-23', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://www.sepos.admin.ch/en/nsb?id=99270', 'title': 'Federal Council regulates crisis-related activation of ... - admin.ch', 'snippet': 'The Federal Chancellery (FCh) and the State Secretariat for Education, Research and Innovation (SERI) sign a framework agreement with the six ERI institutions.', 'date': '2023-12-08', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://css.ethz.ch/content/dam/ethz/special-interest/gess/cis/center-for-securities-studies/pdfs/Cyber-Reports-2019-08-National%20Cybersecurity%20Strategies%20in%20Comparison.pdf', 'title': '[PDF] National Cybersecurity Strategies in Comparison - CSS/ETH Zürich', 'snippet': 'This study compares cybersecurity strategies of Germany, Finland, France, Israel, Italy, and Netherlands, focusing on core strategies, roles, and challenges.', 'date': None, 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.sbfi.admin.ch/en/digitalisation-in-the-eri-sector', 'title': 'Digitalisation in the ERI sector', 'snippet': 'Digitalisation in the ERI sector. The Federal Council aims to ensure that Switzerland exploits the opportunities of digitalisation to the full.', 'date': '2025-03-28', 'last_updated': '2025-07-14', 'matched': True}, {'url': 'https://www.dataguidance.com/news/switzerland-ncsc-publishes-guidelines-cyberincident', 'title': 'Switzerland: NCSC publishes guidelines on cyberincident response', 'snippet': 'On October 27, 2025, the National Cyber Security Centre (NCSC) published its Federal processes for coordinated cyberincident response, ...', 'date': '2025-10-27', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Finance, Sustainable Development, Information and Technology in SAINT KITTS AND NEVIS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Department of Information Technology in SAINT KITTS AND NEVIS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6129,12 +6141,12 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ministry of Finance, Sustainable Development, Information and Technology in SAINT KITTS AND NEVIS</t>
+          <t>Department of Information Technology in SAINT KITTS AND NEVIS</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Ministry of Finance, Sustainable Development, Information and Technology</t>
+          <t>Department of Information Technology</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6149,10 +6161,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>The Ministry of Finance, Sustainable Development, Information and Technology in Saint Kitts and Nevis is not explicitly identified as the primary entity responsible for cybersecurity policy, implementation, or technical coordination. The Ministry of Finance's official documentation highlights its focus on fiscal policy, economic sustainability, and the regulatory framework for taxation and public finance, but does not mention direct responsibility for cybersecurity governance, technical standards, or incident response (Reference: [2]).
-Cybersecurity initiatives, such as the Cyber Nations Program, are led by the Government of Saint Kitts and Nevis in partnership with external firms and are associated with broader national development and digital transformation efforts, but there is no evidence that the Ministry of Finance, Sustainable Development, Information and Technology is the lead or coordinating body for these programs (References: [1], [3], [4], [6]).
-The Ministry of Public Infrastructure, Energy and Utilities; Domestic Transport; Information, Communication and Technology; and Posts is mentioned as working to strengthen cybersecurity and enhance technological innovation within public and private sectors, suggesting that cybersecurity responsibilities may be distributed across ministries, with the ICT portfolio likely having a more direct role (Reference: [8]).
-There is no indication that the Ministry of Finance, Sustainable Development, Information and Technology hosts a national CERT/CSIRT, leads a cybersecurity committee, or is explicitly named in national cybersecurity strategies or laws as the responsible entity for cybersecurity (References: [5], [7]).</t>
+          <t>The Department of Information Technology in Saint Kitts and Nevis focuses on advancing the nation's digital infrastructure, improving public service delivery, and supporting government digitization efforts, such as the Whole of Government Technology Strategy and the St. Kitts and Nevis Internet Exchange (SKNIX). However, available information does not indicate that this Department explicitly handles cybersecurity policy, implementation, or coordination. Cybersecurity initiatives such as the national Cyber Security Training Programme and efforts to strengthen cybersecurity appear to be government-wide or coordinated through broader ministries and national strategies, with no direct evidence that the Department of Information Technology hosts a national CERT/CSIRT, leads cybersecurity committees, or enforces cybersecurity laws. Moreover, the Ministry of Public Infrastructure, Energy and Utilities; Domestic Transport; Information, Communication and Technology; and Posts is described as working to strengthen cybersecurity and technological innovation, suggesting that cybersecurity responsibilities are likely overseen at the ministry level rather than by the Department of Information Technology alone. Therefore, the Department of Information Technology plays a supporting role in digital infrastructure but is not primarily responsible for cybersecurity governance or enforcement in Saint Kitts and Nevis based on current sources.[7][8][1][4][5]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6162,14 +6171,14 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.sknis.gov.kn/2025/06/05/cyber-security-training-program-moves-into-full-implementation-as-prime-minister-drew-hands-over-laptops-to-trainees/', 'title': 'Cyber Security Training Program Moves Into Full Implementation as ...', 'snippet': 'Kitts and Nevis and Canadian cybersecurity firm Protexxa, is designed to train 100 nationals to international standards, preparing them for ...', 'date': '2025-06-05', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://mof.gov.kn/about-us/', 'title': 'About Us | Ministry of Finance (MOF)', 'snippet': "The Ministry's vision is to enhance confidence in the economy of St. Kitts and Nevis by creating a sound and sustainable fiscal environment.", 'date': None, 'last_updated': '2025-07-28', 'matched': True}, {'url': 'https://www.sknis.gov.kn/2024/11/16/government-launches-cybersecurity-certification-program-to-empower-nationals/', 'title': 'Government Launches Cybersecurity Certification Program ... - SKNIS', 'snippet': 'The Government of St. Kitts and Nevis is set to launch a comprehensive cybersecurity certification program aimed at equipping 100 nationals with high-demand ...', 'date': '2024-11-16', 'last_updated': '2024-11-25', 'matched': True}, {'url': 'https://www.thestkittsnevisobserver.com/government-of-st-kitts-and-nevis-officially-launches-training-programme-to-build-cybersecurity-workforce-and-digital-resilience/', 'title': 'Government Of St. Kitts And Nevis Officially Launches Training ...', 'snippet': 'Government Of St. Kitts And Nevis Officially Launches Training Programme To Build Cybersecurity Workforce And Digital Resilience. By. Observer ...', 'date': '2025-02-18', 'last_updated': '2025-02-19', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': 'Saint Kitts and Nevis, private sector management is becoming increasingly aware of threats to cybersecurity and has begun some risk management planning. For ...', 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://www.nevispages.com/cyber-security-training-program-moves-into-full-implementation-as-prime-minister-drew-hands-over-laptops-to-trainees/', 'title': 'Cyber Security Training Program Moves Into Full Implementation as ...', 'snippet': 'The Cyber Nations Program, a partnership between the Government of St. Kitts and Nevis and Canadian cybersecurity firm Protexxa, is designed to train 100 ...', 'date': '2025-06-06', 'last_updated': '2025-06-06', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/kn/', 'title': 'Saint Kitts and Nevis - NCSI', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.gov.kn/ministry-of-public-infrastructure-energy-and-utilities-domestic-transport-information-communication-and-technology-and-posts/', 'title': 'Ministry of Public Infrastructure, Energy and Utilities; Domestic ...', 'snippet': 'It works to expand access to broadband and digital resources, strengthen cybersecurity, and enhance technological innovation within public and private sectors.', 'date': '2025-01-01', 'last_updated': '2025-10-10', 'matched': True}]</t>
+          <t>[{'url': 'https://www.sknis.gov.kn/2025/01/09/government-of-st-kitts-and-nevis-launches-cyber-security-training-programme-to-prepare-young-people-for-global-workforce/', 'title': 'GOVERNMENT OF ST. KITTS AND NEVIS LAUNCHES CYBER ...', 'snippet': 'Kitts and Nevis is set to launch its groundbreaking Cyber Security Training Programme on Tuesday, January 14, 2025. This initiative aims to ...', 'date': '2025-01-09', 'last_updated': '2025-01-10', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=9zObM0ZB7ok', 'title': 'Launch of the Cyber Security Training Initiative |SKNIS - YouTube', 'snippet': 'On February 18, 2025, the Government of St. Kitts and Nevis officially launched the Cyber Security Training Initiative, a transformative ...', 'date': '2025-02-18', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://cybersecuritystkittsnevis.com', 'title': 'Cyber Security St. Kitts and Nevis | by G5 Cyber Security (USA), Inc ...', 'snippet': 'A hub of FREE Cyber Security resources to help citizens, businesses, and the government of St. Kitts and Nevis to protect themselves against cyber attacks.', 'date': None, 'last_updated': '2024-09-27', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/kn/', 'title': 'Saint Kitts and Nevis - NCSI', 'snippet': 'The central government has established a national-level cybersecurity strategy defining strategic cybersecurity objectives and measures to improve cybersecurity ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://cyberpolicyportal.org/states/saint-kitts-and-nevis', 'title': 'Saint Kitts and Nevis - Cyber Policy Portal', 'snippet': 'Cybersecurity Policy(1). Relevant Strategy Documents, and Implementation Frameworks. (1). Structures(2). Relevant National Centre or Responsible Agency, Key ...', 'date': None, 'last_updated': '2025-08-28', 'matched': True}, {'url': 'https://skncgtoronto.gov.kn/2025/02/18/government-of-st-kitts-and-nevis-officially-launches-training-programme-to-build-cybersecurity-workforce-and-digital-resilience/', 'title': 'Government of St. Kitts and Nevis Officially Launches Training ...', 'snippet': 'The initiative includes a six-month intensive online training program, leading to internationally recognized credentials, including the CompTIA Security+ ...', 'date': '2025-02-18', 'last_updated': None, 'matched': True}, {'url': 'https://technology.gov.kn', 'title': 'Department of Information Technology: Home', 'snippet': "The Department has advanced the nation's digital landscape by improving public service delivery, enhancing infrastructure, and promoting greater connectivity.", 'date': '2025-06-10', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://www.gov.kn/ministry-of-public-infrastructure-energy-and-utilities-domestic-transport-information-communication-and-technology-and-posts/', 'title': 'Ministry of Public Infrastructure, Energy and Utilities; Domestic ...', 'snippet': 'It works to expand access to broadband and digital resources, strengthen cybersecurity, and enhance technological innovation within public and private sectors.', 'date': '2025-01-01', 'last_updated': '2025-10-10', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technological Development and Innovation in SERBIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (MOSTI) in UGANDA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6177,17 +6186,17 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technological Development and Innovation in SERBIA</t>
+          <t>Ministry of Science, Technology and Innovation (MOSTI) in UGANDA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technological Development and Innovation</t>
+          <t>Ministry of Science, Technology and Innovation (MOSTI)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6197,7 +6206,9 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technological Development and Innovation in Serbia primarily focuses on scientific research, innovation policies, technology entrepreneurship, and development of the scientific-technological information system. There is no explicit mention in the sources that it holds a primary responsibility for national cybersecurity governance, policy implementation, or technical coordination. Cybersecurity tasks, including preparation of information security laws, coordination of national CERTs, and digital security strategy, are principally attributed to the Ministry of Information and Telecommunications and related government bodies. The Ministry of Science is involved in technological development such as AI strategy and innovation but is not indicated as responsible for cybersecurity per se[1][5][7].</t>
+          <t>The Ministry of Science, Technology and Innovation (MOSTI) in Uganda has historically had some involvement in developing a National Cyber Security Policy and a National Information Security Strategy as noted in a 2011 draft document, indicating a role in setting cybersecurity directions early on[3]. However, more recent National Cybersecurity Strategy documents for Uganda (2022-2026) indicate that the Ministry of ICT and National Guidance is the lead government entity responsible for cybersecurity governance, implementation, and coordination of national cybersecurity initiatives[1][2][5][6][7]. The Ministry of ICT leads the development of policies, hosts coordination mechanisms, and advances national cybersecurity capacities including national CSIRTs and governance frameworks. 
+Furthermore, the original Ministry of Science was dissolved and replaced by the STI Secretariat under the Office of the President to better focus on science, technology, and innovation policies, but it does not explicitly lead or manage national cybersecurity functions[4][9]. The STI Secretariat is primarily focused on scientific and technological advancement broadly rather than cybersecurity governance. 
+Therefore, while MOSTI had some early policies related to cybersecurity and innovation, the primary and explicit cybersecurity responsibility now lies with the Ministry of ICT and National Guidance. MOSTI's role appears peripheral or supportive in cybersecurity matters with no explicit mandate or operational role in cybersecurity governance, incident response, or national cybersecurity committees in recent strategies. This assessment is based on multiple national cybersecurity strategy documents, official reports, and government restructuring information[1][2][3][4][5][6][7][9].</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6207,14 +6218,14 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/serbia-digital-economy', 'title': 'Serbia - Digital Economy - International Trade Administration', 'snippet': 'The Serbian Government has announced investments of over $70 million in Artificial Intelligence (AI) and other related technological and scientific research ...', 'date': '2024-09-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.osce.org/files/f/documents/d/2/404252.pdf', 'title': '[PDF] Guide through Information Security in the Republic of Serbia 2.0', 'snippet': 'The Directive further prescribes that security measures should be based on the principle of risk assessment-based governance – a culture that should be ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/serbia/~technology', 'title': 'Serbia | Technology - Education Profiles', 'snippet': 'The Serbian government recognizes the essential role that schools and teachers play in promoting digital literacy and aims to provide a ...', 'date': '2025-01-17', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://arhiva1.mtt.gov.rs/extfile/sr/35315/Information%20Society%20and%20InfoSec%20Strategy%202021-2026111.pdf', 'title': '[PDF] Pursuant to Article 38 paragraph 1 of the Law on Planning System of ...', 'snippet': 'The Information Society Development Strategy adopted in 2010 aimed at developing an information society focused on harnessing the potential of information and ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://nitra.gov.rs/en/ministarstvo/o-nama', 'title': 'About Us', 'snippet': 'The Ministry performs tasks of state administration related to: the system, scientific activities development and improvement, and all in the function of ...', 'date': '2024-02-05', 'last_updated': '2025-04-02', 'matched': True}, {'url': 'https://interoperable-europe.ec.europa.eu/sites/default/files/inline-files/NIFO_2024%20Supporting%20Document_Serbia_vFINAL.pdf', 'title': '[PDF] SERBIA - Interoperable Europe Portal', 'snippet': 'In the information society area, the Ministry is responsible for (i) the proposal of policies and strategies for the development of the information society; (ii) ...', 'date': None, 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://cordmagazine.com/interview/jelena-begovic-serbian-minister-of-science-technological-development-and-innovationtitle/', 'title': 'Jelena Begovic, Serbian Minister of Science, Technological ...', 'snippet': 'We aim to facilitate and accelerate exchanges of knowledge and resources, as well as the transfer of technologies between academia, industry and start-ups.', 'date': '2024-12-02', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://pametnaspecijalizacija.mpn.gov.rs/wp-content/uploads/2021/06/Strategija-pametne-specijalizacije_EN_WEB.pdf', 'title': '[PDF] SMART SPECIALISATION STRATEGY OF THE REPUBLIC OF ...', 'snippet': 'The Ministry of Education, Science and Technological Development of the Republic of Serbia, as the key actor in the development and coordination of the Smart ...', 'date': None, 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.ai.gov.rs/vest/en/1056/serbia-accelerates-ai-advancement-council-for-artificial-intelligence-established.php', 'title': 'Serbia Accelerates AI Advancement: Council for Artificial ...', 'snippet': 'The Council will organize and monitor the preparation of laws and regulations concerning the development and application of AI in Serbia. The ...', 'date': '2024-07-31', 'last_updated': '2025-09-04', 'matched': True}, {'url': 'https://www.ebrd.com/content/dam/ebrd_dxp/documents/project/54083/project-science.pdf', 'title': '[PDF] serbia project science | ebrd', 'snippet': 'The Borrower will implement the Project through the Ministry of Science, Technological Development and Innovation (“MoSTDI”) and the Ministry.', 'date': '2025-06-14', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/ugandan-national-cybersecurity-strategy-2022-2026', 'title': 'Ugandan National Cybersecurity Strategy 2022-2026', 'snippet': 'The mission is to create a cybersafe and protected Uganda by ensuring secure and resilient cyberspace that supports ICT adoption and innovation for ...', 'date': '2024-12-06', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ega.ee/wp-content/uploads/2022/08/Ugandan-national-cybersecurity-strategy.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY - e-Governance Academy', 'snippet': "integrity of Uganda. The role of this ministry is to provide cybersecurity protection for all military. ICT infrastructures and defend the country's ...", 'date': None, 'last_updated': '2025-04-12', 'matched': True}, {'url': 'https://www.cert.ug/sites/default/files/2022-05/National%20Information%20Security%20Strategy%202011.pdf', 'title': '[PDF] National Information Security Strategy (NISS FINAL DRAFT)', 'snippet': 'The Government recognized the potential cyber threats and through the Ministry of Science,. Technology and Innovation developed a National Cyber Security Policy ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://pctechmag.com/2025/01/briefly-understanding-the-role-of-ugandas-sti-secretariat/', 'title': "Briefly understanding the role of Uganda's STI Secretariat", 'snippet': "STI Secretariat symbolizes Uganda's determination to rethink the approaches to managing improved Science, Technology, and Innovation.", 'date': '2025-01-23', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://ict.go.ug/site/documents/digital-vision-uganda-2040.pdf', 'title': '[PDF] Vision for A Digital Uganda - Ministry of ICT and National Guidance', 'snippet': 'recognize the role played by Science, Technology and Innovation (STI) ... ▫ Ensure data protection and cyber-security Strengthen Innovation ...', 'date': '2025-04-16', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://uict.ac.ug/about-uict/partners-collaborations/moict/', 'title': 'Ministry of ICT and National Guidance - UICT', 'snippet': 'Its core mandate is to formulate, coordinate, and monitor policies and strategies that harness ICT for national development. Through visionary initiatives, the ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/jru6iwrimip?page=7&amp;file=1663765070888i2x6ovh7u9.pdf', 'title': 'National Cyber Security Strategy for Uganda 2021 • Page 7', 'snippet': '1 VISION AND GOALS 1.2 Vision and mission Vision: Uganda is a Digitally Empowered Society and Knowledge Economy. Mission: To create a ensuring a secure and ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ict.go.ug/site/documents/MoICT&amp;NG_eNewsletter_v01_2_OCT2025.pdf', 'title': "[PDF] Tackling Uganda's Growing ICT E-Waste Challenge", 'snippet': 'Guided by our Digital Transformation Roadmap, efforts to expand digital literacy, promote e-government services, foster innovation, and.', 'date': '2025-11-03', 'last_updated': None, 'matched': True}, {'url': 'https://sti.go.ug', 'title': 'Making Uganda the STI Powerhouse of East Africa', 'snippet': 'At the heart of our work is shifting Uganda\'s economy to a science-led modernization and making Uganda the "STI Power" in the region.', 'date': '2025-08-19', 'last_updated': '2025-09-12', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Education of the Republic of Azerbaijan in AZERBAIJAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Federal Ministry of Innovation, Science and Technology (FMIST) in NIGER responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6222,27 +6233,27 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ministry of Science and Education of the Republic of Azerbaijan in AZERBAIJAN</t>
+          <t>Federal Ministry of Innovation, Science and Technology (FMIST) in NIGER</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ministry of Science and Education of the Republic of Azerbaijan</t>
+          <t>Federal Ministry of Innovation, Science and Technology (FMIST)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Education of Azerbaijan implements educational projects related to cybersecurity, such as the "Introduction to Cybersecurity" training (2020-2022) aimed at students of IT-related specialties and other capacity-building initiatives in artificial intelligence and data science aligned with labor market needs[6]. It supports developing specialists in cybersecurity through education but is not directly responsible for national cybersecurity governance, policy implementation, or technical coordination. The main cybersecurity governance and operational responsibilities—including hosting CERT, coordinating national cybersecurity strategy, and incident response—are assigned primarily to the Ministry of Digital Development and Transport, the State Agency for Special Communication and Information Security under the Special State Protection Service, and other security agencies[1][3][5]. While the Ministry of Science and Education contributes by training personnel, it is not explicitly mentioned as leading cybersecurity policy, enforcement, or national incident response. This distinction indicates a limited role focused on education rather than governance or operational cybersecurity functions.</t>
+          <t>Based on the available search results, there is no evidence that the Federal Ministry of Innovation, Science and Technology (FMIST) in Niger is responsible for cybersecurity. The main document describing Niger's National Cybersecurity Strategy (2023–2027) does not mention FMIST as having a role in cybersecurity policy, implementation, or technical coordination[1]. Instead, the strategy highlights the establishment of a National Cybersecurity Center (CNAC) and a Central Digital Investigation Laboratory as the key institutions for overseeing and coordinating cybersecurity efforts[1]. There is no indication that FMIST hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or participates in cybersecurity events or international initiatives. The evidence points to other dedicated institutions, not FMIST, being responsible for cybersecurity in Niger[1].</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6252,14 +6263,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>[{'url': 'https://azertag.az/en/xeber/azerbaijan_cybersecurity_center_to_train_highly_qualified_personnel-2548922', 'title': 'Azerbaijan Cybersecurity Center to train highly qualified personnel', 'snippet': 'The main role of the center is to train highly qualified specialists and instructors in the field of cyber security.', 'date': '2023-03-29', 'last_updated': '2025-05-24', 'matched': True}, {'url': 'https://mincom.gov.az/en/projects/azerbaijan-cybersecurity-center', 'title': 'Azerbaijan Cybersecurity Center / Projects - MinCom.Gov.Az', 'snippet': 'The Azerbaijan Cybersecurity Center, established with Technion Institute, trains professionals and trainers, with Israeli staff, and has state-of-the-art ...', 'date': '2023-03-28', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/AzerbaijanCybersecurityGovernanceAssessment.pdf', 'title': '[PDF] Azerbaijan Cybersecurity Governance Assessment - DCAF', 'snippet': 'The National Cybersecurity Service of Azerbaijan includes pen- etration testing, malware analysis, incident response, attack examinations and other services ...', 'date': None, 'last_updated': '2024-01-30', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/az/', 'title': 'NCSI :: Azerbaijan - National Cyber Security Index', 'snippet': 'Therefore, public sector organizations determined as CII subjects are also required to assess and manage cyber risks and/or implement cybersecurity measures ...', 'date': '2024-10-15', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://caliber.az/en/post/what-steps-is-azerbaijan-taking-to-reduce-growing-cybersecurity-threat', 'title': 'What steps is Azerbaijan taking to reduce growing cybersecurity ...', 'snippet': 'According to the minister, the strategy\'s goals are to transform Azerbaijan "into one of the leading countries in the region and the world in ...', 'date': '2022-04-26', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/azerbaijan/~technology', 'title': 'Azerbaijan | Technology - Education Profiles', 'snippet': '"Introduction to Cybersecurity" (2020-2022) and "Artificial Intelligence and data science" (2022) projects were implemented by the Ministry of ...', 'date': '2024-08-05', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://edu.gov.az/en/news-and-updates/page/37', 'title': 'Ministry of Science and Education Republic of Azerbaijan', 'snippet': 'The project aims to bring together students and young people who want to improve themselves in cybersecurity and have career goals in this field, to involve ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ict.az/en/news/7471', 'title': 'Academician Rasim Alguliyev: "The main goal is to strengthen the ...', 'snippet': 'The main goal is to strengthen the cyber-immunity of the state and society and generally the fight against cyber threats, especially in the ...', 'date': '2025-11-03', 'last_updated': None, 'matched': True}, {'url': 'https://akta.az/en/news/azerbaycan-kibertehluekesizlik-teskilatlari-assosiasiyasi-tehsilde-koenuellue-fealiyyetin-teskili-qrant-muesabiqesinin-qalibi-olub', 'title': 'The Association of Cybersecurity Organizations of Azerbaijan has ...', 'snippet': 'The Association of Cybersecurity Organizations of Azerbaijan has been awarded as the winner of the "Organizing Volunteer Activities in Education ...', 'date': '2025-01-06', 'last_updated': None, 'matched': True}, {'url': 'https://icdl.org/from-training-to-certification-how-azerbaijan-is-building-classroom-ready-digital-skills/', 'title': 'How Azerbaijan is Building Classroom-Ready Digital Skills - ICDL', 'snippet': 'Teachers learn how to plan lessons, communicate safely online, collaborate effectively, and evaluate student learning using digital workflows.', 'date': '2025-10-24', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/nigers-national-cybersecurity-strategy', 'title': "Niger's National Cybersecurity Strategy | Digital Watch Observatory", 'snippet': "Niger's National Cybersecurity Strategy (2023–2027) is a comprehensive framework designed to ensure a sustainable and effective digital transformation.", 'date': '2024-12-12', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/5014254/Nigerian-Government-National-Cybersecurity.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY POLICY', 'snippet': 'Provide coordination and implementation of cybercrime counter- measures for law enforcement and security agencies.', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://sherloc.unodc.org/cld/uploads/res/treaties/strategies/nigeria/nga0001s_html/NATIONAL_CYBESECURITY_STRATEGY.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY POLICY - UNODC Sherloc', 'snippet': 'Private sector provides technology innovations, critical resources and technical standards that the government needs to drive National Cybersecurity Strategy.', 'date': None, 'last_updated': '2025-04-03', 'matched': True}, {'url': 'https://nitda.gov.ng/department/cyber-security/', 'title': 'Cyber Security - NITDA', 'snippet': 'Functions · Track local and global cyber activities/programmes/incidences/research, analyze and share findings and mitigations with Nigerians; · Develop policies ...', 'date': '2024-11-01', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://rsisinternational.org/journals/ijriss/articles/protecting-critical-infrastructure-in-nigeria-a-framework-for-integrated-cybersecurity-approach/', 'title': 'Protecting Critical Infrastructure in Nigeria: A Framework for ...', 'snippet': "This paper proposes an integrated cybersecurity framework optimised for Nigeria's critical infrastructure protection. The framework leverages ...", 'date': '2025-07-31', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cert.gov.ng/ngcert/resources/draft-action-plan-ncss.pdf', 'title': '[PDF] action plan for implementation of the national cybersecurity strategy', 'snippet': 'Establishment of Nigerian Computer Emergency Response Team (ngCERT), which serves as the Coordination Centre responsible managing for managing cyber incidents ...', 'date': None, 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://fmcide.gov.ng/about/', 'title': 'About Us | The Federal Ministry of Communications, Innovation and ...', 'snippet': 'Our mission is clear: we leverage the power of Information and Communication Technology (ICT) to fuel job creation, ignite economic growth, and illuminate the ...', 'date': '2024-01-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://iclg.com/practice-areas/cybersecurity-laws-and-regulations/nigeria', 'title': 'Cybersecurity Laws and Regulations Report 2025 Nigeria - ICLG.com', 'snippet': 'Chapter covers common issues in cybersecurity laws and regulations, including cybercrime, applicable laws, preventing attacks, specific sectors, corporate ...', 'date': '2024-11-06', 'last_updated': '2025-11-14', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (MOSTI) in UGANDA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Sport of the Republic of Lithuania in LITHUANIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6267,17 +6278,17 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation (MOSTI) in UGANDA</t>
+          <t>Ministry of Education, Science and Sport of the Republic of Lithuania in LITHUANIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation (MOSTI)</t>
+          <t>Ministry of Education, Science and Sport of the Republic of Lithuania</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6287,9 +6298,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology and Innovation (MOSTI) in Uganda is not explicitly mentioned as the primary body responsible for cybersecurity policy, implementation, or technical coordination in the most recent national cybersecurity strategy documents. The Ugandan National Cybersecurity Strategy 2022-2026 and related reports consistently identify the Ministry of ICT and National Guidance as the lead agency for cybersecurity, responsible for formulating, coordinating, and monitoring cybersecurity policies and strategies [1, 2, 6]. The Ministry of ICT and National Guidance is also tasked with providing strategic and technical leadership, overall coordination, and advocacy on all matters of cybersecurity policy, laws, regulations, and strategy [1, 2, 6].
-MOSTI, now restructured as the STI Secretariat under the Office of the President, is focused on broader science, technology, and innovation initiatives, aiming to bridge technical expertise with policy implementation and foster innovation and research [4, 9]. While MOSTI/STI Secretariat may contribute to cybersecurity through research and innovation, there is no evidence that it hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee, oversees information security standards, or is directly responsible for network protection or incident response [4, 9].
-Therefore, while MOSTI/STI Secretariat may play a supporting role in cybersecurity through research and innovation, the primary responsibility for cybersecurity governance, prevention, planning, response, and enforcement lies with the Ministry of ICT and National Guidance [1, 2, 6].</t>
+          <t>The Ministry of Education, Science and Sport of Lithuania is primarily responsible for educational policies including digital skills and the integration of ICT in education. It promotes safe digital practices, digital skills development, and collaboration with other stakeholders on cyberspace education and awareness (e.g., Safer Internet Centre Lithuania). However, it is not explicitly tasked with national cybersecurity governance, technical coordination, or enforcement. The lead entity for cybersecurity policy development, implementation, and crisis management is the Ministry of National Defence, which oversees the National Cyber Security Centre and the Cyber Security Council. The Ministry of Education participates as a potential stakeholder in cybersecurity education and awareness programs, but it does not lead or directly enforce cybersecurity policy or technical operations nationally[1][2][3].</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6299,14 +6308,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/ugandan-national-cybersecurity-strategy-2022-2026', 'title': 'Ugandan National Cybersecurity Strategy 2022-2026', 'snippet': 'The mission is to create a cybersafe and protected Uganda by ensuring secure and resilient cyberspace that supports ICT adoption and innovation for ...', 'date': '2024-12-06', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ega.ee/wp-content/uploads/2022/08/Ugandan-national-cybersecurity-strategy.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY - e-Governance Academy', 'snippet': "integrity of Uganda. The role of this ministry is to provide cybersecurity protection for all military. ICT infrastructures and defend the country's ...", 'date': None, 'last_updated': '2025-04-12', 'matched': True}, {'url': 'https://www.cert.ug/sites/default/files/2022-05/National%20Information%20Security%20Strategy%202011.pdf', 'title': '[PDF] National Information Security Strategy (NISS FINAL DRAFT)', 'snippet': 'The Government recognized the potential cyber threats and through the Ministry of Science,. Technology and Innovation developed a National Cyber Security Policy ...', 'date': None, 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://pctechmag.com/2025/01/briefly-understanding-the-role-of-ugandas-sti-secretariat/', 'title': "Briefly understanding the role of Uganda's STI Secretariat", 'snippet': "STI Secretariat symbolizes Uganda's determination to rethink the approaches to managing improved Science, Technology, and Innovation.", 'date': '2025-01-23', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://ict.go.ug/site/documents/digital-vision-uganda-2040.pdf', 'title': '[PDF] Vision for A Digital Uganda - Ministry of ICT and National Guidance', 'snippet': 'recognize the role played by Science, Technology and Innovation (STI) ... ▫ Ensure data protection and cyber-security Strengthen Innovation ...', 'date': '2025-04-16', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://uict.ac.ug/about-uict/partners-collaborations/moict/', 'title': 'Ministry of ICT and National Guidance - UICT', 'snippet': 'Its core mandate is to formulate, coordinate, and monitor policies and strategies that harness ICT for national development. Through visionary initiatives, the ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ict.go.ug/site/documents/MoICT&amp;NG_eNewsletter_v01_2_OCT2025.pdf', 'title': "[PDF] Tackling Uganda's Growing ICT E-Waste Challenge", 'snippet': 'Guided by our Digital Transformation Roadmap, efforts to expand digital literacy, promote e-government services, foster innovation, and.', 'date': '2025-11-03', 'last_updated': None, 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/jru6iwrimip?page=7&amp;file=1663765070888i2x6ovh7u9.pdf', 'title': 'National Cyber Security Strategy for Uganda 2021 • Page 7', 'snippet': '1 VISION AND GOALS 1.2 Vision and mission Vision: Uganda is a Digitally Empowered Society and Knowledge Economy. Mission: To create a ensuring a secure and ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sti.go.ug', 'title': 'Making Uganda the STI Powerhouse of East Africa', 'snippet': 'At the heart of our work is shifting Uganda\'s economy to a science-led modernization and making Uganda the "STI Power" in the region.', 'date': '2025-08-19', 'last_updated': '2025-09-12', 'matched': True}]</t>
+          <t>[{'url': 'http://www.skaitmeninekoalicija.lt/en/about/members/ministry-education-science-and-sport-republic-lithuania', 'title': 'Ministry of Education, Science and Sport of the Republic of Lithuania', 'snippet': 'Ministry of Education, Science and Sport of the Republic of Lithuania seeks to adapt education to the needs of the information society of Lithuania and to ...', 'date': None, 'last_updated': '2025-08-12', 'matched': True}, {'url': 'https://data.kurklt.lt/wp-content/uploads/2023/04/Annex.pdf', 'title': '[PDF] Explanatory document for Ministry of National Defence of Lithuania ...', 'snippet': 'The Cyber Security Council is a permanent collegial independent advisory body which analyses the situation of cyber security assurance in the Republic of ...', 'date': None, 'last_updated': '2025-09-20', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/lithuania/~technology', 'title': 'Lithuania | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science, and Sport is the main institution in charge of technology in education. It sets the national policies and ...', 'date': '2025-01-17', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.skvc.lt/uploads/documents/files/EN%20versija/Descriptors%202022/Computing.pdf', 'title': '[PDF] MINISTER OF EDUCATION, SCIENCE AND SPORT OF THE ...', 'snippet': 'The tasks of self-study assignments have to comply with the learning outcomes of the study programme, to motivate and teach the students to plan and distribute ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ndupress.ndu.edu/Media/News/News-Article-View/Article/3323902/lithuanias-total-defense-review/', 'title': "Lithuania's Total Defense Review - NDU Press", 'snippet': "This article describes the development of Lithuania's total defense policy, which focuses on a whole-of-government and whole-of-society approach.", 'date': '2023-03-10', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cyberhubs.eu/resource/cybersecurity-skills-strategy-lithuania/', 'title': 'Cybersecurity Skills Strategy: Lithuania - CyberHubs', 'snippet': 'The Cybersecurity Skills Strategy conducted by CyberHub Lithuania aims to develop a highly skilled and adaptable cybersecurity workforce.', 'date': '2025-02-11', 'last_updated': '2025-02-22', 'matched': True}, {'url': 'https://commission.europa.eu/system/files/2022-05/countersigned_lt_oa.pdf', 'title': '[PDF] These operational arrangements enter into force on the signature ...', 'snippet': 'The. Coordinator is responsible at national level for coordinating and monitoring the effective implementation of the measures envisaged and the achievement of ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/Lithuania_Cyber-Security-Strategy-2018_English.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY - CCDCOE', 'snippet': 'The main purpose of the Strategy is to provide the Lithuanian people with the opportunity to explore the potential of information and communications technology ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the NONE in NIGER responsible for cybersecurity?
+          <t xml:space="preserve">Is the Bahamas Environment, Science and Technology Commission (BEST), Office of the Prime Minister in BAHAMAS (THE) responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6314,17 +6323,17 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NONE in NIGER</t>
+          <t>Bahamas Environment, Science and Technology Commission (BEST), Office of the Prime Minister in BAHAMAS (THE)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Bahamas Environment, Science and Technology Commission (BEST), Office of the Prime Minister</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>NIGER</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6334,7 +6343,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>There is no evidence that a ministry named 'NONE' exists in Niger or that it is responsible for cybersecurity. The main entity responsible for cybersecurity in Niger is the National Cybersecurity Center (CNAC), which was established by the Council of Ministers and is tasked with overseeing the implementation of the national cybersecurity strategy and fostering a secure digital environment [1, 8]. The CNAC is not a ministry but a specialized agency. No ministry named 'NONE' is mentioned in any official reports, strategies, or laws regarding cybersecurity in Niger [1, 8].</t>
+          <t>The Bahamas has developed and implemented a National Cybersecurity Strategy (NCS) led primarily by the National Computer Incident Response Team (CIRT-BS) and overseen by entities related to the Ministry of National Security and other government agencies focused on cybersecurity governance and response. There is no publicly available evidence or mention in the provided sources indicating that the Bahamas Environment, Science and Technology Commission (BEST), under the Office of the Prime Minister, holds any explicit responsibility for cybersecurity policy, implementation, technical coordination, or leadership roles for national cybersecurity in The Bahamas. The recognized authorities on cybersecurity are CIRT-BS and the Ministry of National Security, which coordinate cyber incident responses and strategy execution[1][2][3][4][6][7].</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6344,14 +6353,14 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ecofinagency.com/news-digital/1310-49489-niger-establishes-national-cybersecurity-center-amid-rising-threats', 'title': 'Niger Establishes National Cybersecurity Center Amid Rising Threats', 'snippet': "“The main mission of the National Cybersecurity Center is to oversee the implementation of Niger's national strategy for securing and defending ...", 'date': '2025-10-13', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://jcss.ut.ac.ir/article_103004_0263d7d80e80e892866549f3f57f209b.pdf', 'title': '[PDF] Establishing a Nigerian Centralized Cybersecurity Enforcement ...', 'snippet': 'responsible for cybercrime investigation and prosecution but operates with limited coordination with other cybersecurity agencies. The agency ...', 'date': '2025-08-04', 'last_updated': '2025-09-26', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Nigeria.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE NIGERIA - ITU', 'snippet': '1.3.3 RESPONSIBLE AGENCY. Nigeria has officially recognized the following agencies responsible for implementing a national cybersecurity.', 'date': '2014-08-12', 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://www.cyfirma.com/research/cyber-threat-assessment-on-nigeria/', 'title': 'CYBER THREAT ASSESSMENT ON NIGERIA - CYFIRMA', 'snippet': 'On January 27, 2025, the threat actor GDLockerSec was observed targeting lnrbda.gov.ng, the official domain of the Lower Niger River Basin ...', 'date': '2025-09-30', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://nitda.gov.ng/department/cyber-security/', 'title': 'Cyber Security - NITDA', 'snippet': 'The Cybersecurity Department was established in proactive response to the myriads of cyber incidences and breaches suffered by multinationals and nation-states ...', 'date': '2024-11-01', 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/National_Information_Technology_Development_Agency', 'title': 'National Information Technology Development Agency - Wikipedia', 'snippet': 'The National Information Technology Development Agency (NITDA) is a public service institution established by NITDA Act 2007 as the ICT policy implementing arm', 'date': '2016-01-08', 'last_updated': '2025-11-01', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ng/', 'title': 'NCSI :: Nigeria - National Cyber Security Index', 'snippet': 'There is a competent entity in the central government to whom responsibility is assigned for national cybersecurity strategy and policy development.', 'date': '2024-06-30', 'last_updated': '2025-08-17', 'matched': True}, {'url': 'https://www.africaone.com/articles/niger-launches-cybersecurity-center-to-fight-threats/', 'title': 'Niger Launches Cybersecurity Center to Fight Threats', 'snippet': 'The CNAC will serve as the lead agency in coordinating national policies, monitoring threats, and responding to cyber incidents that could ...', 'date': '2025-10-14', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://cybersecurity.nitda.gov.ng', 'title': 'Cyber Security Department', 'snippet': "Ensure the effective regulation of the sector through the development of standards and guidelines to enhance Nigeria's cybersecurity resilience.", 'date': '2022-03-22', 'last_updated': '2025-10-13', 'matched': True}]</t>
+          <t>[{'url': 'https://www.tribune242.com/news/2024/dec/18/bahamas-launches-national-cyber-security-strategic-plan/', 'title': 'Bahamas launches National Cyber Security strategic plan', 'snippet': 'The Bahamas has launched its National Cybersecurity Strategy (NCS) in a bid to better protect its digital infrastructure from rapidly-evolving online threats.', 'date': '2024-12-18', 'last_updated': '2024-12-19', 'matched': True}, {'url': 'https://magneticmediatv.com/2024/12/the-bahamas-strengthens-cybersecurity-with-national-cybersecurity-strategy-launch-and-multi-day-workshop/', 'title': 'The Bahamas Strengthens Cybersecurity with National ...', 'snippet': 'The Cabinet-approved strategy outlines the plan for The Bahamas to fortify its cybersecurity framework amid the rising global threat of cyber attacks.', 'date': '2024-12-24', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.oas.org/en/media_center/press_release.asp?sCodigo=E-173%2F14', 'title': 'OAS Assists Bahamas in the Development of a National Cyber ...', 'snippet': 'The visit formed part of a larger offer of assistance aimed at helping The Bahamas to develop its National Cyber Security Strategy and National ...', 'date': '2014-04-30', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://cybilportal.org/projects/bahamas-national-cybersecurity-project/', 'title': 'The Bahamas National Cybersecurity Project - Cybil Portal', 'snippet': 'The aim of the project is to help assess current Bahamian cybersecurity capabilities, as well as develop its National Cybersecurity Strategy.', 'date': '2023-07-28', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.cip-association.org/the-bahamas-strengthens-its-cybersecurity-capacity/', 'title': 'The Bahamas strengthens its cybersecurity capacity', 'snippet': 'The Bahamas has launched a project with ITU to set up a national Computer Incident Response Team (CIRT) to help protect the small island country.', 'date': '2021-04-12', 'last_updated': '2024-10-25', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bs/', 'title': 'NCSI :: The Bahamas - National Cyber Security Index', 'snippet': 'The information provided on the NCSI website is based on publicly available evidence materials. The appearance in the index and subsequent ranking is ...', 'date': '2025-01-30', 'last_updated': '2025-04-07', 'matched': True}, {'url': 'https://www.lac4.eu/the-bahamas-joins-lac4-2/', 'title': 'The Bahamas Joins LAC4', 'snippet': 'CIRT-BS leads the implementation and ongoing execution of the National Cybersecurity Strategy (NCS) a strategic framework that defines the roles ...', 'date': '2025-08-26', 'last_updated': '2025-09-02', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Climate Resilience, the Environment, and Information Technology in GRENADA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Eritrean Science and Technology Development Agency (ESTDA) in ERITREA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6359,17 +6368,17 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ministry of Climate Resilience, the Environment, and Information Technology in GRENADA</t>
+          <t>Eritrean Science and Technology Development Agency (ESTDA) in ERITREA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ministry of Climate Resilience, the Environment, and Information Technology</t>
+          <t>Eritrean Science and Technology Development Agency (ESTDA)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6379,7 +6388,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>The Ministry of Climate Resilience, the Environment &amp; Renewable Energy (as per latest official documentation) focuses primarily on climate change resilience, environmental sustainability, and renewable energy development, without direct mention or evidence of responsibility for cybersecurity policy, implementation, or technical coordination[3]. The Grenada National CSIRT (Computer Security Incident Response Team), responsible for incident management, threat intelligence, and cybersecurity awareness, is not hosted by this ministry but appears to be a distinct entity focused specifically on cybersecurity matters[1]. Additionally, cybersecurity policy, digital security, and related digital infrastructure improvements are overseen by the Division of ICT under the Cabinet Office, which leads government digital services modernization and cybersecurity efforts[2][4]. Given these distinctions, the Ministry of Climate Resilience has limited involvement in cybersecurity, likely supporting digital resilience indirectly through climate resilience but not leading cybersecurity activities explicitly.</t>
+          <t>The Eritrean Science and Technology Development Agency (ESTDA), established by the 2002 proclamation, primarily focuses on building national capability in research and development in science and technology, coordinating science and technology development activities, and overseeing science and technology educational institutions. There is no evidence that ESTDA is explicitly responsible for cybersecurity policy, implementation, or coordination. Eritrea currently lacks a designated agency responsible for cybersecurity, and the national cybersecurity framework is underdeveloped with no clear institutional lead. The Ministry of Information has issued statements regarding cyber attack responses, but ESTDA has not been identified as leading or participating in cybersecurity governance or incident response. Therefore, ESTDA's role in cybersecurity is minimal or indirect at best. This is supported by the absence of any mention of ESTDA in cybersecurity roles, lack of hosting a CERT/CSIRT, or membership in cybersecurity committees, as well as assessments indicating no assigned cybersecurity agency in Eritrea, and criticisms of limited cybersecurity efforts by the government overall.[3][5][1][2][4][9]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6389,14 +6398,14 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.csirt.gov.gd', 'title': 'Grenada National CSIRT', 'snippet': "The CSIRT's role is to gather and analyze information from this monitoring that will be used to identify potential cyber threats, recurring patterns, and advice ...", 'date': '2025-09-24', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.gov.gd/ict', 'title': 'Division of ICT | Cabinet Office - Government of Grenada', 'snippet': 'The Division of ICT aims to modernize government digital services and build resilience to climate risks, focusing on citizen-centric approaches that prioritize ...', 'date': '2025-09-14', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://climateresilience.gov.gd/ministry/', 'title': 'Ministry of Climate Resilience, The Environment &amp; Renewable Energy', 'snippet': "With a focus on climate resilience, the ministry spearheads initiatives to protect Grenada's natural environment, mitigate climate risks, and ensure sustainable ...", 'date': '2024-09-01', 'last_updated': '2025-01-30', 'matched': True}, {'url': 'https://www.caricomimpacs.org/articles/building-robust-long-term-defense-against-cyber-threats', 'title': 'Building robust, long-term defence against cyber threats', 'snippet': 'Grenada, with lead responsibility for Information, Communications and Technology (ICT) within the Caribbean Community (CARICOM), is fully aware ...', 'date': '2025-09-04', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/370621567389621226/pdf/Grenada-Digital-Government-for-Resilience-Project.pdf', 'title': '[PDF] Grenada-Digital-Government-for-Resilience-Project.pdf', 'snippet': 'ICT and digital platforms and technologies will put the government in a better position to fortify and safeguard public sector functionality, as ...', 'date': '2019-08-08', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.esri.com/about/newsroom/blog/grenada-digital-twin-climate-change', 'title': 'Climate Change Prompts Grenada to Create the First National ... - Esri', 'snippet': 'After receiving funds to assess vulnerability, Grenada turned the data into a digital twin to examine all manner of climate impacts.', 'date': '2022-06-16', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://www.state.gov/wp-content/uploads/2025/09/638719_2025-Grenada-Investment-Climate-Statement.pdf', 'title': '[PDF] 2025 Grenada Investment Climate Statement', 'snippet': 'Information provision: Providing investors with relevant information about investment opportunities, incentives, regulations, and the business environment in ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://observatorioplanificacion.cepal.org/sites/default/files/plan/files/GRANADA-NSDP20202035.pdf', 'title': '[PDF] FINAL VERSION', 'snippet': "The National Sustainable Development Plan (NSDP) is Grenada's overarching strategic high-level planning document that will anchor our development agenda ...", 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.finance.gd/docs/2022/FinalMTAP2022-2024upd.pdf', 'title': '[PDF] Government of Grenada MEDIUM-TERM ACTION PLAN (MTAP) 2022', 'snippet': "This Medium-term Action Plan (MTAP) is a companion document to Grenada's National Sustainable. Development Plan (NSDP) 2020-2035.", 'date': None, 'last_updated': '2025-10-06', 'matched': True}]</t>
+          <t>[{'url': 'https://erisat.org/2021/09/12/eritreas-ministry-of-it-technology-is-a-phony-here-is-why/', 'title': "Eritrea's Ministry of IT/Technology is a Phony: Here is Why... - Erisat", 'snippet': "– Since Eritrea doesn't allow free business, it is ultimately his job to make sure all the computers are of compliance with security rules ( ...", 'date': '2021-09-12', 'last_updated': '2025-04-26', 'matched': True}, {'url': 'https://african.business/2024/05/apo-newsfeed/massive-cyber-attack-against-eritreas-internet-system', 'title': "Massive cyber attack against Eritrea's Internet System", 'snippet': "A massive cyber attack was unleashed against Eritrea's Internet System on Independence Day, Friday, 24 May 2024, at 12:32':47 in the afternoon hours.", 'date': '2024-05-26', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/eritrea/~technology', 'title': 'Eritrea | Technology - Education Profiles', 'snippet': 'It outlines several key objectives and responsibilities of the agency, including building up national capability for research and development in ...', 'date': '2023-06-23', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.lawgratis.com/blog-detail/cyber-law-at-eritrea', 'title': 'Cyber Law at Eritrea - Law Gratis', 'snippet': "Eritrea's legal framework for cybersecurity and data protection is currently underdeveloped, with limited legislation and institutional ...", 'date': '2025-05-20', 'last_updated': '2025-04-17', 'matched': True}, {'url': 'https://ictpolicyafrica.org/api/documents/download?_id=5d4bb834a0c67b001b921f77', 'title': '[PDF] CYBERWELLNESS PROFILE STATE OF ERITREA - ICT Policy Africa', 'snippet': '1.3.3 RESPONSIBLE AGENCY\u200b\u200b There is no agency responsible for cybersecurity in Eritrea.', 'date': '2015-03-12', 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://pulse.internetsociety.org/en/reports/ER', 'title': 'Country Report for Eritrea - Internet Society Pulse', 'snippet': 'Eritrea received a security preparedness score of 1.73 on the 2023 Global Cybersecurity Index. Its e-government system readiness score is 42.09. Internet ...', 'date': '2020-06-01', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://cybilportal.org/projects/horn-of-africa-digital-governance-and-cybersecurity-initiative/', 'title': 'Horn of Africa Digital Governance and Cybersecurity Initiative', 'snippet': 'Activities include: convening with national partners in the region, improving the policy framework; raising awareness of cyber security among users; improve ...', 'date': '2024-02-15', 'last_updated': '2025-03-06', 'matched': True}, {'url': 'https://unctad.org/page/data-protection-and-privacy-legislation-worldwide', 'title': 'Data protection and privacy legislation worldwide - UNCTAD', 'snippet': 'As social and economic activities continue to shift online, the importance of privacy and data protection has become increasingly critical.', 'date': '2025-06-20', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-eritrea/', 'title': 'Cyber Security in Eritrea - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'Information about cyber security in Eritrea is generally limited. · The existence and effectiveness of specific cybercrime laws are unclear.', 'date': '2024-10-01', 'last_updated': '2025-02-17', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Department of Science and Technology in PHILIPPINES responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Tertiary Education in TRINIDAD AND TOBAGO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6404,17 +6413,17 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Department of Science and Technology in PHILIPPINES</t>
+          <t>Ministry of Science, Technology and Tertiary Education in TRINIDAD AND TOBAGO</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Department of Science and Technology</t>
+          <t>Ministry of Science, Technology and Tertiary Education</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6424,7 +6433,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>The Department of Science and Technology (DOST) of the Philippines is not the primary government agency responsible for national cybersecurity governance or policies. Official cybersecurity roles, including policy coordination and cyber defense, are primarily handled by the Department of Information and Communications Technology (DICT) and specialized bodies like the Philippine National Cybersecurity Plan (2023-2028) directs multi-stakeholder engagement under DICT leadership. The DOST focuses more on scientific and technological development but is not explicitly mentioned as leading cybersecurity strategy, hosting national CERT/CSIRT, or chairing cybersecurity councils in key government documents and reports. While DOST may contribute to technology development that can support cybersecurity, direct responsibility for cybersecurity policy, coordination, or enforcement rests with DICT and other security-focused entities.[1][2][3]</t>
+          <t>The Ministry of Science and Technology (a predecessor or component related to the Ministry of Science, Technology and Tertiary Education) is responsible for national ICT policy and management of the government ICT backbone in Trinidad and Tobago, indicating some role in technological infrastructure and policy[1]. The Ministry is also mentioned as a promoter of advanced training for cybersecurity professionals along with the Ministry of National Security[2][3]. However, primary responsibility for cybersecurity governance, policy development, enforcement, and the oversight of the national Computer Security Incident Response Team (TT-CSIRT) is held by the Ministry of National Security or a dedicated Cyber Security Agency established by law, rather than the Ministry of Science, Technology and Tertiary Education itself[1][2][3][4][5]. The Ministry of Science, Technology and Tertiary Education does not directly host a national CERT/CSIRT or lead cybersecurity committees but may contribute to workforce development in the sector. Thus, its role in Trinidad and Tobago’s cybersecurity governance and operational activities is limited compared to other agencies explicitly mandated for cybersecurity.</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6434,14 +6443,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/philippines-information-and-communications-technology', 'title': 'Philippines - Information and Communications Technology', 'snippet': 'The Philippines is exposed to a high risk of cyberattacks and security breaches due to its tech-savvy population and limited data protection ...', 'date': '2024-01-23', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://jsis.washington.edu/news/cybersecurity-profile-the-philippines/', 'title': 'Cybersecurity Profile 2025: The Philippines', 'snippet': "The Philippines' current domestic policy focuses on cyber defense from foreign actors, particularly China-based hackers targeting the ...", 'date': '2025-04-01', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://asiafoundation.org/wp-content/uploads/2022/03/Cybersecurity-in-the-Philippines-Global-Context-and-Local-Challenges-.pdf', 'title': '[PDF] CYBERSECURITY IN THE PHILIPPINES: - The Asia Foundation', 'snippet': 'The report traces the shifts in Internet governance and features the cybersecurity policy and posture of select countries and their possible ...', 'date': '2022-03-20', 'last_updated': '2025-07-11', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-philippines-phl-how-to-get-a-cybersecurity-analyst-role-in-philippines', 'title': 'How to Get a Cybersecurity Analyst Role in Philippines?', 'snippet': "To become a cybersecurity analyst in the Philippines, begin with a bachelor's degree in Computer Science or IT, followed by certifications like CISSP and CISM.", 'date': '2024-12-25', 'last_updated': '2025-03-09', 'matched': True}, {'url': 'https://www.cliffsnotes.com/study-notes/22072106', 'title': 'Sts c2 (docx) - CliffsNotes', 'snippet': '1. Understand cybercrimes in the Philippines and the challenges in combating them. 2. Learn about legal frameworks against cyber threats and the impact of ...', 'date': '2024-11-12', 'last_updated': None, 'matched': True}, {'url': 'https://apps.dtic.mil/sti/trecms/pdf/AD1213133.pdf', 'title': '[PDF] The Philippines: Cyber Threats - DTIC', 'snippet': 'This research highlights the roles and functions of three government agencies responsible for cybersecurity policy and program coordination in the Philippines: ...', 'date': '2025-02-13', 'last_updated': '2025-02-13', 'matched': True}]</t>
+          <t>[{'url': 'https://www.oas.org/juridico/spanish/cyber/cyb8_tt.pdf', 'title': '[PDF] Cyber Security in Trinidad and Tobago', 'snippet': '• Ministry of Science and Technology responsible for national. ICT policy and management of the government ICT backbone. • Ministry of National Security has ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/TrinidadTobago_2012_National_Cyber_Security%20Strategy_Final.pdf', 'title': '[PDF] Government of the Republic of Trinidad &amp; Tobago National Cyber ...', 'snippet': 'The Ministries responsible for national security and science and technology will also promote advanced training for cyber security professionals in public.', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ttcsirt.gov.tt/national-cyber-security-strategy/', 'title': 'National Cyber Security Strategy - TT-CSIRT', 'snippet': 'The Ministries responsible for national security and science and technology will also promote advanced training for cyber security professionals in public and ...', 'date': '2025-09-23', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tt/', 'title': 'NCSI :: Trinidad and Tobago - National Cyber Security Index', 'snippet': "Trinidad and Tobago's Computer Emergency Response Team (TT-CSIRT) operates under the Ministry of National Security and is responsible for nationwide cyber ...", 'date': None, 'last_updated': '2023-10-27', 'matched': True}, {'url': 'https://nationalsecurity.gov.tt/wp-content/uploads/2021/04/Manager-Computer-Security-Incident-Response-Team.pdf', 'title': '[PDF] Manager, Computer Security Incident Response Team (CSIRT)', 'snippet': 'Advises the Director of the Trinidad and Tobago Cyber Security Agency on all matters related to Computer Security Incident Response Management. • Ensures ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'http://mpaai.gov.tt/cyber-security-awareness-2025', 'title': 'Cybersecurity Awareness Month 2025', 'snippet': 'October is internationally observed as Cybersecurity Awareness Month - a period dedicated to promoting safer digital practices and strengthening resilience ...', 'date': '2025-09-01', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://newsday.co.tt/2025/07/22/smith-calls-for-urgency-in-ai-adoption-cybersecurity/', 'title': 'Smith calls for urgency in AI adoption, cybersecurity', 'snippet': '"There must be urgency dealing with issues of cybersecurity. There must be urgency dealing with all matters of national threat and that is the ...', 'date': '2025-07-22', 'last_updated': '2025-07-22', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Interministerial Delegation for Digital Transition in MONACO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in BURUNDI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6449,17 +6458,17 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Interministerial Delegation for Digital Transition in MONACO</t>
+          <t>Ministry of Higher Education and Scientific Research in BURUNDI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interministerial Delegation for Digital Transition</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6469,7 +6478,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>The Interministerial Delegation for Digital Transition in Monaco is primarily charged with overseeing digital transformation policies, but available information does not explicitly mention its responsibility for cybersecurity operations, policy, or technical coordination. Monaco hosts a national Computer Emergency Response Team (CERT), such as CERT-MCS and CERT-MC, which are specialized in cybersecurity incident detection and response, indicating that cybersecurity responsibilities are at least operationally managed by these CERT organizations rather than the Delegation itself[1][3][6][8]. There is no direct evidence that the Delegation leads or hosts these teams, participates directly in cybersecurity governance, or manages national cybersecurity standards and enforcement. Hence, the Delegation likely has some indirect or supportive role in digital policy areas encompassing cybersecurity but is not a primary responsible entity for national cybersecurity governance.</t>
+          <t>There is no direct evidence from national strategies, laws, or official documents indicating that the Ministry of Higher Education and Scientific Research in Burundi holds primary responsibility for national cybersecurity governance, policy, or enforcement. The officially recognized agency responsible for implementing national cybersecurity strategy, policy, and roadmap is the Agency for Regulation and Control of Telecommunications (ARCT)[2]. The Ministry appears involved mainly in educational aspects—such as cybersecurity awareness and promoting relevant training in higher education institutions[1][5]—but does not host a national CERT/CSIRT nor lead cybersecurity committees or technical coordination bodies. Its role is mainly indirect, focusing on capacity building and awareness rather than governance or implementation of cybersecurity measures at the national level. There is also no record of the Ministry leading international cybersecurity initiatives or supervising digital service security measures within Burundi[2][3]. This implies a low level of responsibility in the country’s cybersecurity framework.</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6479,14 +6488,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>[{'url': 'https://tf-csirt.org/trusted-introducer/directory/teams/cert-mcs-mc/', 'title': 'CERT-MCS (MC) - Trusted Introducer', 'snippet': 'The CERT-MCS provides services to its customers which are located at Monaco and France. CERT-MCS customers are found among: - Private sector organizations ...', 'date': '2023-11-14', 'last_updated': '2025-10-01', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2023/08/National_CERT-CSIRT_Mandate_and_Organisation_final_.pdf', 'title': '[PDF] National CERT/CSIRT – Mandate and Organisation | CCDCOE', 'snippet': 'The Centre encourages and supports the process of mainstreaming cyber security into NATO and national governance and capability, within its closely connected ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mc_2022/?allData=1', 'title': 'NCSI :: Monaco - National Cyber Security Index', 'snippet': 'The government has a unit (CSIRT, CERT, CIRT, etc.) that is specialised in national-level cyber incident detection and response. Accepted references.', 'date': None, 'last_updated': '2024-12-12', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Pages/national-CIRT.aspx', 'title': 'National CIRT - ITU', 'snippet': 'ITU is helping countries to establish National Computer Incident Response Teams (CIRT), which serve as a national focus point for coordinating cybersecurity ...', 'date': '2025-11-12', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.first.org/events/symposium/monaco2025/', 'title': '2025 TF-CSIRT Meeting &amp; FIRST Regional Symposium Europe', 'snippet': 'January 14–16, 2025. Co-organized by TF-CSIRT &amp; Hosted by CERT Monaco. The 2025 TF-CSIRT Meeting &amp; FIRST Regional Symposium Europe will be held ...', 'date': '2025-10-13', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://tf-csirt.org/trusted-introducer/directory/teams/cert-mc-mc/', 'title': 'CERT-MC (MC) - Trusted Introducer', 'snippet': 'Team Details ; Official Name. CERT Monaco ; Short Name. CERT-MC (MC) ; Country. Monaco ; Established. 23 Dec 2015 ; Host Organisation. MONACO CYBER SECURITY AGENCY ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://online.norwich.edu/online/programs-courses/programs/certificate-computer-forensic-investigationincident-response-team-management', 'title': 'Certificate in Computer Forensic Investigation/Incident Response ...', 'snippet': 'Major topics include establishing CSIRTs; responding to computer emergencies; securing the CSIRT; managing the CSIRT with respect to professionalism ...', 'date': '2024-02-01', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://www.first.org/members/teams/cert-mc', 'title': 'CERT-MC - FIRST.org', 'snippet': 'The constituency of CERT-MC is composed of:· All government departments and public institutions of Principality of Monaco· Strategic infrastructure operators ...', 'date': '2015-12-23', 'last_updated': '2025-08-06', 'matched': True}, {'url': 'https://cybilportal.org/projects/monaco-national-cirt-assessment/', 'title': 'Monaco National CIRT Assessment - Cybil Portal', 'snippet': "Study and analyse the country's current cybersecurity status and needs. Information will be gathered by the ITU Global Cybersecurity Index, as well as public ...", 'date': None, 'last_updated': '2025-08-25', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Creating%20a%20CIRT.pdf', 'title': '[PDF] CIRT Creation Stages - ITU', 'snippet': "X-CIRT's mission is to improve the nation's cybersecurity posture, coordinate cyber information sharing, and proactively manage cyber risks to the nation while ...", 'date': None, 'last_updated': '2024-09-08', 'matched': True}]</t>
+          <t>[{'url': 'https://www.ajer.org/papers/Vol-10-issue-6/W1006206211.pdf', 'title': '[PDF] Strategic Approach based on Cybersecurity for National Educational ...', 'snippet': 'Education is important in addressing evolving cybersecurity threats, as all protection factors play an essential role in curbing them. Moreover, ...', 'date': '2021-06-24', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Country_Profiles/Burundi.pdf', 'title': '[PDF] CYBERWELLNESS PROFILE BURUNDI - ITU', 'snippet': 'Burundi is a member of the ITU-IMPACT initiative and has access to relevant cybersecurity services. Burundi is among the beneficiaries of the EU ...', 'date': '2014-08-12', 'last_updated': '2025-07-26', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bi_2022/', 'title': 'NCSI :: Burundi - National Cyber Security Index', 'snippet': '5. Protection of digital services 0/5 0%. 0. 5 0%. 5.1. Cyber security responsibility for digital service providers 0 · 6. Protection of essential services 0/6 0 ...', 'date': '2022-10-13', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bi/?allData=1', 'title': 'NCSI :: Burundi - National Cyber Security Index', 'snippet': '... the roles and responsibilities of ... It acknowledges both distinct cybersecurity programmes and the integration of cybersecurity into undergraduate ICT education ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.internetjurisdiction.net/uploads/pdfs/Cross-border-Digital-Policies-for-Africa_-Project-Kick-Off-event-November-4-2021.pdf', 'title': '[PDF] Cross-border digital policies for Africa: Project Kick-Off', 'snippet': 'Ministry of Higher Education, SCientific Research and ICTs • Mediterranean Federation of Internet Associations • Melbourne University • Mojaji.', 'date': '2021-11-04', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.kearney.com/documents/291362523/296371292/Cybersecurity+in+Africa%E2%80%94a+call+to+action.pdf/cb6f42c4-570c-ddd7-4f8c-719507863674?t=1683214143000', 'title': '[PDF] Cybersecurity in Africa—a call to action - Kearney', 'snippet': 'Through cyberattacks hackers can gain access to a group of connected systems by overrunning the point of least resistance. This means managing system.', 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://thedocs.worldbank.org/en/doc/094ae7e492b4b741f58747465021caf0-0200022021/original/DE4A-Burundi-EN.pdf', 'title': '[PDF] DE4A Burundi - The World Bank', 'snippet': 'Equally, the digital economy creates new legal and regulatory challenges, such as protecting consumers and their right to privacy, supporting cybersecurity and ...', 'date': None, 'last_updated': '2024-05-03', 'matched': True}, {'url': 'https://mohe.gov.jo/EN/NewsDetails/The_Ministry_of_Higher_Education_and_Scientific_Research_holds_an_awareness_workshop_on_cybersecurity_for_its_employees', 'title': 'The Ministry of Higher Education and Scientific Research', 'snippet': "This workshop aims to raise the awareness of the ministry's employees in the field of cybersecurity and enable them to take effective preventive ...", 'date': '2025-09-14', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/2025/09/economic-security-in-a-changing-world_78f3b129/full-report/building-stronger-defences-for-a-digital-future-the-role-of-cybersecurity_484bcb90.html', 'title': 'Building stronger defences for a digital future: The role of cybersecurity', 'snippet': 'Discussions of different aspects of economic security, such as supply chain resilience, energy security and cybersecurity, have intensified in recent years.', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Digital Economy and Entrepreneurship in JORDAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Scientific Research + Innovations in VANUATU responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6494,27 +6503,27 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ministry of Digital Economy and Entrepreneurship in JORDAN</t>
+          <t>Ministry of Science, Technology and Scientific Research + Innovations in VANUATU</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Ministry of Digital Economy and Entrepreneurship</t>
+          <t>Ministry of Science, Technology and Scientific Research + Innovations</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>The Ministry of Digital Economy and Entrepreneurship (MoDEE) in Jordan is explicitly responsible for cybersecurity policy, implementation, and coordination. The 2019 Cybersecurity Law designates MoDEE as a key entity in the national cybersecurity framework, including the establishment of the National Cybersecurity Council and the National Center for Cybersecurity, both of which are central to Jordan's cybersecurity governance[1][3][7]. MoDEE is also responsible for developing and overseeing cybersecurity architecture, safeguarding critical infrastructure, and promoting academic research in cybersecurity[1][5]. The Ministry hosts the Personal Data Protection Department (PDPA), an independent authority affiliated with MoDEE, which further underscores its role in cybersecurity[7]. MoDEE leads and participates in national cybersecurity initiatives, coordinates with other government entities, and is involved in international cybersecurity cooperation, such as the U.S.-Jordan Cyber and Digital Dialogue[3][7]. These responsibilities and activities confirm MoDEE's high level of cybersecurity responsibility in Jordan.</t>
+          <t>The Ministry of Science, Technology and Scientific Research + Innovations is not explicitly identified in Vanuatu's national cybersecurity policies or strategies as the lead or a primary responsible entity for cybersecurity governance, policy implementation, or technical coordination. The National Cyber Security Strategy 2030 and National ICT Policy attribute leadership and coordination roles mainly to the Office of the Government Chief Information Officer (OGCIO), the Prime Minister (who holds the ICT portfolio), and multi-stakeholder committees. The Ministry has not been documented as hosting a national CERT/CSIRT or leading cybersecurity committees. Evidence from the national cybersecurity framework, national security strategy, and recent incident reports indicates cybersecurity efforts are coordinated at the government executive level rather than by this Ministry. For example, a 2022 cyber incident response involved direct government and international cyber center cooperation without mention of this Ministry’s primary role. Hence, while the Ministry may be involved in technological innovation, its formal responsibility for national cybersecurity is low or not prominent in the available official documentation and outbreak responses.</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6524,14 +6533,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.mei.edu/publications/jordan-adopts-sweeping-cybersecurity-legislation', 'title': 'Jordan adopts sweeping cybersecurity legislation', 'snippet': 'Among its many duties are developing cybersecurity architecture, guarding critical infrastructure, promoting academic research, and imposing ...', 'date': '2020-01-30', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.modee.gov.jo/Default/En', 'title': 'Home Page - Ministry of Digital Economy and Entrepreneurship', 'snippet': 'Introduction. aims to improve digitally enabled income opportunities and expand digitized government services in Jordan. it will build an impetus for private ...', 'date': '2025-10-20', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/jordan-digital-economy', 'title': 'Jordan - Digital Economy - International Trade Administration', 'snippet': "In 2019, the Cybersecurity Law was enacted, providing a blueprint for the country's cyber-defense capabilities, including the establishment of a ...", 'date': '2024-09-20', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://dco.org/council/jordan/', 'title': 'Jordan - DCO - Digital Cooperation Organization', 'snippet': "Jordan's digital strategy sits at the heart of its Reach 25 National Vision &amp; Strategy, guiding the country's transition to a digital economy.", 'date': '2023-10-18', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.modee.gov.jo/En/Pages/About_MoDEE', 'title': 'About MoDEE - Ministry of Digital Economy and Entrepreneurship', 'snippet': 'MoDEE has overall responsibility for the achievement of National goals and objectives within the Digital landscape, and should use the various means and ...', 'date': '2025-10-09', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://jordan.gov.jo/En/NewsDetails/The_ministry_of_digital_economy_Entrepreneurship_presents_the_draft_Jordanian_strategy_for_artificial_intelligence_and_its_implementation_plan_20232027_for_public_consultation', 'title': 'The ministry of digital economy Entrepreneurship presents the draft ...', 'snippet': 'The ministry of digital economy Entrepreneurship presents the draft Jordanian strategy for artificial intelligence and its implementation plan 2023-2027 for ...', 'date': '2024-01-01', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/jo/', 'title': 'NCSI :: Jordan - National Cyber Security Index', 'snippet': 'The law created the Personal Data Protection Department (PDPA), an independent authority affiliated with the Ministry of Digital Economy and Entrepreneurship ( ...', 'date': '2025-09-30', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://gbd.gov.jo/uploads/files/gbd/law-min/2021/en/3201.pdf', 'title': 'Chapter : 3201 Ministry of Digital Economy and Entrepreneurship', 'snippet': '- Confidence in digital infrastructure and its ability to confront cybersecurity risks. - Jordanians possess the skills necessary to participate in the ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://jordantimes.com/news/local/digital-economy-ministry-highlights-importance-recent-contract-uae-based-company', 'title': 'Digital Economy Ministry highlights importance of recent contract ...', 'snippet': 'This process includes obtaining the necessary approvals from the relevant authorities, including those responsible for cybersecurity, in ...', 'date': '2024-10-16', 'last_updated': '2025-02-27', 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/vu/', 'title': 'NCSI :: Vanuatu - National Cyber Security Index', 'snippet': 'PREVENTIVE CYBERSECURITY INDICATORS · 7.1. Cyber threat analysis 0. 0. 3. Requirements. Criteria · 7.2. Public cyber threat reports 0. 0. 3. Requirements.', 'date': '2025-02-14', 'last_updated': '2025-04-08', 'matched': True}, {'url': 'https://www.lawfaremedia.org/article/role-international-assistance-cyber-incident-response', 'title': 'The Role of International Assistance in Cyber Incident Response', 'snippet': 'Some cybersecurity incidents can render crucial government services inaccessible, like recent events in Costa Rica and Vanuatu exemplify.', 'date': '2023-03-30', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://digital.gov.vu/images/policies/Vanuatu-National-ICT-Policy-EN.pdf', 'title': '[PDF] National Information and Communication Technology Policy', 'snippet': 'National Information and Communication. Technology (ICT) Policy. This Policy expresses a firm commitment of the. Government to maximise the contribution, ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.gov.vu/images/publications/Vanuatu_National_Security_Strategy.pdf', 'title': '[PDF] Vanuatu - National Security Strategy Secure &amp; Resilient', 'snippet': 'The Vanuatu security forces also play a major role in responding to natural disasters, and in the provision of services to remote areas.', 'date': None, 'last_updated': '2024-02-07', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/en/entity/rypexo1ghk/metadata?page=1&amp;file=1741024619030ydm2w3j86z.pdf', 'title': 'Vanuatu National Cyber Security Strategy 2030', 'snippet': 'Vanuatu National Cyber Security Strategy 2030 · Critical Infrastructure · Cyber Crime · Cyber Terrorism · Cybersecurity Awareness · Cybersecurity Exercises · Data ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/rypexo1ghk?page=37&amp;file=1741024619030ydm2w3j86z.pdf', 'title': 'Vanuatu National Cyber Security Strategy 2030 • Page 37', 'snippet': 'UNIDIR Cyber Policy Portal Database · UNIDIR Cyber Policy Portal Database · Table of contents · Vanuatu National Cyber Security Strategy 2030 · Create Reference.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://moet.gov.vu/docs/policies/MOET%20ICT%20Policy_2025.pdf', 'title': '[PDF] MOET ICT Policy', 'snippet': 'The ICT policy shall be effective from the date of signing and the review date for ICT policy shall be five years from the date of signing.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://pacson.org/members/vanuatu', 'title': 'Vanuatu | Pacific Cyber Security Operational Network (PaCSON)', 'snippet': "Our primary objective of the CERT VU is to prevent, detect and mitigate malicious incidents identified in Vanuatu's IP communications network and the private ...", 'date': None, 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://cert.gov.vu/images/ressources/Vanuatu_National_CyberSecurity_Strategy2030_Booklet.pdf', 'title': '[PDF] CYBER SECURITY - CERT Vanuatu', 'snippet': 'or technology; it is about establishing a broad, fundamental awareness and sense of responsibility among all Internet and technology users.', 'date': '2021-03-09', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of National Education and Professional Development (Ministère de l'Éducation Nationale et de la Formation Professionnelle, MENFP) in HAITI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Innovation and Universities (Ministerio de Ciencia, Innovación y Universidades) in SPAIN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6539,27 +6548,27 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ministry of National Education and Professional Development (Ministère de l'Éducation Nationale et de la Formation Professionnelle, MENFP) in HAITI</t>
+          <t>Ministry of Science, Innovation and Universities (Ministerio de Ciencia, Innovación y Universidades) in SPAIN</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ministère de l'Éducation Nationale et de la Formation Professionnelle (MENFP)</t>
+          <t>Ministerio de Ciencia, Innovación y Universidades</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Available sources on Haiti's cybersecurity governance indicate that the Ministry of Economy and Finance (MEF) and entities linked to it, such as the Information Technology Institute (IHSI), along with the Prime Minister's Office e-Governance Unit, hold mandates related to digital transformation and cybersecurity capacity building in the public sector. There is no mention or evidence that the Ministry of National Education and Professional Development (MENFP) has explicit responsibilities for cybersecurity policy, implementation, or coordination, nor does it host a national CERT/CSIRT or participate in dedicated cybersecurity governance bodies. Related projects and international support focus on strengthening cybersecurity governance through the MEF and digital government agencies, not MENFP. Furthermore, MENFP's involvement described in other contexts pertains to education system governance without indications of cybersecurity roles. Therefore, MENFP is not responsible for Haiti's cybersecurity governance according to the examined documents[1][2][6].</t>
+          <t>The Ministerio de Ciencia, Innovación y Universidades in Spain primarily manages science, technological development, innovation policies, and university affairs, including coordination of research and participation in European and international scientific organizations[4][5][8]. There is no direct mention in national cybersecurity strategies or official documents that this ministry holds explicit responsibility for national cybersecurity policy, implementation, or technical coordination[1][2]. The national cybersecurity governance and operational coordination are primarily under other bodies such as the National Cybersecurity Council (Consejo Nacional de Ciberseguridad), which involves interministerial coordination and the National Security apparatus, as outlined in the 2019 National Cybersecurity Strategy[2]. While the ministry funds research and innovation projects that may include cybersecurity topics, it does not appear to host the national CERT/CSIRT bodies, lead cybersecurity committees, or oversee cybersecurity standards or enforcement. Therefore, it plays a limited role, mainly in supporting cybersecurity research and innovation but not in direct cybersecurity governance or operational responsibility[3].</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6569,14 +6578,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ewsdata.rightsindevelopment.org/files/documents/10/IADB-HA-J0010_M44bQ1G.pdf', 'title': '[PDF] haiti strengthening the foundations of digital transformation of public ...', 'snippet': 'detect, respond, and recover from cybersecurity incidents. According to the. 2020 Global Cybersecurity Index, Haiti ranks 167 (of 182 countries) ...', 'date': '2024-01-17', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.iadb.org/en/news/haiti-boost-governments-digital-transformation-idb-support', 'title': "Haiti to Boost Government's Digital Transformation with IDB Support", 'snippet': 'It will focus on developing public sector cybersecurity governance and the capacity to protect, monitor, detect, respond to, and recover from ...', 'date': '2024-07-19', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.haitilibre.com/docs/Haiti-Roadmap-EN.pdf', 'title': '[PDF] towards a haitian-led roadmap for stability and peace - HaitiLibre.com', 'snippet': 'Its role is to provide operational support to the HNP, plan and conduct joint security operations to counter gangs, improve security conditions, and safeguard ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Haiti.pdf', 'title': '[PDF] Haiti.pdf - GHS Index', 'snippet': 'This document is a compilation of all questions, justifications, and sources used to determine the 2021 Global Health Security Index scores for Haiti. ... [http ...', 'date': None, 'last_updated': '2025-08-29', 'matched': True}, {'url': 'https://usun.usmission.gov/statement-on-the-deployment-of-the-multinational-security-support-mission-to-haiti-as-authorized-by-u-s-led-security-council-resolution-2699/', 'title': 'Statement on the Deployment of the Multinational Security Support ...', 'snippet': 'The MSS will play a crucial role in delivering the safety and security that Haitians rightly demand, along with sustaining political stability ...', 'date': '2024-06-25', 'last_updated': '2025-06-03', 'matched': True}, {'url': 'https://www.caribank.org/sites/default/files/publication-resources/HaitiCountryStrategyReport.pdf', 'title': '[PDF] CDB - Evaluation of Haiti Country Strategies and Programme', 'snippet': 'CDB provided capacity building support and equipment to MENFP as part of its attempt to improve the governance of the system, but there is no evidence of ...', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://idbinvest.org/sites/default/files/2025-10/Country%20Engagement%20Note%20for%20Haiti%202024-2026_Public%20(1).pdf', 'title': '[PDF] Country Engagement Note for Haiti 2024-2026 - IDB Invest', 'snippet': '“Community-Based Program to Foster Human Security in Haiti” (HA-. J0008), in line with this programmatic approach and with the same objective of addressing ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://bti-project.org/en/reports/country-report/HTI', 'title': 'Haiti Country Report 2024 - BTI Transformation Index', 'snippet': 'As 2023 unfolds, Haiti faces an escalating economic, social and security crisis of alarming proportions.', 'date': '2021-07-07', 'last_updated': '2025-11-09', 'matched': True}]</t>
+          <t>[{'url': 'https://portal.mineco.gob.es/RecursosArticulo/mineco/ministerio/ficheros/210204_Digital_Spain_2025.pdf', 'title': 'DIGITAL SPAIN 2025', 'snippet': 'The strategy will include, at a minimum, the following programmes: (1) Digital training programme for the general public; (2) Digitalisation and digital skills ...', 'date': None, 'last_updated': '2024-09-17', 'matched': True}, {'url': 'https://www.famp.es/export/sites/famp/.galleries/documentos-lab-eficiencia-energetica/Estrategia-Nacional-de-Ciberseguridad-2019-Interactivo_0.pdf', 'title': 'Estrategia Nacional de Ciberseguridad 2019', 'snippet': '1. Impulsar programas de apoyo a la I+D+i en seguridad digital y ciberseguridad en pymes, empresas, universidades y centros de investigación, facilitando ...', 'date': None, 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://oficinac.es/sites/default/files/informes/20221114_Report%20C%20cibersecurity.pdf', 'title': 'Cybersecurity', 'snippet': 'Ciencia e Innovación destina 54 millones de euros al Plan Complementario de. Comunicación Cuántica para reforzar la ciberseguridad a través ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.ciencia.gob.es/Ministerio/Mision-y-organizacion.html', 'title': 'Misión y organización', 'snippet': 'El Ministerio de Ciencia, Innovación y Universidades es el departamento de la Administración General del Estado encargado de la propuesta y ejecución de la pol ...', 'date': '2025-10-15', 'last_updated': '2025-11-02', 'matched': True}, {'url': 'https://www.ciencia.gob.es/Ministerio/Mision-y-organizacion/Estructura-y-Funciones/SECIU.html', 'title': 'Secretaría de Estado de Ciencia, Innovación y Universidades', 'snippet': 'La dirección y desarrollo de políticas en el ámbito de ciencia, innovación y universidades. · El diseño, planificación y dirección de la política de becas y ...', 'date': '2025-06-25', 'last_updated': '2025-06-27', 'matched': True}, {'url': 'https://www.nebrija.com/en/postgraduate-degree/master/cybercrime/', 'title': "Master's Degree in Cybercrime in Madrid", 'snippet': "The Master's Degree in Cybercrime trains students in the phenomenon of cybercrime, its agents, the environment where it takes place and its treatment.", 'date': '2025-01-01', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.aei.gob.es/sites/default/files/convocatory_info/2021-10/Resumen_CV_2020_TG_area_7_TIC.pdf', 'title': 'AYUDAS RAMÓN Y CAJAL CONVOCATORIA 2020 Turno ...', 'snippet': 'I have also taken important administrative roles, including the departmental PhD Admissions Coordinator of KCL. Page 12. MINISTERIO. DE CIENCIA. E INNOVACIÓN.', 'date': None, 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://www.ciencia.gob.es', 'title': 'Ministerio de Ciencia, Innovación y Universidades', 'snippet': '#COVID-19. Buscar. Convocatorias · Investigar · Innovar · Universidades · Servicios · Sede electrónica. Español. Español · English · Catalá · Euskara ...', 'date': '2025-11-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://publications.jrc.ec.europa.eu/repository/bitstream/JRC135017/JRC135017_02.pdf', 'title': 'The Spanish scientific and technical advisory ecosystem for ...', 'snippet': 'It thus exercises a systemic role within the national ecosystem for scientific advice on public policy, while connecting Spain with abroad, through the network ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.aepd.es/guias/adecuacion-rgpd-ia.pdf', 'title': 'Adecuación al RGPD de tratamientos que incorporan ...', 'snippet': 'Este documento tiene como objetivo ser una primera aproximación para la adecuación al. Reglamento (UE) 2016/679, General de Protección de Datos (RGPD) de ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science and Innovation (Ministério do Ensino Superior, Ciência e Inovação) in CABO VERDE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Environment (CITMA) in CUBA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6584,17 +6593,17 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science and Innovation (Ministério do Ensino Superior, Ciência e Inovação) in CABO VERDE</t>
+          <t>Ministry of Science, Technology and Environment (CITMA) in CUBA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ministério do Ensino Superior, Ciência e Inovação</t>
+          <t>Ministry of Science, Technology and Environment (CITMA)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -6604,10 +6613,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science and Inovação in Cabo Verde is not explicitly mentioned as the lead or primary responsible body for national cybersecurity policy, implementation, or technical coordination in the available national strategies, laws, or reports. The main responsibility for cybersecurity is assigned to other entities, such as the Ministry of State Modernization and Public Administration, which oversees the launch of the national Security Operations Center (SOC) and Computer Security Incident Response Team (CSIRT) within the State’s Private Technological Network (RTPE) [1]. The National Cybersecurity Strategy and the Legal Regime of Cybersecurity (Law Decree n.º 9/2021) are also referenced, but these do not assign direct responsibility to the Ministry of Higher Education, Science and Innovation [5].
-However, the Ministry may play a supporting role in cybersecurity through its mandate for science, innovation, and higher education. For example, the Digital Economy Strategy of Cabo Verde encourages collaboration with universities and research institutions to drive Research and Development (R&amp;D) in technology, which could include cybersecurity-related activities [2]. The Ministry might also be involved in training and awareness initiatives, as the strategy calls for training and raising awareness in cybersecurity, but this is not exclusive to the Ministry of Higher Education, Science and Innovation [2].
-There is no evidence that the Ministry hosts a national CERT/CSIRT/CIRT, leads or is a member of a cybersecurity committee or council, or oversees information security standards or network protection. Participation in events, workshops, or joint initiatives related to cybersecurity is possible but not specifically documented in the available sources.
-In summary, while the Ministry of Higher Education, Science and Innovation may contribute to cybersecurity through education and research, it does not have a primary or direct responsibility for national cybersecurity governance, prevention, planning, response, or enforcement.</t>
+          <t>Available information indicates that Cuba's cybersecurity responsibilities are primarily associated with the Ministry of Communications and the Ministry of the Interior. The Ministry of Communications is actively involved in developing AI and cybersecurity strategies, expanding mobile and fiber optic infrastructure, and promoting digital transformation[1][5]. The Ministry of the Interior hosts cybersecurity cooperation agreements and activities, such as hosting the General Directorate of Counterintelligence and the Department of Cybersecurity and Hi-Tech Crime Prevention, and leading bilateral cybersecurity cooperation efforts with Vietnam[2]. There is no direct evidence linking CITMA to national cybersecurity policy, coordination, or the hosting of national CERT/CSIRT functions. CITMA mainly focuses on science, technology, and environment sectors without explicit cybersecurity governance roles or participation in cybersecurity forums reported. Therefore, CITMA's responsibility in national cybersecurity is assessed as low, likely limited to sector-specific or environmental technology aspects rather than overall cybersecurity governance in Cuba.</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6617,7 +6623,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ecofinagency.com/news-digital/3110-50013-cape-verde-steps-up-cybersecurity-efforts-with-national-soc-incident-response-team', 'title': 'Cape Verde Steps Up Cybersecurity Efforts with National SOC ...', 'snippet': 'Cape Verde launches national cybersecurity center and incident response team SOC and CSIRT aim to secure digital services and boost cyber.', 'date': '2025-10-31', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://med.gov.cv/documents/40469/73467/Executive+Summary-EEDCV.pdf/1588ef2c-160d-59b8-e36e-ca4ee4652ffc?t=1728390932982&amp;download=true', 'title': '[PDF] Digital Economy Strategy of Cabo Verde (EEDCV)', 'snippet': 'The five core values of the strategy encompass: innovation, inclusion, sustainability, resilience, and trust. These values ensure that digital transformation in ...', 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/sites/default/files/gcscc/documents/media/cmm_cape_verde_2019_final.pdf', 'title': '[PDF] CYBERSECURITY CAPACITY REVIEW', 'snippet': 'There is no national cyber defence strategy in Cape Verde. Army representatives advised that they have been working closely with their counterparts in the ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://cyrilla.org/api/files/15986325261173kck0yb2ht6.pdf', 'title': '[PDF] Brief Overview of Cape Verde Digital Strategy - CYRILLA', 'snippet': 'Cape Verde aims to provoke changes in this generation in learning "basic skills" in the field of digital tools with a view to its use in economic and social ...', 'date': None, 'last_updated': '2025-07-20', 'matched': True}, {'url': 'https://publicadministration.un.org/egovkb/Portals/egovkb/MSQ2024/Cabo%20Verde%20-%20MSQ2024.pdf', 'title': '[PDF] Cabo Verde - MSQ2024.pdf - dpidg/un desa', 'snippet': 'The National Cybersecurity Strategy, the Digital Economy Strategy, the Legal. Regime of Cybersecurity (Law Decree n. º 9/2021 of January 29th) and the.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ugpe.gov.cv/en/noticia/cabo-verde-reforca-confianca-digital-com-selo-webtrust-atribuido-a-arme', 'title': 'Cape Verde strengthens digital trust with WebTrust Seal awarded to ...', 'snippet': 'The recognition validates the root digital certificate of the national infrastructure and allows it to be included in global repositories and browsers, boosting ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-cape-verde/', 'title': 'Cyber Security in Cape Verde - Blog | Gavin Dennis - Certified and ...', 'snippet': 'The government of Cape Verde recognises the importance of cyber security and is working on plans and strategies to improve it. This includes ...', 'date': '2024-10-04', 'last_updated': '2024-11-23', 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'Cybersecurity Policy and Strategy (national cybersecurity strategy ... LAC region – Benin, Burkina Faso, Cabo Verde, Chile, Costa. Rica, Dominican ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}]</t>
+          <t>[{'url': 'https://www.plenglish.com/news/2025/03/05/prime-minister-calls-to-develop-ai-and-cybersecurity-in-cuba/', 'title': 'Prime minister calls to develop AI and cybersecurity in Cuba', 'snippet': 'Prime minister calls to develop AI and cybersecurity in Cuba ... technology sector, as well as increasing mobile phone coverage in 4G.', 'date': '2025-03-05', 'last_updated': '2025-03-06', 'matched': True}, {'url': 'https://vietnamnews.vn/politics-laws/1723403/viet-nam-cuba-enhance-cybersecurity-cooperation.html', 'title': 'Việt Nam, Cuba enhance cybersecurity cooperation - Vietnam News', 'snippet': 'Quang said he had instructed relevant MPS units to implement agreements reached between the two sides, focusing on personnel training for the ...', 'date': '2025-08-15', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'http://cubasi.cu/en/news/cuba-moves-forward-cybersecurity-strengthening', 'title': 'Cuba moves forward in cybersecurity strengthening', 'snippet': 'Cuba guarantees, through legislation and measures, the security of institutions and people in the digital environment, the general director ...', 'date': '2024-02-02', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.citmavcl.gob.cu/en/cybersecurity-and-solutions-with-a-cuban-touch/', 'title': 'Cybersecurity and Solutions with a Cuban Touch', 'snippet': 'Territorial Delegation of Science Technology and Environment · Center for Environmental Studies and Services · Base Business Unit (Servicitma) ...', 'date': '2025-04-02', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://misiones.cubaminrex.cu/en/articulo/first-deputy-minister-communications-cro-ernesto-rodriguez-hernandez-speaks-item-4', 'title': 'The First Deputy Minister of Communications, Cro. Ernesto ...', 'snippet': 'For Cuba, international cooperation is critical in adopting new technologies, given the constraints imposed primarily by the U.S. blockade. It ...', 'date': '2025-04-08', 'last_updated': None, 'matched': True}, {'url': 'https://bwcimplementation.org/states/cuba', 'title': 'Cuba | Biological Weapons Convention National Implementation ...', 'snippet': 'Cuba implements prohibitions under the Biological Weapons Conventions through a number of key measures.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://irannewsdaily.com/2025/04/cuba-expresses-interest-in-learning-from-irans-experience-in-smart-govt-cybersecurity/', 'title': "Cuba Expresses Interest in Learning from Iran's Experience in Smart ...", 'snippet': "Sadr also announced Iran's readiness to hold training courses and mentioned the signing of a bilateral agreement in the field of cybersecurity.", 'date': '2025-04-12', 'last_updated': '2025-04-12', 'matched': True}, {'url': 'https://english.mic.gov.vn/vietnam-organizes-cyber-security-training-for-cuba-197139354.htm', 'title': 'Vietnam organizes cyber security training for Cuba - English', 'snippet': 'Vietnam instructors have provided lectures and instructions on malware prevention, web attack, guidance on building a national network security ...', 'date': '2019-07-18', 'last_updated': '2024-12-01', 'matched': True}, {'url': 'https://freedomhouse.org/country/cuba/freedom-net/2022', 'title': 'Cuba: Freedom on the Net 2022 Country Report', 'snippet': 'Cuba has one of the lowest connectivity rates in the Western Hemisphere, regular internet access remains extremely expensive, and connections are poor.', 'date': '2020-02-01', 'last_updated': '2025-10-28', 'matched': True}]</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6643,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Higher Education and Scientific Research (Ministère de l'Enseignement Supérieur et de la Recherche Scientifique)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6652,24 +6658,24 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research in Benin is responsible for determining the policies and direction of the higher education system in the country, but there is no evidence that it is explicitly responsible for cybersecurity policy, implementation, technical coordination, or enforcement at the national level (Reference: [3]). The primary responsibility for cybersecurity in Benin lies with the Ministry of Digital Economy and Communication (MND), the Agency for Information and Digital Systems (ASIN), and the National Agency for the Identification of Persons (ANIP), as well as the Personal Data Protection Authority (APDP) (Reference: [4]). The Ministry of Higher Education and Scientific Research does not host a national CERT/CSIRT/CIRT, nor is it mentioned as leading or being a member of a cybersecurity committee, council, or working group. There is no indication that it oversees information security standards, network protection, or participates in cybersecurity events, workshops, or joint initiatives related to national cybersecurity governance (Reference: [4], [5]).</t>
+          <t>The Ministry of Higher Education and Scientific Research in Benin is primarily responsible for the policies and direction of higher education and scientific research (3). There is no direct evidence in the reviewed sources that it has explicit responsibility for national cybersecurity governance, policy, or operational coordination. Benin's national cybersecurity strategy and governance roles are mainly assigned to the Ministry of Digital Economy and Communication and the Agence des Systèmes d'Information et du Numérique (ASIN), which coordinate digital security efforts, develop cybersecurity policies, and implement national strategies (1)(4)(6). While the Ministry of Higher Education may indirectly support cybersecurity through academic programs or research related to cybersecurity topics, this does not equate to a formal mandate or leading role in national cybersecurity policy or implementation. Therefore, its responsibility level for cybersecurity governance and enforcement is assessed as LOW with medium confidence due to the lack of explicit linkage in the sources to cybersecurity authority.</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cnpd.public.lu/en/actualites/national/2025/02/visite-benin-fev2025.html', 'title': 'Cybersecurity experts from Benin visit the CNPD - News', 'snippet': 'The aim is to support the implementation of a programme to strengthen the infrastructure and cybersecurity capabilities of Beninese institutions ...', 'date': '2025-02-12', 'last_updated': '2025-02-16', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bj/?allData=1', 'title': 'NCSI :: Benin - National Cyber Security Index', 'snippet': 'The Information Systems Security Policy of the State of the Republic of Benin requires public sector organizations to assess and manage cyber risks and/or ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-0', 'title': 'Ministry of Higher Education and Scientific Research - CHEA.org', 'snippet': 'The Ministry of Higher Education and Scientific Research is the government ministry that is responsible for determining the policies and direction of the ...', 'date': None, 'last_updated': '2025-08-22', 'matched': True}, {'url': 'https://includeplatform.net/wp-content/uploads/2022/11/Digitalisation-of-public-services-in-Benin-challenges-and-opportunities.pdf', 'title': '[PDF] Digitalisation of public services in Benin: challenges and opportunities', 'snippet': 'cybersecurity ratified by the Republic of Benin. On June 1, 2022 the Council of Ministers has adopted the Decree No. 2022-324 of June 1,. 2022 merging the ...', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.geg.ox.ac.uk/content/marc-andre-loko-benins-digital-strategy-involves-diversified-portfolio-best-class-partners', 'title': "Marc-André Loko: “Benin's digital strategy involves a diversified ...", 'snippet': 'Cybersecurity is the field where there is the most collaboration at regional level and the synergy is particularly strong. In terms of digital infrastructure, ...', 'date': '2023-03-01', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.ijssa.journals.ekb.eg/article_453236.html?lang=en', 'title': 'Proposed management of cybersecurity within the organizational ...', 'snippet': 'Among the most important recommendations is the necessity of establishing a cybersecurity department within the organizational structure of the Ministry of ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.itu.int/epublications/ar/publication/D-STR-GCI.01-2021-HTM-E', 'title': 'Global Cybersecurity Index 2020 - ITU', 'snippet': 'Organizational measures include ensuring that cybersecurity is sustained at the highest level of the executive and assigning relevant roles and responsibilities ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=benin', 'title': 'Benin - Cybil Portal', 'snippet': "The Women in Cyber Mentorship Programme, part of ITU's Cyber Skills Development initiatives, empowers women in cybersecurity through ...", 'date': None, 'last_updated': '2025-03-26', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/the-cybersecurity-strategy-of-benin', 'title': 'The cybersecurity strategy of Benin | Digital Watch Observatory', 'snippet': "Benin's strategy aims to enhance digital security, with a governance framework, risk management, capacity building, and international collaboration.", 'date': '2024-08-25', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://cnpd.public.lu/en/actualites/national/2025/02/visite-benin-fev2025.html', 'title': 'Cybersecurity experts from Benin visit the CNPD - News', 'snippet': 'The aim is to support the implementation of a programme to strengthen the infrastructure and cybersecurity capabilities of Beninese institutions ...', 'date': '2025-02-12', 'last_updated': '2025-02-16', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-0', 'title': 'Ministry of Higher Education and Scientific Research - CHEA.org', 'snippet': 'The Ministry of Higher Education and Scientific Research is responsible for determining the policies and direction of the higher education system in Benin.', 'date': None, 'last_updated': '2025-08-22', 'matched': True}, {'url': 'https://includeplatform.net/wp-content/uploads/2022/11/Digitalisation-of-public-services-in-Benin-challenges-and-opportunities.pdf', 'title': '[PDF] Digitalisation of public services in Benin: challenges and opportunities', 'snippet': 'The study covers reforms, investments, and development indicators, progress of digitalization, and analysis of inclusiveness of digitalized public services in ...', 'date': None, 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.geg.ox.ac.uk/content/marc-andre-loko-benins-digital-strategy-involves-diversified-portfolio-best-class-partners', 'title': "Marc-André Loko: “Benin's digital strategy involves a diversified ...", 'snippet': "Benin's digital strategy focuses on digital service adoption, building on the 2016 plan, and uses a diversified portfolio of partners, including Chinese ...", 'date': '2023-03-01', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bj/', 'title': 'NCSI :: Benin - National Cyber Security Index', 'snippet': 'The Information Systems Security Policy of the State of the Republic of Benin requires public sector organizations to assess and manage cyber risks and/or ...', 'date': '2025-04-15', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=benin', 'title': 'Benin - Cybil Portal', 'snippet': "An overview of Benin's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here. ... of the Ministry in charge of ICT ...", 'date': None, 'last_updated': '2025-03-26', 'matched': True}, {'url': 'https://www.ijssa.journals.ekb.eg/article_453236.html?lang=en', 'title': 'Proposed management of cybersecurity within the organizational ...', 'snippet': 'Among the most important recommendations is the necessity of establishing a cybersecurity department within the organizational structure of the Ministry of ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'NCS: Lessons Learned and Reflections from the Americas and Other Regions. The value of research and the role of academia in NCS development. As specified ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Innovation and Universities (Ministerio de Ciencia, Innovación y Universidades - MICIU) in SPAIN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (Ministério da Ciência, Tecnologia e Inovação - MCTI) in BRAZIL responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6677,29 +6683,27 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ministry of Science, Innovation and Universities (Ministerio de Ciencia, Innovación y Universidades - MICIU) in SPAIN</t>
+          <t>Ministry of Science, Technology and Innovation (Ministério da Ciência, Tecnologia e Inovação - MCTI) in BRAZIL</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ministry of Science, Innovation and Universities (Ministerio de Ciencia, Innovación y Universidades - MICIU)</t>
+          <t>Ministry of Science, Technology and Innovation (Ministério da Ciência, Tecnologia e Inovação - MCTI)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Innovation and Universities (MICIU) in Spain is not explicitly mentioned as a primary entity responsible for cybersecurity policy, implementation, or technical coordination in the main national cybersecurity strategies, laws, or reports. The primary responsibility for cybersecurity in Spain lies with the National Institute of Cybersecurity (INCIBE), which operates under the Ministry of Economic Affairs and Digital Transformation, and the Ministry of Defence, which oversees military and critical infrastructure cybersecurity [1, 2]. The Spanish Data Protection Agency (AEPD) is responsible for data protection enforcement, and the Ministry of the Interior also plays a role in cybersecurity governance [1, 3].
-While MICIU is involved in science, innovation, and higher education, there is no direct evidence that it leads or is a member of a cybersecurity committee, council, or working group, nor does it host a national CERT/CSIRT/CIRT or oversee information security standards or network protection. Its role is more focused on research, innovation, and academic collaboration, which may indirectly support cybersecurity through funding or research initiatives, but it does not have a direct operational or policy responsibility for cybersecurity governance, prevention, planning, response, or enforcement [6].
-Therefore, MICIU's responsibility for cybersecurity in Spain is considered low, as it does not have a central or explicit role in the country's cybersecurity framework.</t>
+          <t>The Ministry of Science, Technology and Innovation (MCTI) in Brazil is explicitly responsible for cybersecurity policy, implementation, and technical coordination. The MCTI is mentioned in national strategies and reports as a key actor in cybersecurity governance. For example, the MCTI, in collaboration with Embrapii, announced the establishment of the Cybersecurity Competence Center, which will receive BRL60 million from the MCTI’s Priority Programme (PPI) IoT/Manufacturing 4.0, indicating direct involvement in funding and implementing cybersecurity initiatives[1][2]. The MCTI is also responsible for the National Strategy of Science, Technology and Innovation, which sets priorities for cybersecurity, including strengthening the digital technology industry and critical cybersecurity for competitive production and national security[4]. Additionally, the MCTI participates in events and press releases related to cybersecurity, such as the announcement of the Cybersecurity Competence Center, attended by the Minister of Science, Technology and Innovation[1][2]. The MCTI’s role in these activities demonstrates its high level of responsibility for cybersecurity in Brazil.</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6709,14 +6713,14 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cyberhubs.eu/wp-content/uploads/2025/02/FINAL-2.3-SPAIN-CybersecuritySkillsStrategies.pdf', 'title': '[PDF] - Cybersecurity skills strategy Spain. - CyberHubs', 'snippet': 'Responsibilities: these private entities offer cybersecurity solutions, conduct threat intelligence, and provide consultancy to various sectors ...', 'date': '2025-02-11', 'last_updated': '2025-02-21', 'matched': True}, {'url': 'https://emad.defensa.gob.es/en/unidades/mcce/', 'title': 'Joint Cyberspace Command (MCCE) - EMAD', 'snippet': 'The Joint Cyberspace Command (MCCE) shall plan, direct, coordinate, control and execute cyberspace operations at its level.', 'date': '2022-01-01', 'last_updated': '2025-08-26', 'matched': True}, {'url': 'https://www.dominios.es/en/informacion-de-interes/noticias/european-nis2-directive-strengthens-cybersecurity-spain-leading', 'title': 'The European NIS2 Directive strengthens cybersecurity in Spain ...', 'snippet': 'The enactment of this law marks a significant step towards building a more secure and resilient digital environment in Spain, enhancing trust in digital ...', 'date': '2025-01-29', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.flexxible.com/en/blog/directiva-nis2-espana', 'title': 'NIS2 Directive Spain: Cybersecurity Requirements 2025 | Flexxible', 'snippet': "One of the first and most important obligations of NIS2 is to carry out periodic risk assessments to identify vulnerabilities in the entities' ...", 'date': '2025-05-14', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.signaturit.com/blog/what-laws-regulate-cybersecurity-in-the-european-union-and-in-spain/', 'title': 'Spain and europe cybersecurity laws - Signaturit', 'snippet': 'Laws and regulations in cyber security respond to threats in Spain and Europe to protect Internet users and companies.', 'date': '2025-10-22', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://oficinac.es/sites/default/files/informes/20221114_Report%20C%20cibersecurity.pdf', 'title': '[PDF] Cybersecurity - Oficina C', 'snippet': 'Protection and Cybersecurity (CNPIC, by its Spanish acronym)38 also has responsibilities in security, including cybersecurity, within the ...', 'date': '2022-11-14', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/ES_NCSS_2019_en.pdf', 'title': '[PDF] National Cybersecurity Strategy 2019 - ENISA - European Union', 'snippet': 'Spain maintains its active role in all institutions where cybersecurity takes centre-stage, particularly within the. European Union, the Atlantic Alliance ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.garrigues.com/en_GB/garrigues-digital/new-developments-cybersecurity-spain-publishes-its-national-cybersecurity-strategy', 'title': 'New developments in cybersecurity: Spain publishes its National ...', 'snippet': 'The need to ensure cybersecurity is giving rise to the approval of measures to promote the prevention of cybercrime in Spain and to ...', 'date': '2019-07-15', 'last_updated': '2025-01-08', 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/emea/spain/topics/key-data-and-cybersecurity-laws', 'title': 'Key Data &amp; Cybersecurity Laws | Spain | Global Data and Cyber ...', 'snippet': 'How are data and cybersecurity laws/regulations implemented? What are the key data privacy laws and regulations?', 'date': '2025-01-26', 'last_updated': '2025-10-08', 'matched': True}]</t>
+          <t>[{'url': 'https://abes.org.br/en/mcti-e-embrapii-anunciam-centro-de-competencia-em-seguranca-cibernetica/', 'title': 'MCTI and Embrapii announce Cybersecurity Competence Center', 'snippet': 'The Competence Center will have accreditation lasting 42 months and will work in four thematic lines of research: Identity and Access Management ...', 'date': '2024-05-27', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/brazil/trends-and-developments', 'title': 'Cybersecurity 2025 - Brazil | Global Practice Guides', 'snippet': "The initiative is expected to bolster Brazil's cybersecurity capabilities, protect critical national infrastructure, and stimulate the national ...", 'date': '2025-03-13', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.gov.br/mcti/pt-br/acompanhe-o-mcti/transformacaodigital/arquivosestrategiadigital/digitalstrategy_2022-2026.pdf', 'title': '[PDF] Brazilian Digital Transformation Strategy (E-Digital) 2022-2026 Cycle', 'snippet': 'Aiming to train public agents in security and cyber risk mitigation, there are some activities, such as the training held by RNP with ...', 'date': '2022-03-14', 'last_updated': '2025-04-05', 'matched': True}, {'url': 'https://ciberseguranca.igarape.org.br/en/national-strategy-of-science-technology-and-innovation-2016-2022/', 'title': 'National Strategy of Science, Technology and Innovation (2016', 'snippet': 'What are the main challenges that Brazil faces to prevent threats in the cybersecurity field, such as cyber attacks? Who are the social actors with a key role ...', 'date': None, 'last_updated': '2024-06-22', 'matched': True}, {'url': 'https://iapp.org/news/a/brazil-set-to-adopt-cybersecurity-legal-framework', 'title': 'Brazil set to adopt Cybersecurity Legal Framework - IAPP', 'snippet': 'The new framework tries to solve this by concentrating powers in the ANC, which will regulate, inspect and audit cybersecurity practices at the ...', 'date': '2025-10-02', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://lefosse.com/en/noticias/regulation-of-data-centers-under-discussion-in-brazil/', 'title': 'Regulation of data centers in Brazil is under discussion', 'snippet': 'The bill outlines several key obligations for AI data centers, such as: Ensuring the physical and cybersecurity of stored and processed data; ...', 'date': '2025-04-28', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://resourcehub.bakermckenzie.com/en/resources/global-data-and-cyber-handbook/latin-america/brazil/topics/key-data-and-cybersecurity-laws', 'title': 'Key Data &amp; Cybersecurity Laws | Brazil | Global Data and Cyber ...', 'snippet': 'Its purpose is to regulate the management of Security Incidents in Computer Networks by the Processing and Response to Security Incidents in Computer Networks ...', 'date': '2022-03-01', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.newmind.ai/Brazil%20Country%20Report%20-%20NewMind%20AI%20Journal%20Report-26.04.2025.pdf', 'title': '[PDF] AI Policy and Regulations of Brazil Comprehensive Report', 'snippet': "On December 26, 2023, Brazil implemented its National Cybersecurity Policy (PNCiber) to guide the country's cybersecurity efforts. The ...", 'date': '2025-04-26', 'last_updated': None, 'matched': True}, {'url': 'https://www.unesco.org/ethics-ai/en/brazil', 'title': 'Brazil | Global AI Ethics and Governance Observatory - UNESCO', 'snippet': 'Brazil ranked 7th out of 75 countries (with 1 being the least cybersecure and 75 the most), with a Cybersecurity Index score of 28 out of 100. There is ...', 'date': '2025-04-29', 'last_updated': '2025-07-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique in GABON responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Culture in FINLAND responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6724,27 +6728,27 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique in GABON</t>
+          <t>Ministry of Education and Culture in FINLAND</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique</t>
+          <t>Ministry of Education and Culture</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>There is no direct evidence or authoritative reference indicating that the Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique in Gabon holds any official responsibility for national cybersecurity governance, prevention, planning, response, or enforcement. Gabon's cybersecurity roles are more typically associated with dedicated national cybersecurity entities such as National Computer Incident Response Teams (CIRTs) or other specialized government bodies, none of which are indicated to be hosted or led by this Ministry. Publicly available assessments and international sources do not list this Ministry as responsible for cybersecurity policy or technical coordination in Gabon[1][7][9].</t>
+          <t>The Ministry of Education and Culture in Finland is explicitly responsible for cybersecurity in the context of education, training, and research. The Ministry is tasked with strengthening cybersecurity education at all levels, from basic education to higher education, and is responsible for the implementation of measures to develop cybersecurity expertise and work-life skills in the public and private sectors, as well as for citizens and civil society (Measure 1.1, Implementation plan for Finland's Cyber Security Strategy 2024-2035 [4]). The Ministry is also responsible for the development and coordination of cybersecurity education networks, including the allocation of significant funding to universities for this purpose (Ministry of Science and Culture, 2023 [1]). The Ministry of Education and Culture is responsible for the national core curriculum, which includes cybersecurity as a key component, and for the advancement of multiliteracies and basic skills in information and cybersecurity (Finnish National Agency for Education, 2021 [5]; CYBERWISER.eu, 2023 [7]). The Ministry's responsibilities are further confirmed in Finland's Cyber Security Strategy 2024–2035, which states that overall cybersecurity competence is ensured by strengthening the role of cybersecurity in education, training, and research (ENISA, 2024 [8]).</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6754,14 +6758,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Pages/national-CIRT.aspx', 'title': 'National CIRT - ITU', 'snippet': 'ITU is helping countries to establish National Computer Incident Response Teams (CIRT), which serve as a national focus point for coordinating cybersecurity ...', 'date': '2025-11-12', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.shadowserver.org/news/in-the-service-of-national-certs-revisited/', 'title': "In the Service of National CERT's (revisited)", 'snippet': 'As of the end of Q1 2019, we now have 103 National CERTs/CSIRTs covering 124 countries (some National CERTs/CSIRTs have responsibilities for ...', 'date': '2019-04-02', 'last_updated': '2024-12-16', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2023/08/National_CERT-CSIRT_Mandate_and_Organisation_final_.pdf', 'title': '[PDF] National CERT/CSIRT – Mandate and Organisation | CCDCOE', 'snippet': 'The final section of the report seeks to formulate recommendations for better crisis management and cyber security that might stem from the parallel existence ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.shadowserver.org/news/celebrating-milestones-european-cert-csirt-report-coverage/', 'title': 'Celebrating Milestones (European CERT/CSIRT Report Coverage)', 'snippet': 'This long anticipated event takes us to 107 National CERTs/CSIRTs in 136 countries now receiving our free daily network reports.', 'date': '2020-02-23', 'last_updated': '2024-10-24', 'matched': True}, {'url': 'https://www.first.org/members/teams/', 'title': 'This is a list of the contact information for incident response teams ...', 'snippet': 'This is a list of the contact information for incident response teams participating in FIRST, the Forum of Incident Response and Security Teams.', 'date': '2025-10-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://online.norwich.edu/online/programs-courses/programs/certificate-computer-forensic-investigationincident-response-team-management', 'title': 'Certificate in Computer Forensic Investigation/Incident Response ...', 'snippet': 'Key topics include. CSIRT establishment; Response to computer emergencies; CSIRT security; Professional management; Triage Prioritization; Personnel well-being ...', 'date': '2024-02-01', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://cybilportal.org/projects/gabon-national-cirt-assessment/', 'title': 'Gabon National CIRT Assessment - Cybil Portal', 'snippet': "Study and analyse the country's current cybersecurity status and needs. Information will be gathered by the ITU Global Cybersecurity Index, as well as public ...", 'date': None, 'last_updated': '2025-08-15', 'matched': True}, {'url': 'https://www.africacert.org/home/wp-content/uploads/2022/10/Press-release-2nd-Africa-CYBER-DRILL-Stay-on-Alert.pdf', 'title': '[PDF] MEDIA RELEASE - AfricaCERT', 'snippet': 'The Africa Computer Emergency Response Team (AfricaCERT) has completed its Annual. Cyber Drill to test the capability of Computer Security ...', 'date': '2022-09-09', 'last_updated': None, 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3897090/International-Telecommunication-Union-Global.pdf', 'title': '[PDF] Global Cybersecurity Index (GCI) 2017 - National Security Archive', 'snippet': 'Gabon. Gambia. Grenada. Guatemala. Guinea. Guinea-Bissau. Guyana. Haiti. Honduras ... 7.2.1 National CERT/CIRT/CSIRT. Egypt provides computer emergency response ...', 'date': None, 'last_updated': '2024-01-24', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Creating%20a%20CIRT.pdf', 'title': '[PDF] CIRT Creation Stages - ITU', 'snippet': "1. X-CIRT's mission is to improve the nation's cybersecurity posture, coordinate cyber information sharing, and proactively manage cyber risks to the nation ...", 'date': None, 'last_updated': '2024-09-08', 'matched': True}]</t>
+          <t>[{'url': 'https://okm.fi/en/-/higher-education-institutions-to-cooperate-to-develop-cyber-security-education-information-psychology-research-also-to-be-boosted', 'title': 'Higher education institutions to cooperate to develop cyber security ...', 'snippet': 'Higher education institutions to cooperate to develop cyber security education – information psychology research also to be boosted. Ministry of ...', 'date': '2022-12-21', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/finland/~technology', 'title': 'Finland | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Culture is responsible for the entire spectrum of education, from ECCE to tertiary level, legislation and policy.', 'date': '2024-12-31', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://vm.fi/en/information-security-and-cybersecurity', 'title': 'Information security and cybersecurity - Valtiovarainministeriö', 'snippet': 'The Ministry of Finance is responsible for guiding and directing the provision of shared government ICT services and the quality of these services.', 'date': '2015-11-09', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/action-plans/FI_ACTION_PLAN_2024_en.pdf', 'title': "[PDF] Implementation plan for Finland's Cyber Security Strategy 2024-2035", 'snippet': 'Responsibility for coor- dinating the monitoring is vested in the Office of the National Cyber Security Director, for which each ministry provides an ...', 'date': None, 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://papers.academic-conferences.org/index.php/iccws/article/download/984/956/3412', 'title': '[PDF] Cyber Security Training in Finnish Basic and General Upper ...', 'snippet': 'Cybersecurity awareness training is important because it teaches pupils how they can protect themselves from cyber-attacks (MTC, 2021). The study of.', 'date': None, 'last_updated': '2024-10-11', 'matched': True}, {'url': 'https://um.fi/cyber-security-and-the-cyber-domain', 'title': 'Cyber security and the cyber domain - Ministry for Foreign Affairs', 'snippet': "The aim of Finland's national cyber security strategy is to respond to cyber threats, strengthen the overall security of society and ensure the smooth ...", 'date': '2015-07-03', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://cyberwiser.eu/finland-fi', 'title': 'Finland (FI) - CYBERWISER.eu', 'snippet': 'Finland prioritises the development of cyber competences of citizens, the business community and the public sector in the area of secure digitisation. Training ...', 'date': '2021-01-01', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/FI_NCSS_2024_en.pdf', 'title': "[PDF] Finland's Cyber Security Strategy 2024–2035 - ENISA", 'snippet': 'Overall cybersecurity competence is ensured in Finland by strengthening the role of cybersecurity extensively in education, training and ...', 'date': '2024-10-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://valtioneuvosto.fi/en/-/1410829/provisions-to-complement-cybersecurity-act-to-enter-into-force-in-the-beginning-of-july', 'title': 'Provisions to complement Cybersecurity Act to enter into force in the ...', 'snippet': 'The act lays down provisions on the identification of critical entities and on the obligations imposed on them in the CER Directive. Critical ...', 'date': '2025-06-27', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://tem.fi/en/-/10623/ministerial-working-group-takes-responsibility-for-cybersecurity-and-the-preparedness-of-public-administration', 'title': 'Ministerial working group takes responsibility for cybersecurity and ...', 'snippet': 'The ministerial working group makes policy decisions on measures to secure the functioning of society and the digital operating environment in ...', 'date': '2022-03-10', 'last_updated': '2025-09-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (Ministério da Ciência, Tecnologia e Inovação - MCTI) in BRAZIL responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Science of the Republic of Latvia in LATVIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6769,27 +6773,27 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation (Ministério da Ciência, Tecnologia e Inovação - MCTI) in BRAZIL</t>
+          <t>Ministry of Education and Science of the Republic of Latvia in LATVIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation (Ministério da Ciência, Tecnologia e Inovação - MCTI)</t>
+          <t>Ministry of Education and Science of the Republic of Latvia</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology and Innovation (MCTI) in Brazil is explicitly responsible for cybersecurity policy, research, and technical coordination. The MCTI, together with the Ministry of Defense, established the Program for Research, Development and Innovation in Cyber Defense, which aims to promote and carry out R,D&amp;I in cyber defense technologies for the Federal Public Administration and the national industry, contribute to innovation in the national industry in information systems security and cyber defense, and support the planning and implementation of solutions for the protection of Brazilian cyberspace[1]. The MCTI also hosts and leads the Cybersecurity Competence Center, which is funded by the MCTI and focuses on research in identity and access management, data protection and privacy, intelligence for cyber threats, and legal, ethical, and behavioral aspects[2][3]. The MCTI is involved in the formulation of government policies in the areas of Information Systems Security and Cyber Defense, and it is a key player in the Brazilian Digital Transformation Strategy (E-Digital), which emphasizes strengthening the country's cybersecurity, cooperation among governmental entities, and the protection of critical infrastructure[4]. The MCTI is also mentioned in the National Strategy of Science, Technology and Innovation as a key actor in strengthening the cybersecurity industry and the Cyber Defense National Center (CDCiber)[5]. These roles and responsibilities clearly indicate that the MCTI is a central organization in Brazil's cybersecurity governance, prevention, planning, and response.</t>
+          <t>The Ministry of Defence of Latvia is explicitly responsible for the formulation and delivery of national cybersecurity policy and operational activities through the National Cybersecurity Center and collaboration with CERT.LV, independent of the Ministry of Education and Science. The Ministry of Education and Science is involved in cybersecurity primarily in the context of education, training, awareness-raising, and promoting knowledge about cybersecurity, as indicated by its role in promoting understanding of cyberspace security and supporting distance learning, but it is not responsible for cybersecurity governance, technical coordination, policy implementation, or enforcement. The cybersecurity governance model in Latvia is collaborative but the Ministry of Education and Science does not host national CERT/CSIRT, does not lead or is member of cybersecurity committees with enforcement or policy roles, nor oversee information security standards or critical ICT infrastructure. These functions rest mainly with the Ministry of Defence, Constitution Protection Bureau, and specialized bodies like CERT.LV and MilCERT.</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6799,14 +6803,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>[{'url': 'https://abes.org.br/en/mcti-e-ministerio-da-defesa-criam-programa-de-defesa-cibernetica/', 'title': 'MCTI and Ministry of Defense create cyber defense program - ABES', 'snippet': '“I – promote and carry out Research, Development and Innovation (R,D&amp;I) in cyber defense technologies for the Federal Public Administration and ...', 'date': '2015-01-12', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://abes.org.br/en/mcti-e-embrapii-anunciam-centro-de-competencia-em-seguranca-cibernetica/', 'title': 'MCTI and Embrapii announce Cybersecurity Competence Center', 'snippet': 'The Competence Center will have accreditation lasting 42 months and will work in four thematic lines of research: Identity and Access Management ...', 'date': '2024-05-27', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/brazil/trends-and-developments', 'title': 'Cybersecurity 2025 - Brazil | Global Practice Guides', 'snippet': "The initiative is expected to bolster Brazil's cybersecurity capabilities, protect critical national infrastructure, and stimulate the national ...", 'date': '2025-03-13', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.gov.br/mcti/pt-br/acompanhe-o-mcti/transformacaodigital/arquivosestrategiadigital/digitalstrategy_2022-2026.pdf', 'title': '[PDF] Brazilian Digital Transformation Strategy (E-Digital) 2022-2026 Cycle', 'snippet': 'Aiming to train public agents in security and cyber risk mitigation, there are some activities, such as the training held by RNP with ...', 'date': '2022-03-14', 'last_updated': '2025-04-05', 'matched': True}, {'url': 'https://ciberseguranca.igarape.org.br/en/national-strategy-of-science-technology-and-innovation-2016-2022/', 'title': 'National Strategy of Science, Technology and Innovation (2016', 'snippet': 'What are the main challenges that Brazil faces to prevent threats in the cybersecurity field, such as cyber attacks? Who are the social actors with a key role ...', 'date': None, 'last_updated': '2024-06-22', 'matched': True}, {'url': 'https://lefosse.com/en/noticias/regulation-of-data-centers-under-discussion-in-brazil/', 'title': 'Regulation of data centers in Brazil is under discussion', 'snippet': 'The bill outlines several key obligations for AI data centers, such as: Ensuring the physical and cybersecurity of stored and processed data; ...', 'date': '2025-04-28', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://www.newmind.ai/Brazil%20Country%20Report%20-%20NewMind%20AI%20Journal%20Report-26.04.2025.pdf', 'title': '[PDF] AI Policy and Regulations of Brazil Comprehensive Report', 'snippet': "On December 26, 2023, Brazil implemented its National Cybersecurity Policy (PNCiber) to guide the country's cybersecurity efforts. The ...", 'date': '2025-04-26', 'last_updated': None, 'matched': True}, {'url': 'https://www.unesco.org/ethics-ai/en/brazil', 'title': 'Brazil | Global AI Ethics and Governance Observatory - UNESCO', 'snippet': 'Brazil ranked 7th out of 75 countries (with 1 being the least cybersecure and 75 the most), with a Cybersecurity Index score of 28 out of 100. There is ...', 'date': '2025-04-29', 'last_updated': '2025-07-29', 'matched': True}]</t>
+          <t>[{'url': 'https://www.mod.gov.lv/en/cybersecurity', 'title': 'Cybersecurity - Aizsardzības ministrija', 'snippet': 'Mitigation and reduction of cyber threats and risks in Latvia depends on shared understanding and well-coordinated cybersecurity policy supported by all ...', 'date': '2025-10-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://cert.lv/uploads/par-mums/RFC_2350_CERT-LV_21072025.pdf', 'title': '[PDF] CERT.LV Description 1. About this document 2. Contact Information', 'snippet': 'CERT.LV is mandated by the National Cybersecurity Law to represent Latvia in the NIS CSIRTs Network3. CERT.LV is actively taking part in TF- ...', 'date': '2025-07-21', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://eng.lsm.lv/article/society/defense/06.09.2024-national-cybersecurity-center-is-up-and-running.a567810/', 'title': 'National Cybersecurity Center is up and running', 'snippet': 'Its aim is to strengthen cybersecurity in Latvia and to implement the requirements of the revised Directive on measures for a high common level of cybersecurity ...', 'date': '2024-09-06', 'last_updated': '2024-09-25', 'matched': True}, {'url': 'https://cyberwiser.eu/latvia-lv', 'title': 'Latvia (LV) - CYBERWISER.eu', 'snippet': 'The Latvian Computer Emergency Response Team - CERT.LV is responsible for monitoring and analysing developments in cyberspace, reacting to incidents and ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/inspiration/good-practices/latvian-cybersecurity-competence-community', 'title': 'Latvian Cybersecurity Competence Community', 'snippet': 'The overarching goal of the ECCC is to promote research, innovation and deployment of forward-looking solutions in the area of cybersecurity and ...', 'date': '2023-10-30', 'last_updated': '2025-04-10', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/latest/news/first-academic-book-cybersecurity-latvia', 'title': 'The first academic book on cybersecurity in Latvia', 'snippet': "It analyses Latvia's cybersecurity ecosystem, its processes, challenges and future perspectives, applying both exact and social science methods.", 'date': '2025-08-22', 'last_updated': '2025-08-24', 'matched': True}, {'url': 'https://www.mod.gov.lv/sites/mod/files/document/Kiberdrosibas%20strategija%202023%20ENG.pdf', 'title': '[PDF] THE CYBERSECURITY STRATEGY OF LATVIA', 'snippet': "The Information Centre of the Ministry of the Interior (IC) ensures the operation of information systems' ICT infrastructure for law enforcement agencies.", 'date': None, 'last_updated': '2024-12-12', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/latvia/~technology', 'title': 'Latvia | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Science (MoES) established webinars and guidelines to support teachers and students in distance learning. The ...', 'date': '2025-01-14', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'http://afyonluoglu.org/PublicWebFiles/strategies/Europe/Latvia%202014-2018%20Cyber%20Security%20Strategy-EN.pdf', 'title': '[PDF] CYBER SECURITY STRATEGY OF LATVIA', 'snippet': '7. Ministry of Education and Science (MoES) – pro- motes knowledge and understanding of cyber space and its secure use. 8.', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Environment (CITMA) in CUBA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation (Ministerio de Ciencia, Tecnología e Innovación Productiva, MINCYT) in ARGENTINA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6814,17 +6818,17 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Environment (CITMA) in CUBA</t>
+          <t>Ministry of Science, Technology and Innovation (Ministerio de Ciencia, Tecnología e Innovación Productiva, MINCYT) in ARGENTINA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Environment (CITMA)</t>
+          <t>Ministry of Science, Technology and Innovation (Ministerio de Ciencia, Tecnología e Innovación Productiva, MINCYT)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6834,7 +6838,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>There is no direct evidence from the available information indicating that the Ministry of Science, Technology and Environment (CITMA) in Cuba holds primary responsibility for cybersecurity. Cybersecurity development efforts and cooperation are associated with ministries such as the Ministry of Communications and the Ministry of the Interior—including the General Directorate of Counterintelligence and the Ministry of Public Security. CITMA is involved in scientific and technological areas but is not explicitly mentioned in national cybersecurity strategies, hosting national CERTs, or leading cybersecurity coordination. Some cybersecurity-related projects and monitoring solutions are described as Cuban-developed, but no direct link to CITMA's governance role is documented. The Ministry of Communications, for instance, is actively engaged in digital connectivity expansion, mobile networks, and digital services development. Bilateral cybersecurity cooperation agreements have been signed involving the Ministry of the Interior and Public Security. This strongly suggests CITMA plays a minor or indirect role in cybersecurity governance compared to these other ministries[1][2][3][4][5].</t>
+          <t>The Ministry of Science, Technology and Innovation of Argentina (MINCYT) is not explicitly mentioned in national cybersecurity strategies, laws, or official government resolutions as being responsible for cybersecurity policy, implementation, or technical coordination. The national cybersecurity governance, as referenced in the Second National Cybersecurity Strategy approved by the Cabinet and related documents, assigns coordination and leadership around cybersecurity primarily to bodies created by the Chief of Cabinet of Ministers and the Secretariat of Public Innovation, rather than the MINCYT. Additionally, cybersecurity agencies have been linked more closely to the Ministry of Security, the State Intelligence Service, and the Cabinet Offices. There is no evidence that MINCYT hosts a national CERT/CSIRT or leads a cybersecurity committee or council, nor that it oversees information security standards or participates prominently in cybersecurity events or international partnerships in this capacity, despite its role in science and technology. Therefore, the Ministry likely has only a support or indirect role related to technology innovation but not primary responsibility for cybersecurity governance or enforcement in Argentina[1][3][4][6].</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6844,14 +6848,14 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.plenglish.com/news/2025/03/05/prime-minister-calls-to-develop-ai-and-cybersecurity-in-cuba/', 'title': 'Prime minister calls to develop AI and cybersecurity in Cuba', 'snippet': 'Prime minister calls to develop AI and cybersecurity in Cuba ... technology sector, as well as increasing mobile phone coverage in 4G.', 'date': '2025-03-05', 'last_updated': '2025-03-06', 'matched': True}, {'url': 'https://www.citmavcl.gob.cu/en/cybersecurity-and-solutions-with-a-cuban-touch/', 'title': 'Cybersecurity and Solutions with a Cuban Touch', 'snippet': 'Territorial Delegation of Science Technology and Environment · Center for Environmental Studies and Services · Base Business Unit (Servicitma) ...', 'date': '2025-04-02', 'last_updated': '2025-04-15', 'matched': True}, {'url': 'https://vietnamnews.vn/politics-laws/1723403/viet-nam-cuba-enhance-cybersecurity-cooperation.html', 'title': 'Việt Nam, Cuba enhance cybersecurity cooperation - Vietnam News', 'snippet': 'Quang said he had instructed relevant MPS units to implement agreements reached between the two sides, focusing on personnel training for the ...', 'date': '2025-08-15', 'last_updated': '2025-08-29', 'matched': True}, {'url': 'http://cubasi.cu/en/news/cuba-moves-forward-cybersecurity-strengthening', 'title': 'Cuba moves forward in cybersecurity strengthening', 'snippet': 'Cuba guarantees, through legislation and measures, the security of institutions and people in the digital environment, the general director ...', 'date': '2024-02-02', 'last_updated': '2024-11-23', 'matched': True}, {'url': 'https://misiones.cubaminrex.cu/en/articulo/first-deputy-minister-communications-cro-ernesto-rodriguez-hernandez-speaks-item-4', 'title': 'The First Deputy Minister of Communications, Cro. Ernesto ...', 'snippet': 'For Cuba, international cooperation is critical in adopting new technologies, given the constraints imposed primarily by the U.S. blockade. It ...', 'date': '2025-04-08', 'last_updated': None, 'matched': True}, {'url': 'https://bwcimplementation.org/states/cuba', 'title': 'Cuba | Biological Weapons Convention National Implementation ...', 'snippet': 'Cuba implements prohibitions under the Biological Weapons Conventions through a number of key measures.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://irannewsdaily.com/2025/04/cuba-expresses-interest-in-learning-from-irans-experience-in-smart-govt-cybersecurity/', 'title': "Cuba Expresses Interest in Learning from Iran's Experience in Smart ...", 'snippet': "Sadr also announced Iran's readiness to hold training courses and mentioned the signing of a bilateral agreement in the field of cybersecurity.", 'date': '2025-04-12', 'last_updated': '2025-04-12', 'matched': True}, {'url': 'https://english.mic.gov.vn/vietnam-organizes-cyber-security-training-for-cuba-197139354.htm', 'title': 'Vietnam organizes cyber security training for Cuba - English', 'snippet': 'Vietnam instructors have provided lectures and instructions on malware prevention, web attack, guidance on building a national network security ...', 'date': '2019-07-18', 'last_updated': '2024-12-01', 'matched': True}, {'url': 'https://freedomhouse.org/country/cuba/freedom-net/2022', 'title': 'Cuba: Freedom on the Net 2022 Country Report', 'snippet': 'Cuba has one of the lowest connectivity rates in the Western Hemisphere, regular internet access remains extremely expensive, and connections are poor.', 'date': '2020-02-01', 'last_updated': '2025-10-28', 'matched': True}]</t>
+          <t>[{'url': 'https://www.globalcompliancenews.com/2023/10/03/https-insightplus-bakermckenzie-com-bm-data-technology-argentina-second-national-cybersecurity-strategy_09282023/', 'title': 'Argentina: Second National Cybersecurity Strategy', 'snippet': 'In addition, the Cabinet created the Unit, which will be responsible for the preparation, promotion, and monitoring of the Strategy Action Plan.', 'date': '2023-10-03', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.derechosdigitales.org/wp-content/uploads/DD_CYRILLA_ENG_2024pdf.pdf', 'title': '[PDF] National Strategies in 2024 | Derechos Digitales', 'snippet': 'Argentina has made significant progress in its approach to cybersecurity with the implementation of the Second National Cybersecurity Strategy, ...', 'date': '2024-09-29', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.ibanet.org/document?id=Metaverse-project-Argentina', 'title': '[PDF] ARGENTINA', 'snippet': 'This Second National Cybersecurity Strategy lays down the guiding principles and develops the central objectives that will allow the setting of national ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.cybersecureip.aspi.org.au/country/argentina', 'title': 'Argentina - ASPI Economic Cyberespionage', 'snippet': 'Additionally, the Ministry of Security established specialised agencies such as the Cybercrime Investigations Directorate and the High-Tech Cybercrime ...', 'date': '2025-01-01', 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://2017-2021.state.gov/joint-statement-on-u-s-argentina-partnership-on-cyber-policy/', 'title': 'Joint Statement on U.S.-Argentina Partnership on Cyber Policy', 'snippet': 'The United States and Argentina intend to increase our cooperation in the areas of: cybersecurity, cyber defense, international security in cyberspace, and law ...', 'date': '2017-04-27', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ar/', 'title': 'NCSI :: Argentina - National Cyber Security Index', 'snippet': 'PEACE AND SECURITY IN CYBERSPACE: Actions aimed at providing cybersecurity to the State and society as a whole must contemplate the principle of maintaining ...', 'date': '2024-01-16', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/argentina-cybersecurity-solutions', 'title': 'Argentina: Cybersecurity Solutions - International Trade Administration', 'snippet': 'The top cyber-related challenges in Argentina are phishing, ransomware, malware or espionage, and security risks resulting from the use of ...', 'date': '2022-09-13', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://iclg.com/practice-areas/cybersecurity-laws-and-regulations/argentina', 'title': 'Cybersecurity Laws and Regulations Argentina 2025 - ICLG.com', 'snippet': 'Argentinian regulations stipulate that Public Agencies must develop appropriate strategies to monitor, prevent, or mitigate incidents, in ...', 'date': '2024-11-06', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.gtai.de/resource/blob/947072/1add25ec1ad2b2e345fcec22dcf8b110/PRO20220425832678.pdf', 'title': '[PDF] argentina cybersecurity for critical information infrastructure program', 'snippet': 'Specifically, the SIP is responsible for cybersecurity and protecting CII and communications associated with the national public sector and information and ...', 'date': '2023-01-20', 'last_updated': '2025-10-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Agriculture, Fisheries and Environment in PALAU responsible for cybersecurity?
+          <t xml:space="preserve">Is the National Secretariat of Science, Technology, and Innovation (SENACIT) in HONDURAS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6859,27 +6863,27 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ministry of Agriculture, Fisheries and Environment in PALAU</t>
+          <t>National Secretariat of Science, Technology, and Innovation (SENACIT) in HONDURAS</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ministry of Agriculture, Fisheries and Environment</t>
+          <t>National Secretariat of Science, Technology, and Innovation (SENACIT)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>The Ministry of Agriculture, Fisheries and Environment in Palau focuses primarily on sustainable food production, natural resource management, and food security (source [5]). There is no explicit mention in available national strategies, laws, reports, or partnership descriptions of this ministry handling cybersecurity policy, implementation, technical coordination, or hosting cybersecurity response teams. Cybersecurity activities and responsibilities, including maintaining cyber defense, addressing cybercrime, and developing national cybersecurity strategies, are discussed at the national level and involve other government entities or international partnerships, but these do not include this Ministry (sources [1][2]). The Ministry's mandates focus on agriculture, fisheries, marine sanctuary enforcement, and environmental stewardship, without involvement in cybersecurity governance or response (sources [3][4][5]). Additionally, there is an Information Systems Support Services agency mentioned separately that appears responsible for central computer systems support (source [6]), further indicating cybersecurity is outside the Ministry's scope. Therefore, the Ministry of Agriculture, Fisheries and Environment is not responsible for cybersecurity in Palau.</t>
+          <t>SENACIT in Honduras primarily focuses on promoting education, research, technological development, and innovation in science and technology areas, including programs in applied research and digital skills training for national development and defense. There is no explicit evidence in available national strategies, laws, or public records that SENACIT is directly responsible for cybersecurity policy, implementation, technical coordination, or hosting a national CERT/CSIRT. Cybersecurity responsibilities in Honduras are more closely linked to government entities such as the Honduran National Telecommunications Commission (CONATEL), which regulates telecommunications and is involved in digital connectivity and cybersecurity solutions for infrastructure, and a Cyber Incident Response Team (CIRT) that handles cyber incidents. SENACIT supports scientific and technological advancement that may indirectly benefit cybersecurity capacity but does not lead or coordinate cybersecurity governance or enforcement itself[1][3][7].</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6889,14 +6893,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>[{'url': 'https://pitiviti.org/storage/dm/2022/08/rop-2022-national-security-strategy-20220813191012624.pdf', 'title': '[PDF] NATIONAL SECURITY STRATEGY of the Republic of Palau - PITI-VITI', 'snippet': 'We will ensure a safe and secure EEZ for our fishing, aquaculture and tourist industries, Palauan recreational activities, and international shipping.', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://netmission.asia/2025/04/03/an-insight-into-palaus-navigation-of-emerging-technologies-geopolitics-and-climate-action-aishik-saha/', 'title': "An Insight into Palau's Navigation of Emerging Technologies ...", 'snippet': 'This chapter explores how Palau is addressing these challenges, leveraging global partnerships, and shaping policies to secure its digital future.', 'date': '2025-04-03', 'last_updated': '2025-04-04', 'matched': True}, {'url': 'https://cordc.ucsd.edu/about/docs/palau_mcs.pdf', 'title': '[PDF] MONITORING, CONTROL, AND SURVEILLANCE - CORDC', 'snippet': 'The Ministry has the duties, functions, and authority to: (a) adopt regulations for the conservation, management, and exploitation of all living resources in ...', 'date': None, 'last_updated': '2023-12-04', 'matched': True}, {'url': 'https://tunapacific.ffa.int/2021/05/17/palau-creates-new-ministry-that-includes-fisheries-development-in-its-focus/', 'title': 'Palau creates new ministry that includes fisheries development in its ...', 'snippet': 'The administration of Palau has created a new ministry and, for the first time, the name fisheries is included, shifting policy focus to the economic value of ...', 'date': '2021-05-17', 'last_updated': '2025-02-12', 'matched': True}, {'url': 'https://www.palaugov.pw/executive-branch/ministries/agriculture-fisheries-and-environment/', 'title': 'Ministry of Agriculture, Fisheries, and the Environment - PalauGov.pw', 'snippet': 'The Ministry of Agriculture, Fisheries and the Environment has an important task of putting Palau on a path of becoming a food secure nation.', 'date': '2022-03-01', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://www.palaugov.pw/executive-branch/ministries/finance/information-systems-support-services/', 'title': 'Information Systems Support Services - PalauGov.pw', 'snippet': 'Roles &amp; Responsibilities. Information System Support Services mission is to develop, administer and maintain the central computer system of the Republic to ...', 'date': '2018-12-01', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://www.cbd.int/doc/world/pw/pw-nbsap-v2-en.pdf', 'title': '[PDF] CBD Strategy and Action Plan - Palau (English version)', 'snippet': 'The Office of Environmental Response and Coordination (OERC) is currently the agency responsible for coordinating and overseeing implementation of the NBSAP. It ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}, {'url': 'https://library.sprep.org/sites/default/files/2023-09/Palau-NEMS-2022-2030.pdf', 'title': '[PDF] National Environmental Management Strategy 2022-2030', 'snippet': 'The Palau National Environmental Management Strategy (2022-2030) was developed through the contributions of many people and organisations, listed below.', 'date': None, 'last_updated': '2025-10-13', 'matched': True}]</t>
+          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/honduras-information-communication-technologies-ict', 'title': 'Honduras - Information &amp; Communication Technologies (ICT)', 'snippet': 'It seeks to promote inclusion and social advancement through Information and Communication Technologies (ICT), with the aim of closing the digital divide.', 'date': '2024-01-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://kealtd.com/wp-content/uploads/2020/10/USTDA-Cybersecurity-Workshop-program-information.pdf', 'title': '[PDF] TIME (CST) SEGMENT PRESENTER 9:00:00 AM Introduction', 'snippet': '• Identifying potential cybersecurity vulnerabilities. • Implementing an ISMS. • Implementing a SIEM for security team log correlation. • Implementing controls ...', 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://latinarepublic.com/2024/02/14/honduras-achievements-in-science-senacit-2023/', 'title': 'Honduras | Achievements in Science (SENACIT) 2023', 'snippet': 'Through joint training programs, the aim is to enhance the preparation of professionals in strategic areas for national security and defense.', 'date': '2024-02-14', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://ijictm.org/pdf/folder-1/2018-01-11-09-40-01.pdf', 'title': '[PDF] Enhance Honduras Development with Technology Transfer of High ...', 'snippet': 'We conclude that social and technological changes must go hand-in-hand to achieve comprehensive development. The role of the central government in Honduras is ...', 'date': None, 'last_updated': '2025-05-15', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099135003042216854/pdf/P1749140834e850f0bb030fec5cfdcf329.pdf', 'title': '[PDF] Central America Digital Economy Analytical Support', 'snippet': 'Other cybersecurity challenges identified relate to the decentralized and disorganized structure of cybersecurity roles and responsibilities in Central America:.', 'date': None, 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Honduras.pdf', 'title': '[PDF] Honduras | GHS Index', 'snippet': 'This document is a compilation of all questions, justifications, and sources used to determine the 2021 Global Health Security Index scores for Honduras. For a ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-honduras/', 'title': 'Cyber Security in Honduras - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'Honduras has a team that deals with cyber incidents, known as a CIRT. This team works to handle cyber attacks and help organisations recover.', 'date': '2024-10-07', 'last_updated': '2024-12-08', 'matched': True}, {'url': 'https://www.oas.org/citelevents/es/Events/EToolDocDownloadFile/42647', 'title': '[DOC] https://www.oas.org/citelevents/es/Events/EToolDoc...', 'snippet': 'The establishment of educational platforms where digital literacy courses are taught along with courses on cybersecurity, early childhood and technologies, ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.ifc.org/content/dam/ifc/doc/mgrt/digital-entrepreneurship-and-innovation-in-central-america.pdf', 'title': '[PDF] Digital Entrepreneurship and Innovation in Central America', 'snippet': 'The digital ecosystem is vital in Central America, with e-commerce, fintech, and robotics as transformative. However, firms face challenges in technology ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://latinvex.com/latin-americas-role-in-de-risking-semiconductor-supply-chains/', 'title': "Latin America's Role in De-Risking Semiconductor Supply Chains", 'snippet': 'Semiconductor supply chain advantages and challenges of Costa Rica, Panama, the Dominican Republic, Guatemala, and Paraguay.', 'date': '2025-08-27', 'last_updated': '2025-10-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministerio de Educación Superior, Ciencia y Tecnología (MESCYT) in DOMINICAN REPUBLIC responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology in MYANMAR responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6904,17 +6908,17 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ministerio de Educación Superior, Ciencia y Tecnología (MESCYT) in DOMINICAN REPUBLIC</t>
+          <t>Ministry of Science and Technology in MYANMAR</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Ministerio de Educación Superior, Ciencia y Tecnología (MESCYT)</t>
+          <t>Ministry of Science and Technology</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6924,7 +6928,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>The Ministerio de Educación Superior, Ciencia y Tecnología (MESCYT) in the Dominican Republic plays a significant role in science, technology, and higher education policy, including supporting research centers and fostering innovation related to digital technologies and AI development. However, the primary responsibility for national cybersecurity policy and implementation lies with the National Cybersecurity Center (CNCS), which operates under the Executive Power and the Ministry of the Presidency. The CNCS leads the National Cybersecurity Strategy 2030 and hosts the national CSIRT (CSIRT-RD). Cybercrime is handled by the Prosecutor’s Office and National Police, and cyber defense by the Ministry of Defense and intelligence agencies. MESCYT contributes indirectly by promoting scientific research and technological development, but is not explicitly mentioned as responsible for cybersecurity governance, prevention, planning, response, or enforcement in national cybersecurity strategies or legal decrees[1][2][4][7][10].</t>
+          <t>Based on the available information, the Ministry of Science and Technology is not explicitly mentioned as the primary body responsible for cybersecurity policy, implementation, or technical coordination in Myanmar. The Cybersecurity Law No. 1/2025 and related documents indicate that the Ministry of Transport and Communications is the designated ministry for overseeing cybersecurity services, digital platform providers, and the implementation of the Cybersecurity Law [1, 2, 5]. The Cybersecurity Central Committee, which formulates policies and strategies for cybersecurity, is chaired by the Vice President and includes the Union Minister of Transport and Communications as Vice Chairman, along with other key ministries such as Defence, Home Affairs, and Foreign Affairs, but does not list the Ministry of Science and Technology as a member [3]. There is no evidence that the Ministry of Science and Technology hosts a national CERT/CSIRT/CIRT or leads or is a member of a cybersecurity committee, council, or working group. The ministry may have a tangential or indirect role in supporting technological development, but it is not the lead or a core member for cybersecurity governance, prevention, planning, response, or enforcement in Myanmar [1, 2, 3, 5].</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6934,14 +6938,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/dominican-republics-national-cybersecurity-strategy-2030', 'title': "Dominican Republic's national cybersecurity strategy 2030", 'snippet': 'By integrating cybersecurity into national policies, the strategy ensures protection against cyber threats while fostering economic growth, social cohesion, and ...', 'date': '2025-02-21', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://cncs.gob.do/sobre-nosotros/rfc-2350-en/', 'title': 'RFC-2350 - Centro Nacional de Ciberseguridad (CNCS)', 'snippet': "CSIRT-RD is the Dominican government's center of expertise in cyber security and incident response. Aimed at preventing ICT and internet-related incidents. It ...", 'date': '2024-12-30', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.unodc.org/documents/Cybercrime/AdHocCommittee/First_session/Comments/Dom.Rep._scope_objective_and_structure_October_2021_ENG.pdf', 'title': '[PDF] comments of the dominican republic on the scope, objectives', 'snippet': 'The Dominican Republic is of the opinion that the central purpose of a new international instrument on cybercrime is to have an effective tool for the ...', 'date': None, 'last_updated': '2025-04-06', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/do/', 'title': 'NCSI :: Dominican Republic - National Cyber Security Index', 'snippet': '... cybersecurity responsibilities. Ideally, such exercises also involve private sector actors such as CII operators. • Evidence: An official document or ...', 'date': '2024-10-15', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://unicaribe.edu.do/wp-content/uploads/2024/10/Masters-Degree-in-Cybersecurity.pdf', 'title': '[PDF] CYBERSECURITY - UNICARIBE', 'snippet': 'Manages the development of I T security plans, considering risks and contingencies, promoting compliance with policies, standards and service level agreements.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.intec.edu.do/en/oferta-academica/grado/ingenieria/item/ingenieria-en-ciberseguridad', 'title': 'Cybersecurity Engineering - Instituto Tecnológico de Santo Domingo', 'snippet': 'INTEC is the pioneer in the teaching of Cybersecurity in graduate and postgraduate levels in the Dominican Republic. Integrate information technologies into ...', 'date': '2025-01-24', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://council.science/wp-content/uploads/2025/02/AI-Paper-Case-Study-Dominican-Republic_V2.pdf', 'title': '[PDF] DOMINICAN REPUBLIC - International Science Council', 'snippet': 'Furthermore, the Ministry of Higher Education, Science and Technology plays a pivotal role. – establishing research centres, developing new ...', 'date': '2025-02-13', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://unicaribe.edu.do/wp-content/uploads/2024/11/Bachelors-Degree-in-Cybersecurity.pdf', 'title': '[PDF] Cybersecurity - UNICARIBE', 'snippet': 'Santo Domingo, Dominican Republic (809) 616-1616| www.unicaribe.edu.do. Cybersecurity Engineering provides students with the possibility of acquiring special ...', 'date': None, 'last_updated': '2025-08-25', 'matched': True}, {'url': 'https://www.intec.edu.do/en/oferta-academica/postgrado/ingenieria/item/maestria-en-ciberseguridad-mcs', 'title': 'Master in Cybersecurity - Instituto Tecnológico de Santo Domingo', 'snippet': "The objective of the Master's Degree in Cybersecurity is to develop advanced skills, abilities and knowledge to efficiently and effectively design, build, ...", 'date': None, 'last_updated': '2024-05-29', 'matched': True}, {'url': 'https://itif.org/publications/2024/01/29/dr-semiconductor-readiness/', 'title': "Assessing the Dominican Republic's Readiness to Play a Greater ...", 'snippet': "The Dominican Republic's Ministry of Higher Education, Science, and Technology (MESCyT) plays an important role as the government institution ...", 'date': '2024-01-29', 'last_updated': '2025-11-15', 'matched': True}]</t>
+          <t>[{'url': 'https://www.tilleke.com/insights/myanmar-cybersecurity-law-takes-effect/41/', 'title': 'Myanmar Cybersecurity Law Takes Effect - Tilleke &amp; Gibbins', 'snippet': 'The ministry designated by the government is authorized to investigate and take control of cybersecurity services and digital platform ...', 'date': '2025-08-01', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://connectontech.bakermckenzie.com/myanmar-cybersecurity-law-enacted-on-1-january-2025/', 'title': 'Myanmar: Cybersecurity Law enacted on 1 January 2025', 'snippet': 'Key responsibilities of cybersecurity service providers. Cybersecurity service providers have the following key responsibilities: Legal ...', 'date': '2025-03-28', 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://www.lincolnmyanmar.com/wp-content/uploads/2025/11/Formation-of-the-Cybersecurity-Central-Committee-AI-translation.pdf', 'title': '[PDF] AI-generated translation - lincoln legal services (myanmar) limited', 'snippet': 'To formulate policies, strategies, or work plans related to cybersecurity for the development of a secure and reliable national cyberspace. 2. To guide, ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/mm/', 'title': 'NCSI :: Myanmar - National Cyber Security Index', 'snippet': 'PREVENTIVE CYBERSECURITY INDICATORS · 7.1. Cyber threat analysis 0. 0. 3. Requirements. Criteria · 7.2. Public cyber threat reports 0. 0. 3. Requirements.', 'date': '2023-11-29', 'last_updated': '2024-10-23', 'matched': True}, {'url': 'https://www.jdsupra.com/legalnews/myanmar-s-cybersecurity-law-comes-into-5165777/', 'title': "Myanmar's Cybersecurity Law Comes into Effect: Key implications ...", 'snippet': "Following its enactment earlier this year, Myanmar's Cybersecurity Law No. 1/2025 (the “Cybersecurity Law”) came into effect on 30 July 2025 ...", 'date': '2025-08-07', 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.myanmar-responsiblebusiness.org/news/draft-cybersecurity-law.html', 'title': 'Update on Draft Cybersecurity Law and its Impacts on Digital Rights ...', 'snippet': 'Since 2014, MCRB has advocated for Myanmar to develop a cybersecurity legal and policy framework which includes safeguards consistent with ...', 'date': '2022-02-15', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.mondaq.com/security/1661506/myanmar-cybersecurity-law-takes-effect', 'title': 'Myanmar Cybersecurity Law Takes Effect - Security - Mondaq', 'snippet': 'The law, which was enacted on January 1, 2025, aims to regulate various aspects of digital security and online activities.', 'date': '2025-08-05', 'last_updated': None, 'matched': True}, {'url': 'https://www.gnlm.com.mm/combat-cyber-crimes-under-the-cyber-security-law/', 'title': 'Combat cyber crimes under the Cyber Security Law', 'snippet': 'The law comprehensively addresses critical issues concerning cybersecurity threats, attacks, and misuse. It details key information, outlines ...', 'date': '2025-08-17', 'last_updated': None, 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-myanmar-mmr-government-the-complete-guide-to-using-ai-in-the-government-industry-in-myanmar-in-2025', 'title': 'The Complete Guide to Using AI in the Government Industry in ...', 'snippet': 'AI matters for the Myanmar government in 2025 because it can cut chronic wait times, strengthen fraud detection, and modernize service delivery ...', 'date': '2025-09-12', 'last_updated': '2025-11-07', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the King Abdulaziz City for Science and Technology (KACST) in SAUDI ARABIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministerio de Educación Superior, Ciencia y Tecnología (MESCyT) in DOMINICAN REPUBLIC responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6949,17 +6953,17 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>King Abdulaziz City for Science and Technology (KACST) in SAUDI ARABIA</t>
+          <t>Ministerio de Educación Superior, Ciencia y Tecnología (MESCyT) in DOMINICAN REPUBLIC</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>King Abdulaziz City for Science and Technology (KACST)</t>
+          <t>Ministerio de Educación Superior, Ciencia y Tecnología (MESCyT)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6969,7 +6973,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>King Abdulaziz City for Science and Technology (KACST) is a prominent scientific research institution in Saudi Arabia and has historically played a role in technology development and research, including some cybersecurity-related research and projects. However, the primary responsibility for national cybersecurity policy, implementation, technical coordination, and oversight in Saudi Arabia lies with the National Cybersecurity Authority (NCA), which was established in 2017 by royal decree and is directly linked to the King[2]. The NCA is the national authority in charge of cybersecurity, sets policies and standards, hosts the national CERT/CSIRT, and is the main reference for all cybersecurity affairs in the Kingdom[1][2][3]. KACST is not mentioned as the lead agency for cybersecurity policy or as the host of the national CERT/CSIRT, nor is it described as leading or being a member of the main cybersecurity committees or councils in recent national strategies or reports. While KACST may contribute to cybersecurity through research and development, its role is supportive rather than primary or authoritative in the national cybersecurity governance structure[2].</t>
+          <t>The Ministerio de Educación Superior, Ciencia y Tecnología (MESCyT) primarily oversees higher education, science, and technology in the Dominican Republic, including aspects such as academic program accreditation and facilitating development in scientific and technological fields[5][6][9]. While MESCyT plays a pivotal role in fostering AI research infrastructure and promotes scientific collaboration relevant to digital and technological advancement[6], it is not explicitly responsible for national cybersecurity governance, policy, or operational functions. The National Cybersecurity Strategy 2030 and its implementation are overseen primarily by the National Cybersecurity Center (CNCS), which operates under the Ministry of the Presidency, not MESCyT[1][2]. CNCS houses the national CSIRT (CSIRT-RD), which is charged with cybersecurity incident response and policy formulation[2]. Cybercrime and cyber defense efforts fall under the Prosecutor’s Office, National Police, and Ministry of Defense respectively[1]. MESCyT does not host national CERT/CSIRT nor lead cybersecurity committees or technical coordination efforts. Its role is more supportive and academic, for example, accrediting cybersecurity-related educational programs and certifications[5]. Therefore, MESCyT’s responsibility in national cybersecurity governance and operational cybersecurity activities is limited and indirect, primarily through education and scientific promotion, but it is not a lead agency for cybersecurity strategy or enforcement in the Dominican Republic.</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6979,14 +6983,14 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>[{'url': 'https://tf-csirt.org/trusted-introducer/directory/teams/national-cybersecurity-authority-sa/', 'title': 'National Cybersecurity Authority (SA) - Trusted Introducer', 'snippet': 'The National Cybersecurity Authority (NCA) was established in 2017 by The Royal Order that links it directly to His Majesty, King Salman bin Abdulaziz Al ...', 'date': '2025-08-14', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/National_Cybersecurity_Authority_(Saudi_Arabia)', 'title': 'National Cybersecurity Authority (Saudi Arabia) - Wikipedia', 'snippet': "The Saudi National Cybersecurity Authority is a government security entity in Saudi Arabia which focuses primarily on the country's computer security.", 'date': '2018-10-10', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://nca.gov.sa/en/', 'title': 'National Cybersecurity Authority | NCA', 'snippet': 'The National Cybersecurity Authority (NCA) is the national authority in charge of cybersecurity in the Kingdom, and the national reference ...', 'date': '2025-11-12', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.manageengine.com/products/eventlog/compliance/nca-compliance.html', 'title': 'National cybersecurity authority compliance - ManageEngine', 'snippet': 'The NCA of Saudi Arabia sets essential cybersecurity policies, standards, and guidelines to safeguard critical systems and infrastructures.', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.tripwire.com/resources/datasheets/tripwire-enterprise/nca-compliance', 'title': 'The National Cybersecurity Authority (NCA) Compliance - Tripwire', 'snippet': 'The National Cybersecurity Authority (NCA) is the government entity in charge of cybersecurity in Saudi Arabia, encompassing both regulatory and operational ...', 'date': '2022-09-01', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.first.org/members/teams/national_cybersecurity_authority-nca', 'title': 'National Cybersecurity Authority (NCA) - FIRST.org', 'snippet': 'National Cybersecurity Authority (NCA). Member since, December 23, 2019. Host organization, Saudi National Cybersecurity Agency (NCA). Country of team, Saudi ...', 'date': '2006-01-01', 'last_updated': '2025-10-28', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/dominican-republics-national-cybersecurity-strategy-2030', 'title': "Dominican Republic's national cybersecurity strategy 2030", 'snippet': 'By integrating cybersecurity into national policies, the strategy ensures protection against cyber threats while fostering economic growth, social cohesion, and ...', 'date': '2025-02-21', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://cncs.gob.do/sobre-nosotros/rfc-2350-en/', 'title': 'RFC-2350 - Centro Nacional de Ciberseguridad (CNCS)', 'snippet': "CSIRT-RD is the Dominican government's center of expertise in cyber security and incident response. Aimed at preventing ICT and internet-related incidents. It ...", 'date': '2024-12-30', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/do/', 'title': 'NCSI :: Dominican Republic - National Cyber Security Index', 'snippet': 'National Cyber Incident Response Team of the Dominican Republic (CSIRT-RD) ... cybersecurity responsibilities. Ideally, such exercises also involve private ...', 'date': '2024-10-15', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://unicaribe.edu.do/wp-content/uploads/2024/10/Masters-Degree-in-Cybersecurity.pdf', 'title': '[PDF] CYBERSECURITY - UNICARIBE', 'snippet': 'Manages the development of I T security plans, considering risks and contingencies, promoting compliance with policies, standards and service level agreements.', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.intec.edu.do/en/oferta-academica/postgrado/ingenieria/item/maestria-en-ciberseguridad-mcs', 'title': 'Master in Cybersecurity - Instituto Tecnológico de Santo Domingo', 'snippet': "The objective of the Master's Degree in Cybersecurity is to develop advanced skills, abilities and knowledge to efficiently and effectively design, build, ...", 'date': '2025-01-24', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://council.science/wp-content/uploads/2025/02/AI-Paper-Case-Study-Dominican-Republic_V2.pdf', 'title': '[PDF] DOMINICAN REPUBLIC - International Science Council', 'snippet': "The Dominican Republic's ENIA aims to create AI infrastructure, promote business growth, and build a regional supercomputer center and data hub.", 'date': '2025-02-13', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.intec.edu.do/en/oferta-academica/grado/ingenieria/item/ingenieria-en-ciberseguridad', 'title': 'Cybersecurity Engineering - Instituto Tecnológico de Santo Domingo', 'snippet': 'The program focuses on solving computer security problems, preventing risks, and is a pioneer in the Dominican Republic, with equipped labs and specialized ...', 'date': '2025-01-24', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://unicaribe.edu.do/wp-content/uploads/2024/11/Bachelors-Degree-in-Cybersecurity.pdf', 'title': '[PDF] Cybersecurity - UNICARIBE', 'snippet': 'Santo Domingo, Dominican Republic (809) 616-1616| www.unicaribe.edu.do. Cybersecurity Engineering provides students with the possibility of acquiring special ...', 'date': None, 'last_updated': '2025-08-25', 'matched': True}, {'url': 'https://itif.org/publications/2024/01/29/dr-semiconductor-readiness/', 'title': "Assessing the Dominican Republic's Readiness to Play a Greater ...", 'snippet': "The Dominican Republic's Ministry of Higher Education, Science, and Technology (MESCyT) plays an important role as the government institution ...", 'date': '2024-01-29', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Scientific Research and Innovation in BURKINA FASO responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique in GABON responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -6994,17 +6998,17 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Innovation in BURKINA FASO</t>
+          <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique in GABON</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Scientific Research and Innovation</t>
+          <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7014,24 +7018,24 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Scientific Research and Innovation in Burkina Faso is responsible for determining the policies and direction of the education system, including higher education, scientific research, and innovation [5]. However, there is no evidence in the provided sources that this ministry is explicitly mentioned as being responsible for national cybersecurity policy, implementation, technical coordination, or hosting a national CERT/CSIRT/CIRT. The primary responsibility for cybersecurity in Burkina Faso appears to rest with the National Agency for Information Systems Security (ANSSI), which is under the technical supervision of the Ministry of Digital Transition, Posts, and Electronic Communications [1]. The Ministry of Higher Education, Scientific Research and Innovation may participate in or support cybersecurity initiatives within the education sector, such as collaborating on cybersecurity projects or integrating cybersecurity into academic programs, but it does not have a leading or overarching role in national cybersecurity governance, prevention, planning, response, or enforcement [2][5].</t>
+          <t>The Ministère de l'Enseignement Supérieur et de la Recherche Scientifique et de l’Innovation Technologique in Gabon is not explicitly mentioned as the primary authority responsible for national cybersecurity policy, implementation, or technical coordination. There is no evidence that this ministry hosts or leads Gabon's national CERT/CSIRT/CIRT. The Gabon National CIRT Assessment by ITU (Cybil Portal) focuses on the country's overall cybersecurity status and needs, but does not attribute the hosting or leadership of the national CIRT to this ministry [7]. Instead, Gabon's national cybersecurity efforts are more likely coordinated by other entities, such as the Ministry of Digital Economy or the National Agency for Information and Communication Technologies (ANTIC), which are typically responsible for such matters in African countries. The ministry may participate in broader digital innovation and research initiatives, but there is no direct evidence of its leading role in cybersecurity governance, prevention, planning, response, or enforcement [7].</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>ConfidenceLevel.HIGH</t>
+          <t>ConfidenceLevel.MEDIUM</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ecofinagency.com/telecom/2811-45087-burkina-faso-advances-cybersecurity-with-new-information-system-security-law', 'title': 'Burkina Faso advances cybersecurity with new information system ...', 'snippet': 'The move is aimed at establishing a solid legal and regulatory framework that can effectively safeguard information systems, thereby mitigating ...', 'date': '2023-11-28', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.uni.lu/en/news/university-and-ministry-launch-cybersecurity-project-in-west-africa/', 'title': 'University and Ministry Launch Cybersecurity Project in West Africa', 'snippet': 'Three universities in Burkina Faso and Senegal will soon boast newly minted cybersecurity study programmes thanks to a project initiated by ...', 'date': '2020-10-30', 'last_updated': '2024-09-29', 'matched': True}, {'url': 'https://www.cohnreznick.com/insights/higher-ed-cmmc-cybersecurity-compliance-obligations', 'title': 'Higher Ed: Your CMMC Cybersecurity Compliance Obligations', 'snippet': 'Any institution engaged in research for the DoD or a contractor must address their compliance obligations under new CMMC regulation.', 'date': '2024-12-17', 'last_updated': '2025-08-19', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-scientific-research-and-innovation', 'title': 'Ministry of Higher Education, Scientific Research and Innovation', 'snippet': 'The Ministry of Higher Education, Scientific Research and Innovation of Burkina Faso is the government ministry that is responsible for determining the ...', 'date': None, 'last_updated': '2025-08-18', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/799551626430884544/pdf/Feasibility-Study-to-Connect-All-African-Higher-Education-Institutions-to-High-Speed-Internet-Burkina-Faso-Country-Case-Study-Report-Annex-1.pdf', 'title': '[PDF] Feasibility Study to Connect All African Higher Education Institutions ...', 'snippet': 'Government of Burkina Faso, through the Ministry in charge of Higher Education, wants to acquire nearly 50,000 computers for students. The contribution of ...', 'date': None, 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://extensia.tech/digital-transformation-burkina-faso-intensifies-international-cooperation/', 'title': 'Digital transformation: Burkina Faso intensifies international ...', 'snippet': 'The government aims to position the country as an African leader in the integration of information and communication technologies in key sectors ...', 'date': '2025-05-12', 'last_updated': '2025-08-13', 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'example of collaboration and shared responsibility between civil society and the Government, which was identified as a good practice under international ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}]</t>
+          <t>[{'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Pages/national-CIRT.aspx', 'title': 'National CIRT - ITU', 'snippet': 'ITU is helping countries to establish National Computer Incident Response Teams (CIRT), which serve as a national focus point for coordinating cybersecurity ...', 'date': '2025-11-12', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.shadowserver.org/news/in-the-service-of-national-certs-revisited/', 'title': "In the Service of National CERT's (revisited)", 'snippet': 'As of the end of Q1 2019, we now have 103 National CERTs/CSIRTs covering 124 countries (some National CERTs/CSIRTs have responsibilities for ...', 'date': '2019-04-02', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2023/08/National_CERT-CSIRT_Mandate_and_Organisation_final_.pdf', 'title': '[PDF] National CERT/CSIRT – Mandate and Organisation | CCDCOE', 'snippet': 'The final section of the report seeks to formulate recommendations for better crisis management and cyber security that might stem from the parallel existence ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.shadowserver.org/news/celebrating-milestones-european-cert-csirt-report-coverage/', 'title': 'Celebrating Milestones (European CERT/CSIRT Report Coverage)', 'snippet': 'This long anticipated event takes us to 107 National CERTs/CSIRTs in 136 countries now receiving our free daily network reports.', 'date': '2020-02-23', 'last_updated': '2024-10-24', 'matched': True}, {'url': 'https://www.first.org/members/teams/', 'title': 'This is a list of the contact information for incident response teams ...', 'snippet': 'This is a list of the contact information for incident response teams participating in FIRST, the Forum of Incident Response and Security Teams.', 'date': '2025-10-13', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://online.norwich.edu/online/programs-courses/programs/certificate-computer-forensic-investigationincident-response-team-management', 'title': 'Certificate in Computer Forensic Investigation/Incident Response ...', 'snippet': 'This certificate provides understanding of digital incident investigation, including CSIRT management, and covers topics like response to emergencies and ...', 'date': '2024-02-01', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://cybilportal.org/projects/gabon-national-cirt-assessment/', 'title': 'Gabon National CIRT Assessment - Cybil Portal', 'snippet': "Study and analyse the country's current cybersecurity status and needs. Information will be gathered by the ITU Global Cybersecurity Index, as well as public ...", 'date': None, 'last_updated': '2025-08-15', 'matched': True}, {'url': 'https://www.africacert.org/home/wp-content/uploads/2022/10/Press-release-2nd-Africa-CYBER-DRILL-Stay-on-Alert.pdf', 'title': '[PDF] MEDIA RELEASE - AfricaCERT', 'snippet': 'The Africa Computer Emergency Response Team (AfricaCERT) has completed its Annual. Cyber Drill to test the capability of Computer Security ...', 'date': '2022-09-09', 'last_updated': None, 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3897090/International-Telecommunication-Union-Global.pdf', 'title': '[PDF] Global Cybersecurity Index (GCI) 2017 - National Security Archive', 'snippet': 'Gabon. Gambia. Grenada. Guatemala. Guinea. Guinea-Bissau. Guyana. Haiti. Honduras ... 7.2.1 National CERT/CIRT/CSIRT. Egypt provides computer emergency response ...', 'date': None, 'last_updated': '2024-01-24', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/Creating%20a%20CIRT.pdf', 'title': '[PDF] CIRT Creation Stages - ITU', 'snippet': 'There is no standard way to create a CIRT. Key steps include discussions, defining mechanisms, mission, vision, and defining the constituency.', 'date': None, 'last_updated': '2024-09-08', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Development, Industry and Trade in NICARAGUA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Information, Communications, Science, Technology and Innovation (MICSTI) in LESOTHO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7039,27 +7043,27 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ministry of Development, Industry and Trade in NICARAGUA</t>
+          <t>Ministry of Information, Communications, Science, Technology and Innovation (MICSTI) in LESOTHO</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Ministry of Development, Industry and Trade</t>
+          <t>Ministry of Information, Communications, Science, Technology and Innovation (MICSTI)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>The Ministry of Development, Industry and Trade in Nicaragua primarily leads government efforts related to trade standards and technical regulations under CAFTA-DR guidance, including standardization, metrology, and quality control. However, the Ministry is not explicitly mentioned as responsible for cybersecurity policy, implementation, or technical coordination in the national cybersecurity strategy or related governance structures. The National Cybersecurity Strategy (2020–2025) implementation is coordinated mainly by the Ministry of Foreign Affairs and TELCOR. Cybersecurity incident response and governance involve other entities such as a national CERT and an Interinstitutional Cybersecurity Committee, but these do not include the Ministry of Development, Industry and Trade as lead or principal member. Therefore, while the Ministry may be indirectly involved in setting technical standards, it does not have a central role or direct responsibility for cybersecurity governance in Nicaragua as per available official documents and reports[1][2][4].</t>
+          <t>The Ministry of Information, Communications, Science, Technology and Innovation (MICSTI) in Lesotho is explicitly identified as responsible for cybersecurity functions in multiple official documents. According to Lesotho's National Digital Transformation Strategy (2025), MICSTI houses the Cybersecurity Function/Team tasked with safeguarding the country's digital infrastructure, data assets, and critical information systems, and drives the development and implementation of the National Cybersecurity Strategy alongside overseeing coordination of cybersecurity initiatives. MICSTI also hosts the national Computer Security Incident Response Team (CSIRT) function, led by a Chief Information Security Officer appointed under a governmental memorandum, highlighting its central role in technical coordination and policy formulation. Furthermore, MICSTI's minister officiated a dedicated high-level cybersecurity meeting focusing on advancing cybersecurity legislation, such as the Cybersecurity Bill before Parliament, reflecting leadership in policy and enforcement engagement. Cybersecurity capacity reviews and policy development initiatives repeatedly indicate MICSTI as the pivotal agency for cybersecurity research, innovation, strategy formulation, and intersectoral coordination in Lesotho. These multiple roles clearly demonstrate a high level of responsibility for cybersecurity governance, policy, implementation, and cooperation both nationally and internationally within MICSTI.[1][2][3][4][5]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7069,14 +7073,14 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-of-nicaragua-2020-2025', 'title': 'The national cybersecurity strategy of Nicaragua 2020–2025', 'snippet': 'The general objective is to guarantee the sovereign, safe, and reliable use of cyberspace to support peace, stability, security, and sustainable development.', 'date': '2025-09-12', 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://trade.ec.europa.eu/access-to-markets/en/country-assets/euca_05_Cybersecurity%20sector%20in%20Central%20America.pdf', 'title': '[PDF] Cybersecurity sector in Central America', 'snippet': 'Nicaragua approved a national cybersecurity strategy in 20204, which contains within its axes, among others, the creation of a cybersecurity incident response ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://ipi.media/nicaraguas-proposed-cyber-security-laws-threaten-press-freedom/', 'title': "Nicaragua's proposed 'cyber security' laws threaten press freedom", 'snippet': "The following day, Ortega approved the 'National Cybersecurity Strategy', which “guarantees the sovereign, secure, and trustworthy use of the ...", 'date': '2020-11-09', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/nicaragua-standards-trade', 'title': 'Nicaragua - Standards for Trade - International Trade Administration', 'snippet': 'The Ministry of Development, Industry, and Trade leads government efforts to develop standards under the CAFTA-DR guidance. It is primarily a ...', 'date': '2024-02-29', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://ustr.gov/sites/default/files/files/Press/Releases/2025/Nicaragua%20Section%20301%20Report.pdf', 'title': "[PDF] section 301 investigation report on nicaragua's acts, policies, and ...", 'snippet': '... AND THE RULE OF LAW. October 20, 2025. OFFICE of the U.S. TRADE REPRESENTATIVE. Page 2. Table of Contents. EXECUTIVE SUMMARY.', 'date': '2025-10-20', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.state.gov/wp-content/uploads/2025/09/638719_2025-Nicaragua-Investment-Climate-Statement.pdf', 'title': '[PDF] 2025 Nicaragua Investment Climate Statement', 'snippet': 'The new FDI law introduced a mandatory registration mechanism for all foreign direct investment, administered through the Ministry of Development, Industry, and ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://freedomhouse.org/country/nicaragua/freedom-net/2023', 'title': 'Nicaragua: Freedom on the Net 2023 Country Report', 'snippet': 'Independent media outlets in Nicaragua have been subjected to cyberattacks since the 2018 protests.182 Independent outlets remain at risk from distributed ...', 'date': '2023-03-10', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://ni.usembassy.gov/business/', 'title': 'Business - Learn about bilateral investment and trade', 'snippet': 'We will help you navigate the trade environment to grow your business in Nicaragua. The regional Foreign Agricultural Service office in San Jose, Costa Rica is ...', 'date': '2025-03-06', 'last_updated': '2025-05-21', 'matched': True}]</t>
+          <t>[{'url': 'https://www.policyvault.africa/wp-content/uploads/2025/09/LSO60.pdf', 'title': "[PDF] Lesotho's National Digital Transformation Strategy: Agenda 2030", 'snippet': "To safeguard Lesotho's digital infrastructure, data assets, and critical information systems from cyber threats and attacks, the Cybersecurity Function/Team is ...", 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://wwwhtbprolgovhtbprolls-s.evpn.library.nenu.edu.cn/development/minister-officiates-cyber-security-meeting/', 'title': 'MINISTER OFFICIATES CYBER SECURITY MEETING', 'snippet': 'The Minister of Information, Communications, Science, Technology and Innovation (MICSTI), Ms. Nthati Moorosi officiated a one-day high- level meeting on ...', 'date': '2025-01-15', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://cybilportal.org/wp-content/uploads/2023/05/Lesotho-CMM-Report-2022-vFinal_31032023.pdf', 'title': '[PDF] CYBERSECURITY CAPACITY REVIEW - Cybil Portal', 'snippet': 'R3.19. MICSTI should take responsibility for cybersecurity research and innovation in. Lesotho and ensure that cybersecurity research and innovation is.', 'date': None, 'last_updated': '2024-11-13', 'matched': True}, {'url': 'https://www.nrdcompanies.com/insights/shaping-lesothos-digital-future/', 'title': 'Lesotho Digital Transformation: Policy Development with MICSTI', 'snippet': 'The policy guiding principles include the “Once-Only” principle, datadriven decision-making, and strengthening cybersecurity measures. The objectives ...', 'date': '2025-07-07', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.policyvault.africa/wp-content/uploads/2025/09/LSO61.pdf', 'title': '[PDF] NATIONAL DIGITAL POLICY 2024 - PolicyVault.Africa', 'snippet': '(j) Foster international cooperation on cybersecurity issues between Lesotho and its peers. 6. Implementation Plan. This plan outlines the key phases and ...', 'date': None, 'last_updated': '2025-10-02', 'matched': True}, {'url': 'https://www.coursehero.com/file/p67f7oo5/Detailed-Roles-and-Responsibilities-Annexure-1-A-comprehensive-Roles-and/', 'title': 'Detailed Roles and Responsibilities Annexure 1 A comprehensive ...', 'snippet': '(i)Undertake research on matters relating to cybersecurity and foster working relationships with local research institutions on cyber-related ...', 'date': '2025-05-21', 'last_updated': None, 'matched': True}, {'url': 'https://zenodo.org/records/2643673/files/10010176.pdf', 'title': '[PDF] Cybersecurity Protection Structures: The Case of Lesotho - Zenodo', 'snippet': 'cybersecurity in Lesotho [19]. The center is the central hub and contact ... in their responsibilities regarding cyber use. Internet Service. Providers ...', 'date': '2019-03-21', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education, Science and Sport of the Republic of Lithuania in LITHUANIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science, Technology and Productive Innovation in COMOROS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7084,27 +7088,27 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Sport of the Republic of Lithuania in LITHUANIA</t>
+          <t>Ministry of Science, Technology and Productive Innovation in COMOROS</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Ministry of Education, Science and Sport of the Republic of Lithuania</t>
+          <t>Ministry of Science, Technology and Productive Innovation</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>The Ministry of Education, Science and Sport in Lithuania primarily handles technology integration and digital safety education policies, including digital content and digital communication in education, and promotes awareness on internet safety for children through initiatives like the Safer Internet Centre (SIC) Lithuania, which is a collaborative effort involving the Ministry and other organizations to protect children online[2]. However, it is not explicitly responsible for national cybersecurity policy, implementation, or technical coordination. The national cybersecurity governance and operational responsibilities lie with the Ministry of National Defence and its National Cyber Security Centre (NCSC), which is explicitly charged in law with cybersecurity policy development, coordination, crisis management, and technical cybersecurity implementation in Lithuania[1][3][6]. Therefore, the Ministry of Education’s role in cybersecurity is largely limited to educational and awareness aspects rather than governance or operational cybersecurity functions.</t>
+          <t>Available evidence indicates that in Comoros, cybersecurity responsibilities are explicitly designated to other bodies rather than the Ministry of Science, Technology and Productive Innovation (MINCYT). According to Article 6 of Law 21-012/AU on cybersecurity and the fight against cybercrime, the designated competent authority in cybersecurity matters is the National Agency for Digital Development (ANADEN) through its cybersecurity department[1]. Moreover, references highlight the existence of laws specifically addressing cybersecurity and cybercrime, but do not mention the Ministry of Science, Technology and Productive Innovation as responsible for cybersecurity policy or coordination[4]. The Ministry of Science, Technology and Productive Innovation is primarily tasked with promoting science, technology, and innovation for economic and social development, with no documented mandate related to cybersecurity governance, national CERT hosting, or cybersecurity coordination in Comoros[5]. Therefore, there is no indication that this Ministry leads or participates in cybersecurity strategy, implementation, or enforcement activities in Comoros.</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7114,14 +7118,14 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>[{'url': 'https://data.kurklt.lt/wp-content/uploads/2023/04/Annex.pdf', 'title': '[PDF] Explanatory document for Ministry of National Defence of Lithuania ...', 'snippet': 'The Cyber Security Council is a permanent collegial independent advisory body which analyses the situation of cyber security assurance in the Republic of ...', 'date': None, 'last_updated': '2025-09-20', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/lithuania/~technology', 'title': 'Lithuania | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science, and Sport is the main institution in charge of technology in education. It sets the national policies and ...', 'date': '2025-01-17', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://ndupress.ndu.edu/Media/News/News-Article-View/Article/3323902/lithuanias-total-defense-review/', 'title': "Lithuania's Total Defense Review - NDU Press", 'snippet': "This article describes the development of Lithuania's total defense policy, which focuses on a whole-of-government and whole-of-society approach.", 'date': '2023-03-10', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://cyberhubs.eu/resource/cybersecurity-skills-strategy-lithuania/', 'title': 'Cybersecurity Skills Strategy: Lithuania - CyberHubs', 'snippet': 'The Cybersecurity Skills Strategy conducted by CyberHub Lithuania aims to develop a highly skilled and adaptable cybersecurity workforce.', 'date': '2025-02-11', 'last_updated': '2025-02-22', 'matched': True}, {'url': 'https://commission.europa.eu/system/files/2022-05/countersigned_lt_oa.pdf', 'title': '[PDF] These operational arrangements enter into force on the signature ...', 'snippet': 'The. Coordinator is responsible at national level for coordinating and monitoring the effective implementation of the measures envisaged and the achievement of ...', 'date': None, 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/Lithuania_Cyber-Security-Strategy-2018_English.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY STRATEGY - CCDCOE', 'snippet': 'The main purpose of the Strategy is to provide the Lithuanian people with the opportunity to explore the potential of information and communications technology ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.skvc.lt/uploads/documents/files/EN%20versija/Descriptors%202022/Computing.pdf', 'title': '[PDF] MINISTER OF EDUCATION, SCIENCE AND SPORT OF THE ...', 'snippet': 'The tasks of self-study assignments have to comply with the learning outcomes of the study programme, to motivate and teach the students to plan and distribute ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/km/', 'title': 'NCSI :: Comoros - National Cyber Security Index', 'snippet': 'What is measured: The indicator measures government engagement in cybersecurity research and development, demonstrated through formal recognition and/or ...', 'date': '2025-02-14', 'last_updated': '2025-02-28', 'matched': True}, {'url': 'https://dig.watch/countries/comoros', 'title': 'Comoros | Digital Watch Observatory', 'snippet': "Comoros has adopted the 'Comores Numérique 2028' strategy—first drafted in 2018 and adopted in 2019—to develop national digital infrastructure, public.", 'date': '2025-07-05', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.uneca.org/stories/comoros-embraces-digital-innovation-to-boost-food-security-and-agricultural-development', 'title': 'Comoros Embraces Digital Innovation to Boost Food Security and ...', 'snippet': 'The workshop served as a platform for sharing best practices in digitalizing food production, processing, and trade. Government officials, ...', 'date': '2025-10-08', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://internews.org/wp-content/uploads/2023/11/ARISA-IEA-CHAPTER-5-Comoros.pdf', 'title': '[PDF] CHAPTER 5: COMOROS - Page 1', 'snippet': '• Develop research, training and technological innovations.5. According to the Law on Electronic Communications, ANRTIC is “legally distinct and functionally ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.g77.org/costis/documents/COSTIS_Final_Print.pdf', 'title': '[PDF] DIRECTORY OF INSTITUTIONS FOR SCIENCE, TECHNOLOGY ...', 'snippet': 'The Ministry of Science, Technology and Productive Innovation (MINCYT) was created with the aim of incorporating science and technology for the economic and ...', 'date': None, 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://www.un.org/technologybank/ar/node/1191', 'title': 'Science, technology and innovation LDC issues - the United Nations', 'snippet': 'Science, technology and innovation are indispensable ingredients in the development process and essential for catching up with more developed economies. However ...', 'date': None, 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://cybilportal.org/projects/comoros-national-cirt-assessment/', 'title': 'Comoros National CIRT Assessment - Cybil Portal', 'snippet': 'This 10-week online advanced course in Cybersecurity covers technological and geopolitical risks, policy challenges, actors, and initiatives related to ...', 'date': None, 'last_updated': '2024-10-25', 'matched': True}, {'url': 'https://futures.issafrica.org/geographic/countries/comoros/', 'title': 'Comoros - ISS African Futures', 'snippet': "This page asseses Comoros' current and projected future development, examining various sectoral scenarios and their potential impacts on the country's growth.", 'date': '2025-08-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.oecd.org/en/publications/2025/10/oecd-science-technology-and-innovation-outlook-2025_bae3698d/full-report/reconfiguring-scientific-co-operation-in-a-changing-geopolitical-environment_73f32116.html', 'title': 'OECD Science, Technology and Innovation Outlook 2025', 'snippet': 'The STI Outlook 2025 explores how science, technology and innovation can be mobilised to support transformative change in the economy and ...', 'date': '2025-10-28', 'last_updated': None, 'matched': True}, {'url': 'https://unctad.org/system/files/official-document/tir2025_en.pdf', 'title': '[PDF] Technology and Innovation Report 2025 - UNCTAD', 'snippet': 'The Technology and Innovation Report 2025: Inclusive Artificial Intelligence for Development was prepared by Wai Kit (Jackie) Si Tou and Antonio Vezzani, ...', 'date': None, 'last_updated': '2025-05-12', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Bahamas Environment, Science and Technology Commission (BEST) in BAHAMAS (THE) responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in MALI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7129,27 +7133,27 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bahamas Environment, Science and Technology Commission (BEST) in BAHAMAS (THE)</t>
+          <t>Ministry of Higher Education and Scientific Research in MALI</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bahamas Environment, Science and Technology Commission (BEST)</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>The Bahamas' National Cybersecurity Strategy and cyber responsibility are primarily managed by The Bahamas' Computer Incident Response Team (CIRT-BS) and related government entities focused on cybersecurity governance, incident response, and legal enforcement. There is no evidence from the available national strategies, laws, or reports indicating that the Bahamas Environment, Science and Technology Commission (BEST) holds any responsibility for cybersecurity policy, implementation, coordination, or enforcement. The main cybersecurity governance structures are related to CIRT-BS and other governmental departments, but BEST is not mentioned in this capacity.</t>
+          <t>The Ministry of Higher Education and Scientific Research in Mali primarily regulates higher education and scientific research activities, as indicated in official sources[8]. There is no explicit evidence that this ministry holds a national mandate for cybersecurity policy, implementation, or technical coordination. The national cybersecurity strategy and related governance efforts are led by the Ministry of Communication, Digital Economy, and Administrative Modernization, which focuses on enhancing cybersecurity governance and implementing national strategies[2][4]. The Ministry of Higher Education may conduct internal cybersecurity awareness workshops for its employees[9], but this does not constitute responsibility for national cybersecurity governance or technical coordination. Therefore, its cybersecurity role is limited to internal organizational awareness and education rather than national responsibility or leadership in cybersecurity policy or enforcement.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7159,7 +7163,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.tribune242.com/news/2024/dec/18/bahamas-launches-national-cyber-security-strategic-plan/', 'title': 'Bahamas launches National Cyber Security strategic plan', 'snippet': 'The Bahamas has launched its National Cybersecurity Strategy (NCS) in a bid to better protect its digital infrastructure from rapidly-evolving online threats.', 'date': '2024-12-18', 'last_updated': '2024-12-19', 'matched': True}, {'url': 'https://magneticmediatv.com/2024/12/the-bahamas-strengthens-cybersecurity-with-national-cybersecurity-strategy-launch-and-multi-day-workshop/', 'title': 'The Bahamas Strengthens Cybersecurity with National ...', 'snippet': 'Strengthening Governance Frameworks: Establishing clear roles and responsibilities for cybersecurity management;; Enhancing Incident Response ...', 'date': '2024-12-24', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://urcabahamas.bs/wp-content/uploads/2024/12/ECS-Policy-2024-2027.pdf', 'title': '[PDF] OFFICIAL GAZETTE THE BAHAMAS', 'snippet': 'The guiding principles for this ECS Policy include: placing ICTs at the center of the national development agenda8, ensuring universal access to ...', 'date': '2024-10-21', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/bs/', 'title': 'NCSI :: The Bahamas - National Cyber Security Index', 'snippet': 'There is an entity with the clearly assigned responsibility to lead and/or coordinate national cybersecurity awareness activities.', 'date': '2025-01-30', 'last_updated': '2025-04-07', 'matched': True}, {'url': 'https://www.itu.int/ITU-D/treg/events/seminars/gsr/GSR09/doc/GSR-background-paper-on-cybersecurity-2009.pdf', 'title': '[PDF] Cybersecurity: The Role and Responsibilities of an Effective Regulator', 'snippet': 'This draft background paper on Cybersecurity: The Role and Responsibilities of an Effective. Regulator, was commissioned by the ITU ...', 'date': '2009-11-10', 'last_updated': '2025-09-23', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/2020-Cybersecurity-Report-Risks-Progress-and-the-Way-Forward-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] 2020 Cybersecurity Report: Risks, Progress, and the Way Forward ...', 'snippet': 'The report finds that the LAC region is not sufficiently prepared for cyberattacks, with only 7 of 32 countries having a critical infrastructure protection ...', 'date': None, 'last_updated': '2024-04-13', 'matched': True}]</t>
+          <t>[{'url': 'https://ncsi.ega.ee/country/ml/', 'title': 'NCSI :: Mali - National Cyber Security Index - e-Governance Academy', 'snippet': 'STRATEGIC CYBERSECURITY INDICATORS ; 3.1. Cyber safety competencies in primary education · 2 ; 3.2. Cyber safety competencies in secondary education · 2 ; 3.3.', 'date': '2025-04-15', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://www.wearetech.africa/en/fils-uk/news/public-management/mali-to-launch-national-cybersecurity-strategy-this-year', 'title': 'Mali to Launch National Cybersecurity Strategy This Year', 'snippet': 'The strategy seeks to enhance cybersecurity governance, strengthen international cooperation, and foster a culture of cybersecurity through information, ...', 'date': '2025-01-14', 'last_updated': '2025-01-15', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=mali', 'title': 'Mali - Cybil Portal', 'snippet': "An overview of Mali's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here. This country/territory is in Sub-Saharan Africa.", 'date': '2025-07-01', 'last_updated': '2025-07-15', 'matched': True}, {'url': 'https://dig.watch/countries/mali', 'title': 'Mali | Digital Watch Observatory', 'snippet': "Mali's internet governance is shaped by its efforts to expand access, promote cybersecurity, and ensure digital inclusion. The Ministry of Digital Economy ...", 'date': '2025-09-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://revues.imist.ma/index.php/RIMMS/article/download/46283/24567/135840', 'title': '[PDF] cybersecurity in higher education: challenges and', 'snippet': 'They must protect sensitive institution data, such as financial data, research data, or personal data of students and staff, against cybersecurity threats. They.', 'date': None, 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Mali.pdf', 'title': '[PDF] Mali - GHS Index', 'snippet': '[2] The 2018 WHO "Monitoring Global Progress on Addressing AMR" report notes that Mali has a national AMR action plan, however there is insufficient evidence ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://globalprivacyassembly.com/wp-content/uploads/2025/07/Global-Awards-Entry-Form-2025_Personal-Data-Protection-Authority-of-Mali_The-Masters-in-Digital-Law.pdf', 'title': '[PDF] GPA Global Privacy and Data Protection Awards 2025 Entry Form', 'snippet': 'To submit an entry to the GPA Global Privacy and Data Protection Awards, please complete and email this form to secretariat@globalprivacyassembly.org no ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://openknowledge.worldbank.org/bitstreams/fff42cea-cbd9-5c7f-8f9a-289f3774719b/download', 'title': 'English Text (171.13 KB) - Open Knowledge Repository', 'snippet': 'The Ministry of Higher Education, Scientific Research, and Innovation (MESRSI) 18 is the key institution regulating the higher education sector. It sets the ...', 'date': None, 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://mohe.gov.jo/EN/NewsDetails/The_Ministry_of_Higher_Education_and_Scientific_Research_holds_an_awareness_workshop_on_cybersecurity_for_its_employees', 'title': 'The Ministry of Higher Education and Scientific Research', 'snippet': "This workshop aims to raise the awareness of the ministry's employees in the field of cybersecurity and enable them to take effective ...", 'date': '2025-09-14', 'last_updated': '2025-09-14', 'matched': True}]</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7198,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>The Department of Further and Higher Education, Research, Innovation and Science in Ireland is involved in cybersecurity primarily through funding initiatives and educational programs aimed at improving cyber skills and awareness within the further and higher education sectors, as seen in their €3.75 million investment to enhance cybersecurity in these sectors and support for cybersecurity education programmes[6][3][7]. However, it is not mentioned as the primary body responsible for national cybersecurity policy, enforcement, or coordination. The National Cyber Security Centre (NCSC), an operational arm of the Department of the Environment, Climate and Communications, holds the main mandate for cybersecurity governance, protection of critical infrastructure, and national cyber incident response in Ireland[1][2][5]. Therefore, this Department plays a supporting and enabling role rather than leading cybersecurity governance or enforcement nationally.</t>
+          <t>The Department of Further and Higher Education, Research, Innovation and Science in Ireland supports cybersecurity primarily through educational and awareness initiatives, such as launching cybersecurity education programs and funding enhanced cybersecurity services for further and higher education institutions[2][6][8]. It is involved in developing workforce skills and academic courses related to cybersecurity but is not designated as the lead entity for national cybersecurity governance, policy, or technical coordination. The operational responsibility for cybersecurity at the national level in Ireland resides with the National Cyber Security Centre (NCSC), which is part of the Department of the Environment, Climate and Communications, rather than this Department[1][5]. Therefore, the Department plays a supportive educational role rather than holding primary responsibility for cybersecurity policy or enforcement.</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7204,14 +7208,14 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>[{'url': 'https://en.wikipedia.org/wiki/National_Cyber_Security_Centre_(Ireland)', 'title': 'National Cyber Security Centre (Ireland) - Wikipedia', 'snippet': "It is responsible for Ireland's cyber security, with a primary focus on securing government networks, protecting critical national infrastructure, and assisting ...", 'date': '2015-07-07', 'last_updated': '2025-06-18', 'matched': True}, {'url': 'https://www.ncsc.gov.ie/strategy/', 'title': 'National Cyber Security Strategy - NCSC Ireland', 'snippet': 'To invest in educational initiatives to prepare the workforce for advanced IT and cybersecurity careers. To raise awareness of the responsibilities of ...', 'date': '2019-05-01', 'last_updated': '2025-05-30', 'matched': True}, {'url': 'https://www.universityofgalway.ie/about-us/news-and-events/news-archive/2025/november/minister-lawless-launches-cybersecurity-education-programme-.html', 'title': 'Minister Lawless launches cybersecurity education programme', 'snippet': 'The programme is designed for people in leadership roles with no specific background in cyber or IT security and is focused on managers, team ...', 'date': '2025-11-11', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.educationprocurementservice.ie/cyber-security-in-the-education-sector/', 'title': 'Cyber Security in the Education Sector - EPS', 'snippet': 'To protect against cyber attacks, schools and universities in Ireland must implement strong security measures. This includes regularly updating ...', 'date': '2022-12-16', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://www.amcham.ie/media/z0ppgklh/amcham-ireland-the-strongest-link-in-the-chain-irelands-global-cyber-security-leadership.pdf', 'title': "[PDF] Ireland's Global Cyber Security Leadership", 'snippet': 'According to the OECD, Ireland has one of the most educated workforces in the world, with 52% of workers between the age of 25-34 having a third level education ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.gov.ie/en/department-of-further-and-higher-education-research-innovation-and-science/press-releases/375-million-to-enhance-cybersecurity-in-the-further-and-higher-education-sector-announced-by-minister-harris/', 'title': '€3.75 million to enhance cybersecurity in the further and higher ...', 'snippet': '“This new service will assist in protecting staff and students and strengthening the security of further and higher education institutions ...', 'date': '2023-06-16', 'last_updated': '2025-04-23', 'matched': True}, {'url': 'https://hea.ie/skills-engagement/cyber-skills/', 'title': 'Cyber Skills | Skills and Engagement | Higher Education Authority', 'snippet': 'Cyber Skills provides online, fully flexible university accredited micro-credentials and pathways to enable Information and Communications Technology (ICT) ...', 'date': '2023-04-01', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.tcd.ie/itservices/news/2023/government-funding-for-cybersecurity-in-higher-education/', 'title': 'Government Funding for Cybersecurity in Higher Education', 'snippet': 'This funding will benefit the Higher Education system by providing around the clock monitoring and enhanced threat detection capabilities.', 'date': '2023-06-23', 'last_updated': '2025-06-29', 'matched': True}]</t>
+          <t>[{'url': 'https://www.ncsc.gov.ie/strategy/', 'title': 'National Cyber Security Strategy - NCSC Ireland', 'snippet': 'To invest in educational initiatives to prepare the workforce for advanced IT and cybersecurity careers. To raise awareness of the responsibilities of ...', 'date': '2019-05-01', 'last_updated': '2025-05-30', 'matched': True}, {'url': 'https://www.universityofgalway.ie/about-us/news-and-events/news-archive/2025/november/minister-lawless-launches-cybersecurity-education-programme-.html', 'title': 'Minister Lawless launches cybersecurity education programme', 'snippet': 'The programme is designed for people in leadership roles with no specific background in cyber or IT security and is focused on managers, team ...', 'date': '2025-11-11', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.educationprocurementservice.ie/cyber-security-in-the-education-sector/', 'title': 'Cyber Security in the Education Sector - EPS', 'snippet': 'To protect against cyber attacks, schools and universities in Ireland must implement strong security measures. This includes regularly updating ...', 'date': '2022-12-16', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://www.idaireland.com/latest-news/insights/what-makes-ireland-a-hotbed-for-cybersecurity-talent', 'title': 'What makes Ireland a hotbed for cybersecurity talent', 'snippet': "Ireland doesn't just provide cybersecurity skills for the private and public sectors; for years, University College Dublin's Centre for Cybercrime Investigation ...", 'date': '2024-10-02', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.amcham.ie/media/z0ppgklh/amcham-ireland-the-strongest-link-in-the-chain-irelands-global-cyber-security-leadership.pdf', 'title': "[PDF] Ireland's Global Cyber Security Leadership", 'snippet': 'According to the OECD, Ireland has one of the most educated workforces in the world, with 52% of workers between the age of 25-34 having a third level education ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.gov.ie/en/department-of-further-and-higher-education-research-innovation-and-science/press-releases/375-million-to-enhance-cybersecurity-in-the-further-and-higher-education-sector-announced-by-minister-harris/', 'title': '€3.75 million to enhance cybersecurity in the further and higher ...', 'snippet': '“This new service will assist in protecting staff and students and strengthening the security of further and higher education institutions ...', 'date': '2023-06-16', 'last_updated': '2025-04-23', 'matched': True}, {'url': 'https://hea.ie/skills-engagement/cyber-skills/', 'title': 'Cyber Skills | Skills and Engagement | Higher Education Authority', 'snippet': 'Cyber Skills provides online, fully flexible university accredited micro-credentials and pathways to enable Information and Communications Technology (ICT) ...', 'date': '2023-04-01', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.tcd.ie/itservices/news/2023/government-funding-for-cybersecurity-in-higher-education/', 'title': 'Government Funding for Cybersecurity in Higher Education', 'snippet': 'This funding will benefit the Higher Education system by providing around the clock monitoring and enhanced threat detection capabilities.', 'date': '2023-06-23', 'last_updated': '2025-06-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Development in BRUNEI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science, Research and Sport of the Slovak Republic in SLOVAKIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7219,27 +7223,27 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ministry of Development in BRUNEI</t>
+          <t>Ministry of Education, Science, Research and Sport of the Slovak Republic in SLOVAKIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Ministry of Development</t>
+          <t>Ministry of Education, Science, Research and Sport of the Slovak Republic</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Based on available information, the Ministry of Development in Brunei is not identified as responsible for cybersecurity policy, implementation, or coordination. The national cybersecurity agency is Cyber Security Brunei (CSB), which operates under the Ministry of Transport and Infocommunications (MTIC), with the Minister of MTIC as Minister-in-charge of Cybersecurity, leading national cybersecurity efforts including policy advising, incident response, and inter-agency coordination[1][2][3]. The Ministry of Development is not mentioned in national cybersecurity laws, strategies, nor in hosting Brunei's CERT or cybersecurity governance bodies. Therefore, there is no evidence supporting any cybersecurity role or responsibility for the Ministry of Development in Brunei.</t>
+          <t>The Ministry of Education, Science, Research and Sport of the Slovak Republic participates in cybersecurity mainly through education and awareness efforts rather than as a primary body responsible for cybersecurity governance or incident response. According to the 2018 Act on Cybersecurity, the Ministry coordinates and performs security awareness building and research and development related to cybersecurity but does not manage or coordinate state cybersecurity operations directly[1]. The Ministry is involved in integrating cybersecurity education into the curriculum at all educational levels, aiming to raise digital skills and cybersecurity awareness among students and educators[3][8]. National cybersecurity governance, technical coordination, incident handling, and policy implementation are primarily roles of other bodies such as the national CERT (SK-CERT) and ministries designated in the Cybersecurity Act[1][4][5]. The Ministry’s role is supportive and educational rather than authoritative or operational in cybersecurity matters.</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7249,14 +7253,14 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.usasean.org/article/brunei-stepping-cybersecurity-and-fraud-mechanisms', 'title': 'Brunei Stepping Up Cybersecurity and Fraud Mechanisms | US ABC', 'snippet': 'Cyber Security Brunei (CSB) is intensifying efforts to address online scams and digital fraud by cooperating with other government agencies and ...', 'date': '2025-10-30', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.csb.gov.bn/sites/default/files/downloads/CybersecurityAct/CAP_272_CYBERSECURITY_ACT.pdf', 'title': '[PDF] CYBERSECURITY ACT.fm - Cyber Security Brunei', 'snippet': 'Designation of critical information infrastructure. 10. Power to obtain information to ascertain if computer etc. fulfils criteria of critical information ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.csb.gov.bn/about', 'title': 'About | Cyber Security Brunei', 'snippet': 'To lead national efforts in monitoring cyber threats, managing cyber security, and combating cyber crime. · Towards a resilient and safer cyber space that would ...', 'date': '2004-02-01', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://data.thailand.opendevelopmentmekong.net/dataset/9c1c9d92-2bfb-490a-b450-40b160dea88c/resource/09c49523-12dc-4f42-8964-a309ece1f57b/download/brunei-darussalams-e-government-strategy-in-overcoming-cyber-threat.pdf', 'title': '[PDF] brunei-darussalams-e-government-strategy-in-overcoming-cyber ...', 'snippet': 'The government focuses on implementing cyber defensive capabilities, protecting internal systems and improving the development of information technology.', 'date': None, 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.drewnetworkasia.com/media/hpkhnysg/dna-asean-guide-to-data-protection-cybersecurity.pdf', 'title': '[PDF] Data Protection and Cybersecurity Regulation in Southeast Asia', 'snippet': 'development of the digital economy in Brunei. Accordingly, the PDPO sets out the obligations of private sector organisations with respect to ...', 'date': '2025-03-13', 'last_updated': '2024-09-06', 'matched': True}, {'url': 'https://itpss.com/national-cyber-security-agency-be-formed-says-mtic-minister', 'title': 'NATIONAL CYBER SECURITY AGENCY TO BE FORMED, SAYS ...', 'snippet': 'The government will establish a national cyber security agency and is currently drafting new cyber security laws, the minister of Transport and ...', 'date': '2020-01-09', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://borneobulletin.com.bn/cybersecurity-a-shared-responsibility-says-minister/', 'title': 'Cybersecurity a shared responsibility, says minister - Borneo Bulletin', 'snippet': 'The minister emphasised the need for vigilance from all sectors, noting that “cybersecurity is now widely recognised as a shared responsibility, ...', 'date': '2025-08-07', 'last_updated': None, 'matched': True}, {'url': 'https://www.factsasia.org/blog/cybersecurity-in-brunei-building-resilience-against-threats', 'title': 'Cybersecurity in Brunei: Building Resilience against Threats', 'snippet': 'The Cyber Security Brunei (CSB) is the national cybersecurity agency responsible for strengthening national cyber resilience by providing ...', 'date': '2025-04-01', 'last_updated': '2025-11-04', 'matched': True}]</t>
+          <t>[{'url': 'https://www.sk-cert.sk/wp-content/uploads/2018/03/2018_69-Act-on-Cybersecurity.pdf', 'title': '[PDF] 2018_69-Act-on-Cybersecurity.pdf - SK-CERT', 'snippet': '... Ministry of Education, Science, Research and. Sport of the Slovak Republic, performs and ensures security awareness building, x) coordinates ...', 'date': '2018-03-31', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://mirri.gov.sk/wp-content/uploads/2019/10/SDT-English-Version-FINAL.pdf', 'title': '[PDF] 2030 Digital Transformation Strategy for Slovakia - Mirri', 'snippet': 'Programme implementation will focus on the digital transformation of schools and education, identification and increase of competences of teachers, students and ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/slovakia/~technology', 'title': 'Slovakia | Technology - Education Profiles', 'snippet': 'The Ministry of Education, Science, Research and Sports of the Slovak Republic is the national authority for the field of education. ... This ...', 'date': '2025-01-14', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/CS_organisation_SLOVAKIA_042015.pdf', 'title': '[PDF] National Cyber Security Organisation: Slovakia - CCDCOE', 'snippet': 'The study outlines the division of cyber security tasks and responsibilities between different agencies, describes their mandate, tasks and competence, as well ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3512475/Document-07-Slovak-Republic-Cyber-Security.pdf', 'title': '[PDF] Cyber Security Concept of the Slovak Republic for 2015 - 2020', 'snippet': 'Support, development and implementation of an education system in the area of cyber security. Sponsor: Ministry of Education, Science, Research and Sport. Tasks ...', 'date': None, 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://www.minedu.sk/23577-en/statute-of-the-ministry/', 'title': '[PDF] Statute of the Ministry of Education, Science, Research &amp; Sport of ...', 'snippet': '(1) The Ministry is governed by and for its activities is responsible the Minister of Education,. Science, Research &amp; Sport of the Slovak Republic (hereinafter ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2018/10/Slovakia_National_Cybersecurity_Strategy-2021-2025_2021_English.pdf', 'title': '[PDF] National Cybersecurity Strategy 2021 -2025 - CCDCOE', 'snippet': 'The document names the principles on which the strategy of the Slovak Republic is based, identifies cyberspace threats and clearly defines the objectives or ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://cyberwiser.eu/slovakia-sk', 'title': 'Slovakia (SK) - CYBERWISER.eu', 'snippet': 'Under the Action Plan, the Ministry of Education is responsible for an innovative education system on cybersecurity at primary and secondary school levels as ...', 'date': '2021-01-01', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.nbu.gov.sk/data/att/3432.pdf', 'title': '[PDF] REPORT ON CYBER SECURITY', 'snippet': 'The report on cyber security in the Slovak Republic in 2022 illustrates the current situation in this area from a global and national perspective. It focuses ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.potomacinstitute.org/images/CRI/CRI_Slovakia_Profile-Digital.pdf', 'title': '[PDF] SLOVAK REPUBLIC - Potomac Institute for Policy Studies', 'snippet': 'The documents delineated the roles and responsibilities of the different entities involved in national cyber security and articulated strategic and operational.', 'date': None, 'last_updated': '2025-11-10', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Culture in FINLAND responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in JORDAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7264,27 +7268,27 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ministry of Education and Culture in FINLAND</t>
+          <t>Ministry of Higher Education and Scientific Research in JORDAN</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ministry of Education and Culture</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Culture in Finland is explicitly responsible for cybersecurity policy, implementation, and coordination within the education sector and for broader citizen competence. The Ministry is tasked with developing cybersecurity expertise at all educational levels, including liberal adult education, labour force training, and continuing education, as outlined in Finland's Cyber Security Strategy 2024-2035 and its Implementation Plan (Measure 1.1) [2][7]. The Ministry is also responsible for advancing multiliteracies and basic skills in information and cyber security through the Finnish National Agency for Education, and for organizing national information and cyber security awareness events, such as the annual information and cyber security week [5]. Furthermore, the Ministry is mentioned as a key actor in the implementation and monitoring of cybersecurity measures, and it participates in the development of training and educational programmes as part of the national strategy [2][5][7]. These responsibilities include policy, implementation, and coordination, meeting the criteria for high responsibility.</t>
+          <t>The Ministry of Higher Education and Scientific Research in Jordan is involved in cybersecurity mainly through awareness workshops for its employees and discussions related to digitization and cybersecurity operations in education. However, it is not explicitly assigned national responsibility for cybersecurity governance, policy formulation, implementation, or coordination. The National Cybersecurity Centre (NCSC), established under the Cybersecurity Act No. 16 of 2019 and operating under the Prime Minister's supervision, holds the primary responsibility for developing national cybersecurity strategies, policies, standards, and technical coordination. The Ministry is not listed among authorities leading or hosting national cybersecurity operations or CERT teams. It participates in cybersecurity education and awareness and supports scientific research in cybersecurity fields, but oversight and enforcement of national cybersecurity are conducted by dedicated national bodies such as the NCSC and the National Council for Cybersecurity, which includes other ministries like the Ministry of Digital Economy and Entrepreneurship, but not the Ministry of Higher Education and Scientific Research explicitly. Therefore, the Ministry's role is supportive and educational rather than central or authoritative in national cybersecurity governance or enforcement[1][2][3][6][8].</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7294,14 +7298,14 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/europe-and-northern-america/finland/~technology', 'title': 'Finland | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Culture is responsible for the entire spectrum of education, from ECCE to tertiary level, legislation and policy.', 'date': '2024-12-31', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/action-plans/FI_ACTION_PLAN_2024_en.pdf', 'title': "[PDF] Implementation plan for Finland's Cyber Security Strategy 2024-2035", 'snippet': 'Responsibility for coor- dinating the monitoring is vested in the Office of the National Cyber Security Director, for which each ministry provides an ...', 'date': None, 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://vm.fi/en/information-security-and-cybersecurity', 'title': 'Information security and cybersecurity - Valtiovarainministeriö', 'snippet': 'The Ministry of Finance is responsible for guiding and directing the provision of shared government ICT services and the quality of these services.', 'date': '2015-11-09', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://um.fi/cyber-security-and-the-cyber-domain', 'title': 'Cyber security and the cyber domain - Ministry for Foreign Affairs', 'snippet': "The aim of Finland's national cyber security strategy is to respond to cyber threats, strengthen the overall security of society and ensure the smooth ...", 'date': '2015-07-03', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://cyberwiser.eu/finland-fi', 'title': 'Finland (FI) - CYBERWISER.eu', 'snippet': 'Finland prioritises the development of cyber competences of citizens, the business community and the public sector in the area of secure digitisation. Training ...', 'date': '2021-01-01', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://lvm.fi/en/-/finland-engages-actively-in-upcoming-revision-of-eu-cybersecurity-regulation', 'title': 'Finland engages actively in upcoming revision of EU Cybersecurity ...', 'snippet': 'Finland welcomes the objective of streamlining the preparation, approval and review of European cyber security certification systems. Further ...', 'date': '2025-05-28', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/FI_NCSS_2024_en.pdf', 'title': "[PDF] Finland's Cyber Security Strategy 2024–2035 - ENISA", 'snippet': 'Overall cybersecurity competence is ensured in Finland by strengthening the role of cybersecurity extensively in education, training and ...', 'date': '2024-10-25', 'last_updated': '2025-06-09', 'matched': True}, {'url': 'https://valtioneuvosto.fi/en/-/1410829/provisions-to-complement-cybersecurity-act-to-enter-into-force-in-the-beginning-of-july', 'title': 'Provisions to complement Cybersecurity Act to enter into force in the ...', 'snippet': 'The act lays down provisions on the identification of critical entities and on the obligations imposed on them in the CER Directive. Critical ...', 'date': '2025-06-27', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://tem.fi/en/-/10623/ministerial-working-group-takes-responsibility-for-cybersecurity-and-the-preparedness-of-public-administration', 'title': 'Ministerial working group takes responsibility for cybersecurity and ...', 'snippet': 'The ministerial working group makes policy decisions on measures to secure the functioning of society and the digital operating environment in ...', 'date': '2022-03-10', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.dataguidance.com/news/finland-cybersecurity-act-enters-force', 'title': 'Finland: Cybersecurity Act enters into force | News - DataGuidance', 'snippet': 'The Act mandates operators to manage cybersecurity risks through minimum measures and a risk management model by July 8, 2025. Operators must ...', 'date': '2025-04-10', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'http://www.seejph.com/index.php/seejph/article/download/2152/1472/3070', 'title': '[PDF] Cybersecurity Challenges in the Hashemite Kingdom of Jordan', 'snippet': "The Centre develops and implements a strong national cybersecurity system to protect the Kingdom from cyberattacks under the Prime Minister's ...", 'date': '2024-10-25', 'last_updated': '2025-04-10', 'matched': True}, {'url': 'https://ncsc.jo/ebv4.0/root_storage/ar/eb_list_page/cyber_security_law_no.16_of_2019_unofficial_translation.pdf', 'title': '[PDF] Cyber Security Law Law No. (16) of 2019', 'snippet': 'A council called (the National Council for Cybersecurity) shall be formed in the Kingdom, consisting of a president who is appointed by a royal decree and a ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://migrationletters.com/index.php/ml/article/download/7339/4788/19464', 'title': '[PDF] Legislative Evolution Of Cyber Security In Jordanian Law', 'snippet': 'Abstract. In this study, we aim to study the development of cyber security legislation in Jordan and find out how effective these laws are ...', 'date': '2024-05-09', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/jo/', 'title': 'NCSI :: Jordan - National Cyber Security Index', 'snippet': 'The information provided on the NCSI website is based on publicly available evidence materials. The appearance in the index and subsequent ranking is ...', 'date': '2025-09-30', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://modee.gov.jo/ebv4.0/root_storage/en/eb_list_page/national_cyber_security_strategy_2018_2023.pdf', 'title': '[PDF] National Cyber Security Strategy 2018-2023 الاستراتیجیة الوطنیة ...', 'snippet': 'Jordan Government is committed to enhancee its cyber security and, with the publication of its. National Information Assurance and Cyber Security.', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://mohe.gov.jo/EN/NewsDetails/The_Ministry_of_Higher_Education_and_Scientific_Research_holds_an_awareness_workshop_on_cybersecurity_for_its_employees', 'title': 'The Ministry of Higher Education and Scientific Research', 'snippet': 'The Ministry of Higher Education and Scientific Research holds an awareness workshop on cybersecurity for its employees.', 'date': '2025-09-14', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.emerald.com/ics/article/33/3/362/1249918/A-collaborative-cybersecurity-framework-for-higher', 'title': 'A collaborative cybersecurity framework for higher education', 'snippet': 'The EduCERT framework addresses this gap by enhancing cyber security and mitigating cybercrime through collaborative incident management, ...', 'date': '2024-09-12', 'last_updated': None, 'matched': True}, {'url': 'https://mohe.gov.jo/En/NewsDetails/Minister_of_Higher_Education_Azmi_Mahafzah_Meets_with_Public_University_Presidents_to_Discuss_Digitization_and_a_Cybersecurity_Operations_Center_for_Education', 'title': 'The Minister of Higher Education and Scientific Research, Azmi ...', 'snippet': 'The Minister of Higher Education and Scientific Research, Azmi Mahafzah, Meets with Presidents of Public Jordanian Universities and Discusses Digitization ...', 'date': None, 'last_updated': '2025-09-13', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Innovation in ARGENTINA responsible for cybersecurity?
+          <t xml:space="preserve">Is the National Council for Science and Technology (CONCYT) in GUATEMALA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7309,27 +7313,27 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation in ARGENTINA</t>
+          <t>National Council for Science and Technology (CONCYT) in GUATEMALA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Innovation</t>
+          <t>National Council for Science and Technology (CONCYT)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>The Ministry of Science, Technology and Innovation (formerly Ministry of Education, Culture, Science and Technology) is involved in cybersecurity primarily through its support for research and development and its engagement in digital education initiatives. For example, the Ministry presented the Priority Learning Nuclei (NAP) of Digital Education, Programming and Robotics, which includes cybersecurity-related topics, indicating its role in promoting cybersecurity education and research at the national level [3]. However, the ministry is not explicitly mentioned as the lead agency for cybersecurity policy, implementation, or technical coordination. The primary responsibility for cybersecurity governance and incident response in Argentina lies with the Federal Cybersecurity Agency, which was restructured and designated as the lead agency for cybersecurity governance, including the country's computer incident response team (AR-CERT) and chairing the interagency Cybersecurity Committee, reporting to the intelligence secretariat SIDE [1]. The Ministry of Science, Technology and Innovation does not host the national CERT, lead the cybersecurity committee, or oversee information security standards or network protection. Its involvement is more focused on education and research rather than direct cybersecurity governance or enforcement [3].</t>
+          <t>Based on multiple sources detailing Guatemala's cybersecurity governance structure, the National Council for Science and Technology (CONCYT) is not mentioned as a responsible body for cybersecurity policy, implementation, or technical coordination. The primary cybersecurity responsibilities in Guatemala are held by the Ministry of the Interior, which authored the 2018 National Cybersecurity Strategy and supervises the national CSIRT (CSIRT-GT)[1][3]. The National Cybersecurity Committee, under the National Security System, coordinates institutions involved in cybersecurity[1][3]. The 2022 Law on Prevention and Protection against Cybercrime establishes bodies such as the Institutional Security Center for Technical Response to Computer Incidents but does not attribute any role to CONCYT[2][3]. Moreover, the CSIRT-GT operates under the Ministry of the Interior, not CONCYT[3]. No evidence was found of CONCYT hosting a national CERT/CSIRT, leading cybersecurity committees, enforcing information security standards, or participating in cybersecurity coordination or events. Therefore, the National Council for Science and Technology (CONCYT) does not have an established role or responsibility in Guatemala's cybersecurity governance or operational framework.</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7339,14 +7343,14 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/country-commercial-guides/argentina-information-and-communications-technology', 'title': 'Argentina - Information and Communications Technology', 'snippet': 'The leading sectors for cybersecurity in Argentina include banking, energy (particularly within oil &amp; gas), telecommunications, manufacturing, ...', 'date': '2025-08-27', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://2017-2021.state.gov/joint-statement-on-u-s-argentina-partnership-on-cyber-policy/', 'title': 'Joint Statement on U.S.-Argentina Partnership on Cyber Policy', 'snippet': 'The United States and Argentina intend to increase our cooperation in the areas of: cybersecurity, cyber defense, international security in cyberspace, and law ...', 'date': '2017-04-27', 'last_updated': '2025-05-23', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ar/', 'title': 'NCSI :: Argentina - National Cyber Security Index', 'snippet': 'PREVENTIVE CYBERSECURITY INDICATORS. 5. CYBERSECURITY OF CRITICAL INFORMATION INFRASTRUCTURE 6/12 ...', 'date': '2024-01-16', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://iclg.com/practice-areas/cybersecurity-laws-and-regulations/argentina', 'title': 'Cybersecurity Laws and Regulations Argentina 2025 - ICLG.com', 'snippet': 'Argentinian regulations stipulate that Public Agencies must develop appropriate strategies to monitor, prevent, or mitigate incidents, in ...', 'date': '2024-11-06', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/argentina-digital-economy', 'title': 'Argentina - Digital Economy - International Trade Administration', 'snippet': "The Argentine Data Protection Authority (AAIP) is charged with implementing Argentina's Personal Data Protection Act. In 2023, the government of ...", 'date': '2025-08-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': 'Are We Ready in Latin America and the Caribbean? OBSERVATORY. CYBERSECURITY. IN LATIN AMERICA AND THE CARIBBEAN. Organization of. American States ...', 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://www.gtai.de/resource/blob/947072/1add25ec1ad2b2e345fcec22dcf8b110/PRO20220425832678.pdf', 'title': '[PDF] argentina cybersecurity for critical information infrastructure program', 'snippet': 'Specifically, the SIP is responsible for cybersecurity and protecting CII and communications associated with the national public sector and information and ...', 'date': '2023-01-20', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://cancilleria.gob.ar/en/new-technologies/next-form-argentina-en', 'title': 'Next form Argentina | Ministerio de Relaciones Exteriores, Comercio ...', 'snippet': 'A digital, bilingual, and institutionally validated portfolio becomes a strategic tool for linking Argentine technological offerings with global demand. The ...', 'date': '2025-09-03', 'last_updated': '2025-10-30', 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/the-national-cybersecurity-strategy-of-guatemala', 'title': 'The national cybersecurity strategy of Guatemala', 'snippet': 'It establishes a vision where Guatemalans gain greater awareness of cybersecurity, valuing and using digital technologies safely, with shared responsibility ...', 'date': '2025-09-11', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://blplegal.com/law-on-prevention-and-protection-against-cybercrime-in-guatemala/', 'title': 'Law on Prevention and Protection against Cybercrime in Guatemala', 'snippet': 'The regulations issued seek to strengthen computer security and promote the responsible use of digital tools. In addition, they create the ...', 'date': '2022-08-11', 'last_updated': '2025-06-12', 'matched': True}, {'url': 'https://trade.ec.europa.eu/access-to-markets/en/country-assets/euca_05_Cybersecurity%20sector%20in%20Central%20America.pdf', 'title': '[PDF] Cybersecurity sector in Central America', 'snippet': 'On August 4, 2022, the Congress of the Republic of Guatemala approved Decree 39-2022, which contains the Law on Prevention and Protection against Cybercrime.', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/guatemala-cybersecurity', 'title': 'Guatemala Cybersecurity - International Trade Administration', 'snippet': "This legislative advancement represents a significant milestone in enhancing Guatemala's digital infrastructure and security landscape.", 'date': '2024-09-03', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.tedic.org/wp-content/uploads/2024/10/Cybersecurity-for-human-rights-defenders-WEB.pdf', 'title': '[PDF] CYBERSECURITY FOR HUMAN RIGHTS DEFENDERS IN ... - TEDIC', 'snippet': 'The vision of the defensive role of cybersecurity in issues related to military matters or banking processes is predominant in the country. However, it is ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/gt_2022/', 'title': 'NCSI :: Guatemala - National Cyber Security Index', 'snippet': 'INCIDENT AND CRISIS MANAGEMENT INDICATORS ; 9.1. Cyber incidents response unit · 3 ; 9.2. Reporting responsibility · 1 ; 9.3. Single point of contact for ...', 'date': '2021-11-24', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://thegfce.org/wp-content/uploads/Latin-America-and-Carribean-Cyber-Trends.pdf', 'title': '[PDF] LATIN AMERICAN +CARIBBEAN', 'snippet': 'Two ministries share responsibility for cybersecurity and cybercrime ... The Government of Guatemala presently does not maintain any official or organized ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Guatemala.pdf', 'title': '[PDF] Guatemala | GHS Index', 'snippet': 'This document is a compilation of all questions, justifications, and sources used to determine the 2021 Global Health Security Index scores for Guatemala. For a ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://digiamericas.org/wp-content/uploads/2025/10/INSIGHTS-October-23-English.pdf', 'title': '[PDF] INSIGHTS October 23 (English) - Digi Americas', 'snippet': 'The agreement stipulates that the Constitutional Court will report cybersecurity incidents through the platform enabled by the ANCI and will ...', 'date': '2025-10-23', 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Higher Education in POLAND responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Communications and Technology in SOMALIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7354,27 +7358,27 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ministry of Science and Higher Education in POLAND</t>
+          <t>Ministry of Communications and Technology in SOMALIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ministry of Science and Higher Education</t>
+          <t>Ministry of Communications and Technology</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Higher Education in Poland is not explicitly mentioned in national cybersecurity strategies, laws, or reports as responsible for cybersecurity policy, implementation, or technical coordination. The responsibility for cybersecurity at the national level, including coordination, policy making, and hosting national CERTs, lies primarily with the Ministry of Digital Affairs. This ministry develops and implements cybersecurity strategic documents, legal acts, and coordinates national cybersecurity efforts, including supervision of the Research and Academic Computer Network (NASK), which performs cybersecurity tasks. Other ministries are involved in sector-specific cybersecurity (e.g., Ministry of Interior and Administration for cybercrime, Ministry of National Defence for military cybersecurity). Educational institutions and the Ministry of Science and Higher Education may cooperate or contribute to research and training in cybersecurity but are not responsible for national cybersecurity governance or enforcement according to multiple official and expert sources reviewed[1][2][3][4][5][6][7][8].</t>
+          <t>The Ministry of Communications and Technology (MoCT) in Somalia is the lead federal body mandated to formulate national policies, laws, and regulations related to telecommunications and ICT, explicitly including cybersecurity. It has overseen the development and implementation of the National ICT Policy and chairs a National Coordination Committee facilitating ICT governance, including cybersecurity. The MoCT has supported the adoption of a cybercrime bill and is involved in preparing a national cybersecurity strategy for 2025-2030. It also coordinates capacity building in cyber hygiene and legal awareness as indicated by official Terms of Reference documents and reports. The National Communications Authority (NCA), under which Somalia's CERT operates, works closely with the MoCT. Somalia’s cybersecurity capacity maturity assessments and international cooperative agreements further demonstrate MoCT’s central role in cybersecurity policy, coordination, and implementation[1][2][3][4][5][6][8].</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7384,14 +7388,14 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ccdcoe.org/uploads/2018/10/NCSO_Poland_2017.pdf', 'title': '[PDF] National Cyber Security Organisation: POLAND - CCDCOE', 'snippet': 'Political and strategic responsibility for cyber security and strategic consideration and management is divided between the Ministry of Digital Affairs for the ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/4054482/NATO-Cooperative-Cyber-Defense-Centre-of.pdf', 'title': '[PDF] National Cyber Security Organisation: POLAND', 'snippet': 'Political and strategic responsibility for cyber security and strategic consideration and management is divided between the Ministry of Digital ...', 'date': '2016-09-05', 'last_updated': '2025-04-23', 'matched': True}, {'url': 'https://managementpapers.polsl.pl/wp-content/uploads/2024/07/198-Terlecka-Maciejewska.pdf', 'title': '[PDF] CYBERSECURITY IN POLISH SECURITY SYSTEM Introduction', 'snippet': 'Its main task is to monitor, analyse and react to cyberthreats on the national level.', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/pl/', 'title': 'NCSI :: Poland - National Cyber Security Index', 'snippet': 'A government entity has been assigned the responsibility for national-level cybersecurity and/or cyber threat assessments.', 'date': '2024-02-29', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/PL_NCSS_2019_en.pdf', 'title': '[PDF] cybersecurity strategy of the republic of poland - ENISA', 'snippet': 'The strategy aims to increase resilience to cyber threats and strengthen data protection by developing a national system, and raising public awareness.', 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://afyonluoglu.org/PublicWebFiles/strategies/Europe/Poland%202017-2022%20Cyber%20Security%20Strategy-EN.pdf', 'title': '[PDF] National Framework of Cybersecurity Policy of the Republic of ...', 'snippet': 'It will be a scientific platform composed of higher education institutions and scientific research centres specialising in cybersecurity technologies. In ...', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.gov.pl/web/ncbr-en/national-cybersecurity-platform', 'title': 'National Cybersecurity Platform - The National Centre for Research ...', 'snippet': 'The National Cybersecurity Platform is a system for monitoring, imaging, and warning about threats, enabling cooperation and a database of vulnerabilities.', 'date': '2017-09-01', 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://www.cybersecurityandlaw.pl/nr-2/9.pdf', 'title': '[PDF] CYBERSECURITY AND HIGHER EDUCATION INSTITUTIONS ...', 'snippet': 'One role is to offer courses and educate people on how to be safe in the world dominated by cyberthreats. Second role is to inform students, staff and third ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.scitepress.org/Papers/2024/124230/124230.pdf', 'title': '[PDF] The Status and Management of Web-Related Security at Higher ...', 'snippet': 'This section presents the results for the security mechanisms configuration of HEIs in Poland, namely DNSSEC, HTTPS, SSL/TLS key lengths, security headers, and ...', 'date': None, 'last_updated': '2025-07-24', 'matched': True}]</t>
+          <t>[{'url': 'https://mof.gov.so/sites/default/files/2019-10/Cyber%20security%20ToR.pdf', 'title': '[PDF] Cyber security ToR.pdf - Ministry of Finance - Somalia', 'snippet': 'The Cyber Security Advisor will provide advice on technical, policy, and legal matters, including strategies, program guidance, and national legislation ...', 'date': None, 'last_updated': '2025-05-08', 'matched': True}, {'url': 'https://sonna.so/en/somali-cabinet-approves-landmark-cybersecurity-bill-to-boost-digital-security/', 'title': 'Somali Cabinet Approves Landmark Cybersecurity Bill to Boost ...', 'snippet': 'This legislation focuses on protecting the integrity, safety, and security of computer systems, networks, and programs. It aims to prevent the ...', 'date': '2025-08-21', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://mof.gov.so/sites/default/files/Publications/TOR_CIVIC_Cyber_Security_final.pdf', 'title': '[PDF] FEDERAL GOVERNMENT OF SOMALIA', 'snippet': 'THE MINISTRY OF COMMUNICATIONS AND TECHNOLOGY. TERMS OF REFERENCE. CONSULTANCY SERVICES TO DEVELOP CYBERSECURITY AWARENESS RAISING AND EDUCATIONAL. MATERIAL.', 'date': None, 'last_updated': '2025-08-01', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/somalia', 'title': 'Somalia | Global Cyber Security Capacity Centre - University of Oxford', 'snippet': 'Somalia, initially at a low maturity, has made significant progress in cybersecurity, drafting policies and a national strategy, and preparing a CERT.', 'date': '2024-10-16', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099041923165053876/pdf/P176181020f03c010b3ee0e15d76fecda7.pdf', 'title': '[PDF] federal government of somalia - World Bank Documents &amp; Reports', 'snippet': 'The Federal Ministry of Communications and Technology (MOCT) is charged with promoting the digital agenda at the federal government level. A ...', 'date': '2022-09-02', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://extensia.tech/somalia-ties-up-with-malaysia-to-strengthen-cybersecurity/', 'title': 'Somalia ties up with Malaysia to strengthen cybersecurity', 'snippet': 'The Somali government is seeking to strengthen its cooperation with Malaysia to better address cybersecurity challenges.', 'date': '2025-05-08', 'last_updated': '2025-05-17', 'matched': True}, {'url': 'https://somalijobs.com/tenders/somalia/10588741831960032/reoi-for-consultancy-services-for-cybersecurity-risk-and-compliance-framework-development', 'title': 'REOI For Consultancy Services for Cybersecurity Risk and ...', 'snippet': "Responsibilities: The consulting firm will be responsible for carrying out several key tasks aimed at strengthening Somalia's national cybersecurity framework.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://moct.gov.so/en/wp-content/uploads/2019/11/National-ICT-Policy-Strategy-2019-2024.pdf', 'title': '[PDF] FEDERAL REPUBLIC OF SOMALIA', 'snippet': "Somalia's ICT policy aims to guide the country's ICT vision, create synergies, and make Somalia a regional leader in the digital economy, with ICTs as key ...", 'date': None, 'last_updated': '2025-06-04', 'matched': True}, {'url': 'https://nca.gov.so/wp-content/uploads/2025/01/ICT-Regulatory-Transformational-Strategy-and-Roadmap-JAN.pdf', 'title': '[PDF] ICT Regulatory Transformational Strategy and Roadmap for Somalia', 'snippet': 'The NCA is responsible for facilitating the development of the ICT sector, enabling and ensuring fair and sustainable competition, carrier interconnection,.', 'date': None, 'last_updated': '2025-10-04', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Sustainable Development, Energy, Science and Technology in SAINT LUCIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in SYRIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7399,17 +7403,17 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ministry of Sustainable Development, Energy, Science and Technology in SAINT LUCIA</t>
+          <t>Ministry of Higher Education and Scientific Research in SYRIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Ministry of Sustainable Development, Energy, Science and Technology</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7419,7 +7423,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>The Ministry of Sustainable Development, Energy, Science and Technology in Saint Lucia is primarily focused on sustainable development, energy, science, and technology policies. While there is strong evidence that Saint Lucia is advancing its cybersecurity framework—such as establishing a National Government Datacenter and a Governmental Cyber Incident Response Team (CIRT)—these initiatives are led by the Division of Public Sector Modernization within the Department of the Public Service, not explicitly by this ministry[1][4][5]. The Public Sector Modernisation division, linked to the Ministry of Sustainable Development and Technology, is involved in cybersecurity infrastructure and policy modernization, indicating some level of involvement. However, there is no direct evidence that this ministry is officially responsible for national cybersecurity policy, coordination, or enforcement, or that it hosts the national CERT or leads cybersecurity committees or initiatives independently. Therefore, the ministry's cybersecurity responsibility is assessed as low but not non-existent due to its association with modernization efforts.</t>
+          <t>The Ministry of Higher Education and Scientific Research in Syria primarily focuses on policy development, supervision, and coordination of higher education and scientific research institutions. It proposes higher education policies, oversees scientific research in universities, coordinates with related research institutions, and fosters international cooperation in scientific fields (source [1]). However, there is no direct indication that it is responsible for national cybersecurity policy, implementation, or technical coordination. Cybersecurity training has been conducted at universities like Damascus University through collaborations with external agencies, but these efforts do not appear to be led or administered by this ministry (source [2]). The Ministry of Communication and Technology has a legislated mandate for cybersecurity policy formulation, network security, and information system protection in Syria (source [3]), indicating that cybersecurity governance is under a different ministry's jurisdiction. Additionally, the Ministry of Higher Education and Scientific Research is involved in promoting scientific research and education in fields including cybersecurity through international partnerships, but this does not equate to governance responsibility (source [6]). Therefore, the Ministry of Higher Education and Scientific Research in Syria holds a low level of responsibility for cybersecurity, mainly limited to educational and research aspects rather than governance, coordination, or enforcement.</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7429,14 +7433,14 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>[{'url': 'https://sustainabledevelopment.govt.lc/news/cardtp-advances-plans-for-national-government-datacenter-and-governmental-cirt', 'title': 'Publications', 'snippet': 'A GOVERNMENTAL CYBER INCIDENT RESPONSE TEAM (CIRT) WILL MONITOR AND MITIGATE AGAINST CYBER THREATS.', 'date': '2025-02-12', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://ctu.int/wp-content/uploads/2021/02/CARICOM-Cyber-Security-and-Cybercrime-Action-Plan_Final_Ver3-copy.pdf', 'title': '[PDF] CARICOM-Cyber-Security-and-Cybercrime-Action-Plan', 'snippet': 'The CARICOM Cyber Security and Cybercrime Action Plan includes an executive summary, background, overview, governance, minimum standards, and implementation ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=KF0CsSPH8qw', 'title': 'ST. LUCIA LAUNCHES CYBERSECURITY TRAINING ... - YouTube', 'snippet': 'In a move to bolster its digital defenses, the government is initiating a specialized program to educate and certify the next generation of ...', 'date': '2025-09-24', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'http://www.opmsaintlucia.com/news/speeches/enhancing-our-infrastructure-for-security-and-prosperity', 'title': 'Enhancing Our Infrastructure for Security and Prosperity - OPM', 'snippet': "Speaker the SWF is to secure intergenerational wealth, address Saint Lucia's pledged climate adaptation and mitigation efforts and sustainable ...", 'date': '2025-04-23', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://sustainabledevelopment.govt.lc/ministries/public-service-information-and-broadcasting/public-sector-modernisation', 'title': 'Public Sector Modernisation', 'snippet': 'Official Web Site of the Government of Saint Lucia, Ministry of Sustainable Development and Technology. ... cybersecurity, cloud infrastructure, platforms and ...', 'date': '2024-01-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': 'To date, the government of Saint Lucia has not led a national cybersecurity awareness-raising campaign for society at large, and educational opportunities.', 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://sustainabledevelopment.un.org/memberstates/saintlucia', 'title': 'Saint Lucia .:. Sustainable Development Knowledge Platform', 'snippet': "The Committee's mandate provides for mandatory engagement with Faith-Based and Community-based organizations, as well as Persons with Disabilities, women's ...", 'date': '2017-06-06', 'last_updated': '2024-12-21', 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'the need to promote sustainable development, the experience of a cyberattack, receipt of a digital investment loan, or the desire to promote digital ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}, {'url': 'https://unfccc.int/sites/default/files/2025-02/Saint%20Lucias%20Third%20Nationally%20Determined%20Contribution.pdf', 'title': "[PDF] Saint Lucia's Third Nationally Determined Contribution | UNFCCC", 'snippet': "Saint Lucia has developed an inclusive and strategic Medium-Term Development Strategy (MTDS) 2020-2023. The MTDS' national priorities include three Economic ...", 'date': None, 'last_updated': '2025-11-12', 'matched': True}]</t>
+          <t>[{'url': 'https://en.wikipedia.org/wiki/Ministry_of_Higher_Education_and_Scientific_Research_(Syria)', 'title': 'Ministry of Higher Education and Scientific Research (Syria)', 'snippet': 'Responsibility. edit. The ministry performs the following tasks: Proposing the general policy for the higher education sector within the higher education ...', 'date': '2021-03-08', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.dailysabah.com/turkiye/tika-leads-cybersecurity-education-for-syrian-professionals/news', 'title': 'TIKA leads cybersecurity education for Syrian professionals', 'snippet': 'TIKA and MAPS conducted a foundational-level cybersecurity training at Damascus University. The training included 60 participants.', 'date': '2025-07-04', 'last_updated': '2025-07-04', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/syrian-arab-republic/~technology', 'title': 'Syrian Arab Republic | Technology - Education Profiles', 'snippet': 'The Ministry of Education in the Syrian Arab Republic serves as a driving force in fostering a digitally enriched and progressive educational landscape.', 'date': '2024-02-15', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.hcsr.gov.sy/pdf/projects/national_policy/en_report.pdf', 'title': '[PDF] and our fundamental direction that we will focus on after this great', 'snippet': "The Article 31 of the new Syrian Constitution outlined the State's support for scientific research with all its requirements. The Prime Ministry Office has ...", 'date': None, 'last_updated': '2025-08-24', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://levant24.com/news/2025/09/scientific-and-education-partnership-between-syria-and-saudi-arabia/', 'title': 'Scientific and Education Partnerships Between Syria and Saudi ...', 'snippet': 'The visit aimed to open broad horizons for a strategic partnership in the fields of higher education and scientific research, based on the ...', 'date': '2025-09-26', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'https://svuonline.org/en/training/networking', 'title': 'Networking and Information Security Training "NIST" | SVU', 'snippet': 'The attached scheme shows the most important courses that make an IT graduate a professional (in the field of networking and data security)', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://edu-syria.eu/author/aboutair/', 'title': 'admin - Edu Syria', 'snippet': 'On 14 October 2025 The Syrian Minister of Higher Education, Dr. Marwan Al-Halabi, praised the pioneering role of the EDU-SYRIA ...', 'date': '2025-08-31', 'last_updated': '2025-09-21', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Innovation, Science and Economic Development Canada in CANADA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Sustainable Development, Energy, Science and Technology in SAINT LUCIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7444,17 +7448,17 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Innovation, Science and Economic Development Canada in CANADA</t>
+          <t>Ministry of Sustainable Development, Energy, Science and Technology in SAINT LUCIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Innovation, Science and Economic Development Canada</t>
+          <t>Ministry of Sustainable Development, Energy, Science and Technology</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7464,7 +7468,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Innovation, Science and Economic Development Canada (ISED) supports pan-Canadian cybersecurity research, commercialization, and talent development through funding and innovation programs. It is involved in advancing cybersecurity technologies and frameworks, such as promoting AI solutions for cybersecurity and supporting digital technology innovation clusters in the defense and cyber domain. However, it is not the primary or leading body responsible for national cybersecurity policy, coordination, or operational cyber defense. The main government bodies responsible for cybersecurity governance, strategy, and operational coordination in Canada are Public Safety Canada and the Communications Security Establishment (CSE), which co-chair the Deputy Ministers' Committee on Cyber Security, the central coordinating authority on cybersecurity policy and operations. ISED contributes mainly in innovation, research funding, and economic development aspects tied to cybersecurity but does not lead cybersecurity strategy, policy enforcement, or incident response at the national level[1][2][3][4][6].</t>
+          <t>The Ministry of Sustainable Development, Energy, Science and Technology in Saint Lucia is involved in public sector modernization initiatives that include digital infrastructure and cybersecurity capacity building as part of the Caribbean Digital Transformation Project (CARDTP), executed by its Division of Public Sector Modernization. This ministry supports key projects such as planning for a National Government Datacenter and a Governmental Cyber Incident Response Team (CIRT) to monitor and mitigate cyber threats, enhancing digital resilience and cybersecurity in government operations. However, the ministry is not explicitly identified as the primary authority for national cybersecurity policy, enforcement, or governance. The Cybersecurity Incident Response Team and digital security projects have inter-agency collaboration elements but leadership or direct authority over nationwide cybersecurity governance or legal framework implementation appears to reside elsewhere, or is distributed among several government units. Additionally, no direct evidence shows the ministry hosting or leading a national CERT/CSIRT or coordinating major cybersecurity committees. Therefore, it holds some implementation and capacity building roles related to cybersecurity within public sector digital transformation but is not the chief policymaker or enforcer for cybersecurity in Saint Lucia.[1][5][7]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7474,14 +7478,14 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>[{'url': 'https://nsicop-cpsnr.ca/reports/rp-2022-02-14/06-en-part-4.html', 'title': 'Part IV: Governance of Cyber Defence National Security and ...', 'snippet': 'First, the revised mandate of DM Cyber Security is to enhance collaboration between security departments, economic departments and critical infrastructure in ...', 'date': '2022-02-14', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://hellodarwin.com/business-aid/organizations/science-economic-development-canada', 'title': 'Innovation, Science and Economic Development Canada (ISED ...', 'snippet': 'Innovation, Science and Economic Development Canada (ISED). Supports pan-Canadian cyber security research, commercialization, and talent development. Eligible ...', 'date': '2025-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://ised-isde.canada.ca/site/innovative-solutions-canada/en/digitization-and-cybersecurity', 'title': 'Digitization and cybersecurity', 'snippet': 'Digitization and cybersecurity. From: Innovation, Science and Economic Development Canada. We are seeking pre-commercial innovative prototypes ...', 'date': '2025-01-09', 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://www.publicsafety.gc.ca/cnt/rsrcs/pblctns/ntnl-cbr-scrt-strtg-2025/index-en.aspx', 'title': "Canada's National Cyber Security Strategy", 'snippet': 'Innovation, Science and Economic Development Canada. Report an incident. Spam reporting. Policy. National policy lead for the development and ...', 'date': '2025-03-24', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.cyber.gc.ca/en/education-community/academic-outreach-cyber-skills-development/canadian-cyber-security-skills-framework', 'title': 'The Canadian cyber security skills framework', 'snippet': 'The purpose of this framework is to help better guide workforce development stakeholders in addressing the cyber security skills deficit. It can ...', 'date': '2023-08-31', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/3878326/Public-Safety-Canada-Fundamentals-of-Cyber.pdf', 'title': '[PDF] Public-Safety-Canada-Fundamentals-of-Cyber.pdf', 'snippet': 'Annex 2: Government of Canada Departments and Agencies Roles and. Responsibilities for Cyber Security ... Innovation, Science and Economic Development Canada ( ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://ised-isde.canada.ca/site/ised/en/programs-and-initiatives/digital-research-infrastructure?wbdisable=true', 'title': 'Digital Research Infrastructure - Government of Canada', 'snippet': 'These include maintaining, expanding, and safeguarding Network Operations for the National Advanced Research and Education Network as essential ...', 'date': '2025-11-04', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://science.gc.ca/site/science/en/safeguarding-your-research/guidelines-and-tools-implement-research-security/national-security-guidelines-research-partnerships', 'title': 'National Security Guidelines for Research Partnerships - Science', 'snippet': 'The purpose of the guidelines is to integrate national security considerations into the development, evaluation, and funding of research partnerships.', 'date': '2025-05-12', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.cyber.gc.ca/en/guidance/baseline-cyber-security-controls-small-and-medium-organizations', 'title': 'Baseline cyber security controls for small and medium organizations', 'snippet': 'This document presents the Canadian Centre for Cyber Security baseline cyber security controls wherein we attempt to apply the 80/20 rule.', 'date': '2020-02-18', 'last_updated': '2025-11-14', 'matched': True}]</t>
+          <t>[{'url': 'https://sustainabledevelopment.govt.lc/news/cardtp-advances-plans-for-national-government-datacenter-and-governmental-cirt', 'title': 'Publications', 'snippet': 'A GOVERNMENTAL CYBER INCIDENT RESPONSE TEAM (CIRT) WILL MONITOR AND MITIGATE AGAINST CYBER THREATS.', 'date': '2025-02-12', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://ctu.int/wp-content/uploads/2021/02/CARICOM-Cyber-Security-and-Cybercrime-Action-Plan_Final_Ver3-copy.pdf', 'title': '[PDF] CARICOM-Cyber-Security-and-Cybercrime-Action-Plan', 'snippet': 'The CARICOM Cyber Security and Cybercrime Action Plan includes an executive summary, background, overview, governance, minimum standards, and implementation ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.youtube.com/watch?v=KF0CsSPH8qw', 'title': 'ST. LUCIA LAUNCHES CYBERSECURITY TRAINING ... - YouTube', 'snippet': 'In a move to bolster its digital defenses, the government is initiating a specialized program to educate and certify the next generation of ...', 'date': '2025-09-24', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099070325094027951/pdf/BOSIB-74dc9a02-f1a2-41ec-8f80-b4d3051b87c3.pdf', 'title': '[PDF] World Bank Document', 'snippet': '... Ministry of Finance of Saint Lucia, Ministry of Economic Development, Planning, ... establishment of the Cybersecurity Incident Response Team in ...', 'date': '2025-06-25', 'last_updated': None, 'matched': True}, {'url': 'http://www.opmsaintlucia.com/news/speeches/enhancing-our-infrastructure-for-security-and-prosperity', 'title': 'Enhancing Our Infrastructure for Security and Prosperity - OPM', 'snippet': "Speaker the SWF is to secure intergenerational wealth, address Saint Lucia's pledged climate adaptation and mitigation efforts and sustainable ...", 'date': '2025-04-23', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://sustainabledevelopment.un.org/content/documents/23570SAINT_LUCIA_VNR_REPORT_JUNE_2019.pdf', 'title': '[PDF] SAINT LUCIA - Sustainable Development Goals', 'snippet': 'The MTDS will focus on specific SDGs with a goal of producing a domino effect across multiple key sectors and will guide their implementation, monitoring and ...', 'date': None, 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://sustainabledevelopment.govt.lc/ministries/public-service-information-and-broadcasting/public-sector-modernisation', 'title': 'Public Sector Modernisation', 'snippet': 'Official Web Site of the Government of Saint Lucia, Ministry of Sustainable Development and Technology. ... cybersecurity, cloud infrastructure, platforms and ...', 'date': '2024-01-01', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://publications.iadb.org/publications/english/document/Cybersecurity-Are-We-Ready-in-Latin-America-and-the-Caribbean.pdf', 'title': '[PDF] Cybersecurity. Are we ready in Latin America and the Caribbean', 'snippet': 'To date, the government of Saint Lucia has not led a national cybersecurity awareness-raising campaign for society at large, and educational opportunities.', 'date': None, 'last_updated': '2024-04-30', 'matched': True}, {'url': 'https://www.oas.org/en/sms/cicte/docs/National-Cybersecurity-Strategies-Lessons-learned-and-reflections-ENG.pdf', 'title': '[PDF] National-Cybersecurity-Strategies-Lessons-learned-and-reflections ...', 'snippet': 'the need to promote sustainable development, the experience of a cyberattack, receipt of a digital investment loan, or the desire to promote digital ...', 'date': None, 'last_updated': '2024-02-04', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Training in VANUATU responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Science of Ukraine in UKRAINE responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7489,17 +7493,17 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ministry of Education and Training in VANUATU</t>
+          <t>Ministry of Education and Science of Ukraine in UKRAINE</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Ministry of Education and Training</t>
+          <t>Ministry of Education and Science of Ukraine</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7509,7 +7513,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Training (MoET) in Vanuatu is responsible for the integration of ICT in schools and infrastructure coordination, including the supervision of ICT facilities and services in schools (such as internet connectivity) in collaboration with other agencies like the Telecommunications Radiocommunications and Broadcasting Regulator (TRBR) and the Office of the Government Chief Information Officer (OGCIO) [1]. MoET is also tasked with cooperating with the National Cyber Security Centre (NCSC) to develop a curriculum that provides annual updated cybersecurity training for students at primary and secondary levels, as mandated by the 2013 National Cybersecurity Policy [1]. Additionally, MoET supports the development and implementation of strategies for the safe and responsible use of ICT in teaching and learning, and is involved in the assessment of child-specific cybersecurity risks in schools [1]. However, MoET is not explicitly mentioned as the lead agency for national cybersecurity policy, technical coordination, or incident response, nor does it host a national CERT/CSIRT/CIRT or lead a cybersecurity committee or council. Its role is focused on education and curriculum development rather than broader national cybersecurity governance or enforcement [1].</t>
+          <t>The Ministry of Education and Science of Ukraine is not explicitly mentioned as being responsible for national cybersecurity policy, technical coordination, or operational response in the available national strategies, laws, or governance reports. Its primary role is in the education sector, where it contributes to cybersecurity by overseeing the inclusion of cybersecurity topics in the national curricula for primary and secondary education, as well as supporting the training and development of cybersecurity specialists at the higher education level [2][6][7]. The Ministry's involvement is focused on building a cyber-aware society and supporting the development of skilled professionals, rather than direct cybersecurity governance, incident response, or enforcement [2][6][7]. The main bodies responsible for cybersecurity policy, coordination, and response in Ukraine are the National Coordination Center for Cyber Security, the Ministry of Defence, the Security Service of Ukraine, and the National Police [1][2][3][4].</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7519,14 +7523,14 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>[{'url': 'https://education-profiles.org/oceania/vanuatu/~technology', 'title': 'Vanuatu | Technology - Education Profiles', 'snippet': 'The 2019 National Security Strategy includes a dedicated section on cybersecurity which aims to protect individuals, government and the private ...', 'date': '2024-08-06', 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/vu/', 'title': 'NCSI :: Vanuatu - National Cyber Security Index', 'snippet': 'PREVENTIVE CYBERSECURITY INDICATORS · 7.1. Cyber threat analysis 0. 0. 3. Requirements. Criteria · 7.2. Public cyber threat reports 0. 0. 3. Requirements.', 'date': '2025-02-14', 'last_updated': '2025-04-08', 'matched': True}, {'url': 'https://digital.gov.vu/index.php/en/policy-legislation/legislation', 'title': 'Legislation - DCDT', 'snippet': "This Bill provides for the Cybercrime Act. Cybercrime is a global phenomenon that poses threats to Vanuatu's national infrastructure, public service delivery.", 'date': '2024-01-01', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'https://cert.gov.vu/images/ressources/Vanuatu_National_CyberSecurity_Strategy2030_Booklet.pdf', 'title': '[PDF] CYBER SECURITY - CERT Vanuatu', 'snippet': 'The Vanuatu National Cyber Security Strategy has been drafted by Dr. Jeffery Garae with the help of the Deputy.', 'date': '2021-03-09', 'last_updated': None, 'matched': True}, {'url': 'https://digital.gov.vu/index.php/en/what-we-do/information-system', 'title': 'Management Information Systems - DCDT', 'snippet': 'It is responsible for the administration of both physical and virtual systems resources housed within the Government Data Centres.', 'date': None, 'last_updated': '2025-10-08', 'matched': True}, {'url': 'https://www.gov.vu/images/publications/Vanuatu_National_Security_Strategy.pdf', 'title': '[PDF] Vanuatu - National Security Strategy Secure &amp; Resilient', 'snippet': "I am proud to present this document to the people of Vanuatu, our first-ever National. Security Strategy. The Strategy outlines Vanuatu's security ...", 'date': None, 'last_updated': '2024-02-07', 'matched': True}, {'url': 'https://nscs.gov.vu/index.php/en/policy-legislation/act?view=category&amp;id=24', 'title': 'Policy &amp; Legislation - NSCS', 'snippet': 'This handbook provides advice and procedures on how government agencies create, store and share information to ensure it is adequately protected. Vanuatu ...', 'date': '2025-02-24', 'last_updated': '2025-09-07', 'matched': True}, {'url': 'https://moet.gov.vu/docs/policies/MOET%20ICT%20Policy_2025.pdf', 'title': '[PDF] MOET ICT Policy', 'snippet': 'It provides clear guidance on how to effectively plan for the use of ICT resources together with key stakeholders and partners. The policy aligns with national ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/entity/rypexo1ghk?page=38&amp;file=1741024619030ydm2w3j86z.pdf', 'title': 'Vanuatu National Cyber Security Strategy 2030 • Page 38', 'snippet': 'well as broaden the scope and target for cybercriminals. Hence, it is crucial for organizations to defend against risks associated with evolving ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/UkraineCybersecurityGovernanceAssessment.pdf', 'title': '[PDF] Ukraine Cybersecurity Governance Assessment', 'snippet': 'The Cybersecurity Strategy will aim in particular to: improve the security of network and information systems; introduce a risk management system; create ...', 'date': None, 'last_updated': '2024-02-05', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ua/', 'title': 'NCSI :: Ukraine - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2025-09-30', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://dig.watch/resource/cybersecurity-strategy-of-ukraine', 'title': 'Cybersecurity Strategy of Ukraine | Digital Watch Observatory', 'snippet': 'Ensuring cyber security is one of the priorities in the national security system of Ukraine. The implementation of the specified priority will be carried out by ...', 'date': '2024-08-23', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2024/08/National-Cybersecurity-Governance_Ukraine_Davydiuk_Potii_2024.pdf', 'title': '[PDF] National Cybersecurity Governance: UKRAINE - CCDCOE', 'snippet': 'The CCDCOE is responsible for identifying and coordinating education and training solutions in the field of cyber defence operations for all ...', 'date': '2024-08-05', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.osce.org/files/f/documents/1/3/175051.pdf', 'title': '[PDF] Ukraine Information Security Concept - OSCE', 'snippet': "The concept aims to develop Ukraine's information potential, ensure information sovereignty, protect the national information space, and promote sustainable ...", 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://isij.eu/system/files/download-count/2023-01/3501_cybesecurity_education_ukraine.pdf', 'title': '[PDF] Ukrainian Educational System in the Field of Cybersecurity - isij.eu', 'snippet': 'Achievement of these objectives will allow Ukraine to modernize the education sys- tem in the field of cybersecurity. Cybersecurity education will be modern and ...', 'date': None, 'last_updated': '2025-01-03', 'matched': True}, {'url': 'https://its.iszzi.kpi.ua/article/view/315746', 'title': 'Educational priorities of training of cyber security specialists under ...', 'snippet': 'Priorities include national-patriotic values, preventive training, mastering military norms, digital skills, and AI for cyber security.', 'date': '2024-12-26', 'last_updated': '2025-09-06', 'matched': True}, {'url': 'https://www.unesco.org/en/articles/learning-amid-war-how-unesco-makes-ukrainian-schools-safer-children-and-teachers', 'title': 'Learning amid war: How UNESCO makes Ukrainian schools safer for', 'snippet': "With UNESCO's support, Ukrainian educational institutions are better prepared to provide safe, supportive learning environments for every child.", 'date': '2025-09-08', 'last_updated': '2025-03-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Science of Ukraine in UKRAINE responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Industry, Science, Technology and Innovation in CAMBODIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7534,29 +7538,27 @@
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science of Ukraine in UKRAINE</t>
+          <t>Ministry of Industry, Science, Technology and Innovation in CAMBODIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science of Ukraine</t>
+          <t>Ministry of Industry, Science, Technology and Innovation</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Science of Ukraine is not the primary body responsible for national cybersecurity policy, technical coordination, or operational response in Ukraine. The main responsibilities for cybersecurity governance, incident response, and policy implementation are assigned to other entities such as the National Coordination Center for Cyber Security, the Ministry of Defence, the Security Service of Ukraine, the National Police, and the State Service of Special Communications and Information Protection (SSSCIP) [1, 2, 3, 4].
-However, the Ministry of Education and Science does play a supporting role in cybersecurity by overseeing the inclusion of cybersecurity education and digital safety in national curricula at both primary and secondary levels [2, 5]. It is also involved in the modernization of the educational system to meet new cybersecurity challenges, including the development and coordination of research work in the field, amending curricula, and supporting the training of scientific and pedagogical staff [5]. The Ministry collaborates with international organizations such as CRDF Global on initiatives to deepen cooperation in digital security domains, which further underscores its role in education and awareness rather than direct cybersecurity policy or technical coordination [7].
-Therefore, while the Ministry of Education and Science contributes to building a cyber-aware society and supporting the development of cybersecurity competencies, it does not hold primary responsibility for cybersecurity governance, prevention, planning, response, or enforcement in Ukraine.</t>
+          <t>The Ministry of Industry, Science, Technology and Innovation (MISTI) is explicitly responsible for cybersecurity in Cambodia. MISTI leads and coordinates Science, Technology, and Innovation (STI) initiatives, including cybersecurity, as part of its mandate. The Ministry is responsible for the DigitalTech Roadmap, which identifies cybersecurity as a key technology for national digital development and outlines strategic recommendations for enhancing cybersecurity capabilities across sectors [6][9]. MISTI also oversees the implementation of the National Policy on STI 2020-2030 and the STI Roadmap 2030, both of which emphasize cybersecurity as a critical component of the digital ecosystem [1][5][6]. Furthermore, MISTI collaborates with the National Institute of Science, Technology and Innovation (NISTI) and the private sector on cybersecurity initiatives and participates in national cybersecurity capability assessments and training programs [3]. MISTI's role in cybersecurity is further reinforced by its involvement in the development of national cybersecurity frameworks and its coordination with other government ministries and agencies on cybersecurity matters [1][3][5][6].</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7566,14 +7568,14 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.dcaf.ch/sites/default/files/publications/documents/UkraineCybersecurityGovernanceAssessment.pdf', 'title': '[PDF] Ukraine Cybersecurity Governance Assessment', 'snippet': 'The Cybersecurity Strategy will aim in particular to: improve the security of network and information systems; introduce a risk management system; create ...', 'date': None, 'last_updated': '2024-02-05', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ua/', 'title': 'NCSI :: Ukraine - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2025-09-30', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://dig.watch/resource/cybersecurity-strategy-of-ukraine', 'title': 'Cybersecurity Strategy of Ukraine | Digital Watch Observatory', 'snippet': 'Ensuring cyber security is one of the priorities in the national security system of Ukraine. The implementation of the specified priority will be carried out by ...', 'date': '2024-08-23', 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2024/08/National-Cybersecurity-Governance_Ukraine_Davydiuk_Potii_2024.pdf', 'title': '[PDF] National Cybersecurity Governance: UKRAINE - CCDCOE', 'snippet': 'The CCDCOE is responsible for identifying and coordinating education and training solutions in the field of cyber defence operations for all ...', 'date': '2024-08-05', 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://isij.eu/system/files/download-count/2023-01/3501_cybesecurity_education_ukraine.pdf', 'title': '[PDF] Ukrainian Educational System in the Field of Cybersecurity - isij.eu', 'snippet': 'Achievement of these objectives will allow Ukraine to modernize the education sys- tem in the field of cybersecurity. Cybersecurity education will be modern and ...', 'date': None, 'last_updated': '2025-01-03', 'matched': True}, {'url': 'https://mezha.net/eng/bukvy/ukraine-mandates-updated-cybersecurity-rules-for-critical-infrastructure-protection/', 'title': 'Ukraine mandates updated cybersecurity rules for critical ...', 'snippet': 'The Ukrainian Cabinet of Ministers approved mandatory cybersecurity measures for critical infrastructure, updating general protection ...', 'date': '2025-11-14', 'last_updated': None, 'matched': True}, {'url': 'https://www.crdfglobal.org/news/crdf-global-signs-mou-with-ukraine-ministry-of-education-science-to-deepen-collaboration-across-digital-security-domains/', 'title': 'CRDF Global Signs MOU with Ukraine Ministry of Education ...', 'snippet': 'CRDF Global Signs MOU with Ukraine Ministry of Education &amp; Science to Deepen Collaboration Across Digital Security Domains. All News &amp; Insights · Critical ...', 'date': None, 'last_updated': '2024-09-17', 'matched': True}, {'url': 'https://www.unesco.org/en/articles/learning-amid-war-how-unesco-makes-ukrainian-schools-safer-children-and-teachers', 'title': 'Learning amid war: How UNESCO makes Ukrainian schools safer for', 'snippet': "With UNESCO's support, Ukrainian educational institutions are better prepared to provide safe, supportive learning environments for every child.", 'date': '2025-09-08', 'last_updated': '2025-03-27', 'matched': True}, {'url': 'https://its.iszzi.kpi.ua/article/view/315746', 'title': 'Educational priorities of training of cyber security specialists under ...', 'snippet': 'Ensuring the cyber security of the state in the conditions of a full-scale invasion of the Russian Federation, the spread of hostilities in the ...', 'date': '2024-12-26', 'last_updated': '2025-09-06', 'matched': True}]</t>
+          <t>[{'url': 'https://opendevelopmentcambodia.net/topics/science-and-technology-policy-and-administration/', 'title': 'Science and technology policy and administration', 'snippet': 'The Ministry of Industry, Science, Technology and Innovation (MISTI) established the policy framework, emphasizing five main areas, including Governance, ...', 'date': '2022-06-08', 'last_updated': '2025-09-20', 'matched': True}, {'url': 'https://secudemy.com/wp-content/uploads/2021/09/The-Science-Technology-And-Innovation-EcoSystem-of-Cambodia-MISTI-ESCAPE-2021.pdf', 'title': '[PDF] The Science, Technology and Innovation Ecosystem of Cambodia', 'snippet': 'In 2020, the Ministry of Industry, Science, Technology and Innovation (MISTI) was established to lead and coordinate STI initiatives that further develop ...', 'date': None, 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://cadt.edu.kh/wp-content/uploads/2024/06/Cambodian_Cyber_Security_Capability_Assessment_v1_0_04_04_22_DRAFT.pdf', 'title': '[PDF] Cambodian Cyber Security Capability Assessment | CADT', 'snippet': '... Ministry of Industry, Science,. Technology and Innovation (MISTI), National Institute of Science, Technology and Innovation (NISTI) and the private sector ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://asset.cambodia.gov.kh/mptc/media/Cambodia_Digital_Government_Policy_2022_2035_English.pdf', 'title': '[PDF] CAMBODIA DIGITAL GOVERNMENT POLICY 2022-2035', 'snippet': 'This includes the development of guidelines, action plans, and promotion of implementation, monitoring and evaluation in order to ensure ...', 'date': '2022-01-28', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://council.science/wp-content/uploads/2025/02/AI-Paper-Case-Study-Cambodia_V1.pdf', 'title': '[PDF] CAMBODIA - International Science Council', 'snippet': 'According to the MISTI (2023c) Science, Technology &amp; Innovation Report 2022, MISTI has the mandate as a government entity to oversee the STI sector, and is ...', 'date': None, 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://misti.gov.kh/public/file/202307291690603726.pdf', 'title': '[PDF] DigitalTech Roadmap', 'snippet': 'This comprehensive roadmap was developed by the Ministry of Industry, Science, Technology &amp; Innovation (MISTI), under the supervision of the ...', 'date': '2023-07-29', 'last_updated': '2024-04-05', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-cambodia-khm-government-the-complete-guide-to-using-ai-in-the-government-industry-in-cambodia-in-2025', 'title': 'The Complete Guide to Using AI in the Government Industry in ...', 'snippet': "Beginner's guide to using AI in Cambodia's government in 2025: strategy, readiness, ethics, use cases, and a practical roadmap for Cambodian ...", 'date': '2025-09-10', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.khmersme.gov.kh/wp-content/uploads/2023/09/202307311690795215-ENG.pdf', 'title': "[PDF] Industrializing Cambodia: Enterprise's Embracing Technological ...", 'snippet': "The study explores for deeper nuanced insights through the data obtained from Cambodia's. National technology adoption and technology transfer survey, conducted ...", 'date': None, 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://dig.watch/resource/cambodias-digital-technology-digitaltech-roadmap', 'title': "Cambodia's Digital Technology (DigitalTech) Roadmap", 'snippet': 'The Digital Technology (DigitalTech) Roadmap is a strategic document that highlights the vision, goals, strategic products and services, and key technologies ...', 'date': '2024-11-08', 'last_updated': '2025-08-29', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Science of Latvia in LATVIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Federal Ministry for Research, Technology and Space in GERMANY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7581,17 +7583,17 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science of Latvia in LATVIA</t>
+          <t>Federal Ministry for Research, Technology and Space in GERMANY</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Ministry of Education and Science of Latvia</t>
+          <t>Federal Ministry for Research, Technology and Space</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7601,7 +7603,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Science (MoES) of Latvia is mentioned in national cybersecurity strategy documents as promoting knowledge and understanding of cyberspace and its secure use, primarily through educational initiatives and guidelines for teachers and students [8]. However, it is not explicitly responsible for national cybersecurity policy, technical coordination, or the operation of national CERT/CSIRT entities. The primary responsibility for cybersecurity policy, implementation, and technical coordination lies with the Ministry of Defence, which hosts and oversees the National Cybersecurity Center and CERT.LV [1, 2, 3, 4, 5, 6]. The MoES participates in broader efforts to raise awareness and support education in cybersecurity but does not lead or coordinate national cybersecurity governance, prevention, planning, response, or enforcement activities [8, 9].</t>
+          <t>The Federal Ministry for Research, Technology and Space (historically a cabinet-level ministry in Germany) is not explicitly identified as responsible for national cybersecurity governance, strategy, policy implementation, or operational coordination. The main cybersecurity responsibilities reside with other federal bodies: the Federal Ministry of the Interior leads Germany’s cybersecurity strategy and operational coordination through agencies such as the Federal Office for Information Security (BSI); the Federal Ministry of Defence handles cyber defense aspects; and the Federal Foreign Office shapes international cybersecurity policy. The Research Ministry may support science and innovation relevant to cybersecurity but does not hold a central role in cybersecurity governance, enforcement, or operational response. This is corroborated by multiple sources identifying the Ministry of the Interior and Defence as primary actors in cybersecurity, while the Research Ministry is not mentioned in this context[1][2][3][5][6][7].</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7611,14 +7613,14 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.mod.gov.lv/en/cybersecurity', 'title': 'Cybersecurity - Aizsardzības ministrija', 'snippet': 'Mitigation and reduction of cyber threats and risks in Latvia depends on shared understanding and well-coordinated cybersecurity policy supported by all ...', 'date': '2025-10-01', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://eng.lsm.lv/article/society/defense/06.09.2024-national-cybersecurity-center-is-up-and-running.a567810/', 'title': 'National Cybersecurity Center is up and running', 'snippet': 'Its aim is to strengthen cybersecurity in Latvia and to implement the requirements of the revised Directive on measures for a high common level of cybersecurity ...', 'date': '2024-09-06', 'last_updated': '2024-09-25', 'matched': True}, {'url': 'https://cert.lv/uploads/par-mums/RFC_2350_CERT-LV_21072025.pdf', 'title': '[PDF] CERT.LV Description 1. About this document 2. Contact Information', 'snippet': 'CERT.LV is mandated by the National Cybersecurity Law to represent Latvia in the NIS CSIRTs Network3. CERT.LV is actively taking part in TF- ...', 'date': '2025-07-21', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://cyberwiser.eu/latvia-lv', 'title': 'Latvia (LV) - CYBERWISER.eu', 'snippet': 'The Latvian Computer Emergency Response Team - CERT.LV is responsible for monitoring and analysing developments in cyberspace, reacting to incidents and ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/inspiration/good-practices/latvian-cybersecurity-competence-community', 'title': 'Latvian Cybersecurity Competence Community', 'snippet': 'The overarching goal of the ECCC is to promote research, innovation and deployment of forward-looking solutions in the area of cybersecurity and ...', 'date': '2023-10-30', 'last_updated': '2025-04-10', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/latest/news/first-academic-book-cybersecurity-latvia', 'title': 'The first academic book on cybersecurity in Latvia', 'snippet': "It analyses Latvia's cybersecurity ecosystem, its processes, challenges and future perspectives, applying both exact and social science methods.", 'date': '2025-08-22', 'last_updated': '2025-08-24', 'matched': True}, {'url': 'https://www.mod.gov.lv/sites/mod/files/document/Kiberdrosibas%20strategija%202023%20ENG.pdf', 'title': '[PDF] THE CYBERSECURITY STRATEGY OF LATVIA', 'snippet': "The Information Centre of the Ministry of the Interior (IC) ensures the operation of information systems' ICT infrastructure for law enforcement agencies.", 'date': None, 'last_updated': '2024-12-12', 'matched': True}, {'url': 'http://afyonluoglu.org/PublicWebFiles/strategies/Europe/Latvia%202014-2018%20Cyber%20Security%20Strategy-EN.pdf', 'title': '[PDF] CYBER SECURITY STRATEGY OF LATVIA', 'snippet': '7. Ministry of Education and Science (MoES) – pro- motes knowledge and understanding of cyber space and its secure use. 8.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/latvia/~technology', 'title': 'Latvia | Technology - Education Profiles', 'snippet': 'The Ministry of Education and Science (MoES) established webinars and guidelines to support teachers and students in distance learning. The ...', 'date': '2025-01-14', 'last_updated': '2025-11-10', 'matched': True}]</t>
+          <t>[{'url': 'http://connections-qj.org/article/cyber-defence-germany-challenges-and-way-forward-bundeswehr', 'title': 'Cyber Defence in Germany: Challenges and the Way Forward for ...', 'snippet': 'The German Federal Government regards threats from cyber and information space as one of the key challenges facing German security policy. Digitalization has ...', 'date': '2002-01-19', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/all_files/cyber_eng.pdf', 'title': '[PDF] Cyber Security Strategy for Germany - ENISA', 'snippet': 'We want to provide specific incentives and funds for basic security functions certified by the state (e.g. electronic proof of identity or De-mail) to be used ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.bmi.bund.de/SharedDocs/downloads/EN/themen/it-digital-policy/cyber-security-strategy-for-germany2021.pdf?__blob=publicationFile&amp;v=4', 'title': '[PDF] Cyber Security Strategy for Germany 2021', 'snippet': 'Action Area 1 – “Remaining safe and autonomous in a digital environment” – focuses on citizens and society. The ten strategic objectives of this action area ...', 'date': None, 'last_updated': '2025-04-09', 'matched': True}, {'url': 'https://dig.watch/resource/cyber-security-strategy-for-germany-2021', 'title': 'Cyber Security Strategy for Germany | 2021', 'snippet': 'Cyber Security Strategy for Germany provides the framework for cybersecurity over the next five years and focuses on four areas of action: society, private.', 'date': '2024-03-20', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.bundesregierung.de/breg-en/federal-government/it-security-and-data-protection-469532', 'title': 'IT security and data protection - Bundesregierung', 'snippet': 'The Federal Office for Information Security (BSI) is the central IT security services provider for the German Government. Since 1991 the BSI has been providing ...', 'date': '2025-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.nationalesicherheitsstrategie.de/National-Security-Strategy-EN.pdf', 'title': '[PDF] Robust. Resilient. Sustainable. Integrated Security for Germany', 'snippet': 'The Federal Government will not ac- cept rule-breaking or aggressive conduct on the part of cyber actors; it will modernise its cyberse- curity architecture and ...', 'date': None, 'last_updated': '2024-02-01', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Federal_Ministry_of_Research,_Technology_and_Space', 'title': 'Federal Ministry of Research, Technology and Space - Wikipedia', 'snippet': 'The Federal Ministry of Research, Technology and Space is a cabinet-level ministry of Germany. It is headquartered in Bonn, with an office in Berlin.', 'date': '2025-05-08', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.interface-eu.org/storage/archive/files/11thed_cybersecurityarchitecture.pdf', 'title': "[PDF] Germany's Cybersecurity Architecture - interface", 'snippet': 'The Federal Ministry of Labor and Social Affairs has departmental responsibility for labor market policy, labor law, protection and medicine, pensions and ...', 'date': None, 'last_updated': '2025-03-07', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science, Technology and Productive Innovation in COMOROS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Research and Higher Education in LUXEMBOURG responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7626,27 +7628,27 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Productive Innovation in COMOROS</t>
+          <t>Ministry of Research and Higher Education in LUXEMBOURG</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Ministry of Science, Technology and Productive Innovation</t>
+          <t>Ministry of Higher Education and Research</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Available sources identify that in Comoros, the designation of cybersecurity responsibilities lies with the National Agency for Digital Development (ANADEN), specifically via its cybersecurity department, as per Article 6 of Law 21-012/AU on cybersecurity and cybercrime[1]. The Ministry of Science, Technology and Productive Innovation (often referred to as MINCYT in other countries) is described generally as an institution to promote science, technology, and innovation for economic and social development but does not appear linked explicitly to cybersecurity governance or enforcement in Comoros[5]. No evidence was found that this ministry hosts a national CERT/CSIRT, leads cybersecurity committees, enforces cybersecurity regulations, or participates in relevant events or intergovernmental initiatives related to cybersecurity in Comoros. Therefore, the ministry does not have a responsible role in the cybersecurity domain currently.</t>
+          <t>The Ministry of Higher Education and Research is involved in cybersecurity primarily through its support for education and research initiatives. For example, it is listed as a stakeholder in the national cybersecurity strategy and participates in interministerial coordination efforts, such as the Interministerial Coordination Committee for Cyber Prevention and Cybersecurity[3]. The ministry also collaborates with the University of Luxembourg, which hosts the Interdisciplinary Centre for Security, Reliability and Trust (SnT) and the Faculty of Science, Technology and Medicine (FSTM), both of which contribute to cybersecurity research and education[1]. However, the ministry does not appear to have direct responsibility for national cybersecurity policy, technical coordination, or operational response; these responsibilities are held by other entities such as the High Commission for National Protection (HCPN) and the Ministry of Economy[3][4]. The ministry's role is more focused on fostering research and training rather than leading or implementing cybersecurity measures.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7656,14 +7658,14 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/km/', 'title': 'NCSI :: Comoros - National Cyber Security Index', 'snippet': 'What is measured: The indicator measures government engagement in cybersecurity research and development, demonstrated through formal recognition and/or ...', 'date': '2025-02-14', 'last_updated': '2025-02-28', 'matched': True}, {'url': 'https://dig.watch/countries/comoros', 'title': 'Comoros | Digital Watch Observatory', 'snippet': "Comoros has adopted the 'Comores Numérique 2028' strategy—first drafted in 2018 and adopted in 2019—to develop national digital infrastructure, public.", 'date': '2025-07-05', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://www.uneca.org/stories/comoros-embraces-digital-innovation-to-boost-food-security-and-agricultural-development', 'title': 'Comoros Embraces Digital Innovation to Boost Food Security and ...', 'snippet': 'The workshop served as a platform for sharing best practices in digitalizing food production, processing, and trade. Government officials, ...', 'date': '2025-10-08', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://internews.org/wp-content/uploads/2023/11/ARISA-IEA-CHAPTER-5-Comoros.pdf', 'title': '[PDF] CHAPTER 5: COMOROS - Page 1', 'snippet': '• Develop research, training and technological innovations.5. According to the Law on Electronic Communications, ANRTIC is “legally distinct and functionally ...', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.g77.org/costis/documents/COSTIS_Final_Print.pdf', 'title': '[PDF] DIRECTORY OF INSTITUTIONS FOR SCIENCE, TECHNOLOGY ...', 'snippet': 'The Ministry of Science, Technology and Productive Innovation (MINCYT) was created with the aim of incorporating science and technology for the economic and ...', 'date': None, 'last_updated': '2024-02-02', 'matched': True}, {'url': 'https://www.un.org/technologybank/news/science-technology-and-innovation-ldc-issues', 'title': 'Science, technology and innovation LDC issues - the United Nations', 'snippet': 'Science, technology and innovation (STI) have been the main drivers of socioeconomic development, economic growth and industrialization throughout history.', 'date': None, 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://cybilportal.org/projects/comoros-national-cirt-assessment/', 'title': 'Comoros National CIRT Assessment - Cybil Portal', 'snippet': 'This 10-week online advanced course in Cybersecurity covers technological and geopolitical risks, policy challenges, actors, and initiatives related to ...', 'date': None, 'last_updated': '2024-10-25', 'matched': True}, {'url': 'https://futures.issafrica.org/geographic/countries/comoros/', 'title': 'Comoros - ISS African Futures', 'snippet': "This page asseses Comoros' current and projected future development, examining various sectoral scenarios and their potential impacts on the country's growth.", 'date': '2025-08-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://unctad.org/system/files/official-document/tir2025_en.pdf', 'title': '[PDF] Technology and Innovation Report 2025 - UNCTAD', 'snippet': 'The Technology and Innovation Report 2025: Inclusive Artificial Intelligence for Development was prepared by Wai Kit (Jackie) Si Tou and Antonio Vezzani, ...', 'date': None, 'last_updated': '2025-05-12', 'matched': True}, {'url': 'https://www.allconferencealert.com/comoros.html', 'title': 'Upcoming International Conferences in Comoros 2025-2026', 'snippet': 'Find the list of upcoming international conferences in Comoros 2025-2026 with an invitation letter. Subscribe &amp; get academic conference alerts for Comoros.', 'date': '2025-11-14', 'last_updated': '2025-11-14', 'matched': True}]</t>
+          <t>[{'url': 'https://www.uni.lu/en/news/competence-hub-in-research-in-cybersecurity-cyber-defence/', 'title': 'Competence Hub in Research in Cybersecurity and Cyber Defence', 'snippet': "The CyberHub is intended to strengthen and increase Luxembourg's ability to meet national and international challenges – such as increasingly serious and ...", 'date': '2023-11-15', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://meco.gouvernement.lu/en/secteurs-prioritaires/technologies-information.html', 'title': 'Information technologies - Ministry of the Economy - Gouvernement.lu', 'snippet': "Cybersecurity is an important factor in enhancing the country's economic attractiveness, playing a collaborative and inclusive role in ensuring ...", 'date': '2025-01-31', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2021/05/NCS_organisation_LUX-2021-FINAL.pdf', 'title': '[PDF] National Cybersecurity Organisation: Luxembourg - CCDCOE', 'snippet': 'The responsibility for and coordination of the national cybersecurity strategy lies with the High Commission for National Protection (Haut-Commissariat à la ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://hcpn.gouvernement.lu/dam-assets/fr/publications/brochure-livre/national-cybersecurity-strategy-3/national-cybersecurity-strategy-iii-en-.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY III', 'snippet': 'The committee shall coordinate, alongside the Cybersecurity Board – which plays a rather strategic role –, pragmatic initiatives as part of cyber security.', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/inspiration/resources/luxembourg-house-cybersecurity', 'title': 'Luxembourg House of Cybersecurity | Digital Skills and Jobs Platform', 'snippet': 'The Luxembourg House of Cybersecurity (LHC) stands as the cornerstone of cutting-edge cyber resilience in Luxembourg, committed to harnessing and advancing ...', 'date': '2023-12-14', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.lgk.lu/bts/cyb/', 'title': 'BTS Cybersecurity - Lycée Guillaume Kroll', 'snippet': "The Luxembourg Government has developed a cybersecurity strategy responding to the challenges of the digital transformation of today's society. « Cybersecurity ...", 'date': '2025-09-15', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.researchluxembourg.org/en/research-landscape/cybersecurity-luxembourg-education/', 'title': 'Cybersecurity Research in Luxembourg - Education', 'snippet': 'The Master in Cybersecurity and Cyber Defence at the University of Luxembourg offers training in different and complementary academic disciplines to ensure a ...', 'date': '2025-02-04', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://work-in-luxembourg.lu/offers/9c266989-d528-4d64-b8fb-bd7ebff7bd96', 'title': 'Project Officer in cybersecurity education (m/f) - Work-in-luxembourg.lu', 'snippet': 'The Project Officer will support the Principal Investigator(s) in the implementation of a project funded by Google, supporting the promotion of training ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://academicpositions.com/ad/university-of-luxembourg/2025/research-scientist-in-cybersecurity-fintech-systems/240400', 'title': 'Research Scientist in Cybersecurity &amp; FinTech Systems', 'snippet': 'Drive research in FinTech, Security, or AI; lead projects; publish; supervise students; PhD required; strong research, teaching, ...', 'date': '2025-10-24', 'last_updated': None, 'matched': True}, {'url': 'https://www.nature.com/naturecareers/job/12848188/research-scientist-in-cybersecurity-and-fintech-systems/', 'title': 'Research Scientist in Cybersecurity &amp; FinTech Systems - Nature', 'snippet': 'We look for researchers from diverse academic backgrounds to contribute to our projects in areas such as: Network Security, Information Assurance, Model-driven ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in MALI responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Higher Education in POLAND responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7671,17 +7673,17 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in MALI</t>
+          <t>Ministry of Science and Higher Education in POLAND</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>Ministry of Science and Higher Education</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7691,7 +7693,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research in Mali is responsible for the higher education sector and scientific research, including the regulation of universities and research institutions[6]. However, there is no evidence that this ministry is explicitly mentioned in national cybersecurity strategies, laws, or reports as being responsible for cybersecurity policy, implementation, or technical coordination. It does not host a national CERT/CSIRT/CIRT, nor is it described as leading or being a member of a cybersecurity committee, council, or working group. The ministry's responsibilities are focused on education and research, not on information security standards, network protection, or incident response. While higher education institutions may contribute to cybersecurity education and research, the ministry itself does not have a direct role in national cybersecurity governance, prevention, planning, response, or enforcement[6].</t>
+          <t>The Ministry of Science and Higher Education in Poland is involved in cybersecurity mainly through research and academic initiatives, such as participating in the creation of the National Cybersecurity Platform, which addresses integrated monitoring and threat warning for the state's cyberspace[7]. However, strategic and operational cybersecurity responsibilities, including policy-making, coordination, incident response, and legal frameworks, are primarily assigned to the Ministry of Digital Affairs (responsible for civilian cybersecurity policy and national CERT like CERT.GOV.PL), the Ministry of the Interior and Administration, and other specialized agencies[1][2][3][4][5]. There is no evidence that the Ministry of Science and Higher Education leads or coordinates national cybersecurity governance, policy, or response frameworks. Their role is more supportive, linked to research institutions and higher education, rather than direct cybersecurity governance or enforcement.</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7701,14 +7703,14 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>[{'url': 'https://ncsi.ega.ee/country/ml/', 'title': 'NCSI :: Mali - National Cyber Security Index - e-Governance Academy', 'snippet': 'STRATEGIC CYBERSECURITY INDICATORS ; 3.1. Cyber safety competencies in primary education · 2 ; 3.2. Cyber safety competencies in secondary education · 2 ; 3.3.', 'date': '2025-04-15', 'last_updated': '2025-07-29', 'matched': True}, {'url': 'https://cybilportal.org/projects-by?page=country&amp;_sft_country=mali', 'title': 'Mali - Cybil Portal', 'snippet': "An overview of Mali's cyber policy landscape is available on the UNIDIR Cyber Policy Portal here. This country/territory is in Sub-Saharan Africa.", 'date': '2025-07-01', 'last_updated': '2025-07-15', 'matched': True}, {'url': 'https://dig.watch/countries/mali', 'title': 'Mali | Digital Watch Observatory', 'snippet': "Mali's internet governance is shaped by its efforts to expand access, promote cybersecurity, and ensure digital inclusion. The Ministry of Digital Economy ...", 'date': '2025-09-20', 'last_updated': '2025-09-27', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Mali.pdf', 'title': '[PDF] Mali - GHS Index', 'snippet': '[2] The 2018 WHO "Monitoring Global Progress on Addressing AMR" report notes that Mali has a national AMR action plan, however there is insufficient evidence ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://clinregs.niaid.nih.gov/country/mali/vietnam', 'title': 'Clinical Research Regulation For Mali and Vietnam - ClinRegs - NIH', 'snippet': 'The competent authority responsible for regulating clinical trials, examining applications to import investigational drugs, and reviewing clinical trial ...', 'date': '2024-12-05', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/bitstreams/fff42cea-cbd9-5c7f-8f9a-289f3774719b/download', 'title': 'English Text (171.13 KB) - Open Knowledge Repository', 'snippet': 'The Ministry of Higher Education, Scientific Research, and Innovation (MESRSI) 18 is the key institution regulating the higher education sector. It sets the ...', 'date': None, 'last_updated': '2025-10-19', 'matched': True}, {'url': 'https://globalprivacyassembly.com/wp-content/uploads/2025/07/Global-Awards-Entry-Form-2025_Personal-Data-Protection-Authority-of-Mali_The-Masters-in-Digital-Law.pdf', 'title': '[PDF] GPA Global Privacy and Data Protection Awards 2025 Entry Form', 'snippet': 'To submit an entry to the GPA Global Privacy and Data Protection Awards, please complete and email this form to secretariat@globalprivacyassembly.org no ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.csis.org/analysis/why-mali-needs-new-peace-deal', 'title': 'Why Mali Needs a New Peace Deal - CSIS', 'snippet': 'This commentary outlines seven steps that Malian stakeholders and the international community can take to revamp the Accord and pave a more promising path ...', 'date': '2020-04-15', 'last_updated': '2025-11-13', 'matched': True}]</t>
+          <t>[{'url': 'https://ccdcoe.org/uploads/2018/10/NCSO_Poland_2017.pdf', 'title': '[PDF] National Cyber Security Organisation: POLAND - CCDCOE', 'snippet': 'Political and strategic responsibility for cyber security and strategic consideration and management is divided between the Ministry of Digital Affairs for the ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/4054482/NATO-Cooperative-Cyber-Defense-Centre-of.pdf', 'title': '[PDF] National Cyber Security Organisation: POLAND', 'snippet': 'Political and strategic responsibility for cyber security and strategic consideration and management is divided between the Ministry of Digital ...', 'date': '2016-09-05', 'last_updated': '2025-04-23', 'matched': True}, {'url': 'https://managementpapers.polsl.pl/wp-content/uploads/2024/07/198-Terlecka-Maciejewska.pdf', 'title': '[PDF] CYBERSECURITY IN POLISH SECURITY SYSTEM Introduction', 'snippet': 'Its main task is to monitor, analyse and react to cyberthreats on the national level.', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/pl/', 'title': 'NCSI :: Poland - National Cyber Security Index', 'snippet': 'A government entity has been assigned the responsibility for national-level cybersecurity and/or cyber threat assessments.', 'date': '2024-02-29', 'last_updated': '2025-09-08', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/PL_NCSS_2019_en.pdf', 'title': '[PDF] cybersecurity strategy of the republic of poland - ENISA', 'snippet': 'The purpose of this document is to define strategic objectives and relevant political and regulatory measures to achieve a high level of cybersecurity, ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://afyonluoglu.org/PublicWebFiles/strategies/Europe/Poland%202017-2022%20Cyber%20Security%20Strategy-EN.pdf', 'title': '[PDF] National Framework of Cybersecurity Policy of the Republic of ...', 'snippet': 'It will be a scientific platform composed of higher education institutions and scientific research centres specialising in cybersecurity technologies. In ...', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.gov.pl/web/ncbr-en/national-cybersecurity-platform', 'title': 'National Cybersecurity Platform - The National Centre for Research ...', 'snippet': 'The project significantly contributed to increasing the cybersecurity of Poland, its economy and citizens.. ... Ministry of Science and Higher Education and 19 ...', 'date': '2017-09-01', 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://www.cybersecurityandlaw.pl/nr-2/9.pdf', 'title': '[PDF] CYBERSECURITY AND HIGHER EDUCATION INSTITUTIONS ...', 'snippet': 'One role is to offer courses and educate people on how to be safe in the world dominated by cyberthreats. Second role is to inform students, staff and third ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'https://www.scitepress.org/Papers/2024/124230/124230.pdf', 'title': '[PDF] The Status and Management of Web-Related Security at Higher ...', 'snippet': 'This section presents the results for the security mechanisms configuration of HEIs in Poland, namely DNSSEC, HTTPS, SSL/TLS key lengths, security headers, and ...', 'date': None, 'last_updated': '2025-07-24', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research (MHESR) in TUNISIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Interministerial Delegation for Digital Transition in MONACO responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7716,17 +7718,17 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research (MHESR) in TUNISIA</t>
+          <t>Interministerial Delegation for Digital Transition in MONACO</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research (MHESR)</t>
+          <t>Interministerial Delegation for Digital Transition</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7736,7 +7738,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Scientific Research (MHESR) in Tunisia is responsible for the policies and direction of the higher education system, including the integration of information and communication technologies (ICT) in educational programs and supporting research activities [4][8]. It coordinates strategy and planning for research and provides advice on research priorities, including those related to digital technologies and cybersecurity [6]. However, the primary responsibility for national cybersecurity policy, implementation, and technical coordination lies with the National Cybersecurity Agency (NCA), which operates under the Ministry of Communication Technologies and Digital Economy [1]. The NCA is tasked with overseeing the implementation of national cybersecurity policies, providing guidance, enforcing compliance, and facilitating protection against cyber threats [1]. While MHESR supports cybersecurity-related research and education, and participates in broader research and innovation coordination, it does not host the national CERT/CSIRT, lead cybersecurity committees, or oversee information security standards for the country as a whole [1][2][3]. Its role is more focused on education and research rather than direct cybersecurity governance or incident response.</t>
+          <t>Monaco's National Cybersecurity Strategy and related cybersecurity governance primarily involve the Monaco Digital Security Agency (AMSN) and associated public-private partnerships. The Interministerial Delegation for Digital Transition, responsible for broader digital transformation, is involved in digital policy but there is no explicit evidence from available sources that it directly governs, coordinates, or implements national cybersecurity strategies or hosts cybersecurity operational centers such as CERT/CSIRT. Instead, AMSN takes a lead role in cybersecurity initiatives, including collaboration with French entities and organizing cybersecurity exercises. The Delegation may participate in cybersecurity-related committees or working groups as part of its digital mandate, but its direct responsibility for cybersecurity policy or enforcement is not clearly established in official documents or reports.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7746,14 +7748,14 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>[{'url': 'https://generisonline.com/an-overview-of-cybersecurity-regulations-in-tunisia/', 'title': 'An Overview of Cybersecurity Regulations in Tunisia', 'snippet': 'In Tunisia, organizations are mandated to adhere to specific reporting obligations when faced with cybersecurity breaches. These obligations ...', 'date': '2024-11-30', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tn/', 'title': 'NCSI :: Tunisia - National Cyber Security Index', 'snippet': 'The themes of research activities are related to emerging networks and systems, digital technologies, cybersecurity, data intelligence and digital services.', 'date': '2024-11-15', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.itu.int/ITU-D/cyb/events/2009/tunis/docs/tunis-cybersecurity-forum-report-june-09.pdf', 'title': '[PDF] ITU Regional Cybersecurity Forum 2009 Tunis, Tunisia', 'snippet': 'In the area of capacity building, training and education, Tunisia has been able to create the first national security institute on the African.', 'date': '2009-06-08', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-5', 'title': 'Ministry of Higher Education and Scientific Research', 'snippet': "Government ministry that is responsible for determining the policies and direction of the higher education system in Tunisia. CHEA's Mission.", 'date': '2004-02-01', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://www.ijmcer.com/wp-content/uploads/2024/01/IJMCER_B0610915.pdf', 'title': '[PDF] Tunisian higher education during the crisis of covid-19 - IJMCER', 'snippet': 'ABSTRACT : This paper aims to show the importance of digital technology in the resolution of various natural disasters, in this case, the COVID-19 pandemic ...', 'date': None, 'last_updated': '2024-09-30', 'matched': True}, {'url': 'https://projects.research-and-innovation.ec.europa.eu/sites/default/files/rio/report/PSF%2520Tunisia_Final%2520report.pdf', 'title': '[PDF] Research priorities and private participation in R&amp;D', 'snippet': 'Tunisia relies on a wide system of small research laboratories and units. Laboratories have limited research budgets and carry out all the administrative duties ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://apps.dtic.mil/sti/trecms/pdf/AD1153822.pdf', 'title': '[PDF] Tunisia CSIRT Case Study - DTIC', 'snippet': 'This legislation started with a law against cybercrime in 1999, a law on e-commerce in 2000, and two very important laws in 2004: a law on the protection of ...', 'date': None, 'last_updated': '2024-01-18', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/148116/mhesr', 'title': '️Ministry of Higher Education and Scientific Research (Tunisia ...', 'snippet': 'Its key functions include policy and strategy development for higher education and studies in science, higher education administration, assisting science ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://news-tunisia.tunisienumerique.com/tunisia-higher-education-al-khawarizmi-center-targeted-by-cyberattack/', 'title': 'Tunisia – Higher Education: Al Khawarizmi Center Targeted by ...', 'snippet': 'The center urged network users to adopt secure login practices, including the use of strong and up-to-date passwords. Comments. Facebook Twitter', 'date': '2025-07-10', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://dig.watch/resource/monacos-cybersecurity-strategy', 'title': "Monaco's Cybersecurity Strategy | Digital Watch Observatory", 'snippet': 'Creating International Links and Enhancing Cyberspace Stability: Collaborating with international partners to maintain a stable and secure cyberspace. The ...', 'date': '2024-06-24', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.monaco-tribune.com/en/2024/12/monaco-joins-forces-with-france-to-combat-cyberattacks/', 'title': 'Monaco joins forces with France to combat cyberattacks', 'snippet': "The Principality is introducing a new scheme to help victims and prevent risks related to cyber attacks. The public interest group 'Action ...", 'date': '2024-12-06', 'last_updated': '2024-12-06', 'matched': True}, {'url': 'https://www.lesassisesdelacybersecurite.com/en/partners/monaco-cybersecurity-initiative', 'title': 'Monaco Cyber Security Initiative - Les Assises', 'snippet': 'Our mission is to offer high-quality, secure and sovereign cloud services to national and international businesses and strategic organisations. Find out more.', 'date': '2025-10-03', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://www.dgssi.gov.ma/en/publications/national-cybersecurity-strategy', 'title': 'National Cybersecurity Strategy | DGSSI', 'snippet': 'The strategy aims to improve governance, strengthen legal frameworks, protect national systems, and establish a trusted environment, with guidelines by 2030.', 'date': '2024-10-01', 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://en.gouv.mc/Policy-Practice/Security/News/National-cybersecurity-exercise-organised', 'title': 'National cybersecurity exercise organised', 'snippet': '“TARTARE”, a national cybersecurity exercise to test the response capabilities of the Monaco Cyber Security Agency (AMSN) and teams at the Digital Transition ...', 'date': '2024-07-01', 'last_updated': '2025-04-03', 'matched': True}, {'url': 'https://websites.fraunhofer.de/CIPedia/index.php/National_Cyber_Security_Strategy', 'title': 'National Cyber Security Strategy - CIPedia', 'snippet': "'National cybersecurity strategy' means a coherent framework of a Member State providing strategic objectives and priorities in the area of cybersecurity.", 'date': '2025-10-10', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://en.gouv.mc/Policy-Practice/A-Modern-State/News/First-Meeting-of-the-Cybermalveillance-Sub-committee', 'title': 'First Meeting of the “Cybermalveillance” Sub-committee - Monaco', 'snippet': 'The Sub-committee on Malicious ICT Incidents met for the first time on Friday 17 October 2025 at the Ministry of State.', 'date': '2025-10-17', 'last_updated': None, 'matched': True}, {'url': 'https://www.asperiq.com/cyberstrategy', 'title': 'On National Cybersecurity Strategy - WHITE PAPER - Asperiq', 'snippet': 'Given the critical importance of cybersecurity it is thus imperative for governments to properly set out their national cybersecurity strategy. ... Monaco ...', 'date': '2025-02-11', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/pages/national-strategies-repository.aspx', 'title': 'National Cybersecurity Strategies Repository - ITU', 'snippet': '\u200b\u200bThis Repository includes the National Cybersecurity Strategies, be it in a form of a single or multiple documents or as an integral part of a broader ICT ...', 'date': '2025-09-10', 'last_updated': '2025-09-10', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Communication, Technology and Innovation in SIERRA LEONE responsible for cybersecurity?
+          <t xml:space="preserve">Is the NONE in KUWAIT responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7761,27 +7763,27 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ministry of Communication, Technology and Innovation in SIERRA LEONE</t>
+          <t>NONE in KUWAIT</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ministry of Communication, Technology and Innovation</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>The Ministry of Communication, Technology and Innovation (MCTI) is explicitly responsible for cybersecurity in Sierra Leone. The Cybersecurity and Crime Act 2021 established the National Cybersecurity Coordination Centre (NC3), which is an agency under the Ministry and is tasked with managing cybersecurity incidents and providing strategic leadership on cybersecurity policy and implementation[1]. The Ministry is also responsible for formulating policies, legislation, and regulations for the Communication, Technology, and Innovation sector, which includes cybersecurity[5]. The Ministry's mission and functions include providing strategic policy guidance and direction over the technology and innovation landscape, coordinating with other agencies and international partners, and ensuring effective and efficient service delivery, which encompasses cybersecurity[2][5]. The Ministry has launched initiatives to enhance cybersecurity, including establishing legal frameworks, increasing public awareness, and boosting local capabilities, all in support of the country's digital transformation goals[4]. The Ministry's leadership in cybersecurity is further evidenced by its role in the development and implementation of the National Cybersecurity Strategy, which outlines the creation of institutional, legal, and regulatory frameworks for effective cybersecurity governance[3][6].</t>
+          <t>There is no governmental body or ministry in Kuwait named 'NONE' responsible for cybersecurity. The assessment of cybersecurity responsibilities in Kuwait indicates that agencies such as the Central Agency for Information Technology (CAIT), Communications and Information Technology Regulatory Authority (CITRA), and the National Cybersecurity Center play key roles in cybersecurity governance, policy implementation, and enforcement. The ministry or organization named 'NONE' does not exist nor hold cybersecurity responsibilities according to available information and official sources[2][4][5][7].</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7791,14 +7793,14 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ilraj.org/publications/sierra-leones-cybersecurity-odyssey-progress-challenges-and-future-paths/', 'title': "Sierra Leone's Cybersecurity Odyssey: Progress, Challenges, and ...", 'snippet': 'The Cybersecurity and Crime Act 2021, enacted two years ago, was designed to address the growing challenges of cyber threats, digital crimes, and data security.', 'date': '2023-11-24', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://sldevelopmentencyclopaedia.org/2_gov/2_3mcti.html', 'title': 'Ministry of Communication, Technology and Innovation (M)', 'snippet': 'To provide strategic policy guidance and direction over Communication, Technology and Innovation landscape through strategic coordination and collaboration of ...', 'date': '2024-01-01', 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://mocti.gov.sl/wp-content/uploads/2024/12/Sierra-Leone-CYBERSECURITY-STRATEGY.pdf', 'title': '[PDF] Sierra-Leone-CYBERSECURITY-STRATEGY.pdf', 'snippet': "Sierra Leone's cybersecurity strategy aims to create frameworks, promote education, develop cyber capabilities, protect infrastructure, and strengthen ...", 'date': None, 'last_updated': '2025-03-24', 'matched': True}, {'url': 'https://www.ecofinagency.com/telecom/2403-46533-sierra-leone-strengthens-cybersecurity-to-drive-digital-transformation', 'title': 'Sierra Leone Strengthens Cybersecurity to Drive Digital ...', 'snippet': 'Sierra Leone has launched several initiatives to enhance its cybersecurity, including establishing clear legal frameworks, increasing public awareness, and ...', 'date': '2025-03-24', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://mocti.gov.sl/about-the-ministry/', 'title': 'About the Ministry', 'snippet': 'Functions of the Ministry · 1. Formulate appropriate policies, legislation, and regulations for the Communication, Technology and Innovation Sector; · 2. Provide ...', 'date': '2025-01-01', 'last_updated': '2025-02-05', 'matched': True}, {'url': 'https://dig.watch/resource/sierra-leones-national-cybersecurity-strategy-2021-2025', 'title': "Sierra Leone's National Cybersecurity Strategy (2021–2025)", 'snippet': "The strategy's purpose is to strengthen Sierra Leone's cybersecurity posture by addressing vulnerabilities and ensuring the safety and reliability of its ...", 'date': '2024-12-06', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/files/cmmsierraleonereportfinal0pdf', 'title': '[PDF] CYBERSECURITY CAPACITY REVIEW', 'snippet': 'Currently, Sierra Leone does not have a national cybersecurity strategy document. However, a draft cybersecurity policy is in the process of adoption and a.', 'date': None, 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://mocti.gov.sl/directorate-of-technology/', 'title': 'Directorate of Technology', 'snippet': 'Explore and apply emerging technologies such as artificial intelligence, cloud computing, and cybersecurity to strengthen digital governance. Promote data ...', 'date': '2024-01-01', 'last_updated': '2024-11-14', 'matched': True}]</t>
+          <t>[{'url': 'https://www.dcpas.osd.mil/sites/default/files/kuwait_-_senior_cyber_advisor.pdf', 'title': '[PDF] KUWAIT – Senior Cyber Advisor Title - DCPAS', 'snippet': 'Assist in the establishment and promulgation of cyber-related policies that improve cyber security and cyber defense within defense institutions. • Familiarity ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.glaco.com/blog/kuwaits-ai-revolution-law-cloud-and-cybersecurity-at-the-core-of-digital-transformation/', 'title': "Kuwait's AI Revolution: Law, Cloud, and Cybersecurity at the Core of ...", 'snippet': 'The Central Agency for Information Technology, known as “CAIT,” leads governmental digital transformation and supports the development of ...', 'date': '2025-10-29', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://cait.gov.kw/en/media-center/news-events/26/', 'title': '“Kuwait Hackers” opened the first Kuwait Cyber \u200b\u200bSecurity ...', 'snippet': 'The first Kuwait Cyber Security Conference, organized by Kuwait Hackers, aimed to discuss information security, bring together relevant authorities, and raise ...', 'date': '2019-02-18', 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://www.citra.gov.kw/sites/en/Pages/cybersecurity.aspx', 'title': 'Cybersecurity and Emergency Response', 'snippet': 'The authority works on cybersecurity at the national level, providing security alerts, awareness, and information on social media risks, and has a national ...', 'date': '2025-08-31', 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/kuwait-information-communication-technology', 'title': 'Kuwait - Information &amp; Communication Technology', 'snippet': 'The Government of Kuwait is developing a National Cybersecurity Center to protect government networks and critical infrastructure assets.', 'date': '2023-12-30', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.microsoft.com/en/customers/story/1436902925936599811-central-agency-for-information-technology-government-azure-microsoft-365-en-kuwait', 'title': "Kuwait's Central Agency for Information Technology partners with ...", 'snippet': "Kuwait's Central Agency for Information Technology (CAIT) was founded in 2006 to supervise the implementation of e-government plans and ...", 'date': '2021-11-10', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/kw/', 'title': 'NCSI :: Kuwait - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2024-12-15', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.intelligenceonline.com/government-intelligence/2023/02/28/security-service-reform-gives-kuwaiti-interior-ministry-greater-powers,109918762-art', 'title': 'Security service reform gives Kuwaiti interior ministry greater powers', 'snippet': 'As such, Kuwait hopes to have an independent cybersecurity service by 2025, which will complement its existing national cybersecurity centre.', 'date': '2023-02-28', 'last_updated': '2025-06-30', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Research in ESTONIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Communications and Information Technology (MCIT) in SAUDI ARABIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7806,17 +7808,17 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ministry of Education and Research in ESTONIA</t>
+          <t>Ministry of Communications and Information Technology (MCIT) in SAUDI ARABIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ministry of Education and Research</t>
+          <t>Ministry of Communications and Information Technology (MCIT)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -7826,10 +7828,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Research in Estonia is explicitly responsible for cybersecurity, particularly in the areas of education, training, and digital competence development. The 2019-2022 Cybersecurity Strategy identifies the Ministry as a key stakeholder involved in the implementation of sectoral policy, including the development of cyber defence studies in general education schools and the provision of cybersecurity training for teachers and students[1]. The Ministry is tasked with ensuring the supply of training in cybersecurity for both general and vocational schools, measuring the knowledge and skills of students and teachers, and integrating cybersecurity into information science syllabi[1].
-The 2024-2030 Cybersecurity Strategy further highlights the growing role of the Ministry of Education and Research in cyber literacy and the development of a national institutional structure for cybersecurity, emphasizing the need for cross-sectoral cooperation and shared capabilities[3]. The Ministry is also involved in the coordination of cybersecurity policy objectives through the Cyber Security Council, which includes all ministries[3].
-Additionally, the Ministry collaborates with other government bodies, such as the Ministry of Defence, on initiatives like the Cyber Command internship program for IT students, which provides practical experience in cybersecurity and defence[4]. The Ministry is also a partner in projects focused on improving cybersecurity skills and fostering digital expertise, such as the CyberHubs project, which analyzes skills gaps and develops national cybersecurity strategies[5].
-These roles and responsibilities are further supported by the Ministry's involvement in digital competence development, including the coordination of digital competence frameworks and assessment instruments for educational contexts[7]. The Ministry's active participation in national strategies, councils, and collaborative projects demonstrates its high level of responsibility for cybersecurity in Estonia.</t>
+          <t>The Ministry of Communications and Information Technology (MCIT) in Saudi Arabia is responsible for cybersecurity policy, implementation, and technical coordination. MCIT is explicitly mentioned as the parent ministry for the Communications, Space, and Technology Commission (CST), which regulates the ICT and space sectors, and for the Saudi Data and AI Authority (SDAIA), which oversees the national data and AI agenda, both of which are integral to cybersecurity governance[2]. MCIT is also responsible for developing policies that govern the communications and information technology sector, which includes cybersecurity[2][7]. The Ministry plays a key role in implementing Saudi Arabia's digital transformation and cybersecurity initiatives, including the development of robust digital infrastructure and the promotion of innovation and cybersecurity[7]. MCIT is also involved in national cybersecurity programs and works with other entities such as the National Cybersecurity Authority (NCA), which is responsible for the National Cybersecurity Strategy and setting minimum cybersecurity standards for national and government agencies[2][4][6][9]. MCIT's involvement in these areas demonstrates its high level of responsibility for cybersecurity in Saudi Arabia.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7839,14 +7838,14 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cyberwiser.eu/estonia-ee', 'title': 'Estonia (EE) - CYBERWISER.eu', 'snippet': 'The role of cybersecurity in the information society is to ensure conditions for efficient and secure use of opportunities offered by ICTs. The objectives and ...', 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://pircenter.org/wp-content/uploads/2022/10/Cyber-Security-Strategy-Ministry-of-Derence-Estonia.pdf', 'title': '[PDF] Cyber Security Strategy', 'snippet': "In order to reduce the vulnerability of Estonia's cyberspace and to better protect Estonian information systems, the Government has tasked the Ministry of ...", 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/EE_NCSS_2024_en.pdf', 'title': '[PDF] Cybersecurity strategy 2024–2030 Cyber-conscious Estonia - ENISA', 'snippet': '+ The role of the Ministry of Education and Research in cyber literacy is certainly growing, as one of the development needs highlighted is that ...', 'date': None, 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.educationestonia.org/education-cybersecurity-military-service/', 'title': 'Cybersecurity education: Estonian innovative solution for IT students', 'snippet': "The main mission of the Estonian Cyber Command is to carry out operations in cyberspace to provide command support for the Ministry of Defence's ...", 'date': '2021-06-26', 'last_updated': '2025-04-14', 'matched': True}, {'url': 'https://cyberhubs.eu/wp-content/uploads/2024/10/Estonia_Cybersecurity-skills-needs-analysis-report-1.pdf', 'title': '[PDF] Cybersecurity Skills Needs Analysis report Estonia. - CyberHubs', 'snippet': 'Currently. 2024, due to changes in governance responsibility, cyber security matters are transferring into the responsibility of the. Ministry ...', 'date': '2024-10-28', 'last_updated': '2025-03-10', 'matched': True}, {'url': 'https://e-estonia.com/solutions/cyber-security/cyber-range-exercises/', 'title': 'Cyber range &amp; exercises - e-Estonia', 'snippet': "Estonia's cyber ranges train experts in digital resilience, with CR14, Rangeforce, and CybExer enhancing cybersecurity for governments, NATO, ...", 'date': '2025-02-13', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/estonia/~technology', 'title': 'Estonia | Technology - Education Profiles', 'snippet': 'The ProgeTiger programme is a joint initiative by the Ministry of Education and Research and the former organization HITSA, which has been ...', 'date': '2023-06-04', 'last_updated': '2025-11-05', 'matched': True}]</t>
+          <t>[{'url': 'https://en.wikipedia.org/wiki/Ministry_of_Communications_and_Information_Technology_(Saudi_Arabia)', 'title': 'Ministry of Communications and Information Technology (Saudi ...', 'snippet': 'a Saudi government ministry that was established in 1926 and is responsible for the communications and information technology sector in the kingdom.', 'date': '2019-03-17', 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/saudi-arabia-information-and-communications-technology', 'title': 'Saudi Arabia - Information and Communications Technology', 'snippet': 'Ministry of Communications and Information Technology (MCIT): MCIT is responsible for the development of policies that govern the communication ...', 'date': '2024-01-03', 'last_updated': '2025-06-16', 'matched': True}, {'url': 'https://legacy.export.gov/article?id=Saudi-Arabia-information-communications-technology', 'title': 'Saudi Arabia - Information and Communications Technology', 'snippet': 'In October 2017, the SAG established the Saudi Cyber Security Authority and Saudi Federation for Cyber Security, Programming, and Drones. SAG ...', 'date': '2020-01-22', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://defence.ai/perspectives/ksa-vision-2030-cybersecurity/', 'title': 'Saudi Arabia Vision 2030: Cybersecurity at the Core of the National ...', 'snippet': 'It has a broad-spectrum role in supporting national entities as they increase resilience against cyber attacks, helping authorities assess and ...', 'date': '2023-09-19', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.moj.gov.sa/English/Ministry/Pages/informationSecurityStrategy.aspx', 'title': 'Information Security Strategy - Ministry - وزارة العدل', 'snippet': 'Providing the distinctive services the Ministry needs to enhance its cybersecurity and accomplish its mission of institutional work and digital transformation.', 'date': '2025-11-10', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.ncc.gov.sa/en/Aboutus/Pages/Cybersecurity.aspx', 'title': 'National Cybersecurity Strategy', 'snippet': 'Here comes the role of the National Cybersecurity Authority in developing, implementing, and supervising strategies. National Cybersecurity Strategy. The ...', 'date': '2025-01-15', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://www.plugandplaytechcenter.com/partner/ministry-of-communications-and-information-technology', 'title': 'Ministry of Communications and Information Technology', 'snippet': 'MCIT focuses on developing robust digital infrastructure, promoting innovation, and enhancing cybersecurity. It plays a crucial role in implementing Saudi ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.mcit.gov.sa/en/strategy-ministry-communications-and-information-technology', 'title': 'The Strategy of the Ministry of Communications and Information ...', 'snippet': 'Government websites use the HTTPS protocol for encryption and security. Secure websites in the Kingdom of Saudi Arabia use the HTTPS protocol for encryption.', 'date': '2024-02-18', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://nca.gov.sa/national_cybersecurity_strategy-en.pdf', 'title': '[PDF] National Cybersecurity Strategy', 'snippet': "Direct national efforts into reinforcing the security of the Kingdom's cyberspace by following secure practices needed to address new technology. • Protect ...", 'date': '2025-02-26', 'last_updated': '2025-05-06', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Technology and Artificial Intelligence in LEBANON responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology (MoST) in VIETNAM responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7854,27 +7853,27 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ministry of Technology and Artificial Intelligence in LEBANON</t>
+          <t>Ministry of Science and Technology (MoST) in VIETNAM</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ministry of Technology and Artificial Intelligence</t>
+          <t>Ministry of Science and Technology (MoST)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>The Ministry of Technology and Artificial Intelligence (MITAI) in Lebanon is explicitly responsible for cybersecurity as part of its mandate. According to multiple sources, the ministry's responsibilities include enhancing cybersecurity measures, protecting personal data, and building trust in digital systems[2][3]. The ministry is tasked with overseeing the development of a unified national digital platform for public services, which inherently involves cybersecurity considerations[1]. Additionally, the ministry is involved in drafting legislation and regulations for technology and AI, including cybersecurity frameworks[3]. The minister has also publicly emphasized the need for regulation in areas such as privacy and cybersecurity, indicating the ministry's active role in these domains[6][10]. These responsibilities and public statements confirm that MITAI holds a high level of responsibility for cybersecurity in Lebanon.</t>
+          <t>The Ministry of Science and Technology (MoST) in Vietnam is not the primary authority responsible for cybersecurity policy, implementation, or enforcement. As of 2025, the Ministry of Public Security (MoPS) has taken over the main responsibility for cybersecurity, including the management of network information security and the oversight of cybersecurity-related administrative procedures and public services [1, 4, 5]. MoST's role is now more focused on science, technology, and innovation, and it is involved in the broader digital transformation and technology governance landscape, but not in direct cybersecurity management or enforcement [5, 6, 7]. MoST may participate in events and initiatives related to digital infrastructure and technology, but it does not host a national CERT/CSIRT/CIRT, lead cybersecurity committees, or oversee information security standards or network protection in the same way as MoPS [5, 6, 7].</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7884,14 +7883,14 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.tahawultech.com/news/lebanon-joins-global-tech-race-with-appointment-of-its-first-ministry-of-ai/', 'title': 'Lebanon joins global tech race with appointment of its first Ministry ...', 'snippet': "The Ministry of Technology and AI will be responsible for shaping national digital strategy and accelerating Lebanon's transition into a ...", 'date': '2025-09-12', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://en.kataeb.org/articles/lebanon-seeks-to-attract-global-tech-giants-with-new-ministry-of-technology-and-ai', 'title': 'Lebanon Seeks to Attract Global Tech Giants with New Ministry of ...', 'snippet': 'Contributing to cybersecurity, protecting personal data, and building trust in digital systems. Supporting the digital economy through training ...', 'date': '2025-09-11', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://www.alsafanews.com/article/20225-a-new-ministry-for-technology-and-artifificial-intelligence-in-lebanon-reformist', 'title': 'A New Ministry for Technology and Artificial Intelligence in Lebanon', 'snippet': '- Drafting legislation and regulations for technology and AI. - Creating a unified digital ecosystem to streamline government services via a ...', 'date': '2025-09-25', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://omsar.gov.lb/Assets/docs/Appraisal-SEP-Lebanon-Digital-Acceleration-Project.pdf', 'title': '[PDF] Lebanese Republic Office of the Minister of State for Administrative ...', 'snippet': 'addressed security risks posed by emerging technologies, particularly artificial intelligence and weaponized generative models for exploit creation and ...', 'date': None, 'last_updated': '2025-09-16', 'matched': True}, {'url': 'https://tips-lb.org/wp-content/uploads/2025/02/Building-Lebanons-AI-Future-Strategic-Priorities.pdf', 'title': "[PDF] Building Lebanon's AI Future: Strategic Priorities Date: February 2025", 'snippet': '▫ Cybersecurity Measures: Invest in affordable cybersecurity solutions to protect AI infrastructure from cyber threats. 5.3 Building an AI Ecosystem. 5.4 ...', 'date': None, 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.thenationalnews.com/future/2025/10/14/governments-cant-afford-to-be-passive-on-ai-warns-lebanese-minister-at-gitex/', 'title': "Governments can't afford to be passive on AI, warns Lebanese ...", 'snippet': '“We should regulate some aspects of AI related to privacy, cybersecurity, [and] deep fake,” Mr Shehadi said, stressing selective regulation.', 'date': '2025-10-14', 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-lebanon-lbn-government-the-complete-guide-to-using-ai-in-the-government-industry-in-lebanon-in-2025', 'title': 'The Complete Guide to Using AI in the Government Industry in ...', 'snippet': "Beginner's guide to using AI in Lebanon's government in 2025: policies, startups, conference insights, and a practical roadmap for Lebanon.", 'date': '2025-09-10', 'last_updated': '2025-09-12', 'matched': True}, {'url': 'https://today.lorientlejour.com/article/1478828/the-formation-of-lebanons-new-ai-ministry-has-the-tech-community-divided.html', 'title': "The formation of Lebanon's new AI ministry has the tech community ...", 'snippet': "Lebanon's new AI ministry aims to propel digital growth, but opinions are divided on its necessity, infrastructure readiness, and potential ...", 'date': '2025-09-26', 'last_updated': None, 'matched': True}, {'url': 'https://govinsider.asia/intl-en/article/whats-the-potential-of-agentic-ai-for-public-sector-cybersecurity', 'title': "What's the potential of agentic AI for public sector cybersecurity?", 'snippet': 'Agentic AI can help multiply the effectiveness of limited cybersecurity talent while providing uninterrupted threat detection and response at ...', 'date': '2025-11-10', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://maghrebi.org/2025/10/14/lebanon-minister-urges-strong-ai-regulation-from-governments/', 'title': 'Lebanon Minister urges stronger AI regulation from governments', 'snippet': "Kamal Shehadi, Lebanon's Minister of Technology and AI, expressed his opinion on the need for AI framework policies to adapt to the rapidly.", 'date': '2025-10-14', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://en.vietnamplus.vn/cybersecurity-protection-function-handed-over-to-public-security-ministry-post310779.vnp', 'title': 'Public security ministry takes over cybersecurity protection role', 'snippet': 'The Ministry of Information and Communications (MIC) transferred its responsibility of ensuring cybersecurity to the Ministry of Public Security (MoPS)', 'date': '2025-02-28', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://www.economica.vn/Content/files/LAW%20&amp;%20REG/Law%20on%20Cyber%20Security%202018.pdf', 'title': '[PDF] Law on Cyber Security 2018.pdf - Economica Vietnam', 'snippet': 'Responsibilities of the Ministry of Information and Communications ... To uniformly manage science and technology research on cryptography; and to produce, use.', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.tilleke.com/insights/draft-of-vietnams-consolidated-2025-cybersecurity-law-released/', 'title': "Draft of Vietnam's Consolidated 2025 Cybersecurity Law Released", 'snippet': 'Definition and Obligations of Service Providers · Online Information Management · IT System Classification and Protection Requirements · Removal of ...', 'date': '2025-07-24', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://vietnamnet.vn/en/vietnam-to-unify-cybersecurity-laws-under-new-cybersecurity-law-2025-2390601.html', 'title': 'Two key cybersecurity laws to be merged under Ministry of Public ...', 'snippet': '“We will also refine the system of cybersecurity standards and technical regulations by integrating and renaming existing network information ...', 'date': '2025-04-13', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://techforgoodinstitute.org/blog/country-spotlights/rules-in-action-vietnams-evolving-tech-governance/', 'title': "Rules in Action: Vietnam's Evolving Tech Governance", 'snippet': 'The newly established merged ministry is responsible for the comprehensive management of the four essential pillars: (i) Science, (ii) ...', 'date': '2025-08-21', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://beta-en.mic.gov.vn/vietnam-aims-to-be-a-leading-cybersecurity-hub-in-asia-by-2030-197240506160048254.htm', 'title': 'Vietnam aims to be a leading cybersecurity hub in Asia by 2030', 'snippet': "The issuance of the national digital architecture framework affirms the Ministry of Science and Technology's leading role in shaping policies ...", 'date': '2024-05-06', 'last_updated': '2025-09-23', 'matched': True}, {'url': 'https://english.mic.gov.vn/becoming-a-cybersecurity-power-to-have-peace-197146814.htm', 'title': 'Becoming a cybersecurity power to have peace - English', 'snippet': 'A cybersecurity powerhouse is like a military power in the real world. Vietnam must be a power in cybersecurity.', 'date': '2021-03-29', 'last_updated': '2025-05-13', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Research and Higher Education in LUXEMBOURG responsible for cybersecurity?
+          <t xml:space="preserve">Is the National Secretariat of Science, Technology and Innovation (SENACYT) in PANAMA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7899,17 +7898,17 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ministry of Research and Higher Education in LUXEMBOURG</t>
+          <t>National Secretariat of Science, Technology and Innovation (SENACYT) in PANAMA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Research</t>
+          <t>National Secretariat of Science, Technology and Innovation (SENACYT)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7919,7 +7918,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education and Research in Luxembourg is involved in cybersecurity primarily through its support for education and research initiatives. For example, it is mentioned as a participant in the national cybersecurity governance structure, collaborating with other ministries and agencies on the implementation of the national cybersecurity strategy and related policies (Reference [3]). The ministry's involvement includes supporting academic programs and research projects in cybersecurity, such as those at the University of Luxembourg, which contribute to the national ecosystem of cyber resilience (Reference [1], [7]). However, the ministry does not have primary responsibility for the technical coordination, policy implementation, or operational response to cybersecurity incidents. These responsibilities are mainly held by other entities such as the High Commission for National Protection (HCPN), the Ministry of Economy, and the National Agency for the Security of Information Systems (ANSSI) (References [3], [4]). Therefore, while the Ministry of Higher Education and Research plays a supportive role in cybersecurity through education and research, its direct responsibility for cybersecurity governance, prevention, planning, response, or enforcement is limited.</t>
+          <t>The National Secretariat of Science, Technology and Innovation (SENACYT) in Panama is primarily tasked with promoting and supporting scientific, technological, and innovative development to drive sustainable progress in the country[4][6]. It is an autonomous institution focusing on science, technology, and innovation as integral parts of national development policy. However, there is no evidence from the national cybersecurity strategies, laws, or reports that SENACYT has explicit responsibility for cybersecurity governance, policy implementation, technical coordination, or enforcement in Panama. The main cybersecurity roles, including managing the national CSIRT (Computer Security Incident Response Team), policy coordination, and cybersecurity strategy implementation, reside with the National Authority for Government Innovation (Autoridad Nacional para la Innovación Gubernamental, AIG) and its CSIRT Panama[1][2][3][5][7]. SENACYT does not host the national CERT/CSIRT, lead or participate in national cybersecurity committees, or oversee information security standards. Therefore, while SENACYT may indirectly contribute to technology development, its direct responsibility for cybersecurity is minimal to none based on available sources.</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7929,14 +7928,14 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.uni.lu/en/news/competence-hub-in-research-in-cybersecurity-cyber-defence/', 'title': 'Competence Hub in Research in Cybersecurity and Cyber Defence', 'snippet': "The CyberHub is intended to strengthen and increase Luxembourg's ability to meet national and international challenges – such as increasingly serious and ...", 'date': '2023-11-15', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://meco.gouvernement.lu/en/secteurs-prioritaires/technologies-information.html', 'title': 'Information technologies - Ministry of the Economy - Gouvernement.lu', 'snippet': "Cybersecurity is an important factor in enhancing the country's economic attractiveness, playing a collaborative and inclusive role in ensuring ...", 'date': '2025-01-31', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://ccdcoe.org/uploads/2021/05/NCS_organisation_LUX-2021-FINAL.pdf', 'title': '[PDF] National Cybersecurity Organisation: Luxembourg - CCDCOE', 'snippet': 'The responsibility for and coordination of the national cybersecurity strategy lies with the High Commission for National Protection (Haut-Commissariat à la ...', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://hcpn.gouvernement.lu/dam-assets/fr/publications/brochure-livre/national-cybersecurity-strategy-3/national-cybersecurity-strategy-iii-en-.pdf', 'title': '[PDF] NATIONAL CYBERSECURITY STRATEGY III', 'snippet': 'The committee shall coordinate, alongside the Cybersecurity Board – which plays a rather strategic role –, pragmatic initiatives as part of cyber security.', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://digital-skills-jobs.europa.eu/en/inspiration/resources/luxembourg-house-cybersecurity', 'title': 'Luxembourg House of Cybersecurity | Digital Skills and Jobs Platform', 'snippet': 'The Luxembourg House of Cybersecurity (LHC) stands as the cornerstone of cutting-edge cyber resilience in Luxembourg, committed to harnessing and advancing ...', 'date': '2023-12-14', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.lgk.lu/bts/cyb/', 'title': 'BTS Cybersecurity - Lycée Guillaume Kroll', 'snippet': "The Luxembourg Government has developed a cybersecurity strategy responding to the challenges of the digital transformation of today's society. « Cybersecurity ...", 'date': '2025-09-15', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://www.researchluxembourg.org/en/research-landscape/cybersecurity-luxembourg-education/', 'title': 'Cybersecurity Research in Luxembourg - Education', 'snippet': 'The Master in Cybersecurity and Cyber Defence at the University of Luxembourg offers training in different and complementary academic disciplines to ensure a ...', 'date': '2025-02-04', 'last_updated': '2025-10-17', 'matched': True}, {'url': 'https://work-in-luxembourg.lu/offers/9c266989-d528-4d64-b8fb-bd7ebff7bd96', 'title': 'Project Officer in cybersecurity education (m/f) - Work-in-luxembourg.lu', 'snippet': 'The Project Officer will support the Principal Investigator(s) in the implementation of a project funded by Google, supporting the promotion of training ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://academicpositions.com/ad/university-of-luxembourg/2025/research-scientist-in-cybersecurity-fintech-systems/240400', 'title': 'Research Scientist in Cybersecurity &amp; FinTech Systems', 'snippet': 'Drive research in FinTech, Security, or AI; lead projects; publish; supervise students; PhD required; strong research, teaching, ...', 'date': '2025-10-24', 'last_updated': None, 'matched': True}, {'url': 'https://www.nature.com/naturecareers/job/12848188/research-scientist-in-cybersecurity-and-fintech-systems/', 'title': 'Research Scientist in Cybersecurity &amp; FinTech Systems - Nature', 'snippet': 'We look for researchers from diverse academic backgrounds to contribute to our projects in areas such as: Network Security, Information Assurance, Model-driven ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://fmm.com.pa/overview-of-cybersecurity-in-panama/', 'title': 'Overview Of Cybersecurity In Panama - FABREGA MOLINO', 'snippet': 'Prevent and stop criminal behavior in cyberspace or the use of it for any kind of crime or illegal acts. · Strengthen the cyber security of critical national ...', 'date': '2024-02-19', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://dig.watch/resource/panamas-national-cybersecurity-strategy-2021-2024', 'title': "Panama's National Cybersecurity Strategy 2021-2024", 'snippet': "Panama's National Cybersecurity Strategy 2021-2024 · Protecting privacy and fundamental rights: · Deterring and punishing cybercriminal behavior: · Strengthening ...", 'date': '2024-11-25', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/panama-cybersecurity', 'title': 'Panama - Cybersecurity - International Trade Administration', 'snippet': 'Additionally, the government aims to move beyond awareness into actively combating cyber threats and online services disruption.', 'date': '2023-04-05', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.devex.com/organizations/la-secretaria-nacional-de-ciencia-tecnologia-e-innovacion-senacyt-78616', 'title': 'La Secretaría Nacional de Ciencia, Tecnología e Innovación ...', 'snippet': 'All SENACYT activities, projects and programs aim to strengthen, support, induce and promote the development of science, technology and innovation.', 'date': '1997-04-15', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/server/api/core/bitstreams/befd0b2e-73c9-554a-a336-ae8f4cb0f266/content', 'title': '[PDF] Republic of Panama ICT Sector Policy Note for Panama', 'snippet': 'The mandate of the CSIRT foresees its key role in ensuring cyber security in the public sector, i.e. coordination of efforts to raise levels of ...', 'date': '2014-08-06', 'last_updated': '2025-04-22', 'matched': True}, {'url': 'https://www.senacyt.gob.pa/en/about-us-3/', 'title': 'About us - senacyt', 'snippet': "SENACYT Panama: An autonomous institution that promotes scientific, technological, and innovative development for the country's sustainable progress.", 'date': '2025-11-06', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://www.oecd.org/content/dam/oecd/en/publications/reports/2019/09/digital-government-review-of-panama_2ef7c0cd/615a4180-en.pdf', 'title': '[PDF] Digital Government Review of Panama (EN) - OECD', 'snippet': "The OECD review assesses Panama's digital agenda, noting its investment in digitalization and suggesting actions to improve social well-being and economic ...", 'date': None, 'last_updated': '2024-12-25', 'matched': True}, {'url': 'https://somosimpactopositivo.com/en/new-law-against-cybercrime/', 'title': 'Panama Adopts New and Forceful Law Against Cybercrime ...', 'snippet': 'Under this new legislation, penalties for computer crimes will be stiffened, establishing penalties of 5 to 10 years imprisonment for identity ...', 'date': '2025-08-09', 'last_updated': None, 'matched': True}, {'url': 'https://www.lac4.eu/lac4-brings-panama-to-cyberwizards-2025/', 'title': 'LAC4 Brings Panama to CyberWizards 2025', 'snippet': 'Team of five girls aged 13 to 16 will participate in a training camp to learn about the world of hacking, cybersecurity and coding. ... Panama ( ...', 'date': '2025-08-12', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://panama.cybertechconference.com/sites/panama22/files/2025-02/agenda%20A4%202025%20(2).pdf', 'title': '[PDF] | Cybertech Latin America 2025', 'snippet': 'Join us as we explore the importance of preparedness, response, and recovery to maintain business continuity in the face of cyberattacks.', 'date': '2025-02-20', 'last_updated': '2025-09-20', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in SYRIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the National Space Science Agency in BAHRAIN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7944,17 +7943,17 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research in SYRIA</t>
+          <t>National Space Science Agency in BAHRAIN</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education and Scientific Research</t>
+          <t>National Space Science Agency</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7964,7 +7963,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>There is no direct evidence from national strategies, laws, or official reports explicitly assigning the Ministry of Higher Education and Scientific Research in Syria responsibility for national cybersecurity policy, implementation, or technical coordination. The Ministry is involved in higher education and scientific research and participates in partnerships and educational programs that include cybersecurity topics, such as training programs and academic curricula relating to cybersecurity and advanced technological fields[1][2][6][7][8]. However, cybersecurity governance, policy, and technical infrastructure responsibilities appear to reside primarily with other entities, such as the Ministry of Communication and Technology, which by law manages information technology policies and information systems security[2]. There is no indication that the Ministry of Higher Education and Scientific Research hosts a national CERT/CSIRT or leads cybersecurity committees or enforcement related to cybersecurity in Syria. Therefore, its role is mainly educational and indirect regarding cybersecurity capacity building rather than governance or operational responsibility.</t>
+          <t>The National Space Science Agency (NSSA) of Bahrain is involved in cybersecurity, but its role is focused on the development and implementation of cybersecurity technologies for space systems, such as the 'Aman' payload project, which demonstrates secure connections between satellites and ground stations using advanced encryption standards and reconfigurable cyber-security architecture [2][3][5]. This work is primarily aimed at protecting satellite data and ensuring the privacy of space-based communications, rather than overseeing national cybersecurity policy, implementation, or technical coordination for the country as a whole [2][3][5]. The NSSA's cybersecurity activities are specific to space science and technology, and there is no evidence that it leads or is a member of a national cybersecurity committee, hosts a national CERT/CSIRT/CIRT, or oversees information security standards for the broader national infrastructure [2][3][5]. Therefore, while the NSSA contributes to cybersecurity in the context of space systems, it does not have a high level of responsibility for the country's overall cybersecurity governance, prevention, planning, response, or enforcement.</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7974,14 +7973,14 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.dailysabah.com/turkiye/tika-leads-cybersecurity-education-for-syrian-professionals/news', 'title': 'TIKA leads cybersecurity education for Syrian professionals', 'snippet': 'TIKA and MAPS conducted a foundational-level cybersecurity training at Damascus University. The training included 60 participants.', 'date': '2025-07-04', 'last_updated': '2025-07-04', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/syrian-arab-republic/~technology', 'title': 'Syrian Arab Republic | Technology - Education Profiles', 'snippet': 'The Ministry of Education in the Syrian Arab Republic serves as a driving force in fostering a digitally enriched and progressive educational landscape.', 'date': '2024-02-15', 'last_updated': '2025-10-24', 'matched': True}, {'url': 'https://www.hcsr.gov.sy/pdf/projects/national_policy/en_report.pdf', 'title': '[PDF] and our fundamental direction that we will focus on after this great', 'snippet': "The Article 31 of the new Syrian Constitution outlined the State's support for scientific research with all its requirements. The Prime Ministry Office has ...", 'date': None, 'last_updated': '2025-08-24', 'matched': True}, {'url': 'https://www.syteca.com/en/blog/cybersecurity-in-educational-institutions', 'title': 'Cybersecurity Compliance for Educational Institutions - Syteca', 'snippet': 'In this article, we highlight the importance of having robust cybersecurity in the education industry and list major cybersecurity standards, laws, and ...', 'date': '2023-09-20', 'last_updated': '2025-06-15', 'matched': True}, {'url': 'https://css.ethz.ch/content/dam/ethz/special-interest/gess/cis/center-for-securities-studies/pdfs/Cyber-Reports-2017-05.pdf', 'title': '[PDF] Cyber activities in the Syrian conflict CSS CY - CSS/ETH Zürich', 'snippet': 'Cyber activities in the Syrian conflict included website defacement, DDoS attacks, and malware, used by various groups to target enemies and promote ideologies.', 'date': None, 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://levant24.com/news/2025/09/scientific-and-education-partnership-between-syria-and-saudi-arabia/', 'title': 'Scientific and Education Partnerships Between Syria and Saudi ...', 'snippet': 'The visit aimed to open broad horizons for a strategic partnership in the fields of higher education and scientific research, based on the ...', 'date': '2025-09-26', 'last_updated': '2025-09-28', 'matched': True}, {'url': 'https://edu-syria.eu/author/aboutair/', 'title': 'admin - Edu Syria', 'snippet': 'On 14 October 2025 The Syrian Minister of Higher Education, Dr. Marwan Al-Halabi, praised the pioneering role of the EDU-SYRIA ...', 'date': '2025-08-31', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://svuonline.org/en/training/networking', 'title': 'Networking and Information Security Training "NIST" | SVU', 'snippet': 'The attached scheme shows the most important courses that make an IT graduate a professional (in the field of networking and data security)', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.ncsc.gov.bh/en/programs-initiatives/national-cyber-capabilities/sectoral-cyber-drill.html', 'title': 'Sectoral Cyber Drill - National Cyber Security Center', 'snippet': "NCSC cyber drills aim to test entities' cyber capacity, measuring their ability to identify, detect and respond to a security incident.", 'date': '2023-01-01', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://www.unoosa.org/oosa/en/ourwork/access2space4all/awardees/bahrain_nssa.html', 'title': 'National Space Science Agency - ), Bahrain - UNOOSA', 'snippet': 'The FPGA-based Payload will be a technology demonstration payload aiming to test the optimized reconfigurable cyber-security architecture to aid the data ...', 'date': '2021-04-08', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.sspi.org/vision-orbit-bahrain-and-middle-east-shaping-future-space', 'title': 'Bahrain and the Middle East Shaping the Future of Space - Sspi.org', 'snippet': 'Aysha Alharam is Chief Satellite Design Department for the National Space Science Agency (NSSA) of Bahrain. She began her career in 2018 when she was selected ...', 'date': '2025-08-01', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://www.ncsc.gov.bh/assets%2Fimages%2FMSM_Es_Booklet_En_d97ca2b2a0.pdf', 'title': "[PDF] A cybersecurity guidebook to help Bahrain's MSMEs build resilience", 'snippet': 'MSMEs must align with national cybersecurity strategies to safeguard their operations and contribute to regional economic stability. Page 9. National Cyber ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.bahrain.bh/wps/portal/en/BNP/HomeNationalPortal/ContentDetailsPage/!ut/p/z1/pVTRVqMwEP0V9sFHyBAgwCO1W1rXWm3Ftbx4QkhpVghIo3X36ze4e9ZTqq2e5QXC3Mlk7twblKJblEr6JAqqRC1pqdfLlNzZEw_GwSnA5dDFcHUTzslgasM0dtD3XYB9nYAGTKL5bDS0wbVR-pF8eOeJ4GP5_wDji8shkNk48LE_cGYh3s3vhccOukEpShsmcrQEnruEgGeuHD8zXXA8MwQbzMBjOLOxw_LM69BMqkat0TKTzR1tT4Bm9aMy1Job90IWeV2dgJCruq14brC6qh6lYC98Gk1J5eYEWl5SpYOqbgTT601DGTeozI0NE1wyfqQrfeydrkIyjYDgECbkPLY1bW-yGsFgjgcOQLyAg6xo0nr1w4QAkDixbftMzzfosRpeh0TXx5GLF7EDM9jL3wN8bqr7gPSwaPr19wjarX81xDpsn14ko8A-nbl79fcA6WF6zo4RrH0lfjw8pJGWUy0Vf1bo9oCeeMXbQi8Mxdla1mVdCP6GkGirxEowQUtD6E3LUhSdnF6k1dZZrTRK95YeM0UP0DP1NzgC6Fx_bEJvAV4VOsP9EmGSjIAE8ch1STD3PR8t9Yz89znWInoSfIsSqZ2ob7LFq9Ez5mGesZUZ-NwxXZ-DmeHcM3GQkxUOQoc7IRrD3wrvnDE6x3_2pKzzNlpum43V1K0qudpYpZD3XbB706bpquqrwBJZZW0bi-aVkNaal_qzaawtL3WQW3rkFZ9SSQve9tvrWWByoL0P3WNnxyz4SYX-7423oC1qqiRJqsD5KV4eM83I_Ot8_GtwYcb6t1dUd1MVRF9-A0p2f7Q!/dz/d5/L0lHSkpZQSEhL0lLakFBQnhBQUVSQS80TlZFL2Vu/', 'title': 'Space and Science - Bahrain.bh', 'snippet': 'It is also equipped with advanced cyber security technologies that ensure the privacy of satellite data, granting Bahrain a pioneering role in ...', 'date': '2025-04-15', 'last_updated': '2025-11-15', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Information and Communications in BHUTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Higher Education and Scientific Research in TUNISIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -7989,27 +7988,27 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ministry of Information and Communications in BHUTAN</t>
+          <t>Ministry of Higher Education and Scientific Research in TUNISIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Ministry of Information and Communications</t>
+          <t>Ministry of Higher Education and Scientific Research</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>The Ministry of Information and Communications (MoIC) in Bhutan plays a central role in the country's cybersecurity governance. The Bhutan Computer Incident Response Team (BtCIRT), which is the national CERT, operates under the Department of Information Technology and Telecom (DITT) within the MoIC[3][5]. The MoIC is explicitly mentioned in national strategies and legal frameworks as responsible for cybersecurity policy formulation and implementation[2][4]. MoIC oversees the development of cybersecurity regulations, coordination of incident response, monitoring cybersecurity threats in governmental networks, and works on cybersecurity awareness and capacity building in Bhutan[1][3][4]. Additionally, it leads or participates in national cybersecurity committees, such as the High-Level ICT steering committee chaired by the Prime Minister, and collaborates with international entities to strengthen the cybersecurity posture of Bhutan[3][5]. This demonstrates a comprehensive and authoritative mandate over cybersecurity policy, implementation, and coordination in Bhutan.</t>
+          <t>The Ministry of Higher Education and Scientific Research in Tunisia primarily oversees higher education policy, scientific research promotion, university management, and academic institution oversight without explicit responsibility for national cybersecurity governance. The Al-Khwarizmi Computing Center under this ministry responded to a cyberattack targeting universities, coordinating with cybersecurity authorities, but the core cybersecurity mandate and technical coordination belong to the National Cybersecurity Agency (NCA) under the Ministry of Communication Technologies and Digital Economy. Tunisian cybersecurity legal frameworks and national strategies assign cybersecurity policy, enforcement, and incident response mainly to the NCA and related ministries. Therefore, the Ministry of Higher Education and Scientific Research plays an involved but supporting role in cybersecurity, focusing on protecting university networks rather than leading national cybersecurity governance or policy implementation[1][2][5].</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8019,14 +8018,14 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>[{'url': 'https://tech.gov.bt/cybersecurity-division/', 'title': 'Cybersecurity Division – Government Technology Agency', 'snippet': 'Carryout cyber security awareness in the country. Be a competent source of cyber incident information. Coordinate cyber security incident response at the ...', 'date': '2024-07-02', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://generisonline.com/understanding-cybersecurity-regulations-in-bhutan-an-overview/', 'title': 'Understanding Cybersecurity Regulations in Bhutan: An Overview', 'snippet': 'In Bhutan, organizations must adhere to specific mandatory security measures as stipulated by national cybersecurity regulations. These measures ...', 'date': '2024-11-09', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://www.itu.int/hub/2020/11/what-we-learned-while-developing-bhutans-first-national-cybersecurity-strategy/', 'title': "What we learned while developing Bhutan's first National ... - ITU", 'snippet': 'Our formal mandate is to provide both reactive and proactive cybersecurity services to the entire nation, including guiding the development of ...', 'date': '2020-11-05', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/files/cmmreviewreportbhutanseptember2015pdf', 'title': '[PDF] Building Cyber-security Capacity in the Kingdom of Bhutan', 'snippet': 'It is important to understand the cyber-security capacity in Bhutan in order to invest effectively in both security and new technologies. Through a ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://thegfce.org/member-and-partner/bhutan/', 'title': 'Bhutan - The GFCE', 'snippet': "BtCIRT's mission is to enhance cyber security in Bhutan by enabling cyber security information coordination and by establishing computer security incident ...", 'date': None, 'last_updated': '2025-06-24', 'matched': True}, {'url': 'https://www.bicma.gov.bt/wp-content/uploads/2024/10/Code-of-Practice-for-Information-Security-Cybersecurity-and-privacy-Protection-for-ICT-Service-Providers-1.pdf', 'title': '[PDF] Code of Practice for Information Security, Cybersecurity and Privacy ...', 'snippet': 'Cybersecurity means the “collection of tools, policies, security concepts, security safeguards, guidelines, risk management approaches, actions, training, ...', 'date': None, 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://wbgeprocure-rfxnow.worldbank.org/rfxnow/waffle/upload/advertisementAttachment/439523/file.html', 'title': '[DOC] Bhutan - WBGeProcure RFx Now', 'snippet': 'In the new GovTech structure, BtCIRT is part of the Cybersecurity Division, though, in practice, there are no other functions under the Cybersecurity Division, ...', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://tech.gov.bt/wp-content/uploads/2025/05/National-Cybersecurity-Strategy_Published.pdf', 'title': '[PDF] National Cybersecurity Strategy - GovTech Agency', 'snippet': 'Its purpose is protecting the cyberspace of Bhutan and preparing the nation to combat various aspects of cybersecurity risks and threats that could adversely ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://news-tunisia.tunisienumerique.com/cyberattack-targeting-tunisian-universities-emergency-measures-and-security-reinforcement/', 'title': 'Cyberattack Targeting Tunisian Universities - Tunisie numerique', 'snippet': 'A recent cyberattack has targeted the national university network in Tunisia, raising significant concerns about data security and the protection of personal ...', 'date': '2025-07-10', 'last_updated': '2025-07-12', 'matched': True}, {'url': 'https://generisonline.com/an-overview-of-cybersecurity-regulations-in-tunisia/', 'title': 'An Overview of Cybersecurity Regulations in Tunisia', 'snippet': 'In Tunisia, organizations are mandated to adhere to specific reporting obligations when faced with cybersecurity breaches. These obligations ...', 'date': '2024-11-30', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/tn/', 'title': 'NCSI :: Tunisia - National Cyber Security Index', 'snippet': 'The themes of research activities are related to emerging networks and systems, digital technologies, cybersecurity, data intelligence and digital services.', 'date': '2024-11-15', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.itu.int/ITU-D/cyb/events/2009/tunis/docs/tunis-cybersecurity-forum-report-june-09.pdf', 'title': 'ITU Regional Cybersecurity Forum 2009 Tunis, Tunisia', 'snippet': 'In the area of capacity building, training and education, Tunisia has been able to create the first national security institute on the African.', 'date': '2009-06-08', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/148116/mhesr', 'title': '☑️Ministry of Higher Education and Scientific Research ( ...', 'snippet': 'Its key functions include policy and strategy development for higher education and studies in science, higher education administration, assisting science ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.chea.org/international-directory/ministry-higher-education-and-scientific-research-5', 'title': 'Ministry of Higher Education and Scientific Research', 'snippet': "Government ministry that is responsible for determining the policies and direction of the higher education system in Tunisia. CHEA's Mission.", 'date': '2004-02-01', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://www.ijmcer.com/wp-content/uploads/2024/01/IJMCER_B0610915.pdf', 'title': 'Tunisian higher education during the crisis of covid-19', 'snippet': 'by A SAHLI · 2024 · Cited by 1 — ABSTRACT : This paper aims to show the importance of digital technology in the resolution of various natural disasters, in this case, the COVID-19 pandemic ...', 'date': None, 'last_updated': '2024-09-30', 'matched': True}, {'url': 'https://apps.dtic.mil/sti/trecms/pdf/AD1153822.pdf', 'title': 'Tunisia CSIRT Case Study - DTIC', 'snippet': 'This legislation started with a law against cybercrime in 1999, a law on e-commerce in 2000, and two very important laws in 2004: a law on the protection of ...', 'date': None, 'last_updated': '2024-01-18', 'matched': True}, {'url': 'https://projects.research-and-innovation.ec.europa.eu/sites/default/files/rio/report/PSF%2520Tunisia_Final%2520report.pdf', 'title': 'Research priorities and private participation in R&amp;D', 'snippet': 'Tunisia relies on a wide system of small research laboratories and units. Laboratories have limited research budgets and carry out all the administrative duties ...', 'date': None, 'last_updated': '2025-10-27', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Science and Higher Education of the Republic of Kazakhstan in KAZAKHSTAN responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Research in ESTONIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8034,17 +8033,17 @@
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ministry of Science and Higher Education of the Republic of Kazakhstan in KAZAKHSTAN</t>
+          <t>Ministry of Education and Research in ESTONIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ministry of Science and Higher Education of the Republic of Kazakhstan</t>
+          <t>Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8054,7 +8053,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>The Ministry of Science and Higher Education of the Republic of Kazakhstan is responsible for overseeing higher education and the development of educational programs, including those related to cybersecurity. It is explicitly mentioned as a key player in the development and implementation of educational programs in the field of information and communication technologies and cybersecurity, in alignment with national strategies such as the Concept of digital transformation, development of industry of information and communication technologies and cyber security for 2023-2029 [4]. The Ministry collaborates with other state bodies to ensure that educational curricula meet the needs of employers and national cybersecurity goals, and it is tasked with creating new educational programs and courses, including those on artificial intelligence and cybersecurity [3][4][6]. However, the primary responsibility for national cybersecurity policy, technical coordination, and operational response lies with the Ministry of Digital Development, Innovation and Aerospace Industry, which is the main regulator for digitalization and cybersecurity in Kazakhstan [5][4]. The Ministry of Science and Higher Education's role is focused on education and training, rather than direct policy-making or technical coordination of cybersecurity measures.</t>
+          <t>The Ministry of Education and Research in Estonia is responsible for cybersecurity education and literacy, but not for overall cybersecurity policy, technical coordination, or incident response. The 2024-2030 Cybersecurity Strategy highlights that the role of the Ministry of Education and Research in cyber literacy is growing, and it is involved in shaping a national institutional structure for cyber literacy and education[4]. The Ministry is also mentioned as a participant in the Cyber Security Council, which harmonizes cybersecurity policy objectives across ministries[4]. However, the primary responsibility for cybersecurity assurance, incident prevention, and response lies with the Information System Authority, not the Ministry of Education and Research[4]. The Ministry's involvement is focused on educational aspects, such as integrating cybersecurity into school curricula and supporting teacher training, rather than technical or operational cybersecurity functions[2][4].</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8064,14 +8063,14 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>[{'url': 'https://satbayev.university/en/news/ensuring-cybersecurity-in-kazakhstan-the-role-of-higher-educational-institutions', 'title': 'Ensuring cybersecurity in Kazakhstan: the role of higher educational ...', 'snippet': 'Every year, Institute graduates are successfully employed in the banking and government structures, corporations, law enforcement agencies and ...', 'date': '2020-08-26', 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/kz/', 'title': 'NCSI :: Kazakhstan - National Cyber Security Index', 'snippet': 'The information provided on the NCSI website is based on publicly available evidence materials. The appearance in the index and subsequent ranking is ...', 'date': '2025-02-14', 'last_updated': '2025-04-07', 'matched': True}, {'url': 'https://astanatimes.com/2024/12/kazakhstan-to-enhance-digital-safety-improve-ai-literacy-among-population/', 'title': 'Kazakhstan to Enhance Digital Safety, Improve AI Literacy Among ...', 'snippet': 'Bektenov focused on protecting personal data, cybersecurity, ethical standards and responsibility for decisions based on AI. Given the ...', 'date': '2024-12-24', 'last_updated': '2024-12-24', 'matched': True}, {'url': 'https://cis-legislation.com/document.fwx?rgn=149435', 'title': 'order of the government of the republic of kazakhstan - CIS Legislation', 'snippet': '1. Approve the enclosed Concept of digital transformation, development of industry of information and communication technologies and cyber security for 2023 - ...', 'date': '2023-03-28', 'last_updated': '2025-04-10', 'matched': True}, {'url': 'https://education-profiles.org/central-and-southern-asia/kazakhstan/~technology', 'title': 'Kazakhstan | Technology - Education Profiles', 'snippet': 'The Law No. 418-V ZRK of the Republic of Kazakhstan on Informatisation of November 24, 2015 defines information and communication technologies (ICT)', 'date': '2024-08-06', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://iite.unesco.org/wp-content/uploads/2025/10/ICT-Skills-Development-in-the-Republic-of-Kazakhstan.pdf', 'title': '[PDF] ICT SKILLS DEVELOPMENT IN THE REPUBLIC OF KAZAKHSTAN', 'snippet': 'Kazakhstan has a centralized model of higher education governance where the Ministry of Science and Higher Education plays a key role in setting quality.', 'date': None, 'last_updated': '2025-10-14', 'matched': True}, {'url': 'https://www.kt.kz/eng/government/digital_transformation_in_higher_education_1377970553.html', 'title': 'Digital transformation in higher education | Kazakhstan Today', 'snippet': 'The collaboration introduced professional certificates, courses and specialisations to train students in cybersecurity, project management, UX ...', 'date': '2024-10-30', 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://qazinform.com/news/kazakh-pm-assigned-to-ensure-security-while-using-ai-57894e', 'title': 'Kazakh PM assigns to ensure security while using AI - Kazinform', 'snippet': 'He said it is necessary to provide corresponding legislative measures, laws and regulations regulating AI use, including data protection, ...', 'date': '2024-12-24', 'last_updated': None, 'matched': True}, {'url': 'https://www.frontiersin.org/journals/political-science/articles/10.3389/fpos.2025.1679601/full', 'title': 'Advancing citizen-centered public services in Kazakhstan - Frontiers', 'snippet': "H4: Trust, privacy, and cybersecurity concerns will moderate citizens' willingness to adopt digital channels, such that higher concern predicts ...", 'date': '2025-10-20', 'last_updated': '2025-10-06', 'matched': True}]</t>
+          <t>[{'url': 'https://www.educationestonia.org/cyber-security-education-in-estonia/', 'title': 'Cyber security education in Estonia: from kindergarten to NATO ...', 'snippet': 'Cyber security must grow along with the digitalization of the society. In Estonia the cyber security is an important part of the education.', 'date': '2022-03-30', 'last_updated': '2025-04-07', 'matched': True}, {'url': 'https://cyberwiser.eu/estonia-ee', 'title': 'Estonia (EE) - CYBERWISER.eu', 'snippet': 'The role of cybersecurity in the information society is to ensure conditions for efficient and secure use of opportunities offered by ICTs. The objectives and ...', 'date': '2021-01-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://pircenter.org/wp-content/uploads/2022/10/Cyber-Security-Strategy-Ministry-of-Derence-Estonia.pdf', 'title': '[PDF] Cyber Security Strategy', 'snippet': "In order to reduce the vulnerability of Estonia's cyberspace and to better protect Estonian information systems, the Government has tasked the Ministry of ...", 'date': None, 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/EE_NCSS_2024_en.pdf', 'title': '[PDF] Cybersecurity strategy 2024–2030 Cyber-conscious Estonia - ENISA', 'snippet': '+ The role of the Ministry of Education and Research in cyber literacy is certainly growing, as one of the development needs highlighted is that ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://cyberhubs.eu/wp-content/uploads/2024/10/Estonia_Cybersecurity-skills-needs-analysis-report-1.pdf', 'title': '[PDF] Cybersecurity Skills Needs Analysis report Estonia. - CyberHubs', 'snippet': 'Currently. 2024, due to changes in governance responsibility, cyber security matters are transferring into the responsibility of the. Ministry ...', 'date': '2024-10-28', 'last_updated': '2025-03-10', 'matched': True}, {'url': 'https://e-estonia.com/solutions/cyber-security/cyber-range-exercises/', 'title': 'Cyber range &amp; exercises - e-Estonia', 'snippet': "Estonia's cyber ranges train experts in digital resilience, with CR14, Rangeforce, and CybExer enhancing cybersecurity for governments, NATO, ...", 'date': '2025-02-13', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/estonia/~technology', 'title': 'Estonia | Technology - Education Profiles', 'snippet': 'The ProgeTiger programme is a joint initiative by the Ministry of Education and Research and the former organization HITSA, which has been ...', 'date': '2023-06-04', 'last_updated': '2025-11-05', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Federal Ministry of Innovation, Science and Technology in NIGERIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Sports in ALBANIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8079,17 +8078,17 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Federal Ministry of Innovation, Science and Technology in NIGERIA</t>
+          <t>Ministry of Education and Sports in ALBANIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Federal Ministry of Innovation, Science and Technology</t>
+          <t>Ministry of Education and Sports</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8099,7 +8098,9 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>The Federal Ministry of Innovation, Science and Technology (FMIST) in Nigeria focuses on facilitating science, technology, and innovation development, including patent registration and technology incubation, but there is no direct evidence that it holds explicit responsibilities for national cybersecurity governance, policy implementation, or coordination. The national cybersecurity responsibilities reside primarily with the Office of the National Security Adviser (ONSA), which leads formulation and implementation of the National Cybersecurity Strategy, and with agencies such as the Nigerian Computer Emergency Response Team (ngCERT) and the National Information Technology Development Agency (NITDA) under the Federal Ministry of Communications and Digital Economy. FMIST is not mentioned as hosting national CERT/CSIRT, leading cybersecurity committees, or overseeing information security standards in available official documents and national strategies; instead, cybersecurity policy and enforcement are mainly managed by other bodies within the communications and national security sectors in Nigeria[1][2][4][6].</t>
+          <t>The Ministry of Education and Sports (MES) in Albania is not the primary authority for national cybersecurity policy, technical coordination, or incident response. The main responsibility for cybersecurity governance, including the operation of the National CSIRT and the implementation of the National Cybersecurity Strategy, lies with the National Authority for Electronic Certification and Cybersecurity (AKSK) and the National Cybersecurity Authority (NCSA) [1,2,4].
+However, the Ministry of Education and Sports does have specific responsibilities related to cybersecurity within the education sector. It is mandated to draft regulations for gathering data on incidents of online violence, bullying, and abuse in schools, and to coordinate awareness and reporting activities for students and parents [3,5]. The Ministry also participates in the development of digital standards and collaborates with AKSK on initiatives such as the 'Report illegal content' section for blocking access to illegal websites, which helps protect children and young people online [6].
+Furthermore, MES is involved in organizing workshops and training to increase the cybersecurity capacities of ministry employees and in supporting the creation of an online network of ICT teachers to promote child protection on the internet [1,3]. While these activities show engagement in cybersecurity, they are sector-specific and do not constitute overall responsibility for national cybersecurity governance, prevention, planning, response, or enforcement.</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8109,14 +8110,14 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>[{'url': 'https://cert.gov.ng/ngcert/resources/draft-action-plan-ncss.pdf', 'title': '[PDF] action plan for implementation of the national cybersecurity strategy', 'snippet': 'This action plan is for implementing the National Cybersecurity Strategy, covering governance, legal framework, and incident management, due to the growing ...', 'date': None, 'last_updated': '2025-11-08', 'matched': True}, {'url': 'https://fmcide.gov.ng/about/', 'title': 'About Us | The Federal Ministry of Communications, Innovation and ...', 'snippet': 'The ministry was created in 2011 to drive economic growth through digital technology, with a mission to leverage ICT for job creation and economic growth.', 'date': '2024-01-20', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://ijcaonline.org/archives/volume186/number55/cybersecurity-and-it-governance-challenges-in-nigeria-strategic-investment-needs-and-the-path-forward-for-a-resilient-digital-economy/', 'title': 'Cybersecurity and IT Governance Challenges in Nigeria', 'snippet': "This paper addresses Nigeria's critical cybersecurity challenges and the urgent need for strategic investment to safeguard its digital economy.", 'date': '2024-12-27', 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/nigeria-information-and-communications-technology', 'title': 'Nigeria - Information and Communications Technology', 'snippet': 'The Federal Ministry of Communications and Digital Economy has overall responsibility for the ICT sector. The Ministry also has purview over ...', 'date': '2025-09-08', 'last_updated': '2025-10-16', 'matched': True}, {'url': 'https://verraki.africa/wp-content/uploads/2023/09/Nigeria-Technology-Innovation-Policy-final-for-publication-31.08.23.pdf', 'title': '[PDF] Nigeria - Technology Innovation Policy v2 copy - Verraki Partners', 'snippet': "Nigeria's 2022 revised National Science, Technology, and Innovation Policy (NSTIP) aims to make Nigeria a top scientific power, with technology as a catalyst ...", 'date': None, 'last_updated': '2025-03-10', 'matched': True}, {'url': 'https://scienceandtech.gov.ng', 'title': 'Federal Ministry of Innovation, Science and Technology: FMIST', 'snippet': "The Federal Ministry of Innovation, Science and Technology (FMIST) plays a pivotal role in driving Nigeria's socio-economic development.", 'date': '2025-10-30', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://en.wikipedia.org/wiki/Federal_Ministry_of_Innovation,_Science_and_Technology', 'title': 'Federal Ministry of Innovation, Science and Technology - Wikipedia', 'snippet': 'The Federal Ministry of Innovation, Science and Technology is a Nigerian ministry whose mission is to facilitate the development and deployment of science ...', 'date': None, 'last_updated': '2025-11-03', 'matched': True}, {'url': 'https://www.osgf.gov.ng/resources/policies/science-and-technology/', 'title': 'national policy on science, technology and innovation - OSGF', 'snippet': 'The policy was designed to create harmony in the pursuit of knowledge about the environment through Research and Development (R&amp;D).', 'date': '2023-05-01', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/316326/federal-ministry-of-science-and-technology', 'title': '️Federal Ministry of Science and Technology - Development Aid', 'snippet': 'Federal Ministry of Science and Technology — Government Body from Nigeria, it`s involved in Public Sector Governance, Research &amp; Innovation sectors.', 'date': None, 'last_updated': '2025-09-15', 'matched': True}]</t>
+          <t>[{'url': 'https://aksk.gov.al/wp-content/uploads/2024/01/Monitoring-of-the-National-Cyber-Security-Strategy-2022.pdf', 'title': '[PDF] Monitoring of National Cybersecurity Strategy 2020-2025 - AKSK', 'snippet': 'The strategy aims to guarantee national cybersecurity, build a safe cyber environment, protect children, and increase cooperation. It is based on principles ...', 'date': None, 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://aksk.gov.al/wp-content/uploads/2024/06/GOVERNANCE-REPORT-NAECCS-2023.pdf', 'title': '[PDF] REPORT CYBERSECURITY GOVERNANCE IN ALBANIA YEAR 2023', 'snippet': '- Raising awareness and education, as well as improving preventive and protective measures regarding cyber security threats, cybercrime and illegal online ...', 'date': None, 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://aksk.gov.al/wp-content/uploads/2024/01/Monitoring-of-the-National-Cyber-Security-Strategy.pdf', 'title': '[PDF] Monitoring of “National Cybersecurity Strategy 2020-2025” - AKSK', 'snippet': 'The Ministry of Education, Sports and Youth has drafted an accompanying regulation in schools for gathering of data on reported incidents of online violence ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://www.eeas.europa.eu/delegations/albania/cybersecurity-albania-new-era-fragmented-and-partially-manual-processes-fully-centralized-system_en', 'title': 'Cybersecurity in Albania in a new era, from fragmented and partially ...', 'snippet': "The mission of Albania's National Cybersecurity Authority (NCSA) is to ensure a secure digital environment for Albania's institutions, critical ...", 'date': '2025-09-30', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://scidevcenter.org/wp-content/uploads/2025/03/Working-paper_The-anatomy-of-a-DCoM.pdf', 'title': '[PDF] The Anatomy of a Decision Restricting Digital Rights - SCiDEV', 'snippet': 'The Ministry of Education and Sport, as representative of the Council of Minister, is mandated to communicate and negotiate with representatives ...', 'date': '2025-03-21', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/albania/~technology', 'title': 'Albania | Technology - Education Profiles', 'snippet': 'The Albanian Ministry of Education and Sport (MAS) took on the responsibility of creating online resources in the form of video recordings ...', 'date': '2024-08-05', 'last_updated': '2025-11-05', 'matched': True}, {'url': 'https://rtsh.al/rti/en/cybersecurity-strategy-2025-2030-faber-says-albania-now-fully-equipped-to-face-cyberattacks/', 'title': 'Cybersecurity Strategy 2025–2030: Faber Says Albania Now Fully ...', 'snippet': 'The approval of the National Cybersecurity Strategy 2025–2030 aims to strengthen the protection of critical digital infrastructures.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://papers.ssrn.com/sol3/Delivery.cfm/SSRN_ID3658345_code4291678.pdf?abstractid=3658345&amp;mirid=1', 'title': '[PDF] REPORT ON CYBERSECURITY MATURITY LEVEL IN ALBANIA', 'snippet': 'The Ministry of Education, Sport and Youth mandates that only doctorate. (PhD) holders can teach courses. As participants mentioned, this mandate creates a ...', 'date': None, 'last_updated': '2024-06-14', 'matched': True}, {'url': 'https://www.osce.org/presence-in-albania/530332', 'title': 'Cyber threats in focus of OSCE Presence information sessions with ...', 'snippet': 'The OSCE Presence in Albania reached out to children, parents, teachers, school psychologists and social workers to increase community awareness on cyber ...', 'date': '2022-11-02', 'last_updated': '2024-10-22', 'matched': True}, {'url': 'https://ega.ee/building-cyber-resilience-in-albania-montenegro-and-north-macedonia/', 'title': 'Building cyber resilience in Albania, Montenegro and North ...', 'snippet': "The project aimed to enhance the region's preparedness for large-scale cyber incidents by strengthening technical and operational capacities, ...", 'date': '2025-09-30', 'last_updated': '2025-10-13', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Communications and Technology in SOMALIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education and Research in NORWAY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8124,27 +8125,27 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ministry of Communications and Technology in SOMALIA</t>
+          <t>Ministry of Education and Research in NORWAY</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ministry of Communications and Technology</t>
+          <t>Ministry of Education and Research</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.HIGH</t>
+          <t>ResponsibilityLevel.LOW</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>The Ministry of Communications and Technology (MoCT) in Somalia is explicitly responsible for cybersecurity. The MoCT is the lead federal body mandated to formulate national policies, laws, and regulations related to telecommunications and Information and Communications Technology (ICT), which includes cybersecurity policy and strategy (Reference [1]). The MoCT developed the National ICT Policy and Strategy (2019-2024), which identifies cybersecurity as a key priority, including the establishment of a Cybersecurity and Privacy group and a National Computer Emergency Response Team (CIRT) (References [1], [8]). The MoCT is also involved in the development of a national cybersecurity strategy for 2025-2030 and is working on consolidating the regulatory framework with cybersecurity and cybercrime laws (Reference [6]). Furthermore, the MoCT presents cybersecurity legislation to the Cabinet and participates in international cooperation on cybersecurity, such as with Malaysia and the United Nations (References [3], [6]). These actions demonstrate that the MoCT has a high level of responsibility for cybersecurity governance, prevention, planning, and coordination in Somalia.</t>
+          <t>The Ministry of Education and Research (MER) in Norway governs information security and data protection policies primarily within the higher education and research sectors, as outlined in its governing documents and policies. It sets requirements and standards for information security and data protection in this sector and promotes competence-building and training in these areas[1]. Additionally, MER shares responsibility with the Ministry of Justice and Public Security for the national strategy for cyber security competence, which includes measures in education and research to raise cyber security awareness and strengthen research input in cyber security fields[3]. However, MER is not explicitly responsible for national cyber security governance, coordination, enforcement, or incident response. Instead, these responsibilities lie mainly with the Ministry of Justice and Public Security (civilian sector), the Ministry of Defence (military sector), and the Norwegian National Security Authority (NSM)[2][3][4]. The cyber security centre for research and education (eduCSC) operates under Sikt, with its services aligned to sectoral CERT frameworks but within an academic context[5]. Thus, MER's role is sector-specific and focused on supporting cyber security competence and policy in education and research, not broad national cyber security governance or operational coordination.</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8154,14 +8155,14 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>[{'url': 'https://mof.gov.so/sites/default/files/Publications/ToR_for_Assesment_National_CERT_Establishment_Plan_Somalia%20.pdf', 'title': '[PDF] Federal Government of Somalia', 'snippet': 'The. NCA is responsible for facilitating the development of the ICT sector, enabling, and ensuring fair and sustainable competition, carrier interconnection, ...', 'date': None, 'last_updated': '2025-05-04', 'matched': True}, {'url': 'https://mof.gov.so/sites/default/files/2019-10/Cyber%20security%20ToR.pdf', 'title': '[PDF] Cyber security ToR.pdf - Ministry of Finance - Somalia', 'snippet': 'c) Promoting accuracy and integrity of ICT data at the national, regional and continental levels and identifying gaps in evidence and suggesting priority.', 'date': None, 'last_updated': '2025-05-08', 'matched': True}, {'url': 'https://sonna.so/en/somali-cabinet-approves-landmark-cybersecurity-bill-to-boost-digital-security/', 'title': 'Somali Cabinet Approves Landmark Cybersecurity Bill to Boost ...', 'snippet': 'This legislation focuses on protecting the integrity, safety, and security of computer systems, networks, and programs. It aims to prevent the ...', 'date': '2025-08-21', 'last_updated': '2025-11-07', 'matched': True}, {'url': 'https://mfa.govsomaliland.org/article/information-technology-department', 'title': 'Information Technology - IT Department', 'snippet': 'It is responsible for managing all aspects related to computer systems, software applications, networks, cybersecurity, data storage, and technical support ...', 'date': None, 'last_updated': '2025-08-14', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099041923165053876/pdf/P176181020f03c010b3ee0e15d76fecda7.pdf', 'title': '[PDF] federal government of somalia - World Bank Documents &amp; Reports', 'snippet': 'The Federal Ministry of Communications and Technology (MOCT) is charged with promoting the digital agenda at the federal government level. A ...', 'date': '2022-09-02', 'last_updated': '2025-10-30', 'matched': True}, {'url': 'https://extensia.tech/somalia-ties-up-with-malaysia-to-strengthen-cybersecurity/', 'title': 'Somalia ties up with Malaysia to strengthen cybersecurity', 'snippet': 'The Somali government is seeking to strengthen its cooperation with Malaysia to better address cybersecurity challenges.', 'date': '2025-05-08', 'last_updated': '2025-05-17', 'matched': True}, {'url': 'https://nca.gov.so/wp-content/uploads/2025/01/ICT-Regulatory-Transformational-Strategy-and-Roadmap-JAN.pdf', 'title': '[PDF] ICT Regulatory Transformational Strategy and Roadmap for Somalia', 'snippet': 'The NCA is responsible for facilitating the development of the ICT sector, enabling and ensuring fair and sustainable competition, carrier interconnection,.', 'date': None, 'last_updated': '2025-10-04', 'matched': True}, {'url': 'https://dig.watch/resource/somalian-national-ict-policy-and-strategy-2019-2024', 'title': 'Somalian National ICT Policy and Strategy 2019-2024', 'snippet': 'This document sets out the 5-year 2019-2024 National ICT Policy and Strategy which provides the framework needed to leverage the benefits of ICTs.', 'date': '2024-12-10', 'last_updated': '2025-09-07', 'matched': True}, {'url': 'https://moct.gov.so/en/wp-content/uploads/2019/11/National-ICT-Policy-Strategy-2019-2024.pdf', 'title': '[PDF] FEDERAL REPUBLIC OF SOMALIA', 'snippet': '5.0 INSTITUTIONAL STRUCTURES &amp; RESPONSIBILITIES. 20. 5.1 Ministry of Posts, Telecommunications and Technology (MPTT). 20. 5.2 National Communications Authority ...', 'date': None, 'last_updated': '2025-06-04', 'matched': True}]</t>
+          <t>[{'url': 'https://hkdir.no/en/guidelines-and-tools-for-responsible-international-knowledge-cooperation/international-research-and-innovation-cooperation/information-security-and-data-protection', 'title': 'Information security and data protection | HK-dir', 'snippet': "The requirements for information security and data protection are summarised in the Ministry of Education and Research's (MER) governing document (in Norwegian ...", 'date': '2023-10-06', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/Norway_2012_Cyber_Security_Strategy_Norway.pdf', 'title': '[PDF] Cyber Security Strategy for Norway - ITU', 'snippet': 'The ministries are responsible for ensuring that all relevant stakeholders in the sectors are included in the implementation of measures within ...', 'date': '2012-12-17', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://www.regjeringen.no/contentassets/c57a0733652f47688294934ffd93fc53/list-of-measures--national-cyber-security-strategy-for-norway.pdf', 'title': '[PDF] List of measures – National Cyber Security Strategy for Norway', 'snippet': 'The national strategy for cyber security competence (2019) is to influence direction and content, as well as highlighting responsibility for ...', 'date': '2019-01-01', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.regjeringen.no/contentassets/c57a0733652f47688294934ffd93fc53/national-cyber-security-strategy-for-norway.pdf', 'title': '[PDF] National Cyber Security Strategy for Norway - regjeringen.no', 'snippet': "The Ministry holds a special responsibility for national cyber security in the civilian sector, and will outline the Government's policy for cyber security, ...", 'date': None, 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://sikt.no/en/tjenester/cybersikkerhetssenter-forskning-og-utdanning/policy-and-service-level-statement', 'title': 'Policy and service level statement for Cyber security center for ... - Sikt', 'snippet': 'The Cyber Security Centre for research and education in Norway (eduCSC or eduCSC–NO in international contexts), manages computer security incidents.', 'date': None, 'last_updated': '2025-09-18', 'matched': True}, {'url': 'https://cybersecurity-centre.europa.eu/norway-ncc_en', 'title': 'Norway - NCC - European Cybersecurity Competence Centre', 'snippet': 'The RCN is a national strategic body for research, that manages research funding from all of the Norwegian ministries, and allocates funds to basic applied ...', 'date': '2019-01-01', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://norsis.no/content/uploads/2022/05/The-Norwegian-Cybersecurity-culture-web.pdf', 'title': '[PDF] The Norwegian Cyber Security Culture - NorSIS', 'snippet': 'We recommend that The Norwegian government should take greater responsibility for the cyber security education of its citizenry, espe- cially for the young ...', 'date': None, 'last_updated': '2024-03-04', 'matched': True}, {'url': 'https://education-profiles.org/europe-and-northern-america/norway/~technology', 'title': 'Norway | Technology - Education Profiles', 'snippet': 'The 2017-21 Action Plan for Digitalization in Primary and Secondary Education and Training provides the framework for the integration of technology.', 'date': '2024-08-06', 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://cyberwiser.eu/norway-no', 'title': 'Norway (NO) - CYBERWISER.eu', 'snippet': 'The Norwegian Ministry of Justice and Public Security is responsible for coordinating public security in the civilian domain, outlining government policy for ...', 'date': '2021-01-01', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.ntnu.edu/iik/inf', 'title': 'Information Security - NTNU', 'snippet': 'Members of the discipline are leading the research, education, and innovation activities in information and cyber security within the department.', 'date': '2022-01-01', 'last_updated': '2025-10-11', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the National Secretariat of Science and Technology (SENACYT) in GUATEMALA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science, Culture and Sports of the Republic of Armenia in ARMENIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8169,17 +8170,17 @@
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>National Secretariat of Science and Technology (SENACYT) in GUATEMALA</t>
+          <t>Ministry of Education, Science, Culture and Sports of the Republic of Armenia in ARMENIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>National Secretariat of Science and Technology (SENACYT)</t>
+          <t>Ministry of Education, Science, Culture and Sport</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8189,7 +8190,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>The National Secretariat of Science and Technology (SENACYT) in Guatemala appears to support digital literacy and technology initiatives including partnerships with international organizations to promote rural internet service and digital literacy, as in their collaboration with USTDA and Microsoft on Digital Community Centers. However, there is no direct evidence that SENACYT is explicitly responsible for national cybersecurity governance, policy implementation, or technical coordination. Key national cybersecurity responsibilities in Guatemala – such as a national cybersecurity strategy and legislative actions on cybersecurity are led by other government bodies, such as ministries mentioned in national strategy discussions and legislative contexts. SENACYT’s role centers more on broader science and technology promotion rather than direct cybersecurity policy or incident response. There is no indication that SENACYT hosts Guatemala's national CERT/CSIRT or leads key cybersecurity committees or enforcement activities. Therefore, its responsibility level for cybersecurity governance and direct operational roles is assessed as LOW based on currently available information.[1][4][5][6][3]</t>
+          <t>The Ministry of Education, Science, Culture and Sport of Armenia is primarily responsible for policies related to education, science, culture, and sport, including development and implementation of educational technologies and scientific research frameworks[1][4][6][7]. There is evidence of involvement in cybersecurity education at the student level and cooperation on developing cyber skills (e.g., national student cyber exercises and related training), which indicates a role in cybersecurity awareness and capability development within an educational context[2]. However, there is no indication that the ministry handles national cybersecurity governance, direct cybersecurity policy, response mechanisms, enforcement, or hosts a national CERT/CSIRT. Other bodies like the Ministry of High-Tech Industry appear to lead cybersecurity governance and interagency coordination[3]. Therefore, the Ministry of Education, Science, Culture and Sport’s involvement in cybersecurity is limited to promoting cybersecurity education and research security practices rather than leading or implementing national cybersecurity policy or incident response.</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8199,14 +8200,14 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.trade.gov/market-intelligence/guatemala-cybersecurity', 'title': 'Guatemala Cybersecurity - International Trade Administration', 'snippet': "This legislative advancement represents a significant milestone in enhancing Guatemala's digital infrastructure and security landscape.", 'date': '2024-09-03', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://kealtd.com/wp-content/uploads/2020/10/USTDA-Cybersecurity-Workshop-program-information.pdf', 'title': '[PDF] TIME (CST) SEGMENT PRESENTER 9:00:00 AM Introduction', 'snippet': "The STCNS is currently involved in the following cybersecurity projects: • The National Cybersecurity Strategy promoted by Guatemala's Ministry of the ...", 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/gt_2022/', 'title': 'NCSI :: Guatemala - National Cyber Security Index', 'snippet': 'GENERAL CYBER SECURITY INDICATORS ; 1. Cyber security policy development 1/7 ; 2. Cyber threat analysis and information 0/5 ; 3. Education and professional ...', 'date': '2021-11-24', 'last_updated': '2024-10-19', 'matched': True}, {'url': 'https://data.sbfnetwork.org/sites/default/files/survey-attachments/2025-05/Guatemala_Action-Plan_2021-2023_Revised_EN.pdf', 'title': '[PDF] Guatemala_Action-Plan_2021-2023_Revised_EN.pdf', 'snippet': 'SENACYT, Secretaría Nacional de Ciencia y Tecnología ... are the responsibility of the consulting entity that develops or adapts the tool to. Guatemala.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.sdg16.plus/policies/digital-community-centers-guatemala/', 'title': 'Digital Community Centers: Guatemala - Pathfinders', 'snippet': 'This policies considers how Guatemala bridged the Digital Literacy Gap through Digital Community Centers from 2018–Present.', 'date': '2025-08-25', 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://documents1.worldbank.org/curated/en/099135003042216854/pdf/P1749140834e850f0bb030fec5cfdcf329.pdf', 'title': '[PDF] Central America Digital Economy Analytical Support', 'snippet': 'o Guatemala: Developed and adopted (2018) a national cybersecurity strategy and has been granted access to the Budapest Convention on Cybercrime.153 o ...', 'date': None, 'last_updated': '2025-09-03', 'matched': True}, {'url': 'https://cern.ch/sicura-lac', 'title': 'SICURA: Research and Education Playing as a team - CodiMD', 'snippet': 'Optimize resource distribution for computing and manpower. · Facilitate the exchange of expertise, best practices, and threat intelligence among members.', 'date': '2025-09-02', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Guatemala.pdf', 'title': '[PDF] Guatemala | GHS Index', 'snippet': 'Do regulations or licensing conditions specify that security and other personnel with access to especially dangerous pathogens, toxins, or biological materials ...', 'date': None, 'last_updated': '2025-11-10', 'matched': True}, {'url': 'https://www.oas.org/citelevents/es/Events/EToolDocDownloadFile/42647', 'title': '[DOC] https://www.oas.org/citelevents/es/Events/EToolDoc...', 'snippet': 'The establishment of educational platforms where digital literacy courses are taught along with courses on cybersecurity, early childhood and technologies, ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.lac4.eu/participants-reflect-on-their-experience-at-cyberwizards-2025/', 'title': 'Participants Reflect on Their Experience at CyberWizards 2025 - LAC4', 'snippet': 'The CyberWizards program, held in Estonia from 11 to 16 August, brought together young women looking to explore cybersecurity.', 'date': '2025-09-25', 'last_updated': '2025-09-26', 'matched': True}]</t>
+          <t>[{'url': 'https://www.gov.am/en/structure/275/', 'title': 'Ministry of Education, Science, Culture and Sport', 'snippet': 'The Ministry of Education, Science, Culture and Sport of the Republic of Armenia is a central body of executive authority that elaborates and implements the ...', 'date': None, 'last_updated': '2025-10-07', 'matched': True}, {'url': 'https://www.ysu.am/en/faculty/85/articles/89059', 'title': 'Major step forward in shaping new cybersecurity culture ...', 'snippet': 'They emphasized the crucial role of cyber exercises, particularly among students, noting that the development of cybersecurity capabilities ...', 'date': '2025-10-29', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://hightech.gov.am/en/tegekatvakan-kentron/ayl/norutyunner/meeting-about-kids-cybersecurity', 'title': 'Interagency Meeting on Online Safety for Children', 'snippet': 'The concept of the program was discussed which aims at improving online safety and a “phone-free” school environment for children under 16 ...', 'date': '2025-04-08', 'last_updated': '2025-04-26', 'matched': True}, {'url': 'https://education-profiles.org/northern-africa-and-western-asia/armenia/~technology', 'title': 'Armenia | Technology', 'snippet': 'The 2009 Law of the Republic of Armenia on General Education defines the concept of “distance education” as a form of implementing an education programme.', 'date': '2023-03-08', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://www.etf.europa.eu/sites/default/files/2021-03/digital_factsheet_armenia.pdf', 'title': 'DIGITAL SKILLS AND ONLINE LEARNING IN ARMENIA', 'snippet': 'The Government of Armenia took the first steps towards setting up an e-society back in 2000 and has made significant progress since.', 'date': None, 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.sandia.gov/app/uploads/sites/148/2024/02/FINAL-For-Publishing-on-Website-White-Paper-Tatevik-Final-12.21.2023.pdf', 'title': 'Study on Global Experiences on Research Security to ...', 'snippet': 'Collaborate with the Armenian Ministry of Education, Science, Culture, and Sport to comprehensively evaluate the existing security practices of research and ...', 'date': None, 'last_updated': '2025-09-10', 'matched': True}, {'url': 'https://escs.am/en/static/scienccom?s=edu', 'title': 'Higher Education and Science Committee - RA MօESCS', 'snippet': 'The Science Committee is a state body functioning within the Ministry of Education, Science, Culture and Sports of the Republic of Armenia.', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://csometer.info/updates/armenia-new-law-youth-policy-significant-step-youth-development-and-participation', 'title': 'Armenia։ New Law on Youth Policy: a significant step for ...', 'snippet': 'The newly passed Law on Youth Policy establishes a comprehensive framework for the government to shape and implement youth-related policies.', 'date': '2020-06-01', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.jstor.org/stable/26504132', 'title': 'Cyber Security in the Context of Armenia-NATO Cooperation', 'snippet': 'by RG Elamiryan · 2018 · Cited by 2 — Leadership Tighter cooperation and communication should be developed between the leaders of Armenia and NATO who are responsible for cyber security.', 'date': None, 'last_updated': None, 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the NONE in KUWAIT responsible for cybersecurity?
+          <t xml:space="preserve">Is the Deputy Ministry of Research, Innovation and Digital Policy of Cyprus in CYPRUS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8214,27 +8215,27 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NONE in KUWAIT</t>
+          <t>Deputy Ministry of Research, Innovation and Digital Policy of Cyprus in CYPRUS</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>Deputy Ministry of Research, Innovation and Digital Policy</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.NONE</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>There is no entity named "NONE" in Kuwait; thus, it cannot be responsible for cybersecurity. In Kuwait, cybersecurity responsibility is assigned to specific government organizations such as the Central Agency for Information Technology (CAIT), the Communications and Information Technology Regulatory Authority (CITRA), and the National Cybersecurity Center established by official decisions. These bodies lead national cybersecurity policy, coordination, enforcement, and infrastructure protection[2][3][4][5][7]. The Ministry of Interior is also reported to be gaining greater powers toward establishing an independent cybersecurity service by 2025[8]. No source indicates any responsibility by an entity called NONE.</t>
+          <t>The Deputy Ministry of Research, Innovation and Digital Policy of Cyprus is explicitly responsible for developing and implementing the national digital policy and strategy, including policies in Information and Communication Technologies and e-government, which entails aspects of cybersecurity[1]. It provides political guidance and supervision to the Research and Innovation Foundation and participates in forming a regulatory framework at European and international levels for digital policy related areas[1]. The Ministry's General Director chairs the National Cybersecurity Coordination Centre (NCC-CY) Council, which defines the general policy framework for cybersecurity implementation in Cyprus[4]. Additionally, the Ministry acts as an associated partner in key national cybersecurity projects and collaborates closely with the Digital Security Authority, which is designated as the NCC-CY[4]. Their work includes ensuring digital security measures such as two-factor authentication, encryption, and compliance with European data protection standards[2]. This involvement demonstrates direct governance, strategic planning, coordination, and oversight responsibilities in national cybersecurity efforts. Such roles align fully with the criteria for a ministry handling cybersecurity, including policy development, oversight of security standards, leadership in national coordination bodies, and engagement in international regulatory frameworks[1][4].</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8244,14 +8245,14 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.dcpas.osd.mil/sites/default/files/kuwait_-_senior_cyber_advisor.pdf', 'title': '[PDF] KUWAIT – Senior Cyber Advisor Title - DCPAS', 'snippet': 'Assist in the establishment and promulgation of cyber-related policies that improve cyber security and cyber defense within defense institutions. • Familiarity ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.glaco.com/blog/kuwaits-ai-revolution-law-cloud-and-cybersecurity-at-the-core-of-digital-transformation/', 'title': "Kuwait's AI Revolution: Law, Cloud, and Cybersecurity at the Core of ...", 'snippet': 'The Central Agency for Information Technology, known as “CAIT,” leads governmental digital transformation and supports the development of ...', 'date': '2025-10-29', 'last_updated': '2025-11-11', 'matched': True}, {'url': 'https://cait.gov.kw/en/media-center/news-events/26/', 'title': '“Kuwait Hackers” opened the first Kuwait Cyber \u200b\u200bSecurity ...', 'snippet': 'Al-Wadani continued: It is no secret to you that the central agency for information technology is the official Kuwaiti government agency responsible for Kuwait ...', 'date': '2019-02-18', 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://www.citra.gov.kw/sites/en/Pages/cybersecurity.aspx', 'title': 'Cybersecurity and Emergency Response', 'snippet': 'We work through the Communications and Information Technology Regulatory Commission in accordance with the vision of the National Cybersecurity Strategy, ...', 'date': '2025-08-31', 'last_updated': '2025-08-31', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/kuwait-information-communication-technology', 'title': 'Kuwait - Information &amp; Communication Technology', 'snippet': 'The Government of Kuwait is developing a National Cybersecurity Center to protect government networks and critical infrastructure assets.', 'date': '2023-12-30', 'last_updated': '2025-10-23', 'matched': True}, {'url': 'https://www.microsoft.com/en/customers/story/1436902925936599811-central-agency-for-information-technology-government-azure-microsoft-365-en-kuwait', 'title': "Kuwait's Central Agency for Information Technology partners with ...", 'snippet': "Kuwait's Central Agency for Information Technology (CAIT) was founded in 2006 to supervise the implementation of e-government plans and ...", 'date': '2021-11-10', 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://www.ncsi.ega.ee/country/kw/', 'title': 'NCSI :: Kuwait - National Cyber Security Index', 'snippet': 'The country has appointed governmental leadership responsible for cybersecurity at the national level.', 'date': '2024-12-15', 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.intelligenceonline.com/government-intelligence/2023/02/28/security-service-reform-gives-kuwaiti-interior-ministry-greater-powers,109918762-art', 'title': 'Security service reform gives Kuwaiti interior ministry greater powers', 'snippet': 'As such, Kuwait hopes to have an independent cybersecurity service by 2025, which will complement its existing national cybersecurity centre.', 'date': '2023-02-28', 'last_updated': '2025-06-30', 'matched': True}, {'url': 'https://kuwaittimes.com/article/35320/kuwait/other-news/kuwait-officials-call-for-stronger-cyber-cooperation-as-digital-threats-escalate/', 'title': 'Kuwait officials call for stronger cyber cooperation as digital threats ...', 'snippet': 'It serves as a platform for officials, decision-makers, thought leaders, and those interested in cybersecurity and digital safety from ...', 'date': '2025-11-04', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://digital-skills-jobs.europa.eu/en/community/networking/organisations/deputy-ministry-research-innovation-and-digital-policy-cyprus', 'title': 'Deputy Ministry of Research, Innovation and Digital Policy of Cyprus', 'snippet': 'Deputy Ministry of Research, Innovation and Digital Policy of Cyprus is responsible for developing and implementing a national digital policy and strategy ...', 'date': None, 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://talanews.blogspot.com/2025/10/cyprus-on-digital-map-deputy-minister.html', 'title': 'CYPRUS ON THE DIGITAL MAP - DEPUTY MINISTER OF ...', 'snippet': 'CYPRUS ON THE DIGITAL MAP - DEPUTY MINISTER OF INNOVATION REVEALS THE NEXT STEPS OF THE gov.cy. Filenews 5 October 2025 - by Angelos Nikolaou.', 'date': '2025-10-05', 'last_updated': '2025-10-12', 'matched': True}, {'url': 'https://cyprusconsulatecambodia.com/cyprus-aims-high-with-ai-cybersecurity-and-innovation-reforms/', 'title': 'Cyprus aims high with AI, cybersecurity and innovation reforms', 'snippet': "“Our aim is to build on the momentum created, to implement solutions and tools with an immediate impact on both the country's competitiveness ...", 'date': '2025-08-05', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://ncc.cy/en/ncc', 'title': 'The NCC', 'snippet': 'The National Cybersecurity Coordination Centre (NCC-CY) sets high goals and undertakes an important role to actively contribute through its actions to improve ...', 'date': None, 'last_updated': '2024-10-04', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/cyprus-information-communication-technology-ict', 'title': 'Cyprus - Information Communication Technology (ICT)', 'snippet': 'It is making efforts to improve its ICT and cybersecurity infrastructure and promote the digital transformation of both the private and public ...', 'date': '2024-05-09', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.enisa.europa.eu/sites/default/files/ncss-map/strategies/reports/CY_NCSS_2020_en.pdf', 'title': '[PDF] Cybersecurity Strategy of the Republic of Cyprus 2020 - ENISA', 'snippet': 'matters of Security. Since March 2020, the Deputy Ministry of Research, Innovation and Digital Policy has been established in accordance with the ...', 'date': None, 'last_updated': '2025-10-22', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/cy/?allData=1', 'title': 'NCSI :: Cyprus - National Cyber Security Index', 'snippet': '... cybersecurity strategy and policy ... The Department of Electronic Communications of the Deputy Ministry Research, Innovation and Digital Policy ...', 'date': '2023-12-29', 'last_updated': '2024-12-30', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry for Science, Technology and Innovation in HONDURAS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Government Technology Agency (GovTech) in BHUTAN responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8259,27 +8260,27 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ministry for Science, Technology and Innovation in HONDURAS</t>
+          <t>Government Technology Agency (GovTech) in BHUTAN</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ministry for Science, Technology and Innovation (Secretaría de Ciencia, Tecnología e Innovación - SENACIT)</t>
+          <t>Government Technology Agency (GovTech)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.HIGH</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>The Ministry for Science, Technology and Innovation in Honduras, referred to as SENACIT, primarily focuses on promoting and strengthening the national research system, technological development, and innovation. Available information highlights its role in advancing science, technology, digital skills, and innovation initiatives such as AI education and technological entrepreneurship development, but does not explicitly indicate responsibility for cybersecurity governance, policy, or operational coordination. Cybersecurity efforts in Honduras are described as developing and tied to broader national digital agendas and initiatives (such as the Digital Republic initiative), yet these are not specifically under SENACIT's stated remit. Additionally, there is no evidence that SENACIT hosts a national CERT/CSIRT or leads cybersecurity committees. Most cybersecurity functions and incident response responsibilities appear to reside with other government entities or interinstitutional committees which are not identified as SENACIT. References from reviews of Honduras's national digital strategy, cybersecurity policy drafts, and organizational roles confirm the absence of SENACIT's direct cybersecurity governance role[2][3][5].</t>
+          <t>GovTech in Bhutan houses the Cybersecurity Division, which includes the Bhutan Computer Incident Response Team (BtCIRT), established as the national agency responsible for coordinating cybersecurity activities and serving as the central point of contact on cybersecurity matters in Bhutan[1][3][6]. According to the Information, Communication and Media Act of Bhutan, 2018, BtCIRT within GovTech is mandated to monitor cyber threats, handle incidents, provide obligatory instructions during major incidents to government agencies and critical infrastructure operators, and coordinate cybersecurity activities nationally and internationally[1][3]. The Royal Audit Authority's review highlights GovTech's lead role in endorsing and implementing the National Cybersecurity Strategy and strengthening legal and institutional frameworks for cybersecurity governance[3]. Furthermore, GovTech conducts cybersecurity awareness programs and participates in national cybersecurity planning, risk profiling, and strategy consolidation as part of its official responsibilities[7][8]. These multiple mandates and roles demonstrate GovTech's high level of responsibility for Bhutan's cybersecurity policy, implementation, coordination, and enforcement.</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8289,14 +8290,14 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>[{'url': 'https://trade.ec.europa.eu/access-to-markets/en/country-assets/euca_05_Cybersecurity%20sector%20in%20Central%20America.pdf', 'title': '[PDF] Cybersecurity sector in Central America', 'snippet': 'This would aim to closely coordinate the Digital Signature and Information. Security addresses and expand their functions with a project management perspective ...', 'date': None, 'last_updated': '2025-10-21', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/honduras-digital-economy', 'title': 'Honduras - Digital Economy - International Trade Administration', 'snippet': "This initiative aims to modernize the state by providing technological tools to ensure citizens' access to public information. It also proposes ...", 'date': '2024-09-18', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.scientific.net/JBBBE.66.105', 'title': 'Exploring Cybersecurity Regulations and the Role of Blockchain', 'snippet': 'The study concludes that Honduras lacks a dedicated data protection statute, posing a significant impediment to cybersecurity regulatory efforts.', 'date': '2020-07-27', 'last_updated': '2025-04-06', 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Regional-Presence/Americas/Documents/EVENTS/2022/cyberdrill-22/Agenda%20Perfiles%20Cyberdrill%20Ho2022_en.pdf', 'title': '[PDF] Honduras 2022 - ITU', 'snippet': 'She has worked in the national digital inclusion program for families in vulnerability that includes their training for a safe, responsible and productive use ...', 'date': None, 'last_updated': '2025-09-11', 'matched': True}, {'url': 'https://latinarepublic.com/2024/02/14/honduras-achievements-in-science-senacit-2023/', 'title': 'Honduras | Achievements in Science (SENACIT) 2023', 'snippet': 'SENACIT and the Honduran Institute of Science, Technology, and Innovation (IHCIETI) aim to promote, develop, and strengthen the research system.', 'date': '2024-02-14', 'last_updated': '2025-10-05', 'matched': True}, {'url': 'https://www.ifc.org/content/dam/ifc/doc/mgrt/digital-entrepreneurship-and-innovation-in-central-america.pdf', 'title': '[PDF] Digital Entrepreneurship and Innovation in Central America', 'snippet': 'Firms need to digitalize their operations and sales to adapt to the post-COVID situation and to reactivate economies. Businesses in the digital sector and high- ...', 'date': None, 'last_updated': '2025-11-09', 'matched': True}, {'url': 'https://www.gtai.de/:PRO202001295031', 'title': '[PDF] honduras digital transformation for increased competitiveness', 'snippet': 'The following specific objectives have been established in order to achieve this: (i) increase connectivity coverage and use; (ii) reduce transaction costs for ...', 'date': '2025-01-01', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://ghsindex.org/wp-content/uploads/2021/12/Honduras.pdf', 'title': '[PDF] Honduras | GHS Index', 'snippet': 'There is no public evidence that Honduras conducts detection or surveillance activities (e.g. in soil, waterways, etc.)', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://www.oas.org/citelevents/es/Events/EToolDocDownloadFile/42647', 'title': '[DOC] https://www.oas.org/citelevents/es/Events/EToolDoc...', 'snippet': 'Girls in Cyber: Aimed at raising the awareness of women about STEM career streams at an early age, “Girls in Cyber” is the fair of mentorships in cybersecurity ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://2017-2021.state.gov/cybersecurity/', 'title': 'Cybersecurity - United States Department of State', 'snippet': 'DSS cybersecurity core responsibilities include: Cyber Incident response; In-depth analysis of malicious activity/attempted intrusions; Cyber threat ...', 'date': None, 'last_updated': '2025-02-16', 'matched': True}]</t>
+          <t>[{'url': 'https://tech.gov.bt/cybersecurity-division/', 'title': 'Cybersecurity Division – Government Technology Agency', 'snippet': 'The BtCIRT shall carry out of the following responsibilities at the national level: Act as a national point of contact for cyber security issues for ...', 'date': '2024-07-02', 'last_updated': '2025-10-11', 'matched': True}, {'url': 'https://generisonline.com/understanding-cybersecurity-regulations-in-bhutan-an-overview/', 'title': 'Understanding Cybersecurity Regulations in Bhutan: An Overview', 'snippet': 'Enforcing cybersecurity regulations in Bhutan presents several challenges that hinder the establishment of a robust cybersecurity framework. One ...', 'date': '2024-11-09', 'last_updated': '2025-09-24', 'matched': True}, {'url': 'http://www.bhutanaudit.gov.bt/wp-content/uploads/2023/07/Final-PA-Report-on-Cybersecurity-9.5.23.pdf', 'title': '[PDF] May 2023 - Royal Audit Authority', 'snippet': 'The performance audit of preparedness for cybersecurity was conducted in BtCIRT,. Government Technology Agency (GovTech). The audit covered ...', 'date': '2023-07-04', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://wbgeprocure-rfxnow.worldbank.org/rfxnow/waffle/upload/advertisementAttachment/439523/file.html', 'title': '[DOC] Bhutan - WBGeProcure RFx Now', 'snippet': 'The consultant will have to agree to keep confidential all information and documentation to be shared by the Royal Government of Bhutan and other stakeholders.', 'date': None, 'last_updated': '2025-10-26', 'matched': True}, {'url': 'https://gcscc.ox.ac.uk/files/cmmreviewreportbhutanseptember2015pdf', 'title': '[PDF] Building Cyber-security Capacity in the Kingdom of Bhutan', 'snippet': 'Typically, a national cyber security strategy would, among other things, establish a lead agency or ministry responsible for cyber-security in the. Page 9. 9.', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://www.nrdcs.eu/new/interview-national-csirt-in-a-small-country-the-kingdom-of-bhutan/', 'title': 'Interview: National CSIRT in a small country - the Kingdom of Bhutan', 'snippet': 'Since 2022, BtCIRT is now placed within the Cybersecurity Division under the Government Technology (GovTech) Agency following major Government transformation ...', 'date': '2024-10-01', 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://tech.gov.bt/wp-content/uploads/2025/05/National-Cybersecurity-Strategy_Published.pdf', 'title': '[PDF] National Cybersecurity Strategy - GovTech Agency', 'snippet': 'The Cybersecurity Division under the GovTech Agency will take up the responsibility of planning, stocktaking, risk profiling, and consolidation of the NCS ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.nab.gov.bt/post/national-assembly-members-attend-a-cyber-security-awareness-program-conducted-by-the-gov-tech', 'title': 'National Assembly Members attend a cyber security awareness ...', 'snippet': 'National Assembly Members attend a cyber security awareness program conducted by the Gov Tech. May 24, 2024. National Assembly Members attended ...', 'date': '2024-05-24', 'last_updated': '2024-09-06', 'matched': True}, {'url': 'https://prezi.com/p/csopftycw7yp/cyber-security-information-communications-and-media-act-of-bhutan-2018/', 'title': 'Cyber Security: Information, Communications and Media Act of ...', 'snippet': 'Cyber security involves the protection of information, ICT facilities, computer networks, and information systems against unauthorized ...', 'date': '2025-09-29', 'last_updated': '2025-10-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of University and Research (Ministero dell'Università e della Ricerca - MUR) in ITALY responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Development in BRUNEI responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8304,17 +8305,17 @@
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ministry of University and Research (Ministero dell'Università e della Ricerca - MUR) in ITALY</t>
+          <t>Ministry of Development in BRUNEI</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ministero dell'Università e della Ricerca (MUR)</t>
+          <t>Ministry of Development</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8324,7 +8325,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>The Ministry of University and Research (MUR) in Italy is not explicitly mentioned as responsible for cybersecurity policy, implementation, or coordination in the official Italian National Cybersecurity Strategy 2022–2026 or related governmental frameworks. The main authority for cybersecurity in Italy is the Agenzia per la Cybersicurezza Nazionale (ACN, National Cybersecurity Agency), established by law decree in 2021, which centrally manages the national cybersecurity strategy, policy enforcement, coordination, and related activities. Other ministries like the Ministry of Economy and Finance may coordinate or support funding aspects, but there is no indication that MUR leads or participates significantly in cybersecurity governance structures. Furthermore, MUR does not host national CERT/CSIRT teams, participate prominently in cybersecurity councils, or appear in relevant cybersecurity legislation or public communications related to cybersecurity responsibilities.[1][2][3][4][6]</t>
+          <t>Based on the available sources, there is no evidence that the Ministry of Development in Brunei is responsible for cybersecurity policy, implementation, technical coordination, or oversight. The Ministry of Transport and Infocommunications (MTIC) is explicitly mentioned as the ministry in charge of cybersecurity, hosting Cyber Security Brunei (CSB) and the Minister-in-Charge of Cybersecurity[1][3]. The Cybersecurity Act and related documents do not list the Ministry of Development as having any cybersecurity responsibilities[2][5]. There is no mention of the Ministry of Development leading or participating in cybersecurity committees, hosting a national CERT/CSIRT, overseeing information security standards, or participating in cybersecurity events or international initiatives[1][2][3][4][5].</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8334,14 +8335,14 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>[{'url': 'https://dig.watch/resource/italian-national-cybersecurity-strategy-2022-2026', 'title': 'Italian National Cybersecurity Strategy | 2022-2026', 'snippet': "The strategy outlines Italy's digital roadmap and seeks to implement over 80 measures by 2026, some through public-private partnerships.", 'date': '2023-11-03', 'last_updated': '2025-08-30', 'matched': True}, {'url': 'https://decode39.com/12141/italy-steps-up-cyber-defenses-with-e58-million-plan-to-boost-national-digital-security/', 'title': 'Italy steps up cyber defenses with €58 million plan - Decode39', 'snippet': 'The government has approved the allocation of €58 million to implement the National Cybersecurity Strategy over the 2025–2027 period, according ...', 'date': '2025-10-22', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://greydynamics.com/national-cybersecurity-agency-equips-italy-to-tackle-modern-threats/', 'title': 'National Cybersecurity Agency Equips Italy to Tackle Modern Threats', 'snippet': "The ACN's core task is to execute the national cybersecurity strategy decided by the Italian government. It strives to ensure coherence across the various ...", 'date': '2025-04-13', 'last_updated': '2025-04-16', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/italy-cybersecurity', 'title': 'Italy - Cybersecurity - International Trade Administration', 'snippet': "ACN ensures the implementation of Italy's first-ever cybersecurity strategy announced in May 2022, which outlines the country's digital roadmap.", 'date': '2024-01-23', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://www.sangfor.com/blog/cybersecurity/italian-breakthrough-in-cybersecurity', 'title': 'Italian National Cybersecurity Strategy and Its Breakthrough', 'snippet': "Italy's National Cybersecurity Strategy, launched by the NCA, allocates 1.2% of gross national investment yearly to cybersecurity.", 'date': '2022-11-23', 'last_updated': '2025-09-19', 'matched': True}, {'url': 'https://iapp.org/news/a/italy-updates-national-cybersecurity-and-data-protection-framework', 'title': 'Italy updates National Cybersecurity and Data Protection Framework', 'snippet': "The 2025 Italian National Framework for Cybersecurity and Data Protection is an important step forward to construct the country's digital infrastructure.", 'date': '2025-05-29', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://www.fortra.com/blog/cybersecurity-regulatory-landscape-italy-primer-business', 'title': 'Cybersecurity Regulatory Landscape in Italy: A Primer for Business', 'snippet': "Italy's regulatory framework for cybersecurity is layered. It blends EU directives with national legislation and sector-specific requirements.", 'date': '2025-09-25', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://database.cyberpolicyportal.org/en/entity/dye20n0o6cm/relationships?file=1669377340453p164s8mw92.pdf&amp;page=3', 'title': 'Strategia Nazionale di Cybersicurezza 2022-2026 (National ...', 'snippet': 'Law 71/2017 containing "Provisions for the protection of minors for the prevention and contrast of the phenomenon of cyberbullying". State. Italy.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.itu.int/en/ITU-D/Cybersecurity/Documents/National_Strategies_Repository/ACN_EN_Strategia.pdf', 'title': '[PDF] national cybersecurity - strategy - ITU', 'snippet': 'The prevention and countering of cybercrime is provided by the Italian National Police through the Postal and. Communications Police Service, ...', 'date': '2022-05-27', 'last_updated': '2024-02-03', 'matched': True}]</t>
+          <t>[{'url': 'https://www.usasean.org/article/brunei-stepping-cybersecurity-and-fraud-mechanisms', 'title': 'Brunei Stepping Up Cybersecurity and Fraud Mechanisms | US ABC', 'snippet': 'Cyber Security Brunei (CSB) is intensifying efforts to address online scams and digital fraud by cooperating with other government agencies and ...', 'date': '2025-10-30', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://www.csb.gov.bn/sites/default/files/downloads/CybersecurityAct/CAP_272_CYBERSECURITY_ACT.pdf', 'title': '[PDF] CYBERSECURITY ACT.fm - Cyber Security Brunei', 'snippet': '(m) to promote awareness of the need for and the importance of cybersecurity in Brunei Darussalam; (n) to perform such other functions and discharge such other ...', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.csb.gov.bn/about', 'title': 'About | Cyber Security Brunei', 'snippet': 'To lead national efforts in monitoring cyber threats, managing cyber security, and combating cyber crime. · Towards a resilient and safer cyber space that would ...', 'date': '2004-02-01', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://data.thailand.opendevelopmentmekong.net/dataset/9c1c9d92-2bfb-490a-b450-40b160dea88c/resource/09c49523-12dc-4f42-8964-a309ece1f57b/download/brunei-darussalams-e-government-strategy-in-overcoming-cyber-threat.pdf', 'title': '[PDF] brunei-darussalams-e-government-strategy-in-overcoming-cyber ...', 'snippet': 'The government focuses on implementing cyber defensive capabilities, protecting internal systems and improving the development of information technology.', 'date': None, 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.drewnetworkasia.com/media/hpkhnysg/dna-asean-guide-to-data-protection-cybersecurity.pdf', 'title': '[PDF] Data Protection and Cybersecurity Regulation in Southeast Asia', 'snippet': 'development of the digital economy in Brunei. Accordingly, the PDPO sets out the obligations of private sector organisations with respect to ...', 'date': '2025-03-13', 'last_updated': '2024-09-06', 'matched': True}, {'url': 'https://itpss.com/national-cyber-security-agency-be-formed-says-mtic-minister', 'title': 'NATIONAL CYBER SECURITY AGENCY TO BE FORMED, SAYS ...', 'snippet': 'BANDAR SERI BEGAWAN – The government will establish a national cyber security agency and is currently drafting new cyber security laws, the ...', 'date': '2020-01-09', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://borneobulletin.com.bn/cybersecurity-a-shared-responsibility-says-minister/', 'title': 'Cybersecurity a shared responsibility, says minister - Borneo Bulletin', 'snippet': 'The minister emphasised the need for vigilance from all sectors, noting that “cybersecurity is now widely recognised as a shared responsibility, ...', 'date': '2025-08-07', 'last_updated': None, 'matched': True}, {'url': 'https://www.factsasia.org/blog/cybersecurity-in-brunei-building-resilience-against-threats', 'title': 'Cybersecurity in Brunei: Building Resilience against Threats', 'snippet': 'The Cyber Security Brunei (CSB) is the national cybersecurity agency responsible for strengthening national cyber resilience by providing ...', 'date': '2025-04-01', 'last_updated': '2025-11-04', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Technology and Innovation in NAMIBIA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Science and Youth of Georgia in GEORGIA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8349,17 +8350,17 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Technology and Innovation in NAMIBIA</t>
+          <t>Ministry of Education, Science and Youth of Georgia in GEORGIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Technology and Innovation</t>
+          <t>Ministry of Education, Science and Youth of Georgia</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -8369,7 +8370,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Technology and Innovation (MHETI) in Namibia is primarily responsible for higher education, science, technology, innovation, and vocational training, aiming to enhance the national system of innovation and drive economic growth through research and development[1][2][4][7]. While it is actively involved in promoting innovation and technology, including developing policies related to research, science, and technology (e.g., space science and technology policy) in cooperation with other agencies[6], there is no explicit mention that MHETI has direct responsibility for national cybersecurity governance, policy, implementation, or technical coordination. The available references do not indicate MHETI hosts a national CERT/CSIRT, leads cybersecurity councils, or oversees information security standards. Therefore, MHETI may support technology and innovation broadly, but cybersecurity governance and enforcement appear to be outside its primary mandate, indicating a low level of cybersecurity responsibility.</t>
+          <t>The Ministry of Education, Science and Youth of Georgia is involved in cybersecurity primarily in educational and awareness contexts but is not responsible for national cybersecurity governance or technical incident response. It launched a School of Cyber Security initiative to retrain specialists and cooperates with Estonian experts to develop IT security systems for public sector organizations[1]. The Ministry provides filtered Internet connectivity to schools to block harmful sites and supports online safety education but does not operate national cybersecurity infrastructure like a CERT or lead cybersecurity policy formulation[2]. The Department of Enforcement Agency (DEA) within the Ministry of Justice leads overall cybersecurity efforts, operates Georgia's CERT, and manages technical incident response and cyber hygiene programs, including training for school children[2]. The Ministry of Education's role includes fostering cyber hygiene education and internet safety in schools rather than governance or enforcement of cybersecurity policies[2][9]. Thus, while it contributes to cybersecurity awareness and education, it is not the main responsible entity for cybersecurity governance or technical coordination in Georgia.</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8379,14 +8380,14 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.ncrst.na/wp-content/uploads/2021/10/NCRST-STI-POLICY.pdf', 'title': '[PDF] REPUBLIC OF NAMIBIA MINISTRY OF HIGHER EDUCATION ...', 'snippet': 'The Ministry responsible for STI will provide technical and administrative leadership for the implementation of the IAP in collaboration with a cross section of ...', 'date': None, 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://www.mheti.masimbi.com/downloads/MHETI_Strategic_Plan_v7.pdf', 'title': '[PDF] STRATEGIC PLAN - MHETI', 'snippet': "MHETI's strategic plan (2017-2021) aims to ensure quality higher education, with themes including legislative framework, research, and quality assurance, to ...", 'date': None, 'last_updated': '2025-09-22', 'matched': True}, {'url': 'https://unesdoc.unesco.org/ark:/48223/pf0000245818', 'title': 'TVET, higher education and innovation policy review: Namibia', 'snippet': 'The report provides a clear picture of TVET, higher education and innovation in the context of Namibia, highlighting how they underpin the visionary approach.', 'date': '2016-04-26', 'last_updated': '2025-07-19', 'matched': True}, {'url': 'https://mheti.gov.na/documents/4596495/4639122/Strategic+Plan+2018-2019+to+2021-2022.pdf/a1409eb1-f025-24b4-a8d9-e4baf3239265?t=1725356019567&amp;download=true', 'title': '[PDF] STRATEGIC PLAN', 'snippet': 'Namibia University of Science and Technology. OPM. Office of the Prime Minister ... REPUBLIC OF NAMIBIA. MINISTRY OF HIGHER EDUCATION, TRAINING &amp; INNOVATION.', 'date': None, 'last_updated': '2025-09-19', 'matched': True}, {'url': 'http://www.picmet.org/db/member/proceedings/2011/data/papers/11A0157.pdf', 'title': '[PDF] Successful Technology and Innovation Policy for Namibia - picmet', 'snippet': 'For this reason, institution-driven innovations are important because they can stimulate technological change among enterprises, especially if they form part of ...', 'date': None, 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://the-eis.com/elibrary/sites/default/files/downloads/literature/Namibia%20space%20science%20and%20technology%20Policy%202021.pdf', 'title': '[PDF] Namibia space science and technology policy, 2021', 'snippet': 'This policy is guided by a set of principles including the use of space science and technologies for peaceful purposes, sustainable development, expanding ...', 'date': None, 'last_updated': '2025-06-23', 'matched': True}, {'url': 'https://www.nta.com.na/wp-content/uploads/2021/09/TVET_POLICY.pdf', 'title': '[PDF] National Technical and Vocational Education and Training (TVET ...', 'snippet': 'The Ministry of Higher Education, Technology and. Innovation (MHETI) is cognisant of the important role TVET plays in human capacity and socio- economic ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://www.developmentaid.org/organizations/view/577342/ministry-of-higher-educationtechnology-and-innovation', 'title': '️Ministry of Higher Education,Technology and Innovation', 'snippet': 'The Ministry of Higher Education, Technology and Innovation is mandated to ensure that quality higher education as well as vocational and technical ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://mes.gov.ge/print.php?id=3940&amp;lang=eng', 'title': 'Ministry of Education, Science And Youth of Georgia', 'snippet': 'Cyber Security is indispensable part of the activities of any organization and a strong IT security system protects the agencies/ governmental ...', 'date': '2012-04-10', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.economy.ge/uploads/files/2017/projects/communications/bdt_18445.pdf', 'title': '[PDF] National child online safety assessment for Georgia', 'snippet': 'The ability for young students to use online tools effectively and safely provides both a skill for life and the means to acquire new skills”. This sense of ...', 'date': None, 'last_updated': '2025-10-03', 'matched': True}, {'url': 'http://www.ed.gov/teaching-and-administration/safe-learning-environments/school-safety-and-security/k-12-cybersecurity', 'title': 'K-12 Cybersecurity | U.S. Department of Education', 'snippet': 'Directing schools, districts and state educational agencies to CISA and FBI regional office points of contact to report cybersecurity incidents and support ...', 'date': '2025-09-17', 'last_updated': '2025-11-12', 'matched': True}, {'url': 'https://gta.georgia.gov/georgia-cyber-workforce-academy', 'title': 'Georgia Cyber Workforce Academy', 'snippet': 'Cyber Incident Management; IT and Information Security Risk Management; Security Awareness, Training, Education, and Professional Development; Continuity of ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://bidenwhitehouse.archives.gov/wp-content/uploads/2024/06/NCWES-Initial-Report-2024.06.25.pdf', 'title': '[PDF] NATIONAL CYBER WORKFORCE AND EDUCATION STRATEGY', 'snippet': 'The CyAD conference provided an opportunity to encourage the integration of cybersecurity across academic disciplines and industry sectors, as ...', 'date': '2024-06-25', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://www.georgiacyber.org/parents/learning-coach-responsibilities/overview-of-responsibilities', 'title': 'Overview of Responsibilities - Georgia Cyber Academy', 'snippet': 'As the parent or learning coach, you are responsible for monitoring your student at home to ensure they are attending live classes or sessions as required.', 'date': None, 'last_updated': '2025-07-13', 'matched': True}, {'url': 'https://www.atlantapublicschools.us/cms/lib/GA01000924/Centricity/domain/7849/jobdescriptions/job_description_mailmerge_files/JD3286.pdf', 'title': '[PDF] JOB DESCRIPTION CTAE Teacher (Cybersecurity) DIVISION', 'snippet': 'The CTAE Teacher (Cybersecurity) is responsible for teaching the theoretical and practical concepts, strategies and techniques associated with the field of ...', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.mes.gov.ge/content.php?id=7375&amp;lang=eng', 'title': 'A Guide for Cybersecurity was created for Teachers', 'snippet': 'The National Center for Teacher Professional Development has created a video-guide for cybersecurity especially for teachers in line with ...', 'date': '2017-05-27', 'last_updated': '2025-07-27', 'matched': True}, {'url': 'https://gadoe.org/technology/cybersecurity/', 'title': 'Cybersecurity – Georgia Department of Education', 'snippet': 'We invite students to explore important themes in cybersecurity, like "Secure Our Schools," and harness their creativity to raise awareness about online safety!', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'http://gtarchive.georgiatoday.ge/news/10185/Georgian-Youth-Competes-for-Cyber-Security', 'title': 'Georgian Youth Competes for Cyber Security - Georgia Today', 'snippet': 'Divided into fifty teams, CyberCube participants compete to fulfil a variety of tasks related to preventing cyber crisis situations and ...', 'date': '2018-05-08', 'last_updated': '2025-08-16', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Education and Human Resources Development (MEHRD) in SOLOMON  ISLANDS responsible for cybersecurity?
+          <t xml:space="preserve">Is the Division of Science, Technology and Innovation (DSTI), Ministry of Investment, Entrepreneurship and Industry in SEYCHELLES responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8394,17 +8395,17 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ministry of Education and Human Resources Development (MEHRD) in SOLOMON  ISLANDS</t>
+          <t>Division of Science, Technology and Innovation (DSTI), Ministry of Investment, Entrepreneurship and Industry in SEYCHELLES</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ministry of Education and Human Resources Development (MEHRD)</t>
+          <t>Division of Science, Technology and Innovation (DSTI), Ministry of Investment, Entrepreneurship and Industry</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -8414,7 +8415,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>The Ministry of Education and Human Resources Development (MEHRD) in Solomon Islands is primarily responsible for integrating technology into education, managing ICT in schools, and overseeing ICT services within the education sector. This includes managing ICT policies, teacher training, curricula, and data collection related to educational technology[2]. However, there is no evidence that MEHRD has explicit responsibility for national cybersecurity governance, policy, or coordination. Instead, cybersecurity-related functions such as hosting the national Computer Emergency Response Team (SICERT) and setting cybersecurity frameworks are led by other bodies, notably the Ministry of Communication and Aviation which launched SICERT and established a cybersecurity working group[1][5]. Additional initiatives and strategies on cybersecurity also come from agencies like the Royal Solomon Islands Police and the Central Bank of Solomon Islands[4][5]. MEHRD manages ICT within its remit without direct involvement in national cybersecurity policy, enforcement, or incident response, thus its cybersecurity responsibility is low and focused on its sectoral ICT management rather than national cybersecurity governance.</t>
+          <t>The Division of Science, Technology and Innovation (DSTI) within the Ministry of Investment, Entrepreneurship and Industry in Seychelles is not explicitly identified as responsible for cybersecurity governance or operational functions. The primary cybersecurity responsibilities in Seychelles lie with the Department of Information Communications Technology (DICT), which hosts the National Computer Security Incident Response Team (NCSIRT) and oversees the implementation of the National Cyber Security Policy and Strategy. The Seychelles Cybersecurity Agency (SCA) also plays a central role in cybersecurity policy development, standards enforcement, and outreach. There is no evidence from national policies, laws, or reports that DSTI leads or participates as a member of any national cybersecurity committees, hosts a national CERT/CSIRT, oversees cybersecurity information standards, or engages significantly in cybersecurity response efforts. Thus, DSTI's role in national cybersecurity appears limited or indirect, possibly supporting innovation aspects but not managing cybersecurity governance or enforcement directly[1][2][3][4].</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8424,14 +8425,14 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.mca.gov.sb/news-updates/520-solomon-islands-launches-sicert-project-to-combat-cybersecurity-threats.html', 'title': 'Solomon Islands launches SICERT project to combat cybersecurity ...', 'snippet': 'It will focus on critical areas including Promoting Cybersecurity; Providing coordination on cybersecurity-related functions; Raising ...', 'date': '2025-04-08', 'last_updated': '2025-09-25', 'matched': True}, {'url': 'https://education-profiles.org/oceania/solomon-islands/~technology', 'title': 'Solomon Islands | Technology - Education Profiles', 'snippet': 'The management of ICT devices in schools is guided by the ICT School Policy, with schools mainly responsible for managing the use of ICTs in classrooms.', 'date': '2023-06-09', 'last_updated': '2025-10-29', 'matched': True}, {'url': 'https://cenfri.org/wp-content/uploads/2021-Pacific-SolomonIslands-digital-ID-country-diagnostic.pdf', 'title': '[PDF] SOLOMON ISLANDS - Cenfri', 'snippet': 'A national cybersecurity framework is under development which bodes well for ensuring security of digital ID platform against data breaches. If this framework ...', 'date': None, 'last_updated': '2025-09-14', 'matched': True}, {'url': 'https://www.cbsi.com.sb/press-release-no-7-25-cbsi-launches-cyber-security-strategy-2025-to-safeguard-financial-stability/', 'title': 'Press Release No.7/25 - CBSI Launches Cyber Security Strategy ...', 'snippet': 'The Cyber Security Strategy outlines a three-year roadmap aimed at delivering the mission: “enable a secure and resilient financial sector within the Solomon ...', 'date': '2025-05-21', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://www.theprif.org/sites/theprif.org/files/documents/WB%20Accelerating-Practical-Digital-Development-in-the-Solomon-Islands.pdf', 'title': '[PDF] Accelerating Practical Digital Development in the Solomon Islands', 'snippet': 'The specific responsibilities on cybersecurity and cybercrime, as well as the remit of the CWG over areas beyond cybercrime/cybersecurity (i.e., data protection ...', 'date': None, 'last_updated': '2025-07-01', 'matched': True}, {'url': 'https://solomons.gov.sb/cyber-smart-pacific/', 'title': 'Cyber Smart Pacific - Solomon Islands Government Portal', 'snippet': "We're a government agency that helps Solomon Islanders identify their cyber security issues and guide them in resolving them.", 'date': None, 'last_updated': '2024-07-29', 'matched': True}, {'url': 'https://solomons.gov.sb/wp-content/uploads/2025/09/SIG-ICTS-Digital_final.pdf', 'title': '[PDF] Digital - Data, People, Technology and Cyber Strategy', 'snippet': 'Transforming the Solomon Islands Government into a digitally-driven, efficient, and transparent entity that delivers high-quality services, ensures data ...', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://sbm.sb/first-ever-national-cybersecurity-policy-launched/', 'title': 'First Ever National Cybersecurity Policy Launched', 'snippet': 'The first ever National Cybersecurity Policy was launched this morning in Honiara with the intention to response to cyber security needs of the country.', 'date': '2024-08-20', 'last_updated': '2025-02-04', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-solomon-islands-slb-education-the-complete-guide-to-using-ai-in-the-education-industry-in-solomon-islands-in-2025', 'title': 'The Complete Guide to Using AI in the Education Industry in ...', 'snippet': "Beginner's guide to using AI in education in the Solomon Islands in 2025 — policy, tools, ethics, and practical steps for schools and ...", 'date': '2025-09-13', 'last_updated': '2025-09-30', 'matched': True}]</t>
+          <t>[{'url': 'https://blog.gavindennis.com/cyber-security-in-seychelles/', 'title': 'Cyber Security in Seychelles - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'The NCSIRT is responsible for handling cyber security incidents at the national level. Their roles include receiving reports of cyberattacks, ...', 'date': '2024-10-22', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://generisonline.com/an-overview-of-cybersecurity-regulations-in-seychelles/', 'title': 'An Overview of Cybersecurity Regulations in Seychelles', 'snippet': 'Explore the importance of cybersecurity in Seychelles, highlighting regulations like the Data Protection Act and the Computer Misuse Act.', 'date': '2024-11-27', 'last_updated': '2025-09-15', 'matched': True}, {'url': 'https://www.ict.gov.sc/documents/Policies/Seychelles%20National%20Cybersecurity%20Policy%20-%202019.pdf', 'title': '[PDF] NATIONAL CYBER SECURITY POLICY 2019 - DICT', 'snippet': 'The purpose of this policy is to set a vision for the future of cybersecurity in Seychelles to be achieved over the course of the next 5 years.', 'date': None, 'last_updated': '2025-10-09', 'matched': True}, {'url': 'https://www.ict.gov.sc/documents/Policies/National%20Cybersecurity%20Strategy%20-%202019-2024.pdf', 'title': '[PDF] National Cybersecurity Strategy - 2019-2024.pdf - DICT', 'snippet': 'Their roles are to: Encourage Research &amp; Development in the cybersecurity field to identify optimal solutions for Seychelles; Develop educational and training ...', 'date': None, 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/sc_2022/', 'title': 'NCSI :: Seychelles - National Cyber Security Index', 'snippet': 'BASELINE CYBER SECURITY INDICATORS. 5. Protection of digital services 0/5 0%. 0. 5 0%. 5.1. Cyber security responsibility for digital service providers 0. 0. 1 ...', 'date': '2023-06-14', 'last_updated': '2025-09-30', 'matched': True}, {'url': 'https://www.nucamp.co/blog/coding-bootcamp-seychelles-syc-top-cybersecurity-employers-in-seychelles-whos-hiring-and-what-they-look-for', 'title': "Top Cybersecurity Employers in Seychelles: Who's Hiring and What ...", 'snippet': "Discover top cybersecurity employers in Seychelles, who's hiring, and the skills you need for a career in Seychelles, SC.", 'date': '2024-12-24', 'last_updated': '2025-03-06', 'matched': True}, {'url': 'https://cbs.sc/Downloads/legislations/Cyber%20Security%20Guidelines%20April%202019.pdf', 'title': '[PDF] Cyber Security Guidelines April 2019.pdf - Central Bank Of Seychelles', 'snippet': 'This should include protecting data processed in endpoint devices, data in transmission, as well as data stored in servers and other digital ...', 'date': '2019-04-09', 'last_updated': '2025-09-13', 'matched': True}, {'url': 'https://maarcofrancis.com/leadership-values/data-privacy-security-digital-governance/', 'title': 'Data Privacy and Security in Seychelles Governance - Maarco Francis', 'snippet': 'Learn how data privacy and security enhance digital governance in Seychelles, ensuring trust and efficiency.', 'date': '2025-08-25', 'last_updated': None, 'matched': True}, {'url': 'https://mia.gov.sc/nccc/news/strengthening-cybersecurity-in-the-banking-secto', 'title': 'Strengthening Cybersecurity in the Banking Sector', 'snippet': "The workshop emphasized that cyber resilience is a shared responsibility, and collaboration is essential to protecting Seychelles' financial ...", 'date': '2025-08-21', 'last_updated': None, 'matched': True}, {'url': 'https://www.seychellescompanyregistration.com/blogs/data-protection-law', 'title': 'Seychelles Data Protection Law for Offshore Businesses', 'snippet': 'Seychelles data protection laws provide a framework that enables businesses to be private while operating within the law.', 'date': '2025-06-02', 'last_updated': '2025-07-02', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the National Secretariat of Science, Technology and Innovation (SENACYT) in PANAMA responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Culture and Innovation in HUNGARY responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8439,27 +8440,27 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>National Secretariat of Science, Technology and Innovation (SENACYT) in PANAMA</t>
+          <t>Ministry of Culture and Innovation in HUNGARY</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>National Secretariat of Science, Technology and Innovation (SENACYT)</t>
+          <t>Ministry of Culture and Innovation</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ResponsibilityLevel.LOW</t>
+          <t>ResponsibilityLevel.NONE</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>SENACYT is primarily responsible for promoting science, technology, and innovation development in Panama to enhance productivity, competitiveness, and modernization across sectors, guided by national strategic plans such as PENCYT 2015-2019 and forthcoming PENCYT 2025-2029. While SENACYT is involved in science and technology initiatives and contributes to digitalization efforts, it is not explicitly responsible for cybersecurity policy, implementation, or technical coordination. The operational cybersecurity functions in Panama, including hosting the national CSIRT and managing the Panama Cybersecurity Center, are under other government entities such as the National Authority for Government Innovation (AIG) and the Panama Cybersecurity Center. SENACYT may indirectly support cybersecurity through digital innovation and research but does not lead or directly oversee cybersecurity governance or enforcement in the country [1][2][3][4][5][6].</t>
+          <t>Based on the reviewed National Cyber Security Strategy of Hungary and related documentation, cybersecurity governance and responsibilities are primarily assigned to entities such as the Prime Minister's Office (state secretary heading this office), the National Cyber Security Coordination Council, the National Cybersecurity Incident Response Centre (NBSZ), and sectoral incident response centers. The Ministry of Culture and Innovation is not explicitly mentioned as responsible for cybersecurity policy, implementation, technical coordination, or hosting a CERT/CSIRT. Furthermore, cybersecurity authority oversight, incident response, legislative enforcement, and certification schemes are led by specialized cybersecurity authorities and government offices distinct from the Ministry of Culture and Innovation. No evidence from the national strategy, legal frameworks (such as the Cybersecurity Act of 2024), or other official sources attributes cybersecurity governance or operational roles to this Ministry.</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8469,14 +8470,14 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>[{'url': 'https://newsroompanama.com/2025/06/29/panama-cybersecurity-center-becomes-reality/', 'title': 'Panama Cybersecurity Center Becomes Reality', 'snippet': 'The Panama cybersecurity center will monitor government networks in real time to detect threats before they disrupt services.', 'date': '2025-06-29', 'last_updated': '2025-09-01', 'matched': True}, {'url': 'https://www.trade.gov/country-commercial-guides/panama-cybersecurity', 'title': 'Panama - Cybersecurity - International Trade Administration', 'snippet': 'Additionally, the government aims to move beyond awareness into actively combating cyber threats and online services disruption.', 'date': '2023-04-05', 'last_updated': '2025-10-28', 'matched': True}, {'url': 'https://www.devex.com/organizations/la-secretaria-nacional-de-ciencia-tecnologia-e-innovacion-senacyt-78616', 'title': 'La Secretaría Nacional de Ciencia, Tecnología e Innovación ...', 'snippet': 'All SENACYT activities, projects and programs aim to strengthen, support, induce and promote the development of science, technology and innovation.', 'date': '1997-04-15', 'last_updated': '2025-10-18', 'matched': True}, {'url': 'https://council.science/wp-content/uploads/2025/02/AI-Paper-Case-Study-Panama_V2.pdf', 'title': '[PDF] PANAMA - International Science Council', 'snippet': 'Key takeaways. • Panama faces multifaceted challenges to the successful adoption of AI across a range of industries and sectors.', 'date': None, 'last_updated': '2025-11-06', 'matched': True}, {'url': 'https://openknowledge.worldbank.org/server/api/core/bitstreams/befd0b2e-73c9-554a-a336-ae8f4cb0f266/content', 'title': '[PDF] Republic of Panama ICT Sector Policy Note for Panama', 'snippet': 'The mandate of the CSIRT foresees its key role in ensuring cyber security in the public sector, i.e. coordination of efforts to raise levels of ...', 'date': '2014-08-06', 'last_updated': '2025-04-22', 'matched': True}, {'url': 'https://www.oecd.org/content/dam/oecd/en/publications/reports/2019/09/digital-government-review-of-panama_2ef7c0cd/615a4180-en.pdf', 'title': '[PDF] Digital Government Review of Panama (EN) - OECD', 'snippet': 'In recent years, the Government of Panama has invested in the digitalisation of the public sector for improved efficiency and responsiveness. It has laid the ...', 'date': None, 'last_updated': '2024-12-25', 'matched': True}, {'url': 'https://bella-programme.eu/en/news-2020/264-panama-redclara-and-senacyt-boosting-a-new-rnen', 'title': 'Panama: RedCLARA and SENACYT boosting a new RNEN', 'snippet': 'The SENACYT Secretary, Eduardo Ortega, remarks on the high relevance of science and research networks in facing global challenges and crises. He ...', 'date': '2023-04-13', 'last_updated': '2024-12-14', 'matched': True}, {'url': 'https://www.lac4.eu/lac4-brings-panama-to-cyberwizards-2025/', 'title': 'LAC4 Brings Panama to CyberWizards 2025', 'snippet': 'Team of five girls aged 13 to 16 will participate in a training camp to learn about the world of hacking, cybersecurity and coding. ... Panama ( ...', 'date': '2025-08-12', 'last_updated': '2025-10-06', 'matched': True}, {'url': 'https://panama.cybertechconference.com/sites/panama22/files/2025-02/agenda%20A4%202025%20(2).pdf', 'title': '[PDF] | Cybertech Latin America 2025', 'snippet': 'Join us as we explore the importance of preparedness, response, and recovery to maintain business continuity in the face of cyberattacks.', 'date': '2025-02-20', 'last_updated': '2025-09-20', 'matched': True}, {'url': 'https://www.senacyt.gob.pa/en/international-cooperation-office/?csrt=4359559023248197057', 'title': 'International Cooperation Office - senacyt', 'snippet': 'Position Panama as an emerging and competitive economy in the international market based on knowledge and technological development, through cooperation ...', 'date': None, 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://nsarchive.gwu.edu/sites/default/files/documents/4378257/Government-of-Hungary-National-Cyber-Security.pdf', 'title': '[PDF] Government-of-Hungary-National-Cyber-Security.pdf', 'snippet': 'This Strategy indicates that Hungary is ready to perform and take responsibility for cyberspace protection tasks and intends to develop the Hungarian cyberspace ...', 'date': None, 'last_updated': '2025-08-22', 'matched': True}, {'url': 'https://ceelegalmatters.com/briefings/29288-hungary-s-new-cybersecurity-strategy', 'title': "Hungary's New Cybersecurity Strategy - CEE Legal Matters", 'snippet': "Hungary's strategy aims to build resilient cybersecurity capabilities, protect digital well-being, raise cybersecurity awareness, and foster cooperation.", 'date': '2025-04-11', 'last_updated': '2025-04-12', 'matched': True}, {'url': 'https://practiceguides.chambers.com/practice-guides/cybersecurity-2025/hungary/trends-and-developments', 'title': 'Cybersecurity 2025 - Hungary - Global Practice Guides', 'snippet': 'Concerned entities must report cybersecurity incidents to the NBSZ as the cybersecurity authority designated as the national Computer Security ...', 'date': '2025-03-13', 'last_updated': '2025-10-25', 'matched': True}, {'url': 'https://dig.watch/resource/hungarys-strategy-for-network-and-information-systems-security', 'title': "Hungary's Strategy for Network and Information Systems Security", 'snippet': 'The Strategy for the Security of Network and Information Systems in Hungary focuses on creating a secure and resilient cyberspace, aiming to enhance ...', 'date': '2024-08-16', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://copla.com/blog/compliance-regulations/nis2-directive-regulations-and-implementation-in-hungary/', 'title': 'NIS2 directive regulations and implementation in Hungary - Copla', 'snippet': 'It mandates risk management, formal reporting protocols, and specific oversight procedures.', 'date': '2025-08-21', 'last_updated': '2025-11-13', 'matched': True}, {'url': 'https://insightplus.bakermckenzie.com/bm/data-technology/hungary-new-framework-for-cybersecurity-regulation', 'title': 'Hungary: New framework for cybersecurity regulation', 'snippet': 'The Cybersecurity Act provides a new, comprehensive cybersecurity framework, and aims to fully transpose the EU NIS2 Directive into national law.', 'date': '2024-12-18', 'last_updated': '2025-01-20', 'matched': True}, {'url': 'https://www.ameeba.com/blog/hungarian-government-s-cybersecurity-measures-unpacking-the-implications-and-potential-solutions/', 'title': "Hungarian Government's Cybersecurity Measures: Unpacking the ...", 'snippet': 'This plan includes increased investment in cybersecurity infrastructure, regulatory revisions, and public awareness campaigns. The move was a ...', 'date': '2025-05-28', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://cyberhubs.eu/wp-content/uploads/2025/02/Final-version-D2.3-Cybersecurity-skills-strategies-Hungary.pdf', 'title': '[PDF] Cybersecurity skills strategy Hungary. - CyberHubs', 'snippet': 'Several provisions of the Cybersecurity Act and its implementing regulations are directly relevant to cyber skilling and the job market. Summary ...', 'date': '2025-02-01', 'last_updated': None, 'matched': True}, {'url': 'https://www.trade.gov/market-intelligence/hungary-cybersecurity-opportunities', 'title': 'Hungary Cybersecurity Opportunities', 'snippet': 'The Cybersecurity Certification Act, enacted by Hungary in May 2023, requires basic cybersecurity measures for the electronic information ...', 'date': '2024-09-04', 'last_updated': '2024-11-30', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Higher Education, Science, Technology and Innovation (Ministerio de Educación Superior, Ciencia, Tecnología e Innovación) in ECUADOR responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Science and Technology in SRI LANKA responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8484,17 +8485,17 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, Technology and Innovation (Ministerio de Educación Superior, Ciencia, Tecnología e Innovación) in ECUADOR</t>
+          <t>Ministry of Science and Technology in SRI LANKA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ministry of Higher Education, Science, Technology and Innovation</t>
+          <t>Ministry of Science and Technology</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -8504,7 +8505,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>The Ministry of Higher Education, Science, Technology and Innovation in Ecuador is not explicitly mentioned as the primary agency responsible for national cybersecurity policy, implementation, or technical coordination. The main responsibility for cybersecurity in Ecuador lies with the Ministry of Telecommunications and Information Society, which oversees the National Cybersecurity Center (CNCS) and the Computer Emergency Response Team (CERT-EC) [1, 3, 4]. The Ministry of Higher Education, Science, Technology and Innovation plays a supporting role by fostering cybersecurity education and research within higher education institutions. For example, it is involved in advancing cybersecurity academic programs and training educators, which contributes to building national cybersecurity capabilities [2, 3]. However, it does not host a national CERT/CSIRT, lead or serve as a member of the main cybersecurity committee, or oversee information security standards or network protection for the country. Its involvement is primarily in the educational and research aspects rather than direct cybersecurity governance or incident response.</t>
+          <t>The Ministry of Science and Technology in Sri Lanka is not prominently identified as responsible for national cybersecurity governance. Instead, cybersecurity policy, implementation, and coordination fall mainly under the Ministry of Digital Economy (also referred to as Ministry of Digital Infrastructure and Information Security) and the Ministry of Technology. For instance, the Sri Lanka Computer Emergency Readiness Team (SLCERT), a key national cybersecurity body, operates under the Ministry of Technology rather than the Ministry of Science and Technology[7]. The National Cyber Security Bill and other government strategies and agencies such as the Cyber Security Regulatory Authority and National Cyber Security Operations Centre are connected with these ministries and not explicitly with the Ministry of Science and Technology[1][4][5][6]. There is no clear mention of the Ministry of Science and Technology hosting a CERT, leading cybersecurity committees, overseeing cybersecurity standards or infrastructure, or participating to a significant extent in public events or international collaborations on cybersecurity. Therefore, based on the available information, its role in cybersecurity is very limited or indirect at best.</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8514,14 +8515,14 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>[{'url': 'https://generisonline.com/overview-of-cybersecurity-regulations-in-ecuador/', 'title': 'Overview of Cybersecurity Regulations in Ecuador', 'snippet': "In addition to addressing domestic concerns, Ecuador's cybersecurity regulations also aim to comply with international agreements and treaties.", 'date': '2024-11-13', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'https://academic.oup.com/cybersecurity/article/5/1/tyz001/5382610', 'title': 'Cybersecurity education in a developing nation: the Ecuadorian ...', 'snippet': 'This article explores challenges faced by the higher educational system of Ecuador in advancing cybersecurity education.', 'date': '2019-03-18', 'last_updated': '2025-10-10', 'matched': True}, {'url': 'https://blog.gavindennis.com/cyber-security-in-ecuador/', 'title': 'Cyber Security in Ecuador - Blog | Gavin Dennis - Gavin Dennis', 'snippet': 'Ecuador has a Computer Emergency Response Team (CERT-EC). This team helps organisations deal with cyberattacks. They offer advice and support to ...', 'date': '2024-10-30', 'last_updated': '2025-10-13', 'matched': True}, {'url': 'https://ncsi.ega.ee/country/ec_2022/', 'title': 'NCSI :: Ecuador - National Cyber Security Index', 'snippet': 'Cyber security responsibility for digital service providers 0 ... Ecuador (an agency under the Ministry of Telecommunications and the Information Society).', 'date': '2022-09-29', 'last_updated': '2025-03-07', 'matched': True}, {'url': 'https://infosecon.net/workshop/downloads/2018/pdf/Cybersecurity_incident_response_capabilities_in_the_Ecuadorian_financial_sector.pdf', 'title': '[PDF] Cybersecurity incident response capabilities in the Ecuadorian ...', 'snippet': 'We incorporated two cyber-attack scenarios to assess WTS: “advanced phishing” includ- ing malware capabilities (i.e. pharming), and hacking of ...', 'date': '2018-07-02', 'last_updated': '2025-03-24', 'matched': True}, {'url': 'https://sites.wp.odu.edu/matthewrozean/article-review-2/', 'title': 'Article Review #2 | E-Portfolio - Old Dominion University WordPress', 'snippet': "This article tries to help improve Ecuador's educational systems and finds opportunities to help improve their role in cybersecurity education. The research ...", 'date': None, 'last_updated': '2025-05-22', 'matched': True}, {'url': 'https://www.dataguidance.com/jurisdictions/ecuador', 'title': 'Ecuador | Jurisdictions - DataGuidance', 'snippet': "Ecuador: Draft law on cybersecurity introduced\u200b\u200b Ecuador's draft law on cybersecurity aims to enhance digital security and prevent cybercrime.", 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://www.semanticscholar.org/paper/81286d09cd88d5b12b4977eeb274e01df518d485', 'title': 'Cybersecurity education in a developing nation - Semantic Scholar', 'snippet': 'Cybersecurity risks and strategies in learning services of Higher Education Institutions (HEIs) in developing and emerging countries – a critical scoping review.', 'date': None, 'last_updated': None, 'matched': True}, {'url': 'https://thedefensepost.com/2025/11/05/us-ecuador-cyber-defense-resecurity/', 'title': 'US and Ecuador Strengthen Collaboration in Cyber Defense', 'snippet': 'Ecuador strengthens its cyber defenses with support from US firms, including Resecurity, to counter digital threats and protect national ...', 'date': '2025-11-05', 'last_updated': None, 'matched': True}]</t>
+          <t>[{'url': 'https://www.metadefencelabs.com/single-post/2019/06/06/decoding-sri-lankas-cyber-security-bill-2019', 'title': "Decoding Sri Lanka's Cyber Security Bill 2019 - Meta Defence Labs", 'snippet': 'The new Cybersecurity Bill proposes to establish a Cyber Security Agency to act as the executive governing body for cybersecurity in Sri Lanka ...', 'date': '2019-06-06', 'last_updated': '2025-11-04', 'matched': True}, {'url': 'https://www.biometricupdate.com/202511/sri-lanka-strengthens-cyber-defenses-digital-infrastructure', 'title': 'Sri Lanka strengthens cyber defenses, digital infrastructure', 'snippet': '“It will conduct national cybersecurity operations, coordinate with sectoral and international CERTs, manage threat intelligence and incident ...', 'date': '2025-11-14', 'last_updated': '2025-11-14', 'matched': True}, {'url': 'https://mode.gov.lk/docs/about-us/overview', 'title': 'Overview | Ministry of Digital Economy', 'snippet': 'Actively intervene and prevent incidents related to cyber security. Provision of necessary technical support for digital forensic investigations. Enforcing ...', 'date': '2022-01-01', 'last_updated': '2025-09-02', 'matched': True}, {'url': 'http://www.trc.gov.lk/content/files/policy/Cyber-Security-Bill-13-07-2023.pdf', 'title': '[PDF] Cyber-Security-Bill-13-07-2023.pdf', 'snippet': '(2) The Authority shall promote and sponsor the training of technical personnel on the subjects of information technology and cyber security, ...', 'date': '2023-07-13', 'last_updated': '2025-09-29', 'matched': True}, {'url': 'https://sherloc.unodc.org/cld/uploads/res/treaties/strategies/sri_lanka/lka0001s_html/Information_and_Cyber_Security_Strategy_of_Sri_Lanka_20182023.pdf', 'title': '[PDF] Information and Cyber Security Strategy of Sri Lanka', 'snippet': "The primary responsibility of safeguarding security in each sector's digital government systems and infrastructure, and of ensuring adequate ...", 'date': '2018-04-17', 'last_updated': '2025-03-29', 'matched': True}, {'url': 'https://lankanewsweb.net/archives/128307/president-launches-national-cyber-protection-strategy-and-cyber-security-operations-centre/', 'title': 'President Launches National Cyber Protection Strategy and Cyber ...', 'snippet': 'Establishing the legal and administrative framework for cyber security. Developing a skilled cyber security workforce. Raising public awareness, ...', 'date': '2025-09-20', 'last_updated': '2025-11-15', 'matched': True}, {'url': 'https://www.eccouncil.org/ec-council-in-news/ec-council-and-slcert-sign-landmark-mou-to-elevate-sri-lankas-cybersecurity-capabilities/', 'title': 'EC-Council and SLCERT Sign Landmark MOU to Elevate Sri ...', 'snippet': 'Established under the Ministry of Technology, SLCERT plays a key role in managing cybersecurity incidents, providing real-time alerts, and ...', 'date': '2024-12-23', 'last_updated': '2025-10-20', 'matched': True}, {'url': 'https://www.news.lk/current-affairs/launch-of-national-cyber-protection-strategy-2025-2029-and-opening-of-national-cyber-security-operations-centre-ncsoc-under-presidents-patronage', 'title': 'Launch of National Cyber Protection Strategy (2025–2029) and ...', 'snippet': 'The strategy envisions the establishment of the necessary legal and administrative framework for cyber security, the creation of a skilled ...', 'date': '2025-09-19', 'last_updated': None, 'matched': True}, {'url': 'https://srilankamirror.com/news/national-cyber-security-operations-centre-launched-pics/', 'title': 'National Cyber Security Operations Centre launched (Pics)', 'snippet': 'Its mandate includes the continuous monitoring of cyber threats, risks and attacks, issuing immediate alerts to relevant parties and protecting ...', 'date': '2025-09-19', 'last_updated': None, 'matched': True}, {'url': 'https://www.gov.lk/sri-lanka1/legal', 'title': 'Welcome to GOV.LK :: eLaws and Policies', 'snippet': 'Accession to this Convention significantly enhances the ability of Sri Lanka to carry out successful investigations of cybercrime offences, by gathering ...', 'date': '2000-01-01', 'last_updated': '2025-11-11', 'matched': True}]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is the Ministry of Industry and Advanced Technology in UNITED ARAB EMIRATES responsible for cybersecurity?
+          <t xml:space="preserve">Is the Ministry of Education, Culture and Science (Ministerie van Onderwijs, Cultuur en Wetenschap) in NETHERLANDS responsible for cybersecurity?
 A ministry handles cybersecurity if it: Is explicitly mentioned in a national strategy/law/report as being responsible for cybersecurity policy, implementation, or technical coordination; Hosts a national CERT/CSIRT/CIRT; Leads or is a member of a cybersecurity committee, council, or working group; Oversees information security standards, network protection, or the like; Attends or participates in events, workshops, or press releases; or works with other countries or organizations on joint initiatives.
 </t>
         </is>
@@ -8529,17 +8530,17 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ministry of Industry and Advanced Technology in UNITED ARAB EMIRATES</t>
+          <t>Ministry of Education, Culture and Science (Ministerie van Onderwijs, Cultuur en Wetenschap) in NETHERLANDS</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Ministry of Industry and Advanced Technology</t>
+          <t>Ministry of Education, Culture and Science</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8549,7 +8550,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Available information does not explicitly identify the Ministry of Industry and Advanced Technology as responsible for national cybersecurity policy, implementation, or coordination in the UAE. Instead, key responsibilities lie with entities such as the Telecommunications and Digital Government Regulatory Authority (TDRA), the UAE Cybersecurity Council established by the Cabinet, and the Signals Intelligence Agency, which oversee the national cybersecurity strategy, policies, and regulatory frameworks. The Ministry of Industry and Advanced Technology appears focused on industrial and technological sector issues, with no direct mention in national cybersecurity laws, strategies, or council memberships relevant to cyber governance, response, or enforcement. Therefore, while the Ministry may engage in industry-related advanced technology initiatives, its role in cybersecurity governance is minimal or indirect at best.</t>
+          <t>The Ministry of Education, Culture and Science (OCW) in the Netherlands is responsible for integrating cybersecurity into the national education curriculum, particularly at the primary and secondary levels, as well as for mandating cybersecurity as a mandatory part of the curriculum at secondary vocational education (MBO)[5]. The ministry is explicitly mentioned in national strategies and government communications as being responsible for ensuring that digital skills, including cybersecurity, are part of the curriculum and for preparing students and teachers to be aware of cyber risks and measures[3][5]. However, the ministry is not responsible for the overall national cybersecurity policy, technical coordination, or incident response, which are led by the Ministry of Justice and Security and the National Cyber Security Centre (NCSC)[1][4]. The ministry's role is focused on education and awareness, rather than on the broader governance, prevention, planning, response, or enforcement of cybersecurity at the national level[3][5].</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8559,14 +8560,14 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>[{'url': 'https://www.integrated-cyber.com/uae-framework', 'title': 'UAE Cybersecurity Federal Decree | Integrated Cyber', 'snippet': 'Purpose: To provide legal protection against cyber threats, safeguard individuals and organizations from cybercrimes, and regulate online activities to ensure ...', 'date': '2016-01-01', 'last_updated': '2025-10-31', 'matched': True}, {'url': 'https://uaebusinessconsultant.com/uae-cybersecurity-law-2024-essential-tips-to-prevent-cybercrime/', 'title': 'UAE Cybersecurity Law 2024', 'snippet': "It further seeks to protect the UAE's government websites and databases, combat the spread of rumours and fake news, safeguard against ...", 'date': '2024-06-03', 'last_updated': '2025-10-15', 'matched': True}, {'url': 'https://www.weforum.org/stories/2025/06/uae-securing-cyberspace/', 'title': 'Developing a national cybersecurity strategy for the UAE', 'snippet': "The UAE's national cybersecurity uses a public-private-people partnership model involving government, industry and society collaboration.", 'date': '2025-06-20', 'last_updated': '2025-10-27', 'matched': True}, {'url': 'https://jsis.washington.edu/news/cybersecurity-profile-2025-united-arab-emirates/', 'title': 'Cybersecurity Profile 2025: United Arab Emirates (UAE)', 'snippet': 'The UAE has a sophisticated cybersecurity policy framework driven by national security priorities. The Cyber Security Council, Signals ...', 'date': '2025-04-25', 'last_updated': '2025-09-21', 'matched': True}, {'url': 'https://u.ae/en/information-and-services/justice-safety-and-the-law/cyber-safety-and-digital-security', 'title': 'Cyber safety and digital security | The Official Platform of the UAE ...', 'snippet': "It further seeks to protect the UAE's government websites and databases, combat the spread of rumours and f